--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12330"/>
+    <workbookView windowWidth="25200" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="Doing" sheetId="1" r:id="rId1"/>
@@ -345,10 +345,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -855,7 +855,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -864,10 +864,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -876,7 +876,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1392,10 +1392,10 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="5.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
@@ -1409,7 +1409,7 @@
     <col min="11" max="20" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:20">
+    <row r="1" ht="15.75" spans="1:20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.5" spans="1:20">
+    <row r="2" customFormat="1" ht="15.75" spans="1:20">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -1508,7 +1508,7 @@
       <c r="L2" s="12">
         <v>45465</v>
       </c>
-      <c r="M2" s="18">
+      <c r="M2" s="12">
         <v>45514</v>
       </c>
       <c r="N2" s="16"/>
@@ -1519,7 +1519,7 @@
       <c r="S2" s="16"/>
       <c r="T2" s="16"/>
     </row>
-    <row r="3" ht="15.5" spans="1:20">
+    <row r="3" ht="15.75" spans="1:20">
       <c r="A3" s="5" t="s">
         <v>20</v>
       </c>
@@ -1571,7 +1571,7 @@
       <c r="S3" s="16"/>
       <c r="T3" s="16"/>
     </row>
-    <row r="9" ht="15.5" spans="1:9">
+    <row r="9" ht="15.75" spans="1:9">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -1582,7 +1582,7 @@
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
     </row>
-    <row r="10" ht="15.5" spans="1:9">
+    <row r="10" ht="15.75" spans="1:9">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -1593,7 +1593,7 @@
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" ht="17.5" spans="2:13">
+    <row r="11" ht="18.75" spans="2:13">
       <c r="B11" s="23" t="s">
         <v>36</v>
       </c>
@@ -1609,7 +1609,7 @@
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
     </row>
-    <row r="12" ht="17.5" spans="2:13">
+    <row r="12" ht="18.75" spans="2:13">
       <c r="B12" s="23"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -1623,7 +1623,7 @@
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
     </row>
-    <row r="13" ht="17.5" spans="2:12">
+    <row r="13" ht="18.75" spans="2:12">
       <c r="B13" s="23"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -1635,7 +1635,7 @@
       <c r="K13" s="24"/>
       <c r="L13" s="24"/>
     </row>
-    <row r="14" ht="17.5" spans="2:13">
+    <row r="14" ht="18.75" spans="2:13">
       <c r="B14" s="23"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -1648,7 +1648,7 @@
       <c r="L14" s="24"/>
       <c r="M14" s="24"/>
     </row>
-    <row r="15" ht="17.5" spans="2:13">
+    <row r="15" ht="18.75" spans="2:13">
       <c r="B15" s="23"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -1681,7 +1681,7 @@
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="4.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
@@ -1696,7 +1696,7 @@
     <col min="22" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:21">
+    <row r="1" ht="15.75" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.5" spans="1:21">
+    <row r="2" customFormat="1" ht="15.75" spans="1:21">
       <c r="A2" s="4" t="s">
         <v>38</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15.5" spans="1:19">
+    <row r="3" customFormat="1" ht="15.75" spans="1:19">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.5" spans="1:11">
+    <row r="4" customFormat="1" ht="15.75" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>38</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15.5" spans="1:20">
+    <row r="5" customFormat="1" ht="15.75" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>38</v>
       </c>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" customFormat="1" ht="15.5" spans="1:20">
+    <row r="6" customFormat="1" ht="15.75" spans="1:20">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.5" spans="1:20">
+    <row r="7" customFormat="1" ht="15.75" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
@@ -2129,7 +2129,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" customFormat="1" ht="15.5" spans="1:20">
+    <row r="9" customFormat="1" ht="15.75" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>38</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.5" spans="1:20">
+    <row r="10" customFormat="1" ht="15.75" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2233,7 +2233,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15.5" spans="1:20">
+    <row r="11" customFormat="1" ht="15.75" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2275,7 +2275,7 @@
         <v>45445</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15.5" spans="1:20">
+    <row r="12" customFormat="1" ht="15.75" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2299,7 +2299,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" customFormat="1" ht="15.5" spans="1:20">
+    <row r="13" customFormat="1" ht="15.75" spans="1:20">
       <c r="A13" s="4" t="s">
         <v>38</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="15.5" spans="1:20">
+    <row r="14" customFormat="1" ht="15.75" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2385,7 +2385,7 @@
       <c r="S14" s="16"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" customFormat="1" ht="15.5" spans="1:20">
+    <row r="15" customFormat="1" ht="15.75" spans="1:20">
       <c r="A15" s="5" t="s">
         <v>38</v>
       </c>
@@ -2441,7 +2441,7 @@
       <c r="S15" s="16"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" customFormat="1" ht="15.5" spans="1:20">
+    <row r="16" customFormat="1" ht="15.75" spans="1:20">
       <c r="A16" s="5" t="s">
         <v>38</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="15.5" spans="1:20">
+    <row r="17" customFormat="1" ht="15.75" spans="1:20">
       <c r="A17" s="4" t="s">
         <v>38</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="15.5" spans="1:20">
+    <row r="18" customFormat="1" ht="15.75" spans="1:20">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2597,7 +2597,7 @@
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
     </row>
-    <row r="19" customFormat="1" ht="15.5" spans="1:20">
+    <row r="19" customFormat="1" ht="15.75" spans="1:20">
       <c r="A19" s="4" t="s">
         <v>38</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>45451</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="15.5" spans="1:20">
+    <row r="20" customFormat="1" ht="15.75" spans="1:20">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -2691,7 +2691,7 @@
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
     </row>
-    <row r="21" customFormat="1" ht="15.5" spans="1:20">
+    <row r="21" customFormat="1" ht="15.75" spans="1:20">
       <c r="A21" s="4" t="s">
         <v>38</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="15.5" spans="1:20">
+    <row r="22" customFormat="1" ht="15.75" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -2795,7 +2795,7 @@
         <v>45423</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15.5" spans="1:20">
+    <row r="23" customFormat="1" ht="15.75" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -2827,7 +2827,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" customFormat="1" ht="15.5" spans="1:20">
+    <row r="24" customFormat="1" ht="15.75" spans="1:20">
       <c r="A24" s="4" t="s">
         <v>38</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>45325</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="15.5" spans="1:20">
+    <row r="25" customFormat="1" ht="15.75" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -2931,7 +2931,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15.5" spans="1:20">
+    <row r="26" s="1" customFormat="1" ht="15.75" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -2969,7 +2969,7 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="27" customFormat="1" ht="15.5" spans="1:20">
+    <row r="27" customFormat="1" ht="15.75" spans="1:20">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -2991,7 +2991,7 @@
       <c r="S27" s="21"/>
       <c r="T27" s="21"/>
     </row>
-    <row r="28" customFormat="1" ht="15.5" spans="1:20">
+    <row r="28" customFormat="1" ht="15.75" spans="1:20">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -3013,7 +3013,7 @@
       <c r="S28" s="21"/>
       <c r="T28" s="21"/>
     </row>
-    <row r="29" customFormat="1" ht="15.5" spans="1:20">
+    <row r="29" customFormat="1" ht="15.75" spans="1:20">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -3035,7 +3035,7 @@
       <c r="S29" s="21"/>
       <c r="T29" s="21"/>
     </row>
-    <row r="30" customFormat="1" ht="15.5" spans="1:20">
+    <row r="30" customFormat="1" ht="15.75" spans="1:20">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -3057,7 +3057,7 @@
       <c r="S30" s="21"/>
       <c r="T30" s="21"/>
     </row>
-    <row r="31" customFormat="1" ht="15.5" spans="1:20">
+    <row r="31" customFormat="1" ht="15.75" spans="1:20">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -3079,7 +3079,7 @@
       <c r="S31" s="21"/>
       <c r="T31" s="21"/>
     </row>
-    <row r="32" customFormat="1" ht="15.5" spans="1:20">
+    <row r="32" customFormat="1" ht="15.75" spans="1:20">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -3101,7 +3101,7 @@
       <c r="S32" s="21"/>
       <c r="T32" s="21"/>
     </row>
-    <row r="33" customFormat="1" ht="15.5" spans="1:20">
+    <row r="33" customFormat="1" ht="15.75" spans="1:20">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3123,7 +3123,7 @@
       <c r="S33" s="21"/>
       <c r="T33" s="21"/>
     </row>
-    <row r="34" customFormat="1" ht="15.5" spans="1:20">
+    <row r="34" customFormat="1" ht="15.75" spans="1:20">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -3145,7 +3145,7 @@
       <c r="S34" s="21"/>
       <c r="T34" s="21"/>
     </row>
-    <row r="35" customFormat="1" ht="15.5" spans="1:20">
+    <row r="35" customFormat="1" ht="15.75" spans="1:20">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -3167,7 +3167,7 @@
       <c r="S35" s="21"/>
       <c r="T35" s="21"/>
     </row>
-    <row r="36" customFormat="1" ht="15.5" spans="1:20">
+    <row r="36" customFormat="1" ht="15.75" spans="1:20">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="12090"/>
+    <workbookView windowWidth="25600" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Doing" sheetId="1" r:id="rId1"/>
@@ -345,10 +345,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -855,7 +855,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -864,10 +864,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -876,7 +876,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1392,10 +1392,10 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="5.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
@@ -1409,7 +1409,7 @@
     <col min="11" max="20" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:20">
+    <row r="1" ht="15.5" spans="1:20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.75" spans="1:20">
+    <row r="2" customFormat="1" ht="15.5" spans="1:20">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -1511,7 +1511,9 @@
       <c r="M2" s="12">
         <v>45514</v>
       </c>
-      <c r="N2" s="16"/>
+      <c r="N2" s="16">
+        <v>45527</v>
+      </c>
       <c r="O2" s="16"/>
       <c r="P2" s="16"/>
       <c r="Q2" s="16"/>
@@ -1519,7 +1521,7 @@
       <c r="S2" s="16"/>
       <c r="T2" s="16"/>
     </row>
-    <row r="3" ht="15.75" spans="1:20">
+    <row r="3" ht="15.5" spans="1:20">
       <c r="A3" s="5" t="s">
         <v>20</v>
       </c>
@@ -1571,7 +1573,7 @@
       <c r="S3" s="16"/>
       <c r="T3" s="16"/>
     </row>
-    <row r="9" ht="15.75" spans="1:9">
+    <row r="9" ht="15.5" spans="1:9">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -1582,7 +1584,7 @@
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
     </row>
-    <row r="10" ht="15.75" spans="1:9">
+    <row r="10" ht="15.5" spans="1:9">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -1593,7 +1595,7 @@
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" ht="18.75" spans="2:13">
+    <row r="11" ht="17.5" spans="2:13">
       <c r="B11" s="23" t="s">
         <v>36</v>
       </c>
@@ -1609,7 +1611,7 @@
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
     </row>
-    <row r="12" ht="18.75" spans="2:13">
+    <row r="12" ht="17.5" spans="2:13">
       <c r="B12" s="23"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -1623,7 +1625,7 @@
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
     </row>
-    <row r="13" ht="18.75" spans="2:12">
+    <row r="13" ht="17.5" spans="2:12">
       <c r="B13" s="23"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -1635,7 +1637,7 @@
       <c r="K13" s="24"/>
       <c r="L13" s="24"/>
     </row>
-    <row r="14" ht="18.75" spans="2:13">
+    <row r="14" ht="17.5" spans="2:13">
       <c r="B14" s="23"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -1648,7 +1650,7 @@
       <c r="L14" s="24"/>
       <c r="M14" s="24"/>
     </row>
-    <row r="15" ht="18.75" spans="2:13">
+    <row r="15" ht="17.5" spans="2:13">
       <c r="B15" s="23"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -1681,7 +1683,7 @@
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="4.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
@@ -1696,7 +1698,7 @@
     <col min="22" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:21">
+    <row r="1" ht="15.5" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1761,7 +1763,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.75" spans="1:21">
+    <row r="2" customFormat="1" ht="15.5" spans="1:21">
       <c r="A2" s="4" t="s">
         <v>38</v>
       </c>
@@ -1826,7 +1828,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15.75" spans="1:19">
+    <row r="3" customFormat="1" ht="15.5" spans="1:19">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
@@ -1885,7 +1887,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.75" spans="1:11">
+    <row r="4" customFormat="1" ht="15.5" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>38</v>
       </c>
@@ -1920,7 +1922,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15.75" spans="1:20">
+    <row r="5" customFormat="1" ht="15.5" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>38</v>
       </c>
@@ -1980,7 +1982,7 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" customFormat="1" ht="15.75" spans="1:20">
+    <row r="6" customFormat="1" ht="15.5" spans="1:20">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -2042,7 +2044,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.75" spans="1:20">
+    <row r="7" customFormat="1" ht="15.5" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
@@ -2129,7 +2131,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" customFormat="1" ht="15.75" spans="1:20">
+    <row r="9" customFormat="1" ht="15.5" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>38</v>
       </c>
@@ -2191,7 +2193,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.75" spans="1:20">
+    <row r="10" customFormat="1" ht="15.5" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2233,7 +2235,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15.75" spans="1:20">
+    <row r="11" customFormat="1" ht="15.5" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2275,7 +2277,7 @@
         <v>45445</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15.75" spans="1:20">
+    <row r="12" customFormat="1" ht="15.5" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2299,7 +2301,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" customFormat="1" ht="15.75" spans="1:20">
+    <row r="13" customFormat="1" ht="15.5" spans="1:20">
       <c r="A13" s="4" t="s">
         <v>38</v>
       </c>
@@ -2361,7 +2363,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="15.75" spans="1:20">
+    <row r="14" customFormat="1" ht="15.5" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2385,7 +2387,7 @@
       <c r="S14" s="16"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" customFormat="1" ht="15.75" spans="1:20">
+    <row r="15" customFormat="1" ht="15.5" spans="1:20">
       <c r="A15" s="5" t="s">
         <v>38</v>
       </c>
@@ -2441,7 +2443,7 @@
       <c r="S15" s="16"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" customFormat="1" ht="15.75" spans="1:20">
+    <row r="16" customFormat="1" ht="15.5" spans="1:20">
       <c r="A16" s="5" t="s">
         <v>38</v>
       </c>
@@ -2503,7 +2505,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="15.75" spans="1:20">
+    <row r="17" customFormat="1" ht="15.5" spans="1:20">
       <c r="A17" s="4" t="s">
         <v>38</v>
       </c>
@@ -2565,7 +2567,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="15.75" spans="1:20">
+    <row r="18" customFormat="1" ht="15.5" spans="1:20">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2597,7 +2599,7 @@
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
     </row>
-    <row r="19" customFormat="1" ht="15.75" spans="1:20">
+    <row r="19" customFormat="1" ht="15.5" spans="1:20">
       <c r="A19" s="4" t="s">
         <v>38</v>
       </c>
@@ -2659,7 +2661,7 @@
         <v>45451</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="15.75" spans="1:20">
+    <row r="20" customFormat="1" ht="15.5" spans="1:20">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -2691,7 +2693,7 @@
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
     </row>
-    <row r="21" customFormat="1" ht="15.75" spans="1:20">
+    <row r="21" customFormat="1" ht="15.5" spans="1:20">
       <c r="A21" s="4" t="s">
         <v>38</v>
       </c>
@@ -2753,7 +2755,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="15.75" spans="1:20">
+    <row r="22" customFormat="1" ht="15.5" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -2795,7 +2797,7 @@
         <v>45423</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15.75" spans="1:20">
+    <row r="23" customFormat="1" ht="15.5" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -2827,7 +2829,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" customFormat="1" ht="15.75" spans="1:20">
+    <row r="24" customFormat="1" ht="15.5" spans="1:20">
       <c r="A24" s="4" t="s">
         <v>38</v>
       </c>
@@ -2889,7 +2891,7 @@
         <v>45325</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="15.75" spans="1:20">
+    <row r="25" customFormat="1" ht="15.5" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -2931,7 +2933,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15.75" spans="1:20">
+    <row r="26" s="1" customFormat="1" ht="15.5" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -2969,7 +2971,7 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="27" customFormat="1" ht="15.75" spans="1:20">
+    <row r="27" customFormat="1" ht="15.5" spans="1:20">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -2991,7 +2993,7 @@
       <c r="S27" s="21"/>
       <c r="T27" s="21"/>
     </row>
-    <row r="28" customFormat="1" ht="15.75" spans="1:20">
+    <row r="28" customFormat="1" ht="15.5" spans="1:20">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -3013,7 +3015,7 @@
       <c r="S28" s="21"/>
       <c r="T28" s="21"/>
     </row>
-    <row r="29" customFormat="1" ht="15.75" spans="1:20">
+    <row r="29" customFormat="1" ht="15.5" spans="1:20">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -3035,7 +3037,7 @@
       <c r="S29" s="21"/>
       <c r="T29" s="21"/>
     </row>
-    <row r="30" customFormat="1" ht="15.75" spans="1:20">
+    <row r="30" customFormat="1" ht="15.5" spans="1:20">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -3057,7 +3059,7 @@
       <c r="S30" s="21"/>
       <c r="T30" s="21"/>
     </row>
-    <row r="31" customFormat="1" ht="15.75" spans="1:20">
+    <row r="31" customFormat="1" ht="15.5" spans="1:20">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -3079,7 +3081,7 @@
       <c r="S31" s="21"/>
       <c r="T31" s="21"/>
     </row>
-    <row r="32" customFormat="1" ht="15.75" spans="1:20">
+    <row r="32" customFormat="1" ht="15.5" spans="1:20">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -3101,7 +3103,7 @@
       <c r="S32" s="21"/>
       <c r="T32" s="21"/>
     </row>
-    <row r="33" customFormat="1" ht="15.75" spans="1:20">
+    <row r="33" customFormat="1" ht="15.5" spans="1:20">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3123,7 +3125,7 @@
       <c r="S33" s="21"/>
       <c r="T33" s="21"/>
     </row>
-    <row r="34" customFormat="1" ht="15.75" spans="1:20">
+    <row r="34" customFormat="1" ht="15.5" spans="1:20">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -3145,7 +3147,7 @@
       <c r="S34" s="21"/>
       <c r="T34" s="21"/>
     </row>
-    <row r="35" customFormat="1" ht="15.75" spans="1:20">
+    <row r="35" customFormat="1" ht="15.5" spans="1:20">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -3167,7 +3169,7 @@
       <c r="S35" s="21"/>
       <c r="T35" s="21"/>
     </row>
-    <row r="36" customFormat="1" ht="15.75" spans="1:20">
+    <row r="36" customFormat="1" ht="15.5" spans="1:20">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12330"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Doing" sheetId="1" r:id="rId1"/>
@@ -345,10 +345,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -855,7 +855,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -864,10 +864,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -876,7 +876,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1392,10 +1392,10 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="5.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
@@ -1409,7 +1409,7 @@
     <col min="11" max="20" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:20">
+    <row r="1" ht="15.75" spans="1:20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.5" spans="1:20">
+    <row r="2" customFormat="1" ht="15.75" spans="1:20">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -1511,7 +1511,7 @@
       <c r="M2" s="12">
         <v>45514</v>
       </c>
-      <c r="N2" s="16">
+      <c r="N2" s="12">
         <v>45527</v>
       </c>
       <c r="O2" s="16"/>
@@ -1521,7 +1521,7 @@
       <c r="S2" s="16"/>
       <c r="T2" s="16"/>
     </row>
-    <row r="3" ht="15.5" spans="1:20">
+    <row r="3" ht="15.75" spans="1:20">
       <c r="A3" s="5" t="s">
         <v>20</v>
       </c>
@@ -1573,7 +1573,7 @@
       <c r="S3" s="16"/>
       <c r="T3" s="16"/>
     </row>
-    <row r="9" ht="15.5" spans="1:9">
+    <row r="9" ht="15.75" spans="1:9">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -1584,7 +1584,7 @@
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
     </row>
-    <row r="10" ht="15.5" spans="1:9">
+    <row r="10" ht="15.75" spans="1:9">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -1595,7 +1595,7 @@
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" ht="17.5" spans="2:13">
+    <row r="11" ht="18.75" spans="2:13">
       <c r="B11" s="23" t="s">
         <v>36</v>
       </c>
@@ -1611,7 +1611,7 @@
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
     </row>
-    <row r="12" ht="17.5" spans="2:13">
+    <row r="12" ht="18.75" spans="2:13">
       <c r="B12" s="23"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -1625,7 +1625,7 @@
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
     </row>
-    <row r="13" ht="17.5" spans="2:12">
+    <row r="13" ht="18.75" spans="2:12">
       <c r="B13" s="23"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -1637,7 +1637,7 @@
       <c r="K13" s="24"/>
       <c r="L13" s="24"/>
     </row>
-    <row r="14" ht="17.5" spans="2:13">
+    <row r="14" ht="18.75" spans="2:13">
       <c r="B14" s="23"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -1650,7 +1650,7 @@
       <c r="L14" s="24"/>
       <c r="M14" s="24"/>
     </row>
-    <row r="15" ht="17.5" spans="2:13">
+    <row r="15" ht="18.75" spans="2:13">
       <c r="B15" s="23"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -1683,7 +1683,7 @@
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="4.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
@@ -1698,7 +1698,7 @@
     <col min="22" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:21">
+    <row r="1" ht="15.75" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.5" spans="1:21">
+    <row r="2" customFormat="1" ht="15.75" spans="1:21">
       <c r="A2" s="4" t="s">
         <v>38</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15.5" spans="1:19">
+    <row r="3" customFormat="1" ht="15.75" spans="1:19">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.5" spans="1:11">
+    <row r="4" customFormat="1" ht="15.75" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>38</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15.5" spans="1:20">
+    <row r="5" customFormat="1" ht="15.75" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>38</v>
       </c>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" customFormat="1" ht="15.5" spans="1:20">
+    <row r="6" customFormat="1" ht="15.75" spans="1:20">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.5" spans="1:20">
+    <row r="7" customFormat="1" ht="15.75" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
@@ -2131,7 +2131,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" customFormat="1" ht="15.5" spans="1:20">
+    <row r="9" customFormat="1" ht="15.75" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>38</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.5" spans="1:20">
+    <row r="10" customFormat="1" ht="15.75" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2235,7 +2235,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15.5" spans="1:20">
+    <row r="11" customFormat="1" ht="15.75" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2277,7 +2277,7 @@
         <v>45445</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15.5" spans="1:20">
+    <row r="12" customFormat="1" ht="15.75" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2301,7 +2301,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" customFormat="1" ht="15.5" spans="1:20">
+    <row r="13" customFormat="1" ht="15.75" spans="1:20">
       <c r="A13" s="4" t="s">
         <v>38</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="15.5" spans="1:20">
+    <row r="14" customFormat="1" ht="15.75" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2387,7 +2387,7 @@
       <c r="S14" s="16"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" customFormat="1" ht="15.5" spans="1:20">
+    <row r="15" customFormat="1" ht="15.75" spans="1:20">
       <c r="A15" s="5" t="s">
         <v>38</v>
       </c>
@@ -2443,7 +2443,7 @@
       <c r="S15" s="16"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" customFormat="1" ht="15.5" spans="1:20">
+    <row r="16" customFormat="1" ht="15.75" spans="1:20">
       <c r="A16" s="5" t="s">
         <v>38</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="15.5" spans="1:20">
+    <row r="17" customFormat="1" ht="15.75" spans="1:20">
       <c r="A17" s="4" t="s">
         <v>38</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="15.5" spans="1:20">
+    <row r="18" customFormat="1" ht="15.75" spans="1:20">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2599,7 +2599,7 @@
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
     </row>
-    <row r="19" customFormat="1" ht="15.5" spans="1:20">
+    <row r="19" customFormat="1" ht="15.75" spans="1:20">
       <c r="A19" s="4" t="s">
         <v>38</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>45451</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="15.5" spans="1:20">
+    <row r="20" customFormat="1" ht="15.75" spans="1:20">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -2693,7 +2693,7 @@
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
     </row>
-    <row r="21" customFormat="1" ht="15.5" spans="1:20">
+    <row r="21" customFormat="1" ht="15.75" spans="1:20">
       <c r="A21" s="4" t="s">
         <v>38</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="15.5" spans="1:20">
+    <row r="22" customFormat="1" ht="15.75" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -2797,7 +2797,7 @@
         <v>45423</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15.5" spans="1:20">
+    <row r="23" customFormat="1" ht="15.75" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -2829,7 +2829,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" customFormat="1" ht="15.5" spans="1:20">
+    <row r="24" customFormat="1" ht="15.75" spans="1:20">
       <c r="A24" s="4" t="s">
         <v>38</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>45325</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="15.5" spans="1:20">
+    <row r="25" customFormat="1" ht="15.75" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -2933,7 +2933,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15.5" spans="1:20">
+    <row r="26" s="1" customFormat="1" ht="15.75" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -2971,7 +2971,7 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="27" customFormat="1" ht="15.5" spans="1:20">
+    <row r="27" customFormat="1" ht="15.75" spans="1:20">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -2993,7 +2993,7 @@
       <c r="S27" s="21"/>
       <c r="T27" s="21"/>
     </row>
-    <row r="28" customFormat="1" ht="15.5" spans="1:20">
+    <row r="28" customFormat="1" ht="15.75" spans="1:20">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -3015,7 +3015,7 @@
       <c r="S28" s="21"/>
       <c r="T28" s="21"/>
     </row>
-    <row r="29" customFormat="1" ht="15.5" spans="1:20">
+    <row r="29" customFormat="1" ht="15.75" spans="1:20">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -3037,7 +3037,7 @@
       <c r="S29" s="21"/>
       <c r="T29" s="21"/>
     </row>
-    <row r="30" customFormat="1" ht="15.5" spans="1:20">
+    <row r="30" customFormat="1" ht="15.75" spans="1:20">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -3059,7 +3059,7 @@
       <c r="S30" s="21"/>
       <c r="T30" s="21"/>
     </row>
-    <row r="31" customFormat="1" ht="15.5" spans="1:20">
+    <row r="31" customFormat="1" ht="15.75" spans="1:20">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -3081,7 +3081,7 @@
       <c r="S31" s="21"/>
       <c r="T31" s="21"/>
     </row>
-    <row r="32" customFormat="1" ht="15.5" spans="1:20">
+    <row r="32" customFormat="1" ht="15.75" spans="1:20">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -3103,7 +3103,7 @@
       <c r="S32" s="21"/>
       <c r="T32" s="21"/>
     </row>
-    <row r="33" customFormat="1" ht="15.5" spans="1:20">
+    <row r="33" customFormat="1" ht="15.75" spans="1:20">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3125,7 +3125,7 @@
       <c r="S33" s="21"/>
       <c r="T33" s="21"/>
     </row>
-    <row r="34" customFormat="1" ht="15.5" spans="1:20">
+    <row r="34" customFormat="1" ht="15.75" spans="1:20">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -3147,7 +3147,7 @@
       <c r="S34" s="21"/>
       <c r="T34" s="21"/>
     </row>
-    <row r="35" customFormat="1" ht="15.5" spans="1:20">
+    <row r="35" customFormat="1" ht="15.75" spans="1:20">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -3169,7 +3169,7 @@
       <c r="S35" s="21"/>
       <c r="T35" s="21"/>
     </row>
-    <row r="36" customFormat="1" ht="15.5" spans="1:20">
+    <row r="36" customFormat="1" ht="15.75" spans="1:20">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="117">
   <si>
     <t>年级</t>
   </si>
@@ -77,84 +77,117 @@
     <t>第10课</t>
   </si>
   <si>
+    <t>初三</t>
+  </si>
+  <si>
+    <t>物理</t>
+  </si>
+  <si>
+    <t>一尔优教育</t>
+  </si>
+  <si>
+    <t>240/2h</t>
+  </si>
+  <si>
+    <t>周六12：00-14：00</t>
+  </si>
+  <si>
+    <t>张佳宁</t>
+  </si>
+  <si>
+    <t>耳鼻喉科专科医院旁巷子201室</t>
+  </si>
+  <si>
+    <t>一中</t>
+  </si>
+  <si>
+    <t>85/100</t>
+  </si>
+  <si>
+    <t>豌豆文化</t>
+  </si>
+  <si>
+    <t>周六17：10-19：10</t>
+  </si>
+  <si>
+    <t>孙朝(zhao)阳</t>
+  </si>
+  <si>
+    <t>天章大厦</t>
+  </si>
+  <si>
+    <t>兵一</t>
+  </si>
+  <si>
+    <t>60/100</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>数学</t>
+  </si>
+  <si>
+    <t>掌学教育</t>
+  </si>
+  <si>
+    <t>220/2h</t>
+  </si>
+  <si>
+    <t>周日17：00-19：00</t>
+  </si>
+  <si>
+    <t>孙翊原</t>
+  </si>
+  <si>
+    <t>卫生巷88号 6-1-403</t>
+  </si>
+  <si>
+    <t>70/100</t>
+  </si>
+  <si>
+    <t>初一</t>
+  </si>
+  <si>
+    <t>周日19：30-21：30</t>
+  </si>
+  <si>
+    <t>朱思臣</t>
+  </si>
+  <si>
+    <t>新民路29号 3-201</t>
+  </si>
+  <si>
+    <t>98/100</t>
+  </si>
+  <si>
+    <t>转账时间(绿色表示课时费已发)：一尔优当月1号和15号；豌豆文化下月10号；
+博瑞佰艺下月10号；掌学教育和精锐教育都是下月15号
+下次考试目标：孙朝阳：70，张佳宁：95</t>
+  </si>
+  <si>
+    <t>第11课</t>
+  </si>
+  <si>
+    <t>新耀科技</t>
+  </si>
+  <si>
+    <t>180/1.5h</t>
+  </si>
+  <si>
+    <t>周六19：00-20：30</t>
+  </si>
+  <si>
+    <t>宁芮一</t>
+  </si>
+  <si>
+    <t>光明路北小区14-2-503</t>
+  </si>
+  <si>
+    <t>90/150</t>
+  </si>
+  <si>
     <t>初二</t>
-  </si>
-  <si>
-    <t>物理</t>
-  </si>
-  <si>
-    <t>一尔优教育</t>
-  </si>
-  <si>
-    <t>240/2h</t>
-  </si>
-  <si>
-    <t>周六12：00-14：00</t>
-  </si>
-  <si>
-    <t>张佳宁</t>
-  </si>
-  <si>
-    <t>耳鼻喉科专科医院旁巷子201室</t>
-  </si>
-  <si>
-    <t>一中</t>
-  </si>
-  <si>
-    <t>85/100</t>
-  </si>
-  <si>
-    <t>豌豆文化</t>
-  </si>
-  <si>
-    <t>周六17：10-19：10</t>
-  </si>
-  <si>
-    <t>孙朝(zhao)阳</t>
-  </si>
-  <si>
-    <t>天章大厦</t>
-  </si>
-  <si>
-    <t>兵一</t>
-  </si>
-  <si>
-    <t>60/100</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>转账时间(绿色表示课时费已发)：一尔优每月1号和15号；
-豌豆文化每月10号；博瑞佰艺每月10号；
-下次考试目标：孙朝阳：70，张佳宁：95</t>
-  </si>
-  <si>
-    <t>第11课</t>
-  </si>
-  <si>
-    <t>初三</t>
-  </si>
-  <si>
-    <t>数学</t>
-  </si>
-  <si>
-    <t>新耀科技</t>
-  </si>
-  <si>
-    <t>180/1.5h</t>
-  </si>
-  <si>
-    <t>周六19：00-20：30</t>
-  </si>
-  <si>
-    <t>宁芮一</t>
-  </si>
-  <si>
-    <t>光明路北小区14-2-503</t>
-  </si>
-  <si>
-    <t>90/150</t>
   </si>
   <si>
     <t>260/2h</t>
@@ -345,10 +378,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -864,21 +897,21 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1000,7 +1033,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1061,11 +1094,20 @@
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1389,10 +1431,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1400,7 +1442,7 @@
     <col min="1" max="2" width="5.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
     <col min="4" max="4" width="7.41666666666667" customWidth="1"/>
-    <col min="5" max="5" width="22.625" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="12.375" customWidth="1"/>
     <col min="7" max="7" width="28.25" customWidth="1"/>
     <col min="8" max="8" width="9.875" customWidth="1"/>
@@ -1573,46 +1615,108 @@
       <c r="S3" s="16"/>
       <c r="T3" s="16"/>
     </row>
-    <row r="9" ht="15.75" spans="1:9">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
+    <row r="4" ht="15.75" spans="1:20">
+      <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="25">
+        <v>45543</v>
+      </c>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+    </row>
+    <row r="5" ht="15.75" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="25">
+        <v>45543</v>
+      </c>
     </row>
     <row r="10" ht="15.75" spans="1:9">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-    </row>
-    <row r="11" ht="18.75" spans="2:13">
-      <c r="B11" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+    </row>
+    <row r="11" ht="15.75" spans="1:9">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
     </row>
     <row r="12" ht="18.75" spans="2:13">
-      <c r="B12" s="23"/>
+      <c r="B12" s="24" t="s">
+        <v>48</v>
+      </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1620,13 +1724,13 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-    </row>
-    <row r="13" ht="18.75" spans="2:12">
-      <c r="B13" s="23"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+    </row>
+    <row r="13" ht="18.75" spans="2:13">
+      <c r="B13" s="24"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1634,39 +1738,53 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-    </row>
-    <row r="14" ht="18.75" spans="2:13">
-      <c r="B14" s="23"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+    </row>
+    <row r="14" ht="18.75" spans="2:12">
+      <c r="B14" s="24"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
+      <c r="I14" s="8"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
     </row>
     <row r="15" ht="18.75" spans="2:13">
-      <c r="B15" s="23"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+    </row>
+    <row r="16" ht="18.75" spans="2:13">
+      <c r="B16" s="24"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B11:H15"/>
+    <mergeCell ref="B12:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -1760,36 +1878,36 @@
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="15.75" spans="1:21">
       <c r="A2" s="4" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>33</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J2" s="9">
         <v>45185</v>
@@ -1830,31 +1948,31 @@
     </row>
     <row r="3" customFormat="1" ht="15.75" spans="1:19">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>35</v>
@@ -1889,31 +2007,31 @@
     </row>
     <row r="4" customFormat="1" ht="15.75" spans="1:11">
       <c r="A4" s="4" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="J4" s="9">
         <v>45287</v>
@@ -1924,31 +2042,31 @@
     </row>
     <row r="5" customFormat="1" ht="15.75" spans="1:20">
       <c r="A5" s="4" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>33</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>35</v>
@@ -1984,28 +2102,28 @@
     </row>
     <row r="6" customFormat="1" ht="15.75" spans="1:20">
       <c r="A6" s="4" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>34</v>
@@ -2046,31 +2164,31 @@
     </row>
     <row r="7" customFormat="1" ht="15.75" spans="1:20">
       <c r="A7" s="5" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>35</v>
@@ -2092,31 +2210,31 @@
     </row>
     <row r="8" customFormat="1" ht="17" customHeight="1" spans="1:20">
       <c r="A8" s="5" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="H8" s="6">
         <v>126</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="J8" s="14">
         <v>45425</v>
@@ -2133,7 +2251,7 @@
     </row>
     <row r="9" customFormat="1" ht="15.75" spans="1:20">
       <c r="A9" s="4" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>21</v>
@@ -2142,22 +2260,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>33</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J9" s="9">
         <v>45186</v>
@@ -2303,10 +2421,10 @@
     </row>
     <row r="13" customFormat="1" ht="15.75" spans="1:20">
       <c r="A13" s="4" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>22</v>
@@ -2315,19 +2433,19 @@
         <v>23</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J13" s="17" t="s">
         <v>35</v>
@@ -2389,10 +2507,10 @@
     </row>
     <row r="15" customFormat="1" ht="15.75" spans="1:20">
       <c r="A15" s="5" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>22</v>
@@ -2401,19 +2519,19 @@
         <v>23</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>33</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>35</v>
@@ -2445,7 +2563,7 @@
     </row>
     <row r="16" customFormat="1" ht="15.75" spans="1:20">
       <c r="A16" s="5" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>21</v>
@@ -2457,19 +2575,19 @@
         <v>23</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>32</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="J16" s="11" t="s">
         <v>35</v>
@@ -2507,10 +2625,10 @@
     </row>
     <row r="17" customFormat="1" ht="15.75" spans="1:20">
       <c r="A17" s="4" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>29</v>
@@ -2519,19 +2637,19 @@
         <v>23</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="J17" s="17" t="s">
         <v>35</v>
@@ -2601,10 +2719,10 @@
     </row>
     <row r="19" customFormat="1" ht="15.75" spans="1:20">
       <c r="A19" s="4" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>29</v>
@@ -2613,19 +2731,19 @@
         <v>23</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="J19" s="17" t="s">
         <v>35</v>
@@ -2695,10 +2813,10 @@
     </row>
     <row r="21" customFormat="1" ht="15.75" spans="1:20">
       <c r="A21" s="4" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>29</v>
@@ -2707,19 +2825,19 @@
         <v>23</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>35</v>
@@ -2831,31 +2949,31 @@
     </row>
     <row r="24" customFormat="1" ht="15.75" spans="1:20">
       <c r="A24" s="4" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="J24" s="19" t="s">
         <v>35</v>
@@ -3193,7 +3311,7 @@
     </row>
     <row r="37" spans="2:11">
       <c r="B37" s="8" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="25600" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Doing" sheetId="1" r:id="rId1"/>
@@ -378,10 +378,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -888,7 +888,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -897,10 +897,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -909,7 +909,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1103,10 +1103,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1434,10 +1434,10 @@
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="5.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
@@ -1451,7 +1451,7 @@
     <col min="11" max="20" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:20">
+    <row r="1" ht="15.5" spans="1:20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.75" spans="1:20">
+    <row r="2" customFormat="1" ht="15.5" spans="1:20">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -1563,7 +1563,7 @@
       <c r="S2" s="16"/>
       <c r="T2" s="16"/>
     </row>
-    <row r="3" ht="15.75" spans="1:20">
+    <row r="3" ht="15.5" spans="1:20">
       <c r="A3" s="5" t="s">
         <v>20</v>
       </c>
@@ -1615,7 +1615,7 @@
       <c r="S3" s="16"/>
       <c r="T3" s="16"/>
     </row>
-    <row r="4" ht="15.75" spans="1:20">
+    <row r="4" ht="15.5" spans="1:20">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1643,23 +1643,23 @@
       <c r="I4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="17" t="s">
         <v>35</v>
       </c>
       <c r="K4" s="25">
         <v>45543</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
       <c r="P4" s="20"/>
       <c r="Q4" s="20"/>
       <c r="R4" s="20"/>
       <c r="S4" s="20"/>
       <c r="T4" s="20"/>
     </row>
-    <row r="5" ht="15.75" spans="1:10">
+    <row r="5" ht="15.5" spans="1:11">
       <c r="A5" s="5" t="s">
         <v>43</v>
       </c>
@@ -1687,11 +1687,14 @@
       <c r="I5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="26">
         <v>45543</v>
       </c>
-    </row>
-    <row r="10" ht="15.75" spans="1:9">
+      <c r="K5" s="26">
+        <v>45550</v>
+      </c>
+    </row>
+    <row r="10" ht="15.5" spans="1:9">
       <c r="A10" s="23"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
@@ -1702,7 +1705,7 @@
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
     </row>
-    <row r="11" ht="15.75" spans="1:9">
+    <row r="11" ht="15.5" spans="1:9">
       <c r="A11" s="23"/>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
@@ -1713,7 +1716,7 @@
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
     </row>
-    <row r="12" ht="18.75" spans="2:13">
+    <row r="12" ht="17.5" spans="2:13">
       <c r="B12" s="24" t="s">
         <v>48</v>
       </c>
@@ -1729,7 +1732,7 @@
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
     </row>
-    <row r="13" ht="18.75" spans="2:13">
+    <row r="13" ht="17.5" spans="2:13">
       <c r="B13" s="24"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -1743,7 +1746,7 @@
       <c r="L13" s="27"/>
       <c r="M13" s="27"/>
     </row>
-    <row r="14" ht="18.75" spans="2:12">
+    <row r="14" ht="17.5" spans="2:12">
       <c r="B14" s="24"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -1755,7 +1758,7 @@
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
     </row>
-    <row r="15" ht="18.75" spans="2:13">
+    <row r="15" ht="17.5" spans="2:13">
       <c r="B15" s="24"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -1768,7 +1771,7 @@
       <c r="L15" s="27"/>
       <c r="M15" s="27"/>
     </row>
-    <row r="16" ht="18.75" spans="2:13">
+    <row r="16" ht="17.5" spans="2:13">
       <c r="B16" s="24"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -1801,7 +1804,7 @@
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="4.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
@@ -1816,7 +1819,7 @@
     <col min="22" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:21">
+    <row r="1" ht="15.5" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1881,7 +1884,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.75" spans="1:21">
+    <row r="2" customFormat="1" ht="15.5" spans="1:21">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -1946,7 +1949,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15.75" spans="1:19">
+    <row r="3" customFormat="1" ht="15.5" spans="1:19">
       <c r="A3" s="4" t="s">
         <v>56</v>
       </c>
@@ -2005,7 +2008,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.75" spans="1:11">
+    <row r="4" customFormat="1" ht="15.5" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -2040,7 +2043,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15.75" spans="1:20">
+    <row r="5" customFormat="1" ht="15.5" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -2100,7 +2103,7 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" customFormat="1" ht="15.75" spans="1:20">
+    <row r="6" customFormat="1" ht="15.5" spans="1:20">
       <c r="A6" s="4" t="s">
         <v>56</v>
       </c>
@@ -2162,7 +2165,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.75" spans="1:20">
+    <row r="7" customFormat="1" ht="15.5" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -2249,7 +2252,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" customFormat="1" ht="15.75" spans="1:20">
+    <row r="9" customFormat="1" ht="15.5" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -2311,7 +2314,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.75" spans="1:20">
+    <row r="10" customFormat="1" ht="15.5" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2353,7 +2356,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15.75" spans="1:20">
+    <row r="11" customFormat="1" ht="15.5" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2395,7 +2398,7 @@
         <v>45445</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15.75" spans="1:20">
+    <row r="12" customFormat="1" ht="15.5" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2419,7 +2422,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" customFormat="1" ht="15.75" spans="1:20">
+    <row r="13" customFormat="1" ht="15.5" spans="1:20">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -2481,7 +2484,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="15.75" spans="1:20">
+    <row r="14" customFormat="1" ht="15.5" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2505,7 +2508,7 @@
       <c r="S14" s="16"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" customFormat="1" ht="15.75" spans="1:20">
+    <row r="15" customFormat="1" ht="15.5" spans="1:20">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -2561,7 +2564,7 @@
       <c r="S15" s="16"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" customFormat="1" ht="15.75" spans="1:20">
+    <row r="16" customFormat="1" ht="15.5" spans="1:20">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -2623,7 +2626,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="15.75" spans="1:20">
+    <row r="17" customFormat="1" ht="15.5" spans="1:20">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -2685,7 +2688,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="15.75" spans="1:20">
+    <row r="18" customFormat="1" ht="15.5" spans="1:20">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2717,7 +2720,7 @@
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
     </row>
-    <row r="19" customFormat="1" ht="15.75" spans="1:20">
+    <row r="19" customFormat="1" ht="15.5" spans="1:20">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -2779,7 +2782,7 @@
         <v>45451</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="15.75" spans="1:20">
+    <row r="20" customFormat="1" ht="15.5" spans="1:20">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -2811,7 +2814,7 @@
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
     </row>
-    <row r="21" customFormat="1" ht="15.75" spans="1:20">
+    <row r="21" customFormat="1" ht="15.5" spans="1:20">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -2873,7 +2876,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="15.75" spans="1:20">
+    <row r="22" customFormat="1" ht="15.5" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -2915,7 +2918,7 @@
         <v>45423</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15.75" spans="1:20">
+    <row r="23" customFormat="1" ht="15.5" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -2947,7 +2950,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" customFormat="1" ht="15.75" spans="1:20">
+    <row r="24" customFormat="1" ht="15.5" spans="1:20">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
@@ -3009,7 +3012,7 @@
         <v>45325</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="15.75" spans="1:20">
+    <row r="25" customFormat="1" ht="15.5" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3051,7 +3054,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15.75" spans="1:20">
+    <row r="26" s="1" customFormat="1" ht="15.5" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3089,7 +3092,7 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="27" customFormat="1" ht="15.75" spans="1:20">
+    <row r="27" customFormat="1" ht="15.5" spans="1:20">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -3111,7 +3114,7 @@
       <c r="S27" s="21"/>
       <c r="T27" s="21"/>
     </row>
-    <row r="28" customFormat="1" ht="15.75" spans="1:20">
+    <row r="28" customFormat="1" ht="15.5" spans="1:20">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -3133,7 +3136,7 @@
       <c r="S28" s="21"/>
       <c r="T28" s="21"/>
     </row>
-    <row r="29" customFormat="1" ht="15.75" spans="1:20">
+    <row r="29" customFormat="1" ht="15.5" spans="1:20">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -3155,7 +3158,7 @@
       <c r="S29" s="21"/>
       <c r="T29" s="21"/>
     </row>
-    <row r="30" customFormat="1" ht="15.75" spans="1:20">
+    <row r="30" customFormat="1" ht="15.5" spans="1:20">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -3177,7 +3180,7 @@
       <c r="S30" s="21"/>
       <c r="T30" s="21"/>
     </row>
-    <row r="31" customFormat="1" ht="15.75" spans="1:20">
+    <row r="31" customFormat="1" ht="15.5" spans="1:20">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -3199,7 +3202,7 @@
       <c r="S31" s="21"/>
       <c r="T31" s="21"/>
     </row>
-    <row r="32" customFormat="1" ht="15.75" spans="1:20">
+    <row r="32" customFormat="1" ht="15.5" spans="1:20">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -3221,7 +3224,7 @@
       <c r="S32" s="21"/>
       <c r="T32" s="21"/>
     </row>
-    <row r="33" customFormat="1" ht="15.75" spans="1:20">
+    <row r="33" customFormat="1" ht="15.5" spans="1:20">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3243,7 +3246,7 @@
       <c r="S33" s="21"/>
       <c r="T33" s="21"/>
     </row>
-    <row r="34" customFormat="1" ht="15.75" spans="1:20">
+    <row r="34" customFormat="1" ht="15.5" spans="1:20">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -3265,7 +3268,7 @@
       <c r="S34" s="21"/>
       <c r="T34" s="21"/>
     </row>
-    <row r="35" customFormat="1" ht="15.75" spans="1:20">
+    <row r="35" customFormat="1" ht="15.5" spans="1:20">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -3287,7 +3290,7 @@
       <c r="S35" s="21"/>
       <c r="T35" s="21"/>
     </row>
-    <row r="36" customFormat="1" ht="15.75" spans="1:20">
+    <row r="36" customFormat="1" ht="15.5" spans="1:20">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="138">
   <si>
     <t>年级</t>
   </si>
@@ -98,7 +98,7 @@
     <t>耳鼻喉科专科医院旁巷子201室</t>
   </si>
   <si>
-    <t>一中</t>
+    <t>13中</t>
   </si>
   <si>
     <t>85/100</t>
@@ -125,28 +125,97 @@
     <t>/</t>
   </si>
   <si>
+    <t>高一</t>
+  </si>
+  <si>
     <t>数学</t>
   </si>
   <si>
+    <t>300/2h</t>
+  </si>
+  <si>
+    <t>周日15：30-17：30</t>
+  </si>
+  <si>
+    <t>吴雨桐</t>
+  </si>
+  <si>
+    <t>丽园路轩和苑C区 3-2-102</t>
+  </si>
+  <si>
+    <t>60/150</t>
+  </si>
+  <si>
+    <t>450/2h</t>
+  </si>
+  <si>
+    <t>周六16：30-18：30</t>
+  </si>
+  <si>
+    <t>魏子骞</t>
+  </si>
+  <si>
+    <t>幸福路48号二建小区 9-2-302</t>
+  </si>
+  <si>
+    <t>70/100</t>
+  </si>
+  <si>
+    <t>星期天培训</t>
+  </si>
+  <si>
+    <t>220/2h</t>
+  </si>
+  <si>
+    <t>周六21：00-23：00</t>
+  </si>
+  <si>
+    <t>李梦媛</t>
+  </si>
+  <si>
+    <t>铁路局16街晟和家园3号楼2203室</t>
+  </si>
+  <si>
+    <t>70中</t>
+  </si>
+  <si>
+    <t>30/100</t>
+  </si>
+  <si>
+    <t>270/2h</t>
+  </si>
+  <si>
+    <t>周日11：00-13：00</t>
+  </si>
+  <si>
+    <t>刘桐语</t>
+  </si>
+  <si>
+    <t>莲湖路196号博香苑小区6-2-1001</t>
+  </si>
+  <si>
+    <t>126中学</t>
+  </si>
+  <si>
+    <t>130/150</t>
+  </si>
+  <si>
+    <t>精锐教育</t>
+  </si>
+  <si>
+    <t>周日17：00-19：00</t>
+  </si>
+  <si>
+    <t>孙翊原</t>
+  </si>
+  <si>
+    <t>卫生巷88号 6-1-403</t>
+  </si>
+  <si>
+    <t>初一</t>
+  </si>
+  <si>
     <t>掌学教育</t>
-  </si>
-  <si>
-    <t>220/2h</t>
-  </si>
-  <si>
-    <t>周日17：00-19：00</t>
-  </si>
-  <si>
-    <t>孙翊原</t>
-  </si>
-  <si>
-    <t>卫生巷88号 6-1-403</t>
-  </si>
-  <si>
-    <t>70/100</t>
-  </si>
-  <si>
-    <t>初一</t>
   </si>
   <si>
     <t>周日19：30-21：30</t>
@@ -244,9 +313,6 @@
     <t>德泽园三区1-1-202</t>
   </si>
   <si>
-    <t>126中学</t>
-  </si>
-  <si>
     <t>周日18：00-20：00</t>
   </si>
   <si>
@@ -293,9 +359,6 @@
   </si>
   <si>
     <t>邮区中心局小区3-4-602</t>
-  </si>
-  <si>
-    <t>13中</t>
   </si>
   <si>
     <t>李冰惠</t>
@@ -1094,19 +1157,17 @@
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1431,10 +1492,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1444,7 +1505,7 @@
     <col min="4" max="4" width="7.41666666666667" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="28.25" customWidth="1"/>
+    <col min="7" max="7" width="30.4166666666667" customWidth="1"/>
     <col min="8" max="8" width="9.875" customWidth="1"/>
     <col min="9" max="9" width="9.125" customWidth="1"/>
     <col min="10" max="10" width="8.41666666666667" customWidth="1"/>
@@ -1591,7 +1652,7 @@
       <c r="I3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="12" t="s">
         <v>35</v>
       </c>
       <c r="K3" s="12">
@@ -1615,15 +1676,15 @@
       <c r="S3" s="16"/>
       <c r="T3" s="16"/>
     </row>
-    <row r="4" ht="15.5" spans="1:20">
+    <row r="4" customFormat="1" ht="15.5" spans="1:20">
       <c r="A4" s="5" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>38</v>
@@ -1637,135 +1698,288 @@
       <c r="G4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="H4" s="5"/>
       <c r="I4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="12" t="s">
         <v>35</v>
       </c>
       <c r="K4" s="25">
-        <v>45543</v>
-      </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-    </row>
-    <row r="5" ht="15.5" spans="1:11">
+        <v>45551</v>
+      </c>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+    </row>
+    <row r="5" customFormat="1" ht="15.5" spans="1:20">
       <c r="A5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>33</v>
+      <c r="H5" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="12">
+        <v>45460</v>
+      </c>
+      <c r="L5" s="12">
+        <v>45465</v>
+      </c>
+      <c r="M5" s="12">
+        <v>45514</v>
+      </c>
+      <c r="N5" s="12">
+        <v>45527</v>
+      </c>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+    </row>
+    <row r="6" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="25">
+        <v>45551</v>
+      </c>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+    </row>
+    <row r="7" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="12">
+        <v>45551</v>
+      </c>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+    </row>
+    <row r="8" ht="15.5" spans="1:20">
+      <c r="A8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="12">
+        <v>45551</v>
+      </c>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+    </row>
+    <row r="9" ht="15.5" spans="1:20">
+      <c r="A9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="26">
         <v>45543</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K9" s="25">
         <v>45550</v>
       </c>
-    </row>
-    <row r="10" ht="15.5" spans="1:9">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-    </row>
-    <row r="11" ht="15.5" spans="1:9">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-    </row>
-    <row r="12" ht="17.5" spans="2:13">
-      <c r="B12" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-    </row>
-    <row r="13" ht="17.5" spans="2:13">
-      <c r="B13" s="24"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-    </row>
-    <row r="14" ht="17.5" spans="2:12">
-      <c r="B14" s="24"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+    </row>
+    <row r="10" s="22" customFormat="1" ht="15.5"/>
+    <row r="11" s="22" customFormat="1" ht="15.5"/>
+    <row r="12" s="22" customFormat="1" ht="15.5"/>
+    <row r="13" s="22" customFormat="1" ht="15.5" spans="1:9">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+    </row>
+    <row r="14" s="22" customFormat="1" ht="15.5" spans="1:9">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
     </row>
     <row r="15" ht="17.5" spans="2:13">
-      <c r="B15" s="24"/>
+      <c r="B15" s="24" t="s">
+        <v>71</v>
+      </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
@@ -1785,9 +1999,48 @@
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
     </row>
+    <row r="17" ht="17.5" spans="2:12">
+      <c r="B17" s="24"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+    </row>
+    <row r="18" ht="17.5" spans="2:13">
+      <c r="B18" s="24"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+    </row>
+    <row r="19" ht="17.5" spans="2:13">
+      <c r="B19" s="24"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B12:H16"/>
+    <mergeCell ref="B15:H19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -1881,7 +2134,7 @@
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="15.5" spans="1:21">
@@ -1889,28 +2142,28 @@
         <v>20</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>33</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="J2" s="9">
         <v>45185</v>
@@ -1951,31 +2204,31 @@
     </row>
     <row r="3" customFormat="1" ht="15.5" spans="1:19">
       <c r="A3" s="4" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>35</v>
@@ -2013,28 +2266,28 @@
         <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="J4" s="9">
         <v>45287</v>
@@ -2048,28 +2301,28 @@
         <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>33</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>35</v>
@@ -2105,28 +2358,28 @@
     </row>
     <row r="6" customFormat="1" ht="15.5" spans="1:20">
       <c r="A6" s="4" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>34</v>
@@ -2170,28 +2423,28 @@
         <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>35</v>
@@ -2216,28 +2469,28 @@
         <v>20</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="H8" s="6">
         <v>126</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="J8" s="14">
         <v>45425</v>
@@ -2263,22 +2516,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>33</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="J9" s="9">
         <v>45186</v>
@@ -2427,7 +2680,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>22</v>
@@ -2436,19 +2689,19 @@
         <v>23</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="J13" s="17" t="s">
         <v>35</v>
@@ -2513,7 +2766,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>22</v>
@@ -2522,19 +2775,19 @@
         <v>23</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>33</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>35</v>
@@ -2578,19 +2831,19 @@
         <v>23</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>32</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="J16" s="11" t="s">
         <v>35</v>
@@ -2631,7 +2884,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>29</v>
@@ -2640,19 +2893,19 @@
         <v>23</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="J17" s="17" t="s">
         <v>35</v>
@@ -2725,7 +2978,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>29</v>
@@ -2734,19 +2987,19 @@
         <v>23</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="J19" s="17" t="s">
         <v>35</v>
@@ -2819,7 +3072,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>29</v>
@@ -2828,19 +3081,19 @@
         <v>23</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>35</v>
@@ -2955,28 +3208,28 @@
         <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="J24" s="19" t="s">
         <v>35</v>
@@ -3314,7 +3567,7 @@
     </row>
     <row r="37" spans="2:11">
       <c r="B37" s="8" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12330"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Doing" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="143">
   <si>
     <t>年级</t>
   </si>
@@ -125,13 +125,118 @@
     <t>/</t>
   </si>
   <si>
+    <t>数学</t>
+  </si>
+  <si>
+    <t>周六15：30-17：30</t>
+  </si>
+  <si>
+    <t>唐总儿子</t>
+  </si>
+  <si>
+    <t>马料地街</t>
+  </si>
+  <si>
+    <t>80/100</t>
+  </si>
+  <si>
+    <t>450/2h</t>
+  </si>
+  <si>
+    <t>周六18：30-20：30</t>
+  </si>
+  <si>
+    <t>魏子骞</t>
+  </si>
+  <si>
+    <t>幸福路48号二建小区 9-2-302</t>
+  </si>
+  <si>
+    <t>70/100</t>
+  </si>
+  <si>
+    <t>星期天培训</t>
+  </si>
+  <si>
+    <t>周六21：20-23：20</t>
+  </si>
+  <si>
+    <t>李梦媛</t>
+  </si>
+  <si>
+    <t>南纬一路144号晟和家园 3-2203</t>
+  </si>
+  <si>
+    <t>70中</t>
+  </si>
+  <si>
+    <t>30/100</t>
+  </si>
+  <si>
+    <t>270/2h</t>
+  </si>
+  <si>
+    <t>周日11：00-13：00</t>
+  </si>
+  <si>
+    <t>刘桐语</t>
+  </si>
+  <si>
+    <t>莲湖路196号博香苑小区 6-2-1001</t>
+  </si>
+  <si>
+    <t>126中学</t>
+  </si>
+  <si>
+    <t>130/150</t>
+  </si>
+  <si>
+    <t>周日14：00-16：00</t>
+  </si>
+  <si>
+    <t>刘桐语同学</t>
+  </si>
+  <si>
+    <t>莲湖路196号博香苑小区6-2-1001</t>
+  </si>
+  <si>
+    <t>精锐教育</t>
+  </si>
+  <si>
+    <t>220/2h</t>
+  </si>
+  <si>
+    <t>周日17：00-19：00</t>
+  </si>
+  <si>
+    <t>孙翊原</t>
+  </si>
+  <si>
+    <t>卫生巷88号 6-1-403</t>
+  </si>
+  <si>
+    <t>初一</t>
+  </si>
+  <si>
+    <t>掌学教育</t>
+  </si>
+  <si>
+    <t>周日19：30-21：30</t>
+  </si>
+  <si>
+    <t>朱思臣</t>
+  </si>
+  <si>
+    <t>新民路29号 3-201</t>
+  </si>
+  <si>
+    <t>98/100</t>
+  </si>
+  <si>
     <t>高一</t>
   </si>
   <si>
-    <t>数学</t>
-  </si>
-  <si>
-    <t>300/2h</t>
+    <t>320/2h</t>
   </si>
   <si>
     <t>周日15：30-17：30</t>
@@ -144,90 +249,6 @@
   </si>
   <si>
     <t>60/150</t>
-  </si>
-  <si>
-    <t>450/2h</t>
-  </si>
-  <si>
-    <t>周六16：30-18：30</t>
-  </si>
-  <si>
-    <t>魏子骞</t>
-  </si>
-  <si>
-    <t>幸福路48号二建小区 9-2-302</t>
-  </si>
-  <si>
-    <t>70/100</t>
-  </si>
-  <si>
-    <t>星期天培训</t>
-  </si>
-  <si>
-    <t>220/2h</t>
-  </si>
-  <si>
-    <t>周六21：00-23：00</t>
-  </si>
-  <si>
-    <t>李梦媛</t>
-  </si>
-  <si>
-    <t>铁路局16街晟和家园3号楼2203室</t>
-  </si>
-  <si>
-    <t>70中</t>
-  </si>
-  <si>
-    <t>30/100</t>
-  </si>
-  <si>
-    <t>270/2h</t>
-  </si>
-  <si>
-    <t>周日11：00-13：00</t>
-  </si>
-  <si>
-    <t>刘桐语</t>
-  </si>
-  <si>
-    <t>莲湖路196号博香苑小区6-2-1001</t>
-  </si>
-  <si>
-    <t>126中学</t>
-  </si>
-  <si>
-    <t>130/150</t>
-  </si>
-  <si>
-    <t>精锐教育</t>
-  </si>
-  <si>
-    <t>周日17：00-19：00</t>
-  </si>
-  <si>
-    <t>孙翊原</t>
-  </si>
-  <si>
-    <t>卫生巷88号 6-1-403</t>
-  </si>
-  <si>
-    <t>初一</t>
-  </si>
-  <si>
-    <t>掌学教育</t>
-  </si>
-  <si>
-    <t>周日19：30-21：30</t>
-  </si>
-  <si>
-    <t>朱思臣</t>
-  </si>
-  <si>
-    <t>新民路29号 3-201</t>
-  </si>
-  <si>
-    <t>98/100</t>
   </si>
   <si>
     <t>转账时间(绿色表示课时费已发)：一尔优当月1号和15号；豌豆文化下月10号；
@@ -262,9 +283,6 @@
     <t>260/2h</t>
   </si>
   <si>
-    <t>周六15：30-17：30</t>
-  </si>
-  <si>
     <t>双胞胎</t>
   </si>
   <si>
@@ -272,9 +290,6 @@
   </si>
   <si>
     <t>12中</t>
-  </si>
-  <si>
-    <t>80/100</t>
   </si>
   <si>
     <t>优师帮</t>
@@ -441,10 +456,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -951,7 +966,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -960,10 +975,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -972,7 +987,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1096,7 +1111,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1163,12 +1178,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1492,27 +1501,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="5.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
     <col min="4" max="4" width="7.41666666666667" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="30.4166666666667" customWidth="1"/>
+    <col min="7" max="7" width="31.125" customWidth="1"/>
     <col min="8" max="8" width="9.875" customWidth="1"/>
     <col min="9" max="9" width="9.125" customWidth="1"/>
     <col min="10" max="10" width="8.41666666666667" customWidth="1"/>
     <col min="11" max="20" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:20">
+    <row r="1" ht="15.75" spans="1:20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1574,7 +1583,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.5" spans="1:20">
+    <row r="2" customFormat="1" ht="15.75" spans="1:20">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -1624,7 +1633,7 @@
       <c r="S2" s="16"/>
       <c r="T2" s="16"/>
     </row>
-    <row r="3" ht="15.5" spans="1:20">
+    <row r="3" ht="15.75" spans="1:20">
       <c r="A3" s="5" t="s">
         <v>20</v>
       </c>
@@ -1676,38 +1685,36 @@
       <c r="S3" s="16"/>
       <c r="T3" s="16"/>
     </row>
-    <row r="4" customFormat="1" ht="15.5" spans="1:20">
+    <row r="4" customFormat="1" ht="15.75" spans="1:20">
       <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="25">
-        <v>45551</v>
-      </c>
+      <c r="K4" s="20"/>
       <c r="L4" s="22"/>
       <c r="M4" s="22"/>
       <c r="N4" s="22"/>
@@ -1718,7 +1725,7 @@
       <c r="S4" s="22"/>
       <c r="T4" s="22"/>
     </row>
-    <row r="5" customFormat="1" ht="15.5" spans="1:20">
+    <row r="5" customFormat="1" ht="15.75" spans="1:20">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1729,22 +1736,22 @@
         <v>35</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>35</v>
@@ -1768,7 +1775,7 @@
       <c r="S5" s="16"/>
       <c r="T5" s="16"/>
     </row>
-    <row r="6" customFormat="1" ht="15.5" spans="1:20">
+    <row r="6" customFormat="1" ht="15.75" spans="1:20">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
@@ -1776,30 +1783,30 @@
         <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="20">
         <v>45551</v>
       </c>
       <c r="L6" s="22"/>
@@ -1812,33 +1819,33 @@
       <c r="S6" s="22"/>
       <c r="T6" s="22"/>
     </row>
-    <row r="7" customFormat="1" ht="15.5" spans="1:20">
+    <row r="7" customFormat="1" ht="15.75" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>35</v>
@@ -1856,151 +1863,209 @@
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
     </row>
-    <row r="8" ht="15.5" spans="1:20">
+    <row r="8" customFormat="1" ht="15.75" spans="1:20">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="12">
-        <v>45551</v>
-      </c>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-    </row>
-    <row r="9" ht="15.5" spans="1:20">
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+    </row>
+    <row r="9" ht="15.75" spans="1:20">
       <c r="A9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>33</v>
       </c>
       <c r="I9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="12">
+        <v>45551</v>
+      </c>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+    </row>
+    <row r="10" ht="15.75" spans="1:20">
+      <c r="A10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J9" s="26">
+      <c r="H10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="9">
         <v>45543</v>
       </c>
-      <c r="K9" s="25">
+      <c r="K10" s="20">
         <v>45550</v>
       </c>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-    </row>
-    <row r="10" s="22" customFormat="1" ht="15.5"/>
-    <row r="11" s="22" customFormat="1" ht="15.5"/>
-    <row r="12" s="22" customFormat="1" ht="15.5"/>
-    <row r="13" s="22" customFormat="1" ht="15.5" spans="1:9">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-    </row>
-    <row r="14" s="22" customFormat="1" ht="15.5" spans="1:9">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-    </row>
-    <row r="15" ht="17.5" spans="2:13">
-      <c r="B15" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-    </row>
-    <row r="16" ht="17.5" spans="2:13">
-      <c r="B16" s="24"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-    </row>
-    <row r="17" ht="17.5" spans="2:12">
-      <c r="B17" s="24"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+    </row>
+    <row r="11" customFormat="1" ht="15.75" spans="1:20">
+      <c r="A11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="20">
+        <v>45551</v>
+      </c>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+    </row>
+    <row r="12" s="22" customFormat="1" ht="15.75"/>
+    <row r="13" s="22" customFormat="1" ht="15.75"/>
+    <row r="14" s="22" customFormat="1" ht="15.75"/>
+    <row r="15" s="22" customFormat="1" ht="15.75" spans="1:9">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+    </row>
+    <row r="16" s="22" customFormat="1" ht="15.75" spans="1:9">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" ht="18.75" spans="2:13">
+      <c r="B17" s="24" t="s">
+        <v>78</v>
+      </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -2008,10 +2073,12 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-    </row>
-    <row r="18" ht="17.5" spans="2:13">
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+    </row>
+    <row r="18" ht="18.75" spans="2:13">
       <c r="B18" s="24"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -2019,12 +2086,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-    </row>
-    <row r="19" ht="17.5" spans="2:13">
+      <c r="I18" s="8"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+    </row>
+    <row r="19" ht="18.75" spans="2:12">
       <c r="B19" s="24"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -2033,14 +2101,39 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+    </row>
+    <row r="20" ht="18.75" spans="2:13">
+      <c r="B20" s="24"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+    </row>
+    <row r="21" ht="18.75" spans="2:13">
+      <c r="B21" s="24"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B15:H19"/>
+    <mergeCell ref="B17:H21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -2057,7 +2150,7 @@
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="4.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
@@ -2072,7 +2165,7 @@
     <col min="22" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:21">
+    <row r="1" ht="15.75" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2134,36 +2227,36 @@
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" customFormat="1" ht="15.5" spans="1:21">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="15.75" spans="1:21">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>33</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J2" s="9">
         <v>45185</v>
@@ -2202,33 +2295,33 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15.5" spans="1:19">
+    <row r="3" customFormat="1" ht="15.75" spans="1:19">
       <c r="A3" s="4" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>35</v>
@@ -2261,33 +2354,33 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.5" spans="1:11">
+    <row r="4" customFormat="1" ht="15.75" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J4" s="9">
         <v>45287</v>
@@ -2296,33 +2389,33 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15.5" spans="1:20">
+    <row r="5" customFormat="1" ht="15.75" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>33</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>35</v>
@@ -2356,30 +2449,30 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" customFormat="1" ht="15.5" spans="1:20">
+    <row r="6" customFormat="1" ht="15.75" spans="1:20">
       <c r="A6" s="4" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>34</v>
@@ -2418,33 +2511,33 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.5" spans="1:20">
+    <row r="7" customFormat="1" ht="15.75" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>35</v>
@@ -2469,28 +2562,28 @@
         <v>20</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H8" s="6">
         <v>126</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="J8" s="14">
         <v>45425</v>
@@ -2505,7 +2598,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" customFormat="1" ht="15.5" spans="1:20">
+    <row r="9" customFormat="1" ht="15.75" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -2516,22 +2609,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>33</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="J9" s="9">
         <v>45186</v>
@@ -2567,7 +2660,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.5" spans="1:20">
+    <row r="10" customFormat="1" ht="15.75" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2609,7 +2702,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15.5" spans="1:20">
+    <row r="11" customFormat="1" ht="15.75" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2651,7 +2744,7 @@
         <v>45445</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15.5" spans="1:20">
+    <row r="12" customFormat="1" ht="15.75" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2675,12 +2768,12 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" customFormat="1" ht="15.5" spans="1:20">
+    <row r="13" customFormat="1" ht="15.75" spans="1:20">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>22</v>
@@ -2689,19 +2782,19 @@
         <v>23</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J13" s="17" t="s">
         <v>35</v>
@@ -2737,7 +2830,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="15.5" spans="1:20">
+    <row r="14" customFormat="1" ht="15.75" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2761,12 +2854,12 @@
       <c r="S14" s="16"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" customFormat="1" ht="15.5" spans="1:20">
+    <row r="15" customFormat="1" ht="15.75" spans="1:20">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>22</v>
@@ -2775,19 +2868,19 @@
         <v>23</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>33</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>35</v>
@@ -2817,7 +2910,7 @@
       <c r="S15" s="16"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" customFormat="1" ht="15.5" spans="1:20">
+    <row r="16" customFormat="1" ht="15.75" spans="1:20">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -2831,19 +2924,19 @@
         <v>23</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>32</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="J16" s="11" t="s">
         <v>35</v>
@@ -2879,12 +2972,12 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="15.5" spans="1:20">
+    <row r="17" customFormat="1" ht="15.75" spans="1:20">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>29</v>
@@ -2893,19 +2986,19 @@
         <v>23</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J17" s="17" t="s">
         <v>35</v>
@@ -2941,7 +3034,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="15.5" spans="1:20">
+    <row r="18" customFormat="1" ht="15.75" spans="1:20">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2973,12 +3066,12 @@
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
     </row>
-    <row r="19" customFormat="1" ht="15.5" spans="1:20">
+    <row r="19" customFormat="1" ht="15.75" spans="1:20">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>29</v>
@@ -2987,19 +3080,19 @@
         <v>23</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="J19" s="17" t="s">
         <v>35</v>
@@ -3035,7 +3128,7 @@
         <v>45451</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="15.5" spans="1:20">
+    <row r="20" customFormat="1" ht="15.75" spans="1:20">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3067,12 +3160,12 @@
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
     </row>
-    <row r="21" customFormat="1" ht="15.5" spans="1:20">
+    <row r="21" customFormat="1" ht="15.75" spans="1:20">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>29</v>
@@ -3081,19 +3174,19 @@
         <v>23</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>35</v>
@@ -3129,7 +3222,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="15.5" spans="1:20">
+    <row r="22" customFormat="1" ht="15.75" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3171,7 +3264,7 @@
         <v>45423</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15.5" spans="1:20">
+    <row r="23" customFormat="1" ht="15.75" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3203,33 +3296,33 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" customFormat="1" ht="15.5" spans="1:20">
+    <row r="24" customFormat="1" ht="15.75" spans="1:20">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="J24" s="19" t="s">
         <v>35</v>
@@ -3265,7 +3358,7 @@
         <v>45325</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="15.5" spans="1:20">
+    <row r="25" customFormat="1" ht="15.75" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3307,7 +3400,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15.5" spans="1:20">
+    <row r="26" s="1" customFormat="1" ht="15.75" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3345,7 +3438,7 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="27" customFormat="1" ht="15.5" spans="1:20">
+    <row r="27" customFormat="1" ht="15.75" spans="1:20">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -3367,7 +3460,7 @@
       <c r="S27" s="21"/>
       <c r="T27" s="21"/>
     </row>
-    <row r="28" customFormat="1" ht="15.5" spans="1:20">
+    <row r="28" customFormat="1" ht="15.75" spans="1:20">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -3389,7 +3482,7 @@
       <c r="S28" s="21"/>
       <c r="T28" s="21"/>
     </row>
-    <row r="29" customFormat="1" ht="15.5" spans="1:20">
+    <row r="29" customFormat="1" ht="15.75" spans="1:20">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -3411,7 +3504,7 @@
       <c r="S29" s="21"/>
       <c r="T29" s="21"/>
     </row>
-    <row r="30" customFormat="1" ht="15.5" spans="1:20">
+    <row r="30" customFormat="1" ht="15.75" spans="1:20">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -3433,7 +3526,7 @@
       <c r="S30" s="21"/>
       <c r="T30" s="21"/>
     </row>
-    <row r="31" customFormat="1" ht="15.5" spans="1:20">
+    <row r="31" customFormat="1" ht="15.75" spans="1:20">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -3455,7 +3548,7 @@
       <c r="S31" s="21"/>
       <c r="T31" s="21"/>
     </row>
-    <row r="32" customFormat="1" ht="15.5" spans="1:20">
+    <row r="32" customFormat="1" ht="15.75" spans="1:20">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -3477,7 +3570,7 @@
       <c r="S32" s="21"/>
       <c r="T32" s="21"/>
     </row>
-    <row r="33" customFormat="1" ht="15.5" spans="1:20">
+    <row r="33" customFormat="1" ht="15.75" spans="1:20">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3499,7 +3592,7 @@
       <c r="S33" s="21"/>
       <c r="T33" s="21"/>
     </row>
-    <row r="34" customFormat="1" ht="15.5" spans="1:20">
+    <row r="34" customFormat="1" ht="15.75" spans="1:20">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -3521,7 +3614,7 @@
       <c r="S34" s="21"/>
       <c r="T34" s="21"/>
     </row>
-    <row r="35" customFormat="1" ht="15.5" spans="1:20">
+    <row r="35" customFormat="1" ht="15.75" spans="1:20">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -3543,7 +3636,7 @@
       <c r="S35" s="21"/>
       <c r="T35" s="21"/>
     </row>
-    <row r="36" customFormat="1" ht="15.5" spans="1:20">
+    <row r="36" customFormat="1" ht="15.75" spans="1:20">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -3567,7 +3660,7 @@
     </row>
     <row r="37" spans="2:11">
       <c r="B37" s="8" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="25600" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Doing" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="144">
   <si>
     <t>年级</t>
   </si>
@@ -131,13 +131,13 @@
     <t>周六15：30-17：30</t>
   </si>
   <si>
-    <t>唐总儿子</t>
-  </si>
-  <si>
-    <t>马料地街</t>
-  </si>
-  <si>
-    <t>80/100</t>
+    <t>唐润宁</t>
+  </si>
+  <si>
+    <t>西山东街261号 华美·博奥小区 7-3-401</t>
+  </si>
+  <si>
+    <t>13中分校</t>
   </si>
   <si>
     <t>450/2h</t>
@@ -194,7 +194,7 @@
     <t>周日14：00-16：00</t>
   </si>
   <si>
-    <t>刘桐语同学</t>
+    <t>贾梦垚</t>
   </si>
   <si>
     <t>莲湖路196号博香苑小区6-2-1001</t>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>12中</t>
+  </si>
+  <si>
+    <t>80/100</t>
   </si>
   <si>
     <t>优师帮</t>
@@ -456,10 +459,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -966,7 +969,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -975,10 +978,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -987,7 +990,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1504,24 +1507,24 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="5.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
     <col min="4" max="4" width="7.41666666666667" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="31.125" customWidth="1"/>
+    <col min="7" max="7" width="35" customWidth="1"/>
     <col min="8" max="8" width="9.875" customWidth="1"/>
     <col min="9" max="9" width="9.125" customWidth="1"/>
     <col min="10" max="10" width="8.41666666666667" customWidth="1"/>
     <col min="11" max="20" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:20">
+    <row r="1" ht="15.5" spans="1:20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1583,7 +1586,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.75" spans="1:20">
+    <row r="2" customFormat="1" ht="15.5" spans="1:20">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -1633,7 +1636,7 @@
       <c r="S2" s="16"/>
       <c r="T2" s="16"/>
     </row>
-    <row r="3" ht="15.75" spans="1:20">
+    <row r="3" ht="15.5" spans="1:20">
       <c r="A3" s="5" t="s">
         <v>20</v>
       </c>
@@ -1685,7 +1688,7 @@
       <c r="S3" s="16"/>
       <c r="T3" s="16"/>
     </row>
-    <row r="4" customFormat="1" ht="15.75" spans="1:20">
+    <row r="4" customFormat="1" ht="15.5" spans="1:20">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1707,9 +1710,11 @@
       <c r="G4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="I4" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>35</v>
@@ -1725,7 +1730,7 @@
       <c r="S4" s="22"/>
       <c r="T4" s="22"/>
     </row>
-    <row r="5" customFormat="1" ht="15.75" spans="1:20">
+    <row r="5" customFormat="1" ht="15.5" spans="1:20">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1775,7 +1780,7 @@
       <c r="S5" s="16"/>
       <c r="T5" s="16"/>
     </row>
-    <row r="6" customFormat="1" ht="15.75" spans="1:20">
+    <row r="6" customFormat="1" ht="15.5" spans="1:20">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
@@ -1809,7 +1814,9 @@
       <c r="K6" s="20">
         <v>45551</v>
       </c>
-      <c r="L6" s="22"/>
+      <c r="L6" s="20">
+        <v>45556</v>
+      </c>
       <c r="M6" s="22"/>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
@@ -1819,7 +1826,7 @@
       <c r="S6" s="22"/>
       <c r="T6" s="22"/>
     </row>
-    <row r="7" customFormat="1" ht="15.75" spans="1:20">
+    <row r="7" customFormat="1" ht="15.5" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -1863,7 +1870,7 @@
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
     </row>
-    <row r="8" customFormat="1" ht="15.75" spans="1:20">
+    <row r="8" customFormat="1" ht="15.5" spans="1:20">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
@@ -1905,7 +1912,7 @@
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
     </row>
-    <row r="9" ht="15.75" spans="1:20">
+    <row r="9" ht="15.5" spans="1:20">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
@@ -1937,7 +1944,7 @@
         <v>35</v>
       </c>
       <c r="K9" s="12">
-        <v>45551</v>
+        <v>45543</v>
       </c>
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
@@ -1949,7 +1956,7 @@
       <c r="S9" s="20"/>
       <c r="T9" s="20"/>
     </row>
-    <row r="10" ht="15.75" spans="1:20">
+    <row r="10" ht="15.5" spans="1:20">
       <c r="A10" s="5" t="s">
         <v>66</v>
       </c>
@@ -1993,7 +2000,7 @@
       <c r="S10" s="22"/>
       <c r="T10" s="22"/>
     </row>
-    <row r="11" customFormat="1" ht="15.75" spans="1:20">
+    <row r="11" customFormat="1" ht="15.5" spans="1:20">
       <c r="A11" s="5" t="s">
         <v>72</v>
       </c>
@@ -2037,10 +2044,10 @@
       <c r="S11" s="22"/>
       <c r="T11" s="22"/>
     </row>
-    <row r="12" s="22" customFormat="1" ht="15.75"/>
-    <row r="13" s="22" customFormat="1" ht="15.75"/>
-    <row r="14" s="22" customFormat="1" ht="15.75"/>
-    <row r="15" s="22" customFormat="1" ht="15.75" spans="1:9">
+    <row r="12" s="22" customFormat="1" ht="15.5"/>
+    <row r="13" s="22" customFormat="1" ht="15.5"/>
+    <row r="14" s="22" customFormat="1" ht="15.5"/>
+    <row r="15" s="22" customFormat="1" ht="15.5" spans="1:9">
       <c r="A15" s="23"/>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
@@ -2051,7 +2058,7 @@
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
     </row>
-    <row r="16" s="22" customFormat="1" ht="15.75" spans="1:9">
+    <row r="16" s="22" customFormat="1" ht="15.5" spans="1:9">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
@@ -2062,7 +2069,7 @@
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" ht="18.75" spans="2:13">
+    <row r="17" ht="17.5" spans="2:13">
       <c r="B17" s="24" t="s">
         <v>78</v>
       </c>
@@ -2078,7 +2085,7 @@
       <c r="L17" s="25"/>
       <c r="M17" s="25"/>
     </row>
-    <row r="18" ht="18.75" spans="2:13">
+    <row r="18" ht="17.5" spans="2:13">
       <c r="B18" s="24"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -2092,7 +2099,7 @@
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
     </row>
-    <row r="19" ht="18.75" spans="2:12">
+    <row r="19" ht="17.5" spans="2:12">
       <c r="B19" s="24"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -2104,7 +2111,7 @@
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
     </row>
-    <row r="20" ht="18.75" spans="2:13">
+    <row r="20" ht="17.5" spans="2:13">
       <c r="B20" s="24"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -2117,7 +2124,7 @@
       <c r="L20" s="25"/>
       <c r="M20" s="25"/>
     </row>
-    <row r="21" ht="18.75" spans="2:13">
+    <row r="21" ht="17.5" spans="2:13">
       <c r="B21" s="24"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2150,7 +2157,7 @@
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="4.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
@@ -2165,7 +2172,7 @@
     <col min="22" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:21">
+    <row r="1" ht="15.5" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2230,7 +2237,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.75" spans="1:21">
+    <row r="2" customFormat="1" ht="15.5" spans="1:21">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -2295,7 +2302,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15.75" spans="1:19">
+    <row r="3" customFormat="1" ht="15.5" spans="1:19">
       <c r="A3" s="4" t="s">
         <v>86</v>
       </c>
@@ -2321,7 +2328,7 @@
         <v>90</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>35</v>
@@ -2354,7 +2361,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.75" spans="1:11">
+    <row r="4" customFormat="1" ht="15.5" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -2362,25 +2369,25 @@
         <v>36</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J4" s="9">
         <v>45287</v>
@@ -2389,7 +2396,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15.75" spans="1:20">
+    <row r="5" customFormat="1" ht="15.5" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -2397,10 +2404,10 @@
         <v>36</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>82</v>
@@ -2449,7 +2456,7 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" customFormat="1" ht="15.75" spans="1:20">
+    <row r="6" customFormat="1" ht="15.5" spans="1:20">
       <c r="A6" s="4" t="s">
         <v>86</v>
       </c>
@@ -2457,19 +2464,19 @@
         <v>36</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>81</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>56</v>
@@ -2511,7 +2518,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.75" spans="1:20">
+    <row r="7" customFormat="1" ht="15.5" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -2525,19 +2532,19 @@
         <v>87</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>56</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>35</v>
@@ -2565,25 +2572,25 @@
         <v>36</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H8" s="6">
         <v>126</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J8" s="14">
         <v>45425</v>
@@ -2598,7 +2605,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" customFormat="1" ht="15.75" spans="1:20">
+    <row r="9" customFormat="1" ht="15.5" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -2609,22 +2616,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>33</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J9" s="9">
         <v>45186</v>
@@ -2660,7 +2667,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.75" spans="1:20">
+    <row r="10" customFormat="1" ht="15.5" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2702,7 +2709,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15.75" spans="1:20">
+    <row r="11" customFormat="1" ht="15.5" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2744,7 +2751,7 @@
         <v>45445</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15.75" spans="1:20">
+    <row r="12" customFormat="1" ht="15.5" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2768,7 +2775,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" customFormat="1" ht="15.75" spans="1:20">
+    <row r="13" customFormat="1" ht="15.5" spans="1:20">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -2782,13 +2789,13 @@
         <v>23</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>27</v>
@@ -2830,7 +2837,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="15.75" spans="1:20">
+    <row r="14" customFormat="1" ht="15.5" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2854,7 +2861,7 @@
       <c r="S14" s="16"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" customFormat="1" ht="15.75" spans="1:20">
+    <row r="15" customFormat="1" ht="15.5" spans="1:20">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -2868,19 +2875,19 @@
         <v>23</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>33</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>35</v>
@@ -2910,7 +2917,7 @@
       <c r="S15" s="16"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" customFormat="1" ht="15.75" spans="1:20">
+    <row r="16" customFormat="1" ht="15.5" spans="1:20">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -2924,19 +2931,19 @@
         <v>23</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>32</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J16" s="11" t="s">
         <v>35</v>
@@ -2972,7 +2979,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="15.75" spans="1:20">
+    <row r="17" customFormat="1" ht="15.5" spans="1:20">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -2986,19 +2993,19 @@
         <v>23</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J17" s="17" t="s">
         <v>35</v>
@@ -3034,7 +3041,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="15.75" spans="1:20">
+    <row r="18" customFormat="1" ht="15.5" spans="1:20">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -3066,7 +3073,7 @@
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
     </row>
-    <row r="19" customFormat="1" ht="15.75" spans="1:20">
+    <row r="19" customFormat="1" ht="15.5" spans="1:20">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -3080,19 +3087,19 @@
         <v>23</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J19" s="17" t="s">
         <v>35</v>
@@ -3128,7 +3135,7 @@
         <v>45451</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="15.75" spans="1:20">
+    <row r="20" customFormat="1" ht="15.5" spans="1:20">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3160,7 +3167,7 @@
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
     </row>
-    <row r="21" customFormat="1" ht="15.75" spans="1:20">
+    <row r="21" customFormat="1" ht="15.5" spans="1:20">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -3174,19 +3181,19 @@
         <v>23</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>35</v>
@@ -3222,7 +3229,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="15.75" spans="1:20">
+    <row r="22" customFormat="1" ht="15.5" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3264,7 +3271,7 @@
         <v>45423</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15.75" spans="1:20">
+    <row r="23" customFormat="1" ht="15.5" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3296,7 +3303,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" customFormat="1" ht="15.75" spans="1:20">
+    <row r="24" customFormat="1" ht="15.5" spans="1:20">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
@@ -3304,25 +3311,25 @@
         <v>36</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J24" s="19" t="s">
         <v>35</v>
@@ -3358,7 +3365,7 @@
         <v>45325</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="15.75" spans="1:20">
+    <row r="25" customFormat="1" ht="15.5" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3400,7 +3407,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15.75" spans="1:20">
+    <row r="26" s="1" customFormat="1" ht="15.5" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3438,7 +3445,7 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="27" customFormat="1" ht="15.75" spans="1:20">
+    <row r="27" customFormat="1" ht="15.5" spans="1:20">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -3460,7 +3467,7 @@
       <c r="S27" s="21"/>
       <c r="T27" s="21"/>
     </row>
-    <row r="28" customFormat="1" ht="15.75" spans="1:20">
+    <row r="28" customFormat="1" ht="15.5" spans="1:20">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -3482,7 +3489,7 @@
       <c r="S28" s="21"/>
       <c r="T28" s="21"/>
     </row>
-    <row r="29" customFormat="1" ht="15.75" spans="1:20">
+    <row r="29" customFormat="1" ht="15.5" spans="1:20">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -3504,7 +3511,7 @@
       <c r="S29" s="21"/>
       <c r="T29" s="21"/>
     </row>
-    <row r="30" customFormat="1" ht="15.75" spans="1:20">
+    <row r="30" customFormat="1" ht="15.5" spans="1:20">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -3526,7 +3533,7 @@
       <c r="S30" s="21"/>
       <c r="T30" s="21"/>
     </row>
-    <row r="31" customFormat="1" ht="15.75" spans="1:20">
+    <row r="31" customFormat="1" ht="15.5" spans="1:20">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -3548,7 +3555,7 @@
       <c r="S31" s="21"/>
       <c r="T31" s="21"/>
     </row>
-    <row r="32" customFormat="1" ht="15.75" spans="1:20">
+    <row r="32" customFormat="1" ht="15.5" spans="1:20">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -3570,7 +3577,7 @@
       <c r="S32" s="21"/>
       <c r="T32" s="21"/>
     </row>
-    <row r="33" customFormat="1" ht="15.75" spans="1:20">
+    <row r="33" customFormat="1" ht="15.5" spans="1:20">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3592,7 +3599,7 @@
       <c r="S33" s="21"/>
       <c r="T33" s="21"/>
     </row>
-    <row r="34" customFormat="1" ht="15.75" spans="1:20">
+    <row r="34" customFormat="1" ht="15.5" spans="1:20">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -3614,7 +3621,7 @@
       <c r="S34" s="21"/>
       <c r="T34" s="21"/>
     </row>
-    <row r="35" customFormat="1" ht="15.75" spans="1:20">
+    <row r="35" customFormat="1" ht="15.5" spans="1:20">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -3636,7 +3643,7 @@
       <c r="S35" s="21"/>
       <c r="T35" s="21"/>
     </row>
-    <row r="36" customFormat="1" ht="15.75" spans="1:20">
+    <row r="36" customFormat="1" ht="15.5" spans="1:20">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -3660,7 +3667,7 @@
     </row>
     <row r="37" spans="2:11">
       <c r="B37" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -1114,7 +1114,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1182,6 +1182,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1507,7 +1514,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1762,18 +1769,12 @@
         <v>35</v>
       </c>
       <c r="K5" s="12">
-        <v>45460</v>
-      </c>
-      <c r="L5" s="12">
-        <v>45465</v>
-      </c>
-      <c r="M5" s="12">
-        <v>45514</v>
-      </c>
-      <c r="N5" s="12">
-        <v>45527</v>
-      </c>
-      <c r="O5" s="16"/>
+        <v>45552</v>
+      </c>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="26"/>
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
@@ -1860,11 +1861,13 @@
       <c r="K7" s="12">
         <v>45551</v>
       </c>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
+      <c r="L7" s="9">
+        <v>45557</v>
+      </c>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
@@ -1901,8 +1904,9 @@
       <c r="J8" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
+      <c r="K8" s="20">
+        <v>45557</v>
+      </c>
       <c r="M8" s="22"/>
       <c r="N8" s="22"/>
       <c r="O8" s="22"/>
@@ -1990,7 +1994,9 @@
       <c r="K10" s="20">
         <v>45550</v>
       </c>
-      <c r="L10" s="22"/>
+      <c r="L10" s="20">
+        <v>45557</v>
+      </c>
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
@@ -2080,10 +2086,10 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
     </row>
     <row r="18" ht="17.5" spans="2:13">
       <c r="B18" s="24"/>
@@ -2094,10 +2100,10 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
     </row>
     <row r="19" ht="17.5" spans="2:12">
       <c r="B19" s="24"/>
@@ -2108,8 +2114,8 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
     </row>
     <row r="20" ht="17.5" spans="2:13">
       <c r="B20" s="24"/>
@@ -2119,10 +2125,10 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
     </row>
     <row r="21" ht="17.5" spans="2:13">
       <c r="B21" s="24"/>
@@ -2133,10 +2139,10 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -1114,7 +1114,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1181,12 +1181,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1514,7 +1508,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1771,10 +1765,10 @@
       <c r="K5" s="12">
         <v>45552</v>
       </c>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="26"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
@@ -1864,10 +1858,10 @@
       <c r="L7" s="9">
         <v>45557</v>
       </c>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
@@ -2086,10 +2080,10 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
     </row>
     <row r="18" ht="17.5" spans="2:13">
       <c r="B18" s="24"/>
@@ -2100,10 +2094,10 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
     </row>
     <row r="19" ht="17.5" spans="2:12">
       <c r="B19" s="24"/>
@@ -2114,8 +2108,8 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
     </row>
     <row r="20" ht="17.5" spans="2:13">
       <c r="B20" s="24"/>
@@ -2125,10 +2119,10 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
     </row>
     <row r="21" ht="17.5" spans="2:13">
       <c r="B21" s="24"/>
@@ -2139,10 +2133,10 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12330"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Doing" sheetId="1" r:id="rId1"/>
@@ -459,10 +459,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -969,7 +969,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -978,10 +978,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -990,7 +990,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1114,7 +1114,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1183,6 +1183,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1508,10 +1509,10 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="5.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
@@ -1525,7 +1526,7 @@
     <col min="11" max="20" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:20">
+    <row r="1" ht="15.75" spans="1:20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1587,7 +1588,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.5" spans="1:20">
+    <row r="2" customFormat="1" ht="15.75" spans="1:20">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -1637,7 +1638,7 @@
       <c r="S2" s="16"/>
       <c r="T2" s="16"/>
     </row>
-    <row r="3" ht="15.5" spans="1:20">
+    <row r="3" ht="15.75" spans="1:20">
       <c r="A3" s="5" t="s">
         <v>20</v>
       </c>
@@ -1689,7 +1690,7 @@
       <c r="S3" s="16"/>
       <c r="T3" s="16"/>
     </row>
-    <row r="4" customFormat="1" ht="15.5" spans="1:20">
+    <row r="4" customFormat="1" ht="15.75" spans="1:20">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1731,7 +1732,7 @@
       <c r="S4" s="22"/>
       <c r="T4" s="22"/>
     </row>
-    <row r="5" customFormat="1" ht="15.5" spans="1:20">
+    <row r="5" customFormat="1" ht="15.75" spans="1:20">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1775,7 +1776,7 @@
       <c r="S5" s="16"/>
       <c r="T5" s="16"/>
     </row>
-    <row r="6" customFormat="1" ht="15.5" spans="1:20">
+    <row r="6" customFormat="1" ht="15.75" spans="1:20">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
@@ -1821,7 +1822,7 @@
       <c r="S6" s="22"/>
       <c r="T6" s="22"/>
     </row>
-    <row r="7" customFormat="1" ht="15.5" spans="1:20">
+    <row r="7" customFormat="1" ht="15.75" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -1867,7 +1868,7 @@
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
     </row>
-    <row r="8" customFormat="1" ht="15.5" spans="1:20">
+    <row r="8" customFormat="1" ht="15.75" spans="1:20">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
@@ -1898,19 +1899,20 @@
       <c r="J8" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="9">
         <v>45557</v>
       </c>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
     </row>
-    <row r="9" ht="15.5" spans="1:20">
+    <row r="9" ht="15.75" spans="1:20">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
@@ -1954,7 +1956,7 @@
       <c r="S9" s="20"/>
       <c r="T9" s="20"/>
     </row>
-    <row r="10" ht="15.5" spans="1:20">
+    <row r="10" ht="15.75" spans="1:20">
       <c r="A10" s="5" t="s">
         <v>66</v>
       </c>
@@ -2000,7 +2002,7 @@
       <c r="S10" s="22"/>
       <c r="T10" s="22"/>
     </row>
-    <row r="11" customFormat="1" ht="15.5" spans="1:20">
+    <row r="11" customFormat="1" ht="15.75" spans="1:20">
       <c r="A11" s="5" t="s">
         <v>72</v>
       </c>
@@ -2044,10 +2046,10 @@
       <c r="S11" s="22"/>
       <c r="T11" s="22"/>
     </row>
-    <row r="12" s="22" customFormat="1" ht="15.5"/>
-    <row r="13" s="22" customFormat="1" ht="15.5"/>
-    <row r="14" s="22" customFormat="1" ht="15.5"/>
-    <row r="15" s="22" customFormat="1" ht="15.5" spans="1:9">
+    <row r="12" s="22" customFormat="1" ht="15.75"/>
+    <row r="13" s="22" customFormat="1" ht="15.75"/>
+    <row r="14" s="22" customFormat="1" ht="15.75"/>
+    <row r="15" s="22" customFormat="1" ht="15.75" spans="1:9">
       <c r="A15" s="23"/>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
@@ -2058,7 +2060,7 @@
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
     </row>
-    <row r="16" s="22" customFormat="1" ht="15.5" spans="1:9">
+    <row r="16" s="22" customFormat="1" ht="15.75" spans="1:9">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
@@ -2069,7 +2071,7 @@
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" ht="17.5" spans="2:13">
+    <row r="17" ht="18.75" spans="2:13">
       <c r="B17" s="24" t="s">
         <v>78</v>
       </c>
@@ -2080,12 +2082,12 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-    </row>
-    <row r="18" ht="17.5" spans="2:13">
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+    </row>
+    <row r="18" ht="18.75" spans="2:13">
       <c r="B18" s="24"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -2094,12 +2096,12 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-    </row>
-    <row r="19" ht="17.5" spans="2:12">
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+    </row>
+    <row r="19" ht="18.75" spans="2:12">
       <c r="B19" s="24"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -2108,10 +2110,10 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-    </row>
-    <row r="20" ht="17.5" spans="2:13">
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+    </row>
+    <row r="20" ht="18.75" spans="2:13">
       <c r="B20" s="24"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -2119,12 +2121,12 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-    </row>
-    <row r="21" ht="17.5" spans="2:13">
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+    </row>
+    <row r="21" ht="18.75" spans="2:13">
       <c r="B21" s="24"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2133,10 +2135,10 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2157,7 +2159,7 @@
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="4.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
@@ -2172,7 +2174,7 @@
     <col min="22" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:21">
+    <row r="1" ht="15.75" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2237,7 +2239,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.5" spans="1:21">
+    <row r="2" customFormat="1" ht="15.75" spans="1:21">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -2302,7 +2304,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15.5" spans="1:19">
+    <row r="3" customFormat="1" ht="15.75" spans="1:19">
       <c r="A3" s="4" t="s">
         <v>86</v>
       </c>
@@ -2361,7 +2363,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.5" spans="1:11">
+    <row r="4" customFormat="1" ht="15.75" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -2396,7 +2398,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15.5" spans="1:20">
+    <row r="5" customFormat="1" ht="15.75" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -2456,7 +2458,7 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" customFormat="1" ht="15.5" spans="1:20">
+    <row r="6" customFormat="1" ht="15.75" spans="1:20">
       <c r="A6" s="4" t="s">
         <v>86</v>
       </c>
@@ -2518,7 +2520,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.5" spans="1:20">
+    <row r="7" customFormat="1" ht="15.75" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -2605,7 +2607,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" customFormat="1" ht="15.5" spans="1:20">
+    <row r="9" customFormat="1" ht="15.75" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -2667,7 +2669,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.5" spans="1:20">
+    <row r="10" customFormat="1" ht="15.75" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2709,7 +2711,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15.5" spans="1:20">
+    <row r="11" customFormat="1" ht="15.75" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2751,7 +2753,7 @@
         <v>45445</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15.5" spans="1:20">
+    <row r="12" customFormat="1" ht="15.75" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2775,7 +2777,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" customFormat="1" ht="15.5" spans="1:20">
+    <row r="13" customFormat="1" ht="15.75" spans="1:20">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -2837,7 +2839,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="15.5" spans="1:20">
+    <row r="14" customFormat="1" ht="15.75" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2861,7 +2863,7 @@
       <c r="S14" s="16"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" customFormat="1" ht="15.5" spans="1:20">
+    <row r="15" customFormat="1" ht="15.75" spans="1:20">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -2917,7 +2919,7 @@
       <c r="S15" s="16"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" customFormat="1" ht="15.5" spans="1:20">
+    <row r="16" customFormat="1" ht="15.75" spans="1:20">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -2979,7 +2981,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="15.5" spans="1:20">
+    <row r="17" customFormat="1" ht="15.75" spans="1:20">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -3041,7 +3043,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="15.5" spans="1:20">
+    <row r="18" customFormat="1" ht="15.75" spans="1:20">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -3073,7 +3075,7 @@
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
     </row>
-    <row r="19" customFormat="1" ht="15.5" spans="1:20">
+    <row r="19" customFormat="1" ht="15.75" spans="1:20">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -3135,7 +3137,7 @@
         <v>45451</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="15.5" spans="1:20">
+    <row r="20" customFormat="1" ht="15.75" spans="1:20">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3167,7 +3169,7 @@
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
     </row>
-    <row r="21" customFormat="1" ht="15.5" spans="1:20">
+    <row r="21" customFormat="1" ht="15.75" spans="1:20">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -3229,7 +3231,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="15.5" spans="1:20">
+    <row r="22" customFormat="1" ht="15.75" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3271,7 +3273,7 @@
         <v>45423</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15.5" spans="1:20">
+    <row r="23" customFormat="1" ht="15.75" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3303,7 +3305,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" customFormat="1" ht="15.5" spans="1:20">
+    <row r="24" customFormat="1" ht="15.75" spans="1:20">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
@@ -3365,7 +3367,7 @@
         <v>45325</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="15.5" spans="1:20">
+    <row r="25" customFormat="1" ht="15.75" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3407,7 +3409,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15.5" spans="1:20">
+    <row r="26" s="1" customFormat="1" ht="15.75" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3445,7 +3447,7 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="27" customFormat="1" ht="15.5" spans="1:20">
+    <row r="27" customFormat="1" ht="15.75" spans="1:20">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -3467,7 +3469,7 @@
       <c r="S27" s="21"/>
       <c r="T27" s="21"/>
     </row>
-    <row r="28" customFormat="1" ht="15.5" spans="1:20">
+    <row r="28" customFormat="1" ht="15.75" spans="1:20">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -3489,7 +3491,7 @@
       <c r="S28" s="21"/>
       <c r="T28" s="21"/>
     </row>
-    <row r="29" customFormat="1" ht="15.5" spans="1:20">
+    <row r="29" customFormat="1" ht="15.75" spans="1:20">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -3511,7 +3513,7 @@
       <c r="S29" s="21"/>
       <c r="T29" s="21"/>
     </row>
-    <row r="30" customFormat="1" ht="15.5" spans="1:20">
+    <row r="30" customFormat="1" ht="15.75" spans="1:20">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -3533,7 +3535,7 @@
       <c r="S30" s="21"/>
       <c r="T30" s="21"/>
     </row>
-    <row r="31" customFormat="1" ht="15.5" spans="1:20">
+    <row r="31" customFormat="1" ht="15.75" spans="1:20">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -3555,7 +3557,7 @@
       <c r="S31" s="21"/>
       <c r="T31" s="21"/>
     </row>
-    <row r="32" customFormat="1" ht="15.5" spans="1:20">
+    <row r="32" customFormat="1" ht="15.75" spans="1:20">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -3577,7 +3579,7 @@
       <c r="S32" s="21"/>
       <c r="T32" s="21"/>
     </row>
-    <row r="33" customFormat="1" ht="15.5" spans="1:20">
+    <row r="33" customFormat="1" ht="15.75" spans="1:20">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3599,7 +3601,7 @@
       <c r="S33" s="21"/>
       <c r="T33" s="21"/>
     </row>
-    <row r="34" customFormat="1" ht="15.5" spans="1:20">
+    <row r="34" customFormat="1" ht="15.75" spans="1:20">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -3621,7 +3623,7 @@
       <c r="S34" s="21"/>
       <c r="T34" s="21"/>
     </row>
-    <row r="35" customFormat="1" ht="15.5" spans="1:20">
+    <row r="35" customFormat="1" ht="15.75" spans="1:20">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -3643,7 +3645,7 @@
       <c r="S35" s="21"/>
       <c r="T35" s="21"/>
     </row>
-    <row r="36" customFormat="1" ht="15.5" spans="1:20">
+    <row r="36" customFormat="1" ht="15.75" spans="1:20">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="25600" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Doing" sheetId="1" r:id="rId1"/>
@@ -459,10 +459,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -969,7 +969,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -978,10 +978,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -990,7 +990,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1509,10 +1509,10 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="5.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
@@ -1526,7 +1526,7 @@
     <col min="11" max="20" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:20">
+    <row r="1" ht="15.5" spans="1:20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.75" spans="1:20">
+    <row r="2" customFormat="1" ht="15.5" spans="1:20">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -1638,7 +1638,7 @@
       <c r="S2" s="16"/>
       <c r="T2" s="16"/>
     </row>
-    <row r="3" ht="15.75" spans="1:20">
+    <row r="3" ht="15.5" spans="1:20">
       <c r="A3" s="5" t="s">
         <v>20</v>
       </c>
@@ -1690,7 +1690,7 @@
       <c r="S3" s="16"/>
       <c r="T3" s="16"/>
     </row>
-    <row r="4" customFormat="1" ht="15.75" spans="1:20">
+    <row r="4" customFormat="1" ht="15.5" spans="1:20">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1732,7 +1732,7 @@
       <c r="S4" s="22"/>
       <c r="T4" s="22"/>
     </row>
-    <row r="5" customFormat="1" ht="15.75" spans="1:20">
+    <row r="5" customFormat="1" ht="15.5" spans="1:20">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1776,7 +1776,7 @@
       <c r="S5" s="16"/>
       <c r="T5" s="16"/>
     </row>
-    <row r="6" customFormat="1" ht="15.75" spans="1:20">
+    <row r="6" customFormat="1" ht="15.5" spans="1:20">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
@@ -1813,7 +1813,9 @@
       <c r="L6" s="20">
         <v>45556</v>
       </c>
-      <c r="M6" s="22"/>
+      <c r="M6" s="20">
+        <v>45563</v>
+      </c>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
@@ -1822,7 +1824,7 @@
       <c r="S6" s="22"/>
       <c r="T6" s="22"/>
     </row>
-    <row r="7" customFormat="1" ht="15.75" spans="1:20">
+    <row r="7" customFormat="1" ht="15.5" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -1859,7 +1861,9 @@
       <c r="L7" s="9">
         <v>45557</v>
       </c>
-      <c r="M7" s="25"/>
+      <c r="M7" s="9">
+        <v>45563</v>
+      </c>
       <c r="N7" s="25"/>
       <c r="O7" s="25"/>
       <c r="P7" s="25"/>
@@ -1868,7 +1872,7 @@
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
     </row>
-    <row r="8" customFormat="1" ht="15.75" spans="1:20">
+    <row r="8" customFormat="1" ht="15.5" spans="1:20">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
@@ -1912,7 +1916,7 @@
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
     </row>
-    <row r="9" ht="15.75" spans="1:20">
+    <row r="9" ht="15.5" spans="1:20">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
@@ -1956,7 +1960,7 @@
       <c r="S9" s="20"/>
       <c r="T9" s="20"/>
     </row>
-    <row r="10" ht="15.75" spans="1:20">
+    <row r="10" ht="15.5" spans="1:20">
       <c r="A10" s="5" t="s">
         <v>66</v>
       </c>
@@ -2002,7 +2006,7 @@
       <c r="S10" s="22"/>
       <c r="T10" s="22"/>
     </row>
-    <row r="11" customFormat="1" ht="15.75" spans="1:20">
+    <row r="11" customFormat="1" ht="15.5" spans="1:20">
       <c r="A11" s="5" t="s">
         <v>72</v>
       </c>
@@ -2046,10 +2050,10 @@
       <c r="S11" s="22"/>
       <c r="T11" s="22"/>
     </row>
-    <row r="12" s="22" customFormat="1" ht="15.75"/>
-    <row r="13" s="22" customFormat="1" ht="15.75"/>
-    <row r="14" s="22" customFormat="1" ht="15.75"/>
-    <row r="15" s="22" customFormat="1" ht="15.75" spans="1:9">
+    <row r="12" s="22" customFormat="1" ht="15.5"/>
+    <row r="13" s="22" customFormat="1" ht="15.5"/>
+    <row r="14" s="22" customFormat="1" ht="15.5"/>
+    <row r="15" s="22" customFormat="1" ht="15.5" spans="1:9">
       <c r="A15" s="23"/>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
@@ -2060,7 +2064,7 @@
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
     </row>
-    <row r="16" s="22" customFormat="1" ht="15.75" spans="1:9">
+    <row r="16" s="22" customFormat="1" ht="15.5" spans="1:9">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
@@ -2071,7 +2075,7 @@
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" ht="18.75" spans="2:13">
+    <row r="17" ht="17.5" spans="2:13">
       <c r="B17" s="24" t="s">
         <v>78</v>
       </c>
@@ -2087,7 +2091,7 @@
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
     </row>
-    <row r="18" ht="18.75" spans="2:13">
+    <row r="18" ht="17.5" spans="2:13">
       <c r="B18" s="24"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -2101,7 +2105,7 @@
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
     </row>
-    <row r="19" ht="18.75" spans="2:12">
+    <row r="19" ht="17.5" spans="2:12">
       <c r="B19" s="24"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -2113,7 +2117,7 @@
       <c r="K19" s="27"/>
       <c r="L19" s="27"/>
     </row>
-    <row r="20" ht="18.75" spans="2:13">
+    <row r="20" ht="17.5" spans="2:13">
       <c r="B20" s="24"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -2126,7 +2130,7 @@
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
     </row>
-    <row r="21" ht="18.75" spans="2:13">
+    <row r="21" ht="17.5" spans="2:13">
       <c r="B21" s="24"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2159,7 +2163,7 @@
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="4.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
@@ -2174,7 +2178,7 @@
     <col min="22" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:21">
+    <row r="1" ht="15.5" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2239,7 +2243,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.75" spans="1:21">
+    <row r="2" customFormat="1" ht="15.5" spans="1:21">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -2304,7 +2308,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15.75" spans="1:19">
+    <row r="3" customFormat="1" ht="15.5" spans="1:19">
       <c r="A3" s="4" t="s">
         <v>86</v>
       </c>
@@ -2363,7 +2367,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.75" spans="1:11">
+    <row r="4" customFormat="1" ht="15.5" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -2398,7 +2402,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15.75" spans="1:20">
+    <row r="5" customFormat="1" ht="15.5" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -2458,7 +2462,7 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" customFormat="1" ht="15.75" spans="1:20">
+    <row r="6" customFormat="1" ht="15.5" spans="1:20">
       <c r="A6" s="4" t="s">
         <v>86</v>
       </c>
@@ -2520,7 +2524,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.75" spans="1:20">
+    <row r="7" customFormat="1" ht="15.5" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -2607,7 +2611,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" customFormat="1" ht="15.75" spans="1:20">
+    <row r="9" customFormat="1" ht="15.5" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -2669,7 +2673,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.75" spans="1:20">
+    <row r="10" customFormat="1" ht="15.5" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2711,7 +2715,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15.75" spans="1:20">
+    <row r="11" customFormat="1" ht="15.5" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2753,7 +2757,7 @@
         <v>45445</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15.75" spans="1:20">
+    <row r="12" customFormat="1" ht="15.5" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2777,7 +2781,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" customFormat="1" ht="15.75" spans="1:20">
+    <row r="13" customFormat="1" ht="15.5" spans="1:20">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -2839,7 +2843,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="15.75" spans="1:20">
+    <row r="14" customFormat="1" ht="15.5" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2863,7 +2867,7 @@
       <c r="S14" s="16"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" customFormat="1" ht="15.75" spans="1:20">
+    <row r="15" customFormat="1" ht="15.5" spans="1:20">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -2919,7 +2923,7 @@
       <c r="S15" s="16"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" customFormat="1" ht="15.75" spans="1:20">
+    <row r="16" customFormat="1" ht="15.5" spans="1:20">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -2981,7 +2985,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="15.75" spans="1:20">
+    <row r="17" customFormat="1" ht="15.5" spans="1:20">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -3043,7 +3047,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="15.75" spans="1:20">
+    <row r="18" customFormat="1" ht="15.5" spans="1:20">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -3075,7 +3079,7 @@
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
     </row>
-    <row r="19" customFormat="1" ht="15.75" spans="1:20">
+    <row r="19" customFormat="1" ht="15.5" spans="1:20">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -3137,7 +3141,7 @@
         <v>45451</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="15.75" spans="1:20">
+    <row r="20" customFormat="1" ht="15.5" spans="1:20">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3169,7 +3173,7 @@
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
     </row>
-    <row r="21" customFormat="1" ht="15.75" spans="1:20">
+    <row r="21" customFormat="1" ht="15.5" spans="1:20">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -3231,7 +3235,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="15.75" spans="1:20">
+    <row r="22" customFormat="1" ht="15.5" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3273,7 +3277,7 @@
         <v>45423</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15.75" spans="1:20">
+    <row r="23" customFormat="1" ht="15.5" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3305,7 +3309,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" customFormat="1" ht="15.75" spans="1:20">
+    <row r="24" customFormat="1" ht="15.5" spans="1:20">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
@@ -3367,7 +3371,7 @@
         <v>45325</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="15.75" spans="1:20">
+    <row r="25" customFormat="1" ht="15.5" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3409,7 +3413,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15.75" spans="1:20">
+    <row r="26" s="1" customFormat="1" ht="15.5" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3447,7 +3451,7 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="27" customFormat="1" ht="15.75" spans="1:20">
+    <row r="27" customFormat="1" ht="15.5" spans="1:20">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -3469,7 +3473,7 @@
       <c r="S27" s="21"/>
       <c r="T27" s="21"/>
     </row>
-    <row r="28" customFormat="1" ht="15.75" spans="1:20">
+    <row r="28" customFormat="1" ht="15.5" spans="1:20">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -3491,7 +3495,7 @@
       <c r="S28" s="21"/>
       <c r="T28" s="21"/>
     </row>
-    <row r="29" customFormat="1" ht="15.75" spans="1:20">
+    <row r="29" customFormat="1" ht="15.5" spans="1:20">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -3513,7 +3517,7 @@
       <c r="S29" s="21"/>
       <c r="T29" s="21"/>
     </row>
-    <row r="30" customFormat="1" ht="15.75" spans="1:20">
+    <row r="30" customFormat="1" ht="15.5" spans="1:20">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -3535,7 +3539,7 @@
       <c r="S30" s="21"/>
       <c r="T30" s="21"/>
     </row>
-    <row r="31" customFormat="1" ht="15.75" spans="1:20">
+    <row r="31" customFormat="1" ht="15.5" spans="1:20">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -3557,7 +3561,7 @@
       <c r="S31" s="21"/>
       <c r="T31" s="21"/>
     </row>
-    <row r="32" customFormat="1" ht="15.75" spans="1:20">
+    <row r="32" customFormat="1" ht="15.5" spans="1:20">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -3579,7 +3583,7 @@
       <c r="S32" s="21"/>
       <c r="T32" s="21"/>
     </row>
-    <row r="33" customFormat="1" ht="15.75" spans="1:20">
+    <row r="33" customFormat="1" ht="15.5" spans="1:20">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3601,7 +3605,7 @@
       <c r="S33" s="21"/>
       <c r="T33" s="21"/>
     </row>
-    <row r="34" customFormat="1" ht="15.75" spans="1:20">
+    <row r="34" customFormat="1" ht="15.5" spans="1:20">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -3623,7 +3627,7 @@
       <c r="S34" s="21"/>
       <c r="T34" s="21"/>
     </row>
-    <row r="35" customFormat="1" ht="15.75" spans="1:20">
+    <row r="35" customFormat="1" ht="15.5" spans="1:20">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -3645,7 +3649,7 @@
       <c r="S35" s="21"/>
       <c r="T35" s="21"/>
     </row>
-    <row r="36" customFormat="1" ht="15.75" spans="1:20">
+    <row r="36" customFormat="1" ht="15.5" spans="1:20">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -83,10 +83,357 @@
     <t>物理</t>
   </si>
   <si>
+    <t>豌豆文化</t>
+  </si>
+  <si>
+    <t>240/2h</t>
+  </si>
+  <si>
+    <t>周六17：10-19：10</t>
+  </si>
+  <si>
+    <t>孙朝(zhao)阳</t>
+  </si>
+  <si>
+    <t>天章大厦</t>
+  </si>
+  <si>
+    <t>兵一</t>
+  </si>
+  <si>
+    <t>60/100</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>数学</t>
+  </si>
+  <si>
+    <t>周六15：30-17：30</t>
+  </si>
+  <si>
+    <t>唐润宁</t>
+  </si>
+  <si>
+    <t>西山东街261号 华美·博奥小区 7-3-401</t>
+  </si>
+  <si>
+    <t>13中分校</t>
+  </si>
+  <si>
+    <t>70/150</t>
+  </si>
+  <si>
+    <t>450/2h</t>
+  </si>
+  <si>
+    <t>周六18：30-20：30</t>
+  </si>
+  <si>
+    <t>魏子骞</t>
+  </si>
+  <si>
+    <t>幸福路48号二建小区 9-2-302</t>
+  </si>
+  <si>
+    <t>13中</t>
+  </si>
+  <si>
+    <t>70/90</t>
+  </si>
+  <si>
+    <t>星期天培训</t>
+  </si>
+  <si>
+    <t>周六21：20-23：20</t>
+  </si>
+  <si>
+    <t>李梦媛</t>
+  </si>
+  <si>
+    <t>南纬一路144号晟和家园 3-2203</t>
+  </si>
+  <si>
+    <t>70中</t>
+  </si>
+  <si>
+    <t>30/90</t>
+  </si>
+  <si>
+    <t>270/2h</t>
+  </si>
+  <si>
+    <t>周日11：00-13：00</t>
+  </si>
+  <si>
+    <t>刘桐语</t>
+  </si>
+  <si>
+    <t>莲湖路196号博香苑小区 6-2-1001</t>
+  </si>
+  <si>
+    <t>126中学</t>
+  </si>
+  <si>
+    <t>130/150</t>
+  </si>
+  <si>
+    <t>周日14：00-16：00</t>
+  </si>
+  <si>
+    <t>贾梦垚</t>
+  </si>
+  <si>
+    <t>莲湖路196号博香苑小区6-2-1001</t>
+  </si>
+  <si>
+    <t>精锐教育</t>
+  </si>
+  <si>
+    <t>220/2h</t>
+  </si>
+  <si>
+    <t>周日17：00-19：00</t>
+  </si>
+  <si>
+    <t>孙翊原</t>
+  </si>
+  <si>
+    <t>卫生巷88号 6-1-403</t>
+  </si>
+  <si>
+    <t>110/150</t>
+  </si>
+  <si>
+    <t>初一</t>
+  </si>
+  <si>
+    <t>掌学教育</t>
+  </si>
+  <si>
+    <t>周日19：30-21：30</t>
+  </si>
+  <si>
+    <t>朱思臣</t>
+  </si>
+  <si>
+    <t>新民路29号 3-201</t>
+  </si>
+  <si>
+    <t>98/100</t>
+  </si>
+  <si>
+    <t>高一</t>
+  </si>
+  <si>
     <t>一尔优教育</t>
   </si>
   <si>
-    <t>240/2h</t>
+    <t>320/2h</t>
+  </si>
+  <si>
+    <t>周日15：30-17：30</t>
+  </si>
+  <si>
+    <t>吴雨桐</t>
+  </si>
+  <si>
+    <t>丽园路轩和苑C区 3-2-102</t>
+  </si>
+  <si>
+    <t>60/150</t>
+  </si>
+  <si>
+    <t>转账时间(绿色表示课时费已发)：豌豆文化每月10号；星期天培训下个月20号；
+掌学教育和精锐教育都是下月15号
+下次考试目标：刘桐语：135，李梦媛：50，孙翊原：120,贾梦垚：130，唐润宁：100</t>
+  </si>
+  <si>
+    <t>第11课</t>
+  </si>
+  <si>
+    <t>新耀科技</t>
+  </si>
+  <si>
+    <t>180/1.5h</t>
+  </si>
+  <si>
+    <t>周六19：00-20：30</t>
+  </si>
+  <si>
+    <t>宁芮一</t>
+  </si>
+  <si>
+    <t>光明路北小区14-2-503</t>
+  </si>
+  <si>
+    <t>90/150</t>
+  </si>
+  <si>
+    <t>初二</t>
+  </si>
+  <si>
+    <t>260/2h</t>
+  </si>
+  <si>
+    <t>双胞胎</t>
+  </si>
+  <si>
+    <t>秀城二代宅9-2-1501</t>
+  </si>
+  <si>
+    <t>12中</t>
+  </si>
+  <si>
+    <t>80/100</t>
+  </si>
+  <si>
+    <t>优师帮</t>
+  </si>
+  <si>
+    <t>周三20：30-22：30</t>
+  </si>
+  <si>
+    <t>李金翰</t>
+  </si>
+  <si>
+    <t>新医路165号汇文大厦504</t>
+  </si>
+  <si>
+    <t>师大</t>
+  </si>
+  <si>
+    <t>80/150</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>360/1.5h</t>
+  </si>
+  <si>
+    <t>博瑞佰艺</t>
+  </si>
+  <si>
+    <t>每天19：30-21：00</t>
+  </si>
+  <si>
+    <t>徐子洋</t>
+  </si>
+  <si>
+    <t>德泽园三区1-1-202</t>
+  </si>
+  <si>
+    <t>周日18：00-20：00</t>
+  </si>
+  <si>
+    <t>张恒源</t>
+  </si>
+  <si>
+    <t>丹霞山街绿谷学府3-1-403</t>
+  </si>
+  <si>
+    <t>30/150</t>
+  </si>
+  <si>
+    <t>周一20：30-22：30</t>
+  </si>
+  <si>
+    <t>姜弈瞳</t>
+  </si>
+  <si>
+    <t>锦绣三街-和兴帝景4-1-1403</t>
+  </si>
+  <si>
+    <t>108/150</t>
+  </si>
+  <si>
+    <t>210/2h</t>
+  </si>
+  <si>
+    <t>周日12：00-14：00</t>
+  </si>
+  <si>
+    <t>柯梓萌</t>
+  </si>
+  <si>
+    <t>青年路国税小区3-1-501</t>
+  </si>
+  <si>
+    <t>40/100</t>
+  </si>
+  <si>
+    <t>周日15：00-17：00</t>
+  </si>
+  <si>
+    <t>刘卓雅</t>
+  </si>
+  <si>
+    <t>邮区中心局小区3-4-602</t>
+  </si>
+  <si>
+    <t>李冰惠</t>
+  </si>
+  <si>
+    <t>一中家属院7号院1-2-201</t>
+  </si>
+  <si>
+    <t>120/150</t>
+  </si>
+  <si>
+    <t>周二周四19：20-21：20</t>
+  </si>
+  <si>
+    <t>夏锦程</t>
+  </si>
+  <si>
+    <t>19中</t>
+  </si>
+  <si>
+    <t>周三周五19：20-21：20</t>
+  </si>
+  <si>
+    <t>刘东睿</t>
+  </si>
+  <si>
+    <t>11中</t>
+  </si>
+  <si>
+    <t>50/150</t>
+  </si>
+  <si>
+    <t>周六15：00-17：00</t>
+  </si>
+  <si>
+    <t>马金亮</t>
+  </si>
+  <si>
+    <t>复读</t>
+  </si>
+  <si>
+    <t>周六20：00-22：00</t>
+  </si>
+  <si>
+    <t>张育铭</t>
+  </si>
+  <si>
+    <t>金源贸易城5-1-602</t>
+  </si>
+  <si>
+    <t>104团中学</t>
+  </si>
+  <si>
+    <t>100/150</t>
+  </si>
+  <si>
+    <t>周日09：00-11：00</t>
+  </si>
+  <si>
+    <t>周裕民</t>
+  </si>
+  <si>
+    <t>兵二分校</t>
   </si>
   <si>
     <t>周六12：00-14：00</t>
@@ -98,358 +445,11 @@
     <t>耳鼻喉科专科医院旁巷子201室</t>
   </si>
   <si>
-    <t>13中</t>
-  </si>
-  <si>
     <t>85/100</t>
   </si>
   <si>
-    <t>豌豆文化</t>
-  </si>
-  <si>
-    <t>周六17：10-19：10</t>
-  </si>
-  <si>
-    <t>孙朝(zhao)阳</t>
-  </si>
-  <si>
-    <t>天章大厦</t>
-  </si>
-  <si>
-    <t>兵一</t>
-  </si>
-  <si>
-    <t>60/100</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>数学</t>
-  </si>
-  <si>
-    <t>周六15：30-17：30</t>
-  </si>
-  <si>
-    <t>唐润宁</t>
-  </si>
-  <si>
-    <t>西山东街261号 华美·博奥小区 7-3-401</t>
-  </si>
-  <si>
-    <t>13中分校</t>
-  </si>
-  <si>
-    <t>450/2h</t>
-  </si>
-  <si>
-    <t>周六18：30-20：30</t>
-  </si>
-  <si>
-    <t>魏子骞</t>
-  </si>
-  <si>
-    <t>幸福路48号二建小区 9-2-302</t>
-  </si>
-  <si>
-    <t>70/100</t>
-  </si>
-  <si>
-    <t>星期天培训</t>
-  </si>
-  <si>
-    <t>周六21：20-23：20</t>
-  </si>
-  <si>
-    <t>李梦媛</t>
-  </si>
-  <si>
-    <t>南纬一路144号晟和家园 3-2203</t>
-  </si>
-  <si>
-    <t>70中</t>
-  </si>
-  <si>
-    <t>30/100</t>
-  </si>
-  <si>
-    <t>270/2h</t>
-  </si>
-  <si>
-    <t>周日11：00-13：00</t>
-  </si>
-  <si>
-    <t>刘桐语</t>
-  </si>
-  <si>
-    <t>莲湖路196号博香苑小区 6-2-1001</t>
-  </si>
-  <si>
-    <t>126中学</t>
-  </si>
-  <si>
-    <t>130/150</t>
-  </si>
-  <si>
-    <t>周日14：00-16：00</t>
-  </si>
-  <si>
-    <t>贾梦垚</t>
-  </si>
-  <si>
-    <t>莲湖路196号博香苑小区6-2-1001</t>
-  </si>
-  <si>
-    <t>精锐教育</t>
-  </si>
-  <si>
-    <t>220/2h</t>
-  </si>
-  <si>
-    <t>周日17：00-19：00</t>
-  </si>
-  <si>
-    <t>孙翊原</t>
-  </si>
-  <si>
-    <t>卫生巷88号 6-1-403</t>
-  </si>
-  <si>
-    <t>初一</t>
-  </si>
-  <si>
-    <t>掌学教育</t>
-  </si>
-  <si>
-    <t>周日19：30-21：30</t>
-  </si>
-  <si>
-    <t>朱思臣</t>
-  </si>
-  <si>
-    <t>新民路29号 3-201</t>
-  </si>
-  <si>
-    <t>98/100</t>
-  </si>
-  <si>
-    <t>高一</t>
-  </si>
-  <si>
-    <t>320/2h</t>
-  </si>
-  <si>
-    <t>周日15：30-17：30</t>
-  </si>
-  <si>
-    <t>吴雨桐</t>
-  </si>
-  <si>
-    <t>丽园路轩和苑C区 3-2-102</t>
-  </si>
-  <si>
-    <t>60/150</t>
-  </si>
-  <si>
-    <t>转账时间(绿色表示课时费已发)：一尔优当月1号和15号；豌豆文化下月10号；
-博瑞佰艺下月10号；掌学教育和精锐教育都是下月15号
-下次考试目标：孙朝阳：70，张佳宁：95</t>
-  </si>
-  <si>
-    <t>第11课</t>
-  </si>
-  <si>
-    <t>新耀科技</t>
-  </si>
-  <si>
-    <t>180/1.5h</t>
-  </si>
-  <si>
-    <t>周六19：00-20：30</t>
-  </si>
-  <si>
-    <t>宁芮一</t>
-  </si>
-  <si>
-    <t>光明路北小区14-2-503</t>
-  </si>
-  <si>
-    <t>90/150</t>
-  </si>
-  <si>
-    <t>初二</t>
-  </si>
-  <si>
-    <t>260/2h</t>
-  </si>
-  <si>
-    <t>双胞胎</t>
-  </si>
-  <si>
-    <t>秀城二代宅9-2-1501</t>
-  </si>
-  <si>
-    <t>12中</t>
-  </si>
-  <si>
-    <t>80/100</t>
-  </si>
-  <si>
-    <t>优师帮</t>
-  </si>
-  <si>
-    <t>周三20：30-22：30</t>
-  </si>
-  <si>
-    <t>李金翰</t>
-  </si>
-  <si>
-    <t>新医路165号汇文大厦504</t>
-  </si>
-  <si>
-    <t>师大</t>
-  </si>
-  <si>
-    <t>80/150</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>360/1.5h</t>
-  </si>
-  <si>
-    <t>博瑞佰艺</t>
-  </si>
-  <si>
-    <t>每天19：30-21：00</t>
-  </si>
-  <si>
-    <t>徐子洋</t>
-  </si>
-  <si>
-    <t>德泽园三区1-1-202</t>
-  </si>
-  <si>
-    <t>周日18：00-20：00</t>
-  </si>
-  <si>
-    <t>张恒源</t>
-  </si>
-  <si>
-    <t>丹霞山街绿谷学府3-1-403</t>
-  </si>
-  <si>
-    <t>30/150</t>
-  </si>
-  <si>
-    <t>周一20：30-22：30</t>
-  </si>
-  <si>
-    <t>姜弈瞳</t>
-  </si>
-  <si>
-    <t>锦绣三街-和兴帝景4-1-1403</t>
-  </si>
-  <si>
-    <t>108/150</t>
-  </si>
-  <si>
-    <t>210/2h</t>
-  </si>
-  <si>
-    <t>周日12：00-14：00</t>
-  </si>
-  <si>
-    <t>柯梓萌</t>
-  </si>
-  <si>
-    <t>青年路国税小区3-1-501</t>
-  </si>
-  <si>
-    <t>40/100</t>
-  </si>
-  <si>
-    <t>周日15：00-17：00</t>
-  </si>
-  <si>
-    <t>刘卓雅</t>
-  </si>
-  <si>
-    <t>邮区中心局小区3-4-602</t>
-  </si>
-  <si>
-    <t>李冰惠</t>
-  </si>
-  <si>
-    <t>一中家属院7号院1-2-201</t>
-  </si>
-  <si>
-    <t>120/150</t>
-  </si>
-  <si>
-    <t>周二周四19：20-21：20</t>
-  </si>
-  <si>
-    <t>夏锦程</t>
-  </si>
-  <si>
-    <t>19中</t>
-  </si>
-  <si>
-    <t>30/90</t>
-  </si>
-  <si>
-    <t>周三周五19：20-21：20</t>
-  </si>
-  <si>
-    <t>刘东睿</t>
-  </si>
-  <si>
-    <t>11中</t>
-  </si>
-  <si>
-    <t>50/150</t>
-  </si>
-  <si>
-    <t>周六15：00-17：00</t>
-  </si>
-  <si>
-    <t>马金亮</t>
-  </si>
-  <si>
-    <t>复读</t>
-  </si>
-  <si>
-    <t>70/150</t>
-  </si>
-  <si>
-    <t>周六20：00-22：00</t>
-  </si>
-  <si>
-    <t>张育铭</t>
-  </si>
-  <si>
-    <t>金源贸易城5-1-602</t>
-  </si>
-  <si>
-    <t>104团中学</t>
-  </si>
-  <si>
-    <t>100/150</t>
-  </si>
-  <si>
-    <t>周日09：00-11：00</t>
-  </si>
-  <si>
-    <t>周裕民</t>
-  </si>
-  <si>
-    <t>兵二分校</t>
-  </si>
-  <si>
     <t xml:space="preserve">绿色表示课时费已发；
-转账时间：新耀科技每月20号；豌豆文化每月10号；
+转账时间：新耀科技每月20号；一尔优当月1号和15号；博瑞佰艺下月10号；
 姜异瞳的课被机构坑了，白上一节课，吸取教训，下次提前问清楚是试课还是正式上课
 </t>
   </si>
@@ -851,18 +851,9 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -975,7 +966,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1005,7 +996,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1023,28 +1014,28 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1053,10 +1044,10 @@
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1114,7 +1105,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1179,11 +1170,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1506,10 +1493,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1607,43 +1594,47 @@
       <c r="F2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="12">
+        <v>45430</v>
+      </c>
+      <c r="L2" s="12">
+        <v>45437</v>
+      </c>
+      <c r="M2" s="12">
         <v>45451</v>
       </c>
-      <c r="K2" s="12">
-        <v>45460</v>
-      </c>
-      <c r="L2" s="12">
+      <c r="N2" s="12">
+        <v>45458</v>
+      </c>
+      <c r="O2" s="12">
         <v>45465</v>
       </c>
-      <c r="M2" s="12">
-        <v>45514</v>
-      </c>
-      <c r="N2" s="12">
-        <v>45527</v>
-      </c>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
+      <c r="P2" s="20">
+        <v>45572</v>
+      </c>
       <c r="Q2" s="16"/>
       <c r="R2" s="16"/>
       <c r="S2" s="16"/>
       <c r="T2" s="16"/>
     </row>
-    <row r="3" ht="15.5" spans="1:20">
+    <row r="3" customFormat="1" ht="15.5" spans="1:18">
       <c r="A3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>29</v>
@@ -1652,61 +1643,51 @@
         <v>23</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="I3" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="J3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="12">
-        <v>45430</v>
-      </c>
-      <c r="L3" s="12">
-        <v>45437</v>
-      </c>
-      <c r="M3" s="12">
-        <v>45451</v>
-      </c>
-      <c r="N3" s="12">
-        <v>45458</v>
-      </c>
-      <c r="O3" s="12">
-        <v>45465</v>
-      </c>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-    </row>
-    <row r="4" customFormat="1" ht="15.5" spans="1:20">
+        <v>29</v>
+      </c>
+      <c r="K3" s="20">
+        <v>45566</v>
+      </c>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+    </row>
+    <row r="4" customFormat="1" ht="15.5" spans="1:18">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>38</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -1716,21 +1697,21 @@
         <v>40</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="20"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
+        <v>29</v>
+      </c>
+      <c r="K4" s="12">
+        <v>45552</v>
+      </c>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
     </row>
     <row r="5" customFormat="1" ht="15.5" spans="1:20">
       <c r="A5" s="5" t="s">
@@ -1739,134 +1720,146 @@
       <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>35</v>
+      <c r="C5" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>27</v>
+      <c r="G5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="12">
-        <v>45552</v>
-      </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
+        <v>29</v>
+      </c>
+      <c r="K5" s="20">
+        <v>45551</v>
+      </c>
+      <c r="L5" s="20">
+        <v>45556</v>
+      </c>
+      <c r="M5" s="20">
+        <v>45563</v>
+      </c>
+      <c r="N5" s="20">
+        <v>45566</v>
+      </c>
+      <c r="O5" s="20">
+        <v>45567</v>
+      </c>
+      <c r="P5" s="20">
+        <v>45572</v>
+      </c>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
     </row>
     <row r="6" customFormat="1" ht="15.5" spans="1:20">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>46</v>
+        <v>30</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="20">
+        <v>29</v>
+      </c>
+      <c r="K6" s="12">
         <v>45551</v>
       </c>
-      <c r="L6" s="20">
-        <v>45556</v>
-      </c>
-      <c r="M6" s="20">
+      <c r="L6" s="9">
+        <v>45557</v>
+      </c>
+      <c r="M6" s="9">
         <v>45563</v>
       </c>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
+      <c r="N6" s="9">
+        <v>45567</v>
+      </c>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
     </row>
     <row r="7" customFormat="1" ht="15.5" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="J7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="12">
-        <v>45551</v>
+        <v>29</v>
+      </c>
+      <c r="K7" s="9">
+        <v>45557</v>
       </c>
       <c r="L7" s="9">
-        <v>45557</v>
+        <v>45566</v>
       </c>
       <c r="M7" s="9">
-        <v>45563</v>
-      </c>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
+        <v>45572</v>
+      </c>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
@@ -1877,193 +1870,144 @@
         <v>20</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="9">
-        <v>45557</v>
-      </c>
-      <c r="L8" s="26"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
+        <v>29</v>
+      </c>
+      <c r="K8" s="12">
+        <v>45543</v>
+      </c>
+      <c r="L8" s="20">
+        <v>45566</v>
+      </c>
+      <c r="M8" s="20">
+        <v>45567</v>
+      </c>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
     </row>
-    <row r="9" ht="15.5" spans="1:20">
+    <row r="9" customFormat="1" ht="15.5" spans="1:20">
       <c r="A9" s="5" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="12">
+        <v>68</v>
+      </c>
+      <c r="J9" s="9">
         <v>45543</v>
       </c>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
+      <c r="K9" s="9">
+        <v>45550</v>
+      </c>
+      <c r="L9" s="9">
+        <v>45557</v>
+      </c>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
     </row>
     <row r="10" ht="15.5" spans="1:20">
       <c r="A10" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J10" s="9">
-        <v>45543</v>
+        <v>75</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="K10" s="20">
-        <v>45550</v>
-      </c>
-      <c r="L10" s="20">
-        <v>45557</v>
-      </c>
+        <v>45551</v>
+      </c>
+      <c r="L10" s="22"/>
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
       <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-    </row>
-    <row r="11" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A11" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="20">
-        <v>45551</v>
-      </c>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-    </row>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+    </row>
+    <row r="11" s="22" customFormat="1" ht="15.5"/>
     <row r="12" s="22" customFormat="1" ht="15.5"/>
     <row r="13" s="22" customFormat="1" ht="15.5"/>
     <row r="14" s="22" customFormat="1" ht="15.5"/>
-    <row r="15" s="22" customFormat="1" ht="15.5" spans="1:9">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-    </row>
+    <row r="15" s="22" customFormat="1" ht="15.5"/>
     <row r="16" s="22" customFormat="1" ht="15.5" spans="1:9">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
@@ -2075,24 +2019,21 @@
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" ht="17.5" spans="2:13">
-      <c r="B17" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
+    <row r="17" s="22" customFormat="1" ht="15.5" spans="1:9">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
     </row>
     <row r="18" ht="17.5" spans="2:13">
-      <c r="B18" s="24"/>
+      <c r="B18" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -2100,13 +2041,13 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-    </row>
-    <row r="19" ht="17.5" spans="2:12">
-      <c r="B19" s="24"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+    </row>
+    <row r="19" ht="17.5" spans="2:13">
+      <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -2114,24 +2055,25 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-    </row>
-    <row r="20" ht="17.5" spans="2:13">
-      <c r="B20" s="24"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+    </row>
+    <row r="20" ht="17.5" spans="2:12">
+      <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
+      <c r="I20" s="8"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
     </row>
     <row r="21" ht="17.5" spans="2:13">
-      <c r="B21" s="24"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -2139,14 +2081,28 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+    </row>
+    <row r="22" ht="17.5" spans="2:13">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B17:H21"/>
+    <mergeCell ref="B18:I22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -2160,7 +2116,7 @@
   <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2240,7 +2196,7 @@
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="15.5" spans="1:21">
@@ -2248,28 +2204,28 @@
         <v>20</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="J2" s="9">
         <v>45185</v>
@@ -2310,34 +2266,34 @@
     </row>
     <row r="3" customFormat="1" ht="15.5" spans="1:19">
       <c r="A3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="G3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="K3" s="9">
         <v>45248</v>
@@ -2372,28 +2328,28 @@
         <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="J4" s="9">
         <v>45287</v>
@@ -2407,31 +2363,31 @@
         <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="H5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>85</v>
-      </c>
       <c r="J5" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K5" s="9">
         <v>45255</v>
@@ -2464,31 +2420,31 @@
     </row>
     <row r="6" customFormat="1" ht="15.5" spans="1:20">
       <c r="A6" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="H6" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J6" s="9">
         <v>45320</v>
@@ -2529,31 +2485,31 @@
         <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="H7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>107</v>
-      </c>
       <c r="J7" s="11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K7" s="12">
         <v>45361</v>
@@ -2575,28 +2531,28 @@
         <v>20</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="H8" s="6">
         <v>126</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J8" s="14">
         <v>45425</v>
@@ -2619,25 +2575,25 @@
         <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="H9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="J9" s="9">
         <v>45186</v>
@@ -2786,31 +2742,31 @@
         <v>20</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="H13" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K13" s="15">
         <v>45382</v>
@@ -2872,31 +2828,31 @@
         <v>20</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F15" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="J15" s="11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K15" s="12">
         <v>45413</v>
@@ -2931,28 +2887,28 @@
         <v>21</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="I16" s="6" t="s">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K16" s="12">
         <v>45426</v>
@@ -2990,31 +2946,31 @@
         <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="J17" s="17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K17" s="12">
         <v>45364</v>
@@ -3084,31 +3040,31 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K19" s="12">
         <v>45367</v>
@@ -3178,31 +3134,31 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E21" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="J21" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K21" s="12">
         <v>45234</v>
@@ -3314,31 +3270,31 @@
         <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K24" s="12">
         <v>45214</v>
@@ -3452,48 +3408,54 @@
       <c r="T26" s="16"/>
     </row>
     <row r="27" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-    </row>
-    <row r="28" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
+      <c r="A27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="J27" s="12">
+        <v>45451</v>
+      </c>
+      <c r="K27" s="12">
+        <v>45460</v>
+      </c>
+      <c r="L27" s="12">
+        <v>45465</v>
+      </c>
+      <c r="M27" s="12">
+        <v>45514</v>
+      </c>
+      <c r="N27" s="12">
+        <v>45527</v>
+      </c>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
     </row>
     <row r="29" customFormat="1" ht="15.5" spans="1:20">
       <c r="A29" s="4"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -1496,7 +1496,7 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1661,10 +1661,14 @@
         <v>29</v>
       </c>
       <c r="K3" s="20">
+        <v>45556</v>
+      </c>
+      <c r="L3" s="20">
         <v>45566</v>
       </c>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
+      <c r="M3" s="20">
+        <v>45574</v>
+      </c>
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12330"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Doing" sheetId="1" r:id="rId1"/>
@@ -245,8 +245,8 @@
     <t>60/150</t>
   </si>
   <si>
-    <t>转账时间(绿色表示课时费已发)：豌豆文化每月10号；星期天培训下个月20号；
-掌学教育和精锐教育都是下月15号
+    <t>转账时间(灰色表示线上上课（课时费1小时100），绿色表示课时费已发)：豌豆文化每月10号；
+星期天培训下个月20号；掌学教育和精锐教育都是下月15号
 下次考试目标：刘桐语：135，李梦媛：50，孙翊原：120,贾梦垚：130，唐润宁：100</t>
   </si>
   <si>
@@ -459,10 +459,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -645,7 +645,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -661,6 +661,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,31 +966,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -996,10 +1002,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1020,28 +1026,28 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1050,19 +1056,16 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1074,38 +1077,41 @@
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1169,6 +1175,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1496,10 +1505,10 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="5.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
@@ -1513,7 +1522,7 @@
     <col min="11" max="20" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:20">
+    <row r="1" ht="15.75" spans="1:20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1575,7 +1584,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.5" spans="1:20">
+    <row r="2" customFormat="1" ht="15.75" spans="1:20">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -1629,7 +1638,7 @@
       <c r="S2" s="16"/>
       <c r="T2" s="16"/>
     </row>
-    <row r="3" customFormat="1" ht="15.5" spans="1:18">
+    <row r="3" customFormat="1" ht="15.75" spans="1:18">
       <c r="A3" s="5" t="s">
         <v>20</v>
       </c>
@@ -1666,7 +1675,7 @@
       <c r="L3" s="20">
         <v>45566</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3" s="24">
         <v>45574</v>
       </c>
       <c r="N3" s="22"/>
@@ -1675,7 +1684,7 @@
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
     </row>
-    <row r="4" customFormat="1" ht="15.5" spans="1:18">
+    <row r="4" customFormat="1" ht="15.75" spans="1:18">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1717,7 +1726,7 @@
       <c r="Q4" s="16"/>
       <c r="R4" s="16"/>
     </row>
-    <row r="5" customFormat="1" ht="15.5" spans="1:20">
+    <row r="5" customFormat="1" ht="15.75" spans="1:20">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1771,7 +1780,7 @@
       <c r="S5" s="22"/>
       <c r="T5" s="22"/>
     </row>
-    <row r="6" customFormat="1" ht="15.5" spans="1:20">
+    <row r="6" customFormat="1" ht="15.75" spans="1:20">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
@@ -1814,14 +1823,14 @@
       <c r="N6" s="9">
         <v>45567</v>
       </c>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
       <c r="S6" s="16"/>
       <c r="T6" s="16"/>
     </row>
-    <row r="7" customFormat="1" ht="15.5" spans="1:20">
+    <row r="7" customFormat="1" ht="15.75" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -1861,15 +1870,15 @@
       <c r="M7" s="9">
         <v>45572</v>
       </c>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
     </row>
-    <row r="8" customFormat="1" ht="15.5" spans="1:20">
+    <row r="8" customFormat="1" ht="15.75" spans="1:20">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
@@ -1917,7 +1926,7 @@
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
     </row>
-    <row r="9" customFormat="1" ht="15.5" spans="1:20">
+    <row r="9" customFormat="1" ht="15.75" spans="1:20">
       <c r="A9" s="5" t="s">
         <v>63</v>
       </c>
@@ -1963,7 +1972,7 @@
       <c r="S9" s="22"/>
       <c r="T9" s="22"/>
     </row>
-    <row r="10" ht="15.5" spans="1:20">
+    <row r="10" ht="15.75" spans="1:20">
       <c r="A10" s="5" t="s">
         <v>69</v>
       </c>
@@ -2007,12 +2016,12 @@
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
     </row>
-    <row r="11" s="22" customFormat="1" ht="15.5"/>
-    <row r="12" s="22" customFormat="1" ht="15.5"/>
-    <row r="13" s="22" customFormat="1" ht="15.5"/>
-    <row r="14" s="22" customFormat="1" ht="15.5"/>
-    <row r="15" s="22" customFormat="1" ht="15.5"/>
-    <row r="16" s="22" customFormat="1" ht="15.5" spans="1:9">
+    <row r="11" s="22" customFormat="1" ht="15.75"/>
+    <row r="12" s="22" customFormat="1" ht="15.75"/>
+    <row r="13" s="22" customFormat="1" ht="15.75"/>
+    <row r="14" s="22" customFormat="1" ht="15.75"/>
+    <row r="15" s="22" customFormat="1" ht="15.75"/>
+    <row r="16" s="22" customFormat="1" ht="15.75" spans="1:9">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
@@ -2023,7 +2032,7 @@
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" s="22" customFormat="1" ht="15.5" spans="1:9">
+    <row r="17" s="22" customFormat="1" ht="15.75" spans="1:9">
       <c r="A17" s="23"/>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
@@ -2034,7 +2043,7 @@
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
     </row>
-    <row r="18" ht="17.5" spans="2:13">
+    <row r="18" ht="18.75" spans="2:13">
       <c r="B18" s="8" t="s">
         <v>76</v>
       </c>
@@ -2045,12 +2054,12 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-    </row>
-    <row r="19" ht="17.5" spans="2:13">
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+    </row>
+    <row r="19" ht="18.75" spans="2:13">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -2059,12 +2068,12 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-    </row>
-    <row r="20" ht="17.5" spans="2:12">
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+    </row>
+    <row r="20" ht="18.75" spans="2:12">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -2073,10 +2082,10 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-    </row>
-    <row r="21" ht="17.5" spans="2:13">
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+    </row>
+    <row r="21" ht="18.75" spans="2:13">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2085,12 +2094,12 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-    </row>
-    <row r="22" ht="17.5" spans="2:13">
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+    </row>
+    <row r="22" ht="18.75" spans="2:13">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -2099,10 +2108,10 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2123,7 +2132,7 @@
       <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="4.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
@@ -2138,7 +2147,7 @@
     <col min="22" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:21">
+    <row r="1" ht="15.75" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2203,7 +2212,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.5" spans="1:21">
+    <row r="2" customFormat="1" ht="15.75" spans="1:21">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -2268,7 +2277,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15.5" spans="1:19">
+    <row r="3" customFormat="1" ht="15.75" spans="1:19">
       <c r="A3" s="4" t="s">
         <v>84</v>
       </c>
@@ -2327,7 +2336,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.5" spans="1:11">
+    <row r="4" customFormat="1" ht="15.75" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -2362,7 +2371,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15.5" spans="1:20">
+    <row r="5" customFormat="1" ht="15.75" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -2422,7 +2431,7 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" customFormat="1" ht="15.5" spans="1:20">
+    <row r="6" customFormat="1" ht="15.75" spans="1:20">
       <c r="A6" s="4" t="s">
         <v>84</v>
       </c>
@@ -2484,7 +2493,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.5" spans="1:20">
+    <row r="7" customFormat="1" ht="15.75" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -2571,7 +2580,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" customFormat="1" ht="15.5" spans="1:20">
+    <row r="9" customFormat="1" ht="15.75" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -2633,7 +2642,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.5" spans="1:20">
+    <row r="10" customFormat="1" ht="15.75" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2675,7 +2684,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15.5" spans="1:20">
+    <row r="11" customFormat="1" ht="15.75" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2717,7 +2726,7 @@
         <v>45445</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15.5" spans="1:20">
+    <row r="12" customFormat="1" ht="15.75" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2741,7 +2750,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" customFormat="1" ht="15.5" spans="1:20">
+    <row r="13" customFormat="1" ht="15.75" spans="1:20">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -2803,7 +2812,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="15.5" spans="1:20">
+    <row r="14" customFormat="1" ht="15.75" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2827,7 +2836,7 @@
       <c r="S14" s="16"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" customFormat="1" ht="15.5" spans="1:20">
+    <row r="15" customFormat="1" ht="15.75" spans="1:20">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -2883,7 +2892,7 @@
       <c r="S15" s="16"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" customFormat="1" ht="15.5" spans="1:20">
+    <row r="16" customFormat="1" ht="15.75" spans="1:20">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -2945,7 +2954,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="15.5" spans="1:20">
+    <row r="17" customFormat="1" ht="15.75" spans="1:20">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -3007,7 +3016,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="15.5" spans="1:20">
+    <row r="18" customFormat="1" ht="15.75" spans="1:20">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -3039,7 +3048,7 @@
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
     </row>
-    <row r="19" customFormat="1" ht="15.5" spans="1:20">
+    <row r="19" customFormat="1" ht="15.75" spans="1:20">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -3101,7 +3110,7 @@
         <v>45451</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="15.5" spans="1:20">
+    <row r="20" customFormat="1" ht="15.75" spans="1:20">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3133,7 +3142,7 @@
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
     </row>
-    <row r="21" customFormat="1" ht="15.5" spans="1:20">
+    <row r="21" customFormat="1" ht="15.75" spans="1:20">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -3195,7 +3204,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="15.5" spans="1:20">
+    <row r="22" customFormat="1" ht="15.75" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3237,7 +3246,7 @@
         <v>45423</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15.5" spans="1:20">
+    <row r="23" customFormat="1" ht="15.75" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3269,7 +3278,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" customFormat="1" ht="15.5" spans="1:20">
+    <row r="24" customFormat="1" ht="15.75" spans="1:20">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
@@ -3331,7 +3340,7 @@
         <v>45325</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="15.5" spans="1:20">
+    <row r="25" customFormat="1" ht="15.75" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3373,7 +3382,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15.5" spans="1:20">
+    <row r="26" s="1" customFormat="1" ht="15.75" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3411,7 +3420,7 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="27" customFormat="1" ht="15.5" spans="1:20">
+    <row r="27" customFormat="1" ht="15.75" spans="1:20">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -3461,7 +3470,7 @@
       <c r="S27" s="16"/>
       <c r="T27" s="16"/>
     </row>
-    <row r="29" customFormat="1" ht="15.5" spans="1:20">
+    <row r="29" customFormat="1" ht="15.75" spans="1:20">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -3483,7 +3492,7 @@
       <c r="S29" s="21"/>
       <c r="T29" s="21"/>
     </row>
-    <row r="30" customFormat="1" ht="15.5" spans="1:20">
+    <row r="30" customFormat="1" ht="15.75" spans="1:20">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -3505,7 +3514,7 @@
       <c r="S30" s="21"/>
       <c r="T30" s="21"/>
     </row>
-    <row r="31" customFormat="1" ht="15.5" spans="1:20">
+    <row r="31" customFormat="1" ht="15.75" spans="1:20">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -3527,7 +3536,7 @@
       <c r="S31" s="21"/>
       <c r="T31" s="21"/>
     </row>
-    <row r="32" customFormat="1" ht="15.5" spans="1:20">
+    <row r="32" customFormat="1" ht="15.75" spans="1:20">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -3549,7 +3558,7 @@
       <c r="S32" s="21"/>
       <c r="T32" s="21"/>
     </row>
-    <row r="33" customFormat="1" ht="15.5" spans="1:20">
+    <row r="33" customFormat="1" ht="15.75" spans="1:20">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3571,7 +3580,7 @@
       <c r="S33" s="21"/>
       <c r="T33" s="21"/>
     </row>
-    <row r="34" customFormat="1" ht="15.5" spans="1:20">
+    <row r="34" customFormat="1" ht="15.75" spans="1:20">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -3593,7 +3602,7 @@
       <c r="S34" s="21"/>
       <c r="T34" s="21"/>
     </row>
-    <row r="35" customFormat="1" ht="15.5" spans="1:20">
+    <row r="35" customFormat="1" ht="15.75" spans="1:20">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -3615,7 +3624,7 @@
       <c r="S35" s="21"/>
       <c r="T35" s="21"/>
     </row>
-    <row r="36" customFormat="1" ht="15.5" spans="1:20">
+    <row r="36" customFormat="1" ht="15.75" spans="1:20">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="25600" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Doing" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="143">
   <si>
     <t>年级</t>
   </si>
@@ -80,15 +80,120 @@
     <t>初三</t>
   </si>
   <si>
+    <t>数学</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>240/2h</t>
+  </si>
+  <si>
+    <t>周六15：30-17：30</t>
+  </si>
+  <si>
+    <t>唐润宁</t>
+  </si>
+  <si>
+    <t>西山东街261号 华美·博奥小区 7-3-401</t>
+  </si>
+  <si>
+    <t>13中分校</t>
+  </si>
+  <si>
+    <t>70/150</t>
+  </si>
+  <si>
+    <t>初一</t>
+  </si>
+  <si>
+    <t>掌学教育</t>
+  </si>
+  <si>
+    <t>220/2h</t>
+  </si>
+  <si>
+    <t>周六18：30-20：30</t>
+  </si>
+  <si>
+    <t>朱思臣</t>
+  </si>
+  <si>
+    <t>新民路29号 3-201</t>
+  </si>
+  <si>
+    <t>兵一</t>
+  </si>
+  <si>
+    <t>98/100</t>
+  </si>
+  <si>
+    <t>270/2h</t>
+  </si>
+  <si>
+    <t>周日11：00-13：00</t>
+  </si>
+  <si>
+    <t>刘桐语</t>
+  </si>
+  <si>
+    <t>莲湖路196号博香苑小区 6-2-1001</t>
+  </si>
+  <si>
+    <t>126中学</t>
+  </si>
+  <si>
+    <t>130/150</t>
+  </si>
+  <si>
+    <t>周日14：00-16：00</t>
+  </si>
+  <si>
+    <t>贾梦垚</t>
+  </si>
+  <si>
+    <t>莲湖路196号博香苑小区6-2-1001</t>
+  </si>
+  <si>
     <t>物理</t>
   </si>
   <si>
+    <t>星期天培训</t>
+  </si>
+  <si>
+    <t>周日17：00-19：00</t>
+  </si>
+  <si>
+    <t>李梦媛</t>
+  </si>
+  <si>
+    <t>南纬一路144号晟和家园 3-2203</t>
+  </si>
+  <si>
+    <t>70中</t>
+  </si>
+  <si>
+    <t>30/90</t>
+  </si>
+  <si>
+    <t>精锐教育</t>
+  </si>
+  <si>
+    <t>周日20：00-22：00</t>
+  </si>
+  <si>
+    <t>孙翊原</t>
+  </si>
+  <si>
+    <t>卫生巷88号 6-1-403</t>
+  </si>
+  <si>
+    <t>110/150</t>
+  </si>
+  <si>
     <t>豌豆文化</t>
   </si>
   <si>
-    <t>240/2h</t>
-  </si>
-  <si>
     <t>周六17：10-19：10</t>
   </si>
   <si>
@@ -98,39 +203,12 @@
     <t>天章大厦</t>
   </si>
   <si>
-    <t>兵一</t>
-  </si>
-  <si>
     <t>60/100</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>数学</t>
-  </si>
-  <si>
-    <t>周六15：30-17：30</t>
-  </si>
-  <si>
-    <t>唐润宁</t>
-  </si>
-  <si>
-    <t>西山东街261号 华美·博奥小区 7-3-401</t>
-  </si>
-  <si>
-    <t>13中分校</t>
-  </si>
-  <si>
-    <t>70/150</t>
-  </si>
-  <si>
     <t>450/2h</t>
   </si>
   <si>
-    <t>周六18：30-20：30</t>
-  </si>
-  <si>
     <t>魏子骞</t>
   </si>
   <si>
@@ -141,87 +219,6 @@
   </si>
   <si>
     <t>70/90</t>
-  </si>
-  <si>
-    <t>星期天培训</t>
-  </si>
-  <si>
-    <t>周六21：20-23：20</t>
-  </si>
-  <si>
-    <t>李梦媛</t>
-  </si>
-  <si>
-    <t>南纬一路144号晟和家园 3-2203</t>
-  </si>
-  <si>
-    <t>70中</t>
-  </si>
-  <si>
-    <t>30/90</t>
-  </si>
-  <si>
-    <t>270/2h</t>
-  </si>
-  <si>
-    <t>周日11：00-13：00</t>
-  </si>
-  <si>
-    <t>刘桐语</t>
-  </si>
-  <si>
-    <t>莲湖路196号博香苑小区 6-2-1001</t>
-  </si>
-  <si>
-    <t>126中学</t>
-  </si>
-  <si>
-    <t>130/150</t>
-  </si>
-  <si>
-    <t>周日14：00-16：00</t>
-  </si>
-  <si>
-    <t>贾梦垚</t>
-  </si>
-  <si>
-    <t>莲湖路196号博香苑小区6-2-1001</t>
-  </si>
-  <si>
-    <t>精锐教育</t>
-  </si>
-  <si>
-    <t>220/2h</t>
-  </si>
-  <si>
-    <t>周日17：00-19：00</t>
-  </si>
-  <si>
-    <t>孙翊原</t>
-  </si>
-  <si>
-    <t>卫生巷88号 6-1-403</t>
-  </si>
-  <si>
-    <t>110/150</t>
-  </si>
-  <si>
-    <t>初一</t>
-  </si>
-  <si>
-    <t>掌学教育</t>
-  </si>
-  <si>
-    <t>周日19：30-21：30</t>
-  </si>
-  <si>
-    <t>朱思臣</t>
-  </si>
-  <si>
-    <t>新民路29号 3-201</t>
-  </si>
-  <si>
-    <t>98/100</t>
   </si>
   <si>
     <t>高一</t>
@@ -247,7 +244,8 @@
   <si>
     <t>转账时间(灰色表示线上上课（课时费1小时100），绿色表示课时费已发)：豌豆文化每月10号；
 星期天培训下个月20号；掌学教育和精锐教育都是下月15号
-下次考试目标：刘桐语：135，李梦媛：50，孙翊原：120,贾梦垚：130，唐润宁：100</t>
+下次考试目标：刘桐语：135，李梦媛：50，孙翊原：120,贾梦垚：130，唐润宁：100
+李梦媛10月12日只上了半节课</t>
   </si>
   <si>
     <t>第11课</t>
@@ -459,10 +457,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -966,7 +964,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -975,10 +973,10 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -987,7 +985,7 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1505,10 +1503,10 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="5.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
@@ -1522,7 +1520,7 @@
     <col min="11" max="20" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:20">
+    <row r="1" ht="15.5" spans="1:20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1584,7 +1582,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.75" spans="1:20">
+    <row r="2" customFormat="1" ht="15.5" spans="1:18">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -1600,91 +1598,85 @@
       <c r="E2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>28</v>
       </c>
       <c r="J2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="20">
+        <v>45556</v>
+      </c>
+      <c r="L2" s="20">
+        <v>45566</v>
+      </c>
+      <c r="M2" s="24">
+        <v>45574</v>
+      </c>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+    </row>
+    <row r="3" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="12">
-        <v>45430</v>
-      </c>
-      <c r="L2" s="12">
-        <v>45437</v>
-      </c>
-      <c r="M2" s="12">
-        <v>45451</v>
-      </c>
-      <c r="N2" s="12">
-        <v>45458</v>
-      </c>
-      <c r="O2" s="12">
-        <v>45465</v>
-      </c>
-      <c r="P2" s="20">
-        <v>45572</v>
-      </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-    </row>
-    <row r="3" customFormat="1" ht="15.75" spans="1:18">
-      <c r="A3" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="B3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="H3" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="I3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="20">
-        <v>45556</v>
-      </c>
-      <c r="L3" s="20">
-        <v>45566</v>
-      </c>
-      <c r="M3" s="24">
-        <v>45574</v>
+        <v>36</v>
+      </c>
+      <c r="J3" s="9">
+        <v>45543</v>
+      </c>
+      <c r="K3" s="9">
+        <v>45550</v>
+      </c>
+      <c r="L3" s="9">
+        <v>45557</v>
+      </c>
+      <c r="M3" s="20">
+        <v>45578</v>
       </c>
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
-    </row>
-    <row r="4" customFormat="1" ht="15.75" spans="1:18">
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+    </row>
+    <row r="4" customFormat="1" ht="15.5" spans="1:20">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1692,52 +1684,62 @@
         <v>21</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="5" t="s">
         <v>38</v>
       </c>
+      <c r="F4" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="G4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="H4" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="I4" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K4" s="12">
-        <v>45552</v>
-      </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-    </row>
-    <row r="5" customFormat="1" ht="15.75" spans="1:20">
+        <v>45551</v>
+      </c>
+      <c r="L4" s="9">
+        <v>45557</v>
+      </c>
+      <c r="M4" s="9">
+        <v>45563</v>
+      </c>
+      <c r="N4" s="9">
+        <v>45567</v>
+      </c>
+      <c r="O4" s="9">
+        <v>45578</v>
+      </c>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+    </row>
+    <row r="5" customFormat="1" ht="15.5" spans="1:20">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>42</v>
+      <c r="C5" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>43</v>
@@ -1745,103 +1747,105 @@
       <c r="F5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>45</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="20">
-        <v>45551</v>
-      </c>
-      <c r="L5" s="20">
-        <v>45556</v>
-      </c>
-      <c r="M5" s="20">
-        <v>45563</v>
-      </c>
-      <c r="N5" s="20">
+        <v>22</v>
+      </c>
+      <c r="K5" s="9">
+        <v>45557</v>
+      </c>
+      <c r="L5" s="9">
         <v>45566</v>
       </c>
-      <c r="O5" s="20">
-        <v>45567</v>
-      </c>
-      <c r="P5" s="20">
+      <c r="M5" s="9">
         <v>45572</v>
       </c>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
       <c r="S5" s="22"/>
       <c r="T5" s="22"/>
     </row>
-    <row r="6" customFormat="1" ht="15.75" spans="1:20">
+    <row r="6" customFormat="1" ht="15.5" spans="1:20">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>29</v>
+        <v>46</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="J6" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="12">
+        <v>22</v>
+      </c>
+      <c r="K6" s="20">
         <v>45551</v>
       </c>
-      <c r="L6" s="9">
-        <v>45557</v>
-      </c>
-      <c r="M6" s="9">
+      <c r="L6" s="20">
+        <v>45556</v>
+      </c>
+      <c r="M6" s="20">
         <v>45563</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="20">
+        <v>45566</v>
+      </c>
+      <c r="O6" s="20">
         <v>45567</v>
       </c>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-    </row>
-    <row r="7" customFormat="1" ht="15.75" spans="1:20">
+      <c r="P6" s="20">
+        <v>45572</v>
+      </c>
+      <c r="Q6" s="20">
+        <v>45577</v>
+      </c>
+      <c r="R6" s="20">
+        <v>45578</v>
+      </c>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+    </row>
+    <row r="7" customFormat="1" ht="15.5" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>54</v>
@@ -1853,155 +1857,157 @@
         <v>56</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="9">
-        <v>45557</v>
-      </c>
-      <c r="L7" s="9">
+        <v>22</v>
+      </c>
+      <c r="K7" s="12">
+        <v>45543</v>
+      </c>
+      <c r="L7" s="20">
         <v>45566</v>
       </c>
-      <c r="M7" s="9">
-        <v>45572</v>
-      </c>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
+      <c r="M7" s="20">
+        <v>45567</v>
+      </c>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
     </row>
-    <row r="8" customFormat="1" ht="15.75" spans="1:20">
+    <row r="8" customFormat="1" ht="15.5" spans="1:20">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="5" t="s">
         <v>61</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>62</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K8" s="12">
-        <v>45543</v>
-      </c>
-      <c r="L8" s="20">
-        <v>45566</v>
-      </c>
-      <c r="M8" s="20">
-        <v>45567</v>
-      </c>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-    </row>
-    <row r="9" customFormat="1" ht="15.75" spans="1:20">
+        <v>45430</v>
+      </c>
+      <c r="L8" s="12">
+        <v>45437</v>
+      </c>
+      <c r="M8" s="12">
+        <v>45451</v>
+      </c>
+      <c r="N8" s="12">
+        <v>45458</v>
+      </c>
+      <c r="O8" s="12">
+        <v>45465</v>
+      </c>
+      <c r="P8" s="20">
+        <v>45572</v>
+      </c>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+    </row>
+    <row r="9" customFormat="1" ht="15.5" spans="1:18">
       <c r="A9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="E9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="4" t="s">
+      <c r="J9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="12">
+        <v>45552</v>
+      </c>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+    </row>
+    <row r="10" ht="15.5" spans="1:20">
+      <c r="A10" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="J9" s="9">
-        <v>45543</v>
-      </c>
-      <c r="K9" s="9">
-        <v>45550</v>
-      </c>
-      <c r="L9" s="9">
-        <v>45557</v>
-      </c>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-    </row>
-    <row r="10" ht="15.75" spans="1:20">
-      <c r="A10" s="5" t="s">
+      <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="J10" s="12" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K10" s="20">
         <v>45551</v>
@@ -2016,12 +2022,12 @@
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
     </row>
-    <row r="11" s="22" customFormat="1" ht="15.75"/>
-    <row r="12" s="22" customFormat="1" ht="15.75"/>
-    <row r="13" s="22" customFormat="1" ht="15.75"/>
-    <row r="14" s="22" customFormat="1" ht="15.75"/>
-    <row r="15" s="22" customFormat="1" ht="15.75"/>
-    <row r="16" s="22" customFormat="1" ht="15.75" spans="1:9">
+    <row r="11" s="22" customFormat="1" ht="15.5"/>
+    <row r="12" s="22" customFormat="1" ht="15.5"/>
+    <row r="13" s="22" customFormat="1" ht="15.5"/>
+    <row r="14" s="22" customFormat="1" ht="15.5"/>
+    <row r="15" s="22" customFormat="1" ht="15.5"/>
+    <row r="16" s="22" customFormat="1" ht="15.5" spans="1:9">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
@@ -2032,7 +2038,7 @@
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" s="22" customFormat="1" ht="15.75" spans="1:9">
+    <row r="17" s="22" customFormat="1" ht="15.5" spans="1:9">
       <c r="A17" s="23"/>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
@@ -2043,9 +2049,9 @@
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
     </row>
-    <row r="18" ht="18.75" spans="2:13">
+    <row r="18" ht="17.5" spans="2:13">
       <c r="B18" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -2059,7 +2065,7 @@
       <c r="L18" s="26"/>
       <c r="M18" s="26"/>
     </row>
-    <row r="19" ht="18.75" spans="2:13">
+    <row r="19" ht="17.5" spans="2:13">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -2073,7 +2079,7 @@
       <c r="L19" s="26"/>
       <c r="M19" s="26"/>
     </row>
-    <row r="20" ht="18.75" spans="2:12">
+    <row r="20" ht="17.5" spans="2:12">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -2085,7 +2091,7 @@
       <c r="K20" s="26"/>
       <c r="L20" s="26"/>
     </row>
-    <row r="21" ht="18.75" spans="2:13">
+    <row r="21" ht="17.5" spans="2:13">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2099,7 +2105,7 @@
       <c r="L21" s="26"/>
       <c r="M21" s="26"/>
     </row>
-    <row r="22" ht="18.75" spans="2:13">
+    <row r="22" ht="17.5" spans="2:13">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -2132,7 +2138,7 @@
       <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="4.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
@@ -2147,7 +2153,7 @@
     <col min="22" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:21">
+    <row r="1" ht="15.5" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2209,36 +2215,36 @@
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" customFormat="1" ht="15.75" spans="1:21">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="15.5" spans="1:21">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="J2" s="9">
         <v>45185</v>
@@ -2277,36 +2283,36 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15.75" spans="1:19">
+    <row r="3" customFormat="1" ht="15.5" spans="1:19">
       <c r="A3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="K3" s="9">
         <v>45248</v>
@@ -2336,33 +2342,33 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.75" spans="1:11">
+    <row r="4" customFormat="1" ht="15.5" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="J4" s="9">
         <v>45287</v>
@@ -2371,36 +2377,36 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15.75" spans="1:20">
+    <row r="5" customFormat="1" ht="15.5" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="E5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="J5" s="9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K5" s="9">
         <v>45255</v>
@@ -2431,33 +2437,33 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" customFormat="1" ht="15.75" spans="1:20">
+    <row r="6" customFormat="1" ht="15.5" spans="1:20">
       <c r="A6" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>101</v>
-      </c>
       <c r="H6" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="J6" s="9">
         <v>45320</v>
@@ -2493,36 +2499,36 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.75" spans="1:20">
+    <row r="7" customFormat="1" ht="15.5" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>105</v>
-      </c>
       <c r="J7" s="11" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K7" s="12">
         <v>45361</v>
@@ -2544,28 +2550,28 @@
         <v>20</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="H8" s="6">
         <v>126</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J8" s="14">
         <v>45425</v>
@@ -2580,33 +2586,33 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" customFormat="1" ht="15.75" spans="1:20">
+    <row r="9" customFormat="1" ht="15.5" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="J9" s="9">
         <v>45186</v>
@@ -2642,7 +2648,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.75" spans="1:20">
+    <row r="10" customFormat="1" ht="15.5" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2684,7 +2690,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15.75" spans="1:20">
+    <row r="11" customFormat="1" ht="15.5" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2726,7 +2732,7 @@
         <v>45445</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15.75" spans="1:20">
+    <row r="12" customFormat="1" ht="15.5" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2750,36 +2756,36 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" customFormat="1" ht="15.75" spans="1:20">
+    <row r="13" customFormat="1" ht="15.5" spans="1:20">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="H13" s="4" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K13" s="15">
         <v>45382</v>
@@ -2812,7 +2818,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="15.75" spans="1:20">
+    <row r="14" customFormat="1" ht="15.5" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2836,36 +2842,36 @@
       <c r="S14" s="16"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" customFormat="1" ht="15.75" spans="1:20">
+    <row r="15" customFormat="1" ht="15.5" spans="1:20">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F15" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="H15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>120</v>
-      </c>
       <c r="J15" s="11" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K15" s="12">
         <v>45413</v>
@@ -2892,36 +2898,36 @@
       <c r="S15" s="16"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" customFormat="1" ht="15.75" spans="1:20">
+    <row r="16" customFormat="1" ht="15.5" spans="1:20">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="I16" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K16" s="12">
         <v>45426</v>
@@ -2954,36 +2960,36 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="15.75" spans="1:20">
+    <row r="17" customFormat="1" ht="15.5" spans="1:20">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="4" t="s">
+      <c r="I17" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="I17" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="J17" s="17" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K17" s="12">
         <v>45364</v>
@@ -3016,7 +3022,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="15.75" spans="1:20">
+    <row r="18" customFormat="1" ht="15.5" spans="1:20">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -3048,36 +3054,36 @@
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
     </row>
-    <row r="19" customFormat="1" ht="15.75" spans="1:20">
+    <row r="19" customFormat="1" ht="15.5" spans="1:20">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="I19" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K19" s="12">
         <v>45367</v>
@@ -3110,7 +3116,7 @@
         <v>45451</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="15.75" spans="1:20">
+    <row r="20" customFormat="1" ht="15.5" spans="1:20">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3142,36 +3148,36 @@
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
     </row>
-    <row r="21" customFormat="1" ht="15.75" spans="1:20">
+    <row r="21" customFormat="1" ht="15.5" spans="1:20">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E21" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="J21" s="9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K21" s="12">
         <v>45234</v>
@@ -3204,7 +3210,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="15.75" spans="1:20">
+    <row r="22" customFormat="1" ht="15.5" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3246,7 +3252,7 @@
         <v>45423</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15.75" spans="1:20">
+    <row r="23" customFormat="1" ht="15.5" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3278,36 +3284,36 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" customFormat="1" ht="15.75" spans="1:20">
+    <row r="24" customFormat="1" ht="15.5" spans="1:20">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="G24" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>138</v>
-      </c>
       <c r="I24" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K24" s="12">
         <v>45214</v>
@@ -3340,7 +3346,7 @@
         <v>45325</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="15.75" spans="1:20">
+    <row r="25" customFormat="1" ht="15.5" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3382,7 +3388,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15.75" spans="1:20">
+    <row r="26" s="1" customFormat="1" ht="15.5" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3420,33 +3426,33 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="27" customFormat="1" ht="15.75" spans="1:20">
+    <row r="27" customFormat="1" ht="15.5" spans="1:20">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="G27" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="H27" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="J27" s="12">
         <v>45451</v>
@@ -3470,7 +3476,7 @@
       <c r="S27" s="16"/>
       <c r="T27" s="16"/>
     </row>
-    <row r="29" customFormat="1" ht="15.75" spans="1:20">
+    <row r="29" customFormat="1" ht="15.5" spans="1:20">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -3492,7 +3498,7 @@
       <c r="S29" s="21"/>
       <c r="T29" s="21"/>
     </row>
-    <row r="30" customFormat="1" ht="15.75" spans="1:20">
+    <row r="30" customFormat="1" ht="15.5" spans="1:20">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -3514,7 +3520,7 @@
       <c r="S30" s="21"/>
       <c r="T30" s="21"/>
     </row>
-    <row r="31" customFormat="1" ht="15.75" spans="1:20">
+    <row r="31" customFormat="1" ht="15.5" spans="1:20">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -3536,7 +3542,7 @@
       <c r="S31" s="21"/>
       <c r="T31" s="21"/>
     </row>
-    <row r="32" customFormat="1" ht="15.75" spans="1:20">
+    <row r="32" customFormat="1" ht="15.5" spans="1:20">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -3558,7 +3564,7 @@
       <c r="S32" s="21"/>
       <c r="T32" s="21"/>
     </row>
-    <row r="33" customFormat="1" ht="15.75" spans="1:20">
+    <row r="33" customFormat="1" ht="15.5" spans="1:20">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3580,7 +3586,7 @@
       <c r="S33" s="21"/>
       <c r="T33" s="21"/>
     </row>
-    <row r="34" customFormat="1" ht="15.75" spans="1:20">
+    <row r="34" customFormat="1" ht="15.5" spans="1:20">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -3602,7 +3608,7 @@
       <c r="S34" s="21"/>
       <c r="T34" s="21"/>
     </row>
-    <row r="35" customFormat="1" ht="15.75" spans="1:20">
+    <row r="35" customFormat="1" ht="15.5" spans="1:20">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -3624,7 +3630,7 @@
       <c r="S35" s="21"/>
       <c r="T35" s="21"/>
     </row>
-    <row r="36" customFormat="1" ht="15.75" spans="1:20">
+    <row r="36" customFormat="1" ht="15.5" spans="1:20">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -3648,7 +3654,7 @@
     </row>
     <row r="37" spans="2:11">
       <c r="B37" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12330"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Doing" sheetId="1" r:id="rId1"/>
@@ -457,10 +457,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -964,7 +964,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -973,10 +973,10 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -985,7 +985,7 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1503,10 +1503,10 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="5.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
@@ -1520,7 +1520,7 @@
     <col min="11" max="20" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:20">
+    <row r="1" ht="15.75" spans="1:20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.5" spans="1:18">
+    <row r="2" customFormat="1" ht="15.75" spans="1:18">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -1628,7 +1628,7 @@
       <c r="Q2" s="22"/>
       <c r="R2" s="22"/>
     </row>
-    <row r="3" customFormat="1" ht="15.5" spans="1:20">
+    <row r="3" customFormat="1" ht="15.75" spans="1:20">
       <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
@@ -1676,7 +1676,7 @@
       <c r="S3" s="22"/>
       <c r="T3" s="22"/>
     </row>
-    <row r="4" customFormat="1" ht="15.5" spans="1:20">
+    <row r="4" customFormat="1" ht="15.75" spans="1:20">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1728,7 +1728,7 @@
       <c r="S4" s="16"/>
       <c r="T4" s="16"/>
     </row>
-    <row r="5" customFormat="1" ht="15.5" spans="1:20">
+    <row r="5" customFormat="1" ht="15.75" spans="1:20">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1776,7 +1776,7 @@
       <c r="S5" s="22"/>
       <c r="T5" s="22"/>
     </row>
-    <row r="6" customFormat="1" ht="15.5" spans="1:20">
+    <row r="6" customFormat="1" ht="15.75" spans="1:20">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
@@ -1834,7 +1834,7 @@
       <c r="S6" s="22"/>
       <c r="T6" s="22"/>
     </row>
-    <row r="7" customFormat="1" ht="15.5" spans="1:20">
+    <row r="7" customFormat="1" ht="15.75" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -1882,7 +1882,7 @@
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
     </row>
-    <row r="8" customFormat="1" ht="15.5" spans="1:20">
+    <row r="8" customFormat="1" ht="15.75" spans="1:20">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
@@ -1936,7 +1936,7 @@
       <c r="S8" s="16"/>
       <c r="T8" s="16"/>
     </row>
-    <row r="9" customFormat="1" ht="15.5" spans="1:18">
+    <row r="9" customFormat="1" ht="15.75" spans="1:18">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
@@ -1978,7 +1978,7 @@
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
     </row>
-    <row r="10" ht="15.5" spans="1:20">
+    <row r="10" ht="15.75" spans="1:20">
       <c r="A10" s="5" t="s">
         <v>68</v>
       </c>
@@ -2022,12 +2022,12 @@
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
     </row>
-    <row r="11" s="22" customFormat="1" ht="15.5"/>
-    <row r="12" s="22" customFormat="1" ht="15.5"/>
-    <row r="13" s="22" customFormat="1" ht="15.5"/>
-    <row r="14" s="22" customFormat="1" ht="15.5"/>
-    <row r="15" s="22" customFormat="1" ht="15.5"/>
-    <row r="16" s="22" customFormat="1" ht="15.5" spans="1:9">
+    <row r="11" s="22" customFormat="1" ht="15.75"/>
+    <row r="12" s="22" customFormat="1" ht="15.75"/>
+    <row r="13" s="22" customFormat="1" ht="15.75"/>
+    <row r="14" s="22" customFormat="1" ht="15.75"/>
+    <row r="15" s="22" customFormat="1" ht="15.75"/>
+    <row r="16" s="22" customFormat="1" ht="15.75" spans="1:9">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
@@ -2038,7 +2038,7 @@
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" s="22" customFormat="1" ht="15.5" spans="1:9">
+    <row r="17" s="22" customFormat="1" ht="15.75" spans="1:9">
       <c r="A17" s="23"/>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
@@ -2049,7 +2049,7 @@
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
     </row>
-    <row r="18" ht="17.5" spans="2:13">
+    <row r="18" ht="18.75" spans="2:13">
       <c r="B18" s="8" t="s">
         <v>75</v>
       </c>
@@ -2065,7 +2065,7 @@
       <c r="L18" s="26"/>
       <c r="M18" s="26"/>
     </row>
-    <row r="19" ht="17.5" spans="2:13">
+    <row r="19" ht="18.75" spans="2:13">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -2079,7 +2079,7 @@
       <c r="L19" s="26"/>
       <c r="M19" s="26"/>
     </row>
-    <row r="20" ht="17.5" spans="2:12">
+    <row r="20" ht="18.75" spans="2:12">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -2091,7 +2091,7 @@
       <c r="K20" s="26"/>
       <c r="L20" s="26"/>
     </row>
-    <row r="21" ht="17.5" spans="2:13">
+    <row r="21" ht="18.75" spans="2:13">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2105,7 +2105,7 @@
       <c r="L21" s="26"/>
       <c r="M21" s="26"/>
     </row>
-    <row r="22" ht="17.5" spans="2:13">
+    <row r="22" ht="18.75" spans="2:13">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -2138,7 +2138,7 @@
       <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="4.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
@@ -2153,7 +2153,7 @@
     <col min="22" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:21">
+    <row r="1" ht="15.75" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.5" spans="1:21">
+    <row r="2" customFormat="1" ht="15.75" spans="1:21">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15.5" spans="1:19">
+    <row r="3" customFormat="1" ht="15.75" spans="1:19">
       <c r="A3" s="4" t="s">
         <v>83</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.5" spans="1:11">
+    <row r="4" customFormat="1" ht="15.75" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15.5" spans="1:20">
+    <row r="5" customFormat="1" ht="15.75" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" customFormat="1" ht="15.5" spans="1:20">
+    <row r="6" customFormat="1" ht="15.75" spans="1:20">
       <c r="A6" s="4" t="s">
         <v>83</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.5" spans="1:20">
+    <row r="7" customFormat="1" ht="15.75" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -2586,7 +2586,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" customFormat="1" ht="15.5" spans="1:20">
+    <row r="9" customFormat="1" ht="15.75" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.5" spans="1:20">
+    <row r="10" customFormat="1" ht="15.75" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2690,7 +2690,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15.5" spans="1:20">
+    <row r="11" customFormat="1" ht="15.75" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2732,7 +2732,7 @@
         <v>45445</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15.5" spans="1:20">
+    <row r="12" customFormat="1" ht="15.75" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2756,7 +2756,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" customFormat="1" ht="15.5" spans="1:20">
+    <row r="13" customFormat="1" ht="15.75" spans="1:20">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="15.5" spans="1:20">
+    <row r="14" customFormat="1" ht="15.75" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2842,7 +2842,7 @@
       <c r="S14" s="16"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" customFormat="1" ht="15.5" spans="1:20">
+    <row r="15" customFormat="1" ht="15.75" spans="1:20">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -2898,7 +2898,7 @@
       <c r="S15" s="16"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" customFormat="1" ht="15.5" spans="1:20">
+    <row r="16" customFormat="1" ht="15.75" spans="1:20">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="15.5" spans="1:20">
+    <row r="17" customFormat="1" ht="15.75" spans="1:20">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="15.5" spans="1:20">
+    <row r="18" customFormat="1" ht="15.75" spans="1:20">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -3054,7 +3054,7 @@
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
     </row>
-    <row r="19" customFormat="1" ht="15.5" spans="1:20">
+    <row r="19" customFormat="1" ht="15.75" spans="1:20">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>45451</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="15.5" spans="1:20">
+    <row r="20" customFormat="1" ht="15.75" spans="1:20">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3148,7 +3148,7 @@
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
     </row>
-    <row r="21" customFormat="1" ht="15.5" spans="1:20">
+    <row r="21" customFormat="1" ht="15.75" spans="1:20">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="15.5" spans="1:20">
+    <row r="22" customFormat="1" ht="15.75" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3252,7 +3252,7 @@
         <v>45423</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15.5" spans="1:20">
+    <row r="23" customFormat="1" ht="15.75" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3284,7 +3284,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" customFormat="1" ht="15.5" spans="1:20">
+    <row r="24" customFormat="1" ht="15.75" spans="1:20">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>45325</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="15.5" spans="1:20">
+    <row r="25" customFormat="1" ht="15.75" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3388,7 +3388,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15.5" spans="1:20">
+    <row r="26" s="1" customFormat="1" ht="15.75" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3426,7 +3426,7 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="27" customFormat="1" ht="15.5" spans="1:20">
+    <row r="27" customFormat="1" ht="15.75" spans="1:20">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -3476,7 +3476,7 @@
       <c r="S27" s="16"/>
       <c r="T27" s="16"/>
     </row>
-    <row r="29" customFormat="1" ht="15.5" spans="1:20">
+    <row r="29" customFormat="1" ht="15.75" spans="1:20">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -3498,7 +3498,7 @@
       <c r="S29" s="21"/>
       <c r="T29" s="21"/>
     </row>
-    <row r="30" customFormat="1" ht="15.5" spans="1:20">
+    <row r="30" customFormat="1" ht="15.75" spans="1:20">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -3520,7 +3520,7 @@
       <c r="S30" s="21"/>
       <c r="T30" s="21"/>
     </row>
-    <row r="31" customFormat="1" ht="15.5" spans="1:20">
+    <row r="31" customFormat="1" ht="15.75" spans="1:20">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -3542,7 +3542,7 @@
       <c r="S31" s="21"/>
       <c r="T31" s="21"/>
     </row>
-    <row r="32" customFormat="1" ht="15.5" spans="1:20">
+    <row r="32" customFormat="1" ht="15.75" spans="1:20">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -3564,7 +3564,7 @@
       <c r="S32" s="21"/>
       <c r="T32" s="21"/>
     </row>
-    <row r="33" customFormat="1" ht="15.5" spans="1:20">
+    <row r="33" customFormat="1" ht="15.75" spans="1:20">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3586,7 +3586,7 @@
       <c r="S33" s="21"/>
       <c r="T33" s="21"/>
     </row>
-    <row r="34" customFormat="1" ht="15.5" spans="1:20">
+    <row r="34" customFormat="1" ht="15.75" spans="1:20">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -3608,7 +3608,7 @@
       <c r="S34" s="21"/>
       <c r="T34" s="21"/>
     </row>
-    <row r="35" customFormat="1" ht="15.5" spans="1:20">
+    <row r="35" customFormat="1" ht="15.75" spans="1:20">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -3630,7 +3630,7 @@
       <c r="S35" s="21"/>
       <c r="T35" s="21"/>
     </row>
-    <row r="36" customFormat="1" ht="15.5" spans="1:20">
+    <row r="36" customFormat="1" ht="15.75" spans="1:20">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -221,29 +221,8 @@
     <t>70/90</t>
   </si>
   <si>
-    <t>高一</t>
-  </si>
-  <si>
-    <t>一尔优教育</t>
-  </si>
-  <si>
-    <t>320/2h</t>
-  </si>
-  <si>
-    <t>周日15：30-17：30</t>
-  </si>
-  <si>
-    <t>吴雨桐</t>
-  </si>
-  <si>
-    <t>丽园路轩和苑C区 3-2-102</t>
-  </si>
-  <si>
-    <t>60/150</t>
-  </si>
-  <si>
     <t>转账时间(灰色表示线上上课（课时费1小时100），绿色表示课时费已发)：豌豆文化每月10号；
-星期天培训下个月20号；掌学教育和精锐教育都是下月15号
+精锐教育是当月15号；星期天培训下个月20号；掌学教育是下月15号
 下次考试目标：刘桐语：135，李梦媛：50，孙翊原：120,贾梦垚：130，唐润宁：100
 李梦媛10月12日只上了半节课</t>
   </si>
@@ -323,6 +302,9 @@
     <t>德泽园三区1-1-202</t>
   </si>
   <si>
+    <t>一尔优教育</t>
+  </si>
+  <si>
     <t>周日18：00-20：00</t>
   </si>
   <si>
@@ -444,6 +426,24 @@
   </si>
   <si>
     <t>85/100</t>
+  </si>
+  <si>
+    <t>高一</t>
+  </si>
+  <si>
+    <t>320/2h</t>
+  </si>
+  <si>
+    <t>周日15：30-17：30</t>
+  </si>
+  <si>
+    <t>吴雨桐</t>
+  </si>
+  <si>
+    <t>丽园路轩和苑C区 3-2-102</t>
+  </si>
+  <si>
+    <t>60/150</t>
   </si>
   <si>
     <t xml:space="preserve">绿色表示课时费已发；
@@ -458,8 +458,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -973,19 +973,19 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1164,13 +1164,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1503,7 +1503,7 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1613,20 +1613,20 @@
       <c r="J2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="21">
         <v>45556</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2" s="21">
         <v>45566</v>
       </c>
       <c r="M2" s="24">
         <v>45574</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
     </row>
     <row r="3" customFormat="1" ht="15.75" spans="1:20">
       <c r="A3" s="5" t="s">
@@ -1665,16 +1665,16 @@
       <c r="L3" s="9">
         <v>45557</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3" s="21">
         <v>45578</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
     </row>
     <row r="4" customFormat="1" ht="15.75" spans="1:20">
       <c r="A4" s="5" t="s">
@@ -1723,8 +1723,8 @@
         <v>45578</v>
       </c>
       <c r="P4" s="25"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
       <c r="S4" s="16"/>
       <c r="T4" s="16"/>
     </row>
@@ -1770,11 +1770,11 @@
       </c>
       <c r="N5" s="25"/>
       <c r="O5" s="25"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
     </row>
     <row r="6" customFormat="1" ht="15.75" spans="1:20">
       <c r="A6" s="5" t="s">
@@ -1807,32 +1807,32 @@
       <c r="J6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="21">
         <v>45551</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="21">
         <v>45556</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="21">
         <v>45563</v>
       </c>
-      <c r="N6" s="20">
+      <c r="N6" s="21">
         <v>45566</v>
       </c>
-      <c r="O6" s="20">
+      <c r="O6" s="21">
         <v>45567</v>
       </c>
-      <c r="P6" s="20">
+      <c r="P6" s="21">
         <v>45572</v>
       </c>
-      <c r="Q6" s="20">
+      <c r="Q6" s="21">
         <v>45577</v>
       </c>
-      <c r="R6" s="20">
+      <c r="R6" s="21">
         <v>45578</v>
       </c>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
     </row>
     <row r="7" customFormat="1" ht="15.75" spans="1:20">
       <c r="A7" s="5" t="s">
@@ -1868,19 +1868,19 @@
       <c r="K7" s="12">
         <v>45543</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="9">
         <v>45566</v>
       </c>
-      <c r="M7" s="20">
+      <c r="M7" s="9">
         <v>45567</v>
       </c>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
     </row>
     <row r="8" customFormat="1" ht="15.75" spans="1:20">
       <c r="A8" s="5" t="s">
@@ -1928,7 +1928,7 @@
       <c r="O8" s="12">
         <v>45465</v>
       </c>
-      <c r="P8" s="20">
+      <c r="P8" s="21">
         <v>45572</v>
       </c>
       <c r="Q8" s="16"/>
@@ -1978,56 +1978,12 @@
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
     </row>
-    <row r="10" ht="15.75" spans="1:20">
-      <c r="A10" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="20">
-        <v>45551</v>
-      </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-    </row>
-    <row r="11" s="22" customFormat="1" ht="15.75"/>
-    <row r="12" s="22" customFormat="1" ht="15.75"/>
-    <row r="13" s="22" customFormat="1" ht="15.75"/>
-    <row r="14" s="22" customFormat="1" ht="15.75"/>
-    <row r="15" s="22" customFormat="1" ht="15.75"/>
-    <row r="16" s="22" customFormat="1" ht="15.75" spans="1:9">
+    <row r="11" s="20" customFormat="1" ht="15.75"/>
+    <row r="12" s="20" customFormat="1" ht="15.75"/>
+    <row r="13" s="20" customFormat="1" ht="15.75"/>
+    <row r="14" s="20" customFormat="1" ht="15.75"/>
+    <row r="15" s="20" customFormat="1" ht="15.75"/>
+    <row r="16" s="20" customFormat="1" ht="15.75" spans="1:9">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
@@ -2038,7 +1994,7 @@
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" s="22" customFormat="1" ht="15.75" spans="1:9">
+    <row r="17" s="20" customFormat="1" ht="15.75" spans="1:9">
       <c r="A17" s="23"/>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
@@ -2051,7 +2007,7 @@
     </row>
     <row r="18" ht="18.75" spans="2:13">
       <c r="B18" s="8" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -2132,10 +2088,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U43"/>
+  <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2215,7 +2171,7 @@
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="15.75" spans="1:21">
@@ -2226,25 +2182,25 @@
         <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="J2" s="9">
         <v>45185</v>
@@ -2285,7 +2241,7 @@
     </row>
     <row r="3" customFormat="1" ht="15.75" spans="1:19">
       <c r="A3" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>21</v>
@@ -2294,22 +2250,22 @@
         <v>58</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>22</v>
@@ -2350,25 +2306,25 @@
         <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="J4" s="9">
         <v>45287</v>
@@ -2385,25 +2341,25 @@
         <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>35</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>22</v>
@@ -2439,25 +2395,25 @@
     </row>
     <row r="6" customFormat="1" ht="15.75" spans="1:20">
       <c r="A6" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>41</v>
@@ -2507,25 +2463,25 @@
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>41</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>22</v>
@@ -2553,25 +2509,25 @@
         <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H8" s="6">
         <v>126</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J8" s="14">
         <v>45425</v>
@@ -2594,25 +2550,25 @@
         <v>46</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="J9" s="9">
         <v>45186</v>
@@ -2764,25 +2720,25 @@
         <v>21</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>66</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="J13" s="17" t="s">
         <v>22</v>
@@ -2850,25 +2806,25 @@
         <v>21</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>35</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>22</v>
@@ -2912,16 +2868,16 @@
         <v>23</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>61</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>52</v>
@@ -2974,19 +2930,19 @@
         <v>23</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="J17" s="17" t="s">
         <v>22</v>
@@ -3068,16 +3024,16 @@
         <v>23</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>28</v>
@@ -3162,19 +3118,19 @@
         <v>23</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>22</v>
@@ -3292,25 +3248,25 @@
         <v>21</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="J24" s="19" t="s">
         <v>22</v>
@@ -3434,25 +3390,25 @@
         <v>46</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>66</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="J27" s="12">
         <v>45451</v>
@@ -3476,27 +3432,49 @@
       <c r="S27" s="16"/>
       <c r="T27" s="16"/>
     </row>
-    <row r="29" customFormat="1" ht="15.75" spans="1:20">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
+    <row r="28" customFormat="1" ht="15.75" spans="1:20">
+      <c r="A28" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" s="9">
+        <v>45551</v>
+      </c>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
     </row>
     <row r="30" customFormat="1" ht="15.75" spans="1:20">
       <c r="A30" s="4"/>
@@ -3508,17 +3486,17 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
     </row>
     <row r="31" customFormat="1" ht="15.75" spans="1:20">
       <c r="A31" s="4"/>
@@ -3530,17 +3508,17 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
     </row>
     <row r="32" customFormat="1" ht="15.75" spans="1:20">
       <c r="A32" s="4"/>
@@ -3552,17 +3530,17 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
     </row>
     <row r="33" customFormat="1" ht="15.75" spans="1:20">
       <c r="A33" s="4"/>
@@ -3574,17 +3552,17 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
     </row>
     <row r="34" customFormat="1" ht="15.75" spans="1:20">
       <c r="A34" s="4"/>
@@ -3596,17 +3574,17 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="22"/>
     </row>
     <row r="35" customFormat="1" ht="15.75" spans="1:20">
       <c r="A35" s="4"/>
@@ -3618,17 +3596,17 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="21"/>
-      <c r="T35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="22"/>
     </row>
     <row r="36" customFormat="1" ht="15.75" spans="1:20">
       <c r="A36" s="4"/>
@@ -3640,34 +3618,44 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="21"/>
-      <c r="T36" s="21"/>
-    </row>
-    <row r="37" spans="2:11">
-      <c r="B37" s="8" t="s">
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+    </row>
+    <row r="37" customFormat="1" ht="15.75" spans="1:20">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-    </row>
-    <row r="38" spans="2:11">
-      <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -3737,6 +3725,18 @@
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="61">
@@ -3800,7 +3800,7 @@
     <mergeCell ref="J19:J20"/>
     <mergeCell ref="J21:J23"/>
     <mergeCell ref="J24:J26"/>
-    <mergeCell ref="B37:K43"/>
+    <mergeCell ref="B38:K44"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -459,8 +459,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -976,16 +976,16 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1503,7 +1503,7 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1807,13 +1807,13 @@
       <c r="J6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="9">
         <v>45551</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="9">
         <v>45556</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="9">
         <v>45563</v>
       </c>
       <c r="N6" s="21">

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="25600" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Doing" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
     <t>周六15：30-17：30</t>
   </si>
   <si>
-    <t>唐润宁</t>
+    <t>郭润宁</t>
   </si>
   <si>
     <t>西山东街261号 华美·博奥小区 7-3-401</t>
@@ -457,10 +457,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -964,7 +964,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -973,10 +973,10 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -985,7 +985,7 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1503,10 +1503,10 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="5.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
@@ -1520,7 +1520,7 @@
     <col min="11" max="20" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:20">
+    <row r="1" ht="15.5" spans="1:20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.75" spans="1:18">
+    <row r="2" customFormat="1" ht="15.5" spans="1:18">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -1622,13 +1622,15 @@
       <c r="M2" s="24">
         <v>45574</v>
       </c>
-      <c r="N2" s="20"/>
+      <c r="N2" s="21">
+        <v>45584</v>
+      </c>
       <c r="O2" s="20"/>
       <c r="P2" s="20"/>
       <c r="Q2" s="20"/>
       <c r="R2" s="20"/>
     </row>
-    <row r="3" customFormat="1" ht="15.75" spans="1:20">
+    <row r="3" customFormat="1" ht="15.5" spans="1:20">
       <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
@@ -1668,7 +1670,9 @@
       <c r="M3" s="21">
         <v>45578</v>
       </c>
-      <c r="N3" s="20"/>
+      <c r="N3" s="21">
+        <v>45584</v>
+      </c>
       <c r="O3" s="20"/>
       <c r="P3" s="20"/>
       <c r="Q3" s="20"/>
@@ -1676,7 +1680,7 @@
       <c r="S3" s="20"/>
       <c r="T3" s="20"/>
     </row>
-    <row r="4" customFormat="1" ht="15.75" spans="1:20">
+    <row r="4" customFormat="1" ht="15.5" spans="1:20">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1722,13 +1726,15 @@
       <c r="O4" s="9">
         <v>45578</v>
       </c>
-      <c r="P4" s="25"/>
+      <c r="P4" s="9">
+        <v>45585</v>
+      </c>
       <c r="Q4" s="20"/>
       <c r="R4" s="20"/>
       <c r="S4" s="16"/>
       <c r="T4" s="16"/>
     </row>
-    <row r="5" customFormat="1" ht="15.75" spans="1:20">
+    <row r="5" customFormat="1" ht="15.5" spans="1:20">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1768,15 +1774,16 @@
       <c r="M5" s="9">
         <v>45572</v>
       </c>
-      <c r="N5" s="25"/>
+      <c r="N5" s="9">
+        <v>45585</v>
+      </c>
       <c r="O5" s="25"/>
       <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
       <c r="R5" s="20"/>
       <c r="S5" s="20"/>
       <c r="T5" s="20"/>
     </row>
-    <row r="6" customFormat="1" ht="15.75" spans="1:20">
+    <row r="6" customFormat="1" ht="15.5" spans="1:20">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
@@ -1831,10 +1838,12 @@
       <c r="R6" s="21">
         <v>45578</v>
       </c>
-      <c r="S6" s="20"/>
+      <c r="S6" s="21">
+        <v>45585</v>
+      </c>
       <c r="T6" s="20"/>
     </row>
-    <row r="7" customFormat="1" ht="15.75" spans="1:20">
+    <row r="7" customFormat="1" ht="15.5" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -1874,7 +1883,9 @@
       <c r="M7" s="9">
         <v>45567</v>
       </c>
-      <c r="N7" s="21"/>
+      <c r="N7" s="21">
+        <v>45585</v>
+      </c>
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
@@ -1882,7 +1893,7 @@
       <c r="S7" s="20"/>
       <c r="T7" s="20"/>
     </row>
-    <row r="8" customFormat="1" ht="15.75" spans="1:20">
+    <row r="8" customFormat="1" ht="15.5" spans="1:20">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
@@ -1936,7 +1947,7 @@
       <c r="S8" s="16"/>
       <c r="T8" s="16"/>
     </row>
-    <row r="9" customFormat="1" ht="15.75" spans="1:18">
+    <row r="9" customFormat="1" ht="15.5" spans="1:18">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
@@ -1978,12 +1989,12 @@
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
     </row>
-    <row r="11" s="20" customFormat="1" ht="15.75"/>
-    <row r="12" s="20" customFormat="1" ht="15.75"/>
-    <row r="13" s="20" customFormat="1" ht="15.75"/>
-    <row r="14" s="20" customFormat="1" ht="15.75"/>
-    <row r="15" s="20" customFormat="1" ht="15.75"/>
-    <row r="16" s="20" customFormat="1" ht="15.75" spans="1:9">
+    <row r="11" s="20" customFormat="1" ht="15.5"/>
+    <row r="12" s="20" customFormat="1" ht="15.5"/>
+    <row r="13" s="20" customFormat="1" ht="15.5"/>
+    <row r="14" s="20" customFormat="1" ht="15.5"/>
+    <row r="15" s="20" customFormat="1" ht="15.5"/>
+    <row r="16" s="20" customFormat="1" ht="15.5" spans="1:9">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
@@ -1994,7 +2005,7 @@
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" s="20" customFormat="1" ht="15.75" spans="1:9">
+    <row r="17" s="20" customFormat="1" ht="15.5" spans="1:9">
       <c r="A17" s="23"/>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
@@ -2005,7 +2016,7 @@
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
     </row>
-    <row r="18" ht="18.75" spans="2:13">
+    <row r="18" ht="17.5" spans="2:13">
       <c r="B18" s="8" t="s">
         <v>68</v>
       </c>
@@ -2021,7 +2032,7 @@
       <c r="L18" s="26"/>
       <c r="M18" s="26"/>
     </row>
-    <row r="19" ht="18.75" spans="2:13">
+    <row r="19" ht="17.5" spans="2:13">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -2035,7 +2046,7 @@
       <c r="L19" s="26"/>
       <c r="M19" s="26"/>
     </row>
-    <row r="20" ht="18.75" spans="2:12">
+    <row r="20" ht="17.5" spans="2:12">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -2047,7 +2058,7 @@
       <c r="K20" s="26"/>
       <c r="L20" s="26"/>
     </row>
-    <row r="21" ht="18.75" spans="2:13">
+    <row r="21" ht="17.5" spans="2:13">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2061,7 +2072,7 @@
       <c r="L21" s="26"/>
       <c r="M21" s="26"/>
     </row>
-    <row r="22" ht="18.75" spans="2:13">
+    <row r="22" ht="17.5" spans="2:13">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -2094,7 +2105,7 @@
       <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="4.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
@@ -2109,7 +2120,7 @@
     <col min="22" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:21">
+    <row r="1" ht="15.5" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2174,7 +2185,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.75" spans="1:21">
+    <row r="2" customFormat="1" ht="15.5" spans="1:21">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -2239,7 +2250,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15.75" spans="1:19">
+    <row r="3" customFormat="1" ht="15.5" spans="1:19">
       <c r="A3" s="4" t="s">
         <v>76</v>
       </c>
@@ -2298,7 +2309,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.75" spans="1:11">
+    <row r="4" customFormat="1" ht="15.5" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -2333,7 +2344,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15.75" spans="1:20">
+    <row r="5" customFormat="1" ht="15.5" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -2393,7 +2404,7 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" customFormat="1" ht="15.75" spans="1:20">
+    <row r="6" customFormat="1" ht="15.5" spans="1:20">
       <c r="A6" s="4" t="s">
         <v>76</v>
       </c>
@@ -2455,7 +2466,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.75" spans="1:20">
+    <row r="7" customFormat="1" ht="15.5" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -2542,7 +2553,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" customFormat="1" ht="15.75" spans="1:20">
+    <row r="9" customFormat="1" ht="15.5" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -2604,7 +2615,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.75" spans="1:20">
+    <row r="10" customFormat="1" ht="15.5" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2646,7 +2657,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15.75" spans="1:20">
+    <row r="11" customFormat="1" ht="15.5" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2688,7 +2699,7 @@
         <v>45445</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15.75" spans="1:20">
+    <row r="12" customFormat="1" ht="15.5" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2712,7 +2723,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" customFormat="1" ht="15.75" spans="1:20">
+    <row r="13" customFormat="1" ht="15.5" spans="1:20">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -2774,7 +2785,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="15.75" spans="1:20">
+    <row r="14" customFormat="1" ht="15.5" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2798,7 +2809,7 @@
       <c r="S14" s="16"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" customFormat="1" ht="15.75" spans="1:20">
+    <row r="15" customFormat="1" ht="15.5" spans="1:20">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -2854,7 +2865,7 @@
       <c r="S15" s="16"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" customFormat="1" ht="15.75" spans="1:20">
+    <row r="16" customFormat="1" ht="15.5" spans="1:20">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -2916,7 +2927,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="15.75" spans="1:20">
+    <row r="17" customFormat="1" ht="15.5" spans="1:20">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -2978,7 +2989,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="15.75" spans="1:20">
+    <row r="18" customFormat="1" ht="15.5" spans="1:20">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -3010,7 +3021,7 @@
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
     </row>
-    <row r="19" customFormat="1" ht="15.75" spans="1:20">
+    <row r="19" customFormat="1" ht="15.5" spans="1:20">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -3072,7 +3083,7 @@
         <v>45451</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="15.75" spans="1:20">
+    <row r="20" customFormat="1" ht="15.5" spans="1:20">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3104,7 +3115,7 @@
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
     </row>
-    <row r="21" customFormat="1" ht="15.75" spans="1:20">
+    <row r="21" customFormat="1" ht="15.5" spans="1:20">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -3166,7 +3177,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="15.75" spans="1:20">
+    <row r="22" customFormat="1" ht="15.5" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3208,7 +3219,7 @@
         <v>45423</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15.75" spans="1:20">
+    <row r="23" customFormat="1" ht="15.5" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3240,7 +3251,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" customFormat="1" ht="15.75" spans="1:20">
+    <row r="24" customFormat="1" ht="15.5" spans="1:20">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
@@ -3302,7 +3313,7 @@
         <v>45325</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="15.75" spans="1:20">
+    <row r="25" customFormat="1" ht="15.5" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3344,7 +3355,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15.75" spans="1:20">
+    <row r="26" s="1" customFormat="1" ht="15.5" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3382,7 +3393,7 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="27" customFormat="1" ht="15.75" spans="1:20">
+    <row r="27" customFormat="1" ht="15.5" spans="1:20">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -3432,7 +3443,7 @@
       <c r="S27" s="16"/>
       <c r="T27" s="16"/>
     </row>
-    <row r="28" customFormat="1" ht="15.75" spans="1:20">
+    <row r="28" customFormat="1" ht="15.5" spans="1:20">
       <c r="A28" s="5" t="s">
         <v>136</v>
       </c>
@@ -3476,7 +3487,7 @@
       <c r="S28" s="21"/>
       <c r="T28" s="21"/>
     </row>
-    <row r="30" customFormat="1" ht="15.75" spans="1:20">
+    <row r="30" customFormat="1" ht="15.5" spans="1:20">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -3498,7 +3509,7 @@
       <c r="S30" s="22"/>
       <c r="T30" s="22"/>
     </row>
-    <row r="31" customFormat="1" ht="15.75" spans="1:20">
+    <row r="31" customFormat="1" ht="15.5" spans="1:20">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -3520,7 +3531,7 @@
       <c r="S31" s="22"/>
       <c r="T31" s="22"/>
     </row>
-    <row r="32" customFormat="1" ht="15.75" spans="1:20">
+    <row r="32" customFormat="1" ht="15.5" spans="1:20">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -3542,7 +3553,7 @@
       <c r="S32" s="22"/>
       <c r="T32" s="22"/>
     </row>
-    <row r="33" customFormat="1" ht="15.75" spans="1:20">
+    <row r="33" customFormat="1" ht="15.5" spans="1:20">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3564,7 +3575,7 @@
       <c r="S33" s="22"/>
       <c r="T33" s="22"/>
     </row>
-    <row r="34" customFormat="1" ht="15.75" spans="1:20">
+    <row r="34" customFormat="1" ht="15.5" spans="1:20">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -3586,7 +3597,7 @@
       <c r="S34" s="22"/>
       <c r="T34" s="22"/>
     </row>
-    <row r="35" customFormat="1" ht="15.75" spans="1:20">
+    <row r="35" customFormat="1" ht="15.5" spans="1:20">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -3608,7 +3619,7 @@
       <c r="S35" s="22"/>
       <c r="T35" s="22"/>
     </row>
-    <row r="36" customFormat="1" ht="15.75" spans="1:20">
+    <row r="36" customFormat="1" ht="15.5" spans="1:20">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -3630,7 +3641,7 @@
       <c r="S36" s="22"/>
       <c r="T36" s="22"/>
     </row>
-    <row r="37" customFormat="1" ht="15.75" spans="1:20">
+    <row r="37" customFormat="1" ht="15.5" spans="1:20">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12330"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Doing" sheetId="1" r:id="rId1"/>
@@ -457,10 +457,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -964,7 +964,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -973,10 +973,10 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -985,7 +985,7 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1109,7 +1109,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1177,10 +1177,14 @@
     <xf numFmtId="58" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1500,13 +1504,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="5.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
@@ -1520,7 +1524,7 @@
     <col min="11" max="20" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:20">
+    <row r="1" ht="15.75" spans="1:20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1582,7 +1586,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.5" spans="1:18">
+    <row r="2" customFormat="1" ht="15.75" spans="1:18">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -1630,7 +1634,7 @@
       <c r="Q2" s="20"/>
       <c r="R2" s="20"/>
     </row>
-    <row r="3" customFormat="1" ht="15.5" spans="1:20">
+    <row r="3" customFormat="1" ht="15.75" spans="1:20">
       <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
@@ -1680,20 +1684,20 @@
       <c r="S3" s="20"/>
       <c r="T3" s="20"/>
     </row>
-    <row r="4" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A4" s="5" t="s">
+    <row r="4" customFormat="1" ht="15.75" spans="1:20">
+      <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -1702,13 +1706,13 @@
       <c r="G4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>41</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K4" s="12">
@@ -1729,225 +1733,193 @@
       <c r="P4" s="9">
         <v>45585</v>
       </c>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-    </row>
-    <row r="5" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="9">
-        <v>45557</v>
-      </c>
-      <c r="L5" s="9">
-        <v>45566</v>
-      </c>
-      <c r="M5" s="9">
-        <v>45572</v>
-      </c>
-      <c r="N5" s="9">
-        <v>45585</v>
-      </c>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+    </row>
+    <row r="5" customFormat="1" ht="15.75" spans="1:20">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
       <c r="O5" s="25"/>
-      <c r="P5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-    </row>
-    <row r="6" customFormat="1" ht="15.5" spans="1:20">
+      <c r="P5" s="25"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+    </row>
+    <row r="6" customFormat="1" ht="15.75" spans="1:20">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>22</v>
       </c>
       <c r="K6" s="9">
-        <v>45551</v>
+        <v>45557</v>
       </c>
       <c r="L6" s="9">
-        <v>45556</v>
+        <v>45566</v>
       </c>
       <c r="M6" s="9">
-        <v>45563</v>
-      </c>
-      <c r="N6" s="21">
-        <v>45566</v>
-      </c>
-      <c r="O6" s="21">
-        <v>45567</v>
-      </c>
-      <c r="P6" s="21">
         <v>45572</v>
       </c>
-      <c r="Q6" s="21">
-        <v>45577</v>
-      </c>
-      <c r="R6" s="21">
-        <v>45578</v>
-      </c>
-      <c r="S6" s="21">
+      <c r="N6" s="9">
         <v>45585</v>
       </c>
+      <c r="O6" s="26"/>
+      <c r="P6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
       <c r="T6" s="20"/>
     </row>
-    <row r="7" customFormat="1" ht="15.5" spans="1:20">
+    <row r="7" customFormat="1" ht="15.75" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="12">
-        <v>45543</v>
+      <c r="K7" s="9">
+        <v>45551</v>
       </c>
       <c r="L7" s="9">
+        <v>45556</v>
+      </c>
+      <c r="M7" s="9">
+        <v>45563</v>
+      </c>
+      <c r="N7" s="21">
         <v>45566</v>
       </c>
-      <c r="M7" s="9">
+      <c r="O7" s="21">
         <v>45567</v>
       </c>
-      <c r="N7" s="21">
+      <c r="P7" s="21">
+        <v>45572</v>
+      </c>
+      <c r="Q7" s="21">
+        <v>45577</v>
+      </c>
+      <c r="R7" s="21">
+        <v>45578</v>
+      </c>
+      <c r="S7" s="21">
         <v>45585</v>
       </c>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="20"/>
       <c r="T7" s="20"/>
     </row>
-    <row r="8" customFormat="1" ht="15.5" spans="1:20">
+    <row r="8" customFormat="1" ht="15.75" spans="1:20">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>62</v>
+      <c r="I8" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>22</v>
       </c>
       <c r="K8" s="12">
-        <v>45430</v>
-      </c>
-      <c r="L8" s="12">
-        <v>45437</v>
-      </c>
-      <c r="M8" s="12">
-        <v>45451</v>
-      </c>
-      <c r="N8" s="12">
-        <v>45458</v>
-      </c>
-      <c r="O8" s="12">
-        <v>45465</v>
-      </c>
-      <c r="P8" s="21">
-        <v>45572</v>
-      </c>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-    </row>
-    <row r="9" customFormat="1" ht="15.5" spans="1:18">
+        <v>45543</v>
+      </c>
+      <c r="L8" s="9">
+        <v>45566</v>
+      </c>
+      <c r="M8" s="9">
+        <v>45567</v>
+      </c>
+      <c r="N8" s="21">
+        <v>45585</v>
+      </c>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+    </row>
+    <row r="9" customFormat="1" ht="15.75" spans="1:20">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
@@ -1955,57 +1927,100 @@
         <v>46</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>22</v>
       </c>
       <c r="K9" s="12">
-        <v>45552</v>
-      </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
+        <v>45430</v>
+      </c>
+      <c r="L9" s="12">
+        <v>45437</v>
+      </c>
+      <c r="M9" s="12">
+        <v>45451</v>
+      </c>
+      <c r="N9" s="12">
+        <v>45458</v>
+      </c>
+      <c r="O9" s="12">
+        <v>45465</v>
+      </c>
+      <c r="P9" s="21">
+        <v>45572</v>
+      </c>
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
-    </row>
-    <row r="11" s="20" customFormat="1" ht="15.5"/>
-    <row r="12" s="20" customFormat="1" ht="15.5"/>
-    <row r="13" s="20" customFormat="1" ht="15.5"/>
-    <row r="14" s="20" customFormat="1" ht="15.5"/>
-    <row r="15" s="20" customFormat="1" ht="15.5"/>
-    <row r="16" s="20" customFormat="1" ht="15.5" spans="1:9">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-    </row>
-    <row r="17" s="20" customFormat="1" ht="15.5" spans="1:9">
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+    </row>
+    <row r="10" customFormat="1" ht="15.75" spans="1:18">
+      <c r="A10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="12">
+        <v>45552</v>
+      </c>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+    </row>
+    <row r="12" s="20" customFormat="1" ht="15.75"/>
+    <row r="13" s="20" customFormat="1" ht="15.75"/>
+    <row r="14" s="20" customFormat="1" ht="15.75"/>
+    <row r="15" s="20" customFormat="1" ht="15.75"/>
+    <row r="16" s="20" customFormat="1" ht="15.75"/>
+    <row r="17" s="20" customFormat="1" ht="15.75" spans="1:9">
       <c r="A17" s="23"/>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
@@ -2016,24 +2031,21 @@
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
     </row>
-    <row r="18" ht="17.5" spans="2:13">
-      <c r="B18" s="8" t="s">
+    <row r="18" s="20" customFormat="1" ht="15.75" spans="1:9">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+    </row>
+    <row r="19" ht="18.75" spans="2:13">
+      <c r="B19" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-    </row>
-    <row r="19" ht="17.5" spans="2:13">
-      <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -2041,12 +2053,12 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-    </row>
-    <row r="20" ht="17.5" spans="2:12">
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+    </row>
+    <row r="20" ht="18.75" spans="2:13">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -2055,10 +2067,12 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-    </row>
-    <row r="21" ht="17.5" spans="2:13">
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+    </row>
+    <row r="21" ht="18.75" spans="2:12">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2067,12 +2081,10 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-    </row>
-    <row r="22" ht="17.5" spans="2:13">
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+    </row>
+    <row r="22" ht="18.75" spans="2:13">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -2081,14 +2093,38 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+    </row>
+    <row r="23" ht="18.75" spans="2:13">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B18:I22"/>
+  <mergeCells count="11">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="B19:I23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -2105,7 +2141,7 @@
       <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="4.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
@@ -2120,7 +2156,7 @@
     <col min="22" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:21">
+    <row r="1" ht="15.75" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2185,7 +2221,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.5" spans="1:21">
+    <row r="2" customFormat="1" ht="15.75" spans="1:21">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -2250,7 +2286,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15.5" spans="1:19">
+    <row r="3" customFormat="1" ht="15.75" spans="1:19">
       <c r="A3" s="4" t="s">
         <v>76</v>
       </c>
@@ -2309,7 +2345,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.5" spans="1:11">
+    <row r="4" customFormat="1" ht="15.75" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -2344,7 +2380,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15.5" spans="1:20">
+    <row r="5" customFormat="1" ht="15.75" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -2404,7 +2440,7 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" customFormat="1" ht="15.5" spans="1:20">
+    <row r="6" customFormat="1" ht="15.75" spans="1:20">
       <c r="A6" s="4" t="s">
         <v>76</v>
       </c>
@@ -2466,7 +2502,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.5" spans="1:20">
+    <row r="7" customFormat="1" ht="15.75" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -2553,7 +2589,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" customFormat="1" ht="15.5" spans="1:20">
+    <row r="9" customFormat="1" ht="15.75" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -2615,7 +2651,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.5" spans="1:20">
+    <row r="10" customFormat="1" ht="15.75" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2657,7 +2693,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15.5" spans="1:20">
+    <row r="11" customFormat="1" ht="15.75" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2699,7 +2735,7 @@
         <v>45445</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15.5" spans="1:20">
+    <row r="12" customFormat="1" ht="15.75" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2723,7 +2759,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" customFormat="1" ht="15.5" spans="1:20">
+    <row r="13" customFormat="1" ht="15.75" spans="1:20">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -2785,7 +2821,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="15.5" spans="1:20">
+    <row r="14" customFormat="1" ht="15.75" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2809,7 +2845,7 @@
       <c r="S14" s="16"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" customFormat="1" ht="15.5" spans="1:20">
+    <row r="15" customFormat="1" ht="15.75" spans="1:20">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -2865,7 +2901,7 @@
       <c r="S15" s="16"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" customFormat="1" ht="15.5" spans="1:20">
+    <row r="16" customFormat="1" ht="15.75" spans="1:20">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -2927,7 +2963,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="15.5" spans="1:20">
+    <row r="17" customFormat="1" ht="15.75" spans="1:20">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -2989,7 +3025,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="15.5" spans="1:20">
+    <row r="18" customFormat="1" ht="15.75" spans="1:20">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -3021,7 +3057,7 @@
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
     </row>
-    <row r="19" customFormat="1" ht="15.5" spans="1:20">
+    <row r="19" customFormat="1" ht="15.75" spans="1:20">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -3083,7 +3119,7 @@
         <v>45451</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="15.5" spans="1:20">
+    <row r="20" customFormat="1" ht="15.75" spans="1:20">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3115,7 +3151,7 @@
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
     </row>
-    <row r="21" customFormat="1" ht="15.5" spans="1:20">
+    <row r="21" customFormat="1" ht="15.75" spans="1:20">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -3177,7 +3213,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="15.5" spans="1:20">
+    <row r="22" customFormat="1" ht="15.75" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3219,7 +3255,7 @@
         <v>45423</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15.5" spans="1:20">
+    <row r="23" customFormat="1" ht="15.75" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3251,7 +3287,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" customFormat="1" ht="15.5" spans="1:20">
+    <row r="24" customFormat="1" ht="15.75" spans="1:20">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
@@ -3313,7 +3349,7 @@
         <v>45325</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="15.5" spans="1:20">
+    <row r="25" customFormat="1" ht="15.75" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3355,7 +3391,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15.5" spans="1:20">
+    <row r="26" s="1" customFormat="1" ht="15.75" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3393,7 +3429,7 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="27" customFormat="1" ht="15.5" spans="1:20">
+    <row r="27" customFormat="1" ht="15.75" spans="1:20">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -3443,7 +3479,7 @@
       <c r="S27" s="16"/>
       <c r="T27" s="16"/>
     </row>
-    <row r="28" customFormat="1" ht="15.5" spans="1:20">
+    <row r="28" customFormat="1" ht="15.75" spans="1:20">
       <c r="A28" s="5" t="s">
         <v>136</v>
       </c>
@@ -3487,7 +3523,7 @@
       <c r="S28" s="21"/>
       <c r="T28" s="21"/>
     </row>
-    <row r="30" customFormat="1" ht="15.5" spans="1:20">
+    <row r="30" customFormat="1" ht="15.75" spans="1:20">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -3509,7 +3545,7 @@
       <c r="S30" s="22"/>
       <c r="T30" s="22"/>
     </row>
-    <row r="31" customFormat="1" ht="15.5" spans="1:20">
+    <row r="31" customFormat="1" ht="15.75" spans="1:20">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -3531,7 +3567,7 @@
       <c r="S31" s="22"/>
       <c r="T31" s="22"/>
     </row>
-    <row r="32" customFormat="1" ht="15.5" spans="1:20">
+    <row r="32" customFormat="1" ht="15.75" spans="1:20">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -3553,7 +3589,7 @@
       <c r="S32" s="22"/>
       <c r="T32" s="22"/>
     </row>
-    <row r="33" customFormat="1" ht="15.5" spans="1:20">
+    <row r="33" customFormat="1" ht="15.75" spans="1:20">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3575,7 +3611,7 @@
       <c r="S33" s="22"/>
       <c r="T33" s="22"/>
     </row>
-    <row r="34" customFormat="1" ht="15.5" spans="1:20">
+    <row r="34" customFormat="1" ht="15.75" spans="1:20">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -3597,7 +3633,7 @@
       <c r="S34" s="22"/>
       <c r="T34" s="22"/>
     </row>
-    <row r="35" customFormat="1" ht="15.5" spans="1:20">
+    <row r="35" customFormat="1" ht="15.75" spans="1:20">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -3619,7 +3655,7 @@
       <c r="S35" s="22"/>
       <c r="T35" s="22"/>
     </row>
-    <row r="36" customFormat="1" ht="15.5" spans="1:20">
+    <row r="36" customFormat="1" ht="15.75" spans="1:20">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -3641,7 +3677,7 @@
       <c r="S36" s="22"/>
       <c r="T36" s="22"/>
     </row>
-    <row r="37" customFormat="1" ht="15.5" spans="1:20">
+    <row r="37" customFormat="1" ht="15.75" spans="1:20">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -457,9 +457,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -964,21 +964,21 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1109,7 +1109,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1175,9 +1175,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1671,7 +1668,7 @@
       <c r="L3" s="9">
         <v>45557</v>
       </c>
-      <c r="M3" s="21">
+      <c r="M3" s="9">
         <v>45578</v>
       </c>
       <c r="N3" s="21">
@@ -1733,8 +1730,8 @@
       <c r="P4" s="9">
         <v>45585</v>
       </c>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
       <c r="S4" s="12"/>
       <c r="T4" s="12"/>
     </row>
@@ -1750,15 +1747,15 @@
       <c r="I5" s="4"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
     </row>
     <row r="6" customFormat="1" ht="15.75" spans="1:20">
       <c r="A6" s="5" t="s">
@@ -1803,7 +1800,7 @@
       <c r="N6" s="9">
         <v>45585</v>
       </c>
-      <c r="O6" s="26"/>
+      <c r="O6" s="25"/>
       <c r="P6" s="20"/>
       <c r="R6" s="20"/>
       <c r="S6" s="20"/>
@@ -2053,10 +2050,10 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
     </row>
     <row r="20" ht="18.75" spans="2:13">
       <c r="B20" s="8"/>
@@ -2067,10 +2064,10 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
     </row>
     <row r="21" ht="18.75" spans="2:12">
       <c r="B21" s="8"/>
@@ -2081,8 +2078,8 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
     </row>
     <row r="22" ht="18.75" spans="2:13">
       <c r="B22" s="8"/>
@@ -2093,10 +2090,10 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
     </row>
     <row r="23" ht="18.75" spans="2:13">
       <c r="B23" s="8"/>
@@ -2107,10 +2104,10 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="25600" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Doing" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
     <t>兵一</t>
   </si>
   <si>
-    <t>98/100</t>
+    <t>90/100</t>
   </si>
   <si>
     <t>270/2h</t>
@@ -457,10 +457,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -964,7 +964,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -973,10 +973,10 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -985,7 +985,7 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1177,10 +1177,10 @@
     <xf numFmtId="58" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1504,10 +1504,10 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="5.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
@@ -1521,7 +1521,7 @@
     <col min="11" max="20" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:20">
+    <row r="1" ht="15.5" spans="1:20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.75" spans="1:18">
+    <row r="2" customFormat="1" ht="15.5" spans="1:18">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -1626,12 +1626,14 @@
       <c r="N2" s="21">
         <v>45584</v>
       </c>
-      <c r="O2" s="20"/>
+      <c r="O2" s="21">
+        <v>45591</v>
+      </c>
       <c r="P2" s="20"/>
       <c r="Q2" s="20"/>
       <c r="R2" s="20"/>
     </row>
-    <row r="3" customFormat="1" ht="15.75" spans="1:20">
+    <row r="3" customFormat="1" ht="15.5" spans="1:20">
       <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
@@ -1674,14 +1676,16 @@
       <c r="N3" s="21">
         <v>45584</v>
       </c>
-      <c r="O3" s="20"/>
+      <c r="O3" s="21">
+        <v>45591</v>
+      </c>
       <c r="P3" s="20"/>
       <c r="Q3" s="20"/>
       <c r="R3" s="20"/>
       <c r="S3" s="20"/>
       <c r="T3" s="20"/>
     </row>
-    <row r="4" customFormat="1" ht="15.75" spans="1:20">
+    <row r="4" customFormat="1" ht="15.5" spans="1:20">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -1730,12 +1734,14 @@
       <c r="P4" s="9">
         <v>45585</v>
       </c>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
+      <c r="Q4" s="9">
+        <v>45592</v>
+      </c>
+      <c r="R4" s="26"/>
       <c r="S4" s="12"/>
       <c r="T4" s="12"/>
     </row>
-    <row r="5" customFormat="1" ht="15.75" spans="1:20">
+    <row r="5" customFormat="1" ht="15.5" spans="1:20">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1757,7 +1763,7 @@
       <c r="S5" s="21"/>
       <c r="T5" s="21"/>
     </row>
-    <row r="6" customFormat="1" ht="15.75" spans="1:20">
+    <row r="6" customFormat="1" ht="15.5" spans="1:20">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
@@ -1800,13 +1806,15 @@
       <c r="N6" s="9">
         <v>45585</v>
       </c>
-      <c r="O6" s="25"/>
+      <c r="O6" s="9">
+        <v>45592</v>
+      </c>
       <c r="P6" s="20"/>
       <c r="R6" s="20"/>
       <c r="S6" s="20"/>
       <c r="T6" s="20"/>
     </row>
-    <row r="7" customFormat="1" ht="15.75" spans="1:20">
+    <row r="7" customFormat="1" ht="15.5" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -1864,9 +1872,11 @@
       <c r="S7" s="21">
         <v>45585</v>
       </c>
-      <c r="T7" s="20"/>
-    </row>
-    <row r="8" customFormat="1" ht="15.75" spans="1:20">
+      <c r="T7" s="21">
+        <v>45592</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" ht="15.5" spans="1:20">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
@@ -1909,14 +1919,16 @@
       <c r="N8" s="21">
         <v>45585</v>
       </c>
-      <c r="O8" s="21"/>
+      <c r="O8" s="21">
+        <v>45592</v>
+      </c>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
       <c r="S8" s="20"/>
       <c r="T8" s="20"/>
     </row>
-    <row r="9" customFormat="1" ht="15.75" spans="1:20">
+    <row r="9" customFormat="1" ht="15.5" spans="1:20">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
@@ -1970,7 +1982,7 @@
       <c r="S9" s="16"/>
       <c r="T9" s="16"/>
     </row>
-    <row r="10" customFormat="1" ht="15.75" spans="1:18">
+    <row r="10" customFormat="1" ht="15.5" spans="1:18">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
@@ -2012,12 +2024,12 @@
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
     </row>
-    <row r="12" s="20" customFormat="1" ht="15.75"/>
-    <row r="13" s="20" customFormat="1" ht="15.75"/>
-    <row r="14" s="20" customFormat="1" ht="15.75"/>
-    <row r="15" s="20" customFormat="1" ht="15.75"/>
-    <row r="16" s="20" customFormat="1" ht="15.75"/>
-    <row r="17" s="20" customFormat="1" ht="15.75" spans="1:9">
+    <row r="12" s="20" customFormat="1" ht="15.5"/>
+    <row r="13" s="20" customFormat="1" ht="15.5"/>
+    <row r="14" s="20" customFormat="1" ht="15.5"/>
+    <row r="15" s="20" customFormat="1" ht="15.5"/>
+    <row r="16" s="20" customFormat="1" ht="15.5"/>
+    <row r="17" s="20" customFormat="1" ht="15.5" spans="1:9">
       <c r="A17" s="23"/>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
@@ -2028,7 +2040,7 @@
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
     </row>
-    <row r="18" s="20" customFormat="1" ht="15.75" spans="1:9">
+    <row r="18" s="20" customFormat="1" ht="15.5" spans="1:9">
       <c r="A18" s="23"/>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -2039,7 +2051,7 @@
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
     </row>
-    <row r="19" ht="18.75" spans="2:13">
+    <row r="19" ht="17.5" spans="2:13">
       <c r="B19" s="8" t="s">
         <v>68</v>
       </c>
@@ -2050,12 +2062,12 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-    </row>
-    <row r="20" ht="18.75" spans="2:13">
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+    </row>
+    <row r="20" ht="17.5" spans="2:13">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -2064,12 +2076,12 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-    </row>
-    <row r="21" ht="18.75" spans="2:12">
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+    </row>
+    <row r="21" ht="17.5" spans="2:12">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2078,10 +2090,10 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-    </row>
-    <row r="22" ht="18.75" spans="2:13">
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+    </row>
+    <row r="22" ht="17.5" spans="2:13">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -2090,12 +2102,12 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-    </row>
-    <row r="23" ht="18.75" spans="2:13">
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+    </row>
+    <row r="23" ht="17.5" spans="2:13">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -2104,10 +2116,10 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2138,7 +2150,7 @@
       <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="4.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
@@ -2153,7 +2165,7 @@
     <col min="22" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:21">
+    <row r="1" ht="15.5" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2218,7 +2230,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.75" spans="1:21">
+    <row r="2" customFormat="1" ht="15.5" spans="1:21">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -2283,7 +2295,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15.75" spans="1:19">
+    <row r="3" customFormat="1" ht="15.5" spans="1:19">
       <c r="A3" s="4" t="s">
         <v>76</v>
       </c>
@@ -2342,7 +2354,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.75" spans="1:11">
+    <row r="4" customFormat="1" ht="15.5" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -2377,7 +2389,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15.75" spans="1:20">
+    <row r="5" customFormat="1" ht="15.5" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -2437,7 +2449,7 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" customFormat="1" ht="15.75" spans="1:20">
+    <row r="6" customFormat="1" ht="15.5" spans="1:20">
       <c r="A6" s="4" t="s">
         <v>76</v>
       </c>
@@ -2499,7 +2511,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.75" spans="1:20">
+    <row r="7" customFormat="1" ht="15.5" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -2586,7 +2598,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" customFormat="1" ht="15.75" spans="1:20">
+    <row r="9" customFormat="1" ht="15.5" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -2648,7 +2660,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.75" spans="1:20">
+    <row r="10" customFormat="1" ht="15.5" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2690,7 +2702,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15.75" spans="1:20">
+    <row r="11" customFormat="1" ht="15.5" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2732,7 +2744,7 @@
         <v>45445</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15.75" spans="1:20">
+    <row r="12" customFormat="1" ht="15.5" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2756,7 +2768,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" customFormat="1" ht="15.75" spans="1:20">
+    <row r="13" customFormat="1" ht="15.5" spans="1:20">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -2818,7 +2830,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="15.75" spans="1:20">
+    <row r="14" customFormat="1" ht="15.5" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2842,7 +2854,7 @@
       <c r="S14" s="16"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" customFormat="1" ht="15.75" spans="1:20">
+    <row r="15" customFormat="1" ht="15.5" spans="1:20">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -2898,7 +2910,7 @@
       <c r="S15" s="16"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" customFormat="1" ht="15.75" spans="1:20">
+    <row r="16" customFormat="1" ht="15.5" spans="1:20">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -2960,7 +2972,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="15.75" spans="1:20">
+    <row r="17" customFormat="1" ht="15.5" spans="1:20">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -3022,7 +3034,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="15.75" spans="1:20">
+    <row r="18" customFormat="1" ht="15.5" spans="1:20">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -3054,7 +3066,7 @@
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
     </row>
-    <row r="19" customFormat="1" ht="15.75" spans="1:20">
+    <row r="19" customFormat="1" ht="15.5" spans="1:20">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -3116,7 +3128,7 @@
         <v>45451</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="15.75" spans="1:20">
+    <row r="20" customFormat="1" ht="15.5" spans="1:20">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3148,7 +3160,7 @@
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
     </row>
-    <row r="21" customFormat="1" ht="15.75" spans="1:20">
+    <row r="21" customFormat="1" ht="15.5" spans="1:20">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -3210,7 +3222,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="15.75" spans="1:20">
+    <row r="22" customFormat="1" ht="15.5" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3252,7 +3264,7 @@
         <v>45423</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15.75" spans="1:20">
+    <row r="23" customFormat="1" ht="15.5" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3284,7 +3296,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" customFormat="1" ht="15.75" spans="1:20">
+    <row r="24" customFormat="1" ht="15.5" spans="1:20">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
@@ -3346,7 +3358,7 @@
         <v>45325</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="15.75" spans="1:20">
+    <row r="25" customFormat="1" ht="15.5" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3388,7 +3400,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15.75" spans="1:20">
+    <row r="26" s="1" customFormat="1" ht="15.5" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3426,7 +3438,7 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="27" customFormat="1" ht="15.75" spans="1:20">
+    <row r="27" customFormat="1" ht="15.5" spans="1:20">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -3476,7 +3488,7 @@
       <c r="S27" s="16"/>
       <c r="T27" s="16"/>
     </row>
-    <row r="28" customFormat="1" ht="15.75" spans="1:20">
+    <row r="28" customFormat="1" ht="15.5" spans="1:20">
       <c r="A28" s="5" t="s">
         <v>136</v>
       </c>
@@ -3520,7 +3532,7 @@
       <c r="S28" s="21"/>
       <c r="T28" s="21"/>
     </row>
-    <row r="30" customFormat="1" ht="15.75" spans="1:20">
+    <row r="30" customFormat="1" ht="15.5" spans="1:20">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -3542,7 +3554,7 @@
       <c r="S30" s="22"/>
       <c r="T30" s="22"/>
     </row>
-    <row r="31" customFormat="1" ht="15.75" spans="1:20">
+    <row r="31" customFormat="1" ht="15.5" spans="1:20">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -3564,7 +3576,7 @@
       <c r="S31" s="22"/>
       <c r="T31" s="22"/>
     </row>
-    <row r="32" customFormat="1" ht="15.75" spans="1:20">
+    <row r="32" customFormat="1" ht="15.5" spans="1:20">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -3586,7 +3598,7 @@
       <c r="S32" s="22"/>
       <c r="T32" s="22"/>
     </row>
-    <row r="33" customFormat="1" ht="15.75" spans="1:20">
+    <row r="33" customFormat="1" ht="15.5" spans="1:20">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3608,7 +3620,7 @@
       <c r="S33" s="22"/>
       <c r="T33" s="22"/>
     </row>
-    <row r="34" customFormat="1" ht="15.75" spans="1:20">
+    <row r="34" customFormat="1" ht="15.5" spans="1:20">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -3630,7 +3642,7 @@
       <c r="S34" s="22"/>
       <c r="T34" s="22"/>
     </row>
-    <row r="35" customFormat="1" ht="15.75" spans="1:20">
+    <row r="35" customFormat="1" ht="15.5" spans="1:20">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -3652,7 +3664,7 @@
       <c r="S35" s="22"/>
       <c r="T35" s="22"/>
     </row>
-    <row r="36" customFormat="1" ht="15.75" spans="1:20">
+    <row r="36" customFormat="1" ht="15.5" spans="1:20">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -3674,7 +3686,7 @@
       <c r="S36" s="22"/>
       <c r="T36" s="22"/>
     </row>
-    <row r="37" customFormat="1" ht="15.75" spans="1:20">
+    <row r="37" customFormat="1" ht="15.5" spans="1:20">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12330"/>
+    <workbookView windowWidth="25200" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="Doing" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="143">
   <si>
     <t>年级</t>
   </si>
@@ -457,10 +457,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -964,7 +964,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -973,10 +973,10 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -985,7 +985,7 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1504,10 +1504,10 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="5.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
@@ -1516,12 +1516,11 @@
     <col min="6" max="6" width="12.375" customWidth="1"/>
     <col min="7" max="7" width="35" customWidth="1"/>
     <col min="8" max="8" width="9.875" customWidth="1"/>
-    <col min="9" max="9" width="9.125" customWidth="1"/>
-    <col min="10" max="10" width="8.41666666666667" customWidth="1"/>
+    <col min="9" max="10" width="9.125" customWidth="1"/>
     <col min="11" max="20" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:20">
+    <row r="1" ht="15.75" spans="1:20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1583,7 +1582,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.5" spans="1:18">
+    <row r="2" customFormat="1" ht="15.75" spans="1:18">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -1611,29 +1610,26 @@
       <c r="I2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>22</v>
+      <c r="J2" s="21">
+        <v>45556</v>
       </c>
       <c r="K2" s="21">
-        <v>45556</v>
-      </c>
-      <c r="L2" s="21">
         <v>45566</v>
       </c>
-      <c r="M2" s="24">
+      <c r="L2" s="24">
         <v>45574</v>
       </c>
+      <c r="M2" s="21">
+        <v>45584</v>
+      </c>
       <c r="N2" s="21">
-        <v>45584</v>
-      </c>
-      <c r="O2" s="21">
         <v>45591</v>
       </c>
       <c r="P2" s="20"/>
       <c r="Q2" s="20"/>
       <c r="R2" s="20"/>
     </row>
-    <row r="3" customFormat="1" ht="15.5" spans="1:20">
+    <row r="3" customFormat="1" ht="15.75" spans="1:20">
       <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
@@ -1685,7 +1681,7 @@
       <c r="S3" s="20"/>
       <c r="T3" s="20"/>
     </row>
-    <row r="4" customFormat="1" ht="15.5" spans="1:20">
+    <row r="4" customFormat="1" ht="15.75" spans="1:20">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -1741,7 +1737,7 @@
       <c r="S4" s="12"/>
       <c r="T4" s="12"/>
     </row>
-    <row r="5" customFormat="1" ht="15.5" spans="1:20">
+    <row r="5" customFormat="1" ht="15.75" spans="1:20">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1763,7 +1759,7 @@
       <c r="S5" s="21"/>
       <c r="T5" s="21"/>
     </row>
-    <row r="6" customFormat="1" ht="15.5" spans="1:20">
+    <row r="6" customFormat="1" ht="15.75" spans="1:20">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
@@ -1814,7 +1810,7 @@
       <c r="S6" s="20"/>
       <c r="T6" s="20"/>
     </row>
-    <row r="7" customFormat="1" ht="15.5" spans="1:20">
+    <row r="7" customFormat="1" ht="15.75" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -1876,7 +1872,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="15.5" spans="1:20">
+    <row r="8" customFormat="1" ht="15.75" spans="1:20">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
@@ -1916,10 +1912,10 @@
       <c r="M8" s="9">
         <v>45567</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N8" s="9">
         <v>45585</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O8" s="9">
         <v>45592</v>
       </c>
       <c r="P8" s="21"/>
@@ -1928,7 +1924,7 @@
       <c r="S8" s="20"/>
       <c r="T8" s="20"/>
     </row>
-    <row r="9" customFormat="1" ht="15.5" spans="1:20">
+    <row r="9" customFormat="1" ht="15.75" spans="1:20">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
@@ -1982,7 +1978,7 @@
       <c r="S9" s="16"/>
       <c r="T9" s="16"/>
     </row>
-    <row r="10" customFormat="1" ht="15.5" spans="1:18">
+    <row r="10" customFormat="1" ht="15.75" spans="1:18">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
@@ -2024,12 +2020,12 @@
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
     </row>
-    <row r="12" s="20" customFormat="1" ht="15.5"/>
-    <row r="13" s="20" customFormat="1" ht="15.5"/>
-    <row r="14" s="20" customFormat="1" ht="15.5"/>
-    <row r="15" s="20" customFormat="1" ht="15.5"/>
-    <row r="16" s="20" customFormat="1" ht="15.5"/>
-    <row r="17" s="20" customFormat="1" ht="15.5" spans="1:9">
+    <row r="12" s="20" customFormat="1" ht="15.75"/>
+    <row r="13" s="20" customFormat="1" ht="15.75"/>
+    <row r="14" s="20" customFormat="1" ht="15.75"/>
+    <row r="15" s="20" customFormat="1" ht="15.75"/>
+    <row r="16" s="20" customFormat="1" ht="15.75"/>
+    <row r="17" s="20" customFormat="1" ht="15.75" spans="1:9">
       <c r="A17" s="23"/>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
@@ -2040,7 +2036,7 @@
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
     </row>
-    <row r="18" s="20" customFormat="1" ht="15.5" spans="1:9">
+    <row r="18" s="20" customFormat="1" ht="15.75" spans="1:9">
       <c r="A18" s="23"/>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -2051,7 +2047,7 @@
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
     </row>
-    <row r="19" ht="17.5" spans="2:13">
+    <row r="19" ht="18.75" spans="2:13">
       <c r="B19" s="8" t="s">
         <v>68</v>
       </c>
@@ -2067,7 +2063,7 @@
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
     </row>
-    <row r="20" ht="17.5" spans="2:13">
+    <row r="20" ht="18.75" spans="2:13">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -2081,7 +2077,7 @@
       <c r="L20" s="25"/>
       <c r="M20" s="25"/>
     </row>
-    <row r="21" ht="17.5" spans="2:12">
+    <row r="21" ht="18.75" spans="2:12">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2093,7 +2089,7 @@
       <c r="K21" s="25"/>
       <c r="L21" s="25"/>
     </row>
-    <row r="22" ht="17.5" spans="2:13">
+    <row r="22" ht="18.75" spans="2:13">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -2107,7 +2103,7 @@
       <c r="L22" s="25"/>
       <c r="M22" s="25"/>
     </row>
-    <row r="23" ht="17.5" spans="2:13">
+    <row r="23" ht="18.75" spans="2:13">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -2150,7 +2146,7 @@
       <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="4.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
@@ -2165,7 +2161,7 @@
     <col min="22" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:21">
+    <row r="1" ht="15.75" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2230,7 +2226,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.5" spans="1:21">
+    <row r="2" customFormat="1" ht="15.75" spans="1:21">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -2295,7 +2291,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15.5" spans="1:19">
+    <row r="3" customFormat="1" ht="15.75" spans="1:19">
       <c r="A3" s="4" t="s">
         <v>76</v>
       </c>
@@ -2354,7 +2350,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.5" spans="1:11">
+    <row r="4" customFormat="1" ht="15.75" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -2389,7 +2385,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15.5" spans="1:20">
+    <row r="5" customFormat="1" ht="15.75" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -2449,7 +2445,7 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" customFormat="1" ht="15.5" spans="1:20">
+    <row r="6" customFormat="1" ht="15.75" spans="1:20">
       <c r="A6" s="4" t="s">
         <v>76</v>
       </c>
@@ -2511,7 +2507,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.5" spans="1:20">
+    <row r="7" customFormat="1" ht="15.75" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -2598,7 +2594,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" customFormat="1" ht="15.5" spans="1:20">
+    <row r="9" customFormat="1" ht="15.75" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -2660,7 +2656,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.5" spans="1:20">
+    <row r="10" customFormat="1" ht="15.75" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2702,7 +2698,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15.5" spans="1:20">
+    <row r="11" customFormat="1" ht="15.75" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2744,7 +2740,7 @@
         <v>45445</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15.5" spans="1:20">
+    <row r="12" customFormat="1" ht="15.75" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2768,7 +2764,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" customFormat="1" ht="15.5" spans="1:20">
+    <row r="13" customFormat="1" ht="15.75" spans="1:20">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -2830,7 +2826,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="15.5" spans="1:20">
+    <row r="14" customFormat="1" ht="15.75" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2854,7 +2850,7 @@
       <c r="S14" s="16"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" customFormat="1" ht="15.5" spans="1:20">
+    <row r="15" customFormat="1" ht="15.75" spans="1:20">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -2910,7 +2906,7 @@
       <c r="S15" s="16"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" customFormat="1" ht="15.5" spans="1:20">
+    <row r="16" customFormat="1" ht="15.75" spans="1:20">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -2972,7 +2968,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="15.5" spans="1:20">
+    <row r="17" customFormat="1" ht="15.75" spans="1:20">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -3034,7 +3030,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="15.5" spans="1:20">
+    <row r="18" customFormat="1" ht="15.75" spans="1:20">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -3066,7 +3062,7 @@
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
     </row>
-    <row r="19" customFormat="1" ht="15.5" spans="1:20">
+    <row r="19" customFormat="1" ht="15.75" spans="1:20">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -3128,7 +3124,7 @@
         <v>45451</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="15.5" spans="1:20">
+    <row r="20" customFormat="1" ht="15.75" spans="1:20">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3160,7 +3156,7 @@
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
     </row>
-    <row r="21" customFormat="1" ht="15.5" spans="1:20">
+    <row r="21" customFormat="1" ht="15.75" spans="1:20">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -3222,7 +3218,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="15.5" spans="1:20">
+    <row r="22" customFormat="1" ht="15.75" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3264,7 +3260,7 @@
         <v>45423</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15.5" spans="1:20">
+    <row r="23" customFormat="1" ht="15.75" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3296,7 +3292,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" customFormat="1" ht="15.5" spans="1:20">
+    <row r="24" customFormat="1" ht="15.75" spans="1:20">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
@@ -3358,7 +3354,7 @@
         <v>45325</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="15.5" spans="1:20">
+    <row r="25" customFormat="1" ht="15.75" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3400,7 +3396,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15.5" spans="1:20">
+    <row r="26" s="1" customFormat="1" ht="15.75" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3438,7 +3434,7 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="27" customFormat="1" ht="15.5" spans="1:20">
+    <row r="27" customFormat="1" ht="15.75" spans="1:20">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -3488,7 +3484,7 @@
       <c r="S27" s="16"/>
       <c r="T27" s="16"/>
     </row>
-    <row r="28" customFormat="1" ht="15.5" spans="1:20">
+    <row r="28" customFormat="1" ht="15.75" spans="1:20">
       <c r="A28" s="5" t="s">
         <v>136</v>
       </c>
@@ -3532,7 +3528,7 @@
       <c r="S28" s="21"/>
       <c r="T28" s="21"/>
     </row>
-    <row r="30" customFormat="1" ht="15.5" spans="1:20">
+    <row r="30" customFormat="1" ht="15.75" spans="1:20">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -3554,7 +3550,7 @@
       <c r="S30" s="22"/>
       <c r="T30" s="22"/>
     </row>
-    <row r="31" customFormat="1" ht="15.5" spans="1:20">
+    <row r="31" customFormat="1" ht="15.75" spans="1:20">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -3576,7 +3572,7 @@
       <c r="S31" s="22"/>
       <c r="T31" s="22"/>
     </row>
-    <row r="32" customFormat="1" ht="15.5" spans="1:20">
+    <row r="32" customFormat="1" ht="15.75" spans="1:20">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -3598,7 +3594,7 @@
       <c r="S32" s="22"/>
       <c r="T32" s="22"/>
     </row>
-    <row r="33" customFormat="1" ht="15.5" spans="1:20">
+    <row r="33" customFormat="1" ht="15.75" spans="1:20">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3620,7 +3616,7 @@
       <c r="S33" s="22"/>
       <c r="T33" s="22"/>
     </row>
-    <row r="34" customFormat="1" ht="15.5" spans="1:20">
+    <row r="34" customFormat="1" ht="15.75" spans="1:20">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -3642,7 +3638,7 @@
       <c r="S34" s="22"/>
       <c r="T34" s="22"/>
     </row>
-    <row r="35" customFormat="1" ht="15.5" spans="1:20">
+    <row r="35" customFormat="1" ht="15.75" spans="1:20">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -3664,7 +3660,7 @@
       <c r="S35" s="22"/>
       <c r="T35" s="22"/>
     </row>
-    <row r="36" customFormat="1" ht="15.5" spans="1:20">
+    <row r="36" customFormat="1" ht="15.75" spans="1:20">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -3686,7 +3682,7 @@
       <c r="S36" s="22"/>
       <c r="T36" s="22"/>
     </row>
-    <row r="37" customFormat="1" ht="15.5" spans="1:20">
+    <row r="37" customFormat="1" ht="15.75" spans="1:20">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="12090"/>
+    <workbookView windowWidth="25600" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Doing" sheetId="1" r:id="rId1"/>
@@ -224,7 +224,7 @@
     <t>转账时间(灰色表示线上上课（课时费1小时100），绿色表示课时费已发)：豌豆文化每月10号；
 精锐教育是当月15号；星期天培训下个月20号；掌学教育是下月15号
 下次考试目标：刘桐语：135，李梦媛：50，孙翊原：120,贾梦垚：130，唐润宁：100
-李梦媛10月12日只上了半节课</t>
+李梦媛10月12日只上了半节课，唐润宁11月2日只上了半节课</t>
   </si>
   <si>
     <t>第11课</t>
@@ -457,10 +457,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -964,7 +964,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -973,10 +973,10 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -985,7 +985,7 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1177,10 +1177,12 @@
     <xf numFmtId="58" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1501,13 +1503,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="5.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
@@ -1520,7 +1522,7 @@
     <col min="11" max="20" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:20">
+    <row r="1" ht="15.5" spans="1:20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1582,7 +1584,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.75" spans="1:18">
+    <row r="2" customFormat="1" ht="15.5" spans="1:18">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -1624,12 +1626,15 @@
       </c>
       <c r="N2" s="21">
         <v>45591</v>
+      </c>
+      <c r="O2" s="21">
+        <v>45598</v>
       </c>
       <c r="P2" s="20"/>
       <c r="Q2" s="20"/>
       <c r="R2" s="20"/>
     </row>
-    <row r="3" customFormat="1" ht="15.75" spans="1:20">
+    <row r="3" customFormat="1" ht="15.5" spans="1:20">
       <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
@@ -1675,13 +1680,15 @@
       <c r="O3" s="21">
         <v>45591</v>
       </c>
-      <c r="P3" s="20"/>
+      <c r="P3" s="21">
+        <v>45598</v>
+      </c>
       <c r="Q3" s="20"/>
       <c r="R3" s="20"/>
       <c r="S3" s="20"/>
       <c r="T3" s="20"/>
     </row>
-    <row r="4" customFormat="1" ht="15.75" spans="1:20">
+    <row r="4" customFormat="1" ht="15.5" spans="1:20">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -1733,11 +1740,13 @@
       <c r="Q4" s="9">
         <v>45592</v>
       </c>
-      <c r="R4" s="26"/>
+      <c r="R4" s="9">
+        <v>45599</v>
+      </c>
       <c r="S4" s="12"/>
       <c r="T4" s="12"/>
     </row>
-    <row r="5" customFormat="1" ht="15.75" spans="1:20">
+    <row r="5" customFormat="1" ht="15.5" spans="1:20">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1759,7 +1768,7 @@
       <c r="S5" s="21"/>
       <c r="T5" s="21"/>
     </row>
-    <row r="6" customFormat="1" ht="15.75" spans="1:20">
+    <row r="6" customFormat="1" ht="15.5" spans="1:20">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
@@ -1805,40 +1814,42 @@
       <c r="O6" s="9">
         <v>45592</v>
       </c>
-      <c r="P6" s="20"/>
+      <c r="P6" s="21">
+        <v>45599</v>
+      </c>
       <c r="R6" s="20"/>
       <c r="S6" s="20"/>
       <c r="T6" s="20"/>
     </row>
-    <row r="7" customFormat="1" ht="15.75" spans="1:20">
-      <c r="A7" s="5" t="s">
+    <row r="7" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>48</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>51</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K7" s="9">
@@ -1872,113 +1883,85 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="15.75" spans="1:20">
-      <c r="A8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="12">
-        <v>45543</v>
-      </c>
-      <c r="L8" s="9">
-        <v>45566</v>
-      </c>
-      <c r="M8" s="9">
-        <v>45567</v>
-      </c>
-      <c r="N8" s="9">
-        <v>45585</v>
-      </c>
-      <c r="O8" s="9">
-        <v>45592</v>
-      </c>
+    <row r="8" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="21">
+        <v>45599</v>
+      </c>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
       <c r="S8" s="20"/>
       <c r="T8" s="20"/>
     </row>
-    <row r="9" customFormat="1" ht="15.75" spans="1:20">
+    <row r="9" customFormat="1" ht="15.5" spans="1:20">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>62</v>
+      <c r="I9" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>22</v>
       </c>
       <c r="K9" s="12">
-        <v>45430</v>
-      </c>
-      <c r="L9" s="12">
-        <v>45437</v>
-      </c>
-      <c r="M9" s="12">
-        <v>45451</v>
-      </c>
-      <c r="N9" s="12">
-        <v>45458</v>
-      </c>
-      <c r="O9" s="12">
-        <v>45465</v>
+        <v>45543</v>
+      </c>
+      <c r="L9" s="9">
+        <v>45566</v>
+      </c>
+      <c r="M9" s="9">
+        <v>45567</v>
+      </c>
+      <c r="N9" s="9">
+        <v>45585</v>
+      </c>
+      <c r="O9" s="9">
+        <v>45592</v>
       </c>
       <c r="P9" s="21">
-        <v>45572</v>
-      </c>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-    </row>
-    <row r="10" customFormat="1" ht="15.75" spans="1:18">
+        <v>45599</v>
+      </c>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+    </row>
+    <row r="10" customFormat="1" ht="15.5" spans="1:20">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
@@ -1986,57 +1969,100 @@
         <v>46</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>22</v>
       </c>
       <c r="K10" s="12">
-        <v>45552</v>
-      </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
+        <v>45430</v>
+      </c>
+      <c r="L10" s="12">
+        <v>45437</v>
+      </c>
+      <c r="M10" s="12">
+        <v>45451</v>
+      </c>
+      <c r="N10" s="12">
+        <v>45458</v>
+      </c>
+      <c r="O10" s="12">
+        <v>45465</v>
+      </c>
+      <c r="P10" s="21">
+        <v>45572</v>
+      </c>
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
-    </row>
-    <row r="12" s="20" customFormat="1" ht="15.75"/>
-    <row r="13" s="20" customFormat="1" ht="15.75"/>
-    <row r="14" s="20" customFormat="1" ht="15.75"/>
-    <row r="15" s="20" customFormat="1" ht="15.75"/>
-    <row r="16" s="20" customFormat="1" ht="15.75"/>
-    <row r="17" s="20" customFormat="1" ht="15.75" spans="1:9">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-    </row>
-    <row r="18" s="20" customFormat="1" ht="15.75" spans="1:9">
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+    </row>
+    <row r="11" customFormat="1" ht="15.5" spans="1:18">
+      <c r="A11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="12">
+        <v>45552</v>
+      </c>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+    </row>
+    <row r="13" s="20" customFormat="1" ht="15.5"/>
+    <row r="14" s="20" customFormat="1" ht="15.5"/>
+    <row r="15" s="20" customFormat="1" ht="15.5"/>
+    <row r="16" s="20" customFormat="1" ht="15.5"/>
+    <row r="17" s="20" customFormat="1" ht="15.5"/>
+    <row r="18" s="20" customFormat="1" ht="15.5" spans="1:9">
       <c r="A18" s="23"/>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -2047,24 +2073,21 @@
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
     </row>
-    <row r="19" ht="18.75" spans="2:13">
-      <c r="B19" s="8" t="s">
+    <row r="19" s="20" customFormat="1" ht="15.5" spans="1:9">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+    </row>
+    <row r="20" ht="17.5" spans="2:13">
+      <c r="B20" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-    </row>
-    <row r="20" ht="18.75" spans="2:13">
-      <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -2072,12 +2095,12 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-    </row>
-    <row r="21" ht="18.75" spans="2:12">
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+    </row>
+    <row r="21" ht="17.5" spans="2:13">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2086,10 +2109,12 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-    </row>
-    <row r="22" ht="18.75" spans="2:13">
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+    </row>
+    <row r="22" ht="17.5" spans="2:12">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -2098,12 +2123,10 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-    </row>
-    <row r="23" ht="18.75" spans="2:13">
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+    </row>
+    <row r="23" ht="17.5" spans="2:13">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -2112,24 +2135,48 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+    </row>
+    <row r="24" ht="17.5" spans="2:13">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="21">
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A8"/>
     <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C7:C8"/>
     <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D7:D8"/>
     <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H7:H8"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="I7:I8"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="B19:I23"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="B20:I24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -2146,7 +2193,7 @@
       <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="4.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
@@ -2161,7 +2208,7 @@
     <col min="22" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:21">
+    <row r="1" ht="15.5" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2226,7 +2273,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.75" spans="1:21">
+    <row r="2" customFormat="1" ht="15.5" spans="1:21">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -2291,7 +2338,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15.75" spans="1:19">
+    <row r="3" customFormat="1" ht="15.5" spans="1:19">
       <c r="A3" s="4" t="s">
         <v>76</v>
       </c>
@@ -2350,7 +2397,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.75" spans="1:11">
+    <row r="4" customFormat="1" ht="15.5" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -2385,7 +2432,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15.75" spans="1:20">
+    <row r="5" customFormat="1" ht="15.5" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -2445,7 +2492,7 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" customFormat="1" ht="15.75" spans="1:20">
+    <row r="6" customFormat="1" ht="15.5" spans="1:20">
       <c r="A6" s="4" t="s">
         <v>76</v>
       </c>
@@ -2507,7 +2554,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.75" spans="1:20">
+    <row r="7" customFormat="1" ht="15.5" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -2594,7 +2641,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" customFormat="1" ht="15.75" spans="1:20">
+    <row r="9" customFormat="1" ht="15.5" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -2656,7 +2703,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.75" spans="1:20">
+    <row r="10" customFormat="1" ht="15.5" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2698,7 +2745,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15.75" spans="1:20">
+    <row r="11" customFormat="1" ht="15.5" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2740,7 +2787,7 @@
         <v>45445</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15.75" spans="1:20">
+    <row r="12" customFormat="1" ht="15.5" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2764,7 +2811,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" customFormat="1" ht="15.75" spans="1:20">
+    <row r="13" customFormat="1" ht="15.5" spans="1:20">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -2826,7 +2873,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="15.75" spans="1:20">
+    <row r="14" customFormat="1" ht="15.5" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2850,7 +2897,7 @@
       <c r="S14" s="16"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" customFormat="1" ht="15.75" spans="1:20">
+    <row r="15" customFormat="1" ht="15.5" spans="1:20">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -2906,7 +2953,7 @@
       <c r="S15" s="16"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" customFormat="1" ht="15.75" spans="1:20">
+    <row r="16" customFormat="1" ht="15.5" spans="1:20">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -2968,7 +3015,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="15.75" spans="1:20">
+    <row r="17" customFormat="1" ht="15.5" spans="1:20">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -3030,7 +3077,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="15.75" spans="1:20">
+    <row r="18" customFormat="1" ht="15.5" spans="1:20">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -3062,7 +3109,7 @@
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
     </row>
-    <row r="19" customFormat="1" ht="15.75" spans="1:20">
+    <row r="19" customFormat="1" ht="15.5" spans="1:20">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -3124,7 +3171,7 @@
         <v>45451</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="15.75" spans="1:20">
+    <row r="20" customFormat="1" ht="15.5" spans="1:20">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3156,7 +3203,7 @@
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
     </row>
-    <row r="21" customFormat="1" ht="15.75" spans="1:20">
+    <row r="21" customFormat="1" ht="15.5" spans="1:20">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -3218,7 +3265,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="15.75" spans="1:20">
+    <row r="22" customFormat="1" ht="15.5" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3260,7 +3307,7 @@
         <v>45423</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15.75" spans="1:20">
+    <row r="23" customFormat="1" ht="15.5" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3292,7 +3339,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" customFormat="1" ht="15.75" spans="1:20">
+    <row r="24" customFormat="1" ht="15.5" spans="1:20">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
@@ -3354,7 +3401,7 @@
         <v>45325</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="15.75" spans="1:20">
+    <row r="25" customFormat="1" ht="15.5" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3396,7 +3443,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15.75" spans="1:20">
+    <row r="26" s="1" customFormat="1" ht="15.5" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3434,7 +3481,7 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="27" customFormat="1" ht="15.75" spans="1:20">
+    <row r="27" customFormat="1" ht="15.5" spans="1:20">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -3484,7 +3531,7 @@
       <c r="S27" s="16"/>
       <c r="T27" s="16"/>
     </row>
-    <row r="28" customFormat="1" ht="15.75" spans="1:20">
+    <row r="28" customFormat="1" ht="15.5" spans="1:20">
       <c r="A28" s="5" t="s">
         <v>136</v>
       </c>
@@ -3528,7 +3575,7 @@
       <c r="S28" s="21"/>
       <c r="T28" s="21"/>
     </row>
-    <row r="30" customFormat="1" ht="15.75" spans="1:20">
+    <row r="30" customFormat="1" ht="15.5" spans="1:20">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -3550,7 +3597,7 @@
       <c r="S30" s="22"/>
       <c r="T30" s="22"/>
     </row>
-    <row r="31" customFormat="1" ht="15.75" spans="1:20">
+    <row r="31" customFormat="1" ht="15.5" spans="1:20">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -3572,7 +3619,7 @@
       <c r="S31" s="22"/>
       <c r="T31" s="22"/>
     </row>
-    <row r="32" customFormat="1" ht="15.75" spans="1:20">
+    <row r="32" customFormat="1" ht="15.5" spans="1:20">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -3594,7 +3641,7 @@
       <c r="S32" s="22"/>
       <c r="T32" s="22"/>
     </row>
-    <row r="33" customFormat="1" ht="15.75" spans="1:20">
+    <row r="33" customFormat="1" ht="15.5" spans="1:20">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3616,7 +3663,7 @@
       <c r="S33" s="22"/>
       <c r="T33" s="22"/>
     </row>
-    <row r="34" customFormat="1" ht="15.75" spans="1:20">
+    <row r="34" customFormat="1" ht="15.5" spans="1:20">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -3638,7 +3685,7 @@
       <c r="S34" s="22"/>
       <c r="T34" s="22"/>
     </row>
-    <row r="35" customFormat="1" ht="15.75" spans="1:20">
+    <row r="35" customFormat="1" ht="15.5" spans="1:20">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -3660,7 +3707,7 @@
       <c r="S35" s="22"/>
       <c r="T35" s="22"/>
     </row>
-    <row r="36" customFormat="1" ht="15.75" spans="1:20">
+    <row r="36" customFormat="1" ht="15.5" spans="1:20">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -3682,7 +3729,7 @@
       <c r="S36" s="22"/>
       <c r="T36" s="22"/>
     </row>
-    <row r="37" customFormat="1" ht="15.75" spans="1:20">
+    <row r="37" customFormat="1" ht="15.5" spans="1:20">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -643,7 +643,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -659,12 +659,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -967,10 +961,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -979,16 +973,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1000,52 +994,52 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1054,16 +1048,19 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1075,41 +1072,38 @@
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1173,12 +1167,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1506,7 +1494,7 @@
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1612,22 +1600,22 @@
       <c r="I2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="21">
+      <c r="J2" s="9">
         <v>45556</v>
       </c>
-      <c r="K2" s="21">
+      <c r="K2" s="9">
         <v>45566</v>
       </c>
-      <c r="L2" s="24">
+      <c r="L2" s="9">
         <v>45574</v>
       </c>
-      <c r="M2" s="21">
+      <c r="M2" s="9">
         <v>45584</v>
       </c>
-      <c r="N2" s="21">
+      <c r="N2" s="9">
         <v>45591</v>
       </c>
-      <c r="O2" s="21">
+      <c r="O2" s="9">
         <v>45598</v>
       </c>
       <c r="P2" s="20"/>
@@ -1674,10 +1662,10 @@
       <c r="M3" s="9">
         <v>45578</v>
       </c>
-      <c r="N3" s="21">
+      <c r="N3" s="9">
         <v>45584</v>
       </c>
-      <c r="O3" s="21">
+      <c r="O3" s="9">
         <v>45591</v>
       </c>
       <c r="P3" s="21">
@@ -1763,8 +1751,8 @@
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
       <c r="P5" s="21"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
       <c r="S5" s="21"/>
       <c r="T5" s="21"/>
     </row>
@@ -1897,10 +1885,10 @@
       <c r="K8" s="21">
         <v>45599</v>
       </c>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
@@ -2095,10 +2083,10 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
     </row>
     <row r="21" ht="17.5" spans="2:13">
       <c r="B21" s="8"/>
@@ -2109,10 +2097,10 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
     </row>
     <row r="22" ht="17.5" spans="2:12">
       <c r="B22" s="8"/>
@@ -2123,8 +2111,8 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
     </row>
     <row r="23" ht="17.5" spans="2:13">
       <c r="B23" s="8"/>
@@ -2135,10 +2123,10 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
     </row>
     <row r="24" ht="17.5" spans="2:13">
       <c r="B24" s="8"/>
@@ -2149,10 +2137,10 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="21">

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -1494,7 +1494,7 @@
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1995,7 +1995,7 @@
       <c r="O10" s="12">
         <v>45465</v>
       </c>
-      <c r="P10" s="21">
+      <c r="P10" s="9">
         <v>45572</v>
       </c>
       <c r="Q10" s="16"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -1494,7 +1494,7 @@
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1618,7 +1618,9 @@
       <c r="O2" s="9">
         <v>45598</v>
       </c>
-      <c r="P2" s="20"/>
+      <c r="P2" s="21">
+        <v>45605</v>
+      </c>
       <c r="Q2" s="20"/>
       <c r="R2" s="20"/>
     </row>
@@ -1805,6 +1807,9 @@
       <c r="P6" s="21">
         <v>45599</v>
       </c>
+      <c r="Q6" s="21">
+        <v>45606</v>
+      </c>
       <c r="R6" s="20"/>
       <c r="S6" s="20"/>
       <c r="T6" s="20"/>
@@ -1885,7 +1890,9 @@
       <c r="K8" s="21">
         <v>45599</v>
       </c>
-      <c r="L8" s="21"/>
+      <c r="L8" s="21">
+        <v>45606</v>
+      </c>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="21"/>
@@ -1944,7 +1951,9 @@
       <c r="P9" s="21">
         <v>45599</v>
       </c>
-      <c r="Q9" s="21"/>
+      <c r="Q9" s="21">
+        <v>45606</v>
+      </c>
       <c r="R9" s="21"/>
       <c r="S9" s="20"/>
       <c r="T9" s="20"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -224,7 +224,7 @@
     <t>转账时间(灰色表示线上上课（课时费1小时100），绿色表示课时费已发)：豌豆文化每月10号；
 精锐教育是当月15号；星期天培训下个月20号；掌学教育是下月15号
 下次考试目标：刘桐语：135，李梦媛：50，孙翊原：120,贾梦垚：130，唐润宁：100
-李梦媛10月12日只上了半节课，唐润宁11月2日只上了半节课</t>
+李梦媛10月12日只上了半节课</t>
   </si>
   <si>
     <t>第11课</t>
@@ -1103,7 +1103,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1172,6 +1172,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1494,7 +1495,7 @@
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1804,15 +1805,15 @@
       <c r="O6" s="9">
         <v>45592</v>
       </c>
-      <c r="P6" s="21">
+      <c r="P6" s="9">
         <v>45599</v>
       </c>
-      <c r="Q6" s="21">
+      <c r="Q6" s="9">
         <v>45606</v>
       </c>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
     </row>
     <row r="7" customFormat="1" ht="15.5" spans="1:20">
       <c r="A7" s="4" t="s">

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -191,36 +191,6 @@
     <t>110/150</t>
   </si>
   <si>
-    <t>豌豆文化</t>
-  </si>
-  <si>
-    <t>周六17：10-19：10</t>
-  </si>
-  <si>
-    <t>孙朝(zhao)阳</t>
-  </si>
-  <si>
-    <t>天章大厦</t>
-  </si>
-  <si>
-    <t>60/100</t>
-  </si>
-  <si>
-    <t>450/2h</t>
-  </si>
-  <si>
-    <t>魏子骞</t>
-  </si>
-  <si>
-    <t>幸福路48号二建小区 9-2-302</t>
-  </si>
-  <si>
-    <t>13中</t>
-  </si>
-  <si>
-    <t>70/90</t>
-  </si>
-  <si>
     <t>转账时间(灰色表示线上上课（课时费1小时100），绿色表示课时费已发)：豌豆文化每月10号；
 精锐教育是当月15号；星期天培训下个月20号；掌学教育是下月15号
 下次考试目标：刘桐语：135，李梦媛：50，孙翊原：120,贾梦垚：130，唐润宁：100
@@ -251,6 +221,9 @@
     <t>初二</t>
   </si>
   <si>
+    <t>豌豆文化</t>
+  </si>
+  <si>
     <t>260/2h</t>
   </si>
   <si>
@@ -302,6 +275,9 @@
     <t>德泽园三区1-1-202</t>
   </si>
   <si>
+    <t>60/100</t>
+  </si>
+  <si>
     <t>一尔优教育</t>
   </si>
   <si>
@@ -353,6 +329,9 @@
     <t>邮区中心局小区3-4-602</t>
   </si>
   <si>
+    <t>13中</t>
+  </si>
+  <si>
     <t>李冰惠</t>
   </si>
   <si>
@@ -368,6 +347,9 @@
     <t>夏锦程</t>
   </si>
   <si>
+    <t>天章大厦</t>
+  </si>
+  <si>
     <t>19中</t>
   </si>
   <si>
@@ -444,6 +426,24 @@
   </si>
   <si>
     <t>60/150</t>
+  </si>
+  <si>
+    <t>周六17：10-19：10</t>
+  </si>
+  <si>
+    <t>孙朝(zhao)阳</t>
+  </si>
+  <si>
+    <t>450/2h</t>
+  </si>
+  <si>
+    <t>魏子骞</t>
+  </si>
+  <si>
+    <t>幸福路48号二建小区 9-2-302</t>
+  </si>
+  <si>
+    <t>70/90</t>
   </si>
   <si>
     <t xml:space="preserve">绿色表示课时费已发；
@@ -1495,7 +1495,7 @@
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1959,102 +1959,8 @@
       <c r="S9" s="20"/>
       <c r="T9" s="20"/>
     </row>
-    <row r="10" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="12">
-        <v>45430</v>
-      </c>
-      <c r="L10" s="12">
-        <v>45437</v>
-      </c>
-      <c r="M10" s="12">
-        <v>45451</v>
-      </c>
-      <c r="N10" s="12">
-        <v>45458</v>
-      </c>
-      <c r="O10" s="12">
-        <v>45465</v>
-      </c>
-      <c r="P10" s="9">
-        <v>45572</v>
-      </c>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-    </row>
-    <row r="11" customFormat="1" ht="15.5" spans="1:18">
-      <c r="A11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="12">
-        <v>45552</v>
-      </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-    </row>
+    <row r="10" customFormat="1"/>
+    <row r="11" customFormat="1"/>
     <row r="13" s="20" customFormat="1" ht="15.5"/>
     <row r="14" s="20" customFormat="1" ht="15.5"/>
     <row r="15" s="20" customFormat="1" ht="15.5"/>
@@ -2084,7 +1990,7 @@
     </row>
     <row r="20" ht="17.5" spans="2:13">
       <c r="B20" s="8" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -2187,8 +2093,8 @@
   <sheetPr/>
   <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2268,7 +2174,7 @@
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="15.5" spans="1:21">
@@ -2279,25 +2185,25 @@
         <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="J2" s="9">
         <v>45185</v>
@@ -2338,31 +2244,31 @@
     </row>
     <row r="3" customFormat="1" ht="15.5" spans="1:19">
       <c r="A3" s="4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>22</v>
@@ -2403,25 +2309,25 @@
         <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J4" s="9">
         <v>45287</v>
@@ -2438,25 +2344,25 @@
         <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>35</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>22</v>
@@ -2492,31 +2398,31 @@
     </row>
     <row r="6" customFormat="1" ht="15.5" spans="1:20">
       <c r="A6" s="4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>41</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="J6" s="9">
         <v>45320</v>
@@ -2560,25 +2466,25 @@
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>41</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>22</v>
@@ -2606,25 +2512,25 @@
         <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H8" s="6">
         <v>126</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="J8" s="14">
         <v>45425</v>
@@ -2647,25 +2553,25 @@
         <v>46</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="J9" s="9">
         <v>45186</v>
@@ -2817,25 +2723,25 @@
         <v>21</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="J13" s="17" t="s">
         <v>22</v>
@@ -2903,25 +2809,25 @@
         <v>21</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>35</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>22</v>
@@ -2959,22 +2865,22 @@
         <v>46</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>52</v>
@@ -3021,25 +2927,25 @@
         <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J17" s="17" t="s">
         <v>22</v>
@@ -3115,22 +3021,22 @@
         <v>21</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>28</v>
@@ -3209,25 +3115,25 @@
         <v>21</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>22</v>
@@ -3345,25 +3251,25 @@
         <v>21</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="J24" s="19" t="s">
         <v>22</v>
@@ -3487,25 +3393,25 @@
         <v>46</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="J27" s="12">
         <v>45451</v>
@@ -3531,31 +3437,31 @@
     </row>
     <row r="28" customFormat="1" ht="15.5" spans="1:20">
       <c r="A28" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>22</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="J28" s="12" t="s">
         <v>22</v>
@@ -3573,27 +3479,101 @@
       <c r="S28" s="21"/>
       <c r="T28" s="21"/>
     </row>
-    <row r="30" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="22"/>
-      <c r="T30" s="22"/>
+    <row r="29" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" s="12">
+        <v>45430</v>
+      </c>
+      <c r="L29" s="12">
+        <v>45437</v>
+      </c>
+      <c r="M29" s="12">
+        <v>45451</v>
+      </c>
+      <c r="N29" s="12">
+        <v>45458</v>
+      </c>
+      <c r="O29" s="12">
+        <v>45465</v>
+      </c>
+      <c r="P29" s="9">
+        <v>45572</v>
+      </c>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+    </row>
+    <row r="30" customFormat="1" ht="15.5" spans="1:18">
+      <c r="A30" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" s="12">
+        <v>45552</v>
+      </c>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
     </row>
     <row r="31" customFormat="1" ht="15.5" spans="1:20">
       <c r="A31" s="4"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -104,15 +104,81 @@
     <t>70/150</t>
   </si>
   <si>
+    <t>270/2h</t>
+  </si>
+  <si>
+    <t>周日11：00-13：00</t>
+  </si>
+  <si>
+    <t>刘桐语</t>
+  </si>
+  <si>
+    <t>莲湖路196号博香苑小区 6-2-1001</t>
+  </si>
+  <si>
+    <t>126中学</t>
+  </si>
+  <si>
+    <t>130/150</t>
+  </si>
+  <si>
+    <t>周日14：00-16：00</t>
+  </si>
+  <si>
+    <t>贾梦垚</t>
+  </si>
+  <si>
+    <t>莲湖路196号博香苑小区6-2-1001</t>
+  </si>
+  <si>
+    <t>物理</t>
+  </si>
+  <si>
+    <t>星期天培训</t>
+  </si>
+  <si>
+    <t>周日17：00-19：00</t>
+  </si>
+  <si>
+    <t>李梦媛</t>
+  </si>
+  <si>
+    <t>南纬一路144号晟和家园 3-2203</t>
+  </si>
+  <si>
+    <t>70中</t>
+  </si>
+  <si>
+    <t>30/90</t>
+  </si>
+  <si>
+    <t>精锐教育</t>
+  </si>
+  <si>
+    <t>220/2h</t>
+  </si>
+  <si>
+    <t>周日20：00-22：00</t>
+  </si>
+  <si>
+    <t>孙翊原</t>
+  </si>
+  <si>
+    <t>卫生巷88号 6-1-403</t>
+  </si>
+  <si>
+    <t>兵一</t>
+  </si>
+  <si>
+    <t>110/150</t>
+  </si>
+  <si>
     <t>初一</t>
   </si>
   <si>
     <t>掌学教育</t>
   </si>
   <si>
-    <t>220/2h</t>
-  </si>
-  <si>
     <t>周六18：30-20：30</t>
   </si>
   <si>
@@ -122,79 +188,12 @@
     <t>新民路29号 3-201</t>
   </si>
   <si>
-    <t>兵一</t>
-  </si>
-  <si>
     <t>90/100</t>
-  </si>
-  <si>
-    <t>270/2h</t>
-  </si>
-  <si>
-    <t>周日11：00-13：00</t>
-  </si>
-  <si>
-    <t>刘桐语</t>
-  </si>
-  <si>
-    <t>莲湖路196号博香苑小区 6-2-1001</t>
-  </si>
-  <si>
-    <t>126中学</t>
-  </si>
-  <si>
-    <t>130/150</t>
-  </si>
-  <si>
-    <t>周日14：00-16：00</t>
-  </si>
-  <si>
-    <t>贾梦垚</t>
-  </si>
-  <si>
-    <t>莲湖路196号博香苑小区6-2-1001</t>
-  </si>
-  <si>
-    <t>物理</t>
-  </si>
-  <si>
-    <t>星期天培训</t>
-  </si>
-  <si>
-    <t>周日17：00-19：00</t>
-  </si>
-  <si>
-    <t>李梦媛</t>
-  </si>
-  <si>
-    <t>南纬一路144号晟和家园 3-2203</t>
-  </si>
-  <si>
-    <t>70中</t>
-  </si>
-  <si>
-    <t>30/90</t>
-  </si>
-  <si>
-    <t>精锐教育</t>
-  </si>
-  <si>
-    <t>周日20：00-22：00</t>
-  </si>
-  <si>
-    <t>孙翊原</t>
-  </si>
-  <si>
-    <t>卫生巷88号 6-1-403</t>
-  </si>
-  <si>
-    <t>110/150</t>
   </si>
   <si>
     <t>转账时间(灰色表示线上上课（课时费1小时100），绿色表示课时费已发)：豌豆文化每月10号；
 精锐教育是当月15号；星期天培训下个月20号；掌学教育是下月15号
-下次考试目标：刘桐语：135，李梦媛：50，孙翊原：120,贾梦垚：130，唐润宁：100
-李梦媛10月12日只上了半节课</t>
+下次考试目标：刘桐语：135，李梦媛：50，孙翊原：120,贾梦垚：130，唐润宁：100</t>
   </si>
   <si>
     <t>第11课</t>
@@ -1495,7 +1494,7 @@
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1507,7 +1506,8 @@
     <col min="6" max="6" width="12.375" customWidth="1"/>
     <col min="7" max="7" width="35" customWidth="1"/>
     <col min="8" max="8" width="9.875" customWidth="1"/>
-    <col min="9" max="10" width="9.125" customWidth="1"/>
+    <col min="9" max="9" width="9.125" customWidth="1"/>
+    <col min="10" max="10" width="8.08333333333333" customWidth="1"/>
     <col min="11" max="20" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1622,290 +1622,294 @@
       <c r="P2" s="21">
         <v>45605</v>
       </c>
-      <c r="Q2" s="20"/>
+      <c r="Q2" s="21">
+        <v>45612</v>
+      </c>
       <c r="R2" s="20"/>
     </row>
     <row r="3" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="9">
-        <v>45543</v>
-      </c>
-      <c r="K3" s="9">
-        <v>45550</v>
+      <c r="J3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="12">
+        <v>45551</v>
       </c>
       <c r="L3" s="9">
         <v>45557</v>
       </c>
       <c r="M3" s="9">
+        <v>45563</v>
+      </c>
+      <c r="N3" s="9">
+        <v>45567</v>
+      </c>
+      <c r="O3" s="9">
         <v>45578</v>
       </c>
-      <c r="N3" s="9">
-        <v>45584</v>
-      </c>
-      <c r="O3" s="9">
-        <v>45591</v>
-      </c>
-      <c r="P3" s="21">
-        <v>45598</v>
-      </c>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
+      <c r="P3" s="9">
+        <v>45585</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>45592</v>
+      </c>
+      <c r="R3" s="9">
+        <v>45599</v>
+      </c>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
     </row>
     <row r="4" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+    </row>
+    <row r="5" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="H5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="9">
+        <v>45557</v>
+      </c>
+      <c r="L5" s="9">
+        <v>45566</v>
+      </c>
+      <c r="M5" s="9">
+        <v>45572</v>
+      </c>
+      <c r="N5" s="9">
+        <v>45585</v>
+      </c>
+      <c r="O5" s="9">
+        <v>45592</v>
+      </c>
+      <c r="P5" s="9">
+        <v>45599</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>45606</v>
+      </c>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+    </row>
+    <row r="6" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="H6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K6" s="9">
         <v>45551</v>
       </c>
-      <c r="L4" s="9">
-        <v>45557</v>
-      </c>
-      <c r="M4" s="9">
+      <c r="L6" s="9">
+        <v>45556</v>
+      </c>
+      <c r="M6" s="9">
         <v>45563</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N6" s="9">
+        <v>45566</v>
+      </c>
+      <c r="O6" s="9">
         <v>45567</v>
       </c>
-      <c r="O4" s="9">
+      <c r="P6" s="9">
+        <v>45572</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>45577</v>
+      </c>
+      <c r="R6" s="9">
         <v>45578</v>
       </c>
-      <c r="P4" s="9">
+      <c r="S6" s="9">
         <v>45585</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="T6" s="9">
         <v>45592</v>
       </c>
-      <c r="R4" s="9">
+    </row>
+    <row r="7" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="21">
         <v>45599</v>
       </c>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-    </row>
-    <row r="5" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-    </row>
-    <row r="6" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A6" s="5" t="s">
+      <c r="L7" s="21">
+        <v>45606</v>
+      </c>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+    </row>
+    <row r="8" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="9">
-        <v>45557</v>
-      </c>
-      <c r="L6" s="9">
+      <c r="K8" s="12">
+        <v>45543</v>
+      </c>
+      <c r="L8" s="9">
         <v>45566</v>
       </c>
-      <c r="M6" s="9">
-        <v>45572</v>
-      </c>
-      <c r="N6" s="9">
+      <c r="M8" s="9">
+        <v>45567</v>
+      </c>
+      <c r="N8" s="9">
         <v>45585</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O8" s="9">
         <v>45592</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P8" s="9">
         <v>45599</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q8" s="9">
         <v>45606</v>
       </c>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-    </row>
-    <row r="7" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="9">
-        <v>45551</v>
-      </c>
-      <c r="L7" s="9">
-        <v>45556</v>
-      </c>
-      <c r="M7" s="9">
-        <v>45563</v>
-      </c>
-      <c r="N7" s="21">
-        <v>45566</v>
-      </c>
-      <c r="O7" s="21">
-        <v>45567</v>
-      </c>
-      <c r="P7" s="21">
-        <v>45572</v>
-      </c>
-      <c r="Q7" s="21">
-        <v>45577</v>
-      </c>
-      <c r="R7" s="21">
-        <v>45578</v>
-      </c>
-      <c r="S7" s="21">
-        <v>45585</v>
-      </c>
-      <c r="T7" s="21">
-        <v>45592</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="21">
-        <v>45599</v>
-      </c>
-      <c r="L8" s="21">
-        <v>45606</v>
-      </c>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
       <c r="S8" s="20"/>
       <c r="T8" s="20"/>
     </row>
     <row r="9" customFormat="1" ht="15.5" spans="1:20">
       <c r="A9" s="5" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>21</v>
@@ -1914,7 +1918,7 @@
         <v>53</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>54</v>
@@ -1926,41 +1930,37 @@
         <v>56</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="J9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="12">
+      <c r="J9" s="9">
         <v>45543</v>
       </c>
+      <c r="K9" s="9">
+        <v>45550</v>
+      </c>
       <c r="L9" s="9">
-        <v>45566</v>
+        <v>45557</v>
       </c>
       <c r="M9" s="9">
-        <v>45567</v>
+        <v>45578</v>
       </c>
       <c r="N9" s="9">
-        <v>45585</v>
+        <v>45584</v>
       </c>
       <c r="O9" s="9">
-        <v>45592</v>
+        <v>45591</v>
       </c>
       <c r="P9" s="21">
-        <v>45599</v>
-      </c>
-      <c r="Q9" s="21">
-        <v>45606</v>
-      </c>
-      <c r="R9" s="21"/>
+        <v>45598</v>
+      </c>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
       <c r="S9" s="20"/>
       <c r="T9" s="20"/>
     </row>
-    <row r="10" customFormat="1"/>
-    <row r="11" customFormat="1"/>
     <row r="13" s="20" customFormat="1" ht="15.5"/>
     <row r="14" s="20" customFormat="1" ht="15.5"/>
     <row r="15" s="20" customFormat="1" ht="15.5"/>
@@ -2060,26 +2060,26 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J6:J7"/>
     <mergeCell ref="B20:I24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2200,7 +2200,7 @@
         <v>64</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>65</v>
@@ -2359,7 +2359,7 @@
         <v>64</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>65</v>
@@ -2419,7 +2419,7 @@
         <v>84</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>85</v>
@@ -2481,7 +2481,7 @@
         <v>89</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>90</v>
@@ -2550,7 +2550,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>86</v>
@@ -2568,7 +2568,7 @@
         <v>98</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>99</v>
@@ -2824,7 +2824,7 @@
         <v>105</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>106</v>
@@ -2862,7 +2862,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>67</v>
@@ -2883,7 +2883,7 @@
         <v>110</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J16" s="11" t="s">
         <v>22</v>
@@ -3390,7 +3390,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>86</v>
@@ -3484,7 +3484,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>67</v>
@@ -3502,7 +3502,7 @@
         <v>109</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>85</v>
@@ -3538,7 +3538,7 @@
         <v>20</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>22</v>
@@ -3547,7 +3547,7 @@
         <v>138</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>139</v>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -1494,7 +1494,7 @@
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1682,7 +1682,9 @@
       <c r="R3" s="9">
         <v>45599</v>
       </c>
-      <c r="S3" s="12"/>
+      <c r="S3" s="9">
+        <v>45613</v>
+      </c>
       <c r="T3" s="12"/>
     </row>
     <row r="4" customFormat="1" ht="15.5" spans="1:20">
@@ -1759,7 +1761,9 @@
       <c r="Q5" s="9">
         <v>45606</v>
       </c>
-      <c r="R5" s="26"/>
+      <c r="R5" s="9">
+        <v>45613</v>
+      </c>
       <c r="S5" s="26"/>
       <c r="T5" s="26"/>
     </row>
@@ -1842,7 +1846,9 @@
       <c r="L7" s="21">
         <v>45606</v>
       </c>
-      <c r="M7" s="21"/>
+      <c r="M7" s="21">
+        <v>45613</v>
+      </c>
       <c r="N7" s="21"/>
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
@@ -1903,7 +1909,9 @@
       <c r="Q8" s="9">
         <v>45606</v>
       </c>
-      <c r="R8" s="21"/>
+      <c r="R8" s="21">
+        <v>45613</v>
+      </c>
       <c r="S8" s="20"/>
       <c r="T8" s="20"/>
     </row>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12330"/>
+    <workbookView windowWidth="25200" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="Doing" sheetId="1" r:id="rId1"/>
@@ -173,15 +173,269 @@
     <t>110/150</t>
   </si>
   <si>
+    <t>转账时间(灰色表示线上上课（课时费1小时100），绿色表示课时费已发)：豌豆文化每月10号；
+精锐教育是当月15号；星期天培训下个月20号
+下次考试目标：刘桐语：135，李梦媛：50，孙翊原：120,贾梦垚：130，郭润宁：100</t>
+  </si>
+  <si>
+    <t>第11课</t>
+  </si>
+  <si>
+    <t>新耀科技</t>
+  </si>
+  <si>
+    <t>180/1.5h</t>
+  </si>
+  <si>
+    <t>周六19：00-20：30</t>
+  </si>
+  <si>
+    <t>宁芮一</t>
+  </si>
+  <si>
+    <t>光明路北小区14-2-503</t>
+  </si>
+  <si>
+    <t>90/150</t>
+  </si>
+  <si>
+    <t>初二</t>
+  </si>
+  <si>
+    <t>豌豆文化</t>
+  </si>
+  <si>
+    <t>260/2h</t>
+  </si>
+  <si>
+    <t>双胞胎</t>
+  </si>
+  <si>
+    <t>秀城二代宅9-2-1501</t>
+  </si>
+  <si>
+    <t>12中</t>
+  </si>
+  <si>
+    <t>80/100</t>
+  </si>
+  <si>
+    <t>优师帮</t>
+  </si>
+  <si>
+    <t>周三20：30-22：30</t>
+  </si>
+  <si>
+    <t>李金翰</t>
+  </si>
+  <si>
+    <t>新医路165号汇文大厦504</t>
+  </si>
+  <si>
+    <t>师大</t>
+  </si>
+  <si>
+    <t>80/150</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>360/1.5h</t>
+  </si>
+  <si>
+    <t>博瑞佰艺</t>
+  </si>
+  <si>
+    <t>每天19：30-21：00</t>
+  </si>
+  <si>
+    <t>徐子洋</t>
+  </si>
+  <si>
+    <t>德泽园三区1-1-202</t>
+  </si>
+  <si>
+    <t>60/100</t>
+  </si>
+  <si>
+    <t>一尔优教育</t>
+  </si>
+  <si>
+    <t>周日18：00-20：00</t>
+  </si>
+  <si>
+    <t>张恒源</t>
+  </si>
+  <si>
+    <t>丹霞山街绿谷学府3-1-403</t>
+  </si>
+  <si>
+    <t>30/150</t>
+  </si>
+  <si>
+    <t>周一20：30-22：30</t>
+  </si>
+  <si>
+    <t>姜弈瞳</t>
+  </si>
+  <si>
+    <t>锦绣三街-和兴帝景4-1-1403</t>
+  </si>
+  <si>
+    <t>108/150</t>
+  </si>
+  <si>
+    <t>210/2h</t>
+  </si>
+  <si>
+    <t>周日12：00-14：00</t>
+  </si>
+  <si>
+    <t>柯梓萌</t>
+  </si>
+  <si>
+    <t>青年路国税小区3-1-501</t>
+  </si>
+  <si>
+    <t>40/100</t>
+  </si>
+  <si>
+    <t>周日15：00-17：00</t>
+  </si>
+  <si>
+    <t>刘卓雅</t>
+  </si>
+  <si>
+    <t>邮区中心局小区3-4-602</t>
+  </si>
+  <si>
+    <t>13中</t>
+  </si>
+  <si>
+    <t>李冰惠</t>
+  </si>
+  <si>
+    <t>一中家属院7号院1-2-201</t>
+  </si>
+  <si>
+    <t>120/150</t>
+  </si>
+  <si>
+    <t>周二周四19：20-21：20</t>
+  </si>
+  <si>
+    <t>夏锦程</t>
+  </si>
+  <si>
+    <t>天章大厦</t>
+  </si>
+  <si>
+    <t>19中</t>
+  </si>
+  <si>
+    <t>周三周五19：20-21：20</t>
+  </si>
+  <si>
+    <t>刘东睿</t>
+  </si>
+  <si>
+    <t>11中</t>
+  </si>
+  <si>
+    <t>50/150</t>
+  </si>
+  <si>
+    <t>周六15：00-17：00</t>
+  </si>
+  <si>
+    <t>马金亮</t>
+  </si>
+  <si>
+    <t>复读</t>
+  </si>
+  <si>
+    <t>周六20：00-22：00</t>
+  </si>
+  <si>
+    <t>张育铭</t>
+  </si>
+  <si>
+    <t>金源贸易城5-1-602</t>
+  </si>
+  <si>
+    <t>104团中学</t>
+  </si>
+  <si>
+    <t>100/150</t>
+  </si>
+  <si>
+    <t>周日09：00-11：00</t>
+  </si>
+  <si>
+    <t>周裕民</t>
+  </si>
+  <si>
+    <t>兵二分校</t>
+  </si>
+  <si>
+    <t>周六12：00-14：00</t>
+  </si>
+  <si>
+    <t>张佳宁</t>
+  </si>
+  <si>
+    <t>耳鼻喉科专科医院旁巷子201室</t>
+  </si>
+  <si>
+    <t>85/100</t>
+  </si>
+  <si>
+    <t>高一</t>
+  </si>
+  <si>
+    <t>320/2h</t>
+  </si>
+  <si>
+    <t>周日15：30-17：30</t>
+  </si>
+  <si>
+    <t>吴雨桐</t>
+  </si>
+  <si>
+    <t>丽园路轩和苑C区 3-2-102</t>
+  </si>
+  <si>
+    <t>60/150</t>
+  </si>
+  <si>
+    <t>周六17：10-19：10</t>
+  </si>
+  <si>
+    <t>孙朝(zhao)阳</t>
+  </si>
+  <si>
+    <t>450/2h</t>
+  </si>
+  <si>
+    <t>周六18：30-20：30</t>
+  </si>
+  <si>
+    <t>魏子骞</t>
+  </si>
+  <si>
+    <t>幸福路48号二建小区 9-2-302</t>
+  </si>
+  <si>
+    <t>70/90</t>
+  </si>
+  <si>
     <t>初一</t>
   </si>
   <si>
     <t>掌学教育</t>
   </si>
   <si>
-    <t>周六18：30-20：30</t>
-  </si>
-  <si>
     <t>朱思臣</t>
   </si>
   <si>
@@ -191,262 +445,8 @@
     <t>90/100</t>
   </si>
   <si>
-    <t>转账时间(灰色表示线上上课（课时费1小时100），绿色表示课时费已发)：豌豆文化每月10号；
-精锐教育是当月15号；星期天培训下个月20号；掌学教育是下月15号
-下次考试目标：刘桐语：135，李梦媛：50，孙翊原：120,贾梦垚：130，唐润宁：100</t>
-  </si>
-  <si>
-    <t>第11课</t>
-  </si>
-  <si>
-    <t>新耀科技</t>
-  </si>
-  <si>
-    <t>180/1.5h</t>
-  </si>
-  <si>
-    <t>周六19：00-20：30</t>
-  </si>
-  <si>
-    <t>宁芮一</t>
-  </si>
-  <si>
-    <t>光明路北小区14-2-503</t>
-  </si>
-  <si>
-    <t>90/150</t>
-  </si>
-  <si>
-    <t>初二</t>
-  </si>
-  <si>
-    <t>豌豆文化</t>
-  </si>
-  <si>
-    <t>260/2h</t>
-  </si>
-  <si>
-    <t>双胞胎</t>
-  </si>
-  <si>
-    <t>秀城二代宅9-2-1501</t>
-  </si>
-  <si>
-    <t>12中</t>
-  </si>
-  <si>
-    <t>80/100</t>
-  </si>
-  <si>
-    <t>优师帮</t>
-  </si>
-  <si>
-    <t>周三20：30-22：30</t>
-  </si>
-  <si>
-    <t>李金翰</t>
-  </si>
-  <si>
-    <t>新医路165号汇文大厦504</t>
-  </si>
-  <si>
-    <t>师大</t>
-  </si>
-  <si>
-    <t>80/150</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>360/1.5h</t>
-  </si>
-  <si>
-    <t>博瑞佰艺</t>
-  </si>
-  <si>
-    <t>每天19：30-21：00</t>
-  </si>
-  <si>
-    <t>徐子洋</t>
-  </si>
-  <si>
-    <t>德泽园三区1-1-202</t>
-  </si>
-  <si>
-    <t>60/100</t>
-  </si>
-  <si>
-    <t>一尔优教育</t>
-  </si>
-  <si>
-    <t>周日18：00-20：00</t>
-  </si>
-  <si>
-    <t>张恒源</t>
-  </si>
-  <si>
-    <t>丹霞山街绿谷学府3-1-403</t>
-  </si>
-  <si>
-    <t>30/150</t>
-  </si>
-  <si>
-    <t>周一20：30-22：30</t>
-  </si>
-  <si>
-    <t>姜弈瞳</t>
-  </si>
-  <si>
-    <t>锦绣三街-和兴帝景4-1-1403</t>
-  </si>
-  <si>
-    <t>108/150</t>
-  </si>
-  <si>
-    <t>210/2h</t>
-  </si>
-  <si>
-    <t>周日12：00-14：00</t>
-  </si>
-  <si>
-    <t>柯梓萌</t>
-  </si>
-  <si>
-    <t>青年路国税小区3-1-501</t>
-  </si>
-  <si>
-    <t>40/100</t>
-  </si>
-  <si>
-    <t>周日15：00-17：00</t>
-  </si>
-  <si>
-    <t>刘卓雅</t>
-  </si>
-  <si>
-    <t>邮区中心局小区3-4-602</t>
-  </si>
-  <si>
-    <t>13中</t>
-  </si>
-  <si>
-    <t>李冰惠</t>
-  </si>
-  <si>
-    <t>一中家属院7号院1-2-201</t>
-  </si>
-  <si>
-    <t>120/150</t>
-  </si>
-  <si>
-    <t>周二周四19：20-21：20</t>
-  </si>
-  <si>
-    <t>夏锦程</t>
-  </si>
-  <si>
-    <t>天章大厦</t>
-  </si>
-  <si>
-    <t>19中</t>
-  </si>
-  <si>
-    <t>周三周五19：20-21：20</t>
-  </si>
-  <si>
-    <t>刘东睿</t>
-  </si>
-  <si>
-    <t>11中</t>
-  </si>
-  <si>
-    <t>50/150</t>
-  </si>
-  <si>
-    <t>周六15：00-17：00</t>
-  </si>
-  <si>
-    <t>马金亮</t>
-  </si>
-  <si>
-    <t>复读</t>
-  </si>
-  <si>
-    <t>周六20：00-22：00</t>
-  </si>
-  <si>
-    <t>张育铭</t>
-  </si>
-  <si>
-    <t>金源贸易城5-1-602</t>
-  </si>
-  <si>
-    <t>104团中学</t>
-  </si>
-  <si>
-    <t>100/150</t>
-  </si>
-  <si>
-    <t>周日09：00-11：00</t>
-  </si>
-  <si>
-    <t>周裕民</t>
-  </si>
-  <si>
-    <t>兵二分校</t>
-  </si>
-  <si>
-    <t>周六12：00-14：00</t>
-  </si>
-  <si>
-    <t>张佳宁</t>
-  </si>
-  <si>
-    <t>耳鼻喉科专科医院旁巷子201室</t>
-  </si>
-  <si>
-    <t>85/100</t>
-  </si>
-  <si>
-    <t>高一</t>
-  </si>
-  <si>
-    <t>320/2h</t>
-  </si>
-  <si>
-    <t>周日15：30-17：30</t>
-  </si>
-  <si>
-    <t>吴雨桐</t>
-  </si>
-  <si>
-    <t>丽园路轩和苑C区 3-2-102</t>
-  </si>
-  <si>
-    <t>60/150</t>
-  </si>
-  <si>
-    <t>周六17：10-19：10</t>
-  </si>
-  <si>
-    <t>孙朝(zhao)阳</t>
-  </si>
-  <si>
-    <t>450/2h</t>
-  </si>
-  <si>
-    <t>魏子骞</t>
-  </si>
-  <si>
-    <t>幸福路48号二建小区 9-2-302</t>
-  </si>
-  <si>
-    <t>70/90</t>
-  </si>
-  <si>
     <t xml:space="preserve">绿色表示课时费已发；
-转账时间：新耀科技每月20号；一尔优当月1号和15号；博瑞佰艺下月10号；
+转账时间：新耀科技每月20号；一尔优当月1号和15号；博瑞佰艺下月10号；掌学教育是下月15号
 姜异瞳的课被机构坑了，白上一节课，吸取教训，下次提前问清楚是试课还是正式上课
 </t>
   </si>
@@ -456,10 +456,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -957,7 +957,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -966,10 +966,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -978,7 +978,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1494,10 +1494,10 @@
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="5.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
@@ -1511,7 +1511,7 @@
     <col min="11" max="20" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:20">
+    <row r="1" ht="15.75" spans="1:20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.5" spans="1:18">
+    <row r="2" customFormat="1" ht="15.75" spans="1:18">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="R2" s="20"/>
     </row>
-    <row r="3" customFormat="1" ht="15.5" spans="1:20">
+    <row r="3" customFormat="1" ht="15.75" spans="1:20">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="T3" s="12"/>
     </row>
-    <row r="4" customFormat="1" ht="15.5" spans="1:20">
+    <row r="4" customFormat="1" ht="15.75" spans="1:20">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1709,7 +1709,7 @@
       <c r="S4" s="21"/>
       <c r="T4" s="21"/>
     </row>
-    <row r="5" customFormat="1" ht="15.5" spans="1:20">
+    <row r="5" customFormat="1" ht="15.75" spans="1:20">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1767,7 +1767,7 @@
       <c r="S5" s="26"/>
       <c r="T5" s="26"/>
     </row>
-    <row r="6" customFormat="1" ht="15.5" spans="1:20">
+    <row r="6" customFormat="1" ht="15.75" spans="1:20">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.5" spans="1:20">
+    <row r="7" customFormat="1" ht="15.75" spans="1:20">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1857,7 +1857,7 @@
       <c r="S7" s="20"/>
       <c r="T7" s="20"/>
     </row>
-    <row r="8" customFormat="1" ht="15.5" spans="1:20">
+    <row r="8" customFormat="1" ht="15.75" spans="1:20">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
@@ -1915,66 +1915,13 @@
       <c r="S8" s="20"/>
       <c r="T8" s="20"/>
     </row>
-    <row r="9" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="9">
-        <v>45543</v>
-      </c>
-      <c r="K9" s="9">
-        <v>45550</v>
-      </c>
-      <c r="L9" s="9">
-        <v>45557</v>
-      </c>
-      <c r="M9" s="9">
-        <v>45578</v>
-      </c>
-      <c r="N9" s="9">
-        <v>45584</v>
-      </c>
-      <c r="O9" s="9">
-        <v>45591</v>
-      </c>
-      <c r="P9" s="21">
-        <v>45598</v>
-      </c>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-    </row>
-    <row r="13" s="20" customFormat="1" ht="15.5"/>
-    <row r="14" s="20" customFormat="1" ht="15.5"/>
-    <row r="15" s="20" customFormat="1" ht="15.5"/>
-    <row r="16" s="20" customFormat="1" ht="15.5"/>
-    <row r="17" s="20" customFormat="1" ht="15.5"/>
-    <row r="18" s="20" customFormat="1" ht="15.5" spans="1:9">
+    <row r="9" customFormat="1"/>
+    <row r="13" s="20" customFormat="1" ht="15.75"/>
+    <row r="14" s="20" customFormat="1" ht="15.75"/>
+    <row r="15" s="20" customFormat="1" ht="15.75"/>
+    <row r="16" s="20" customFormat="1" ht="15.75"/>
+    <row r="17" s="20" customFormat="1" ht="15.75"/>
+    <row r="18" s="20" customFormat="1" ht="15.75" spans="1:9">
       <c r="A18" s="23"/>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -1985,7 +1932,7 @@
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
     </row>
-    <row r="19" s="20" customFormat="1" ht="15.5" spans="1:9">
+    <row r="19" s="20" customFormat="1" ht="15.75" spans="1:9">
       <c r="A19" s="23"/>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
@@ -1996,9 +1943,9 @@
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
     </row>
-    <row r="20" ht="17.5" spans="2:13">
+    <row r="20" ht="18.75" spans="2:13">
       <c r="B20" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -2012,7 +1959,7 @@
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
     </row>
-    <row r="21" ht="17.5" spans="2:13">
+    <row r="21" ht="18.75" spans="2:13">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2026,7 +1973,7 @@
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
     </row>
-    <row r="22" ht="17.5" spans="2:12">
+    <row r="22" ht="18.75" spans="2:12">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -2038,7 +1985,7 @@
       <c r="K22" s="24"/>
       <c r="L22" s="24"/>
     </row>
-    <row r="23" ht="17.5" spans="2:13">
+    <row r="23" ht="18.75" spans="2:13">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -2052,7 +1999,7 @@
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
     </row>
-    <row r="24" ht="17.5" spans="2:13">
+    <row r="24" ht="18.75" spans="2:13">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -2099,13 +2046,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U44"/>
+  <dimension ref="A1:U45"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="4.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
@@ -2120,7 +2067,7 @@
     <col min="22" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:21">
+    <row r="1" ht="15.75" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2182,10 +2129,10 @@
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" customFormat="1" ht="15.5" spans="1:21">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="15.75" spans="1:21">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -2193,25 +2140,25 @@
         <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>50</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J2" s="9">
         <v>45185</v>
@@ -2250,33 +2197,33 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15.5" spans="1:19">
+    <row r="3" customFormat="1" ht="15.75" spans="1:19">
       <c r="A3" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>22</v>
@@ -2309,7 +2256,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.5" spans="1:11">
+    <row r="4" customFormat="1" ht="15.75" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -2317,25 +2264,25 @@
         <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="J4" s="9">
         <v>45287</v>
@@ -2344,7 +2291,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15.5" spans="1:20">
+    <row r="5" customFormat="1" ht="15.75" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -2352,25 +2299,25 @@
         <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>50</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>22</v>
@@ -2404,33 +2351,33 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" customFormat="1" ht="15.5" spans="1:20">
+    <row r="6" customFormat="1" ht="15.75" spans="1:20">
       <c r="A6" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>33</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J6" s="9">
         <v>45320</v>
@@ -2466,7 +2413,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.5" spans="1:20">
+    <row r="7" customFormat="1" ht="15.75" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -2474,25 +2421,25 @@
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>33</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>22</v>
@@ -2520,25 +2467,25 @@
         <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H8" s="6">
         <v>126</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J8" s="14">
         <v>45425</v>
@@ -2553,7 +2500,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" customFormat="1" ht="15.5" spans="1:20">
+    <row r="9" customFormat="1" ht="15.75" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -2561,25 +2508,25 @@
         <v>38</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>50</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J9" s="9">
         <v>45186</v>
@@ -2615,7 +2562,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.5" spans="1:20">
+    <row r="10" customFormat="1" ht="15.75" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2657,7 +2604,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15.5" spans="1:20">
+    <row r="11" customFormat="1" ht="15.75" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2699,7 +2646,7 @@
         <v>45445</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15.5" spans="1:20">
+    <row r="12" customFormat="1" ht="15.75" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2723,7 +2670,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" customFormat="1" ht="15.5" spans="1:20">
+    <row r="13" customFormat="1" ht="15.75" spans="1:20">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -2731,25 +2678,25 @@
         <v>21</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J13" s="17" t="s">
         <v>22</v>
@@ -2785,7 +2732,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="15.5" spans="1:20">
+    <row r="14" customFormat="1" ht="15.75" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2809,7 +2756,7 @@
       <c r="S14" s="16"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" customFormat="1" ht="15.5" spans="1:20">
+    <row r="15" customFormat="1" ht="15.75" spans="1:20">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -2817,25 +2764,25 @@
         <v>21</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>50</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>22</v>
@@ -2865,7 +2812,7 @@
       <c r="S15" s="16"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" customFormat="1" ht="15.5" spans="1:20">
+    <row r="16" customFormat="1" ht="15.75" spans="1:20">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -2873,22 +2820,22 @@
         <v>38</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>44</v>
@@ -2927,7 +2874,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="15.5" spans="1:20">
+    <row r="17" customFormat="1" ht="15.75" spans="1:20">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -2935,25 +2882,25 @@
         <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="J17" s="17" t="s">
         <v>22</v>
@@ -2989,7 +2936,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="15.5" spans="1:20">
+    <row r="18" customFormat="1" ht="15.75" spans="1:20">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -3021,7 +2968,7 @@
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
     </row>
-    <row r="19" customFormat="1" ht="15.5" spans="1:20">
+    <row r="19" customFormat="1" ht="15.75" spans="1:20">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -3029,22 +2976,22 @@
         <v>21</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>28</v>
@@ -3083,7 +3030,7 @@
         <v>45451</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="15.5" spans="1:20">
+    <row r="20" customFormat="1" ht="15.75" spans="1:20">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3115,7 +3062,7 @@
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
     </row>
-    <row r="21" customFormat="1" ht="15.5" spans="1:20">
+    <row r="21" customFormat="1" ht="15.75" spans="1:20">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -3123,25 +3070,25 @@
         <v>21</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>22</v>
@@ -3177,7 +3124,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="15.5" spans="1:20">
+    <row r="22" customFormat="1" ht="15.75" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3219,7 +3166,7 @@
         <v>45423</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15.5" spans="1:20">
+    <row r="23" customFormat="1" ht="15.75" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3251,7 +3198,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" customFormat="1" ht="15.5" spans="1:20">
+    <row r="24" customFormat="1" ht="15.75" spans="1:20">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
@@ -3259,25 +3206,25 @@
         <v>21</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J24" s="19" t="s">
         <v>22</v>
@@ -3313,7 +3260,7 @@
         <v>45325</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="15.5" spans="1:20">
+    <row r="25" customFormat="1" ht="15.75" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3355,7 +3302,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15.5" spans="1:20">
+    <row r="26" s="1" customFormat="1" ht="15.75" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3393,7 +3340,7 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="27" customFormat="1" ht="15.5" spans="1:20">
+    <row r="27" customFormat="1" ht="15.75" spans="1:20">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -3401,25 +3348,25 @@
         <v>38</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="J27" s="12">
         <v>45451</v>
@@ -3443,33 +3390,33 @@
       <c r="S27" s="16"/>
       <c r="T27" s="16"/>
     </row>
-    <row r="28" customFormat="1" ht="15.5" spans="1:20">
+    <row r="28" customFormat="1" ht="15.75" spans="1:20">
       <c r="A28" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>22</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="J28" s="12" t="s">
         <v>22</v>
@@ -3487,7 +3434,7 @@
       <c r="S28" s="21"/>
       <c r="T28" s="21"/>
     </row>
-    <row r="29" customFormat="1" ht="15.5" spans="1:20">
+    <row r="29" customFormat="1" ht="15.75" spans="1:20">
       <c r="A29" s="5" t="s">
         <v>20</v>
       </c>
@@ -3495,25 +3442,25 @@
         <v>38</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>50</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J29" s="12" t="s">
         <v>22</v>
@@ -3541,7 +3488,7 @@
       <c r="S29" s="16"/>
       <c r="T29" s="16"/>
     </row>
-    <row r="30" customFormat="1" ht="15.5" spans="1:18">
+    <row r="30" customFormat="1" ht="15.75" spans="1:18">
       <c r="A30" s="5" t="s">
         <v>20</v>
       </c>
@@ -3552,22 +3499,22 @@
         <v>22</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="J30" s="12" t="s">
         <v>22</v>
@@ -3583,29 +3530,61 @@
       <c r="Q30" s="16"/>
       <c r="R30" s="16"/>
     </row>
-    <row r="31" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="22"/>
-    </row>
-    <row r="32" customFormat="1" ht="15.5" spans="1:20">
+    <row r="31" customFormat="1" ht="15.75" spans="1:20">
+      <c r="A31" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J31" s="9">
+        <v>45543</v>
+      </c>
+      <c r="K31" s="9">
+        <v>45550</v>
+      </c>
+      <c r="L31" s="9">
+        <v>45557</v>
+      </c>
+      <c r="M31" s="9">
+        <v>45578</v>
+      </c>
+      <c r="N31" s="9">
+        <v>45584</v>
+      </c>
+      <c r="O31" s="9">
+        <v>45591</v>
+      </c>
+      <c r="P31" s="9">
+        <v>45598</v>
+      </c>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+    </row>
+    <row r="32" customFormat="1" ht="15.75" spans="1:20">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -3627,7 +3606,7 @@
       <c r="S32" s="22"/>
       <c r="T32" s="22"/>
     </row>
-    <row r="33" customFormat="1" ht="15.5" spans="1:20">
+    <row r="33" customFormat="1" ht="15.75" spans="1:20">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3649,7 +3628,7 @@
       <c r="S33" s="22"/>
       <c r="T33" s="22"/>
     </row>
-    <row r="34" customFormat="1" ht="15.5" spans="1:20">
+    <row r="34" customFormat="1" ht="15.75" spans="1:20">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -3671,7 +3650,7 @@
       <c r="S34" s="22"/>
       <c r="T34" s="22"/>
     </row>
-    <row r="35" customFormat="1" ht="15.5" spans="1:20">
+    <row r="35" customFormat="1" ht="15.75" spans="1:20">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -3693,7 +3672,7 @@
       <c r="S35" s="22"/>
       <c r="T35" s="22"/>
     </row>
-    <row r="36" customFormat="1" ht="15.5" spans="1:20">
+    <row r="36" customFormat="1" ht="15.75" spans="1:20">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -3715,7 +3694,7 @@
       <c r="S36" s="22"/>
       <c r="T36" s="22"/>
     </row>
-    <row r="37" customFormat="1" ht="15.5" spans="1:20">
+    <row r="37" customFormat="1" ht="15.75" spans="1:20">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -3737,22 +3716,32 @@
       <c r="S37" s="22"/>
       <c r="T37" s="22"/>
     </row>
-    <row r="38" spans="2:11">
-      <c r="B38" s="8" t="s">
+    <row r="38" customFormat="1" ht="15.75" spans="1:20">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-    </row>
-    <row r="39" spans="2:11">
-      <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -3822,6 +3811,18 @@
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="61">
@@ -3885,7 +3886,7 @@
     <mergeCell ref="J19:J20"/>
     <mergeCell ref="J21:J23"/>
     <mergeCell ref="J24:J26"/>
-    <mergeCell ref="B38:K44"/>
+    <mergeCell ref="B39:K45"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="12090"/>
+    <workbookView windowWidth="25600" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Doing" sheetId="1" r:id="rId1"/>
@@ -456,10 +456,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -957,7 +957,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -966,10 +966,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -978,7 +978,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1494,10 +1494,10 @@
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="5.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
@@ -1511,7 +1511,7 @@
     <col min="11" max="20" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:20">
+    <row r="1" ht="15.5" spans="1:20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.75" spans="1:18">
+    <row r="2" customFormat="1" ht="15.5" spans="1:18">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -1625,9 +1625,11 @@
       <c r="Q2" s="21">
         <v>45612</v>
       </c>
-      <c r="R2" s="20"/>
-    </row>
-    <row r="3" customFormat="1" ht="15.75" spans="1:20">
+      <c r="R2" s="21">
+        <v>45619</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="15.5" spans="1:20">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
@@ -1687,7 +1689,7 @@
       </c>
       <c r="T3" s="12"/>
     </row>
-    <row r="4" customFormat="1" ht="15.75" spans="1:20">
+    <row r="4" customFormat="1" ht="15.5" spans="1:20">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1709,7 +1711,7 @@
       <c r="S4" s="21"/>
       <c r="T4" s="21"/>
     </row>
-    <row r="5" customFormat="1" ht="15.75" spans="1:20">
+    <row r="5" customFormat="1" ht="15.5" spans="1:20">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1767,7 +1769,7 @@
       <c r="S5" s="26"/>
       <c r="T5" s="26"/>
     </row>
-    <row r="6" customFormat="1" ht="15.75" spans="1:20">
+    <row r="6" customFormat="1" ht="15.5" spans="1:20">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1829,7 +1831,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.75" spans="1:20">
+    <row r="7" customFormat="1" ht="15.5" spans="1:20">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1857,7 +1859,7 @@
       <c r="S7" s="20"/>
       <c r="T7" s="20"/>
     </row>
-    <row r="8" customFormat="1" ht="15.75" spans="1:20">
+    <row r="8" customFormat="1" ht="15.5" spans="1:20">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
@@ -1915,13 +1917,12 @@
       <c r="S8" s="20"/>
       <c r="T8" s="20"/>
     </row>
-    <row r="9" customFormat="1"/>
-    <row r="13" s="20" customFormat="1" ht="15.75"/>
-    <row r="14" s="20" customFormat="1" ht="15.75"/>
-    <row r="15" s="20" customFormat="1" ht="15.75"/>
-    <row r="16" s="20" customFormat="1" ht="15.75"/>
-    <row r="17" s="20" customFormat="1" ht="15.75"/>
-    <row r="18" s="20" customFormat="1" ht="15.75" spans="1:9">
+    <row r="13" s="20" customFormat="1" ht="15.5"/>
+    <row r="14" s="20" customFormat="1" ht="15.5"/>
+    <row r="15" s="20" customFormat="1" ht="15.5"/>
+    <row r="16" s="20" customFormat="1" ht="15.5"/>
+    <row r="17" s="20" customFormat="1" ht="15.5"/>
+    <row r="18" s="20" customFormat="1" ht="15.5" spans="1:9">
       <c r="A18" s="23"/>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -1932,7 +1933,7 @@
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
     </row>
-    <row r="19" s="20" customFormat="1" ht="15.75" spans="1:9">
+    <row r="19" s="20" customFormat="1" ht="15.5" spans="1:9">
       <c r="A19" s="23"/>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
@@ -1943,7 +1944,7 @@
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
     </row>
-    <row r="20" ht="18.75" spans="2:13">
+    <row r="20" ht="17.5" spans="2:13">
       <c r="B20" s="8" t="s">
         <v>52</v>
       </c>
@@ -1959,7 +1960,7 @@
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
     </row>
-    <row r="21" ht="18.75" spans="2:13">
+    <row r="21" ht="17.5" spans="2:13">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -1973,7 +1974,7 @@
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
     </row>
-    <row r="22" ht="18.75" spans="2:12">
+    <row r="22" ht="17.5" spans="2:12">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -1985,7 +1986,7 @@
       <c r="K22" s="24"/>
       <c r="L22" s="24"/>
     </row>
-    <row r="23" ht="18.75" spans="2:13">
+    <row r="23" ht="17.5" spans="2:13">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -1999,7 +2000,7 @@
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
     </row>
-    <row r="24" ht="18.75" spans="2:13">
+    <row r="24" ht="17.5" spans="2:13">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -2052,7 +2053,7 @@
       <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="4.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
@@ -2067,7 +2068,7 @@
     <col min="22" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:21">
+    <row r="1" ht="15.5" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2132,7 +2133,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.75" spans="1:21">
+    <row r="2" customFormat="1" ht="15.5" spans="1:21">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -2197,7 +2198,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15.75" spans="1:19">
+    <row r="3" customFormat="1" ht="15.5" spans="1:19">
       <c r="A3" s="4" t="s">
         <v>60</v>
       </c>
@@ -2256,7 +2257,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.75" spans="1:11">
+    <row r="4" customFormat="1" ht="15.5" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -2291,7 +2292,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15.75" spans="1:20">
+    <row r="5" customFormat="1" ht="15.5" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -2351,7 +2352,7 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" customFormat="1" ht="15.75" spans="1:20">
+    <row r="6" customFormat="1" ht="15.5" spans="1:20">
       <c r="A6" s="4" t="s">
         <v>60</v>
       </c>
@@ -2413,7 +2414,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.75" spans="1:20">
+    <row r="7" customFormat="1" ht="15.5" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -2500,7 +2501,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" customFormat="1" ht="15.75" spans="1:20">
+    <row r="9" customFormat="1" ht="15.5" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -2562,7 +2563,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.75" spans="1:20">
+    <row r="10" customFormat="1" ht="15.5" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2604,7 +2605,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15.75" spans="1:20">
+    <row r="11" customFormat="1" ht="15.5" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2646,7 +2647,7 @@
         <v>45445</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15.75" spans="1:20">
+    <row r="12" customFormat="1" ht="15.5" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2670,7 +2671,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" customFormat="1" ht="15.75" spans="1:20">
+    <row r="13" customFormat="1" ht="15.5" spans="1:20">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -2732,7 +2733,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="15.75" spans="1:20">
+    <row r="14" customFormat="1" ht="15.5" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2756,7 +2757,7 @@
       <c r="S14" s="16"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" customFormat="1" ht="15.75" spans="1:20">
+    <row r="15" customFormat="1" ht="15.5" spans="1:20">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -2812,7 +2813,7 @@
       <c r="S15" s="16"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" customFormat="1" ht="15.75" spans="1:20">
+    <row r="16" customFormat="1" ht="15.5" spans="1:20">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -2874,7 +2875,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="15.75" spans="1:20">
+    <row r="17" customFormat="1" ht="15.5" spans="1:20">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -2936,7 +2937,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="15.75" spans="1:20">
+    <row r="18" customFormat="1" ht="15.5" spans="1:20">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2968,7 +2969,7 @@
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
     </row>
-    <row r="19" customFormat="1" ht="15.75" spans="1:20">
+    <row r="19" customFormat="1" ht="15.5" spans="1:20">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -3030,7 +3031,7 @@
         <v>45451</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="15.75" spans="1:20">
+    <row r="20" customFormat="1" ht="15.5" spans="1:20">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3062,7 +3063,7 @@
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
     </row>
-    <row r="21" customFormat="1" ht="15.75" spans="1:20">
+    <row r="21" customFormat="1" ht="15.5" spans="1:20">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -3124,7 +3125,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="15.75" spans="1:20">
+    <row r="22" customFormat="1" ht="15.5" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3166,7 +3167,7 @@
         <v>45423</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15.75" spans="1:20">
+    <row r="23" customFormat="1" ht="15.5" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3198,7 +3199,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" customFormat="1" ht="15.75" spans="1:20">
+    <row r="24" customFormat="1" ht="15.5" spans="1:20">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
@@ -3260,7 +3261,7 @@
         <v>45325</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="15.75" spans="1:20">
+    <row r="25" customFormat="1" ht="15.5" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3302,7 +3303,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15.75" spans="1:20">
+    <row r="26" s="1" customFormat="1" ht="15.5" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3340,7 +3341,7 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="27" customFormat="1" ht="15.75" spans="1:20">
+    <row r="27" customFormat="1" ht="15.5" spans="1:20">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -3390,7 +3391,7 @@
       <c r="S27" s="16"/>
       <c r="T27" s="16"/>
     </row>
-    <row r="28" customFormat="1" ht="15.75" spans="1:20">
+    <row r="28" customFormat="1" ht="15.5" spans="1:20">
       <c r="A28" s="5" t="s">
         <v>124</v>
       </c>
@@ -3434,7 +3435,7 @@
       <c r="S28" s="21"/>
       <c r="T28" s="21"/>
     </row>
-    <row r="29" customFormat="1" ht="15.75" spans="1:20">
+    <row r="29" customFormat="1" ht="15.5" spans="1:20">
       <c r="A29" s="5" t="s">
         <v>20</v>
       </c>
@@ -3488,7 +3489,7 @@
       <c r="S29" s="16"/>
       <c r="T29" s="16"/>
     </row>
-    <row r="30" customFormat="1" ht="15.75" spans="1:18">
+    <row r="30" customFormat="1" ht="15.5" spans="1:18">
       <c r="A30" s="5" t="s">
         <v>20</v>
       </c>
@@ -3530,7 +3531,7 @@
       <c r="Q30" s="16"/>
       <c r="R30" s="16"/>
     </row>
-    <row r="31" customFormat="1" ht="15.75" spans="1:20">
+    <row r="31" customFormat="1" ht="15.5" spans="1:20">
       <c r="A31" s="5" t="s">
         <v>137</v>
       </c>
@@ -3584,7 +3585,7 @@
       <c r="S31" s="20"/>
       <c r="T31" s="20"/>
     </row>
-    <row r="32" customFormat="1" ht="15.75" spans="1:20">
+    <row r="32" customFormat="1" ht="15.5" spans="1:20">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -3606,7 +3607,7 @@
       <c r="S32" s="22"/>
       <c r="T32" s="22"/>
     </row>
-    <row r="33" customFormat="1" ht="15.75" spans="1:20">
+    <row r="33" customFormat="1" ht="15.5" spans="1:20">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3628,7 +3629,7 @@
       <c r="S33" s="22"/>
       <c r="T33" s="22"/>
     </row>
-    <row r="34" customFormat="1" ht="15.75" spans="1:20">
+    <row r="34" customFormat="1" ht="15.5" spans="1:20">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -3650,7 +3651,7 @@
       <c r="S34" s="22"/>
       <c r="T34" s="22"/>
     </row>
-    <row r="35" customFormat="1" ht="15.75" spans="1:20">
+    <row r="35" customFormat="1" ht="15.5" spans="1:20">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -3672,7 +3673,7 @@
       <c r="S35" s="22"/>
       <c r="T35" s="22"/>
     </row>
-    <row r="36" customFormat="1" ht="15.75" spans="1:20">
+    <row r="36" customFormat="1" ht="15.5" spans="1:20">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -3694,7 +3695,7 @@
       <c r="S36" s="22"/>
       <c r="T36" s="22"/>
     </row>
-    <row r="37" customFormat="1" ht="15.75" spans="1:20">
+    <row r="37" customFormat="1" ht="15.5" spans="1:20">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -3716,7 +3717,7 @@
       <c r="S37" s="22"/>
       <c r="T37" s="22"/>
     </row>
-    <row r="38" customFormat="1" ht="15.75" spans="1:20">
+    <row r="38" customFormat="1" ht="15.5" spans="1:20">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -175,6 +175,7 @@
   <si>
     <t>转账时间(灰色表示线上上课（课时费1小时100），绿色表示课时费已发)：豌豆文化每月10号；
 精锐教育是当月15号；星期天培训下个月20号
+郭润宁11月19日上了半节课
 下次考试目标：刘桐语：135，李梦媛：50，孙翊原：120,贾梦垚：130，郭润宁：100</t>
   </si>
   <si>
@@ -642,7 +643,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -658,6 +659,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,10 +967,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -972,16 +979,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -993,10 +1000,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1017,28 +1024,28 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1047,19 +1054,16 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1071,38 +1075,41 @@
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1169,6 +1176,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1493,8 +1503,8 @@
   <sheetPr/>
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1573,7 +1583,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.5" spans="1:18">
+    <row r="2" customFormat="1" ht="15.5" spans="1:19">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -1625,7 +1635,10 @@
       <c r="Q2" s="21">
         <v>45612</v>
       </c>
-      <c r="R2" s="21">
+      <c r="R2" s="25">
+        <v>45615</v>
+      </c>
+      <c r="S2" s="21">
         <v>45619</v>
       </c>
     </row>
@@ -1687,7 +1700,9 @@
       <c r="S3" s="9">
         <v>45613</v>
       </c>
-      <c r="T3" s="12"/>
+      <c r="T3" s="9">
+        <v>45620</v>
+      </c>
     </row>
     <row r="4" customFormat="1" ht="15.5" spans="1:20">
       <c r="A4" s="4"/>
@@ -1706,8 +1721,8 @@
       <c r="N4" s="21"/>
       <c r="O4" s="21"/>
       <c r="P4" s="21"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
       <c r="S4" s="21"/>
       <c r="T4" s="21"/>
     </row>
@@ -1766,8 +1781,10 @@
       <c r="R5" s="9">
         <v>45613</v>
       </c>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
+      <c r="S5" s="9">
+        <v>45620</v>
+      </c>
+      <c r="T5" s="27"/>
     </row>
     <row r="6" customFormat="1" ht="15.5" spans="1:20">
       <c r="A6" s="4" t="s">
@@ -1914,7 +1931,9 @@
       <c r="R8" s="21">
         <v>45613</v>
       </c>
-      <c r="S8" s="20"/>
+      <c r="S8" s="21">
+        <v>45620</v>
+      </c>
       <c r="T8" s="20"/>
     </row>
     <row r="13" s="20" customFormat="1" ht="15.5"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -175,7 +175,7 @@
   <si>
     <t>转账时间(灰色表示线上上课（课时费1小时100），绿色表示课时费已发)：豌豆文化每月10号；
 精锐教育是当月15号；星期天培训下个月20号
-郭润宁11月19日上了半节课
+郭润宁11月19、27日上了半节课
 下次考试目标：刘桐语：135，李梦媛：50，孙翊原：120,贾梦垚：130，郭润宁：100</t>
   </si>
   <si>
@@ -1503,8 +1503,8 @@
   <sheetPr/>
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1583,7 +1583,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.5" spans="1:19">
+    <row r="2" customFormat="1" ht="15.5" spans="1:20">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -1640,6 +1640,9 @@
       </c>
       <c r="S2" s="21">
         <v>45619</v>
+      </c>
+      <c r="T2" s="25">
+        <v>45623</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="15.5" spans="1:20">

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -1109,7 +1109,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1181,7 +1181,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1503,8 +1502,8 @@
   <sheetPr/>
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1718,8 +1717,9 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="21"/>
+      <c r="K4" s="9">
+        <v>45627</v>
+      </c>
       <c r="M4" s="21"/>
       <c r="N4" s="21"/>
       <c r="O4" s="21"/>
@@ -1787,7 +1787,9 @@
       <c r="S5" s="9">
         <v>45620</v>
       </c>
-      <c r="T5" s="27"/>
+      <c r="T5" s="9">
+        <v>45627</v>
+      </c>
     </row>
     <row r="6" customFormat="1" ht="15.5" spans="1:20">
       <c r="A6" s="4" t="s">
@@ -1871,7 +1873,9 @@
       <c r="M7" s="21">
         <v>45613</v>
       </c>
-      <c r="N7" s="21"/>
+      <c r="N7" s="21">
+        <v>45627</v>
+      </c>
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
@@ -1937,7 +1941,9 @@
       <c r="S8" s="21">
         <v>45620</v>
       </c>
-      <c r="T8" s="20"/>
+      <c r="T8" s="21">
+        <v>45627</v>
+      </c>
     </row>
     <row r="13" s="20" customFormat="1" ht="15.5"/>
     <row r="14" s="20" customFormat="1" ht="15.5"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -1109,7 +1109,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1174,10 +1174,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1500,10 +1506,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1583,19 +1589,19 @@
       </c>
     </row>
     <row r="2" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -1634,333 +1640,346 @@
       <c r="Q2" s="21">
         <v>45612</v>
       </c>
-      <c r="R2" s="25">
+      <c r="R2" s="26">
         <v>45615</v>
       </c>
       <c r="S2" s="21">
         <v>45619</v>
       </c>
-      <c r="T2" s="25">
+      <c r="T2" s="26">
         <v>45623</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="21">
+        <v>45633</v>
+      </c>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="24"/>
+    </row>
+    <row r="4" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K4" s="12">
         <v>45551</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L4" s="9">
         <v>45557</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M4" s="9">
         <v>45563</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N4" s="9">
         <v>45567</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O4" s="9">
         <v>45578</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P4" s="9">
         <v>45585</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q4" s="9">
         <v>45592</v>
       </c>
-      <c r="R3" s="9">
+      <c r="R4" s="9">
         <v>45599</v>
       </c>
-      <c r="S3" s="9">
+      <c r="S4" s="9">
         <v>45613</v>
       </c>
-      <c r="T3" s="9">
+      <c r="T4" s="9">
         <v>45620</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9">
+    <row r="5" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9">
         <v>45627</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-    </row>
-    <row r="5" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A5" s="5" t="s">
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+    </row>
+    <row r="6" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K6" s="9">
         <v>45557</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L6" s="9">
         <v>45566</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M6" s="9">
         <v>45572</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N6" s="9">
         <v>45585</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O6" s="9">
         <v>45592</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P6" s="9">
         <v>45599</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q6" s="9">
         <v>45606</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R6" s="9">
         <v>45613</v>
       </c>
-      <c r="S5" s="9">
+      <c r="S6" s="9">
         <v>45620</v>
       </c>
-      <c r="T5" s="9">
+      <c r="T6" s="9">
         <v>45627</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A6" s="4" t="s">
+    <row r="7" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K7" s="9">
         <v>45551</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L7" s="9">
         <v>45556</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M7" s="9">
         <v>45563</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N7" s="9">
         <v>45566</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O7" s="9">
         <v>45567</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P7" s="9">
         <v>45572</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q7" s="9">
         <v>45577</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R7" s="9">
         <v>45578</v>
       </c>
-      <c r="S6" s="9">
+      <c r="S7" s="9">
         <v>45585</v>
       </c>
-      <c r="T6" s="9">
+      <c r="T7" s="9">
         <v>45592</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="21">
+    <row r="8" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="21">
         <v>45599</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L8" s="21">
         <v>45606</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M8" s="21">
         <v>45613</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N8" s="21">
         <v>45627</v>
       </c>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-    </row>
-    <row r="8" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A8" s="5" t="s">
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+    </row>
+    <row r="9" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K9" s="12">
         <v>45543</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L9" s="9">
         <v>45566</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M9" s="9">
         <v>45567</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N9" s="9">
         <v>45585</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O9" s="9">
         <v>45592</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P9" s="9">
         <v>45599</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q9" s="9">
         <v>45606</v>
       </c>
-      <c r="R8" s="21">
+      <c r="R9" s="21">
         <v>45613</v>
       </c>
-      <c r="S8" s="21">
+      <c r="S9" s="21">
         <v>45620</v>
       </c>
-      <c r="T8" s="21">
+      <c r="T9" s="21">
         <v>45627</v>
       </c>
     </row>
-    <row r="13" s="20" customFormat="1" ht="15.5"/>
     <row r="14" s="20" customFormat="1" ht="15.5"/>
     <row r="15" s="20" customFormat="1" ht="15.5"/>
     <row r="16" s="20" customFormat="1" ht="15.5"/>
     <row r="17" s="20" customFormat="1" ht="15.5"/>
-    <row r="18" s="20" customFormat="1" ht="15.5" spans="1:9">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-    </row>
+    <row r="18" s="20" customFormat="1" ht="15.5"/>
     <row r="19" s="20" customFormat="1" ht="15.5" spans="1:9">
       <c r="A19" s="23"/>
       <c r="B19" s="23"/>
@@ -1972,24 +1991,21 @@
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
     </row>
-    <row r="20" ht="17.5" spans="2:13">
-      <c r="B20" s="8" t="s">
+    <row r="20" s="20" customFormat="1" ht="15.5" spans="1:9">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+    </row>
+    <row r="21" ht="17.5" spans="2:13">
+      <c r="B21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-    </row>
-    <row r="21" ht="17.5" spans="2:13">
-      <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1997,12 +2013,12 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-    </row>
-    <row r="22" ht="17.5" spans="2:12">
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+    </row>
+    <row r="22" ht="17.5" spans="2:13">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -2011,10 +2027,12 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-    </row>
-    <row r="23" ht="17.5" spans="2:13">
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+    </row>
+    <row r="23" ht="17.5" spans="2:12">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -2023,10 +2041,8 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
     </row>
     <row r="24" ht="17.5" spans="2:13">
       <c r="B24" s="8"/>
@@ -2037,34 +2053,58 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+    </row>
+    <row r="25" ht="17.5" spans="2:13">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="B20:I24"/>
+  <mergeCells count="31">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="B21:I25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -1109,7 +1109,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1174,16 +1174,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1509,7 +1504,7 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1664,15 +1659,17 @@
       <c r="K3" s="21">
         <v>45633</v>
       </c>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
+      <c r="L3" s="21">
+        <v>45641</v>
+      </c>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="24"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
     </row>
     <row r="4" customFormat="1" ht="15.5" spans="1:20">
       <c r="A4" s="4" t="s">
@@ -1750,12 +1747,13 @@
       <c r="K5" s="9">
         <v>45627</v>
       </c>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
       <c r="S5" s="21"/>
       <c r="T5" s="21"/>
     </row>
@@ -1965,10 +1963,10 @@
       <c r="Q9" s="9">
         <v>45606</v>
       </c>
-      <c r="R9" s="21">
+      <c r="R9" s="10">
         <v>45613</v>
       </c>
-      <c r="S9" s="21">
+      <c r="S9" s="10">
         <v>45620</v>
       </c>
       <c r="T9" s="21">

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -152,31 +152,10 @@
     <t>30/90</t>
   </si>
   <si>
-    <t>精锐教育</t>
-  </si>
-  <si>
-    <t>220/2h</t>
-  </si>
-  <si>
-    <t>周日20：00-22：00</t>
-  </si>
-  <si>
-    <t>孙翊原</t>
-  </si>
-  <si>
-    <t>卫生巷88号 6-1-403</t>
-  </si>
-  <si>
-    <t>兵一</t>
-  </si>
-  <si>
-    <t>110/150</t>
-  </si>
-  <si>
     <t>转账时间(灰色表示线上上课（课时费1小时100），绿色表示课时费已发)：豌豆文化每月10号；
 精锐教育是当月15号；星期天培训下个月20号
 郭润宁11月19、27日上了半节课
-下次考试目标：刘桐语：135，李梦媛：50，孙翊原：120,贾梦垚：130，郭润宁：100</t>
+下次考试目标：刘桐语：135，李梦媛：50，贾梦垚：130，郭润宁：100</t>
   </si>
   <si>
     <t>第11课</t>
@@ -197,6 +176,9 @@
     <t>光明路北小区14-2-503</t>
   </si>
   <si>
+    <t>兵一</t>
+  </si>
+  <si>
     <t>90/150</t>
   </si>
   <si>
@@ -437,6 +419,9 @@
     <t>掌学教育</t>
   </si>
   <si>
+    <t>220/2h</t>
+  </si>
+  <si>
     <t>朱思臣</t>
   </si>
   <si>
@@ -444,6 +429,21 @@
   </si>
   <si>
     <t>90/100</t>
+  </si>
+  <si>
+    <t>精锐教育</t>
+  </si>
+  <si>
+    <t>周日20：00-22：00</t>
+  </si>
+  <si>
+    <t>孙翊原</t>
+  </si>
+  <si>
+    <t>卫生巷88号 6-1-403</t>
+  </si>
+  <si>
+    <t>110/150</t>
   </si>
   <si>
     <t xml:space="preserve">绿色表示课时费已发；
@@ -1174,7 +1174,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1501,10 +1503,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1660,7 +1662,7 @@
         <v>45633</v>
       </c>
       <c r="L3" s="21">
-        <v>45641</v>
+        <v>45640</v>
       </c>
       <c r="M3" s="21"/>
       <c r="N3" s="21"/>
@@ -1747,7 +1749,9 @@
       <c r="K5" s="9">
         <v>45627</v>
       </c>
-      <c r="L5" s="24"/>
+      <c r="L5" s="9">
+        <v>45641</v>
+      </c>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
@@ -1758,19 +1762,19 @@
       <c r="T5" s="21"/>
     </row>
     <row r="6" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -1779,7 +1783,7 @@
       <c r="G6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>33</v>
       </c>
       <c r="I6" s="4" t="s">
@@ -1820,175 +1824,129 @@
       </c>
     </row>
     <row r="7" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="21">
+        <v>45641</v>
+      </c>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+    </row>
+    <row r="8" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K8" s="9">
         <v>45551</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L8" s="9">
         <v>45556</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M8" s="9">
         <v>45563</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N8" s="9">
         <v>45566</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O8" s="9">
         <v>45567</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P8" s="9">
         <v>45572</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q8" s="9">
         <v>45577</v>
       </c>
-      <c r="R7" s="9">
+      <c r="R8" s="9">
         <v>45578</v>
       </c>
-      <c r="S7" s="9">
+      <c r="S8" s="9">
         <v>45585</v>
       </c>
-      <c r="T7" s="9">
+      <c r="T8" s="9">
         <v>45592</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="21">
+    <row r="9" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="21">
         <v>45599</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L9" s="21">
         <v>45606</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M9" s="21">
         <v>45613</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N9" s="21">
         <v>45627</v>
       </c>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-    </row>
-    <row r="9" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="12">
-        <v>45543</v>
-      </c>
-      <c r="L9" s="9">
-        <v>45566</v>
-      </c>
-      <c r="M9" s="9">
-        <v>45567</v>
-      </c>
-      <c r="N9" s="9">
-        <v>45585</v>
-      </c>
-      <c r="O9" s="9">
-        <v>45592</v>
-      </c>
-      <c r="P9" s="9">
-        <v>45599</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>45606</v>
-      </c>
-      <c r="R9" s="10">
-        <v>45613</v>
-      </c>
-      <c r="S9" s="10">
-        <v>45620</v>
-      </c>
-      <c r="T9" s="21">
-        <v>45627</v>
-      </c>
-    </row>
-    <row r="14" s="20" customFormat="1" ht="15.5"/>
+      <c r="O9" s="21">
+        <v>45641</v>
+      </c>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+    </row>
+    <row r="10" customFormat="1"/>
     <row r="15" s="20" customFormat="1" ht="15.5"/>
     <row r="16" s="20" customFormat="1" ht="15.5"/>
     <row r="17" s="20" customFormat="1" ht="15.5"/>
     <row r="18" s="20" customFormat="1" ht="15.5"/>
-    <row r="19" s="20" customFormat="1" ht="15.5" spans="1:9">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-    </row>
+    <row r="19" s="20" customFormat="1" ht="15.5"/>
     <row r="20" s="20" customFormat="1" ht="15.5" spans="1:9">
       <c r="A20" s="23"/>
       <c r="B20" s="23"/>
@@ -2000,24 +1958,21 @@
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
     </row>
-    <row r="21" ht="17.5" spans="2:13">
-      <c r="B21" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
+    <row r="21" s="20" customFormat="1" ht="15.5" spans="1:9">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
     </row>
     <row r="22" ht="17.5" spans="2:13">
-      <c r="B22" s="8"/>
+      <c r="B22" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -2030,7 +1985,7 @@
       <c r="L22" s="25"/>
       <c r="M22" s="25"/>
     </row>
-    <row r="23" ht="17.5" spans="2:12">
+    <row r="23" ht="17.5" spans="2:13">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -2039,10 +1994,12 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
+      <c r="J23" s="25"/>
       <c r="K23" s="25"/>
       <c r="L23" s="25"/>
-    </row>
-    <row r="24" ht="17.5" spans="2:13">
+      <c r="M23" s="25"/>
+    </row>
+    <row r="24" ht="17.5" spans="2:12">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -2051,10 +2008,8 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
-      <c r="J24" s="25"/>
       <c r="K24" s="25"/>
       <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
     </row>
     <row r="25" ht="17.5" spans="2:13">
       <c r="B25" s="8"/>
@@ -2070,39 +2025,62 @@
       <c r="L25" s="25"/>
       <c r="M25" s="25"/>
     </row>
+    <row r="26" ht="17.5" spans="2:13">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+    </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="40">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I8:I9"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="B21:I25"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="B22:I26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -2113,10 +2091,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U45"/>
+  <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2196,7 +2174,7 @@
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="15.5" spans="1:21">
@@ -2207,25 +2185,25 @@
         <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="J2" s="9">
         <v>45185</v>
@@ -2266,31 +2244,31 @@
     </row>
     <row r="3" customFormat="1" ht="15.5" spans="1:19">
       <c r="A3" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>22</v>
@@ -2331,25 +2309,25 @@
         <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J4" s="9">
         <v>45287</v>
@@ -2366,25 +2344,25 @@
         <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>22</v>
@@ -2420,31 +2398,31 @@
     </row>
     <row r="6" customFormat="1" ht="15.5" spans="1:20">
       <c r="A6" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>33</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J6" s="9">
         <v>45320</v>
@@ -2488,25 +2466,25 @@
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>33</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>22</v>
@@ -2534,25 +2512,25 @@
         <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H8" s="6">
         <v>126</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J8" s="14">
         <v>45425</v>
@@ -2575,25 +2553,25 @@
         <v>38</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J9" s="9">
         <v>45186</v>
@@ -2745,25 +2723,25 @@
         <v>21</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="J13" s="17" t="s">
         <v>22</v>
@@ -2831,25 +2809,25 @@
         <v>21</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>22</v>
@@ -2887,22 +2865,22 @@
         <v>38</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>44</v>
@@ -2949,25 +2927,25 @@
         <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J17" s="17" t="s">
         <v>22</v>
@@ -3043,22 +3021,22 @@
         <v>21</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>28</v>
@@ -3137,25 +3115,25 @@
         <v>21</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>22</v>
@@ -3273,25 +3251,25 @@
         <v>21</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J24" s="19" t="s">
         <v>22</v>
@@ -3415,25 +3393,25 @@
         <v>38</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="J27" s="12">
         <v>45451</v>
@@ -3459,31 +3437,31 @@
     </row>
     <row r="28" customFormat="1" ht="15.5" spans="1:20">
       <c r="A28" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>22</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="J28" s="12" t="s">
         <v>22</v>
@@ -3509,25 +3487,25 @@
         <v>38</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J29" s="12" t="s">
         <v>22</v>
@@ -3566,22 +3544,22 @@
         <v>22</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="J30" s="12" t="s">
         <v>22</v>
@@ -3599,31 +3577,31 @@
     </row>
     <row r="31" customFormat="1" ht="15.5" spans="1:20">
       <c r="A31" s="5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="J31" s="9">
         <v>45543</v>
@@ -3652,26 +3630,66 @@
       <c r="T31" s="20"/>
     </row>
     <row r="32" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="22"/>
-      <c r="T32" s="22"/>
+      <c r="A32" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" s="12">
+        <v>45543</v>
+      </c>
+      <c r="L32" s="9">
+        <v>45566</v>
+      </c>
+      <c r="M32" s="9">
+        <v>45567</v>
+      </c>
+      <c r="N32" s="9">
+        <v>45585</v>
+      </c>
+      <c r="O32" s="9">
+        <v>45592</v>
+      </c>
+      <c r="P32" s="9">
+        <v>45599</v>
+      </c>
+      <c r="Q32" s="9">
+        <v>45606</v>
+      </c>
+      <c r="R32" s="10">
+        <v>45613</v>
+      </c>
+      <c r="S32" s="10">
+        <v>45620</v>
+      </c>
+      <c r="T32" s="9">
+        <v>45627</v>
+      </c>
     </row>
     <row r="33" customFormat="1" ht="15.5" spans="1:20">
       <c r="A33" s="4"/>
@@ -3805,22 +3823,32 @@
       <c r="S38" s="22"/>
       <c r="T38" s="22"/>
     </row>
-    <row r="39" spans="2:11">
-      <c r="B39" s="8" t="s">
+    <row r="39" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="22"/>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-    </row>
-    <row r="40" spans="2:11">
-      <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -3890,6 +3918,18 @@
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="61">
@@ -3953,7 +3993,7 @@
     <mergeCell ref="J19:J20"/>
     <mergeCell ref="J21:J23"/>
     <mergeCell ref="J24:J26"/>
-    <mergeCell ref="B39:K45"/>
+    <mergeCell ref="B40:K46"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12330"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Doing" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="145">
   <si>
     <t>年级</t>
   </si>
@@ -83,6 +83,27 @@
     <t>数学</t>
   </si>
   <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>270/1.5h</t>
+  </si>
+  <si>
+    <t>周一、二、五21：00-22：30</t>
+  </si>
+  <si>
+    <t>李梦媛</t>
+  </si>
+  <si>
+    <t>南纬一路144号晟和家园 3-2203</t>
+  </si>
+  <si>
+    <t>70中</t>
+  </si>
+  <si>
+    <t>60/150</t>
+  </si>
+  <si>
     <t>/</t>
   </si>
   <si>
@@ -140,21 +161,11 @@
     <t>周日17：00-19：00</t>
   </si>
   <si>
-    <t>李梦媛</t>
-  </si>
-  <si>
-    <t>南纬一路144号晟和家园 3-2203</t>
-  </si>
-  <si>
-    <t>70中</t>
-  </si>
-  <si>
     <t>30/90</t>
   </si>
   <si>
-    <t>转账时间(灰色表示线上上课（课时费1小时100），绿色表示课时费已发)：豌豆文化每月10号；
-精锐教育是当月15号；星期天培训下个月20号
-郭润宁11月19、27日上了半节课
+    <t>转账时间(灰色表示线上上课（课时费1小时100），绿色表示课时费已发)：精锐教育是当月15号；
+星期天培训下个月20号;郭润宁11月19、27日上了半节课
 下次考试目标：刘桐语：135，李梦媛：50，贾梦垚：130，郭润宁：100</t>
   </si>
   <si>
@@ -221,9 +232,6 @@
     <t>80/150</t>
   </si>
   <si>
-    <t>无</t>
-  </si>
-  <si>
     <t>360/1.5h</t>
   </si>
   <si>
@@ -389,9 +397,6 @@
     <t>丽园路轩和苑C区 3-2-102</t>
   </si>
   <si>
-    <t>60/150</t>
-  </si>
-  <si>
     <t>周六17：10-19：10</t>
   </si>
   <si>
@@ -447,7 +452,8 @@
   </si>
   <si>
     <t xml:space="preserve">绿色表示课时费已发；
-转账时间：新耀科技每月20号；一尔优当月1号和15号；博瑞佰艺下月10号；掌学教育是下月15号
+转账时间：新耀科技每月20号；一尔优当月1号和15号；
+博瑞佰艺下月10号；掌学教育是下月15号;豌豆文化每月10号；
 姜异瞳的课被机构坑了，白上一节课，吸取教训，下次提前问清楚是试课还是正式上课
 </t>
   </si>
@@ -457,10 +463,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -964,7 +970,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -973,10 +979,10 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -985,7 +991,7 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1109,7 +1115,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1173,9 +1179,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1503,18 +1506,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="5.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
     <col min="4" max="4" width="7.41666666666667" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="12.375" customWidth="1"/>
     <col min="7" max="7" width="35" customWidth="1"/>
     <col min="8" max="8" width="9.875" customWidth="1"/>
@@ -1523,7 +1526,7 @@
     <col min="11" max="20" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:20">
+    <row r="1" ht="15.75" spans="1:20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1585,7 +1588,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.5" spans="1:20">
+    <row r="2" customFormat="1" ht="15.75" spans="1:20">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -1598,7 +1601,7 @@
       <c r="D2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -1607,358 +1610,388 @@
       <c r="G2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+    </row>
+    <row r="3" customFormat="1" ht="15.75" spans="1:20">
+      <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="9">
         <v>45556</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K3" s="9">
         <v>45566</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L3" s="9">
         <v>45574</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M3" s="9">
         <v>45584</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N3" s="9">
         <v>45591</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O3" s="9">
         <v>45598</v>
       </c>
-      <c r="P2" s="21">
+      <c r="P3" s="21">
         <v>45605</v>
       </c>
-      <c r="Q2" s="21">
+      <c r="Q3" s="21">
         <v>45612</v>
       </c>
-      <c r="R2" s="26">
+      <c r="R3" s="25">
         <v>45615</v>
       </c>
-      <c r="S2" s="21">
+      <c r="S3" s="21">
         <v>45619</v>
       </c>
-      <c r="T2" s="26">
+      <c r="T3" s="25">
         <v>45623</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="21">
+    <row r="4" customFormat="1" ht="15.75" spans="1:20">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="21">
         <v>45633</v>
       </c>
-      <c r="L3" s="21">
+      <c r="L4" s="21">
         <v>45640</v>
       </c>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-    </row>
-    <row r="4" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A4" s="4" t="s">
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+    </row>
+    <row r="5" customFormat="1" ht="15.75" spans="1:20">
+      <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="D5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="12">
+        <v>45551</v>
+      </c>
+      <c r="L5" s="9">
+        <v>45557</v>
+      </c>
+      <c r="M5" s="9">
+        <v>45563</v>
+      </c>
+      <c r="N5" s="9">
+        <v>45567</v>
+      </c>
+      <c r="O5" s="9">
+        <v>45578</v>
+      </c>
+      <c r="P5" s="9">
+        <v>45585</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>45592</v>
+      </c>
+      <c r="R5" s="9">
+        <v>45599</v>
+      </c>
+      <c r="S5" s="9">
+        <v>45613</v>
+      </c>
+      <c r="T5" s="9">
+        <v>45620</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="15.75" spans="1:20">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9">
+        <v>45627</v>
+      </c>
+      <c r="L6" s="9">
+        <v>45641</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+    </row>
+    <row r="7" customFormat="1" ht="15.75" spans="1:20">
+      <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="9">
+        <v>45557</v>
+      </c>
+      <c r="L7" s="9">
+        <v>45566</v>
+      </c>
+      <c r="M7" s="9">
+        <v>45572</v>
+      </c>
+      <c r="N7" s="9">
+        <v>45585</v>
+      </c>
+      <c r="O7" s="9">
+        <v>45592</v>
+      </c>
+      <c r="P7" s="9">
+        <v>45599</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>45606</v>
+      </c>
+      <c r="R7" s="9">
+        <v>45613</v>
+      </c>
+      <c r="S7" s="9">
+        <v>45620</v>
+      </c>
+      <c r="T7" s="9">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" ht="15.75" spans="1:20">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="21">
+        <v>45641</v>
+      </c>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+    </row>
+    <row r="9" customFormat="1" ht="15.75" spans="1:20">
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="12">
+      <c r="E9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="9">
         <v>45551</v>
       </c>
-      <c r="L4" s="9">
-        <v>45557</v>
-      </c>
-      <c r="M4" s="9">
+      <c r="L9" s="9">
+        <v>45556</v>
+      </c>
+      <c r="M9" s="9">
         <v>45563</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N9" s="9">
+        <v>45566</v>
+      </c>
+      <c r="O9" s="9">
         <v>45567</v>
       </c>
-      <c r="O4" s="9">
+      <c r="P9" s="9">
+        <v>45572</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>45577</v>
+      </c>
+      <c r="R9" s="9">
         <v>45578</v>
       </c>
-      <c r="P4" s="9">
+      <c r="S9" s="9">
         <v>45585</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="T9" s="9">
         <v>45592</v>
       </c>
-      <c r="R4" s="9">
+    </row>
+    <row r="10" customFormat="1" ht="15.75" spans="1:20">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="21">
         <v>45599</v>
       </c>
-      <c r="S4" s="9">
+      <c r="L10" s="21">
+        <v>45606</v>
+      </c>
+      <c r="M10" s="21">
         <v>45613</v>
       </c>
-      <c r="T4" s="9">
-        <v>45620</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9">
+      <c r="N10" s="21">
         <v>45627</v>
       </c>
-      <c r="L5" s="9">
+      <c r="O10" s="21">
         <v>45641</v>
       </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-    </row>
-    <row r="6" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="9">
-        <v>45557</v>
-      </c>
-      <c r="L6" s="9">
-        <v>45566</v>
-      </c>
-      <c r="M6" s="9">
-        <v>45572</v>
-      </c>
-      <c r="N6" s="9">
-        <v>45585</v>
-      </c>
-      <c r="O6" s="9">
-        <v>45592</v>
-      </c>
-      <c r="P6" s="9">
-        <v>45599</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>45606</v>
-      </c>
-      <c r="R6" s="9">
-        <v>45613</v>
-      </c>
-      <c r="S6" s="9">
-        <v>45620</v>
-      </c>
-      <c r="T6" s="9">
-        <v>45627</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="21">
-        <v>45641</v>
-      </c>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-    </row>
-    <row r="8" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="9">
-        <v>45551</v>
-      </c>
-      <c r="L8" s="9">
-        <v>45556</v>
-      </c>
-      <c r="M8" s="9">
-        <v>45563</v>
-      </c>
-      <c r="N8" s="9">
-        <v>45566</v>
-      </c>
-      <c r="O8" s="9">
-        <v>45567</v>
-      </c>
-      <c r="P8" s="9">
-        <v>45572</v>
-      </c>
-      <c r="Q8" s="9">
-        <v>45577</v>
-      </c>
-      <c r="R8" s="9">
-        <v>45578</v>
-      </c>
-      <c r="S8" s="9">
-        <v>45585</v>
-      </c>
-      <c r="T8" s="9">
-        <v>45592</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="21">
-        <v>45599</v>
-      </c>
-      <c r="L9" s="21">
-        <v>45606</v>
-      </c>
-      <c r="M9" s="21">
-        <v>45613</v>
-      </c>
-      <c r="N9" s="21">
-        <v>45627</v>
-      </c>
-      <c r="O9" s="21">
-        <v>45641</v>
-      </c>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-    </row>
-    <row r="10" customFormat="1"/>
-    <row r="15" s="20" customFormat="1" ht="15.5"/>
-    <row r="16" s="20" customFormat="1" ht="15.5"/>
-    <row r="17" s="20" customFormat="1" ht="15.5"/>
-    <row r="18" s="20" customFormat="1" ht="15.5"/>
-    <row r="19" s="20" customFormat="1" ht="15.5"/>
-    <row r="20" s="20" customFormat="1" ht="15.5" spans="1:9">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-    </row>
-    <row r="21" s="20" customFormat="1" ht="15.5" spans="1:9">
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+    </row>
+    <row r="16" s="20" customFormat="1" ht="15.75"/>
+    <row r="17" s="20" customFormat="1" ht="15.75"/>
+    <row r="18" s="20" customFormat="1" ht="15.75"/>
+    <row r="19" s="20" customFormat="1" ht="15.75"/>
+    <row r="20" s="20" customFormat="1" ht="15.75"/>
+    <row r="21" s="20" customFormat="1" ht="15.75" spans="1:9">
       <c r="A21" s="23"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -1969,24 +2002,21 @@
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" ht="17.5" spans="2:13">
-      <c r="B22" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-    </row>
-    <row r="23" ht="17.5" spans="2:13">
-      <c r="B23" s="8"/>
+    <row r="22" s="20" customFormat="1" ht="15.75" spans="1:9">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+    </row>
+    <row r="23" ht="18.75" spans="2:13">
+      <c r="B23" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1994,12 +2024,12 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-    </row>
-    <row r="24" ht="17.5" spans="2:12">
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+    </row>
+    <row r="24" ht="18.75" spans="2:13">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -2008,10 +2038,12 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-    </row>
-    <row r="25" ht="17.5" spans="2:13">
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+    </row>
+    <row r="25" ht="18.75" spans="2:12">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -2020,12 +2052,10 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-    </row>
-    <row r="26" ht="17.5" spans="2:13">
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+    </row>
+    <row r="26" ht="18.75" spans="2:13">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -2034,53 +2064,67 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+    </row>
+    <row r="27" ht="18.75" spans="2:13">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="B22:I26"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="B23:I27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -2093,11 +2137,11 @@
   <sheetPr/>
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="4.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
@@ -2112,7 +2156,7 @@
     <col min="22" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:21">
+    <row r="1" ht="15.75" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2174,10 +2218,10 @@
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" customFormat="1" ht="15.5" spans="1:21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="15.75" spans="1:21">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -2185,25 +2229,25 @@
         <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J2" s="9">
         <v>45185</v>
@@ -2242,36 +2286,36 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15.5" spans="1:19">
+    <row r="3" customFormat="1" ht="15.75" spans="1:19">
       <c r="A3" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="K3" s="9">
         <v>45248</v>
@@ -2301,7 +2345,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.5" spans="1:11">
+    <row r="4" customFormat="1" ht="15.75" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -2309,25 +2353,25 @@
         <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J4" s="9">
         <v>45287</v>
@@ -2336,7 +2380,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15.5" spans="1:20">
+    <row r="5" customFormat="1" ht="15.75" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -2344,28 +2388,28 @@
         <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="K5" s="9">
         <v>45255</v>
@@ -2396,33 +2440,33 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" customFormat="1" ht="15.5" spans="1:20">
+    <row r="6" customFormat="1" ht="15.75" spans="1:20">
       <c r="A6" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J6" s="9">
         <v>45320</v>
@@ -2458,7 +2502,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.5" spans="1:20">
+    <row r="7" customFormat="1" ht="15.75" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -2466,28 +2510,28 @@
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="K7" s="12">
         <v>45361</v>
@@ -2512,25 +2556,25 @@
         <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H8" s="6">
         <v>126</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J8" s="14">
         <v>45425</v>
@@ -2545,33 +2589,33 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" customFormat="1" ht="15.5" spans="1:20">
+    <row r="9" customFormat="1" ht="15.75" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J9" s="9">
         <v>45186</v>
@@ -2607,7 +2651,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.5" spans="1:20">
+    <row r="10" customFormat="1" ht="15.75" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2649,7 +2693,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15.5" spans="1:20">
+    <row r="11" customFormat="1" ht="15.75" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2691,7 +2735,7 @@
         <v>45445</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15.5" spans="1:20">
+    <row r="12" customFormat="1" ht="15.75" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2715,7 +2759,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" customFormat="1" ht="15.5" spans="1:20">
+    <row r="13" customFormat="1" ht="15.75" spans="1:20">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -2723,28 +2767,28 @@
         <v>21</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="K13" s="15">
         <v>45382</v>
@@ -2777,7 +2821,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="15.5" spans="1:20">
+    <row r="14" customFormat="1" ht="15.75" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2801,7 +2845,7 @@
       <c r="S14" s="16"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" customFormat="1" ht="15.5" spans="1:20">
+    <row r="15" customFormat="1" ht="15.75" spans="1:20">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -2809,28 +2853,28 @@
         <v>21</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="K15" s="12">
         <v>45413</v>
@@ -2857,36 +2901,36 @@
       <c r="S15" s="16"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" customFormat="1" ht="15.5" spans="1:20">
+    <row r="16" customFormat="1" ht="15.75" spans="1:20">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="K16" s="12">
         <v>45426</v>
@@ -2919,7 +2963,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="15.5" spans="1:20">
+    <row r="17" customFormat="1" ht="15.75" spans="1:20">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -2927,28 +2971,28 @@
         <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="H17" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="K17" s="12">
         <v>45364</v>
@@ -2981,7 +3025,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="15.5" spans="1:20">
+    <row r="18" customFormat="1" ht="15.75" spans="1:20">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -3013,7 +3057,7 @@
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
     </row>
-    <row r="19" customFormat="1" ht="15.5" spans="1:20">
+    <row r="19" customFormat="1" ht="15.75" spans="1:20">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -3021,28 +3065,28 @@
         <v>21</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="K19" s="12">
         <v>45367</v>
@@ -3075,7 +3119,7 @@
         <v>45451</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="15.5" spans="1:20">
+    <row r="20" customFormat="1" ht="15.75" spans="1:20">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3107,7 +3151,7 @@
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
     </row>
-    <row r="21" customFormat="1" ht="15.5" spans="1:20">
+    <row r="21" customFormat="1" ht="15.75" spans="1:20">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -3115,28 +3159,28 @@
         <v>21</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="K21" s="12">
         <v>45234</v>
@@ -3169,7 +3213,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="15.5" spans="1:20">
+    <row r="22" customFormat="1" ht="15.75" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3211,7 +3255,7 @@
         <v>45423</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15.5" spans="1:20">
+    <row r="23" customFormat="1" ht="15.75" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3243,7 +3287,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" customFormat="1" ht="15.5" spans="1:20">
+    <row r="24" customFormat="1" ht="15.75" spans="1:20">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
@@ -3251,28 +3295,28 @@
         <v>21</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="K24" s="12">
         <v>45214</v>
@@ -3305,7 +3349,7 @@
         <v>45325</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="15.5" spans="1:20">
+    <row r="25" customFormat="1" ht="15.75" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3347,7 +3391,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15.5" spans="1:20">
+    <row r="26" s="1" customFormat="1" ht="15.75" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3385,33 +3429,33 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="27" customFormat="1" ht="15.5" spans="1:20">
+    <row r="27" customFormat="1" ht="15.75" spans="1:20">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J27" s="12">
         <v>45451</v>
@@ -3435,36 +3479,36 @@
       <c r="S27" s="16"/>
       <c r="T27" s="16"/>
     </row>
-    <row r="28" customFormat="1" ht="15.5" spans="1:20">
+    <row r="28" customFormat="1" ht="15.75" spans="1:20">
       <c r="A28" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="K28" s="9">
         <v>45551</v>
@@ -3479,36 +3523,36 @@
       <c r="S28" s="21"/>
       <c r="T28" s="21"/>
     </row>
-    <row r="29" customFormat="1" ht="15.5" spans="1:20">
+    <row r="29" customFormat="1" ht="15.75" spans="1:20">
       <c r="A29" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="K29" s="12">
         <v>45430</v>
@@ -3533,36 +3577,36 @@
       <c r="S29" s="16"/>
       <c r="T29" s="16"/>
     </row>
-    <row r="30" customFormat="1" ht="15.5" spans="1:18">
+    <row r="30" customFormat="1" ht="15.75" spans="1:18">
       <c r="A30" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="K30" s="12">
         <v>45552</v>
@@ -3575,33 +3619,33 @@
       <c r="Q30" s="16"/>
       <c r="R30" s="16"/>
     </row>
-    <row r="31" customFormat="1" ht="15.5" spans="1:20">
+    <row r="31" customFormat="1" ht="15.75" spans="1:20">
       <c r="A31" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J31" s="9">
         <v>45543</v>
@@ -3629,7 +3673,7 @@
       <c r="S31" s="20"/>
       <c r="T31" s="20"/>
     </row>
-    <row r="32" customFormat="1" ht="15.5" spans="1:20">
+    <row r="32" customFormat="1" ht="15.75" spans="1:20">
       <c r="A32" s="5" t="s">
         <v>20</v>
       </c>
@@ -3637,28 +3681,28 @@
         <v>21</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="K32" s="12">
         <v>45543</v>
@@ -3691,7 +3735,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="33" customFormat="1" ht="15.5" spans="1:20">
+    <row r="33" customFormat="1" ht="15.75" spans="1:20">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3713,7 +3757,7 @@
       <c r="S33" s="22"/>
       <c r="T33" s="22"/>
     </row>
-    <row r="34" customFormat="1" ht="15.5" spans="1:20">
+    <row r="34" customFormat="1" ht="15.75" spans="1:20">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -3735,7 +3779,7 @@
       <c r="S34" s="22"/>
       <c r="T34" s="22"/>
     </row>
-    <row r="35" customFormat="1" ht="15.5" spans="1:20">
+    <row r="35" customFormat="1" ht="15.75" spans="1:20">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -3757,7 +3801,7 @@
       <c r="S35" s="22"/>
       <c r="T35" s="22"/>
     </row>
-    <row r="36" customFormat="1" ht="15.5" spans="1:20">
+    <row r="36" customFormat="1" ht="15.75" spans="1:20">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -3779,7 +3823,7 @@
       <c r="S36" s="22"/>
       <c r="T36" s="22"/>
     </row>
-    <row r="37" customFormat="1" ht="15.5" spans="1:20">
+    <row r="37" customFormat="1" ht="15.75" spans="1:20">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -3801,7 +3845,7 @@
       <c r="S37" s="22"/>
       <c r="T37" s="22"/>
     </row>
-    <row r="38" customFormat="1" ht="15.5" spans="1:20">
+    <row r="38" customFormat="1" ht="15.75" spans="1:20">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -3823,7 +3867,7 @@
       <c r="S38" s="22"/>
       <c r="T38" s="22"/>
     </row>
-    <row r="39" customFormat="1" ht="15.5" spans="1:20">
+    <row r="39" customFormat="1" ht="15.75" spans="1:20">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -3847,7 +3891,7 @@
     </row>
     <row r="40" spans="2:11">
       <c r="B40" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -463,10 +463,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -649,7 +649,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -665,12 +665,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,31 +964,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1006,52 +1000,52 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1060,16 +1054,19 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1081,41 +1078,38 @@
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1182,9 +1176,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -1509,7 +1500,7 @@
   <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1522,7 +1513,7 @@
     <col min="7" max="7" width="35" customWidth="1"/>
     <col min="8" max="8" width="9.875" customWidth="1"/>
     <col min="9" max="9" width="9.125" customWidth="1"/>
-    <col min="10" max="10" width="8.08333333333333" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
     <col min="11" max="20" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1676,19 +1667,19 @@
       <c r="O3" s="9">
         <v>45598</v>
       </c>
-      <c r="P3" s="21">
+      <c r="P3" s="9">
         <v>45605</v>
       </c>
-      <c r="Q3" s="21">
+      <c r="Q3" s="9">
         <v>45612</v>
       </c>
-      <c r="R3" s="25">
+      <c r="R3" s="9">
         <v>45615</v>
       </c>
-      <c r="S3" s="21">
+      <c r="S3" s="9">
         <v>45619</v>
       </c>
-      <c r="T3" s="25">
+      <c r="T3" s="9">
         <v>45623</v>
       </c>
     </row>
@@ -1703,10 +1694,10 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="21">
+      <c r="K4" s="9">
         <v>45633</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="9">
         <v>45640</v>
       </c>
       <c r="M4" s="21"/>
@@ -1801,8 +1792,8 @@
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
       <c r="S6" s="21"/>
       <c r="T6" s="21"/>
     </row>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="25600" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Doing" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
     <t>数学</t>
   </si>
   <si>
-    <t>无</t>
+    <t>/</t>
   </si>
   <si>
     <t>270/1.5h</t>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>60/150</t>
-  </si>
-  <si>
-    <t>/</t>
   </si>
   <si>
     <t>240/2h</t>
@@ -230,6 +227,9 @@
   </si>
   <si>
     <t>80/150</t>
+  </si>
+  <si>
+    <t>无</t>
   </si>
   <si>
     <t>360/1.5h</t>
@@ -463,10 +463,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -964,7 +964,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -973,10 +973,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -985,7 +985,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1500,10 +1500,10 @@
   <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="5.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
@@ -1517,7 +1517,7 @@
     <col min="11" max="20" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:20">
+    <row r="1" ht="15.5" spans="1:20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.75" spans="1:20">
+    <row r="2" customFormat="1" ht="15.5" spans="1:20">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -1608,9 +1608,11 @@
         <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="K2" s="21">
+        <v>45643</v>
+      </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1621,7 +1623,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" customFormat="1" ht="15.75" spans="1:20">
+    <row r="3" customFormat="1" ht="15.5" spans="1:20">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
@@ -1629,25 +1631,25 @@
         <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="J3" s="9">
         <v>45556</v>
@@ -1683,7 +1685,7 @@
         <v>45623</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.75" spans="1:20">
+    <row r="4" customFormat="1" ht="15.5" spans="1:20">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1709,7 +1711,7 @@
       <c r="S4" s="21"/>
       <c r="T4" s="21"/>
     </row>
-    <row r="5" customFormat="1" ht="15.75" spans="1:20">
+    <row r="5" customFormat="1" ht="15.5" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -1717,28 +1719,28 @@
         <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="J5" s="9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K5" s="12">
         <v>45551</v>
@@ -1771,7 +1773,7 @@
         <v>45620</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="15.75" spans="1:20">
+    <row r="6" customFormat="1" ht="15.5" spans="1:20">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1797,7 +1799,7 @@
       <c r="S6" s="21"/>
       <c r="T6" s="21"/>
     </row>
-    <row r="7" customFormat="1" ht="15.75" spans="1:20">
+    <row r="7" customFormat="1" ht="15.5" spans="1:20">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
@@ -1805,28 +1807,28 @@
         <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="H7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="J7" s="12" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K7" s="9">
         <v>45557</v>
@@ -1859,7 +1861,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="15.75" spans="1:20">
+    <row r="8" customFormat="1" ht="15.5" spans="1:20">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1883,21 +1885,21 @@
       <c r="S8" s="21"/>
       <c r="T8" s="21"/>
     </row>
-    <row r="9" customFormat="1" ht="15.75" spans="1:20">
+    <row r="9" customFormat="1" ht="15.5" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>25</v>
@@ -1909,10 +1911,10 @@
         <v>27</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K9" s="9">
         <v>45551</v>
@@ -1945,7 +1947,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.75" spans="1:20">
+    <row r="10" customFormat="1" ht="15.5" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1977,12 +1979,12 @@
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
     </row>
-    <row r="16" s="20" customFormat="1" ht="15.75"/>
-    <row r="17" s="20" customFormat="1" ht="15.75"/>
-    <row r="18" s="20" customFormat="1" ht="15.75"/>
-    <row r="19" s="20" customFormat="1" ht="15.75"/>
-    <row r="20" s="20" customFormat="1" ht="15.75"/>
-    <row r="21" s="20" customFormat="1" ht="15.75" spans="1:9">
+    <row r="16" s="20" customFormat="1" ht="15.5"/>
+    <row r="17" s="20" customFormat="1" ht="15.5"/>
+    <row r="18" s="20" customFormat="1" ht="15.5"/>
+    <row r="19" s="20" customFormat="1" ht="15.5"/>
+    <row r="20" s="20" customFormat="1" ht="15.5"/>
+    <row r="21" s="20" customFormat="1" ht="15.5" spans="1:9">
       <c r="A21" s="23"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -1993,7 +1995,7 @@
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" s="20" customFormat="1" ht="15.75" spans="1:9">
+    <row r="22" s="20" customFormat="1" ht="15.5" spans="1:9">
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -2004,9 +2006,9 @@
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" ht="18.75" spans="2:13">
+    <row r="23" ht="17.5" spans="2:13">
       <c r="B23" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -2020,7 +2022,7 @@
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
     </row>
-    <row r="24" ht="18.75" spans="2:13">
+    <row r="24" ht="17.5" spans="2:13">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -2034,7 +2036,7 @@
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
     </row>
-    <row r="25" ht="18.75" spans="2:12">
+    <row r="25" ht="17.5" spans="2:12">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -2046,7 +2048,7 @@
       <c r="K25" s="24"/>
       <c r="L25" s="24"/>
     </row>
-    <row r="26" ht="18.75" spans="2:13">
+    <row r="26" ht="17.5" spans="2:13">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -2060,7 +2062,7 @@
       <c r="L26" s="24"/>
       <c r="M26" s="24"/>
     </row>
-    <row r="27" ht="18.75" spans="2:13">
+    <row r="27" ht="17.5" spans="2:13">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -2132,7 +2134,7 @@
       <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="4.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
@@ -2147,7 +2149,7 @@
     <col min="22" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:21">
+    <row r="1" ht="15.5" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2209,10 +2211,10 @@
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" customFormat="1" ht="15.75" spans="1:21">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="15.5" spans="1:21">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -2220,25 +2222,25 @@
         <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="J2" s="9">
         <v>45185</v>
@@ -2277,36 +2279,36 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15.75" spans="1:19">
+    <row r="3" customFormat="1" ht="15.5" spans="1:19">
       <c r="A3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="J3" s="9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K3" s="9">
         <v>45248</v>
@@ -2336,7 +2338,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.75" spans="1:11">
+    <row r="4" customFormat="1" ht="15.5" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -2344,25 +2346,25 @@
         <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="J4" s="9">
         <v>45287</v>
@@ -2371,7 +2373,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15.75" spans="1:20">
+    <row r="5" customFormat="1" ht="15.5" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -2379,28 +2381,28 @@
         <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="J5" s="9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K5" s="9">
         <v>45255</v>
@@ -2431,9 +2433,9 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" customFormat="1" ht="15.75" spans="1:20">
+    <row r="6" customFormat="1" ht="15.5" spans="1:20">
       <c r="A6" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>21</v>
@@ -2442,7 +2444,7 @@
         <v>72</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>73</v>
@@ -2454,7 +2456,7 @@
         <v>75</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>76</v>
@@ -2493,7 +2495,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.75" spans="1:20">
+    <row r="7" customFormat="1" ht="15.5" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -2504,7 +2506,7 @@
         <v>77</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>78</v>
@@ -2516,13 +2518,13 @@
         <v>80</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K7" s="12">
         <v>45361</v>
@@ -2550,7 +2552,7 @@
         <v>72</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>82</v>
@@ -2580,12 +2582,12 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" customFormat="1" ht="15.75" spans="1:20">
+    <row r="9" customFormat="1" ht="15.5" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>77</v>
@@ -2603,7 +2605,7 @@
         <v>89</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>90</v>
@@ -2642,7 +2644,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.75" spans="1:20">
+    <row r="10" customFormat="1" ht="15.5" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2684,7 +2686,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15.75" spans="1:20">
+    <row r="11" customFormat="1" ht="15.5" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2726,7 +2728,7 @@
         <v>45445</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15.75" spans="1:20">
+    <row r="12" customFormat="1" ht="15.5" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2750,7 +2752,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" customFormat="1" ht="15.75" spans="1:20">
+    <row r="13" customFormat="1" ht="15.5" spans="1:20">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -2761,7 +2763,7 @@
         <v>77</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>91</v>
@@ -2776,10 +2778,10 @@
         <v>94</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K13" s="15">
         <v>45382</v>
@@ -2812,7 +2814,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="15.75" spans="1:20">
+    <row r="14" customFormat="1" ht="15.5" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2836,7 +2838,7 @@
       <c r="S14" s="16"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" customFormat="1" ht="15.75" spans="1:20">
+    <row r="15" customFormat="1" ht="15.5" spans="1:20">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -2847,7 +2849,7 @@
         <v>77</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>78</v>
@@ -2859,13 +2861,13 @@
         <v>96</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>97</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K15" s="12">
         <v>45413</v>
@@ -2892,18 +2894,18 @@
       <c r="S15" s="16"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" customFormat="1" ht="15.75" spans="1:20">
+    <row r="16" customFormat="1" ht="15.5" spans="1:20">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>98</v>
@@ -2918,10 +2920,10 @@
         <v>101</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K16" s="12">
         <v>45426</v>
@@ -2954,7 +2956,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="15.75" spans="1:20">
+    <row r="17" customFormat="1" ht="15.5" spans="1:20">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -2962,10 +2964,10 @@
         <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>102</v>
@@ -2983,7 +2985,7 @@
         <v>105</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K17" s="12">
         <v>45364</v>
@@ -3016,7 +3018,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="15.75" spans="1:20">
+    <row r="18" customFormat="1" ht="15.5" spans="1:20">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -3048,7 +3050,7 @@
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
     </row>
-    <row r="19" customFormat="1" ht="15.75" spans="1:20">
+    <row r="19" customFormat="1" ht="15.5" spans="1:20">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -3056,10 +3058,10 @@
         <v>21</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>106</v>
@@ -3074,10 +3076,10 @@
         <v>108</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K19" s="12">
         <v>45367</v>
@@ -3110,7 +3112,7 @@
         <v>45451</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="15.75" spans="1:20">
+    <row r="20" customFormat="1" ht="15.5" spans="1:20">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3142,7 +3144,7 @@
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
     </row>
-    <row r="21" customFormat="1" ht="15.75" spans="1:20">
+    <row r="21" customFormat="1" ht="15.5" spans="1:20">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -3150,10 +3152,10 @@
         <v>21</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>109</v>
@@ -3171,7 +3173,7 @@
         <v>113</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K21" s="12">
         <v>45234</v>
@@ -3204,7 +3206,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="15.75" spans="1:20">
+    <row r="22" customFormat="1" ht="15.5" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3246,7 +3248,7 @@
         <v>45423</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15.75" spans="1:20">
+    <row r="23" customFormat="1" ht="15.5" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3278,7 +3280,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" customFormat="1" ht="15.75" spans="1:20">
+    <row r="24" customFormat="1" ht="15.5" spans="1:20">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
@@ -3289,7 +3291,7 @@
         <v>72</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>114</v>
@@ -3307,7 +3309,7 @@
         <v>97</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K24" s="12">
         <v>45214</v>
@@ -3340,7 +3342,7 @@
         <v>45325</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="15.75" spans="1:20">
+    <row r="25" customFormat="1" ht="15.5" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3382,7 +3384,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15.75" spans="1:20">
+    <row r="26" s="1" customFormat="1" ht="15.5" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3420,18 +3422,18 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="27" customFormat="1" ht="15.75" spans="1:20">
+    <row r="27" customFormat="1" ht="15.5" spans="1:20">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>117</v>
@@ -3470,7 +3472,7 @@
       <c r="S27" s="16"/>
       <c r="T27" s="16"/>
     </row>
-    <row r="28" customFormat="1" ht="15.75" spans="1:20">
+    <row r="28" customFormat="1" ht="15.5" spans="1:20">
       <c r="A28" s="5" t="s">
         <v>121</v>
       </c>
@@ -3493,13 +3495,13 @@
         <v>125</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>28</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K28" s="9">
         <v>45551</v>
@@ -3514,18 +3516,18 @@
       <c r="S28" s="21"/>
       <c r="T28" s="21"/>
     </row>
-    <row r="29" customFormat="1" ht="15.75" spans="1:20">
+    <row r="29" customFormat="1" ht="15.5" spans="1:20">
       <c r="A29" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>126</v>
@@ -3537,13 +3539,13 @@
         <v>100</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>76</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K29" s="12">
         <v>45430</v>
@@ -3568,15 +3570,15 @@
       <c r="S29" s="16"/>
       <c r="T29" s="16"/>
     </row>
-    <row r="30" customFormat="1" ht="15.75" spans="1:18">
+    <row r="30" customFormat="1" ht="15.5" spans="1:18">
       <c r="A30" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>128</v>
@@ -3597,7 +3599,7 @@
         <v>132</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K30" s="12">
         <v>45552</v>
@@ -3610,7 +3612,7 @@
       <c r="Q30" s="16"/>
       <c r="R30" s="16"/>
     </row>
-    <row r="31" customFormat="1" ht="15.75" spans="1:20">
+    <row r="31" customFormat="1" ht="15.5" spans="1:20">
       <c r="A31" s="5" t="s">
         <v>133</v>
       </c>
@@ -3633,7 +3635,7 @@
         <v>137</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>138</v>
@@ -3664,7 +3666,7 @@
       <c r="S31" s="20"/>
       <c r="T31" s="20"/>
     </row>
-    <row r="32" customFormat="1" ht="15.75" spans="1:20">
+    <row r="32" customFormat="1" ht="15.5" spans="1:20">
       <c r="A32" s="5" t="s">
         <v>20</v>
       </c>
@@ -3687,13 +3689,13 @@
         <v>142</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>143</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K32" s="12">
         <v>45543</v>
@@ -3726,7 +3728,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="33" customFormat="1" ht="15.75" spans="1:20">
+    <row r="33" customFormat="1" ht="15.5" spans="1:20">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3748,7 +3750,7 @@
       <c r="S33" s="22"/>
       <c r="T33" s="22"/>
     </row>
-    <row r="34" customFormat="1" ht="15.75" spans="1:20">
+    <row r="34" customFormat="1" ht="15.5" spans="1:20">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -3770,7 +3772,7 @@
       <c r="S34" s="22"/>
       <c r="T34" s="22"/>
     </row>
-    <row r="35" customFormat="1" ht="15.75" spans="1:20">
+    <row r="35" customFormat="1" ht="15.5" spans="1:20">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -3792,7 +3794,7 @@
       <c r="S35" s="22"/>
       <c r="T35" s="22"/>
     </row>
-    <row r="36" customFormat="1" ht="15.75" spans="1:20">
+    <row r="36" customFormat="1" ht="15.5" spans="1:20">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -3814,7 +3816,7 @@
       <c r="S36" s="22"/>
       <c r="T36" s="22"/>
     </row>
-    <row r="37" customFormat="1" ht="15.75" spans="1:20">
+    <row r="37" customFormat="1" ht="15.5" spans="1:20">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -3836,7 +3838,7 @@
       <c r="S37" s="22"/>
       <c r="T37" s="22"/>
     </row>
-    <row r="38" customFormat="1" ht="15.75" spans="1:20">
+    <row r="38" customFormat="1" ht="15.5" spans="1:20">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -3858,7 +3860,7 @@
       <c r="S38" s="22"/>
       <c r="T38" s="22"/>
     </row>
-    <row r="39" customFormat="1" ht="15.75" spans="1:20">
+    <row r="39" customFormat="1" ht="15.5" spans="1:20">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -1500,7 +1500,7 @@
   <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1702,7 +1702,9 @@
       <c r="L4" s="9">
         <v>45640</v>
       </c>
-      <c r="M4" s="21"/>
+      <c r="M4" s="21">
+        <v>45647</v>
+      </c>
       <c r="N4" s="21"/>
       <c r="O4" s="21"/>
       <c r="P4" s="21"/>
@@ -1790,7 +1792,9 @@
       <c r="L6" s="9">
         <v>45641</v>
       </c>
-      <c r="M6" s="9"/>
+      <c r="M6" s="9">
+        <v>45648</v>
+      </c>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
@@ -1875,7 +1879,9 @@
       <c r="K8" s="21">
         <v>45641</v>
       </c>
-      <c r="L8" s="21"/>
+      <c r="L8" s="21">
+        <v>45648</v>
+      </c>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="21"/>
@@ -1973,7 +1979,9 @@
       <c r="O10" s="21">
         <v>45641</v>
       </c>
-      <c r="P10" s="21"/>
+      <c r="P10" s="21">
+        <v>45648</v>
+      </c>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
       <c r="S10" s="20"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12330"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Doing" sheetId="1" r:id="rId1"/>
@@ -463,10 +463,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -964,7 +964,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -973,10 +973,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -985,7 +985,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1500,10 +1500,10 @@
   <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="5.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
@@ -1517,7 +1517,7 @@
     <col min="11" max="20" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:20">
+    <row r="1" ht="15.75" spans="1:20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.5" spans="1:20">
+    <row r="2" customFormat="1" ht="15.75" spans="1:20">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -1623,7 +1623,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" customFormat="1" ht="15.5" spans="1:20">
+    <row r="3" customFormat="1" ht="15.75" spans="1:20">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>45623</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.5" spans="1:20">
+    <row r="4" customFormat="1" ht="15.75" spans="1:20">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1713,7 +1713,7 @@
       <c r="S4" s="21"/>
       <c r="T4" s="21"/>
     </row>
-    <row r="5" customFormat="1" ht="15.5" spans="1:20">
+    <row r="5" customFormat="1" ht="15.75" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>45620</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="15.5" spans="1:20">
+    <row r="6" customFormat="1" ht="15.75" spans="1:20">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1803,7 +1803,7 @@
       <c r="S6" s="21"/>
       <c r="T6" s="21"/>
     </row>
-    <row r="7" customFormat="1" ht="15.5" spans="1:20">
+    <row r="7" customFormat="1" ht="15.75" spans="1:20">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="15.5" spans="1:20">
+    <row r="8" customFormat="1" ht="15.75" spans="1:20">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1891,7 +1891,7 @@
       <c r="S8" s="21"/>
       <c r="T8" s="21"/>
     </row>
-    <row r="9" customFormat="1" ht="15.5" spans="1:20">
+    <row r="9" customFormat="1" ht="15.75" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.5" spans="1:20">
+    <row r="10" customFormat="1" ht="15.75" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1964,13 +1964,13 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="21">
+      <c r="K10" s="9">
         <v>45599</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L10" s="9">
         <v>45606</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M10" s="9">
         <v>45613</v>
       </c>
       <c r="N10" s="21">
@@ -1987,12 +1987,12 @@
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
     </row>
-    <row r="16" s="20" customFormat="1" ht="15.5"/>
-    <row r="17" s="20" customFormat="1" ht="15.5"/>
-    <row r="18" s="20" customFormat="1" ht="15.5"/>
-    <row r="19" s="20" customFormat="1" ht="15.5"/>
-    <row r="20" s="20" customFormat="1" ht="15.5"/>
-    <row r="21" s="20" customFormat="1" ht="15.5" spans="1:9">
+    <row r="16" s="20" customFormat="1" ht="15.75"/>
+    <row r="17" s="20" customFormat="1" ht="15.75"/>
+    <row r="18" s="20" customFormat="1" ht="15.75"/>
+    <row r="19" s="20" customFormat="1" ht="15.75"/>
+    <row r="20" s="20" customFormat="1" ht="15.75"/>
+    <row r="21" s="20" customFormat="1" ht="15.75" spans="1:9">
       <c r="A21" s="23"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -2003,7 +2003,7 @@
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" s="20" customFormat="1" ht="15.5" spans="1:9">
+    <row r="22" s="20" customFormat="1" ht="15.75" spans="1:9">
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -2014,7 +2014,7 @@
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" ht="17.5" spans="2:13">
+    <row r="23" ht="18.75" spans="2:13">
       <c r="B23" s="8" t="s">
         <v>48</v>
       </c>
@@ -2030,7 +2030,7 @@
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
     </row>
-    <row r="24" ht="17.5" spans="2:13">
+    <row r="24" ht="18.75" spans="2:13">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -2044,7 +2044,7 @@
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
     </row>
-    <row r="25" ht="17.5" spans="2:12">
+    <row r="25" ht="18.75" spans="2:12">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -2056,7 +2056,7 @@
       <c r="K25" s="24"/>
       <c r="L25" s="24"/>
     </row>
-    <row r="26" ht="17.5" spans="2:13">
+    <row r="26" ht="18.75" spans="2:13">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -2070,7 +2070,7 @@
       <c r="L26" s="24"/>
       <c r="M26" s="24"/>
     </row>
-    <row r="27" ht="17.5" spans="2:13">
+    <row r="27" ht="18.75" spans="2:13">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -2142,7 +2142,7 @@
       <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="4.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
@@ -2157,7 +2157,7 @@
     <col min="22" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:21">
+    <row r="1" ht="15.75" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.5" spans="1:21">
+    <row r="2" customFormat="1" ht="15.75" spans="1:21">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15.5" spans="1:19">
+    <row r="3" customFormat="1" ht="15.75" spans="1:19">
       <c r="A3" s="4" t="s">
         <v>57</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.5" spans="1:11">
+    <row r="4" customFormat="1" ht="15.75" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15.5" spans="1:20">
+    <row r="5" customFormat="1" ht="15.75" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" customFormat="1" ht="15.5" spans="1:20">
+    <row r="6" customFormat="1" ht="15.75" spans="1:20">
       <c r="A6" s="4" t="s">
         <v>57</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.5" spans="1:20">
+    <row r="7" customFormat="1" ht="15.75" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -2590,7 +2590,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" customFormat="1" ht="15.5" spans="1:20">
+    <row r="9" customFormat="1" ht="15.75" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.5" spans="1:20">
+    <row r="10" customFormat="1" ht="15.75" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2694,7 +2694,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15.5" spans="1:20">
+    <row r="11" customFormat="1" ht="15.75" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2736,7 +2736,7 @@
         <v>45445</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15.5" spans="1:20">
+    <row r="12" customFormat="1" ht="15.75" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2760,7 +2760,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" customFormat="1" ht="15.5" spans="1:20">
+    <row r="13" customFormat="1" ht="15.75" spans="1:20">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="15.5" spans="1:20">
+    <row r="14" customFormat="1" ht="15.75" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2846,7 +2846,7 @@
       <c r="S14" s="16"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" customFormat="1" ht="15.5" spans="1:20">
+    <row r="15" customFormat="1" ht="15.75" spans="1:20">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -2902,7 +2902,7 @@
       <c r="S15" s="16"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" customFormat="1" ht="15.5" spans="1:20">
+    <row r="16" customFormat="1" ht="15.75" spans="1:20">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="15.5" spans="1:20">
+    <row r="17" customFormat="1" ht="15.75" spans="1:20">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="15.5" spans="1:20">
+    <row r="18" customFormat="1" ht="15.75" spans="1:20">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -3058,7 +3058,7 @@
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
     </row>
-    <row r="19" customFormat="1" ht="15.5" spans="1:20">
+    <row r="19" customFormat="1" ht="15.75" spans="1:20">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>45451</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="15.5" spans="1:20">
+    <row r="20" customFormat="1" ht="15.75" spans="1:20">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3152,7 +3152,7 @@
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
     </row>
-    <row r="21" customFormat="1" ht="15.5" spans="1:20">
+    <row r="21" customFormat="1" ht="15.75" spans="1:20">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="15.5" spans="1:20">
+    <row r="22" customFormat="1" ht="15.75" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3256,7 +3256,7 @@
         <v>45423</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15.5" spans="1:20">
+    <row r="23" customFormat="1" ht="15.75" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3288,7 +3288,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" customFormat="1" ht="15.5" spans="1:20">
+    <row r="24" customFormat="1" ht="15.75" spans="1:20">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>45325</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="15.5" spans="1:20">
+    <row r="25" customFormat="1" ht="15.75" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3392,7 +3392,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15.5" spans="1:20">
+    <row r="26" s="1" customFormat="1" ht="15.75" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3430,7 +3430,7 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="27" customFormat="1" ht="15.5" spans="1:20">
+    <row r="27" customFormat="1" ht="15.75" spans="1:20">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -3480,7 +3480,7 @@
       <c r="S27" s="16"/>
       <c r="T27" s="16"/>
     </row>
-    <row r="28" customFormat="1" ht="15.5" spans="1:20">
+    <row r="28" customFormat="1" ht="15.75" spans="1:20">
       <c r="A28" s="5" t="s">
         <v>121</v>
       </c>
@@ -3524,7 +3524,7 @@
       <c r="S28" s="21"/>
       <c r="T28" s="21"/>
     </row>
-    <row r="29" customFormat="1" ht="15.5" spans="1:20">
+    <row r="29" customFormat="1" ht="15.75" spans="1:20">
       <c r="A29" s="5" t="s">
         <v>20</v>
       </c>
@@ -3578,7 +3578,7 @@
       <c r="S29" s="16"/>
       <c r="T29" s="16"/>
     </row>
-    <row r="30" customFormat="1" ht="15.5" spans="1:18">
+    <row r="30" customFormat="1" ht="15.75" spans="1:18">
       <c r="A30" s="5" t="s">
         <v>20</v>
       </c>
@@ -3620,7 +3620,7 @@
       <c r="Q30" s="16"/>
       <c r="R30" s="16"/>
     </row>
-    <row r="31" customFormat="1" ht="15.5" spans="1:20">
+    <row r="31" customFormat="1" ht="15.75" spans="1:20">
       <c r="A31" s="5" t="s">
         <v>133</v>
       </c>
@@ -3674,7 +3674,7 @@
       <c r="S31" s="20"/>
       <c r="T31" s="20"/>
     </row>
-    <row r="32" customFormat="1" ht="15.5" spans="1:20">
+    <row r="32" customFormat="1" ht="15.75" spans="1:20">
       <c r="A32" s="5" t="s">
         <v>20</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="33" customFormat="1" ht="15.5" spans="1:20">
+    <row r="33" customFormat="1" ht="15.75" spans="1:20">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3758,7 +3758,7 @@
       <c r="S33" s="22"/>
       <c r="T33" s="22"/>
     </row>
-    <row r="34" customFormat="1" ht="15.5" spans="1:20">
+    <row r="34" customFormat="1" ht="15.75" spans="1:20">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -3780,7 +3780,7 @@
       <c r="S34" s="22"/>
       <c r="T34" s="22"/>
     </row>
-    <row r="35" customFormat="1" ht="15.5" spans="1:20">
+    <row r="35" customFormat="1" ht="15.75" spans="1:20">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -3802,7 +3802,7 @@
       <c r="S35" s="22"/>
       <c r="T35" s="22"/>
     </row>
-    <row r="36" customFormat="1" ht="15.5" spans="1:20">
+    <row r="36" customFormat="1" ht="15.75" spans="1:20">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -3824,7 +3824,7 @@
       <c r="S36" s="22"/>
       <c r="T36" s="22"/>
     </row>
-    <row r="37" customFormat="1" ht="15.5" spans="1:20">
+    <row r="37" customFormat="1" ht="15.75" spans="1:20">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -3846,7 +3846,7 @@
       <c r="S37" s="22"/>
       <c r="T37" s="22"/>
     </row>
-    <row r="38" customFormat="1" ht="15.5" spans="1:20">
+    <row r="38" customFormat="1" ht="15.75" spans="1:20">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -3868,7 +3868,7 @@
       <c r="S38" s="22"/>
       <c r="T38" s="22"/>
     </row>
-    <row r="39" customFormat="1" ht="15.5" spans="1:20">
+    <row r="39" customFormat="1" ht="15.75" spans="1:20">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="25600" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Doing" sheetId="1" r:id="rId1"/>
@@ -463,10 +463,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -964,7 +964,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -973,10 +973,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -985,7 +985,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1500,10 +1500,10 @@
   <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="5.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
@@ -1517,7 +1517,7 @@
     <col min="11" max="20" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:20">
+    <row r="1" ht="15.5" spans="1:20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.75" spans="1:20">
+    <row r="2" customFormat="1" ht="15.5" spans="1:20">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -1613,8 +1613,12 @@
       <c r="K2" s="21">
         <v>45643</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="L2" s="21">
+        <v>45649</v>
+      </c>
+      <c r="M2" s="21">
+        <v>45650</v>
+      </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -1623,7 +1627,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" customFormat="1" ht="15.75" spans="1:20">
+    <row r="3" customFormat="1" ht="15.5" spans="1:20">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
@@ -1685,7 +1689,7 @@
         <v>45623</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.75" spans="1:20">
+    <row r="4" customFormat="1" ht="15.5" spans="1:20">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1713,7 +1717,7 @@
       <c r="S4" s="21"/>
       <c r="T4" s="21"/>
     </row>
-    <row r="5" customFormat="1" ht="15.75" spans="1:20">
+    <row r="5" customFormat="1" ht="15.5" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -1775,7 +1779,7 @@
         <v>45620</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="15.75" spans="1:20">
+    <row r="6" customFormat="1" ht="15.5" spans="1:20">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1803,7 +1807,7 @@
       <c r="S6" s="21"/>
       <c r="T6" s="21"/>
     </row>
-    <row r="7" customFormat="1" ht="15.75" spans="1:20">
+    <row r="7" customFormat="1" ht="15.5" spans="1:20">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
@@ -1865,7 +1869,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="15.75" spans="1:20">
+    <row r="8" customFormat="1" ht="15.5" spans="1:20">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1891,7 +1895,7 @@
       <c r="S8" s="21"/>
       <c r="T8" s="21"/>
     </row>
-    <row r="9" customFormat="1" ht="15.75" spans="1:20">
+    <row r="9" customFormat="1" ht="15.5" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1953,7 +1957,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.75" spans="1:20">
+    <row r="10" customFormat="1" ht="15.5" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1987,12 +1991,12 @@
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
     </row>
-    <row r="16" s="20" customFormat="1" ht="15.75"/>
-    <row r="17" s="20" customFormat="1" ht="15.75"/>
-    <row r="18" s="20" customFormat="1" ht="15.75"/>
-    <row r="19" s="20" customFormat="1" ht="15.75"/>
-    <row r="20" s="20" customFormat="1" ht="15.75"/>
-    <row r="21" s="20" customFormat="1" ht="15.75" spans="1:9">
+    <row r="16" s="20" customFormat="1" ht="15.5"/>
+    <row r="17" s="20" customFormat="1" ht="15.5"/>
+    <row r="18" s="20" customFormat="1" ht="15.5"/>
+    <row r="19" s="20" customFormat="1" ht="15.5"/>
+    <row r="20" s="20" customFormat="1" ht="15.5"/>
+    <row r="21" s="20" customFormat="1" ht="15.5" spans="1:9">
       <c r="A21" s="23"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -2003,7 +2007,7 @@
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" s="20" customFormat="1" ht="15.75" spans="1:9">
+    <row r="22" s="20" customFormat="1" ht="15.5" spans="1:9">
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -2014,7 +2018,7 @@
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" ht="18.75" spans="2:13">
+    <row r="23" ht="17.5" spans="2:13">
       <c r="B23" s="8" t="s">
         <v>48</v>
       </c>
@@ -2030,7 +2034,7 @@
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
     </row>
-    <row r="24" ht="18.75" spans="2:13">
+    <row r="24" ht="17.5" spans="2:13">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -2044,7 +2048,7 @@
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
     </row>
-    <row r="25" ht="18.75" spans="2:12">
+    <row r="25" ht="17.5" spans="2:12">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -2056,7 +2060,7 @@
       <c r="K25" s="24"/>
       <c r="L25" s="24"/>
     </row>
-    <row r="26" ht="18.75" spans="2:13">
+    <row r="26" ht="17.5" spans="2:13">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -2070,7 +2074,7 @@
       <c r="L26" s="24"/>
       <c r="M26" s="24"/>
     </row>
-    <row r="27" ht="18.75" spans="2:13">
+    <row r="27" ht="17.5" spans="2:13">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -2142,7 +2146,7 @@
       <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="4.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
@@ -2157,7 +2161,7 @@
     <col min="22" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:21">
+    <row r="1" ht="15.5" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2222,7 +2226,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.75" spans="1:21">
+    <row r="2" customFormat="1" ht="15.5" spans="1:21">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -2287,7 +2291,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15.75" spans="1:19">
+    <row r="3" customFormat="1" ht="15.5" spans="1:19">
       <c r="A3" s="4" t="s">
         <v>57</v>
       </c>
@@ -2346,7 +2350,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.75" spans="1:11">
+    <row r="4" customFormat="1" ht="15.5" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -2381,7 +2385,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15.75" spans="1:20">
+    <row r="5" customFormat="1" ht="15.5" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -2441,7 +2445,7 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" customFormat="1" ht="15.75" spans="1:20">
+    <row r="6" customFormat="1" ht="15.5" spans="1:20">
       <c r="A6" s="4" t="s">
         <v>57</v>
       </c>
@@ -2503,7 +2507,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.75" spans="1:20">
+    <row r="7" customFormat="1" ht="15.5" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -2590,7 +2594,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" customFormat="1" ht="15.75" spans="1:20">
+    <row r="9" customFormat="1" ht="15.5" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -2652,7 +2656,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.75" spans="1:20">
+    <row r="10" customFormat="1" ht="15.5" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2694,7 +2698,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15.75" spans="1:20">
+    <row r="11" customFormat="1" ht="15.5" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2736,7 +2740,7 @@
         <v>45445</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15.75" spans="1:20">
+    <row r="12" customFormat="1" ht="15.5" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2760,7 +2764,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" customFormat="1" ht="15.75" spans="1:20">
+    <row r="13" customFormat="1" ht="15.5" spans="1:20">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -2822,7 +2826,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="15.75" spans="1:20">
+    <row r="14" customFormat="1" ht="15.5" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2846,7 +2850,7 @@
       <c r="S14" s="16"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" customFormat="1" ht="15.75" spans="1:20">
+    <row r="15" customFormat="1" ht="15.5" spans="1:20">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -2902,7 +2906,7 @@
       <c r="S15" s="16"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" customFormat="1" ht="15.75" spans="1:20">
+    <row r="16" customFormat="1" ht="15.5" spans="1:20">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -2964,7 +2968,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="15.75" spans="1:20">
+    <row r="17" customFormat="1" ht="15.5" spans="1:20">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -3026,7 +3030,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="15.75" spans="1:20">
+    <row r="18" customFormat="1" ht="15.5" spans="1:20">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -3058,7 +3062,7 @@
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
     </row>
-    <row r="19" customFormat="1" ht="15.75" spans="1:20">
+    <row r="19" customFormat="1" ht="15.5" spans="1:20">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -3120,7 +3124,7 @@
         <v>45451</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="15.75" spans="1:20">
+    <row r="20" customFormat="1" ht="15.5" spans="1:20">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3152,7 +3156,7 @@
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
     </row>
-    <row r="21" customFormat="1" ht="15.75" spans="1:20">
+    <row r="21" customFormat="1" ht="15.5" spans="1:20">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -3214,7 +3218,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="15.75" spans="1:20">
+    <row r="22" customFormat="1" ht="15.5" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3256,7 +3260,7 @@
         <v>45423</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15.75" spans="1:20">
+    <row r="23" customFormat="1" ht="15.5" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3288,7 +3292,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" customFormat="1" ht="15.75" spans="1:20">
+    <row r="24" customFormat="1" ht="15.5" spans="1:20">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
@@ -3350,7 +3354,7 @@
         <v>45325</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="15.75" spans="1:20">
+    <row r="25" customFormat="1" ht="15.5" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3392,7 +3396,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15.75" spans="1:20">
+    <row r="26" s="1" customFormat="1" ht="15.5" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3430,7 +3434,7 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="27" customFormat="1" ht="15.75" spans="1:20">
+    <row r="27" customFormat="1" ht="15.5" spans="1:20">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -3480,7 +3484,7 @@
       <c r="S27" s="16"/>
       <c r="T27" s="16"/>
     </row>
-    <row r="28" customFormat="1" ht="15.75" spans="1:20">
+    <row r="28" customFormat="1" ht="15.5" spans="1:20">
       <c r="A28" s="5" t="s">
         <v>121</v>
       </c>
@@ -3524,7 +3528,7 @@
       <c r="S28" s="21"/>
       <c r="T28" s="21"/>
     </row>
-    <row r="29" customFormat="1" ht="15.75" spans="1:20">
+    <row r="29" customFormat="1" ht="15.5" spans="1:20">
       <c r="A29" s="5" t="s">
         <v>20</v>
       </c>
@@ -3578,7 +3582,7 @@
       <c r="S29" s="16"/>
       <c r="T29" s="16"/>
     </row>
-    <row r="30" customFormat="1" ht="15.75" spans="1:18">
+    <row r="30" customFormat="1" ht="15.5" spans="1:18">
       <c r="A30" s="5" t="s">
         <v>20</v>
       </c>
@@ -3620,7 +3624,7 @@
       <c r="Q30" s="16"/>
       <c r="R30" s="16"/>
     </row>
-    <row r="31" customFormat="1" ht="15.75" spans="1:20">
+    <row r="31" customFormat="1" ht="15.5" spans="1:20">
       <c r="A31" s="5" t="s">
         <v>133</v>
       </c>
@@ -3674,7 +3678,7 @@
       <c r="S31" s="20"/>
       <c r="T31" s="20"/>
     </row>
-    <row r="32" customFormat="1" ht="15.75" spans="1:20">
+    <row r="32" customFormat="1" ht="15.5" spans="1:20">
       <c r="A32" s="5" t="s">
         <v>20</v>
       </c>
@@ -3736,7 +3740,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="33" customFormat="1" ht="15.75" spans="1:20">
+    <row r="33" customFormat="1" ht="15.5" spans="1:20">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3758,7 +3762,7 @@
       <c r="S33" s="22"/>
       <c r="T33" s="22"/>
     </row>
-    <row r="34" customFormat="1" ht="15.75" spans="1:20">
+    <row r="34" customFormat="1" ht="15.5" spans="1:20">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -3780,7 +3784,7 @@
       <c r="S34" s="22"/>
       <c r="T34" s="22"/>
     </row>
-    <row r="35" customFormat="1" ht="15.75" spans="1:20">
+    <row r="35" customFormat="1" ht="15.5" spans="1:20">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -3802,7 +3806,7 @@
       <c r="S35" s="22"/>
       <c r="T35" s="22"/>
     </row>
-    <row r="36" customFormat="1" ht="15.75" spans="1:20">
+    <row r="36" customFormat="1" ht="15.5" spans="1:20">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -3824,7 +3828,7 @@
       <c r="S36" s="22"/>
       <c r="T36" s="22"/>
     </row>
-    <row r="37" customFormat="1" ht="15.75" spans="1:20">
+    <row r="37" customFormat="1" ht="15.5" spans="1:20">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -3846,7 +3850,7 @@
       <c r="S37" s="22"/>
       <c r="T37" s="22"/>
     </row>
-    <row r="38" customFormat="1" ht="15.75" spans="1:20">
+    <row r="38" customFormat="1" ht="15.5" spans="1:20">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -3868,7 +3872,7 @@
       <c r="S38" s="22"/>
       <c r="T38" s="22"/>
     </row>
-    <row r="39" customFormat="1" ht="15.75" spans="1:20">
+    <row r="39" customFormat="1" ht="15.5" spans="1:20">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -161,8 +161,8 @@
     <t>30/90</t>
   </si>
   <si>
-    <t>转账时间(灰色表示线上上课（课时费1小时100），绿色表示课时费已发)：精锐教育是当月15号；
-星期天培训下个月20号;郭润宁11月19、27日上了半节课
+    <t>转账时间(灰色表示线上上课（课时费1小时100），绿色表示课时费已发)：
+精锐教育是当月15号；星期天培训下个月20号;
 下次考试目标：刘桐语：135，李梦媛：50，贾梦垚：130，郭润宁：100</t>
   </si>
   <si>
@@ -1500,7 +1500,7 @@
   <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1619,7 +1619,9 @@
       <c r="M2" s="21">
         <v>45650</v>
       </c>
-      <c r="N2" s="2"/>
+      <c r="N2" s="21">
+        <v>45653</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -1500,7 +1500,7 @@
   <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1711,7 +1711,9 @@
       <c r="M4" s="21">
         <v>45647</v>
       </c>
-      <c r="N4" s="21"/>
+      <c r="N4" s="21">
+        <v>45654</v>
+      </c>
       <c r="O4" s="21"/>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
@@ -1801,7 +1803,9 @@
       <c r="M6" s="9">
         <v>45648</v>
       </c>
-      <c r="N6" s="9"/>
+      <c r="N6" s="9">
+        <v>45655</v>
+      </c>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="25"/>
@@ -1988,7 +1992,9 @@
       <c r="P10" s="21">
         <v>45648</v>
       </c>
-      <c r="Q10" s="21"/>
+      <c r="Q10" s="21">
+        <v>45655</v>
+      </c>
       <c r="R10" s="21"/>
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -161,6 +161,24 @@
     <t>30/90</t>
   </si>
   <si>
+    <t>一尔优教育</t>
+  </si>
+  <si>
+    <t>周六12：00-14：00</t>
+  </si>
+  <si>
+    <t>张佳宁</t>
+  </si>
+  <si>
+    <t>耳鼻喉科专科医院旁巷子201室</t>
+  </si>
+  <si>
+    <t>13中</t>
+  </si>
+  <si>
+    <t>85/100</t>
+  </si>
+  <si>
     <t>转账时间(灰色表示线上上课（课时费1小时100），绿色表示课时费已发)：
 精锐教育是当月15号；星期天培训下个月20号;
 下次考试目标：刘桐语：135，李梦媛：50，贾梦垚：130，郭润宁：100</t>
@@ -250,9 +268,6 @@
     <t>60/100</t>
   </si>
   <si>
-    <t>一尔优教育</t>
-  </si>
-  <si>
     <t>周日18：00-20：00</t>
   </si>
   <si>
@@ -301,9 +316,6 @@
     <t>邮区中心局小区3-4-602</t>
   </si>
   <si>
-    <t>13中</t>
-  </si>
-  <si>
     <t>李冰惠</t>
   </si>
   <si>
@@ -368,18 +380,6 @@
   </si>
   <si>
     <t>兵二分校</t>
-  </si>
-  <si>
-    <t>周六12：00-14：00</t>
-  </si>
-  <si>
-    <t>张佳宁</t>
-  </si>
-  <si>
-    <t>耳鼻喉科专科医院旁巷子201室</t>
-  </si>
-  <si>
-    <t>85/100</t>
   </si>
   <si>
     <t>高一</t>
@@ -1497,10 +1497,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1610,19 +1610,21 @@
       <c r="J2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="21">
+      <c r="K2" s="9">
         <v>45643</v>
       </c>
-      <c r="L2" s="21">
+      <c r="L2" s="9">
         <v>45649</v>
       </c>
-      <c r="M2" s="21">
+      <c r="M2" s="9">
         <v>45650</v>
       </c>
-      <c r="N2" s="21">
+      <c r="N2" s="9">
         <v>45653</v>
       </c>
-      <c r="O2" s="2"/>
+      <c r="O2" s="21">
+        <v>45658</v>
+      </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
@@ -1999,22 +2001,63 @@
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
     </row>
-    <row r="16" s="20" customFormat="1" ht="15.5"/>
+    <row r="11" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="12">
+        <v>45451</v>
+      </c>
+      <c r="K11" s="12">
+        <v>45460</v>
+      </c>
+      <c r="L11" s="12">
+        <v>45465</v>
+      </c>
+      <c r="M11" s="12">
+        <v>45514</v>
+      </c>
+      <c r="N11" s="12">
+        <v>45527</v>
+      </c>
+      <c r="O11" s="21">
+        <v>45658</v>
+      </c>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+    </row>
     <row r="17" s="20" customFormat="1" ht="15.5"/>
     <row r="18" s="20" customFormat="1" ht="15.5"/>
     <row r="19" s="20" customFormat="1" ht="15.5"/>
     <row r="20" s="20" customFormat="1" ht="15.5"/>
-    <row r="21" s="20" customFormat="1" ht="15.5" spans="1:9">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-    </row>
+    <row r="21" s="20" customFormat="1" ht="15.5"/>
     <row r="22" s="20" customFormat="1" ht="15.5" spans="1:9">
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
@@ -2026,24 +2069,21 @@
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" ht="17.5" spans="2:13">
-      <c r="B23" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
+    <row r="23" s="20" customFormat="1" ht="15.5" spans="1:9">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
     </row>
     <row r="24" ht="17.5" spans="2:13">
-      <c r="B24" s="8"/>
+      <c r="B24" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2056,7 +2096,7 @@
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
     </row>
-    <row r="25" ht="17.5" spans="2:12">
+    <row r="25" ht="17.5" spans="2:13">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -2065,10 +2105,12 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
+      <c r="J25" s="24"/>
       <c r="K25" s="24"/>
       <c r="L25" s="24"/>
-    </row>
-    <row r="26" ht="17.5" spans="2:13">
+      <c r="M25" s="24"/>
+    </row>
+    <row r="26" ht="17.5" spans="2:12">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -2077,10 +2119,8 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
-      <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
     </row>
     <row r="27" ht="17.5" spans="2:13">
       <c r="B27" s="8"/>
@@ -2095,6 +2135,20 @@
       <c r="K27" s="24"/>
       <c r="L27" s="24"/>
       <c r="M27" s="24"/>
+    </row>
+    <row r="28" ht="17.5" spans="2:13">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -2137,7 +2191,7 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="J9:J10"/>
-    <mergeCell ref="B23:I27"/>
+    <mergeCell ref="B24:I28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -2151,7 +2205,7 @@
   <dimension ref="A1:U46"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+      <selection activeCell="A27" sqref="$A27:$XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2231,7 +2285,7 @@
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="15.5" spans="1:21">
@@ -2242,25 +2296,25 @@
         <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="J2" s="9">
         <v>45185</v>
@@ -2301,31 +2355,31 @@
     </row>
     <row r="3" customFormat="1" ht="15.5" spans="1:19">
       <c r="A3" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>22</v>
@@ -2366,25 +2420,25 @@
         <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="J4" s="9">
         <v>45287</v>
@@ -2401,25 +2455,25 @@
         <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>22</v>
@@ -2455,31 +2509,31 @@
     </row>
     <row r="6" customFormat="1" ht="15.5" spans="1:20">
       <c r="A6" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>39</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J6" s="9">
         <v>45320</v>
@@ -2523,25 +2577,25 @@
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>39</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>22</v>
@@ -2569,25 +2623,25 @@
         <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H8" s="6">
         <v>126</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J8" s="14">
         <v>45425</v>
@@ -2610,25 +2664,25 @@
         <v>44</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J9" s="9">
         <v>45186</v>
@@ -2780,25 +2834,25 @@
         <v>21</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="J13" s="17" t="s">
         <v>22</v>
@@ -2866,25 +2920,25 @@
         <v>21</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>22</v>
@@ -2922,22 +2976,22 @@
         <v>44</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>47</v>
@@ -2984,25 +3038,25 @@
         <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J17" s="17" t="s">
         <v>22</v>
@@ -3078,22 +3132,22 @@
         <v>21</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>34</v>
@@ -3172,25 +3226,25 @@
         <v>21</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>22</v>
@@ -3308,25 +3362,25 @@
         <v>21</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="J24" s="19" t="s">
         <v>22</v>
@@ -3442,56 +3496,7 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="27" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A27" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="J27" s="12">
-        <v>45451</v>
-      </c>
-      <c r="K27" s="12">
-        <v>45460</v>
-      </c>
-      <c r="L27" s="12">
-        <v>45465</v>
-      </c>
-      <c r="M27" s="12">
-        <v>45514</v>
-      </c>
-      <c r="N27" s="12">
-        <v>45527</v>
-      </c>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-    </row>
+    <row r="27" customFormat="1"/>
     <row r="28" customFormat="1" ht="15.5" spans="1:20">
       <c r="A28" s="5" t="s">
         <v>121</v>
@@ -3500,7 +3505,7 @@
         <v>21</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>122</v>
@@ -3544,7 +3549,7 @@
         <v>44</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>29</v>
@@ -3556,13 +3561,13 @@
         <v>127</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J29" s="12" t="s">
         <v>22</v>
@@ -3613,7 +3618,7 @@
         <v>131</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>132</v>
@@ -3655,7 +3660,7 @@
         <v>137</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>138</v>
@@ -3709,7 +3714,7 @@
         <v>142</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>143</v>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -1499,8 +1499,8 @@
   <sheetPr/>
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1625,7 +1625,9 @@
       <c r="O2" s="21">
         <v>45658</v>
       </c>
-      <c r="P2" s="2"/>
+      <c r="P2" s="21">
+        <v>45660</v>
+      </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
@@ -1716,7 +1718,9 @@
       <c r="N4" s="21">
         <v>45654</v>
       </c>
-      <c r="O4" s="21"/>
+      <c r="O4" s="21">
+        <v>45661</v>
+      </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
       <c r="R4" s="21"/>
@@ -1808,7 +1812,9 @@
       <c r="N6" s="9">
         <v>45655</v>
       </c>
-      <c r="O6" s="9"/>
+      <c r="O6" s="9">
+        <v>45662</v>
+      </c>
       <c r="P6" s="9"/>
       <c r="Q6" s="25"/>
       <c r="R6" s="25"/>
@@ -1894,7 +1900,9 @@
       <c r="L8" s="21">
         <v>45648</v>
       </c>
-      <c r="M8" s="21"/>
+      <c r="M8" s="21">
+        <v>45662</v>
+      </c>
       <c r="N8" s="21"/>
       <c r="O8" s="21"/>
       <c r="P8" s="21"/>
@@ -1997,7 +2005,9 @@
       <c r="Q10" s="21">
         <v>45655</v>
       </c>
-      <c r="R10" s="21"/>
+      <c r="R10" s="21">
+        <v>45662</v>
+      </c>
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
     </row>
@@ -3496,7 +3506,6 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="27" customFormat="1"/>
     <row r="28" customFormat="1" ht="15.5" spans="1:20">
       <c r="A28" s="5" t="s">
         <v>121</v>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -1499,8 +1499,8 @@
   <sheetPr/>
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1628,7 +1628,9 @@
       <c r="P2" s="21">
         <v>45660</v>
       </c>
-      <c r="Q2" s="2"/>
+      <c r="Q2" s="21">
+        <v>45663</v>
+      </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -1500,7 +1500,7 @@
   <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1631,7 +1631,9 @@
       <c r="Q2" s="21">
         <v>45663</v>
       </c>
-      <c r="R2" s="2"/>
+      <c r="R2" s="21">
+        <v>45664</v>
+      </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -1109,7 +1109,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1173,6 +1173,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1499,8 +1502,8 @@
   <sheetPr/>
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1607,7 +1610,7 @@
       <c r="I2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="24" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="9">
@@ -1634,7 +1637,9 @@
       <c r="R2" s="21">
         <v>45664</v>
       </c>
-      <c r="S2" s="2"/>
+      <c r="S2" s="21">
+        <v>45667</v>
+      </c>
       <c r="T2" s="2"/>
     </row>
     <row r="3" customFormat="1" ht="15.5" spans="1:20">
@@ -1725,7 +1730,9 @@
       <c r="O4" s="21">
         <v>45661</v>
       </c>
-      <c r="P4" s="21"/>
+      <c r="P4" s="21">
+        <v>45668</v>
+      </c>
       <c r="Q4" s="21"/>
       <c r="R4" s="21"/>
       <c r="S4" s="21"/>
@@ -1820,8 +1827,8 @@
         <v>45662</v>
       </c>
       <c r="P6" s="9"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
       <c r="S6" s="21"/>
       <c r="T6" s="21"/>
     </row>
@@ -2012,7 +2019,9 @@
       <c r="R10" s="21">
         <v>45662</v>
       </c>
-      <c r="S10" s="20"/>
+      <c r="S10" s="21">
+        <v>45669</v>
+      </c>
       <c r="T10" s="20"/>
     </row>
     <row r="11" customFormat="1" ht="15.5" spans="1:20">
@@ -2105,10 +2114,10 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
     </row>
     <row r="25" ht="17.5" spans="2:13">
       <c r="B25" s="8"/>
@@ -2119,10 +2128,10 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
     </row>
     <row r="26" ht="17.5" spans="2:12">
       <c r="B26" s="8"/>
@@ -2133,8 +2142,8 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
     </row>
     <row r="27" ht="17.5" spans="2:13">
       <c r="B27" s="8"/>
@@ -2145,10 +2154,10 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
     </row>
     <row r="28" ht="17.5" spans="2:13">
       <c r="B28" s="8"/>
@@ -2159,10 +2168,10 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="40">

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12330"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Doing" sheetId="1" r:id="rId1"/>
@@ -463,10 +463,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -964,7 +964,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -973,10 +973,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -985,7 +985,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1503,10 +1503,10 @@
   <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="5.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
@@ -1520,7 +1520,7 @@
     <col min="11" max="20" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:20">
+    <row r="1" ht="15.75" spans="1:20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.5" spans="1:20">
+    <row r="2" customFormat="1" ht="15.75" spans="1:20">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -1642,7 +1642,7 @@
       </c>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" customFormat="1" ht="15.5" spans="1:20">
+    <row r="3" customFormat="1" ht="15.75" spans="1:20">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>45623</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.5" spans="1:20">
+    <row r="4" customFormat="1" ht="15.75" spans="1:20">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1721,16 +1721,16 @@
       <c r="L4" s="9">
         <v>45640</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="9">
         <v>45647</v>
       </c>
-      <c r="N4" s="21">
+      <c r="N4" s="9">
         <v>45654</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4" s="9">
         <v>45661</v>
       </c>
-      <c r="P4" s="21">
+      <c r="P4" s="9">
         <v>45668</v>
       </c>
       <c r="Q4" s="21"/>
@@ -1738,7 +1738,7 @@
       <c r="S4" s="21"/>
       <c r="T4" s="21"/>
     </row>
-    <row r="5" customFormat="1" ht="15.5" spans="1:20">
+    <row r="5" customFormat="1" ht="15.75" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>45620</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="15.5" spans="1:20">
+    <row r="6" customFormat="1" ht="15.75" spans="1:20">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1832,7 +1832,7 @@
       <c r="S6" s="21"/>
       <c r="T6" s="21"/>
     </row>
-    <row r="7" customFormat="1" ht="15.5" spans="1:20">
+    <row r="7" customFormat="1" ht="15.75" spans="1:20">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="15.5" spans="1:20">
+    <row r="8" customFormat="1" ht="15.75" spans="1:20">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1905,13 +1905,13 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="9"/>
-      <c r="K8" s="21">
+      <c r="K8" s="9">
         <v>45641</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="9">
         <v>45648</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="9">
         <v>45662</v>
       </c>
       <c r="N8" s="21"/>
@@ -1922,7 +1922,7 @@
       <c r="S8" s="21"/>
       <c r="T8" s="21"/>
     </row>
-    <row r="9" customFormat="1" ht="15.5" spans="1:20">
+    <row r="9" customFormat="1" ht="15.75" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.5" spans="1:20">
+    <row r="10" customFormat="1" ht="15.75" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="T10" s="20"/>
     </row>
-    <row r="11" customFormat="1" ht="15.5" spans="1:20">
+    <row r="11" customFormat="1" ht="15.75" spans="1:20">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -2076,12 +2076,12 @@
       <c r="S11" s="16"/>
       <c r="T11" s="16"/>
     </row>
-    <row r="17" s="20" customFormat="1" ht="15.5"/>
-    <row r="18" s="20" customFormat="1" ht="15.5"/>
-    <row r="19" s="20" customFormat="1" ht="15.5"/>
-    <row r="20" s="20" customFormat="1" ht="15.5"/>
-    <row r="21" s="20" customFormat="1" ht="15.5"/>
-    <row r="22" s="20" customFormat="1" ht="15.5" spans="1:9">
+    <row r="17" s="20" customFormat="1" ht="15.75"/>
+    <row r="18" s="20" customFormat="1" ht="15.75"/>
+    <row r="19" s="20" customFormat="1" ht="15.75"/>
+    <row r="20" s="20" customFormat="1" ht="15.75"/>
+    <row r="21" s="20" customFormat="1" ht="15.75"/>
+    <row r="22" s="20" customFormat="1" ht="15.75" spans="1:9">
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -2092,7 +2092,7 @@
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" s="20" customFormat="1" ht="15.5" spans="1:9">
+    <row r="23" s="20" customFormat="1" ht="15.75" spans="1:9">
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
@@ -2103,7 +2103,7 @@
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" ht="17.5" spans="2:13">
+    <row r="24" ht="18.75" spans="2:13">
       <c r="B24" s="8" t="s">
         <v>54</v>
       </c>
@@ -2119,7 +2119,7 @@
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
     </row>
-    <row r="25" ht="17.5" spans="2:13">
+    <row r="25" ht="18.75" spans="2:13">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -2133,7 +2133,7 @@
       <c r="L25" s="25"/>
       <c r="M25" s="25"/>
     </row>
-    <row r="26" ht="17.5" spans="2:12">
+    <row r="26" ht="18.75" spans="2:12">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -2145,7 +2145,7 @@
       <c r="K26" s="25"/>
       <c r="L26" s="25"/>
     </row>
-    <row r="27" ht="17.5" spans="2:13">
+    <row r="27" ht="18.75" spans="2:13">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -2159,7 +2159,7 @@
       <c r="L27" s="25"/>
       <c r="M27" s="25"/>
     </row>
-    <row r="28" ht="17.5" spans="2:13">
+    <row r="28" ht="18.75" spans="2:13">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -2231,7 +2231,7 @@
       <selection activeCell="A27" sqref="$A27:$XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="4.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
@@ -2246,7 +2246,7 @@
     <col min="22" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:21">
+    <row r="1" ht="15.75" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.5" spans="1:21">
+    <row r="2" customFormat="1" ht="15.75" spans="1:21">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15.5" spans="1:19">
+    <row r="3" customFormat="1" ht="15.75" spans="1:19">
       <c r="A3" s="4" t="s">
         <v>63</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.5" spans="1:11">
+    <row r="4" customFormat="1" ht="15.75" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15.5" spans="1:20">
+    <row r="5" customFormat="1" ht="15.75" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -2530,7 +2530,7 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" customFormat="1" ht="15.5" spans="1:20">
+    <row r="6" customFormat="1" ht="15.75" spans="1:20">
       <c r="A6" s="4" t="s">
         <v>63</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.5" spans="1:20">
+    <row r="7" customFormat="1" ht="15.75" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -2679,7 +2679,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" customFormat="1" ht="15.5" spans="1:20">
+    <row r="9" customFormat="1" ht="15.75" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.5" spans="1:20">
+    <row r="10" customFormat="1" ht="15.75" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2783,7 +2783,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15.5" spans="1:20">
+    <row r="11" customFormat="1" ht="15.75" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2825,7 +2825,7 @@
         <v>45445</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15.5" spans="1:20">
+    <row r="12" customFormat="1" ht="15.75" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2849,7 +2849,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" customFormat="1" ht="15.5" spans="1:20">
+    <row r="13" customFormat="1" ht="15.75" spans="1:20">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="15.5" spans="1:20">
+    <row r="14" customFormat="1" ht="15.75" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2935,7 +2935,7 @@
       <c r="S14" s="16"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" customFormat="1" ht="15.5" spans="1:20">
+    <row r="15" customFormat="1" ht="15.75" spans="1:20">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -2991,7 +2991,7 @@
       <c r="S15" s="16"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" customFormat="1" ht="15.5" spans="1:20">
+    <row r="16" customFormat="1" ht="15.75" spans="1:20">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="15.5" spans="1:20">
+    <row r="17" customFormat="1" ht="15.75" spans="1:20">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="15.5" spans="1:20">
+    <row r="18" customFormat="1" ht="15.75" spans="1:20">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -3147,7 +3147,7 @@
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
     </row>
-    <row r="19" customFormat="1" ht="15.5" spans="1:20">
+    <row r="19" customFormat="1" ht="15.75" spans="1:20">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>45451</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="15.5" spans="1:20">
+    <row r="20" customFormat="1" ht="15.75" spans="1:20">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3241,7 +3241,7 @@
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
     </row>
-    <row r="21" customFormat="1" ht="15.5" spans="1:20">
+    <row r="21" customFormat="1" ht="15.75" spans="1:20">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="15.5" spans="1:20">
+    <row r="22" customFormat="1" ht="15.75" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3345,7 +3345,7 @@
         <v>45423</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15.5" spans="1:20">
+    <row r="23" customFormat="1" ht="15.75" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3377,7 +3377,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" customFormat="1" ht="15.5" spans="1:20">
+    <row r="24" customFormat="1" ht="15.75" spans="1:20">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>45325</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="15.5" spans="1:20">
+    <row r="25" customFormat="1" ht="15.75" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3481,7 +3481,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15.5" spans="1:20">
+    <row r="26" s="1" customFormat="1" ht="15.75" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3519,7 +3519,7 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="28" customFormat="1" ht="15.5" spans="1:20">
+    <row r="28" customFormat="1" ht="15.75" spans="1:20">
       <c r="A28" s="5" t="s">
         <v>121</v>
       </c>
@@ -3563,7 +3563,7 @@
       <c r="S28" s="21"/>
       <c r="T28" s="21"/>
     </row>
-    <row r="29" customFormat="1" ht="15.5" spans="1:20">
+    <row r="29" customFormat="1" ht="15.75" spans="1:20">
       <c r="A29" s="5" t="s">
         <v>20</v>
       </c>
@@ -3617,7 +3617,7 @@
       <c r="S29" s="16"/>
       <c r="T29" s="16"/>
     </row>
-    <row r="30" customFormat="1" ht="15.5" spans="1:18">
+    <row r="30" customFormat="1" ht="15.75" spans="1:18">
       <c r="A30" s="5" t="s">
         <v>20</v>
       </c>
@@ -3659,7 +3659,7 @@
       <c r="Q30" s="16"/>
       <c r="R30" s="16"/>
     </row>
-    <row r="31" customFormat="1" ht="15.5" spans="1:20">
+    <row r="31" customFormat="1" ht="15.75" spans="1:20">
       <c r="A31" s="5" t="s">
         <v>133</v>
       </c>
@@ -3713,7 +3713,7 @@
       <c r="S31" s="20"/>
       <c r="T31" s="20"/>
     </row>
-    <row r="32" customFormat="1" ht="15.5" spans="1:20">
+    <row r="32" customFormat="1" ht="15.75" spans="1:20">
       <c r="A32" s="5" t="s">
         <v>20</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="33" customFormat="1" ht="15.5" spans="1:20">
+    <row r="33" customFormat="1" ht="15.75" spans="1:20">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3797,7 +3797,7 @@
       <c r="S33" s="22"/>
       <c r="T33" s="22"/>
     </row>
-    <row r="34" customFormat="1" ht="15.5" spans="1:20">
+    <row r="34" customFormat="1" ht="15.75" spans="1:20">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -3819,7 +3819,7 @@
       <c r="S34" s="22"/>
       <c r="T34" s="22"/>
     </row>
-    <row r="35" customFormat="1" ht="15.5" spans="1:20">
+    <row r="35" customFormat="1" ht="15.75" spans="1:20">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -3841,7 +3841,7 @@
       <c r="S35" s="22"/>
       <c r="T35" s="22"/>
     </row>
-    <row r="36" customFormat="1" ht="15.5" spans="1:20">
+    <row r="36" customFormat="1" ht="15.75" spans="1:20">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -3863,7 +3863,7 @@
       <c r="S36" s="22"/>
       <c r="T36" s="22"/>
     </row>
-    <row r="37" customFormat="1" ht="15.5" spans="1:20">
+    <row r="37" customFormat="1" ht="15.75" spans="1:20">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -3885,7 +3885,7 @@
       <c r="S37" s="22"/>
       <c r="T37" s="22"/>
     </row>
-    <row r="38" customFormat="1" ht="15.5" spans="1:20">
+    <row r="38" customFormat="1" ht="15.75" spans="1:20">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -3907,7 +3907,7 @@
       <c r="S38" s="22"/>
       <c r="T38" s="22"/>
     </row>
-    <row r="39" customFormat="1" ht="15.5" spans="1:20">
+    <row r="39" customFormat="1" ht="15.75" spans="1:20">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="25600" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Doing" sheetId="1" r:id="rId1"/>
@@ -463,10 +463,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -964,7 +964,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -973,10 +973,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -985,7 +985,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1502,11 +1502,11 @@
   <sheetPr/>
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="5.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
@@ -1520,7 +1520,7 @@
     <col min="11" max="20" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:20">
+    <row r="1" ht="15.5" spans="1:20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.75" spans="1:20">
+    <row r="2" customFormat="1" ht="15.5" spans="1:20">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -1640,9 +1640,11 @@
       <c r="S2" s="21">
         <v>45667</v>
       </c>
-      <c r="T2" s="2"/>
-    </row>
-    <row r="3" customFormat="1" ht="15.75" spans="1:20">
+      <c r="T2" s="21">
+        <v>45670</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="15.5" spans="1:20">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
@@ -1704,7 +1706,7 @@
         <v>45623</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.75" spans="1:20">
+    <row r="4" customFormat="1" ht="15.5" spans="1:20">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1738,7 +1740,7 @@
       <c r="S4" s="21"/>
       <c r="T4" s="21"/>
     </row>
-    <row r="5" customFormat="1" ht="15.75" spans="1:20">
+    <row r="5" customFormat="1" ht="15.5" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -1800,7 +1802,7 @@
         <v>45620</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="15.75" spans="1:20">
+    <row r="6" customFormat="1" ht="15.5" spans="1:20">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1832,7 +1834,7 @@
       <c r="S6" s="21"/>
       <c r="T6" s="21"/>
     </row>
-    <row r="7" customFormat="1" ht="15.75" spans="1:20">
+    <row r="7" customFormat="1" ht="15.5" spans="1:20">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
@@ -1894,7 +1896,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="15.75" spans="1:20">
+    <row r="8" customFormat="1" ht="15.5" spans="1:20">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1922,7 +1924,7 @@
       <c r="S8" s="21"/>
       <c r="T8" s="21"/>
     </row>
-    <row r="9" customFormat="1" ht="15.75" spans="1:20">
+    <row r="9" customFormat="1" ht="15.5" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1984,7 +1986,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.75" spans="1:20">
+    <row r="10" customFormat="1" ht="15.5" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2024,7 +2026,7 @@
       </c>
       <c r="T10" s="20"/>
     </row>
-    <row r="11" customFormat="1" ht="15.75" spans="1:20">
+    <row r="11" customFormat="1" ht="15.5" spans="1:20">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -2076,12 +2078,12 @@
       <c r="S11" s="16"/>
       <c r="T11" s="16"/>
     </row>
-    <row r="17" s="20" customFormat="1" ht="15.75"/>
-    <row r="18" s="20" customFormat="1" ht="15.75"/>
-    <row r="19" s="20" customFormat="1" ht="15.75"/>
-    <row r="20" s="20" customFormat="1" ht="15.75"/>
-    <row r="21" s="20" customFormat="1" ht="15.75"/>
-    <row r="22" s="20" customFormat="1" ht="15.75" spans="1:9">
+    <row r="17" s="20" customFormat="1" ht="15.5"/>
+    <row r="18" s="20" customFormat="1" ht="15.5"/>
+    <row r="19" s="20" customFormat="1" ht="15.5"/>
+    <row r="20" s="20" customFormat="1" ht="15.5"/>
+    <row r="21" s="20" customFormat="1" ht="15.5"/>
+    <row r="22" s="20" customFormat="1" ht="15.5" spans="1:9">
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -2092,7 +2094,7 @@
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" s="20" customFormat="1" ht="15.75" spans="1:9">
+    <row r="23" s="20" customFormat="1" ht="15.5" spans="1:9">
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
@@ -2103,7 +2105,7 @@
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" ht="18.75" spans="2:13">
+    <row r="24" ht="17.5" spans="2:13">
       <c r="B24" s="8" t="s">
         <v>54</v>
       </c>
@@ -2119,7 +2121,7 @@
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
     </row>
-    <row r="25" ht="18.75" spans="2:13">
+    <row r="25" ht="17.5" spans="2:13">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -2133,7 +2135,7 @@
       <c r="L25" s="25"/>
       <c r="M25" s="25"/>
     </row>
-    <row r="26" ht="18.75" spans="2:12">
+    <row r="26" ht="17.5" spans="2:12">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -2145,7 +2147,7 @@
       <c r="K26" s="25"/>
       <c r="L26" s="25"/>
     </row>
-    <row r="27" ht="18.75" spans="2:13">
+    <row r="27" ht="17.5" spans="2:13">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -2159,7 +2161,7 @@
       <c r="L27" s="25"/>
       <c r="M27" s="25"/>
     </row>
-    <row r="28" ht="18.75" spans="2:13">
+    <row r="28" ht="17.5" spans="2:13">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -2231,7 +2233,7 @@
       <selection activeCell="A27" sqref="$A27:$XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="4.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
@@ -2246,7 +2248,7 @@
     <col min="22" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:21">
+    <row r="1" ht="15.5" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2311,7 +2313,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.75" spans="1:21">
+    <row r="2" customFormat="1" ht="15.5" spans="1:21">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -2376,7 +2378,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15.75" spans="1:19">
+    <row r="3" customFormat="1" ht="15.5" spans="1:19">
       <c r="A3" s="4" t="s">
         <v>63</v>
       </c>
@@ -2435,7 +2437,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.75" spans="1:11">
+    <row r="4" customFormat="1" ht="15.5" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -2470,7 +2472,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15.75" spans="1:20">
+    <row r="5" customFormat="1" ht="15.5" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -2530,7 +2532,7 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" customFormat="1" ht="15.75" spans="1:20">
+    <row r="6" customFormat="1" ht="15.5" spans="1:20">
       <c r="A6" s="4" t="s">
         <v>63</v>
       </c>
@@ -2592,7 +2594,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.75" spans="1:20">
+    <row r="7" customFormat="1" ht="15.5" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -2679,7 +2681,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" customFormat="1" ht="15.75" spans="1:20">
+    <row r="9" customFormat="1" ht="15.5" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -2741,7 +2743,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.75" spans="1:20">
+    <row r="10" customFormat="1" ht="15.5" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2783,7 +2785,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15.75" spans="1:20">
+    <row r="11" customFormat="1" ht="15.5" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2825,7 +2827,7 @@
         <v>45445</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15.75" spans="1:20">
+    <row r="12" customFormat="1" ht="15.5" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2849,7 +2851,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" customFormat="1" ht="15.75" spans="1:20">
+    <row r="13" customFormat="1" ht="15.5" spans="1:20">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -2911,7 +2913,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="15.75" spans="1:20">
+    <row r="14" customFormat="1" ht="15.5" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2935,7 +2937,7 @@
       <c r="S14" s="16"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" customFormat="1" ht="15.75" spans="1:20">
+    <row r="15" customFormat="1" ht="15.5" spans="1:20">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -2991,7 +2993,7 @@
       <c r="S15" s="16"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" customFormat="1" ht="15.75" spans="1:20">
+    <row r="16" customFormat="1" ht="15.5" spans="1:20">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -3053,7 +3055,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="15.75" spans="1:20">
+    <row r="17" customFormat="1" ht="15.5" spans="1:20">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -3115,7 +3117,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="15.75" spans="1:20">
+    <row r="18" customFormat="1" ht="15.5" spans="1:20">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -3147,7 +3149,7 @@
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
     </row>
-    <row r="19" customFormat="1" ht="15.75" spans="1:20">
+    <row r="19" customFormat="1" ht="15.5" spans="1:20">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -3209,7 +3211,7 @@
         <v>45451</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="15.75" spans="1:20">
+    <row r="20" customFormat="1" ht="15.5" spans="1:20">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3241,7 +3243,7 @@
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
     </row>
-    <row r="21" customFormat="1" ht="15.75" spans="1:20">
+    <row r="21" customFormat="1" ht="15.5" spans="1:20">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -3303,7 +3305,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="15.75" spans="1:20">
+    <row r="22" customFormat="1" ht="15.5" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3345,7 +3347,7 @@
         <v>45423</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15.75" spans="1:20">
+    <row r="23" customFormat="1" ht="15.5" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3377,7 +3379,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" customFormat="1" ht="15.75" spans="1:20">
+    <row r="24" customFormat="1" ht="15.5" spans="1:20">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
@@ -3439,7 +3441,7 @@
         <v>45325</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="15.75" spans="1:20">
+    <row r="25" customFormat="1" ht="15.5" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3481,7 +3483,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15.75" spans="1:20">
+    <row r="26" s="1" customFormat="1" ht="15.5" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3519,7 +3521,7 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="28" customFormat="1" ht="15.75" spans="1:20">
+    <row r="28" customFormat="1" ht="15.5" spans="1:20">
       <c r="A28" s="5" t="s">
         <v>121</v>
       </c>
@@ -3563,7 +3565,7 @@
       <c r="S28" s="21"/>
       <c r="T28" s="21"/>
     </row>
-    <row r="29" customFormat="1" ht="15.75" spans="1:20">
+    <row r="29" customFormat="1" ht="15.5" spans="1:20">
       <c r="A29" s="5" t="s">
         <v>20</v>
       </c>
@@ -3617,7 +3619,7 @@
       <c r="S29" s="16"/>
       <c r="T29" s="16"/>
     </row>
-    <row r="30" customFormat="1" ht="15.75" spans="1:18">
+    <row r="30" customFormat="1" ht="15.5" spans="1:18">
       <c r="A30" s="5" t="s">
         <v>20</v>
       </c>
@@ -3659,7 +3661,7 @@
       <c r="Q30" s="16"/>
       <c r="R30" s="16"/>
     </row>
-    <row r="31" customFormat="1" ht="15.75" spans="1:20">
+    <row r="31" customFormat="1" ht="15.5" spans="1:20">
       <c r="A31" s="5" t="s">
         <v>133</v>
       </c>
@@ -3713,7 +3715,7 @@
       <c r="S31" s="20"/>
       <c r="T31" s="20"/>
     </row>
-    <row r="32" customFormat="1" ht="15.75" spans="1:20">
+    <row r="32" customFormat="1" ht="15.5" spans="1:20">
       <c r="A32" s="5" t="s">
         <v>20</v>
       </c>
@@ -3775,7 +3777,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="33" customFormat="1" ht="15.75" spans="1:20">
+    <row r="33" customFormat="1" ht="15.5" spans="1:20">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3797,7 +3799,7 @@
       <c r="S33" s="22"/>
       <c r="T33" s="22"/>
     </row>
-    <row r="34" customFormat="1" ht="15.75" spans="1:20">
+    <row r="34" customFormat="1" ht="15.5" spans="1:20">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -3819,7 +3821,7 @@
       <c r="S34" s="22"/>
       <c r="T34" s="22"/>
     </row>
-    <row r="35" customFormat="1" ht="15.75" spans="1:20">
+    <row r="35" customFormat="1" ht="15.5" spans="1:20">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -3841,7 +3843,7 @@
       <c r="S35" s="22"/>
       <c r="T35" s="22"/>
     </row>
-    <row r="36" customFormat="1" ht="15.75" spans="1:20">
+    <row r="36" customFormat="1" ht="15.5" spans="1:20">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -3863,7 +3865,7 @@
       <c r="S36" s="22"/>
       <c r="T36" s="22"/>
     </row>
-    <row r="37" customFormat="1" ht="15.75" spans="1:20">
+    <row r="37" customFormat="1" ht="15.5" spans="1:20">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -3885,7 +3887,7 @@
       <c r="S37" s="22"/>
       <c r="T37" s="22"/>
     </row>
-    <row r="38" customFormat="1" ht="15.75" spans="1:20">
+    <row r="38" customFormat="1" ht="15.5" spans="1:20">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -3907,7 +3909,7 @@
       <c r="S38" s="22"/>
       <c r="T38" s="22"/>
     </row>
-    <row r="39" customFormat="1" ht="15.75" spans="1:20">
+    <row r="39" customFormat="1" ht="15.5" spans="1:20">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12330"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Doing" sheetId="1" r:id="rId1"/>
@@ -463,10 +463,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -964,7 +964,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -973,10 +973,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -985,7 +985,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1109,7 +1109,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1175,6 +1175,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1500,13 +1503,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="5.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
@@ -1520,7 +1523,7 @@
     <col min="11" max="20" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:20">
+    <row r="1" ht="15.75" spans="1:20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1582,7 +1585,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.5" spans="1:20">
+    <row r="2" customFormat="1" ht="15.75" spans="1:20">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -1604,10 +1607,10 @@
       <c r="G2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>28</v>
       </c>
       <c r="J2" s="24" t="s">
@@ -1644,457 +1647,468 @@
         <v>45670</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A3" s="4" t="s">
+    <row r="3" customFormat="1" ht="15.75" spans="1:20">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+    </row>
+    <row r="4" customFormat="1" ht="15.75" spans="1:20">
+      <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J4" s="9">
         <v>45556</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K4" s="9">
         <v>45566</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L4" s="9">
         <v>45574</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M4" s="9">
         <v>45584</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N4" s="9">
         <v>45591</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O4" s="9">
         <v>45598</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P4" s="9">
         <v>45605</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q4" s="9">
         <v>45612</v>
       </c>
-      <c r="R3" s="9">
+      <c r="R4" s="9">
         <v>45615</v>
       </c>
-      <c r="S3" s="9">
+      <c r="S4" s="9">
         <v>45619</v>
       </c>
-      <c r="T3" s="9">
+      <c r="T4" s="9">
         <v>45623</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9">
+    <row r="5" customFormat="1" ht="15.75" spans="1:20">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9">
         <v>45633</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L5" s="9">
         <v>45640</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M5" s="9">
         <v>45647</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N5" s="9">
         <v>45654</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O5" s="9">
         <v>45661</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P5" s="9">
         <v>45668</v>
       </c>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-    </row>
-    <row r="5" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A5" s="4" t="s">
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+    </row>
+    <row r="6" customFormat="1" ht="15.75" spans="1:20">
+      <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K6" s="12">
         <v>45551</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L6" s="9">
         <v>45557</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M6" s="9">
         <v>45563</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N6" s="9">
         <v>45567</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O6" s="9">
         <v>45578</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P6" s="9">
         <v>45585</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q6" s="9">
         <v>45592</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R6" s="9">
         <v>45599</v>
       </c>
-      <c r="S5" s="9">
+      <c r="S6" s="9">
         <v>45613</v>
       </c>
-      <c r="T5" s="9">
+      <c r="T6" s="9">
         <v>45620</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9">
+    <row r="7" customFormat="1" ht="15.75" spans="1:20">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9">
         <v>45627</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L7" s="9">
         <v>45641</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M7" s="9">
         <v>45648</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N7" s="9">
         <v>45655</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O7" s="9">
         <v>45662</v>
       </c>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-    </row>
-    <row r="7" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A7" s="4" t="s">
+      <c r="P7" s="9"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+    </row>
+    <row r="8" customFormat="1" ht="15.75" spans="1:20">
+      <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K8" s="9">
         <v>45557</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L8" s="9">
         <v>45566</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M8" s="9">
         <v>45572</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N8" s="9">
         <v>45585</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O8" s="9">
         <v>45592</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P8" s="9">
         <v>45599</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q8" s="9">
         <v>45606</v>
       </c>
-      <c r="R7" s="9">
+      <c r="R8" s="9">
         <v>45613</v>
       </c>
-      <c r="S7" s="9">
+      <c r="S8" s="9">
         <v>45620</v>
       </c>
-      <c r="T7" s="9">
+      <c r="T8" s="9">
         <v>45627</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9">
+    <row r="9" customFormat="1" ht="15.75" spans="1:20">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9">
         <v>45641</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L9" s="9">
         <v>45648</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M9" s="9">
         <v>45662</v>
       </c>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-    </row>
-    <row r="9" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A9" s="4" t="s">
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+    </row>
+    <row r="10" customFormat="1" ht="15.75" spans="1:20">
+      <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K10" s="9">
         <v>45551</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L10" s="9">
         <v>45556</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M10" s="9">
         <v>45563</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N10" s="9">
         <v>45566</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O10" s="9">
         <v>45567</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P10" s="9">
         <v>45572</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q10" s="9">
         <v>45577</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R10" s="9">
         <v>45578</v>
       </c>
-      <c r="S9" s="9">
+      <c r="S10" s="9">
         <v>45585</v>
       </c>
-      <c r="T9" s="9">
+      <c r="T10" s="9">
         <v>45592</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9">
+    <row r="11" customFormat="1" ht="15.75" spans="1:20">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9">
         <v>45599</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L11" s="9">
         <v>45606</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M11" s="9">
         <v>45613</v>
       </c>
-      <c r="N10" s="21">
+      <c r="N11" s="21">
         <v>45627</v>
       </c>
-      <c r="O10" s="21">
+      <c r="O11" s="21">
         <v>45641</v>
       </c>
-      <c r="P10" s="21">
+      <c r="P11" s="21">
         <v>45648</v>
       </c>
-      <c r="Q10" s="21">
+      <c r="Q11" s="21">
         <v>45655</v>
       </c>
-      <c r="R10" s="21">
+      <c r="R11" s="21">
         <v>45662</v>
       </c>
-      <c r="S10" s="21">
+      <c r="S11" s="21">
         <v>45669</v>
       </c>
-      <c r="T10" s="20"/>
-    </row>
-    <row r="11" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A11" s="5" t="s">
+      <c r="T11" s="20"/>
+    </row>
+    <row r="12" customFormat="1" ht="15.75" spans="1:20">
+      <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J12" s="12">
         <v>45451</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K12" s="12">
         <v>45460</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L12" s="12">
         <v>45465</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M12" s="12">
         <v>45514</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N12" s="12">
         <v>45527</v>
       </c>
-      <c r="O11" s="21">
+      <c r="O12" s="9">
         <v>45658</v>
       </c>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-    </row>
-    <row r="17" s="20" customFormat="1" ht="15.5"/>
-    <row r="18" s="20" customFormat="1" ht="15.5"/>
-    <row r="19" s="20" customFormat="1" ht="15.5"/>
-    <row r="20" s="20" customFormat="1" ht="15.5"/>
-    <row r="21" s="20" customFormat="1" ht="15.5"/>
-    <row r="22" s="20" customFormat="1" ht="15.5" spans="1:9">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-    </row>
-    <row r="23" s="20" customFormat="1" ht="15.5" spans="1:9">
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+    </row>
+    <row r="18" s="20" customFormat="1" ht="15.75"/>
+    <row r="19" s="20" customFormat="1" ht="15.75"/>
+    <row r="20" s="20" customFormat="1" ht="15.75"/>
+    <row r="21" s="20" customFormat="1" ht="15.75"/>
+    <row r="22" s="20" customFormat="1" ht="15.75"/>
+    <row r="23" s="20" customFormat="1" ht="15.75" spans="1:9">
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
@@ -2105,24 +2119,21 @@
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" ht="17.5" spans="2:13">
-      <c r="B24" s="8" t="s">
+    <row r="24" s="20" customFormat="1" ht="15.75" spans="1:9">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+    </row>
+    <row r="25" ht="18.75" spans="2:13">
+      <c r="B25" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-    </row>
-    <row r="25" ht="17.5" spans="2:13">
-      <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2130,12 +2141,12 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-    </row>
-    <row r="26" ht="17.5" spans="2:12">
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+    </row>
+    <row r="26" ht="18.75" spans="2:13">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -2144,10 +2155,12 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-    </row>
-    <row r="27" ht="17.5" spans="2:13">
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+    </row>
+    <row r="27" ht="18.75" spans="2:12">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -2156,12 +2169,10 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-    </row>
-    <row r="28" ht="17.5" spans="2:13">
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+    </row>
+    <row r="28" ht="18.75" spans="2:13">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -2170,53 +2181,73 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+    </row>
+    <row r="29" ht="18.75" spans="2:13">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="B24:I28"/>
+  <mergeCells count="46">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="B25:I29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -2233,7 +2264,7 @@
       <selection activeCell="A27" sqref="$A27:$XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="4.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
@@ -2248,7 +2279,7 @@
     <col min="22" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:21">
+    <row r="1" ht="15.75" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2313,7 +2344,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.5" spans="1:21">
+    <row r="2" customFormat="1" ht="15.75" spans="1:21">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -2378,7 +2409,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15.5" spans="1:19">
+    <row r="3" customFormat="1" ht="15.75" spans="1:19">
       <c r="A3" s="4" t="s">
         <v>63</v>
       </c>
@@ -2437,7 +2468,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.5" spans="1:11">
+    <row r="4" customFormat="1" ht="15.75" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -2472,7 +2503,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15.5" spans="1:20">
+    <row r="5" customFormat="1" ht="15.75" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -2532,7 +2563,7 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" customFormat="1" ht="15.5" spans="1:20">
+    <row r="6" customFormat="1" ht="15.75" spans="1:20">
       <c r="A6" s="4" t="s">
         <v>63</v>
       </c>
@@ -2594,7 +2625,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.5" spans="1:20">
+    <row r="7" customFormat="1" ht="15.75" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -2681,7 +2712,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" customFormat="1" ht="15.5" spans="1:20">
+    <row r="9" customFormat="1" ht="15.75" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -2743,7 +2774,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.5" spans="1:20">
+    <row r="10" customFormat="1" ht="15.75" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2785,7 +2816,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15.5" spans="1:20">
+    <row r="11" customFormat="1" ht="15.75" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2827,7 +2858,7 @@
         <v>45445</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15.5" spans="1:20">
+    <row r="12" customFormat="1" ht="15.75" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2851,7 +2882,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" customFormat="1" ht="15.5" spans="1:20">
+    <row r="13" customFormat="1" ht="15.75" spans="1:20">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -2913,7 +2944,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="15.5" spans="1:20">
+    <row r="14" customFormat="1" ht="15.75" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2937,7 +2968,7 @@
       <c r="S14" s="16"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" customFormat="1" ht="15.5" spans="1:20">
+    <row r="15" customFormat="1" ht="15.75" spans="1:20">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -2993,7 +3024,7 @@
       <c r="S15" s="16"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" customFormat="1" ht="15.5" spans="1:20">
+    <row r="16" customFormat="1" ht="15.75" spans="1:20">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -3055,7 +3086,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="15.5" spans="1:20">
+    <row r="17" customFormat="1" ht="15.75" spans="1:20">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -3117,7 +3148,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="15.5" spans="1:20">
+    <row r="18" customFormat="1" ht="15.75" spans="1:20">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -3149,7 +3180,7 @@
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
     </row>
-    <row r="19" customFormat="1" ht="15.5" spans="1:20">
+    <row r="19" customFormat="1" ht="15.75" spans="1:20">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -3211,7 +3242,7 @@
         <v>45451</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="15.5" spans="1:20">
+    <row r="20" customFormat="1" ht="15.75" spans="1:20">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3243,7 +3274,7 @@
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
     </row>
-    <row r="21" customFormat="1" ht="15.5" spans="1:20">
+    <row r="21" customFormat="1" ht="15.75" spans="1:20">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -3305,7 +3336,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="15.5" spans="1:20">
+    <row r="22" customFormat="1" ht="15.75" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3347,7 +3378,7 @@
         <v>45423</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15.5" spans="1:20">
+    <row r="23" customFormat="1" ht="15.75" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3379,7 +3410,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" customFormat="1" ht="15.5" spans="1:20">
+    <row r="24" customFormat="1" ht="15.75" spans="1:20">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
@@ -3441,7 +3472,7 @@
         <v>45325</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="15.5" spans="1:20">
+    <row r="25" customFormat="1" ht="15.75" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3483,7 +3514,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15.5" spans="1:20">
+    <row r="26" s="1" customFormat="1" ht="15.75" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3521,7 +3552,7 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="28" customFormat="1" ht="15.5" spans="1:20">
+    <row r="28" customFormat="1" ht="15.75" spans="1:20">
       <c r="A28" s="5" t="s">
         <v>121</v>
       </c>
@@ -3565,7 +3596,7 @@
       <c r="S28" s="21"/>
       <c r="T28" s="21"/>
     </row>
-    <row r="29" customFormat="1" ht="15.5" spans="1:20">
+    <row r="29" customFormat="1" ht="15.75" spans="1:20">
       <c r="A29" s="5" t="s">
         <v>20</v>
       </c>
@@ -3619,7 +3650,7 @@
       <c r="S29" s="16"/>
       <c r="T29" s="16"/>
     </row>
-    <row r="30" customFormat="1" ht="15.5" spans="1:18">
+    <row r="30" customFormat="1" ht="15.75" spans="1:18">
       <c r="A30" s="5" t="s">
         <v>20</v>
       </c>
@@ -3661,7 +3692,7 @@
       <c r="Q30" s="16"/>
       <c r="R30" s="16"/>
     </row>
-    <row r="31" customFormat="1" ht="15.5" spans="1:20">
+    <row r="31" customFormat="1" ht="15.75" spans="1:20">
       <c r="A31" s="5" t="s">
         <v>133</v>
       </c>
@@ -3715,7 +3746,7 @@
       <c r="S31" s="20"/>
       <c r="T31" s="20"/>
     </row>
-    <row r="32" customFormat="1" ht="15.5" spans="1:20">
+    <row r="32" customFormat="1" ht="15.75" spans="1:20">
       <c r="A32" s="5" t="s">
         <v>20</v>
       </c>
@@ -3777,7 +3808,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="33" customFormat="1" ht="15.5" spans="1:20">
+    <row r="33" customFormat="1" ht="15.75" spans="1:20">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3799,7 +3830,7 @@
       <c r="S33" s="22"/>
       <c r="T33" s="22"/>
     </row>
-    <row r="34" customFormat="1" ht="15.5" spans="1:20">
+    <row r="34" customFormat="1" ht="15.75" spans="1:20">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -3821,7 +3852,7 @@
       <c r="S34" s="22"/>
       <c r="T34" s="22"/>
     </row>
-    <row r="35" customFormat="1" ht="15.5" spans="1:20">
+    <row r="35" customFormat="1" ht="15.75" spans="1:20">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -3843,7 +3874,7 @@
       <c r="S35" s="22"/>
       <c r="T35" s="22"/>
     </row>
-    <row r="36" customFormat="1" ht="15.5" spans="1:20">
+    <row r="36" customFormat="1" ht="15.75" spans="1:20">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -3865,7 +3896,7 @@
       <c r="S36" s="22"/>
       <c r="T36" s="22"/>
     </row>
-    <row r="37" customFormat="1" ht="15.5" spans="1:20">
+    <row r="37" customFormat="1" ht="15.75" spans="1:20">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -3887,7 +3918,7 @@
       <c r="S37" s="22"/>
       <c r="T37" s="22"/>
     </row>
-    <row r="38" customFormat="1" ht="15.5" spans="1:20">
+    <row r="38" customFormat="1" ht="15.75" spans="1:20">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -3909,7 +3940,7 @@
       <c r="S38" s="22"/>
       <c r="T38" s="22"/>
     </row>
-    <row r="39" customFormat="1" ht="15.5" spans="1:20">
+    <row r="39" customFormat="1" ht="15.75" spans="1:20">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="25600" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Doing" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="147">
   <si>
     <t>年级</t>
   </si>
@@ -101,7 +101,7 @@
     <t>70中</t>
   </si>
   <si>
-    <t>60/150</t>
+    <t>43/150</t>
   </si>
   <si>
     <t>240/2h</t>
@@ -158,7 +158,7 @@
     <t>周日17：00-19：00</t>
   </si>
   <si>
-    <t>30/90</t>
+    <t>39/90</t>
   </si>
   <si>
     <t>一尔优教育</t>
@@ -337,6 +337,9 @@
     <t>19中</t>
   </si>
   <si>
+    <t>30/90</t>
+  </si>
+  <si>
     <t>周三周五19：20-21：20</t>
   </si>
   <si>
@@ -395,6 +398,9 @@
   </si>
   <si>
     <t>丽园路轩和苑C区 3-2-102</t>
+  </si>
+  <si>
+    <t>60/150</t>
   </si>
   <si>
     <t>周六17：10-19：10</t>
@@ -463,10 +469,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -964,7 +970,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -973,10 +979,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -985,7 +991,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1109,7 +1115,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1175,9 +1181,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1506,10 +1509,10 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="5.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
@@ -1523,7 +1526,7 @@
     <col min="11" max="20" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:20">
+    <row r="1" ht="15.5" spans="1:20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1585,7 +1588,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.75" spans="1:20">
+    <row r="2" customFormat="1" ht="15.5" spans="1:20">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -1647,7 +1650,7 @@
         <v>45670</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15.75" spans="1:20">
+    <row r="3" customFormat="1" ht="15.5" spans="1:20">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1658,10 +1661,14 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="24"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
+      <c r="K3" s="21">
+        <v>45675</v>
+      </c>
+      <c r="L3" s="21">
+        <v>45676</v>
+      </c>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
       <c r="O3" s="21"/>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
@@ -1669,7 +1676,7 @@
       <c r="S3" s="21"/>
       <c r="T3" s="21"/>
     </row>
-    <row r="4" customFormat="1" ht="15.75" spans="1:20">
+    <row r="4" customFormat="1" ht="15.5" spans="1:20">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -1731,7 +1738,7 @@
         <v>45623</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15.75" spans="1:20">
+    <row r="5" customFormat="1" ht="15.5" spans="1:20">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1760,12 +1767,14 @@
       <c r="P5" s="9">
         <v>45668</v>
       </c>
-      <c r="Q5" s="21"/>
+      <c r="Q5" s="21">
+        <v>45676</v>
+      </c>
       <c r="R5" s="21"/>
       <c r="S5" s="21"/>
       <c r="T5" s="21"/>
     </row>
-    <row r="6" customFormat="1" ht="15.75" spans="1:20">
+    <row r="6" customFormat="1" ht="15.5" spans="1:20">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1827,7 +1836,7 @@
         <v>45620</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.75" spans="1:20">
+    <row r="7" customFormat="1" ht="15.5" spans="1:20">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1854,12 +1863,12 @@
         <v>45662</v>
       </c>
       <c r="P7" s="9"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
       <c r="S7" s="21"/>
       <c r="T7" s="21"/>
     </row>
-    <row r="8" customFormat="1" ht="15.75" spans="1:20">
+    <row r="8" customFormat="1" ht="15.5" spans="1:20">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -1921,7 +1930,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="9" customFormat="1" ht="15.75" spans="1:20">
+    <row r="9" customFormat="1" ht="15.5" spans="1:20">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1949,7 +1958,7 @@
       <c r="S9" s="21"/>
       <c r="T9" s="21"/>
     </row>
-    <row r="10" customFormat="1" ht="15.75" spans="1:20">
+    <row r="10" customFormat="1" ht="15.5" spans="1:20">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
@@ -2011,7 +2020,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15.75" spans="1:20">
+    <row r="11" customFormat="1" ht="15.5" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2051,7 +2060,7 @@
       </c>
       <c r="T11" s="20"/>
     </row>
-    <row r="12" customFormat="1" ht="15.75" spans="1:20">
+    <row r="12" customFormat="1" ht="15.5" spans="1:20">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
@@ -2103,12 +2112,12 @@
       <c r="S12" s="16"/>
       <c r="T12" s="16"/>
     </row>
-    <row r="18" s="20" customFormat="1" ht="15.75"/>
-    <row r="19" s="20" customFormat="1" ht="15.75"/>
-    <row r="20" s="20" customFormat="1" ht="15.75"/>
-    <row r="21" s="20" customFormat="1" ht="15.75"/>
-    <row r="22" s="20" customFormat="1" ht="15.75"/>
-    <row r="23" s="20" customFormat="1" ht="15.75" spans="1:9">
+    <row r="18" s="20" customFormat="1" ht="15.5"/>
+    <row r="19" s="20" customFormat="1" ht="15.5"/>
+    <row r="20" s="20" customFormat="1" ht="15.5"/>
+    <row r="21" s="20" customFormat="1" ht="15.5"/>
+    <row r="22" s="20" customFormat="1" ht="15.5"/>
+    <row r="23" s="20" customFormat="1" ht="15.5" spans="1:9">
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
@@ -2119,7 +2128,7 @@
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" s="20" customFormat="1" ht="15.75" spans="1:9">
+    <row r="24" s="20" customFormat="1" ht="15.5" spans="1:9">
       <c r="A24" s="23"/>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
@@ -2130,7 +2139,7 @@
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
     </row>
-    <row r="25" ht="18.75" spans="2:13">
+    <row r="25" ht="17.5" spans="2:13">
       <c r="B25" s="8" t="s">
         <v>54</v>
       </c>
@@ -2141,12 +2150,12 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-    </row>
-    <row r="26" ht="18.75" spans="2:13">
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+    </row>
+    <row r="26" ht="17.5" spans="2:13">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -2155,12 +2164,12 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-    </row>
-    <row r="27" ht="18.75" spans="2:12">
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+    </row>
+    <row r="27" ht="17.5" spans="2:12">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -2169,10 +2178,10 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-    </row>
-    <row r="28" ht="18.75" spans="2:13">
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+    </row>
+    <row r="28" ht="17.5" spans="2:13">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -2181,12 +2190,12 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-    </row>
-    <row r="29" ht="18.75" spans="2:13">
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+    </row>
+    <row r="29" ht="17.5" spans="2:13">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -2195,10 +2204,10 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="46">
@@ -2264,7 +2273,7 @@
       <selection activeCell="A27" sqref="$A27:$XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="4.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
@@ -2279,7 +2288,7 @@
     <col min="22" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:21">
+    <row r="1" ht="15.5" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2344,7 +2353,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.75" spans="1:21">
+    <row r="2" customFormat="1" ht="15.5" spans="1:21">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -2409,7 +2418,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15.75" spans="1:19">
+    <row r="3" customFormat="1" ht="15.5" spans="1:19">
       <c r="A3" s="4" t="s">
         <v>63</v>
       </c>
@@ -2468,7 +2477,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.75" spans="1:11">
+    <row r="4" customFormat="1" ht="15.5" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -2503,7 +2512,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15.75" spans="1:20">
+    <row r="5" customFormat="1" ht="15.5" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -2563,7 +2572,7 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" customFormat="1" ht="15.75" spans="1:20">
+    <row r="6" customFormat="1" ht="15.5" spans="1:20">
       <c r="A6" s="4" t="s">
         <v>63</v>
       </c>
@@ -2625,7 +2634,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.75" spans="1:20">
+    <row r="7" customFormat="1" ht="15.5" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -2712,7 +2721,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" customFormat="1" ht="15.75" spans="1:20">
+    <row r="9" customFormat="1" ht="15.5" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -2774,7 +2783,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.75" spans="1:20">
+    <row r="10" customFormat="1" ht="15.5" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2816,7 +2825,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15.75" spans="1:20">
+    <row r="11" customFormat="1" ht="15.5" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2858,7 +2867,7 @@
         <v>45445</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15.75" spans="1:20">
+    <row r="12" customFormat="1" ht="15.5" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2882,7 +2891,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" customFormat="1" ht="15.75" spans="1:20">
+    <row r="13" customFormat="1" ht="15.5" spans="1:20">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -2944,7 +2953,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="15.75" spans="1:20">
+    <row r="14" customFormat="1" ht="15.5" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2968,7 +2977,7 @@
       <c r="S14" s="16"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" customFormat="1" ht="15.75" spans="1:20">
+    <row r="15" customFormat="1" ht="15.5" spans="1:20">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -3024,7 +3033,7 @@
       <c r="S15" s="16"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" customFormat="1" ht="15.75" spans="1:20">
+    <row r="16" customFormat="1" ht="15.5" spans="1:20">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -3050,7 +3059,7 @@
         <v>105</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="J16" s="11" t="s">
         <v>22</v>
@@ -3086,7 +3095,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="15.75" spans="1:20">
+    <row r="17" customFormat="1" ht="15.5" spans="1:20">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -3100,19 +3109,19 @@
         <v>29</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>104</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J17" s="17" t="s">
         <v>22</v>
@@ -3148,7 +3157,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="15.75" spans="1:20">
+    <row r="18" customFormat="1" ht="15.5" spans="1:20">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -3180,7 +3189,7 @@
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
     </row>
-    <row r="19" customFormat="1" ht="15.75" spans="1:20">
+    <row r="19" customFormat="1" ht="15.5" spans="1:20">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -3194,16 +3203,16 @@
         <v>29</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>104</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>34</v>
@@ -3242,7 +3251,7 @@
         <v>45451</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="15.75" spans="1:20">
+    <row r="20" customFormat="1" ht="15.5" spans="1:20">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3274,7 +3283,7 @@
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
     </row>
-    <row r="21" customFormat="1" ht="15.75" spans="1:20">
+    <row r="21" customFormat="1" ht="15.5" spans="1:20">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -3288,19 +3297,19 @@
         <v>29</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>22</v>
@@ -3336,7 +3345,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="15.75" spans="1:20">
+    <row r="22" customFormat="1" ht="15.5" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3378,7 +3387,7 @@
         <v>45423</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15.75" spans="1:20">
+    <row r="23" customFormat="1" ht="15.5" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3410,7 +3419,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" customFormat="1" ht="15.75" spans="1:20">
+    <row r="24" customFormat="1" ht="15.5" spans="1:20">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
@@ -3424,16 +3433,16 @@
         <v>29</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>101</v>
@@ -3472,7 +3481,7 @@
         <v>45325</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="15.75" spans="1:20">
+    <row r="25" customFormat="1" ht="15.5" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3514,7 +3523,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15.75" spans="1:20">
+    <row r="26" s="1" customFormat="1" ht="15.5" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3552,9 +3561,9 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="28" customFormat="1" ht="15.75" spans="1:20">
+    <row r="28" customFormat="1" ht="15.5" spans="1:20">
       <c r="A28" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>21</v>
@@ -3563,22 +3572,22 @@
         <v>48</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>22</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="J28" s="12" t="s">
         <v>22</v>
@@ -3596,7 +3605,7 @@
       <c r="S28" s="21"/>
       <c r="T28" s="21"/>
     </row>
-    <row r="29" customFormat="1" ht="15.75" spans="1:20">
+    <row r="29" customFormat="1" ht="15.5" spans="1:20">
       <c r="A29" s="5" t="s">
         <v>20</v>
       </c>
@@ -3610,10 +3619,10 @@
         <v>29</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>104</v>
@@ -3650,7 +3659,7 @@
       <c r="S29" s="16"/>
       <c r="T29" s="16"/>
     </row>
-    <row r="30" customFormat="1" ht="15.75" spans="1:18">
+    <row r="30" customFormat="1" ht="15.5" spans="1:18">
       <c r="A30" s="5" t="s">
         <v>20</v>
       </c>
@@ -3661,22 +3670,22 @@
         <v>22</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>52</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J30" s="12" t="s">
         <v>22</v>
@@ -3692,33 +3701,33 @@
       <c r="Q30" s="16"/>
       <c r="R30" s="16"/>
     </row>
-    <row r="31" customFormat="1" ht="15.75" spans="1:20">
+    <row r="31" customFormat="1" ht="15.5" spans="1:20">
       <c r="A31" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>61</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J31" s="9">
         <v>45543</v>
@@ -3746,7 +3755,7 @@
       <c r="S31" s="20"/>
       <c r="T31" s="20"/>
     </row>
-    <row r="32" customFormat="1" ht="15.75" spans="1:20">
+    <row r="32" customFormat="1" ht="15.5" spans="1:20">
       <c r="A32" s="5" t="s">
         <v>20</v>
       </c>
@@ -3754,25 +3763,25 @@
         <v>21</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>61</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J32" s="12" t="s">
         <v>22</v>
@@ -3808,7 +3817,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="33" customFormat="1" ht="15.75" spans="1:20">
+    <row r="33" customFormat="1" ht="15.5" spans="1:20">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3830,7 +3839,7 @@
       <c r="S33" s="22"/>
       <c r="T33" s="22"/>
     </row>
-    <row r="34" customFormat="1" ht="15.75" spans="1:20">
+    <row r="34" customFormat="1" ht="15.5" spans="1:20">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -3852,7 +3861,7 @@
       <c r="S34" s="22"/>
       <c r="T34" s="22"/>
     </row>
-    <row r="35" customFormat="1" ht="15.75" spans="1:20">
+    <row r="35" customFormat="1" ht="15.5" spans="1:20">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -3874,7 +3883,7 @@
       <c r="S35" s="22"/>
       <c r="T35" s="22"/>
     </row>
-    <row r="36" customFormat="1" ht="15.75" spans="1:20">
+    <row r="36" customFormat="1" ht="15.5" spans="1:20">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -3896,7 +3905,7 @@
       <c r="S36" s="22"/>
       <c r="T36" s="22"/>
     </row>
-    <row r="37" customFormat="1" ht="15.75" spans="1:20">
+    <row r="37" customFormat="1" ht="15.5" spans="1:20">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -3918,7 +3927,7 @@
       <c r="S37" s="22"/>
       <c r="T37" s="22"/>
     </row>
-    <row r="38" customFormat="1" ht="15.75" spans="1:20">
+    <row r="38" customFormat="1" ht="15.5" spans="1:20">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -3940,7 +3949,7 @@
       <c r="S38" s="22"/>
       <c r="T38" s="22"/>
     </row>
-    <row r="39" customFormat="1" ht="15.75" spans="1:20">
+    <row r="39" customFormat="1" ht="15.5" spans="1:20">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -3964,7 +3973,7 @@
     </row>
     <row r="40" spans="2:11">
       <c r="B40" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -161,24 +161,6 @@
     <t>39/90</t>
   </si>
   <si>
-    <t>一尔优教育</t>
-  </si>
-  <si>
-    <t>周六12：00-14：00</t>
-  </si>
-  <si>
-    <t>张佳宁</t>
-  </si>
-  <si>
-    <t>耳鼻喉科专科医院旁巷子201室</t>
-  </si>
-  <si>
-    <t>13中</t>
-  </si>
-  <si>
-    <t>85/100</t>
-  </si>
-  <si>
     <t>转账时间(灰色表示线上上课（课时费1小时100），绿色表示课时费已发)：
 精锐教育是当月15号；星期天培训下个月20号;
 下次考试目标：刘桐语：135，李梦媛：50，贾梦垚：130，郭润宁：100</t>
@@ -268,6 +250,9 @@
     <t>60/100</t>
   </si>
   <si>
+    <t>一尔优教育</t>
+  </si>
+  <si>
     <t>周日18：00-20：00</t>
   </si>
   <si>
@@ -316,6 +301,9 @@
     <t>邮区中心局小区3-4-602</t>
   </si>
   <si>
+    <t>13中</t>
+  </si>
+  <si>
     <t>李冰惠</t>
   </si>
   <si>
@@ -383,6 +371,18 @@
   </si>
   <si>
     <t>兵二分校</t>
+  </si>
+  <si>
+    <t>周六12：00-14：00</t>
+  </si>
+  <si>
+    <t>张佳宁</t>
+  </si>
+  <si>
+    <t>耳鼻喉科专科医院旁巷子201室</t>
+  </si>
+  <si>
+    <t>85/100</t>
   </si>
   <si>
     <t>高一</t>
@@ -1509,7 +1509,7 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1667,7 +1667,9 @@
       <c r="L3" s="21">
         <v>45676</v>
       </c>
-      <c r="M3" s="21"/>
+      <c r="M3" s="21">
+        <v>45677</v>
+      </c>
       <c r="N3" s="21"/>
       <c r="O3" s="21"/>
       <c r="P3" s="21"/>
@@ -2040,16 +2042,16 @@
       <c r="M11" s="9">
         <v>45613</v>
       </c>
-      <c r="N11" s="21">
+      <c r="N11" s="9">
         <v>45627</v>
       </c>
-      <c r="O11" s="21">
+      <c r="O11" s="9">
         <v>45641</v>
       </c>
-      <c r="P11" s="21">
+      <c r="P11" s="9">
         <v>45648</v>
       </c>
-      <c r="Q11" s="21">
+      <c r="Q11" s="9">
         <v>45655</v>
       </c>
       <c r="R11" s="21">
@@ -2060,58 +2062,7 @@
       </c>
       <c r="T11" s="20"/>
     </row>
-    <row r="12" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" s="12">
-        <v>45451</v>
-      </c>
-      <c r="K12" s="12">
-        <v>45460</v>
-      </c>
-      <c r="L12" s="12">
-        <v>45465</v>
-      </c>
-      <c r="M12" s="12">
-        <v>45514</v>
-      </c>
-      <c r="N12" s="12">
-        <v>45527</v>
-      </c>
-      <c r="O12" s="9">
-        <v>45658</v>
-      </c>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-    </row>
+    <row r="12" customFormat="1"/>
     <row r="18" s="20" customFormat="1" ht="15.5"/>
     <row r="19" s="20" customFormat="1" ht="15.5"/>
     <row r="20" s="20" customFormat="1" ht="15.5"/>
@@ -2141,7 +2092,7 @@
     </row>
     <row r="25" ht="17.5" spans="2:13">
       <c r="B25" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -2270,7 +2221,7 @@
   <dimension ref="A1:U46"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A27" sqref="$A27:$XFD27"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2350,7 +2301,7 @@
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="15.5" spans="1:21">
@@ -2361,25 +2312,25 @@
         <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="J2" s="9">
         <v>45185</v>
@@ -2420,31 +2371,31 @@
     </row>
     <row r="3" customFormat="1" ht="15.5" spans="1:19">
       <c r="A3" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>22</v>
@@ -2485,25 +2436,25 @@
         <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="J4" s="9">
         <v>45287</v>
@@ -2520,25 +2471,25 @@
         <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>22</v>
@@ -2574,31 +2525,31 @@
     </row>
     <row r="6" customFormat="1" ht="15.5" spans="1:20">
       <c r="A6" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>39</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="J6" s="9">
         <v>45320</v>
@@ -2642,25 +2593,25 @@
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>39</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>22</v>
@@ -2688,25 +2639,25 @@
         <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H8" s="6">
         <v>126</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J8" s="14">
         <v>45425</v>
@@ -2729,25 +2680,25 @@
         <v>44</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="J9" s="9">
         <v>45186</v>
@@ -2899,25 +2850,25 @@
         <v>21</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="J13" s="17" t="s">
         <v>22</v>
@@ -2985,25 +2936,25 @@
         <v>21</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>22</v>
@@ -3041,25 +2992,25 @@
         <v>44</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I16" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="J16" s="11" t="s">
         <v>22</v>
@@ -3103,25 +3054,25 @@
         <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J17" s="17" t="s">
         <v>22</v>
@@ -3197,22 +3148,22 @@
         <v>21</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>34</v>
@@ -3291,25 +3242,25 @@
         <v>21</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E21" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>22</v>
@@ -3427,25 +3378,25 @@
         <v>21</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J24" s="19" t="s">
         <v>22</v>
@@ -3561,6 +3512,58 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
+    <row r="27" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J27" s="12">
+        <v>45451</v>
+      </c>
+      <c r="K27" s="12">
+        <v>45460</v>
+      </c>
+      <c r="L27" s="12">
+        <v>45465</v>
+      </c>
+      <c r="M27" s="12">
+        <v>45514</v>
+      </c>
+      <c r="N27" s="12">
+        <v>45527</v>
+      </c>
+      <c r="O27" s="9">
+        <v>45658</v>
+      </c>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+    </row>
     <row r="28" customFormat="1" ht="15.5" spans="1:20">
       <c r="A28" s="5" t="s">
         <v>122</v>
@@ -3569,7 +3572,7 @@
         <v>21</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>123</v>
@@ -3613,7 +3616,7 @@
         <v>44</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>29</v>
@@ -3625,13 +3628,13 @@
         <v>129</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="J29" s="12" t="s">
         <v>22</v>
@@ -3682,7 +3685,7 @@
         <v>133</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>134</v>
@@ -3724,7 +3727,7 @@
         <v>139</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>140</v>
@@ -3778,7 +3781,7 @@
         <v>144</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>145</v>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -1509,7 +1509,7 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1670,7 +1670,9 @@
       <c r="M3" s="21">
         <v>45677</v>
       </c>
-      <c r="N3" s="21"/>
+      <c r="N3" s="21">
+        <v>45678</v>
+      </c>
       <c r="O3" s="21"/>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
@@ -2062,7 +2064,6 @@
       </c>
       <c r="T11" s="20"/>
     </row>
-    <row r="12" customFormat="1"/>
     <row r="18" s="20" customFormat="1" ht="15.5"/>
     <row r="19" s="20" customFormat="1" ht="15.5"/>
     <row r="20" s="20" customFormat="1" ht="15.5"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -1509,7 +1509,7 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1673,10 +1673,18 @@
       <c r="N3" s="21">
         <v>45678</v>
       </c>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
+      <c r="O3" s="21">
+        <v>45679</v>
+      </c>
+      <c r="P3" s="21">
+        <v>45680</v>
+      </c>
+      <c r="Q3" s="21">
+        <v>45681</v>
+      </c>
+      <c r="R3" s="21">
+        <v>45682</v>
+      </c>
       <c r="S3" s="21"/>
       <c r="T3" s="21"/>
     </row>
@@ -1774,7 +1782,9 @@
       <c r="Q5" s="21">
         <v>45676</v>
       </c>
-      <c r="R5" s="21"/>
+      <c r="R5" s="21">
+        <v>45682</v>
+      </c>
       <c r="S5" s="21"/>
       <c r="T5" s="21"/>
     </row>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -163,7 +163,7 @@
   <si>
     <t>转账时间(灰色表示线上上课（课时费1小时100），绿色表示课时费已发)：
 精锐教育是当月15号；星期天培训下个月20号;
-下次考试目标：刘桐语：135，李梦媛：50，贾梦垚：130，郭润宁：100</t>
+下次考试目标：刘桐语：135，李梦媛：数学90物理50，贾梦垚：130，郭润宁：100</t>
   </si>
   <si>
     <t>第11课</t>
@@ -1508,8 +1508,8 @@
   <sheetPr/>
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1631,22 +1631,22 @@
       <c r="N2" s="9">
         <v>45653</v>
       </c>
-      <c r="O2" s="21">
+      <c r="O2" s="9">
         <v>45658</v>
       </c>
-      <c r="P2" s="21">
+      <c r="P2" s="9">
         <v>45660</v>
       </c>
-      <c r="Q2" s="21">
+      <c r="Q2" s="9">
         <v>45663</v>
       </c>
-      <c r="R2" s="21">
+      <c r="R2" s="9">
         <v>45664</v>
       </c>
-      <c r="S2" s="21">
+      <c r="S2" s="9">
         <v>45667</v>
       </c>
-      <c r="T2" s="21">
+      <c r="T2" s="9">
         <v>45670</v>
       </c>
     </row>
@@ -1661,28 +1661,28 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="24"/>
-      <c r="K3" s="21">
+      <c r="K3" s="9">
         <v>45675</v>
       </c>
-      <c r="L3" s="21">
+      <c r="L3" s="9">
         <v>45676</v>
       </c>
-      <c r="M3" s="21">
+      <c r="M3" s="9">
         <v>45677</v>
       </c>
-      <c r="N3" s="21">
+      <c r="N3" s="9">
         <v>45678</v>
       </c>
-      <c r="O3" s="21">
+      <c r="O3" s="9">
         <v>45679</v>
       </c>
-      <c r="P3" s="21">
+      <c r="P3" s="9">
         <v>45680</v>
       </c>
-      <c r="Q3" s="21">
+      <c r="Q3" s="9">
         <v>45681</v>
       </c>
-      <c r="R3" s="21">
+      <c r="R3" s="9">
         <v>45682</v>
       </c>
       <c r="S3" s="21"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -162,7 +162,7 @@
   </si>
   <si>
     <t>转账时间(灰色表示线上上课（课时费1小时100），绿色表示课时费已发)：
-精锐教育是当月15号；星期天培训下个月20号;
+精锐教育是当月15号；星期天培训下个月20号;2月2日至2月7日，李梦媛每天上了2小时
 下次考试目标：刘桐语：135，李梦媛：数学90物理50，贾梦垚：130，郭润宁：100</t>
   </si>
   <si>
@@ -1506,17 +1506,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:I29"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="5.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
-    <col min="4" max="4" width="7.41666666666667" customWidth="1"/>
+    <col min="4" max="4" width="7.83333333333333" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="12.375" customWidth="1"/>
     <col min="7" max="7" width="35" customWidth="1"/>
@@ -1685,411 +1685,432 @@
       <c r="R3" s="9">
         <v>45682</v>
       </c>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
+      <c r="S3" s="21">
+        <v>45690</v>
+      </c>
+      <c r="T3" s="21">
+        <v>45691</v>
+      </c>
     </row>
     <row r="4" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="21">
+        <v>45692</v>
+      </c>
+      <c r="L4" s="21">
+        <v>45693</v>
+      </c>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+    </row>
+    <row r="5" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J5" s="9">
         <v>45556</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K5" s="9">
         <v>45566</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L5" s="9">
         <v>45574</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M5" s="9">
         <v>45584</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N5" s="9">
         <v>45591</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O5" s="9">
         <v>45598</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P5" s="9">
         <v>45605</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q5" s="9">
         <v>45612</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R5" s="9">
         <v>45615</v>
       </c>
-      <c r="S4" s="9">
+      <c r="S5" s="9">
         <v>45619</v>
       </c>
-      <c r="T4" s="9">
+      <c r="T5" s="9">
         <v>45623</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9">
+    <row r="6" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9">
         <v>45633</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L6" s="9">
         <v>45640</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M6" s="9">
         <v>45647</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N6" s="9">
         <v>45654</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O6" s="9">
         <v>45661</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P6" s="9">
         <v>45668</v>
       </c>
-      <c r="Q5" s="21">
+      <c r="Q6" s="21">
         <v>45676</v>
       </c>
-      <c r="R5" s="21">
+      <c r="R6" s="21">
         <v>45682</v>
       </c>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-    </row>
-    <row r="6" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A6" s="4" t="s">
+      <c r="S6" s="21">
+        <v>45692</v>
+      </c>
+      <c r="T6" s="21"/>
+    </row>
+    <row r="7" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K7" s="12">
         <v>45551</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L7" s="9">
         <v>45557</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M7" s="9">
         <v>45563</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N7" s="9">
         <v>45567</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O7" s="9">
         <v>45578</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P7" s="9">
         <v>45585</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q7" s="9">
         <v>45592</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R7" s="9">
         <v>45599</v>
       </c>
-      <c r="S6" s="9">
+      <c r="S7" s="9">
         <v>45613</v>
       </c>
-      <c r="T6" s="9">
+      <c r="T7" s="9">
         <v>45620</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9">
+    <row r="8" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9">
         <v>45627</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L8" s="9">
         <v>45641</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M8" s="9">
         <v>45648</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N8" s="9">
         <v>45655</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O8" s="9">
         <v>45662</v>
       </c>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-    </row>
-    <row r="8" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A8" s="4" t="s">
+      <c r="P8" s="9"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+    </row>
+    <row r="9" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K9" s="9">
         <v>45557</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L9" s="9">
         <v>45566</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M9" s="9">
         <v>45572</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N9" s="9">
         <v>45585</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O9" s="9">
         <v>45592</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P9" s="9">
         <v>45599</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q9" s="9">
         <v>45606</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R9" s="9">
         <v>45613</v>
       </c>
-      <c r="S8" s="9">
+      <c r="S9" s="9">
         <v>45620</v>
       </c>
-      <c r="T8" s="9">
+      <c r="T9" s="9">
         <v>45627</v>
       </c>
     </row>
-    <row r="9" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9">
+    <row r="10" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9">
         <v>45641</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L10" s="9">
         <v>45648</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M10" s="9">
         <v>45662</v>
       </c>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-    </row>
-    <row r="10" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A10" s="4" t="s">
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+    </row>
+    <row r="11" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K11" s="9">
         <v>45551</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L11" s="9">
         <v>45556</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M11" s="9">
         <v>45563</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N11" s="9">
         <v>45566</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O11" s="9">
         <v>45567</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P11" s="9">
         <v>45572</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="Q11" s="9">
         <v>45577</v>
       </c>
-      <c r="R10" s="9">
+      <c r="R11" s="9">
         <v>45578</v>
       </c>
-      <c r="S10" s="9">
+      <c r="S11" s="9">
         <v>45585</v>
       </c>
-      <c r="T10" s="9">
+      <c r="T11" s="9">
         <v>45592</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9">
+    <row r="12" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9">
         <v>45599</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L12" s="9">
         <v>45606</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M12" s="9">
         <v>45613</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N12" s="9">
         <v>45627</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O12" s="9">
         <v>45641</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P12" s="9">
         <v>45648</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q12" s="9">
         <v>45655</v>
       </c>
-      <c r="R11" s="21">
+      <c r="R12" s="21">
         <v>45662</v>
       </c>
-      <c r="S11" s="21">
+      <c r="S12" s="21">
         <v>45669</v>
       </c>
-      <c r="T11" s="20"/>
-    </row>
-    <row r="18" s="20" customFormat="1" ht="15.5"/>
+      <c r="T12" s="20"/>
+    </row>
     <row r="19" s="20" customFormat="1" ht="15.5"/>
     <row r="20" s="20" customFormat="1" ht="15.5"/>
     <row r="21" s="20" customFormat="1" ht="15.5"/>
     <row r="22" s="20" customFormat="1" ht="15.5"/>
-    <row r="23" s="20" customFormat="1" ht="15.5" spans="1:9">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-    </row>
+    <row r="23" s="20" customFormat="1" ht="15.5"/>
     <row r="24" s="20" customFormat="1" ht="15.5" spans="1:9">
       <c r="A24" s="23"/>
       <c r="B24" s="23"/>
@@ -2101,24 +2122,21 @@
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
     </row>
-    <row r="25" ht="17.5" spans="2:13">
-      <c r="B25" s="8" t="s">
+    <row r="25" s="20" customFormat="1" ht="15.5" spans="1:9">
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+    </row>
+    <row r="26" ht="17.5" spans="2:13">
+      <c r="B26" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-    </row>
-    <row r="26" ht="17.5" spans="2:13">
-      <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2131,7 +2149,7 @@
       <c r="L26" s="25"/>
       <c r="M26" s="25"/>
     </row>
-    <row r="27" ht="17.5" spans="2:12">
+    <row r="27" ht="17.5" spans="2:13">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -2140,10 +2158,12 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
+      <c r="J27" s="25"/>
       <c r="K27" s="25"/>
       <c r="L27" s="25"/>
-    </row>
-    <row r="28" ht="17.5" spans="2:13">
+      <c r="M27" s="25"/>
+    </row>
+    <row r="28" ht="17.5" spans="2:12">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -2152,10 +2172,8 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
-      <c r="J28" s="25"/>
       <c r="K28" s="25"/>
       <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
     </row>
     <row r="29" ht="17.5" spans="2:13">
       <c r="B29" s="8"/>
@@ -2171,54 +2189,72 @@
       <c r="L29" s="25"/>
       <c r="M29" s="25"/>
     </row>
+    <row r="30" ht="17.5" spans="2:13">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+    </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="B25:I29"/>
+  <mergeCells count="50">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="B26:I30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -1509,7 +1509,7 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1709,7 +1709,9 @@
       <c r="L4" s="21">
         <v>45693</v>
       </c>
-      <c r="M4" s="21"/>
+      <c r="M4" s="21">
+        <v>45694</v>
+      </c>
       <c r="N4" s="21"/>
       <c r="O4" s="21"/>
       <c r="P4" s="21"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -1509,7 +1509,7 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1712,7 +1712,9 @@
       <c r="M4" s="21">
         <v>45694</v>
       </c>
-      <c r="N4" s="21"/>
+      <c r="N4" s="21">
+        <v>45698</v>
+      </c>
       <c r="O4" s="21"/>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12330"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Doing" sheetId="1" r:id="rId1"/>
@@ -468,11 +468,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -970,7 +971,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -979,10 +980,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -991,7 +992,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1115,7 +1116,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1183,10 +1184,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1509,10 +1520,10 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="5.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
@@ -1526,7 +1537,7 @@
     <col min="11" max="20" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:20">
+    <row r="1" ht="15.75" spans="1:20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1588,7 +1599,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.5" spans="1:20">
+    <row r="2" customFormat="1" ht="15.75" spans="1:20">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -1619,38 +1630,38 @@
       <c r="J2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="25">
         <v>45643</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="25">
         <v>45649</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="25">
         <v>45650</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="25">
         <v>45653</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="25">
         <v>45658</v>
       </c>
-      <c r="P2" s="9">
+      <c r="P2" s="25">
         <v>45660</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="Q2" s="25">
         <v>45663</v>
       </c>
-      <c r="R2" s="9">
+      <c r="R2" s="25">
         <v>45664</v>
       </c>
-      <c r="S2" s="9">
+      <c r="S2" s="25">
         <v>45667</v>
       </c>
-      <c r="T2" s="9">
+      <c r="T2" s="25">
         <v>45670</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15.5" spans="1:20">
+    <row r="3" customFormat="1" ht="15.75" spans="1:20">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1661,38 +1672,38 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="24"/>
-      <c r="K3" s="9">
+      <c r="K3" s="25">
         <v>45675</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="25">
         <v>45676</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="25">
         <v>45677</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="25">
         <v>45678</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="25">
         <v>45679</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="25">
         <v>45680</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="25">
         <v>45681</v>
       </c>
-      <c r="R3" s="9">
+      <c r="R3" s="25">
         <v>45682</v>
       </c>
-      <c r="S3" s="21">
+      <c r="S3" s="26">
         <v>45690</v>
       </c>
-      <c r="T3" s="21">
+      <c r="T3" s="26">
         <v>45691</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.5" spans="1:20">
+    <row r="4" customFormat="1" ht="15.75" spans="1:20">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1703,26 +1714,28 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="24"/>
-      <c r="K4" s="21">
+      <c r="K4" s="26">
         <v>45692</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="26">
         <v>45693</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="26">
         <v>45694</v>
       </c>
-      <c r="N4" s="21">
+      <c r="N4" s="26">
         <v>45698</v>
       </c>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-    </row>
-    <row r="5" customFormat="1" ht="15.5" spans="1:20">
+      <c r="O4" s="26">
+        <v>45699</v>
+      </c>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+    </row>
+    <row r="5" customFormat="1" ht="15.75" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -1750,41 +1763,41 @@
       <c r="I5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="25">
         <v>45556</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="25">
         <v>45566</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="25">
         <v>45574</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="25">
         <v>45584</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="25">
         <v>45591</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="25">
         <v>45598</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="25">
         <v>45605</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="25">
         <v>45612</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="25">
         <v>45615</v>
       </c>
-      <c r="S5" s="9">
+      <c r="S5" s="25">
         <v>45619</v>
       </c>
-      <c r="T5" s="9">
+      <c r="T5" s="25">
         <v>45623</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="15.5" spans="1:20">
+    <row r="6" customFormat="1" ht="15.75" spans="1:20">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1794,37 +1807,37 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9">
+      <c r="J6" s="25"/>
+      <c r="K6" s="25">
         <v>45633</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="25">
         <v>45640</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="25">
         <v>45647</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="25">
         <v>45654</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="25">
         <v>45661</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="25">
         <v>45668</v>
       </c>
-      <c r="Q6" s="21">
+      <c r="Q6" s="26">
         <v>45676</v>
       </c>
-      <c r="R6" s="21">
+      <c r="R6" s="26">
         <v>45682</v>
       </c>
-      <c r="S6" s="21">
+      <c r="S6" s="26">
         <v>45692</v>
       </c>
-      <c r="T6" s="21"/>
-    </row>
-    <row r="7" customFormat="1" ht="15.5" spans="1:20">
+      <c r="T6" s="26"/>
+    </row>
+    <row r="7" customFormat="1" ht="15.75" spans="1:20">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
@@ -1855,38 +1868,38 @@
       <c r="J7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="27">
         <v>45551</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="25">
         <v>45557</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="25">
         <v>45563</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="25">
         <v>45567</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="25">
         <v>45578</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="25">
         <v>45585</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="25">
         <v>45592</v>
       </c>
-      <c r="R7" s="9">
+      <c r="R7" s="25">
         <v>45599</v>
       </c>
-      <c r="S7" s="9">
+      <c r="S7" s="25">
         <v>45613</v>
       </c>
-      <c r="T7" s="9">
+      <c r="T7" s="25">
         <v>45620</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="15.5" spans="1:20">
+    <row r="8" customFormat="1" ht="15.75" spans="1:20">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1897,28 +1910,28 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="9"/>
-      <c r="K8" s="9">
+      <c r="K8" s="25">
         <v>45627</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="25">
         <v>45641</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="25">
         <v>45648</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="25">
         <v>45655</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="25">
         <v>45662</v>
       </c>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-    </row>
-    <row r="9" customFormat="1" ht="15.5" spans="1:20">
+      <c r="P8" s="25"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+    </row>
+    <row r="9" customFormat="1" ht="15.75" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1949,38 +1962,38 @@
       <c r="J9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="25">
         <v>45557</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="25">
         <v>45566</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="25">
         <v>45572</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="25">
         <v>45585</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="25">
         <v>45592</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="25">
         <v>45599</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q9" s="25">
         <v>45606</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R9" s="25">
         <v>45613</v>
       </c>
-      <c r="S9" s="9">
+      <c r="S9" s="25">
         <v>45620</v>
       </c>
-      <c r="T9" s="9">
+      <c r="T9" s="25">
         <v>45627</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.5" spans="1:20">
+    <row r="10" customFormat="1" ht="15.75" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1991,24 +2004,24 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="9">
+      <c r="K10" s="25">
         <v>45641</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="25">
         <v>45648</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="25">
         <v>45662</v>
       </c>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-    </row>
-    <row r="11" customFormat="1" ht="15.5" spans="1:20">
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+    </row>
+    <row r="11" customFormat="1" ht="15.75" spans="1:20">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -2039,38 +2052,38 @@
       <c r="J11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="25">
         <v>45551</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="25">
         <v>45556</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="25">
         <v>45563</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="25">
         <v>45566</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="25">
         <v>45567</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="25">
         <v>45572</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q11" s="25">
         <v>45577</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="25">
         <v>45578</v>
       </c>
-      <c r="S11" s="9">
+      <c r="S11" s="25">
         <v>45585</v>
       </c>
-      <c r="T11" s="9">
+      <c r="T11" s="25">
         <v>45592</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15.5" spans="1:20">
+    <row r="12" customFormat="1" ht="15.75" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2081,41 +2094,41 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="9">
+      <c r="K12" s="25">
         <v>45599</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="25">
         <v>45606</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="25">
         <v>45613</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="25">
         <v>45627</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="25">
         <v>45641</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="25">
         <v>45648</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="Q12" s="25">
         <v>45655</v>
       </c>
-      <c r="R12" s="21">
+      <c r="R12" s="26">
         <v>45662</v>
       </c>
-      <c r="S12" s="21">
+      <c r="S12" s="26">
         <v>45669</v>
       </c>
-      <c r="T12" s="20"/>
-    </row>
-    <row r="19" s="20" customFormat="1" ht="15.5"/>
-    <row r="20" s="20" customFormat="1" ht="15.5"/>
-    <row r="21" s="20" customFormat="1" ht="15.5"/>
-    <row r="22" s="20" customFormat="1" ht="15.5"/>
-    <row r="23" s="20" customFormat="1" ht="15.5"/>
-    <row r="24" s="20" customFormat="1" ht="15.5" spans="1:9">
+      <c r="T12" s="30"/>
+    </row>
+    <row r="19" s="20" customFormat="1" ht="15.75"/>
+    <row r="20" s="20" customFormat="1" ht="15.75"/>
+    <row r="21" s="20" customFormat="1" ht="15.75"/>
+    <row r="22" s="20" customFormat="1" ht="15.75"/>
+    <row r="23" s="20" customFormat="1" ht="15.75"/>
+    <row r="24" s="20" customFormat="1" ht="15.75" spans="1:9">
       <c r="A24" s="23"/>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
@@ -2126,7 +2139,7 @@
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
     </row>
-    <row r="25" s="20" customFormat="1" ht="15.5" spans="1:9">
+    <row r="25" s="20" customFormat="1" ht="15.75" spans="1:9">
       <c r="A25" s="23"/>
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
@@ -2137,7 +2150,7 @@
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
     </row>
-    <row r="26" ht="17.5" spans="2:13">
+    <row r="26" ht="18.75" spans="2:13">
       <c r="B26" s="8" t="s">
         <v>48</v>
       </c>
@@ -2148,12 +2161,12 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-    </row>
-    <row r="27" ht="17.5" spans="2:13">
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+    </row>
+    <row r="27" ht="18.75" spans="2:13">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -2162,12 +2175,12 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-    </row>
-    <row r="28" ht="17.5" spans="2:12">
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+    </row>
+    <row r="28" ht="18.75" spans="2:12">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -2176,10 +2189,10 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-    </row>
-    <row r="29" ht="17.5" spans="2:13">
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+    </row>
+    <row r="29" ht="18.75" spans="2:13">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -2188,12 +2201,12 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-    </row>
-    <row r="30" ht="17.5" spans="2:13">
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+    </row>
+    <row r="30" ht="18.75" spans="2:13">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -2202,10 +2215,10 @@
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="50">
@@ -2275,7 +2288,7 @@
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="4.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
@@ -2290,7 +2303,7 @@
     <col min="22" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:21">
+    <row r="1" ht="15.75" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2355,7 +2368,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.5" spans="1:21">
+    <row r="2" customFormat="1" ht="15.75" spans="1:21">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -2420,7 +2433,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15.5" spans="1:19">
+    <row r="3" customFormat="1" ht="15.75" spans="1:19">
       <c r="A3" s="4" t="s">
         <v>57</v>
       </c>
@@ -2479,7 +2492,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.5" spans="1:11">
+    <row r="4" customFormat="1" ht="15.75" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -2514,7 +2527,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15.5" spans="1:20">
+    <row r="5" customFormat="1" ht="15.75" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -2574,7 +2587,7 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" customFormat="1" ht="15.5" spans="1:20">
+    <row r="6" customFormat="1" ht="15.75" spans="1:20">
       <c r="A6" s="4" t="s">
         <v>57</v>
       </c>
@@ -2636,7 +2649,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.5" spans="1:20">
+    <row r="7" customFormat="1" ht="15.75" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -2723,7 +2736,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" customFormat="1" ht="15.5" spans="1:20">
+    <row r="9" customFormat="1" ht="15.75" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -2785,7 +2798,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.5" spans="1:20">
+    <row r="10" customFormat="1" ht="15.75" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2827,7 +2840,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15.5" spans="1:20">
+    <row r="11" customFormat="1" ht="15.75" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2869,7 +2882,7 @@
         <v>45445</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15.5" spans="1:20">
+    <row r="12" customFormat="1" ht="15.75" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2893,7 +2906,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" customFormat="1" ht="15.5" spans="1:20">
+    <row r="13" customFormat="1" ht="15.75" spans="1:20">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -2955,7 +2968,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="15.5" spans="1:20">
+    <row r="14" customFormat="1" ht="15.75" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2979,7 +2992,7 @@
       <c r="S14" s="16"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" customFormat="1" ht="15.5" spans="1:20">
+    <row r="15" customFormat="1" ht="15.75" spans="1:20">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -3035,7 +3048,7 @@
       <c r="S15" s="16"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" customFormat="1" ht="15.5" spans="1:20">
+    <row r="16" customFormat="1" ht="15.75" spans="1:20">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -3097,7 +3110,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="15.5" spans="1:20">
+    <row r="17" customFormat="1" ht="15.75" spans="1:20">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -3159,7 +3172,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="15.5" spans="1:20">
+    <row r="18" customFormat="1" ht="15.75" spans="1:20">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -3191,7 +3204,7 @@
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
     </row>
-    <row r="19" customFormat="1" ht="15.5" spans="1:20">
+    <row r="19" customFormat="1" ht="15.75" spans="1:20">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -3253,7 +3266,7 @@
         <v>45451</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="15.5" spans="1:20">
+    <row r="20" customFormat="1" ht="15.75" spans="1:20">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3285,7 +3298,7 @@
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
     </row>
-    <row r="21" customFormat="1" ht="15.5" spans="1:20">
+    <row r="21" customFormat="1" ht="15.75" spans="1:20">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -3347,7 +3360,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="15.5" spans="1:20">
+    <row r="22" customFormat="1" ht="15.75" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3389,7 +3402,7 @@
         <v>45423</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15.5" spans="1:20">
+    <row r="23" customFormat="1" ht="15.75" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3421,7 +3434,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" customFormat="1" ht="15.5" spans="1:20">
+    <row r="24" customFormat="1" ht="15.75" spans="1:20">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
@@ -3483,7 +3496,7 @@
         <v>45325</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="15.5" spans="1:20">
+    <row r="25" customFormat="1" ht="15.75" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3525,7 +3538,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15.5" spans="1:20">
+    <row r="26" s="1" customFormat="1" ht="15.75" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3563,7 +3576,7 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="27" customFormat="1" ht="15.5" spans="1:20">
+    <row r="27" customFormat="1" ht="15.75" spans="1:20">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -3615,7 +3628,7 @@
       <c r="S27" s="16"/>
       <c r="T27" s="16"/>
     </row>
-    <row r="28" customFormat="1" ht="15.5" spans="1:20">
+    <row r="28" customFormat="1" ht="15.75" spans="1:20">
       <c r="A28" s="5" t="s">
         <v>122</v>
       </c>
@@ -3659,7 +3672,7 @@
       <c r="S28" s="21"/>
       <c r="T28" s="21"/>
     </row>
-    <row r="29" customFormat="1" ht="15.5" spans="1:20">
+    <row r="29" customFormat="1" ht="15.75" spans="1:20">
       <c r="A29" s="5" t="s">
         <v>20</v>
       </c>
@@ -3713,7 +3726,7 @@
       <c r="S29" s="16"/>
       <c r="T29" s="16"/>
     </row>
-    <row r="30" customFormat="1" ht="15.5" spans="1:18">
+    <row r="30" customFormat="1" ht="15.75" spans="1:18">
       <c r="A30" s="5" t="s">
         <v>20</v>
       </c>
@@ -3755,7 +3768,7 @@
       <c r="Q30" s="16"/>
       <c r="R30" s="16"/>
     </row>
-    <row r="31" customFormat="1" ht="15.5" spans="1:20">
+    <row r="31" customFormat="1" ht="15.75" spans="1:20">
       <c r="A31" s="5" t="s">
         <v>135</v>
       </c>
@@ -3809,7 +3822,7 @@
       <c r="S31" s="20"/>
       <c r="T31" s="20"/>
     </row>
-    <row r="32" customFormat="1" ht="15.5" spans="1:20">
+    <row r="32" customFormat="1" ht="15.75" spans="1:20">
       <c r="A32" s="5" t="s">
         <v>20</v>
       </c>
@@ -3871,7 +3884,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="33" customFormat="1" ht="15.5" spans="1:20">
+    <row r="33" customFormat="1" ht="15.75" spans="1:20">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3893,7 +3906,7 @@
       <c r="S33" s="22"/>
       <c r="T33" s="22"/>
     </row>
-    <row r="34" customFormat="1" ht="15.5" spans="1:20">
+    <row r="34" customFormat="1" ht="15.75" spans="1:20">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -3915,7 +3928,7 @@
       <c r="S34" s="22"/>
       <c r="T34" s="22"/>
     </row>
-    <row r="35" customFormat="1" ht="15.5" spans="1:20">
+    <row r="35" customFormat="1" ht="15.75" spans="1:20">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -3937,7 +3950,7 @@
       <c r="S35" s="22"/>
       <c r="T35" s="22"/>
     </row>
-    <row r="36" customFormat="1" ht="15.5" spans="1:20">
+    <row r="36" customFormat="1" ht="15.75" spans="1:20">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -3959,7 +3972,7 @@
       <c r="S36" s="22"/>
       <c r="T36" s="22"/>
     </row>
-    <row r="37" customFormat="1" ht="15.5" spans="1:20">
+    <row r="37" customFormat="1" ht="15.75" spans="1:20">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -3981,7 +3994,7 @@
       <c r="S37" s="22"/>
       <c r="T37" s="22"/>
     </row>
-    <row r="38" customFormat="1" ht="15.5" spans="1:20">
+    <row r="38" customFormat="1" ht="15.75" spans="1:20">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -4003,7 +4016,7 @@
       <c r="S38" s="22"/>
       <c r="T38" s="22"/>
     </row>
-    <row r="39" customFormat="1" ht="15.5" spans="1:20">
+    <row r="39" customFormat="1" ht="15.75" spans="1:20">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="25600" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Doing" sheetId="1" r:id="rId1"/>
@@ -469,11 +469,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -971,7 +971,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -980,10 +980,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -992,7 +992,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1520,10 +1520,10 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="5.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
@@ -1537,7 +1537,7 @@
     <col min="11" max="20" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:20">
+    <row r="1" ht="15.5" spans="1:20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.75" spans="1:20">
+    <row r="2" customFormat="1" ht="15.5" spans="1:20">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>45670</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15.75" spans="1:20">
+    <row r="3" customFormat="1" ht="15.5" spans="1:20">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1703,7 +1703,7 @@
         <v>45691</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.75" spans="1:20">
+    <row r="4" customFormat="1" ht="15.5" spans="1:20">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1729,13 +1729,15 @@
       <c r="O4" s="26">
         <v>45699</v>
       </c>
-      <c r="P4" s="26"/>
+      <c r="P4" s="26">
+        <v>45700</v>
+      </c>
       <c r="Q4" s="26"/>
       <c r="R4" s="26"/>
       <c r="S4" s="26"/>
       <c r="T4" s="26"/>
     </row>
-    <row r="5" customFormat="1" ht="15.75" spans="1:20">
+    <row r="5" customFormat="1" ht="15.5" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -1797,7 +1799,7 @@
         <v>45623</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="15.75" spans="1:20">
+    <row r="6" customFormat="1" ht="15.5" spans="1:20">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1837,7 +1839,7 @@
       </c>
       <c r="T6" s="26"/>
     </row>
-    <row r="7" customFormat="1" ht="15.75" spans="1:20">
+    <row r="7" customFormat="1" ht="15.5" spans="1:20">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
@@ -1899,7 +1901,7 @@
         <v>45620</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="15.75" spans="1:20">
+    <row r="8" customFormat="1" ht="15.5" spans="1:20">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1931,7 +1933,7 @@
       <c r="S8" s="26"/>
       <c r="T8" s="26"/>
     </row>
-    <row r="9" customFormat="1" ht="15.75" spans="1:20">
+    <row r="9" customFormat="1" ht="15.5" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1993,7 +1995,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.75" spans="1:20">
+    <row r="10" customFormat="1" ht="15.5" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2021,7 +2023,7 @@
       <c r="S10" s="26"/>
       <c r="T10" s="26"/>
     </row>
-    <row r="11" customFormat="1" ht="15.75" spans="1:20">
+    <row r="11" customFormat="1" ht="15.5" spans="1:20">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -2083,7 +2085,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15.75" spans="1:20">
+    <row r="12" customFormat="1" ht="15.5" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2123,12 +2125,12 @@
       </c>
       <c r="T12" s="30"/>
     </row>
-    <row r="19" s="20" customFormat="1" ht="15.75"/>
-    <row r="20" s="20" customFormat="1" ht="15.75"/>
-    <row r="21" s="20" customFormat="1" ht="15.75"/>
-    <row r="22" s="20" customFormat="1" ht="15.75"/>
-    <row r="23" s="20" customFormat="1" ht="15.75"/>
-    <row r="24" s="20" customFormat="1" ht="15.75" spans="1:9">
+    <row r="19" s="20" customFormat="1" ht="15.5"/>
+    <row r="20" s="20" customFormat="1" ht="15.5"/>
+    <row r="21" s="20" customFormat="1" ht="15.5"/>
+    <row r="22" s="20" customFormat="1" ht="15.5"/>
+    <row r="23" s="20" customFormat="1" ht="15.5"/>
+    <row r="24" s="20" customFormat="1" ht="15.5" spans="1:9">
       <c r="A24" s="23"/>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
@@ -2139,7 +2141,7 @@
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
     </row>
-    <row r="25" s="20" customFormat="1" ht="15.75" spans="1:9">
+    <row r="25" s="20" customFormat="1" ht="15.5" spans="1:9">
       <c r="A25" s="23"/>
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
@@ -2150,7 +2152,7 @@
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
     </row>
-    <row r="26" ht="18.75" spans="2:13">
+    <row r="26" ht="17.5" spans="2:13">
       <c r="B26" s="8" t="s">
         <v>48</v>
       </c>
@@ -2166,7 +2168,7 @@
       <c r="L26" s="28"/>
       <c r="M26" s="28"/>
     </row>
-    <row r="27" ht="18.75" spans="2:13">
+    <row r="27" ht="17.5" spans="2:13">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -2180,7 +2182,7 @@
       <c r="L27" s="28"/>
       <c r="M27" s="28"/>
     </row>
-    <row r="28" ht="18.75" spans="2:12">
+    <row r="28" ht="17.5" spans="2:12">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -2192,7 +2194,7 @@
       <c r="K28" s="28"/>
       <c r="L28" s="28"/>
     </row>
-    <row r="29" ht="18.75" spans="2:13">
+    <row r="29" ht="17.5" spans="2:13">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -2206,7 +2208,7 @@
       <c r="L29" s="28"/>
       <c r="M29" s="28"/>
     </row>
-    <row r="30" ht="18.75" spans="2:13">
+    <row r="30" ht="17.5" spans="2:13">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -2288,7 +2290,7 @@
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="4.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
@@ -2303,7 +2305,7 @@
     <col min="22" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:21">
+    <row r="1" ht="15.5" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2368,7 +2370,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.75" spans="1:21">
+    <row r="2" customFormat="1" ht="15.5" spans="1:21">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -2433,7 +2435,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15.75" spans="1:19">
+    <row r="3" customFormat="1" ht="15.5" spans="1:19">
       <c r="A3" s="4" t="s">
         <v>57</v>
       </c>
@@ -2492,7 +2494,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.75" spans="1:11">
+    <row r="4" customFormat="1" ht="15.5" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -2527,7 +2529,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15.75" spans="1:20">
+    <row r="5" customFormat="1" ht="15.5" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -2587,7 +2589,7 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" customFormat="1" ht="15.75" spans="1:20">
+    <row r="6" customFormat="1" ht="15.5" spans="1:20">
       <c r="A6" s="4" t="s">
         <v>57</v>
       </c>
@@ -2649,7 +2651,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.75" spans="1:20">
+    <row r="7" customFormat="1" ht="15.5" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -2736,7 +2738,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" customFormat="1" ht="15.75" spans="1:20">
+    <row r="9" customFormat="1" ht="15.5" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -2798,7 +2800,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.75" spans="1:20">
+    <row r="10" customFormat="1" ht="15.5" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2840,7 +2842,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15.75" spans="1:20">
+    <row r="11" customFormat="1" ht="15.5" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2882,7 +2884,7 @@
         <v>45445</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15.75" spans="1:20">
+    <row r="12" customFormat="1" ht="15.5" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2906,7 +2908,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" customFormat="1" ht="15.75" spans="1:20">
+    <row r="13" customFormat="1" ht="15.5" spans="1:20">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -2968,7 +2970,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="15.75" spans="1:20">
+    <row r="14" customFormat="1" ht="15.5" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2992,7 +2994,7 @@
       <c r="S14" s="16"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" customFormat="1" ht="15.75" spans="1:20">
+    <row r="15" customFormat="1" ht="15.5" spans="1:20">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -3048,7 +3050,7 @@
       <c r="S15" s="16"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" customFormat="1" ht="15.75" spans="1:20">
+    <row r="16" customFormat="1" ht="15.5" spans="1:20">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -3110,7 +3112,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="15.75" spans="1:20">
+    <row r="17" customFormat="1" ht="15.5" spans="1:20">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -3172,7 +3174,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="15.75" spans="1:20">
+    <row r="18" customFormat="1" ht="15.5" spans="1:20">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -3204,7 +3206,7 @@
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
     </row>
-    <row r="19" customFormat="1" ht="15.75" spans="1:20">
+    <row r="19" customFormat="1" ht="15.5" spans="1:20">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -3266,7 +3268,7 @@
         <v>45451</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="15.75" spans="1:20">
+    <row r="20" customFormat="1" ht="15.5" spans="1:20">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3298,7 +3300,7 @@
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
     </row>
-    <row r="21" customFormat="1" ht="15.75" spans="1:20">
+    <row r="21" customFormat="1" ht="15.5" spans="1:20">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -3360,7 +3362,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="15.75" spans="1:20">
+    <row r="22" customFormat="1" ht="15.5" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3402,7 +3404,7 @@
         <v>45423</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15.75" spans="1:20">
+    <row r="23" customFormat="1" ht="15.5" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3434,7 +3436,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" customFormat="1" ht="15.75" spans="1:20">
+    <row r="24" customFormat="1" ht="15.5" spans="1:20">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
@@ -3496,7 +3498,7 @@
         <v>45325</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="15.75" spans="1:20">
+    <row r="25" customFormat="1" ht="15.5" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3538,7 +3540,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15.75" spans="1:20">
+    <row r="26" s="1" customFormat="1" ht="15.5" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3576,7 +3578,7 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="27" customFormat="1" ht="15.75" spans="1:20">
+    <row r="27" customFormat="1" ht="15.5" spans="1:20">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -3628,7 +3630,7 @@
       <c r="S27" s="16"/>
       <c r="T27" s="16"/>
     </row>
-    <row r="28" customFormat="1" ht="15.75" spans="1:20">
+    <row r="28" customFormat="1" ht="15.5" spans="1:20">
       <c r="A28" s="5" t="s">
         <v>122</v>
       </c>
@@ -3672,7 +3674,7 @@
       <c r="S28" s="21"/>
       <c r="T28" s="21"/>
     </row>
-    <row r="29" customFormat="1" ht="15.75" spans="1:20">
+    <row r="29" customFormat="1" ht="15.5" spans="1:20">
       <c r="A29" s="5" t="s">
         <v>20</v>
       </c>
@@ -3726,7 +3728,7 @@
       <c r="S29" s="16"/>
       <c r="T29" s="16"/>
     </row>
-    <row r="30" customFormat="1" ht="15.75" spans="1:18">
+    <row r="30" customFormat="1" ht="15.5" spans="1:18">
       <c r="A30" s="5" t="s">
         <v>20</v>
       </c>
@@ -3768,7 +3770,7 @@
       <c r="Q30" s="16"/>
       <c r="R30" s="16"/>
     </row>
-    <row r="31" customFormat="1" ht="15.75" spans="1:20">
+    <row r="31" customFormat="1" ht="15.5" spans="1:20">
       <c r="A31" s="5" t="s">
         <v>135</v>
       </c>
@@ -3822,7 +3824,7 @@
       <c r="S31" s="20"/>
       <c r="T31" s="20"/>
     </row>
-    <row r="32" customFormat="1" ht="15.75" spans="1:20">
+    <row r="32" customFormat="1" ht="15.5" spans="1:20">
       <c r="A32" s="5" t="s">
         <v>20</v>
       </c>
@@ -3884,7 +3886,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="33" customFormat="1" ht="15.75" spans="1:20">
+    <row r="33" customFormat="1" ht="15.5" spans="1:20">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3906,7 +3908,7 @@
       <c r="S33" s="22"/>
       <c r="T33" s="22"/>
     </row>
-    <row r="34" customFormat="1" ht="15.75" spans="1:20">
+    <row r="34" customFormat="1" ht="15.5" spans="1:20">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -3928,7 +3930,7 @@
       <c r="S34" s="22"/>
       <c r="T34" s="22"/>
     </row>
-    <row r="35" customFormat="1" ht="15.75" spans="1:20">
+    <row r="35" customFormat="1" ht="15.5" spans="1:20">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -3950,7 +3952,7 @@
       <c r="S35" s="22"/>
       <c r="T35" s="22"/>
     </row>
-    <row r="36" customFormat="1" ht="15.75" spans="1:20">
+    <row r="36" customFormat="1" ht="15.5" spans="1:20">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -3972,7 +3974,7 @@
       <c r="S36" s="22"/>
       <c r="T36" s="22"/>
     </row>
-    <row r="37" customFormat="1" ht="15.75" spans="1:20">
+    <row r="37" customFormat="1" ht="15.5" spans="1:20">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -3994,7 +3996,7 @@
       <c r="S37" s="22"/>
       <c r="T37" s="22"/>
     </row>
-    <row r="38" customFormat="1" ht="15.75" spans="1:20">
+    <row r="38" customFormat="1" ht="15.5" spans="1:20">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -4016,7 +4018,7 @@
       <c r="S38" s="22"/>
       <c r="T38" s="22"/>
     </row>
-    <row r="39" customFormat="1" ht="15.75" spans="1:20">
+    <row r="39" customFormat="1" ht="15.5" spans="1:20">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -89,13 +89,13 @@
     <t>270/1.5h</t>
   </si>
   <si>
-    <t>周一、二、五21：00-22：30</t>
+    <t>周一、二、五 21：00-22：30</t>
   </si>
   <si>
     <t>李梦媛</t>
   </si>
   <si>
-    <t>南纬一路144号晟和家园 3-2203</t>
+    <t>晟和家园 3-2203</t>
   </si>
   <si>
     <t>70中</t>
@@ -113,7 +113,7 @@
     <t>郭润宁</t>
   </si>
   <si>
-    <t>西山东街261号 华美·博奥小区 7-3-401</t>
+    <t>嘉和苑·悦园 3楼</t>
   </si>
   <si>
     <t>13中分校</t>
@@ -131,7 +131,7 @@
     <t>刘桐语</t>
   </si>
   <si>
-    <t>莲湖路196号博香苑小区 6-2-1001</t>
+    <t>博香苑A区 6-2-1001</t>
   </si>
   <si>
     <t>126中学</t>
@@ -146,7 +146,7 @@
     <t>贾梦垚</t>
   </si>
   <si>
-    <t>莲湖路196号博香苑小区6-2-1001</t>
+    <t>德泽园3区1-1-101</t>
   </si>
   <si>
     <t>物理</t>
@@ -162,7 +162,7 @@
   </si>
   <si>
     <t>转账时间(灰色表示线上上课（课时费1小时100），绿色表示课时费已发)：
-精锐教育是当月15号；星期天培训下个月20号;2月2日至2月7日，李梦媛每天上了2小时
+精锐教育是当月15号；星期天培训下个月20号;2月2日至2月6日，2月10日至2月14日，李梦媛每天上了2小时
 下次考试目标：刘桐语：135，李梦媛：数学90物理50，贾梦垚：130，郭润宁：100</t>
   </si>
   <si>
@@ -1519,8 +1519,8 @@
   <sheetPr/>
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1528,9 +1528,9 @@
     <col min="1" max="2" width="5.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
     <col min="4" max="4" width="7.83333333333333" customWidth="1"/>
-    <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="35" customWidth="1"/>
+    <col min="5" max="5" width="26.75" customWidth="1"/>
+    <col min="6" max="6" width="7.5" customWidth="1"/>
+    <col min="7" max="7" width="18.75" customWidth="1"/>
     <col min="8" max="8" width="9.875" customWidth="1"/>
     <col min="9" max="9" width="9.125" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
@@ -1732,7 +1732,9 @@
       <c r="P4" s="26">
         <v>45700</v>
       </c>
-      <c r="Q4" s="26"/>
+      <c r="Q4" s="26">
+        <v>45701</v>
+      </c>
       <c r="R4" s="26"/>
       <c r="S4" s="26"/>
       <c r="T4" s="26"/>
@@ -2224,22 +2226,22 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C2:C4"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D2:D4"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="D9:D10"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -162,7 +162,8 @@
   </si>
   <si>
     <t>转账时间(灰色表示线上上课（课时费1小时100），绿色表示课时费已发)：
-精锐教育是当月15号；星期天培训下个月20号;2月2日至2月6日，2月10日至2月14日，李梦媛每天上了2小时
+精锐教育是当月15号；星期天培训下个月20号;
+2月2日至2月6日，2月10日至2月14日，李梦媛每天上了2小时
 下次考试目标：刘桐语：135，李梦媛：数学90物理50，贾梦垚：130，郭润宁：100</t>
   </si>
   <si>
@@ -1520,7 +1521,7 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1533,8 +1534,8 @@
     <col min="7" max="7" width="18.75" customWidth="1"/>
     <col min="8" max="8" width="9.875" customWidth="1"/>
     <col min="9" max="9" width="9.125" customWidth="1"/>
-    <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="20" width="10.125" customWidth="1"/>
+    <col min="10" max="10" width="10.8333333333333" customWidth="1"/>
+    <col min="11" max="20" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.5" spans="1:20">
@@ -1735,7 +1736,9 @@
       <c r="Q4" s="26">
         <v>45701</v>
       </c>
-      <c r="R4" s="26"/>
+      <c r="R4" s="26">
+        <v>45702</v>
+      </c>
       <c r="S4" s="26"/>
       <c r="T4" s="26"/>
     </row>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="147">
   <si>
     <t>年级</t>
   </si>
@@ -159,6 +159,24 @@
   </si>
   <si>
     <t>39/90</t>
+  </si>
+  <si>
+    <t>一尔优教育</t>
+  </si>
+  <si>
+    <t>周六12：00-14：00</t>
+  </si>
+  <si>
+    <t>张佳宁</t>
+  </si>
+  <si>
+    <t>耳鼻喉科专科医院旁巷子201室</t>
+  </si>
+  <si>
+    <t>13中</t>
+  </si>
+  <si>
+    <t>85/100</t>
   </si>
   <si>
     <t>转账时间(灰色表示线上上课（课时费1小时100），绿色表示课时费已发)：
@@ -251,9 +269,6 @@
     <t>60/100</t>
   </si>
   <si>
-    <t>一尔优教育</t>
-  </si>
-  <si>
     <t>周日18：00-20：00</t>
   </si>
   <si>
@@ -302,9 +317,6 @@
     <t>邮区中心局小区3-4-602</t>
   </si>
   <si>
-    <t>13中</t>
-  </si>
-  <si>
     <t>李冰惠</t>
   </si>
   <si>
@@ -372,18 +384,6 @@
   </si>
   <si>
     <t>兵二分校</t>
-  </si>
-  <si>
-    <t>周六12：00-14：00</t>
-  </si>
-  <si>
-    <t>张佳宁</t>
-  </si>
-  <si>
-    <t>耳鼻喉科专科医院旁巷子201室</t>
-  </si>
-  <si>
-    <t>85/100</t>
   </si>
   <si>
     <t>高一</t>
@@ -1518,10 +1518,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1842,7 +1842,9 @@
       <c r="S6" s="26">
         <v>45692</v>
       </c>
-      <c r="T6" s="26"/>
+      <c r="T6" s="26">
+        <v>45703</v>
+      </c>
     </row>
     <row r="7" customFormat="1" ht="15.5" spans="1:20">
       <c r="A7" s="4" t="s">
@@ -2130,22 +2132,67 @@
       </c>
       <c r="T12" s="30"/>
     </row>
-    <row r="19" s="20" customFormat="1" ht="15.5"/>
+    <row r="13" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="12">
+        <v>45451</v>
+      </c>
+      <c r="L13" s="12">
+        <v>45460</v>
+      </c>
+      <c r="M13" s="12">
+        <v>45465</v>
+      </c>
+      <c r="N13" s="12">
+        <v>45514</v>
+      </c>
+      <c r="O13" s="12">
+        <v>45527</v>
+      </c>
+      <c r="P13" s="9">
+        <v>45658</v>
+      </c>
+      <c r="Q13" s="26">
+        <v>45703</v>
+      </c>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+    </row>
     <row r="20" s="20" customFormat="1" ht="15.5"/>
     <row r="21" s="20" customFormat="1" ht="15.5"/>
     <row r="22" s="20" customFormat="1" ht="15.5"/>
     <row r="23" s="20" customFormat="1" ht="15.5"/>
-    <row r="24" s="20" customFormat="1" ht="15.5" spans="1:9">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-    </row>
+    <row r="24" s="20" customFormat="1" ht="15.5"/>
     <row r="25" s="20" customFormat="1" ht="15.5" spans="1:9">
       <c r="A25" s="23"/>
       <c r="B25" s="23"/>
@@ -2157,24 +2204,21 @@
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
     </row>
-    <row r="26" ht="17.5" spans="2:13">
-      <c r="B26" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
+    <row r="26" s="20" customFormat="1" ht="15.5" spans="1:9">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
     </row>
     <row r="27" ht="17.5" spans="2:13">
-      <c r="B27" s="8"/>
+      <c r="B27" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2187,7 +2231,7 @@
       <c r="L27" s="28"/>
       <c r="M27" s="28"/>
     </row>
-    <row r="28" ht="17.5" spans="2:12">
+    <row r="28" ht="17.5" spans="2:13">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -2196,10 +2240,12 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
+      <c r="J28" s="28"/>
       <c r="K28" s="28"/>
       <c r="L28" s="28"/>
-    </row>
-    <row r="29" ht="17.5" spans="2:13">
+      <c r="M28" s="28"/>
+    </row>
+    <row r="29" ht="17.5" spans="2:12">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -2208,10 +2254,8 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
-      <c r="J29" s="28"/>
       <c r="K29" s="28"/>
       <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
     </row>
     <row r="30" ht="17.5" spans="2:13">
       <c r="B30" s="8"/>
@@ -2226,6 +2270,20 @@
       <c r="K30" s="28"/>
       <c r="L30" s="28"/>
       <c r="M30" s="28"/>
+    </row>
+    <row r="31" ht="17.5" spans="2:13">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="50">
@@ -2278,7 +2336,7 @@
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="J11:J12"/>
-    <mergeCell ref="B26:I30"/>
+    <mergeCell ref="B27:I31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -2292,7 +2350,7 @@
   <dimension ref="A1:U46"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="A27" sqref="$A27:$XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2372,7 +2430,7 @@
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="15.5" spans="1:21">
@@ -2383,25 +2441,25 @@
         <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="J2" s="9">
         <v>45185</v>
@@ -2442,31 +2500,31 @@
     </row>
     <row r="3" customFormat="1" ht="15.5" spans="1:19">
       <c r="A3" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>22</v>
@@ -2507,25 +2565,25 @@
         <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="J4" s="9">
         <v>45287</v>
@@ -2542,25 +2600,25 @@
         <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>22</v>
@@ -2596,31 +2654,31 @@
     </row>
     <row r="6" customFormat="1" ht="15.5" spans="1:20">
       <c r="A6" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>39</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J6" s="9">
         <v>45320</v>
@@ -2664,25 +2722,25 @@
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>39</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>22</v>
@@ -2710,25 +2768,25 @@
         <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H8" s="6">
         <v>126</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J8" s="14">
         <v>45425</v>
@@ -2751,25 +2809,25 @@
         <v>44</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J9" s="9">
         <v>45186</v>
@@ -2921,25 +2979,25 @@
         <v>21</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="J13" s="17" t="s">
         <v>22</v>
@@ -3007,25 +3065,25 @@
         <v>21</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>22</v>
@@ -3063,25 +3121,25 @@
         <v>44</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="J16" s="11" t="s">
         <v>22</v>
@@ -3125,25 +3183,25 @@
         <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="H17" s="4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J17" s="17" t="s">
         <v>22</v>
@@ -3219,22 +3277,22 @@
         <v>21</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>34</v>
@@ -3313,25 +3371,25 @@
         <v>21</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>22</v>
@@ -3449,25 +3507,25 @@
         <v>21</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="J24" s="19" t="s">
         <v>22</v>
@@ -3583,58 +3641,7 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="27" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A27" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="J27" s="12">
-        <v>45451</v>
-      </c>
-      <c r="K27" s="12">
-        <v>45460</v>
-      </c>
-      <c r="L27" s="12">
-        <v>45465</v>
-      </c>
-      <c r="M27" s="12">
-        <v>45514</v>
-      </c>
-      <c r="N27" s="12">
-        <v>45527</v>
-      </c>
-      <c r="O27" s="9">
-        <v>45658</v>
-      </c>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-    </row>
+    <row r="27" customFormat="1"/>
     <row r="28" customFormat="1" ht="15.5" spans="1:20">
       <c r="A28" s="5" t="s">
         <v>122</v>
@@ -3643,7 +3650,7 @@
         <v>21</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>123</v>
@@ -3687,7 +3694,7 @@
         <v>44</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>29</v>
@@ -3699,13 +3706,13 @@
         <v>129</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J29" s="12" t="s">
         <v>22</v>
@@ -3756,7 +3763,7 @@
         <v>133</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>134</v>
@@ -3798,7 +3805,7 @@
         <v>139</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>140</v>
@@ -3852,7 +3859,7 @@
         <v>144</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>145</v>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -1521,13 +1521,13 @@
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="5.58333333333333" customWidth="1"/>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="3" max="3" width="10.6666666666667" customWidth="1"/>
     <col min="4" max="4" width="7.83333333333333" customWidth="1"/>
     <col min="5" max="5" width="26.75" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
@@ -1739,7 +1739,9 @@
       <c r="R4" s="26">
         <v>45702</v>
       </c>
-      <c r="S4" s="26"/>
+      <c r="S4" s="26">
+        <v>45705</v>
+      </c>
       <c r="T4" s="26"/>
     </row>
     <row r="5" customFormat="1" ht="15.5" spans="1:20">
@@ -3641,7 +3643,6 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="27" customFormat="1"/>
     <row r="28" customFormat="1" ht="15.5" spans="1:20">
       <c r="A28" s="5" t="s">
         <v>122</v>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -1117,7 +1117,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1186,6 +1186,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1518,10 +1521,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1849,363 +1852,376 @@
       </c>
     </row>
     <row r="7" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="26">
+        <v>45710</v>
+      </c>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+    </row>
+    <row r="8" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K8" s="28">
         <v>45551</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L8" s="25">
         <v>45557</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M8" s="25">
         <v>45563</v>
       </c>
-      <c r="N7" s="25">
+      <c r="N8" s="25">
         <v>45567</v>
       </c>
-      <c r="O7" s="25">
+      <c r="O8" s="25">
         <v>45578</v>
       </c>
-      <c r="P7" s="25">
+      <c r="P8" s="25">
         <v>45585</v>
       </c>
-      <c r="Q7" s="25">
+      <c r="Q8" s="25">
         <v>45592</v>
       </c>
-      <c r="R7" s="25">
+      <c r="R8" s="25">
         <v>45599</v>
       </c>
-      <c r="S7" s="25">
+      <c r="S8" s="25">
         <v>45613</v>
       </c>
-      <c r="T7" s="25">
+      <c r="T8" s="25">
         <v>45620</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="25">
+    <row r="9" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="25">
         <v>45627</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L9" s="25">
         <v>45641</v>
       </c>
-      <c r="M8" s="25">
+      <c r="M9" s="25">
         <v>45648</v>
       </c>
-      <c r="N8" s="25">
+      <c r="N9" s="25">
         <v>45655</v>
       </c>
-      <c r="O8" s="25">
+      <c r="O9" s="25">
         <v>45662</v>
       </c>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-    </row>
-    <row r="9" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A9" s="4" t="s">
+      <c r="P9" s="25"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+    </row>
+    <row r="10" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="25">
+      <c r="K10" s="25">
         <v>45557</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L10" s="25">
         <v>45566</v>
       </c>
-      <c r="M9" s="25">
+      <c r="M10" s="25">
         <v>45572</v>
       </c>
-      <c r="N9" s="25">
+      <c r="N10" s="25">
         <v>45585</v>
       </c>
-      <c r="O9" s="25">
+      <c r="O10" s="25">
         <v>45592</v>
       </c>
-      <c r="P9" s="25">
+      <c r="P10" s="25">
         <v>45599</v>
       </c>
-      <c r="Q9" s="25">
+      <c r="Q10" s="25">
         <v>45606</v>
       </c>
-      <c r="R9" s="25">
+      <c r="R10" s="25">
         <v>45613</v>
       </c>
-      <c r="S9" s="25">
+      <c r="S10" s="25">
         <v>45620</v>
       </c>
-      <c r="T9" s="25">
+      <c r="T10" s="25">
         <v>45627</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="25">
+    <row r="11" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="25">
         <v>45641</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L11" s="25">
         <v>45648</v>
       </c>
-      <c r="M10" s="25">
+      <c r="M11" s="25">
         <v>45662</v>
       </c>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-    </row>
-    <row r="11" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A11" s="4" t="s">
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+    </row>
+    <row r="12" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="25">
+      <c r="K12" s="25">
         <v>45551</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L12" s="25">
         <v>45556</v>
       </c>
-      <c r="M11" s="25">
+      <c r="M12" s="25">
         <v>45563</v>
       </c>
-      <c r="N11" s="25">
+      <c r="N12" s="25">
         <v>45566</v>
       </c>
-      <c r="O11" s="25">
+      <c r="O12" s="25">
         <v>45567</v>
       </c>
-      <c r="P11" s="25">
+      <c r="P12" s="25">
         <v>45572</v>
       </c>
-      <c r="Q11" s="25">
+      <c r="Q12" s="25">
         <v>45577</v>
       </c>
-      <c r="R11" s="25">
+      <c r="R12" s="25">
         <v>45578</v>
       </c>
-      <c r="S11" s="25">
+      <c r="S12" s="25">
         <v>45585</v>
       </c>
-      <c r="T11" s="25">
+      <c r="T12" s="25">
         <v>45592</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="25">
+    <row r="13" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="25">
         <v>45599</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L13" s="25">
         <v>45606</v>
       </c>
-      <c r="M12" s="25">
+      <c r="M13" s="25">
         <v>45613</v>
       </c>
-      <c r="N12" s="25">
+      <c r="N13" s="25">
         <v>45627</v>
       </c>
-      <c r="O12" s="25">
+      <c r="O13" s="25">
         <v>45641</v>
       </c>
-      <c r="P12" s="25">
+      <c r="P13" s="25">
         <v>45648</v>
       </c>
-      <c r="Q12" s="25">
+      <c r="Q13" s="25">
         <v>45655</v>
       </c>
-      <c r="R12" s="26">
+      <c r="R13" s="26">
         <v>45662</v>
       </c>
-      <c r="S12" s="26">
+      <c r="S13" s="26">
         <v>45669</v>
       </c>
-      <c r="T12" s="30"/>
-    </row>
-    <row r="13" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A13" s="5" t="s">
+      <c r="T13" s="31"/>
+    </row>
+    <row r="14" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K14" s="12">
         <v>45451</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L14" s="12">
         <v>45460</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M14" s="12">
         <v>45465</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N14" s="12">
         <v>45514</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O14" s="12">
         <v>45527</v>
       </c>
-      <c r="P13" s="9">
+      <c r="P14" s="9">
         <v>45658</v>
       </c>
-      <c r="Q13" s="26">
+      <c r="Q14" s="26">
         <v>45703</v>
       </c>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-    </row>
-    <row r="20" s="20" customFormat="1" ht="15.5"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+    </row>
     <row r="21" s="20" customFormat="1" ht="15.5"/>
     <row r="22" s="20" customFormat="1" ht="15.5"/>
     <row r="23" s="20" customFormat="1" ht="15.5"/>
     <row r="24" s="20" customFormat="1" ht="15.5"/>
-    <row r="25" s="20" customFormat="1" ht="15.5" spans="1:9">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-    </row>
+    <row r="25" s="20" customFormat="1" ht="15.5"/>
     <row r="26" s="20" customFormat="1" ht="15.5" spans="1:9">
       <c r="A26" s="23"/>
       <c r="B26" s="23"/>
@@ -2217,24 +2233,21 @@
       <c r="H26" s="23"/>
       <c r="I26" s="23"/>
     </row>
-    <row r="27" ht="17.5" spans="2:13">
-      <c r="B27" s="8" t="s">
+    <row r="27" s="20" customFormat="1" ht="15.5" spans="1:9">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+    </row>
+    <row r="28" ht="17.5" spans="2:13">
+      <c r="B28" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-    </row>
-    <row r="28" ht="17.5" spans="2:13">
-      <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2242,12 +2255,12 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-    </row>
-    <row r="29" ht="17.5" spans="2:12">
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+    </row>
+    <row r="29" ht="17.5" spans="2:13">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -2256,10 +2269,12 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-    </row>
-    <row r="30" ht="17.5" spans="2:13">
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+    </row>
+    <row r="30" ht="17.5" spans="2:12">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -2268,10 +2283,8 @@
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
     </row>
     <row r="31" ht="17.5" spans="2:13">
       <c r="B31" s="8"/>
@@ -2282,63 +2295,77 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+    </row>
+    <row r="32" ht="17.5" spans="2:13">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="50">
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
     <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
     <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
     <mergeCell ref="H2:H4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
     <mergeCell ref="I2:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="I12:I13"/>
     <mergeCell ref="J2:J4"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="B27:I31"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="B28:I32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -1117,7 +1117,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1186,9 +1186,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1523,8 +1520,8 @@
   <sheetPr/>
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1745,7 +1742,9 @@
       <c r="S4" s="26">
         <v>45705</v>
       </c>
-      <c r="T4" s="26"/>
+      <c r="T4" s="26">
+        <v>45712</v>
+      </c>
     </row>
     <row r="5" customFormat="1" ht="15.5" spans="1:20">
       <c r="A5" s="4" t="s">
@@ -1865,11 +1864,11 @@
       <c r="K7" s="26">
         <v>45710</v>
       </c>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
       <c r="Q7" s="26"/>
       <c r="R7" s="26"/>
       <c r="S7" s="26"/>
@@ -1906,7 +1905,7 @@
       <c r="J8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="27">
         <v>45551</v>
       </c>
       <c r="L8" s="25">
@@ -1964,8 +1963,8 @@
         <v>45662</v>
       </c>
       <c r="P9" s="25"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
       <c r="S9" s="26"/>
       <c r="T9" s="26"/>
     </row>
@@ -2159,7 +2158,7 @@
       <c r="S13" s="26">
         <v>45669</v>
       </c>
-      <c r="T13" s="31"/>
+      <c r="T13" s="30"/>
     </row>
     <row r="14" customFormat="1" ht="15.5" spans="1:20">
       <c r="A14" s="5" t="s">
@@ -2255,10 +2254,10 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
     </row>
     <row r="29" ht="17.5" spans="2:13">
       <c r="B29" s="8"/>
@@ -2269,10 +2268,10 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
     </row>
     <row r="30" ht="17.5" spans="2:12">
       <c r="B30" s="8"/>
@@ -2283,8 +2282,8 @@
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
     </row>
     <row r="31" ht="17.5" spans="2:13">
       <c r="B31" s="8"/>
@@ -2295,10 +2294,10 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
     </row>
     <row r="32" ht="17.5" spans="2:13">
       <c r="B32" s="8"/>
@@ -2309,10 +2308,10 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="50">

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="152">
   <si>
     <t>年级</t>
   </si>
@@ -122,6 +122,27 @@
     <t>70/150</t>
   </si>
   <si>
+    <t>知新识途</t>
+  </si>
+  <si>
+    <t>260/2h+300/每月</t>
+  </si>
+  <si>
+    <t>周六19：00-21：00，周日20：00-22：00</t>
+  </si>
+  <si>
+    <t>单欣俞</t>
+  </si>
+  <si>
+    <t>宜品家春秋 17-3-602</t>
+  </si>
+  <si>
+    <t>师大附中</t>
+  </si>
+  <si>
+    <t>30/150</t>
+  </si>
+  <si>
     <t>270/2h</t>
   </si>
   <si>
@@ -137,7 +158,7 @@
     <t>126中学</t>
   </si>
   <si>
-    <t>130/150</t>
+    <t>120/150</t>
   </si>
   <si>
     <t>周日14：00-16：00</t>
@@ -180,9 +201,9 @@
   </si>
   <si>
     <t>转账时间(灰色表示线上上课（课时费1小时100），绿色表示课时费已发)：
-精锐教育是当月15号；星期天培训下个月20号;
+星期天培训下个月20号;知新识途下个月20号
 2月2日至2月6日，2月10日至2月14日，李梦媛每天上了2小时
-下次考试目标：刘桐语：135，李梦媛：数学90物理50，贾梦垚：130，郭润宁：100</t>
+下次考试目标：刘桐语：140，李梦媛：数学90物理50，贾梦垚：130，郭润宁：100，单欣俞：60</t>
   </si>
   <si>
     <t>第11课</t>
@@ -278,9 +299,6 @@
     <t>丹霞山街绿谷学府3-1-403</t>
   </si>
   <si>
-    <t>30/150</t>
-  </si>
-  <si>
     <t>周一20：30-22：30</t>
   </si>
   <si>
@@ -321,9 +339,6 @@
   </si>
   <si>
     <t>一中家属院7号院1-2-201</t>
-  </si>
-  <si>
-    <t>120/150</t>
   </si>
   <si>
     <t>周二周四19：20-21：20</t>
@@ -1518,20 +1533,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="5.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="7.83333333333333" customWidth="1"/>
-    <col min="5" max="5" width="26.75" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="38.75" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
-    <col min="7" max="7" width="18.75" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
     <col min="8" max="8" width="9.875" customWidth="1"/>
     <col min="9" max="9" width="9.125" customWidth="1"/>
     <col min="10" max="10" width="10.8333333333333" customWidth="1"/>
@@ -1697,10 +1712,10 @@
       <c r="R3" s="25">
         <v>45682</v>
       </c>
-      <c r="S3" s="26">
+      <c r="S3" s="25">
         <v>45690</v>
       </c>
-      <c r="T3" s="26">
+      <c r="T3" s="25">
         <v>45691</v>
       </c>
     </row>
@@ -1715,139 +1730,121 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="24"/>
-      <c r="K4" s="26">
+      <c r="K4" s="25">
         <v>45692</v>
       </c>
-      <c r="L4" s="26">
+      <c r="L4" s="25">
         <v>45693</v>
       </c>
-      <c r="M4" s="26">
+      <c r="M4" s="25">
         <v>45694</v>
       </c>
-      <c r="N4" s="26">
+      <c r="N4" s="25">
         <v>45698</v>
       </c>
-      <c r="O4" s="26">
+      <c r="O4" s="25">
         <v>45699</v>
       </c>
-      <c r="P4" s="26">
+      <c r="P4" s="25">
         <v>45700</v>
       </c>
-      <c r="Q4" s="26">
+      <c r="Q4" s="25">
         <v>45701</v>
       </c>
-      <c r="R4" s="26">
+      <c r="R4" s="25">
         <v>45702</v>
       </c>
-      <c r="S4" s="26">
+      <c r="S4" s="25">
         <v>45705</v>
       </c>
-      <c r="T4" s="26">
+      <c r="T4" s="25">
         <v>45712</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="26">
+        <v>45718</v>
+      </c>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+    </row>
+    <row r="6" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J6" s="25">
         <v>45556</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K6" s="25">
         <v>45566</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L6" s="25">
         <v>45574</v>
       </c>
-      <c r="M5" s="25">
+      <c r="M6" s="25">
         <v>45584</v>
       </c>
-      <c r="N5" s="25">
+      <c r="N6" s="25">
         <v>45591</v>
       </c>
-      <c r="O5" s="25">
+      <c r="O6" s="25">
         <v>45598</v>
       </c>
-      <c r="P5" s="25">
+      <c r="P6" s="25">
         <v>45605</v>
       </c>
-      <c r="Q5" s="25">
+      <c r="Q6" s="25">
         <v>45612</v>
       </c>
-      <c r="R5" s="25">
+      <c r="R6" s="25">
         <v>45615</v>
       </c>
-      <c r="S5" s="25">
+      <c r="S6" s="25">
         <v>45619</v>
       </c>
-      <c r="T5" s="25">
+      <c r="T6" s="25">
         <v>45623</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25">
-        <v>45633</v>
-      </c>
-      <c r="L6" s="25">
-        <v>45640</v>
-      </c>
-      <c r="M6" s="25">
-        <v>45647</v>
-      </c>
-      <c r="N6" s="25">
-        <v>45654</v>
-      </c>
-      <c r="O6" s="25">
-        <v>45661</v>
-      </c>
-      <c r="P6" s="25">
-        <v>45668</v>
-      </c>
-      <c r="Q6" s="26">
-        <v>45676</v>
-      </c>
-      <c r="R6" s="26">
-        <v>45682</v>
-      </c>
-      <c r="S6" s="26">
-        <v>45692</v>
-      </c>
-      <c r="T6" s="26">
-        <v>45703</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="15.5" spans="1:20">
@@ -1861,110 +1858,106 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="25"/>
-      <c r="K7" s="26">
+      <c r="K7" s="25">
+        <v>45633</v>
+      </c>
+      <c r="L7" s="25">
+        <v>45640</v>
+      </c>
+      <c r="M7" s="25">
+        <v>45647</v>
+      </c>
+      <c r="N7" s="25">
+        <v>45654</v>
+      </c>
+      <c r="O7" s="25">
+        <v>45661</v>
+      </c>
+      <c r="P7" s="25">
+        <v>45668</v>
+      </c>
+      <c r="Q7" s="25">
+        <v>45676</v>
+      </c>
+      <c r="R7" s="25">
+        <v>45682</v>
+      </c>
+      <c r="S7" s="25">
+        <v>45692</v>
+      </c>
+      <c r="T7" s="25">
+        <v>45703</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25">
         <v>45710</v>
       </c>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-    </row>
-    <row r="8" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A8" s="4" t="s">
+      <c r="L8" s="25">
+        <v>45717</v>
+      </c>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+    </row>
+    <row r="9" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="27">
-        <v>45551</v>
-      </c>
-      <c r="L8" s="25">
-        <v>45557</v>
-      </c>
-      <c r="M8" s="25">
-        <v>45563</v>
-      </c>
-      <c r="N8" s="25">
-        <v>45567</v>
-      </c>
-      <c r="O8" s="25">
-        <v>45578</v>
-      </c>
-      <c r="P8" s="25">
-        <v>45585</v>
-      </c>
-      <c r="Q8" s="25">
-        <v>45592</v>
-      </c>
-      <c r="R8" s="25">
-        <v>45599</v>
-      </c>
-      <c r="S8" s="25">
-        <v>45613</v>
-      </c>
-      <c r="T8" s="25">
-        <v>45620</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="25">
-        <v>45627</v>
-      </c>
-      <c r="L9" s="25">
-        <v>45641</v>
-      </c>
-      <c r="M9" s="25">
-        <v>45648</v>
-      </c>
-      <c r="N9" s="25">
-        <v>45655</v>
-      </c>
-      <c r="O9" s="25">
-        <v>45662</v>
-      </c>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
+      <c r="I9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="25">
+        <v>45710</v>
+      </c>
+      <c r="K9" s="26">
+        <v>45717</v>
+      </c>
+      <c r="L9" s="26">
+        <v>45718</v>
+      </c>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
       <c r="S9" s="26"/>
       <c r="T9" s="26"/>
     </row>
@@ -1979,55 +1972,55 @@
         <v>22</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K10" s="27">
+        <v>45551</v>
+      </c>
+      <c r="L10" s="25">
         <v>45557</v>
       </c>
-      <c r="L10" s="25">
-        <v>45566</v>
-      </c>
       <c r="M10" s="25">
-        <v>45572</v>
+        <v>45563</v>
       </c>
       <c r="N10" s="25">
+        <v>45567</v>
+      </c>
+      <c r="O10" s="25">
+        <v>45578</v>
+      </c>
+      <c r="P10" s="25">
         <v>45585</v>
       </c>
-      <c r="O10" s="25">
+      <c r="Q10" s="25">
         <v>45592</v>
       </c>
-      <c r="P10" s="25">
+      <c r="R10" s="25">
         <v>45599</v>
       </c>
-      <c r="Q10" s="25">
-        <v>45606</v>
-      </c>
-      <c r="R10" s="25">
+      <c r="S10" s="25">
         <v>45613</v>
       </c>
-      <c r="S10" s="25">
+      <c r="T10" s="25">
         <v>45620</v>
-      </c>
-      <c r="T10" s="25">
-        <v>45627</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="15.5" spans="1:20">
@@ -2042,19 +2035,25 @@
       <c r="I11" s="4"/>
       <c r="J11" s="9"/>
       <c r="K11" s="25">
+        <v>45627</v>
+      </c>
+      <c r="L11" s="25">
         <v>45641</v>
       </c>
-      <c r="L11" s="25">
+      <c r="M11" s="25">
         <v>45648</v>
       </c>
-      <c r="M11" s="25">
+      <c r="N11" s="25">
+        <v>45655</v>
+      </c>
+      <c r="O11" s="25">
         <v>45662</v>
       </c>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
+      <c r="P11" s="25">
+        <v>45718</v>
+      </c>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
       <c r="S11" s="26"/>
       <c r="T11" s="26"/>
     </row>
@@ -2063,61 +2062,61 @@
         <v>20</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="12" t="s">
         <v>22</v>
       </c>
       <c r="K12" s="25">
-        <v>45551</v>
+        <v>45557</v>
       </c>
       <c r="L12" s="25">
-        <v>45556</v>
+        <v>45566</v>
       </c>
       <c r="M12" s="25">
-        <v>45563</v>
+        <v>45572</v>
       </c>
       <c r="N12" s="25">
-        <v>45566</v>
+        <v>45585</v>
       </c>
       <c r="O12" s="25">
-        <v>45567</v>
+        <v>45592</v>
       </c>
       <c r="P12" s="25">
-        <v>45572</v>
+        <v>45599</v>
       </c>
       <c r="Q12" s="25">
-        <v>45577</v>
+        <v>45606</v>
       </c>
       <c r="R12" s="25">
-        <v>45578</v>
+        <v>45613</v>
       </c>
       <c r="S12" s="25">
-        <v>45585</v>
+        <v>45620</v>
       </c>
       <c r="T12" s="25">
-        <v>45592</v>
+        <v>45627</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="15.5" spans="1:20">
@@ -2132,149 +2131,211 @@
       <c r="I13" s="4"/>
       <c r="J13" s="9"/>
       <c r="K13" s="25">
+        <v>45641</v>
+      </c>
+      <c r="L13" s="25">
+        <v>45648</v>
+      </c>
+      <c r="M13" s="25">
+        <v>45662</v>
+      </c>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+    </row>
+    <row r="14" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="25">
+        <v>45551</v>
+      </c>
+      <c r="L14" s="25">
+        <v>45556</v>
+      </c>
+      <c r="M14" s="25">
+        <v>45563</v>
+      </c>
+      <c r="N14" s="25">
+        <v>45566</v>
+      </c>
+      <c r="O14" s="25">
+        <v>45567</v>
+      </c>
+      <c r="P14" s="25">
+        <v>45572</v>
+      </c>
+      <c r="Q14" s="25">
+        <v>45577</v>
+      </c>
+      <c r="R14" s="25">
+        <v>45578</v>
+      </c>
+      <c r="S14" s="25">
+        <v>45585</v>
+      </c>
+      <c r="T14" s="25">
+        <v>45592</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="25">
         <v>45599</v>
       </c>
-      <c r="L13" s="25">
+      <c r="L15" s="25">
         <v>45606</v>
       </c>
-      <c r="M13" s="25">
+      <c r="M15" s="25">
         <v>45613</v>
       </c>
-      <c r="N13" s="25">
+      <c r="N15" s="25">
         <v>45627</v>
       </c>
-      <c r="O13" s="25">
+      <c r="O15" s="25">
         <v>45641</v>
       </c>
-      <c r="P13" s="25">
+      <c r="P15" s="25">
         <v>45648</v>
       </c>
-      <c r="Q13" s="25">
+      <c r="Q15" s="25">
         <v>45655</v>
       </c>
-      <c r="R13" s="26">
+      <c r="R15" s="26">
         <v>45662</v>
       </c>
-      <c r="S13" s="26">
+      <c r="S15" s="26">
         <v>45669</v>
       </c>
-      <c r="T13" s="30"/>
-    </row>
-    <row r="14" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A14" s="5" t="s">
+      <c r="T15" s="30"/>
+    </row>
+    <row r="16" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="B16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J14" s="12" t="s">
+      <c r="E16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K16" s="12">
         <v>45451</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L16" s="12">
         <v>45460</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M16" s="12">
         <v>45465</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N16" s="12">
         <v>45514</v>
       </c>
-      <c r="O14" s="12">
+      <c r="O16" s="12">
         <v>45527</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P16" s="9">
         <v>45658</v>
       </c>
-      <c r="Q14" s="26">
+      <c r="Q16" s="25">
         <v>45703</v>
       </c>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-    </row>
-    <row r="21" s="20" customFormat="1" ht="15.5"/>
-    <row r="22" s="20" customFormat="1" ht="15.5"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+    </row>
     <row r="23" s="20" customFormat="1" ht="15.5"/>
     <row r="24" s="20" customFormat="1" ht="15.5"/>
     <row r="25" s="20" customFormat="1" ht="15.5"/>
-    <row r="26" s="20" customFormat="1" ht="15.5" spans="1:9">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-    </row>
-    <row r="27" s="20" customFormat="1" ht="15.5" spans="1:9">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-    </row>
-    <row r="28" ht="17.5" spans="2:13">
-      <c r="B28" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-    </row>
-    <row r="29" ht="17.5" spans="2:13">
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-    </row>
-    <row r="30" ht="17.5" spans="2:12">
-      <c r="B30" s="8"/>
+    <row r="26" s="20" customFormat="1" ht="15.5"/>
+    <row r="27" s="20" customFormat="1" ht="15.5"/>
+    <row r="28" s="20" customFormat="1" ht="15.5" spans="1:9">
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+    </row>
+    <row r="29" s="20" customFormat="1" ht="15.5" spans="1:9">
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+    </row>
+    <row r="30" ht="17.5" spans="2:13">
+      <c r="B30" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2282,8 +2343,10 @@
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
+      <c r="J30" s="28"/>
       <c r="K30" s="28"/>
       <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
     </row>
     <row r="31" ht="17.5" spans="2:13">
       <c r="B31" s="8"/>
@@ -2299,7 +2362,7 @@
       <c r="L31" s="28"/>
       <c r="M31" s="28"/>
     </row>
-    <row r="32" ht="17.5" spans="2:13">
+    <row r="32" ht="17.5" spans="2:12">
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -2308,63 +2371,89 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
-      <c r="J32" s="28"/>
       <c r="K32" s="28"/>
       <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
+    </row>
+    <row r="33" ht="17.5" spans="2:13">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+    </row>
+    <row r="34" ht="17.5" spans="2:13">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A8"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B8"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C8"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="D6:D8"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E6:E8"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F6:F8"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="G6:G8"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H6:H8"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="I6:I8"/>
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="B28:I32"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="B30:I34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -2458,7 +2547,7 @@
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="15.5" spans="1:21">
@@ -2469,25 +2558,25 @@
         <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="J2" s="9">
         <v>45185</v>
@@ -2528,31 +2617,31 @@
     </row>
     <row r="3" customFormat="1" ht="15.5" spans="1:19">
       <c r="A3" s="4" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>22</v>
@@ -2593,25 +2682,25 @@
         <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J4" s="9">
         <v>45287</v>
@@ -2628,25 +2717,25 @@
         <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>22</v>
@@ -2682,31 +2771,31 @@
     </row>
     <row r="6" customFormat="1" ht="15.5" spans="1:20">
       <c r="A6" s="4" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J6" s="9">
         <v>45320</v>
@@ -2750,25 +2839,25 @@
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>22</v>
@@ -2796,25 +2885,25 @@
         <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H8" s="6">
         <v>126</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="J8" s="14">
         <v>45425</v>
@@ -2834,28 +2923,28 @@
         <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="J9" s="9">
         <v>45186</v>
@@ -3007,25 +3096,25 @@
         <v>21</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="J13" s="17" t="s">
         <v>22</v>
@@ -3093,25 +3182,25 @@
         <v>21</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>22</v>
@@ -3146,28 +3235,28 @@
         <v>20</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J16" s="11" t="s">
         <v>22</v>
@@ -3211,25 +3300,25 @@
         <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="J17" s="17" t="s">
         <v>22</v>
@@ -3305,22 +3394,22 @@
         <v>21</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>34</v>
@@ -3399,25 +3488,25 @@
         <v>21</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>22</v>
@@ -3535,25 +3624,25 @@
         <v>21</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="J24" s="19" t="s">
         <v>22</v>
@@ -3671,31 +3760,31 @@
     </row>
     <row r="28" customFormat="1" ht="15.5" spans="1:20">
       <c r="A28" s="5" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>22</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="J28" s="12" t="s">
         <v>22</v>
@@ -3718,28 +3807,28 @@
         <v>20</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J29" s="12" t="s">
         <v>22</v>
@@ -3772,28 +3861,28 @@
         <v>20</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="J30" s="12" t="s">
         <v>22</v>
@@ -3811,31 +3900,31 @@
     </row>
     <row r="31" customFormat="1" ht="15.5" spans="1:20">
       <c r="A31" s="5" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C31" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>131</v>
-      </c>
       <c r="F31" s="4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="J31" s="9">
         <v>45543</v>
@@ -3871,25 +3960,25 @@
         <v>21</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="J32" s="12" t="s">
         <v>22</v>
@@ -4081,7 +4170,7 @@
     </row>
     <row r="40" spans="2:11">
       <c r="B40" s="8" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -202,7 +202,6 @@
   <si>
     <t>转账时间(灰色表示线上上课（课时费1小时100），绿色表示课时费已发)：
 星期天培训下个月20号;知新识途下个月20号
-2月2日至2月6日，2月10日至2月14日，李梦媛每天上了2小时
 下次考试目标：刘桐语：140，李梦媛：数学90物理50，贾梦垚：130，郭润宁：100，单欣俞：60</t>
   </si>
   <si>
@@ -1536,7 +1535,7 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1775,7 +1774,9 @@
       <c r="K5" s="26">
         <v>45718</v>
       </c>
-      <c r="L5" s="26"/>
+      <c r="L5" s="26">
+        <v>45719</v>
+      </c>
       <c r="M5" s="26"/>
       <c r="N5" s="26"/>
       <c r="O5" s="26"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -1535,7 +1535,7 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1777,7 +1777,9 @@
       <c r="L5" s="26">
         <v>45719</v>
       </c>
-      <c r="M5" s="26"/>
+      <c r="M5" s="26">
+        <v>45721</v>
+      </c>
       <c r="N5" s="26"/>
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="153">
   <si>
     <t>年级</t>
   </si>
@@ -194,7 +194,7 @@
     <t>耳鼻喉科专科医院旁巷子201室</t>
   </si>
   <si>
-    <t>13中</t>
+    <t>一中</t>
   </si>
   <si>
     <t>85/100</t>
@@ -332,6 +332,9 @@
   </si>
   <si>
     <t>邮区中心局小区3-4-602</t>
+  </si>
+  <si>
+    <t>13中</t>
   </si>
   <si>
     <t>李冰惠</t>
@@ -1131,7 +1134,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1212,7 +1215,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1535,7 +1537,7 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1780,7 +1782,6 @@
       <c r="M5" s="26">
         <v>45721</v>
       </c>
-      <c r="N5" s="26"/>
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>
       <c r="Q5" s="26"/>
@@ -1909,8 +1910,9 @@
       <c r="L8" s="25">
         <v>45717</v>
       </c>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
+      <c r="M8" s="26">
+        <v>45724</v>
+      </c>
       <c r="O8" s="26"/>
       <c r="P8" s="26"/>
       <c r="Q8" s="26"/>
@@ -1955,8 +1957,12 @@
       <c r="L9" s="26">
         <v>45718</v>
       </c>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
+      <c r="M9" s="26">
+        <v>45724</v>
+      </c>
+      <c r="N9" s="26">
+        <v>45725</v>
+      </c>
       <c r="O9" s="26"/>
       <c r="P9" s="26"/>
       <c r="Q9" s="26"/>
@@ -2055,7 +2061,9 @@
       <c r="P11" s="25">
         <v>45718</v>
       </c>
-      <c r="Q11" s="29"/>
+      <c r="Q11" s="26">
+        <v>45725</v>
+      </c>
       <c r="R11" s="29"/>
       <c r="S11" s="26"/>
       <c r="T11" s="26"/>
@@ -2250,7 +2258,9 @@
       <c r="S15" s="26">
         <v>45669</v>
       </c>
-      <c r="T15" s="30"/>
+      <c r="T15" s="26">
+        <v>45725</v>
+      </c>
     </row>
     <row r="16" customFormat="1" ht="15.5" spans="1:20">
       <c r="A16" s="5" t="s">
@@ -3114,7 +3124,7 @@
         <v>104</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>69</v>
@@ -3194,10 +3204,10 @@
         <v>90</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>68</v>
@@ -3247,19 +3257,19 @@
         <v>29</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J16" s="11" t="s">
         <v>22</v>
@@ -3309,19 +3319,19 @@
         <v>29</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J17" s="17" t="s">
         <v>22</v>
@@ -3403,16 +3413,16 @@
         <v>29</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>34</v>
@@ -3497,19 +3507,19 @@
         <v>29</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>22</v>
@@ -3633,16 +3643,16 @@
         <v>29</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>88</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>47</v>
@@ -3763,7 +3773,7 @@
     </row>
     <row r="28" customFormat="1" ht="15.5" spans="1:20">
       <c r="A28" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>21</v>
@@ -3772,22 +3782,22 @@
         <v>55</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>22</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J28" s="12" t="s">
         <v>22</v>
@@ -3819,13 +3829,13 @@
         <v>29</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>68</v>
@@ -3870,22 +3880,22 @@
         <v>22</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J30" s="12" t="s">
         <v>22</v>
@@ -3903,31 +3913,31 @@
     </row>
     <row r="31" customFormat="1" ht="15.5" spans="1:20">
       <c r="A31" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>68</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J31" s="9">
         <v>45543</v>
@@ -3963,25 +3973,25 @@
         <v>21</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>68</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J32" s="12" t="s">
         <v>22</v>
@@ -4173,7 +4183,7 @@
     </row>
     <row r="40" spans="2:11">
       <c r="B40" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -1536,8 +1536,8 @@
   <sheetPr/>
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1781,6 +1781,9 @@
       </c>
       <c r="M5" s="26">
         <v>45721</v>
+      </c>
+      <c r="N5" s="26">
+        <v>45726</v>
       </c>
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -161,15 +161,6 @@
     <t>120/150</t>
   </si>
   <si>
-    <t>周日14：00-16：00</t>
-  </si>
-  <si>
-    <t>贾梦垚</t>
-  </si>
-  <si>
-    <t>德泽园3区1-1-101</t>
-  </si>
-  <si>
     <t>物理</t>
   </si>
   <si>
@@ -180,24 +171,6 @@
   </si>
   <si>
     <t>39/90</t>
-  </si>
-  <si>
-    <t>一尔优教育</t>
-  </si>
-  <si>
-    <t>周六12：00-14：00</t>
-  </si>
-  <si>
-    <t>张佳宁</t>
-  </si>
-  <si>
-    <t>耳鼻喉科专科医院旁巷子201室</t>
-  </si>
-  <si>
-    <t>一中</t>
-  </si>
-  <si>
-    <t>85/100</t>
   </si>
   <si>
     <t>转账时间(灰色表示线上上课（课时费1小时100），绿色表示课时费已发)：
@@ -289,6 +262,9 @@
     <t>60/100</t>
   </si>
   <si>
+    <t>一尔优教育</t>
+  </si>
+  <si>
     <t>周日18：00-20：00</t>
   </si>
   <si>
@@ -473,6 +449,30 @@
   </si>
   <si>
     <t>110/150</t>
+  </si>
+  <si>
+    <t>周日14：00-16：00</t>
+  </si>
+  <si>
+    <t>贾梦垚</t>
+  </si>
+  <si>
+    <t>德泽园3区1-1-101</t>
+  </si>
+  <si>
+    <t>周六12：00-14：00</t>
+  </si>
+  <si>
+    <t>张佳宁</t>
+  </si>
+  <si>
+    <t>耳鼻喉科专科医院旁巷子201室</t>
+  </si>
+  <si>
+    <t>一中</t>
+  </si>
+  <si>
+    <t>85/100</t>
   </si>
   <si>
     <t xml:space="preserve">绿色表示课时费已发；
@@ -1134,7 +1134,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1190,6 +1190,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1202,13 +1208,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1534,10 +1537,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1644,37 +1647,37 @@
       <c r="I2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="25">
+      <c r="K2" s="21">
         <v>45643</v>
       </c>
-      <c r="L2" s="25">
+      <c r="L2" s="21">
         <v>45649</v>
       </c>
-      <c r="M2" s="25">
+      <c r="M2" s="21">
         <v>45650</v>
       </c>
-      <c r="N2" s="25">
+      <c r="N2" s="21">
         <v>45653</v>
       </c>
-      <c r="O2" s="25">
+      <c r="O2" s="21">
         <v>45658</v>
       </c>
-      <c r="P2" s="25">
+      <c r="P2" s="21">
         <v>45660</v>
       </c>
-      <c r="Q2" s="25">
+      <c r="Q2" s="21">
         <v>45663</v>
       </c>
-      <c r="R2" s="25">
+      <c r="R2" s="21">
         <v>45664</v>
       </c>
-      <c r="S2" s="25">
+      <c r="S2" s="21">
         <v>45667</v>
       </c>
-      <c r="T2" s="25">
+      <c r="T2" s="21">
         <v>45670</v>
       </c>
     </row>
@@ -1688,35 +1691,35 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="25">
+      <c r="J3" s="26"/>
+      <c r="K3" s="21">
         <v>45675</v>
       </c>
-      <c r="L3" s="25">
+      <c r="L3" s="21">
         <v>45676</v>
       </c>
-      <c r="M3" s="25">
+      <c r="M3" s="21">
         <v>45677</v>
       </c>
-      <c r="N3" s="25">
+      <c r="N3" s="21">
         <v>45678</v>
       </c>
-      <c r="O3" s="25">
+      <c r="O3" s="21">
         <v>45679</v>
       </c>
-      <c r="P3" s="25">
+      <c r="P3" s="21">
         <v>45680</v>
       </c>
-      <c r="Q3" s="25">
+      <c r="Q3" s="21">
         <v>45681</v>
       </c>
-      <c r="R3" s="25">
+      <c r="R3" s="21">
         <v>45682</v>
       </c>
-      <c r="S3" s="25">
+      <c r="S3" s="21">
         <v>45690</v>
       </c>
-      <c r="T3" s="25">
+      <c r="T3" s="21">
         <v>45691</v>
       </c>
     </row>
@@ -1730,35 +1733,35 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="25">
+      <c r="J4" s="26"/>
+      <c r="K4" s="21">
         <v>45692</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="21">
         <v>45693</v>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="21">
         <v>45694</v>
       </c>
-      <c r="N4" s="25">
+      <c r="N4" s="21">
         <v>45698</v>
       </c>
-      <c r="O4" s="25">
+      <c r="O4" s="21">
         <v>45699</v>
       </c>
-      <c r="P4" s="25">
+      <c r="P4" s="21">
         <v>45700</v>
       </c>
-      <c r="Q4" s="25">
+      <c r="Q4" s="21">
         <v>45701</v>
       </c>
-      <c r="R4" s="25">
+      <c r="R4" s="21">
         <v>45702</v>
       </c>
-      <c r="S4" s="25">
+      <c r="S4" s="21">
         <v>45705</v>
       </c>
-      <c r="T4" s="25">
+      <c r="T4" s="21">
         <v>45712</v>
       </c>
     </row>
@@ -1772,25 +1775,25 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="26">
+      <c r="J5" s="26"/>
+      <c r="K5" s="22">
         <v>45718</v>
       </c>
-      <c r="L5" s="26">
+      <c r="L5" s="22">
         <v>45719</v>
       </c>
-      <c r="M5" s="26">
+      <c r="M5" s="22">
         <v>45721</v>
       </c>
-      <c r="N5" s="26">
+      <c r="N5" s="22">
         <v>45726</v>
       </c>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
     </row>
     <row r="6" customFormat="1" ht="15.5" spans="1:20">
       <c r="A6" s="4" t="s">
@@ -1820,37 +1823,37 @@
       <c r="I6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="21">
         <v>45556</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="21">
         <v>45566</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="21">
         <v>45574</v>
       </c>
-      <c r="M6" s="25">
+      <c r="M6" s="21">
         <v>45584</v>
       </c>
-      <c r="N6" s="25">
+      <c r="N6" s="21">
         <v>45591</v>
       </c>
-      <c r="O6" s="25">
+      <c r="O6" s="21">
         <v>45598</v>
       </c>
-      <c r="P6" s="25">
+      <c r="P6" s="21">
         <v>45605</v>
       </c>
-      <c r="Q6" s="25">
+      <c r="Q6" s="21">
         <v>45612</v>
       </c>
-      <c r="R6" s="25">
+      <c r="R6" s="21">
         <v>45615</v>
       </c>
-      <c r="S6" s="25">
+      <c r="S6" s="21">
         <v>45619</v>
       </c>
-      <c r="T6" s="25">
+      <c r="T6" s="21">
         <v>45623</v>
       </c>
     </row>
@@ -1864,35 +1867,35 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25">
+      <c r="J7" s="21"/>
+      <c r="K7" s="21">
         <v>45633</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="21">
         <v>45640</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="21">
         <v>45647</v>
       </c>
-      <c r="N7" s="25">
+      <c r="N7" s="21">
         <v>45654</v>
       </c>
-      <c r="O7" s="25">
+      <c r="O7" s="21">
         <v>45661</v>
       </c>
-      <c r="P7" s="25">
+      <c r="P7" s="21">
         <v>45668</v>
       </c>
-      <c r="Q7" s="25">
+      <c r="Q7" s="21">
         <v>45676</v>
       </c>
-      <c r="R7" s="25">
+      <c r="R7" s="21">
         <v>45682</v>
       </c>
-      <c r="S7" s="25">
+      <c r="S7" s="21">
         <v>45692</v>
       </c>
-      <c r="T7" s="25">
+      <c r="T7" s="21">
         <v>45703</v>
       </c>
     </row>
@@ -1906,22 +1909,25 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25">
+      <c r="J8" s="21"/>
+      <c r="K8" s="21">
         <v>45710</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="21">
         <v>45717</v>
       </c>
-      <c r="M8" s="26">
+      <c r="M8" s="22">
         <v>45724</v>
       </c>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
+      <c r="N8" s="22">
+        <v>45731</v>
+      </c>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
     </row>
     <row r="9" customFormat="1" ht="15.5" spans="1:20">
       <c r="A9" s="5" t="s">
@@ -1951,27 +1957,31 @@
       <c r="I9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J9" s="21">
         <v>45710</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="22">
         <v>45717</v>
       </c>
-      <c r="L9" s="26">
+      <c r="L9" s="22">
         <v>45718</v>
       </c>
-      <c r="M9" s="26">
+      <c r="M9" s="22">
         <v>45724</v>
       </c>
-      <c r="N9" s="26">
+      <c r="N9" s="22">
         <v>45725</v>
       </c>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
+      <c r="O9" s="22">
+        <v>45731</v>
+      </c>
+      <c r="P9" s="22">
+        <v>45732</v>
+      </c>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
     </row>
     <row r="10" customFormat="1" ht="15.5" spans="1:20">
       <c r="A10" s="4" t="s">
@@ -2007,31 +2017,31 @@
       <c r="K10" s="27">
         <v>45551</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10" s="21">
         <v>45557</v>
       </c>
-      <c r="M10" s="25">
+      <c r="M10" s="21">
         <v>45563</v>
       </c>
-      <c r="N10" s="25">
+      <c r="N10" s="21">
         <v>45567</v>
       </c>
-      <c r="O10" s="25">
+      <c r="O10" s="21">
         <v>45578</v>
       </c>
-      <c r="P10" s="25">
+      <c r="P10" s="21">
         <v>45585</v>
       </c>
-      <c r="Q10" s="25">
+      <c r="Q10" s="21">
         <v>45592</v>
       </c>
-      <c r="R10" s="25">
+      <c r="R10" s="21">
         <v>45599</v>
       </c>
-      <c r="S10" s="25">
+      <c r="S10" s="21">
         <v>45613</v>
       </c>
-      <c r="T10" s="25">
+      <c r="T10" s="21">
         <v>45620</v>
       </c>
     </row>
@@ -2046,312 +2056,204 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="9"/>
-      <c r="K11" s="25">
+      <c r="K11" s="21">
         <v>45627</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11" s="21">
         <v>45641</v>
       </c>
-      <c r="M11" s="25">
+      <c r="M11" s="21">
         <v>45648</v>
       </c>
-      <c r="N11" s="25">
+      <c r="N11" s="21">
         <v>45655</v>
       </c>
-      <c r="O11" s="25">
+      <c r="O11" s="21">
         <v>45662</v>
       </c>
-      <c r="P11" s="25">
+      <c r="P11" s="21">
         <v>45718</v>
       </c>
-      <c r="Q11" s="26">
+      <c r="Q11" s="21">
         <v>45725</v>
       </c>
-      <c r="R11" s="29"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
+      <c r="R11" s="21">
+        <v>45732</v>
+      </c>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
     </row>
     <row r="12" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+    </row>
+    <row r="13" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="B13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="25">
-        <v>45557</v>
-      </c>
-      <c r="L12" s="25">
+      <c r="K13" s="21">
+        <v>45551</v>
+      </c>
+      <c r="L13" s="21">
+        <v>45556</v>
+      </c>
+      <c r="M13" s="21">
+        <v>45563</v>
+      </c>
+      <c r="N13" s="21">
         <v>45566</v>
       </c>
-      <c r="M12" s="25">
+      <c r="O13" s="21">
+        <v>45567</v>
+      </c>
+      <c r="P13" s="21">
         <v>45572</v>
       </c>
-      <c r="N12" s="25">
+      <c r="Q13" s="21">
+        <v>45577</v>
+      </c>
+      <c r="R13" s="21">
+        <v>45578</v>
+      </c>
+      <c r="S13" s="21">
         <v>45585</v>
       </c>
-      <c r="O12" s="25">
+      <c r="T13" s="21">
         <v>45592</v>
       </c>
-      <c r="P12" s="25">
+    </row>
+    <row r="14" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="21">
         <v>45599</v>
       </c>
-      <c r="Q12" s="25">
+      <c r="L14" s="21">
         <v>45606</v>
       </c>
-      <c r="R12" s="25">
+      <c r="M14" s="21">
         <v>45613</v>
       </c>
-      <c r="S12" s="25">
-        <v>45620</v>
-      </c>
-      <c r="T12" s="25">
+      <c r="N14" s="21">
         <v>45627</v>
       </c>
-    </row>
-    <row r="13" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="25">
+      <c r="O14" s="21">
         <v>45641</v>
       </c>
-      <c r="L13" s="25">
+      <c r="P14" s="21">
         <v>45648</v>
       </c>
-      <c r="M13" s="25">
+      <c r="Q14" s="21">
+        <v>45655</v>
+      </c>
+      <c r="R14" s="22">
         <v>45662</v>
       </c>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-    </row>
-    <row r="14" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="25">
-        <v>45551</v>
-      </c>
-      <c r="L14" s="25">
-        <v>45556</v>
-      </c>
-      <c r="M14" s="25">
-        <v>45563</v>
-      </c>
-      <c r="N14" s="25">
-        <v>45566</v>
-      </c>
-      <c r="O14" s="25">
-        <v>45567</v>
-      </c>
-      <c r="P14" s="25">
-        <v>45572</v>
-      </c>
-      <c r="Q14" s="25">
-        <v>45577</v>
-      </c>
-      <c r="R14" s="25">
-        <v>45578</v>
-      </c>
-      <c r="S14" s="25">
-        <v>45585</v>
-      </c>
-      <c r="T14" s="25">
-        <v>45592</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="25">
-        <v>45599</v>
-      </c>
-      <c r="L15" s="25">
-        <v>45606</v>
-      </c>
-      <c r="M15" s="25">
-        <v>45613</v>
-      </c>
-      <c r="N15" s="25">
-        <v>45627</v>
-      </c>
-      <c r="O15" s="25">
-        <v>45641</v>
-      </c>
-      <c r="P15" s="25">
-        <v>45648</v>
-      </c>
-      <c r="Q15" s="25">
-        <v>45655</v>
-      </c>
-      <c r="R15" s="26">
-        <v>45662</v>
-      </c>
-      <c r="S15" s="26">
+      <c r="S14" s="22">
         <v>45669</v>
       </c>
-      <c r="T15" s="26">
+      <c r="T14" s="22">
         <v>45725</v>
       </c>
     </row>
-    <row r="16" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16" s="12">
-        <v>45451</v>
-      </c>
-      <c r="L16" s="12">
-        <v>45460</v>
-      </c>
-      <c r="M16" s="12">
-        <v>45465</v>
-      </c>
-      <c r="N16" s="12">
-        <v>45514</v>
-      </c>
-      <c r="O16" s="12">
-        <v>45527</v>
-      </c>
-      <c r="P16" s="9">
-        <v>45658</v>
-      </c>
-      <c r="Q16" s="25">
-        <v>45703</v>
-      </c>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-    </row>
+    <row r="22" s="20" customFormat="1" ht="15.5"/>
     <row r="23" s="20" customFormat="1" ht="15.5"/>
     <row r="24" s="20" customFormat="1" ht="15.5"/>
     <row r="25" s="20" customFormat="1" ht="15.5"/>
     <row r="26" s="20" customFormat="1" ht="15.5"/>
-    <row r="27" s="20" customFormat="1" ht="15.5"/>
+    <row r="27" s="20" customFormat="1" ht="15.5" spans="1:9">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+    </row>
     <row r="28" s="20" customFormat="1" ht="15.5" spans="1:9">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-    </row>
-    <row r="29" s="20" customFormat="1" ht="15.5" spans="1:9">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+    </row>
+    <row r="29" ht="17.5" spans="2:13">
+      <c r="B29" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
     </row>
     <row r="30" ht="17.5" spans="2:13">
-      <c r="B30" s="8" t="s">
-        <v>61</v>
-      </c>
+      <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2359,12 +2261,12 @@
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-    </row>
-    <row r="31" ht="17.5" spans="2:13">
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+    </row>
+    <row r="31" ht="17.5" spans="2:12">
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -2373,12 +2275,10 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-    </row>
-    <row r="32" ht="17.5" spans="2:12">
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+    </row>
+    <row r="32" ht="17.5" spans="2:13">
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -2387,8 +2287,10 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
     </row>
     <row r="33" ht="17.5" spans="2:13">
       <c r="B33" s="8"/>
@@ -2399,77 +2301,54 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-    </row>
-    <row r="34" ht="17.5" spans="2:13">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="41">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B14"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D14"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="E13:E14"/>
     <mergeCell ref="F2:F5"/>
     <mergeCell ref="F6:F8"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="F13:F14"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="G6:G8"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G13:G14"/>
     <mergeCell ref="H2:H5"/>
     <mergeCell ref="H6:H8"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="H13:H14"/>
     <mergeCell ref="I2:I5"/>
     <mergeCell ref="I6:I8"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="I13:I14"/>
     <mergeCell ref="J2:J5"/>
     <mergeCell ref="J6:J8"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="B30:I34"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="B29:I33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -2480,10 +2359,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U46"/>
+  <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A27" sqref="$A27:$XFD27"/>
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2563,7 +2442,7 @@
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="15.5" spans="1:21">
@@ -2574,25 +2453,25 @@
         <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="J2" s="9">
         <v>45185</v>
@@ -2633,31 +2512,31 @@
     </row>
     <row r="3" customFormat="1" ht="15.5" spans="1:19">
       <c r="A3" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>22</v>
@@ -2698,25 +2577,25 @@
         <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J4" s="9">
         <v>45287</v>
@@ -2733,25 +2612,25 @@
         <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>22</v>
@@ -2787,31 +2666,31 @@
     </row>
     <row r="6" customFormat="1" ht="15.5" spans="1:20">
       <c r="A6" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>46</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J6" s="9">
         <v>45320</v>
@@ -2855,19 +2734,19 @@
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>46</v>
@@ -2901,25 +2780,25 @@
         <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H8" s="6">
         <v>126</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="J8" s="14">
         <v>45425</v>
@@ -2939,28 +2818,28 @@
         <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="J9" s="9">
         <v>45186</v>
@@ -3112,25 +2991,25 @@
         <v>21</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="J13" s="17" t="s">
         <v>22</v>
@@ -3198,22 +3077,22 @@
         <v>21</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>47</v>
@@ -3251,28 +3130,28 @@
         <v>20</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="J16" s="11" t="s">
         <v>22</v>
@@ -3316,25 +3195,25 @@
         <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="J17" s="17" t="s">
         <v>22</v>
@@ -3410,22 +3289,22 @@
         <v>21</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>34</v>
@@ -3504,25 +3383,25 @@
         <v>21</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>22</v>
@@ -3640,22 +3519,22 @@
         <v>21</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>47</v>
@@ -3774,259 +3653,321 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
+    <row r="27" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A27" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="9">
+        <v>45551</v>
+      </c>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+    </row>
     <row r="28" customFormat="1" ht="15.5" spans="1:20">
       <c r="A28" s="5" t="s">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>133</v>
+        <v>59</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="J28" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="9">
-        <v>45551</v>
-      </c>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-    </row>
-    <row r="29" customFormat="1" ht="15.5" spans="1:20">
+      <c r="K28" s="12">
+        <v>45430</v>
+      </c>
+      <c r="L28" s="12">
+        <v>45437</v>
+      </c>
+      <c r="M28" s="12">
+        <v>45451</v>
+      </c>
+      <c r="N28" s="12">
+        <v>45458</v>
+      </c>
+      <c r="O28" s="12">
+        <v>45465</v>
+      </c>
+      <c r="P28" s="9">
+        <v>45572</v>
+      </c>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+    </row>
+    <row r="29" customFormat="1" ht="15.5" spans="1:18">
       <c r="A29" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>89</v>
+        <v>130</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="J29" s="12" t="s">
         <v>22</v>
       </c>
       <c r="K29" s="12">
-        <v>45430</v>
-      </c>
-      <c r="L29" s="12">
-        <v>45437</v>
-      </c>
-      <c r="M29" s="12">
-        <v>45451</v>
-      </c>
-      <c r="N29" s="12">
-        <v>45458</v>
-      </c>
-      <c r="O29" s="12">
-        <v>45465</v>
-      </c>
-      <c r="P29" s="9">
-        <v>45572</v>
-      </c>
+        <v>45552</v>
+      </c>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
       <c r="Q29" s="16"/>
       <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-    </row>
-    <row r="30" customFormat="1" ht="15.5" spans="1:18">
+    </row>
+    <row r="30" customFormat="1" ht="15.5" spans="1:20">
       <c r="A30" s="5" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="D30" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="G30" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="H30" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I30" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K30" s="12">
-        <v>45552</v>
-      </c>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
+      <c r="J30" s="9">
+        <v>45543</v>
+      </c>
+      <c r="K30" s="9">
+        <v>45550</v>
+      </c>
+      <c r="L30" s="9">
+        <v>45557</v>
+      </c>
+      <c r="M30" s="9">
+        <v>45578</v>
+      </c>
+      <c r="N30" s="9">
+        <v>45584</v>
+      </c>
+      <c r="O30" s="9">
+        <v>45591</v>
+      </c>
+      <c r="P30" s="9">
+        <v>45598</v>
+      </c>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
     </row>
     <row r="31" customFormat="1" ht="15.5" spans="1:20">
       <c r="A31" s="5" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C31" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="H31" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F31" s="4" t="s">
+      <c r="J31" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K31" s="12">
+        <v>45543</v>
+      </c>
+      <c r="L31" s="9">
+        <v>45566</v>
+      </c>
+      <c r="M31" s="9">
+        <v>45567</v>
+      </c>
+      <c r="N31" s="9">
+        <v>45585</v>
+      </c>
+      <c r="O31" s="9">
+        <v>45592</v>
+      </c>
+      <c r="P31" s="9">
+        <v>45599</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>45606</v>
+      </c>
+      <c r="R31" s="10">
+        <v>45613</v>
+      </c>
+      <c r="S31" s="10">
+        <v>45620</v>
+      </c>
+      <c r="T31" s="9">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="F32" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="H31" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I31" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="J31" s="9">
-        <v>45543</v>
-      </c>
-      <c r="K31" s="9">
-        <v>45550</v>
-      </c>
-      <c r="L31" s="9">
-        <v>45557</v>
-      </c>
-      <c r="M31" s="9">
-        <v>45578</v>
-      </c>
-      <c r="N31" s="9">
-        <v>45584</v>
-      </c>
-      <c r="O31" s="9">
-        <v>45591</v>
-      </c>
-      <c r="P31" s="9">
-        <v>45598</v>
-      </c>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="20"/>
-    </row>
-    <row r="32" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A32" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>68</v>
+      <c r="H32" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="J32" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K32" s="12">
-        <v>45543</v>
-      </c>
-      <c r="L32" s="9">
+      <c r="K32" s="21">
+        <v>45557</v>
+      </c>
+      <c r="L32" s="21">
         <v>45566</v>
       </c>
-      <c r="M32" s="9">
-        <v>45567</v>
-      </c>
-      <c r="N32" s="9">
+      <c r="M32" s="21">
+        <v>45572</v>
+      </c>
+      <c r="N32" s="21">
         <v>45585</v>
       </c>
-      <c r="O32" s="9">
+      <c r="O32" s="21">
         <v>45592</v>
       </c>
-      <c r="P32" s="9">
+      <c r="P32" s="21">
         <v>45599</v>
       </c>
-      <c r="Q32" s="9">
+      <c r="Q32" s="21">
         <v>45606</v>
       </c>
-      <c r="R32" s="10">
+      <c r="R32" s="21">
         <v>45613</v>
       </c>
-      <c r="S32" s="10">
+      <c r="S32" s="21">
         <v>45620</v>
       </c>
-      <c r="T32" s="9">
+      <c r="T32" s="21">
         <v>45627</v>
       </c>
     </row>
@@ -4040,39 +3981,79 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="21">
+        <v>45641</v>
+      </c>
+      <c r="L33" s="21">
+        <v>45648</v>
+      </c>
+      <c r="M33" s="21">
+        <v>45662</v>
+      </c>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
       <c r="S33" s="22"/>
       <c r="T33" s="22"/>
     </row>
     <row r="34" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="22"/>
-      <c r="T34" s="22"/>
+      <c r="A34" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" s="12">
+        <v>45451</v>
+      </c>
+      <c r="L34" s="12">
+        <v>45460</v>
+      </c>
+      <c r="M34" s="12">
+        <v>45465</v>
+      </c>
+      <c r="N34" s="12">
+        <v>45514</v>
+      </c>
+      <c r="O34" s="12">
+        <v>45527</v>
+      </c>
+      <c r="P34" s="9">
+        <v>45658</v>
+      </c>
+      <c r="Q34" s="21">
+        <v>45703</v>
+      </c>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
     </row>
     <row r="35" customFormat="1" ht="15.5" spans="1:20">
       <c r="A35" s="4"/>
@@ -4084,17 +4065,17 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="24"/>
+      <c r="T35" s="24"/>
     </row>
     <row r="36" customFormat="1" ht="15.5" spans="1:20">
       <c r="A36" s="4"/>
@@ -4106,17 +4087,17 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="21"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="22"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="24"/>
     </row>
     <row r="37" customFormat="1" ht="15.5" spans="1:20">
       <c r="A37" s="4"/>
@@ -4128,17 +4109,17 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="22"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="24"/>
+      <c r="T37" s="24"/>
     </row>
     <row r="38" customFormat="1" ht="15.5" spans="1:20">
       <c r="A38" s="4"/>
@@ -4150,17 +4131,17 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="22"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="23"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="24"/>
     </row>
     <row r="39" customFormat="1" ht="15.5" spans="1:20">
       <c r="A39" s="4"/>
@@ -4172,46 +4153,66 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="21"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="22"/>
-    </row>
-    <row r="40" spans="2:11">
-      <c r="B40" s="8" t="s">
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="23"/>
+      <c r="S39" s="24"/>
+      <c r="T39" s="24"/>
+    </row>
+    <row r="40" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23"/>
+      <c r="S40" s="24"/>
+      <c r="T40" s="24"/>
+    </row>
+    <row r="41" customFormat="1" ht="15.5" spans="1:20">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="23"/>
+      <c r="S41" s="24"/>
+      <c r="T41" s="24"/>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-    </row>
-    <row r="41" spans="2:11">
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-    </row>
-    <row r="42" spans="2:11">
-      <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -4270,69 +4271,102 @@
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
     </row>
+    <row r="47" spans="2:11">
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="61">
+  <mergeCells count="70">
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A32:A33"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B32:B33"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C32:C33"/>
     <mergeCell ref="D9:D12"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="D21:D23"/>
     <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D32:D33"/>
     <mergeCell ref="E9:E12"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="E21:E23"/>
     <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E32:E33"/>
     <mergeCell ref="F9:F12"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="F21:F23"/>
     <mergeCell ref="F24:F26"/>
+    <mergeCell ref="F32:F33"/>
     <mergeCell ref="G9:G12"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="G21:G23"/>
     <mergeCell ref="G24:G26"/>
+    <mergeCell ref="G32:G33"/>
     <mergeCell ref="H9:H12"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="H21:H23"/>
     <mergeCell ref="H24:H26"/>
+    <mergeCell ref="H32:H33"/>
     <mergeCell ref="I9:I12"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="I24:I26"/>
+    <mergeCell ref="I32:I33"/>
     <mergeCell ref="J9:J12"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="J19:J20"/>
     <mergeCell ref="J21:J23"/>
     <mergeCell ref="J24:J26"/>
-    <mergeCell ref="B40:K46"/>
+    <mergeCell ref="B42:K48"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12330"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Doing" sheetId="1" r:id="rId1"/>
@@ -487,11 +487,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -989,7 +989,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -998,10 +998,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1010,7 +1010,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1134,7 +1134,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1190,10 +1190,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1208,16 +1208,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1539,11 +1536,11 @@
   <sheetPr/>
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="5.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.6666666666667" customWidth="1"/>
@@ -1557,7 +1554,7 @@
     <col min="11" max="20" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:20">
+    <row r="1" ht="15.75" spans="1:20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1619,7 +1616,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.5" spans="1:20">
+    <row r="2" customFormat="1" ht="15.75" spans="1:20">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -1681,7 +1678,7 @@
         <v>45670</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15.5" spans="1:20">
+    <row r="3" customFormat="1" ht="15.75" spans="1:20">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1723,7 +1720,7 @@
         <v>45691</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.5" spans="1:20">
+    <row r="4" customFormat="1" ht="15.75" spans="1:20">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1765,7 +1762,7 @@
         <v>45712</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15.5" spans="1:20">
+    <row r="5" customFormat="1" ht="15.75" spans="1:20">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1795,7 +1792,7 @@
       <c r="S5" s="22"/>
       <c r="T5" s="22"/>
     </row>
-    <row r="6" customFormat="1" ht="15.5" spans="1:20">
+    <row r="6" customFormat="1" ht="15.75" spans="1:20">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1857,7 +1854,7 @@
         <v>45623</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.5" spans="1:20">
+    <row r="7" customFormat="1" ht="15.75" spans="1:20">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1899,7 +1896,7 @@
         <v>45703</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="15.5" spans="1:20">
+    <row r="8" customFormat="1" ht="15.75" spans="1:20">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1929,7 +1926,7 @@
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
     </row>
-    <row r="9" customFormat="1" ht="15.5" spans="1:20">
+    <row r="9" customFormat="1" ht="15.75" spans="1:20">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
@@ -1983,7 +1980,7 @@
       <c r="S9" s="22"/>
       <c r="T9" s="22"/>
     </row>
-    <row r="10" customFormat="1" ht="15.5" spans="1:20">
+    <row r="10" customFormat="1" ht="15.75" spans="1:20">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
@@ -2045,7 +2042,7 @@
         <v>45620</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15.5" spans="1:20">
+    <row r="11" customFormat="1" ht="15.75" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2083,7 +2080,7 @@
       <c r="S11" s="21"/>
       <c r="T11" s="21"/>
     </row>
-    <row r="12" customFormat="1" ht="15.5" spans="1:20">
+    <row r="12" customFormat="1" ht="15.75" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2095,17 +2092,17 @@
       <c r="I12" s="4"/>
       <c r="J12" s="9"/>
       <c r="K12" s="21"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-    </row>
-    <row r="13" customFormat="1" ht="15.5" spans="1:20">
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+    </row>
+    <row r="13" customFormat="1" ht="15.75" spans="1:20">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -2167,7 +2164,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="15.5" spans="1:20">
+    <row r="14" customFormat="1" ht="15.75" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2199,22 +2196,37 @@
       <c r="Q14" s="21">
         <v>45655</v>
       </c>
-      <c r="R14" s="22">
+      <c r="R14" s="21">
         <v>45662</v>
       </c>
-      <c r="S14" s="22">
+      <c r="S14" s="21">
         <v>45669</v>
       </c>
-      <c r="T14" s="22">
+      <c r="T14" s="21">
+        <v>45718</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" spans="1:11">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="21">
         <v>45725</v>
       </c>
     </row>
-    <row r="22" s="20" customFormat="1" ht="15.5"/>
-    <row r="23" s="20" customFormat="1" ht="15.5"/>
-    <row r="24" s="20" customFormat="1" ht="15.5"/>
-    <row r="25" s="20" customFormat="1" ht="15.5"/>
-    <row r="26" s="20" customFormat="1" ht="15.5"/>
-    <row r="27" s="20" customFormat="1" ht="15.5" spans="1:9">
+    <row r="22" s="20" customFormat="1" ht="15.75"/>
+    <row r="23" s="20" customFormat="1" ht="15.75"/>
+    <row r="24" s="20" customFormat="1" ht="15.75"/>
+    <row r="25" s="20" customFormat="1" ht="15.75"/>
+    <row r="26" s="20" customFormat="1" ht="15.75"/>
+    <row r="27" s="20" customFormat="1" ht="15.75" spans="1:9">
       <c r="A27" s="25"/>
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
@@ -2225,7 +2237,7 @@
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>
     </row>
-    <row r="28" s="20" customFormat="1" ht="15.5" spans="1:9">
+    <row r="28" s="20" customFormat="1" ht="15.75" spans="1:9">
       <c r="A28" s="25"/>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
@@ -2236,7 +2248,7 @@
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
     </row>
-    <row r="29" ht="17.5" spans="2:13">
+    <row r="29" ht="18.75" spans="2:13">
       <c r="B29" s="8" t="s">
         <v>52</v>
       </c>
@@ -2247,12 +2259,12 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-    </row>
-    <row r="30" ht="17.5" spans="2:13">
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+    </row>
+    <row r="30" ht="18.75" spans="2:13">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -2261,12 +2273,12 @@
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-    </row>
-    <row r="31" ht="17.5" spans="2:12">
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+    </row>
+    <row r="31" ht="18.75" spans="2:12">
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -2275,10 +2287,10 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-    </row>
-    <row r="32" ht="17.5" spans="2:13">
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+    </row>
+    <row r="32" ht="18.75" spans="2:13">
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -2287,12 +2299,12 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-    </row>
-    <row r="33" ht="17.5" spans="2:13">
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+    </row>
+    <row r="33" ht="18.75" spans="2:13">
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -2301,53 +2313,53 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="41">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B13:B15"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C13:C15"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D13:D15"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="E10:E12"/>
-    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E13:E15"/>
     <mergeCell ref="F2:F5"/>
     <mergeCell ref="F6:F8"/>
     <mergeCell ref="F10:F12"/>
-    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F13:F15"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="G6:G8"/>
     <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G13:G15"/>
     <mergeCell ref="H2:H5"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="H10:H12"/>
-    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H13:H15"/>
     <mergeCell ref="I2:I5"/>
     <mergeCell ref="I6:I8"/>
     <mergeCell ref="I10:I12"/>
-    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I13:I15"/>
     <mergeCell ref="J2:J5"/>
     <mergeCell ref="J6:J8"/>
     <mergeCell ref="J10:J12"/>
-    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J13:J15"/>
     <mergeCell ref="B29:I33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2365,7 +2377,7 @@
       <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="4.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
@@ -2380,7 +2392,7 @@
     <col min="22" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:21">
+    <row r="1" ht="15.75" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2445,7 +2457,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.5" spans="1:21">
+    <row r="2" customFormat="1" ht="15.75" spans="1:21">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -2510,7 +2522,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15.5" spans="1:19">
+    <row r="3" customFormat="1" ht="15.75" spans="1:19">
       <c r="A3" s="4" t="s">
         <v>61</v>
       </c>
@@ -2569,7 +2581,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.5" spans="1:11">
+    <row r="4" customFormat="1" ht="15.75" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -2604,7 +2616,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15.5" spans="1:20">
+    <row r="5" customFormat="1" ht="15.75" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -2664,7 +2676,7 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" customFormat="1" ht="15.5" spans="1:20">
+    <row r="6" customFormat="1" ht="15.75" spans="1:20">
       <c r="A6" s="4" t="s">
         <v>61</v>
       </c>
@@ -2726,7 +2738,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.5" spans="1:20">
+    <row r="7" customFormat="1" ht="15.75" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -2813,7 +2825,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" customFormat="1" ht="15.5" spans="1:20">
+    <row r="9" customFormat="1" ht="15.75" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -2875,7 +2887,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.5" spans="1:20">
+    <row r="10" customFormat="1" ht="15.75" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2917,7 +2929,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15.5" spans="1:20">
+    <row r="11" customFormat="1" ht="15.75" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2959,7 +2971,7 @@
         <v>45445</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15.5" spans="1:20">
+    <row r="12" customFormat="1" ht="15.75" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2983,7 +2995,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" customFormat="1" ht="15.5" spans="1:20">
+    <row r="13" customFormat="1" ht="15.75" spans="1:20">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -3045,7 +3057,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="15.5" spans="1:20">
+    <row r="14" customFormat="1" ht="15.75" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -3069,7 +3081,7 @@
       <c r="S14" s="16"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" customFormat="1" ht="15.5" spans="1:20">
+    <row r="15" customFormat="1" ht="15.75" spans="1:20">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -3125,7 +3137,7 @@
       <c r="S15" s="16"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" customFormat="1" ht="15.5" spans="1:20">
+    <row r="16" customFormat="1" ht="15.75" spans="1:20">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -3187,7 +3199,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="15.5" spans="1:20">
+    <row r="17" customFormat="1" ht="15.75" spans="1:20">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -3249,7 +3261,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="15.5" spans="1:20">
+    <row r="18" customFormat="1" ht="15.75" spans="1:20">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -3281,7 +3293,7 @@
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
     </row>
-    <row r="19" customFormat="1" ht="15.5" spans="1:20">
+    <row r="19" customFormat="1" ht="15.75" spans="1:20">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -3343,7 +3355,7 @@
         <v>45451</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="15.5" spans="1:20">
+    <row r="20" customFormat="1" ht="15.75" spans="1:20">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3375,7 +3387,7 @@
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
     </row>
-    <row r="21" customFormat="1" ht="15.5" spans="1:20">
+    <row r="21" customFormat="1" ht="15.75" spans="1:20">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -3437,7 +3449,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="15.5" spans="1:20">
+    <row r="22" customFormat="1" ht="15.75" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3479,7 +3491,7 @@
         <v>45423</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15.5" spans="1:20">
+    <row r="23" customFormat="1" ht="15.75" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3511,7 +3523,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" customFormat="1" ht="15.5" spans="1:20">
+    <row r="24" customFormat="1" ht="15.75" spans="1:20">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
@@ -3573,7 +3585,7 @@
         <v>45325</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="15.5" spans="1:20">
+    <row r="25" customFormat="1" ht="15.75" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3615,7 +3627,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15.5" spans="1:20">
+    <row r="26" s="1" customFormat="1" ht="15.75" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3653,7 +3665,7 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="27" customFormat="1" ht="15.5" spans="1:20">
+    <row r="27" customFormat="1" ht="15.75" spans="1:20">
       <c r="A27" s="5" t="s">
         <v>120</v>
       </c>
@@ -3697,7 +3709,7 @@
       <c r="S27" s="23"/>
       <c r="T27" s="23"/>
     </row>
-    <row r="28" customFormat="1" ht="15.5" spans="1:20">
+    <row r="28" customFormat="1" ht="15.75" spans="1:20">
       <c r="A28" s="5" t="s">
         <v>20</v>
       </c>
@@ -3751,7 +3763,7 @@
       <c r="S28" s="16"/>
       <c r="T28" s="16"/>
     </row>
-    <row r="29" customFormat="1" ht="15.5" spans="1:18">
+    <row r="29" customFormat="1" ht="15.75" spans="1:18">
       <c r="A29" s="5" t="s">
         <v>20</v>
       </c>
@@ -3793,7 +3805,7 @@
       <c r="Q29" s="16"/>
       <c r="R29" s="16"/>
     </row>
-    <row r="30" customFormat="1" ht="15.5" spans="1:20">
+    <row r="30" customFormat="1" ht="15.75" spans="1:20">
       <c r="A30" s="5" t="s">
         <v>133</v>
       </c>
@@ -3847,7 +3859,7 @@
       <c r="S30" s="20"/>
       <c r="T30" s="20"/>
     </row>
-    <row r="31" customFormat="1" ht="15.5" spans="1:20">
+    <row r="31" customFormat="1" ht="15.75" spans="1:20">
       <c r="A31" s="5" t="s">
         <v>20</v>
       </c>
@@ -3909,7 +3921,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="32" customFormat="1" ht="15.5" spans="1:20">
+    <row r="32" customFormat="1" ht="15.75" spans="1:20">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -3971,7 +3983,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="33" customFormat="1" ht="15.5" spans="1:20">
+    <row r="33" customFormat="1" ht="15.75" spans="1:20">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3999,7 +4011,7 @@
       <c r="S33" s="22"/>
       <c r="T33" s="22"/>
     </row>
-    <row r="34" customFormat="1" ht="15.5" spans="1:20">
+    <row r="34" customFormat="1" ht="15.75" spans="1:20">
       <c r="A34" s="5" t="s">
         <v>20</v>
       </c>
@@ -4055,7 +4067,7 @@
       <c r="S34" s="16"/>
       <c r="T34" s="16"/>
     </row>
-    <row r="35" customFormat="1" ht="15.5" spans="1:20">
+    <row r="35" customFormat="1" ht="15.75" spans="1:20">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -4077,7 +4089,7 @@
       <c r="S35" s="24"/>
       <c r="T35" s="24"/>
     </row>
-    <row r="36" customFormat="1" ht="15.5" spans="1:20">
+    <row r="36" customFormat="1" ht="15.75" spans="1:20">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -4099,7 +4111,7 @@
       <c r="S36" s="24"/>
       <c r="T36" s="24"/>
     </row>
-    <row r="37" customFormat="1" ht="15.5" spans="1:20">
+    <row r="37" customFormat="1" ht="15.75" spans="1:20">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -4121,7 +4133,7 @@
       <c r="S37" s="24"/>
       <c r="T37" s="24"/>
     </row>
-    <row r="38" customFormat="1" ht="15.5" spans="1:20">
+    <row r="38" customFormat="1" ht="15.75" spans="1:20">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -4143,7 +4155,7 @@
       <c r="S38" s="24"/>
       <c r="T38" s="24"/>
     </row>
-    <row r="39" customFormat="1" ht="15.5" spans="1:20">
+    <row r="39" customFormat="1" ht="15.75" spans="1:20">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -4165,7 +4177,7 @@
       <c r="S39" s="24"/>
       <c r="T39" s="24"/>
     </row>
-    <row r="40" customFormat="1" ht="15.5" spans="1:20">
+    <row r="40" customFormat="1" ht="15.75" spans="1:20">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -4187,7 +4199,7 @@
       <c r="S40" s="24"/>
       <c r="T40" s="24"/>
     </row>
-    <row r="41" customFormat="1" ht="15.5" spans="1:20">
+    <row r="41" customFormat="1" ht="15.75" spans="1:20">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="25600" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Doing" sheetId="1" r:id="rId1"/>
@@ -487,11 +487,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -989,7 +989,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -998,10 +998,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1010,7 +1010,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1134,7 +1134,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1190,10 +1190,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="180" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1208,13 +1208,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1536,11 +1539,11 @@
   <sheetPr/>
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="5.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.6666666666667" customWidth="1"/>
@@ -1554,7 +1557,7 @@
     <col min="11" max="20" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:20">
+    <row r="1" ht="15.5" spans="1:20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1616,7 +1619,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.75" spans="1:20">
+    <row r="2" customFormat="1" ht="15.5" spans="1:20">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -1678,7 +1681,7 @@
         <v>45670</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15.75" spans="1:20">
+    <row r="3" customFormat="1" ht="15.5" spans="1:20">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1720,7 +1723,7 @@
         <v>45691</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.75" spans="1:20">
+    <row r="4" customFormat="1" ht="15.5" spans="1:20">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1762,7 +1765,7 @@
         <v>45712</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15.75" spans="1:20">
+    <row r="5" customFormat="1" ht="15.5" spans="1:20">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1792,7 +1795,7 @@
       <c r="S5" s="22"/>
       <c r="T5" s="22"/>
     </row>
-    <row r="6" customFormat="1" ht="15.75" spans="1:20">
+    <row r="6" customFormat="1" ht="15.5" spans="1:20">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1854,7 +1857,7 @@
         <v>45623</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.75" spans="1:20">
+    <row r="7" customFormat="1" ht="15.5" spans="1:20">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1896,7 +1899,7 @@
         <v>45703</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="15.75" spans="1:20">
+    <row r="8" customFormat="1" ht="15.5" spans="1:20">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1926,7 +1929,7 @@
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
     </row>
-    <row r="9" customFormat="1" ht="15.75" spans="1:20">
+    <row r="9" customFormat="1" ht="15.5" spans="1:20">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
@@ -1980,7 +1983,7 @@
       <c r="S9" s="22"/>
       <c r="T9" s="22"/>
     </row>
-    <row r="10" customFormat="1" ht="15.75" spans="1:20">
+    <row r="10" customFormat="1" ht="15.5" spans="1:20">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
@@ -2042,7 +2045,7 @@
         <v>45620</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15.75" spans="1:20">
+    <row r="11" customFormat="1" ht="15.5" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2080,7 +2083,7 @@
       <c r="S11" s="21"/>
       <c r="T11" s="21"/>
     </row>
-    <row r="12" customFormat="1" ht="15.75" spans="1:20">
+    <row r="12" customFormat="1" ht="15.5" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2092,17 +2095,17 @@
       <c r="I12" s="4"/>
       <c r="J12" s="9"/>
       <c r="K12" s="21"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-    </row>
-    <row r="13" customFormat="1" ht="15.75" spans="1:20">
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+    </row>
+    <row r="13" customFormat="1" ht="15.5" spans="1:20">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -2164,7 +2167,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="15.75" spans="1:20">
+    <row r="14" customFormat="1" ht="15.5" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2196,37 +2199,22 @@
       <c r="Q14" s="21">
         <v>45655</v>
       </c>
-      <c r="R14" s="21">
+      <c r="R14" s="22">
         <v>45662</v>
       </c>
-      <c r="S14" s="21">
+      <c r="S14" s="22">
         <v>45669</v>
       </c>
-      <c r="T14" s="21">
-        <v>45718</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" spans="1:11">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="21">
+      <c r="T14" s="22">
         <v>45725</v>
       </c>
     </row>
-    <row r="22" s="20" customFormat="1" ht="15.75"/>
-    <row r="23" s="20" customFormat="1" ht="15.75"/>
-    <row r="24" s="20" customFormat="1" ht="15.75"/>
-    <row r="25" s="20" customFormat="1" ht="15.75"/>
-    <row r="26" s="20" customFormat="1" ht="15.75"/>
-    <row r="27" s="20" customFormat="1" ht="15.75" spans="1:9">
+    <row r="22" s="20" customFormat="1" ht="15.5"/>
+    <row r="23" s="20" customFormat="1" ht="15.5"/>
+    <row r="24" s="20" customFormat="1" ht="15.5"/>
+    <row r="25" s="20" customFormat="1" ht="15.5"/>
+    <row r="26" s="20" customFormat="1" ht="15.5"/>
+    <row r="27" s="20" customFormat="1" ht="15.5" spans="1:9">
       <c r="A27" s="25"/>
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
@@ -2237,7 +2225,7 @@
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>
     </row>
-    <row r="28" s="20" customFormat="1" ht="15.75" spans="1:9">
+    <row r="28" s="20" customFormat="1" ht="15.5" spans="1:9">
       <c r="A28" s="25"/>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
@@ -2248,7 +2236,7 @@
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
     </row>
-    <row r="29" ht="18.75" spans="2:13">
+    <row r="29" ht="17.5" spans="2:13">
       <c r="B29" s="8" t="s">
         <v>52</v>
       </c>
@@ -2259,12 +2247,12 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-    </row>
-    <row r="30" ht="18.75" spans="2:13">
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+    </row>
+    <row r="30" ht="17.5" spans="2:13">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -2273,12 +2261,12 @@
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-    </row>
-    <row r="31" ht="18.75" spans="2:12">
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+    </row>
+    <row r="31" ht="17.5" spans="2:12">
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -2287,10 +2275,10 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-    </row>
-    <row r="32" ht="18.75" spans="2:13">
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+    </row>
+    <row r="32" ht="17.5" spans="2:13">
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -2299,12 +2287,12 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-    </row>
-    <row r="33" ht="18.75" spans="2:13">
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+    </row>
+    <row r="33" ht="17.5" spans="2:13">
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -2313,53 +2301,53 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="41">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B13:B14"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D13:D14"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="E10:E12"/>
-    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="E13:E14"/>
     <mergeCell ref="F2:F5"/>
     <mergeCell ref="F6:F8"/>
     <mergeCell ref="F10:F12"/>
-    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="F13:F14"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="G6:G8"/>
     <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="G13:G14"/>
     <mergeCell ref="H2:H5"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="H10:H12"/>
-    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="H13:H14"/>
     <mergeCell ref="I2:I5"/>
     <mergeCell ref="I6:I8"/>
     <mergeCell ref="I10:I12"/>
-    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="I13:I14"/>
     <mergeCell ref="J2:J5"/>
     <mergeCell ref="J6:J8"/>
     <mergeCell ref="J10:J12"/>
-    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="J13:J14"/>
     <mergeCell ref="B29:I33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2377,7 +2365,7 @@
       <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="4.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
@@ -2392,7 +2380,7 @@
     <col min="22" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:21">
+    <row r="1" ht="15.5" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2457,7 +2445,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.75" spans="1:21">
+    <row r="2" customFormat="1" ht="15.5" spans="1:21">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -2522,7 +2510,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15.75" spans="1:19">
+    <row r="3" customFormat="1" ht="15.5" spans="1:19">
       <c r="A3" s="4" t="s">
         <v>61</v>
       </c>
@@ -2581,7 +2569,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.75" spans="1:11">
+    <row r="4" customFormat="1" ht="15.5" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -2616,7 +2604,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15.75" spans="1:20">
+    <row r="5" customFormat="1" ht="15.5" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -2676,7 +2664,7 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" customFormat="1" ht="15.75" spans="1:20">
+    <row r="6" customFormat="1" ht="15.5" spans="1:20">
       <c r="A6" s="4" t="s">
         <v>61</v>
       </c>
@@ -2738,7 +2726,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.75" spans="1:20">
+    <row r="7" customFormat="1" ht="15.5" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -2825,7 +2813,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" customFormat="1" ht="15.75" spans="1:20">
+    <row r="9" customFormat="1" ht="15.5" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -2887,7 +2875,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.75" spans="1:20">
+    <row r="10" customFormat="1" ht="15.5" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2929,7 +2917,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15.75" spans="1:20">
+    <row r="11" customFormat="1" ht="15.5" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2971,7 +2959,7 @@
         <v>45445</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15.75" spans="1:20">
+    <row r="12" customFormat="1" ht="15.5" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2995,7 +2983,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" customFormat="1" ht="15.75" spans="1:20">
+    <row r="13" customFormat="1" ht="15.5" spans="1:20">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -3057,7 +3045,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="15.75" spans="1:20">
+    <row r="14" customFormat="1" ht="15.5" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -3081,7 +3069,7 @@
       <c r="S14" s="16"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" customFormat="1" ht="15.75" spans="1:20">
+    <row r="15" customFormat="1" ht="15.5" spans="1:20">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -3137,7 +3125,7 @@
       <c r="S15" s="16"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" customFormat="1" ht="15.75" spans="1:20">
+    <row r="16" customFormat="1" ht="15.5" spans="1:20">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -3199,7 +3187,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="15.75" spans="1:20">
+    <row r="17" customFormat="1" ht="15.5" spans="1:20">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -3261,7 +3249,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="15.75" spans="1:20">
+    <row r="18" customFormat="1" ht="15.5" spans="1:20">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -3293,7 +3281,7 @@
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
     </row>
-    <row r="19" customFormat="1" ht="15.75" spans="1:20">
+    <row r="19" customFormat="1" ht="15.5" spans="1:20">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -3355,7 +3343,7 @@
         <v>45451</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="15.75" spans="1:20">
+    <row r="20" customFormat="1" ht="15.5" spans="1:20">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3387,7 +3375,7 @@
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
     </row>
-    <row r="21" customFormat="1" ht="15.75" spans="1:20">
+    <row r="21" customFormat="1" ht="15.5" spans="1:20">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -3449,7 +3437,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="15.75" spans="1:20">
+    <row r="22" customFormat="1" ht="15.5" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3491,7 +3479,7 @@
         <v>45423</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15.75" spans="1:20">
+    <row r="23" customFormat="1" ht="15.5" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3523,7 +3511,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" customFormat="1" ht="15.75" spans="1:20">
+    <row r="24" customFormat="1" ht="15.5" spans="1:20">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
@@ -3585,7 +3573,7 @@
         <v>45325</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="15.75" spans="1:20">
+    <row r="25" customFormat="1" ht="15.5" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3627,7 +3615,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15.75" spans="1:20">
+    <row r="26" s="1" customFormat="1" ht="15.5" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3665,7 +3653,7 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="27" customFormat="1" ht="15.75" spans="1:20">
+    <row r="27" customFormat="1" ht="15.5" spans="1:20">
       <c r="A27" s="5" t="s">
         <v>120</v>
       </c>
@@ -3709,7 +3697,7 @@
       <c r="S27" s="23"/>
       <c r="T27" s="23"/>
     </row>
-    <row r="28" customFormat="1" ht="15.75" spans="1:20">
+    <row r="28" customFormat="1" ht="15.5" spans="1:20">
       <c r="A28" s="5" t="s">
         <v>20</v>
       </c>
@@ -3763,7 +3751,7 @@
       <c r="S28" s="16"/>
       <c r="T28" s="16"/>
     </row>
-    <row r="29" customFormat="1" ht="15.75" spans="1:18">
+    <row r="29" customFormat="1" ht="15.5" spans="1:18">
       <c r="A29" s="5" t="s">
         <v>20</v>
       </c>
@@ -3805,7 +3793,7 @@
       <c r="Q29" s="16"/>
       <c r="R29" s="16"/>
     </row>
-    <row r="30" customFormat="1" ht="15.75" spans="1:20">
+    <row r="30" customFormat="1" ht="15.5" spans="1:20">
       <c r="A30" s="5" t="s">
         <v>133</v>
       </c>
@@ -3859,7 +3847,7 @@
       <c r="S30" s="20"/>
       <c r="T30" s="20"/>
     </row>
-    <row r="31" customFormat="1" ht="15.75" spans="1:20">
+    <row r="31" customFormat="1" ht="15.5" spans="1:20">
       <c r="A31" s="5" t="s">
         <v>20</v>
       </c>
@@ -3921,7 +3909,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="32" customFormat="1" ht="15.75" spans="1:20">
+    <row r="32" customFormat="1" ht="15.5" spans="1:20">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -3983,7 +3971,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="33" customFormat="1" ht="15.75" spans="1:20">
+    <row r="33" customFormat="1" ht="15.5" spans="1:20">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -4011,7 +3999,7 @@
       <c r="S33" s="22"/>
       <c r="T33" s="22"/>
     </row>
-    <row r="34" customFormat="1" ht="15.75" spans="1:20">
+    <row r="34" customFormat="1" ht="15.5" spans="1:20">
       <c r="A34" s="5" t="s">
         <v>20</v>
       </c>
@@ -4067,7 +4055,7 @@
       <c r="S34" s="16"/>
       <c r="T34" s="16"/>
     </row>
-    <row r="35" customFormat="1" ht="15.75" spans="1:20">
+    <row r="35" customFormat="1" ht="15.5" spans="1:20">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -4089,7 +4077,7 @@
       <c r="S35" s="24"/>
       <c r="T35" s="24"/>
     </row>
-    <row r="36" customFormat="1" ht="15.75" spans="1:20">
+    <row r="36" customFormat="1" ht="15.5" spans="1:20">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -4111,7 +4099,7 @@
       <c r="S36" s="24"/>
       <c r="T36" s="24"/>
     </row>
-    <row r="37" customFormat="1" ht="15.75" spans="1:20">
+    <row r="37" customFormat="1" ht="15.5" spans="1:20">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -4133,7 +4121,7 @@
       <c r="S37" s="24"/>
       <c r="T37" s="24"/>
     </row>
-    <row r="38" customFormat="1" ht="15.75" spans="1:20">
+    <row r="38" customFormat="1" ht="15.5" spans="1:20">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -4155,7 +4143,7 @@
       <c r="S38" s="24"/>
       <c r="T38" s="24"/>
     </row>
-    <row r="39" customFormat="1" ht="15.75" spans="1:20">
+    <row r="39" customFormat="1" ht="15.5" spans="1:20">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -4177,7 +4165,7 @@
       <c r="S39" s="24"/>
       <c r="T39" s="24"/>
     </row>
-    <row r="40" customFormat="1" ht="15.75" spans="1:20">
+    <row r="40" customFormat="1" ht="15.5" spans="1:20">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -4199,7 +4187,7 @@
       <c r="S40" s="24"/>
       <c r="T40" s="24"/>
     </row>
-    <row r="41" customFormat="1" ht="15.75" spans="1:20">
+    <row r="41" customFormat="1" ht="15.5" spans="1:20">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -1134,7 +1134,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1209,9 +1209,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1540,7 +1537,7 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1788,7 +1785,9 @@
       <c r="N5" s="22">
         <v>45726</v>
       </c>
-      <c r="O5" s="22"/>
+      <c r="O5" s="22">
+        <v>45733</v>
+      </c>
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
@@ -2095,15 +2094,15 @@
       <c r="I12" s="4"/>
       <c r="J12" s="9"/>
       <c r="K12" s="21"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
     </row>
     <row r="13" customFormat="1" ht="15.5" spans="1:20">
       <c r="A13" s="4" t="s">
@@ -2247,10 +2246,10 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
     </row>
     <row r="30" ht="17.5" spans="2:13">
       <c r="B30" s="8"/>
@@ -2261,10 +2260,10 @@
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
     </row>
     <row r="31" ht="17.5" spans="2:12">
       <c r="B31" s="8"/>
@@ -2275,8 +2274,8 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
     </row>
     <row r="32" ht="17.5" spans="2:13">
       <c r="B32" s="8"/>
@@ -2287,10 +2286,10 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
     </row>
     <row r="33" ht="17.5" spans="2:13">
       <c r="B33" s="8"/>
@@ -2301,10 +2300,10 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="41">

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -1536,8 +1536,8 @@
   <sheetPr/>
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1773,19 +1773,16 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="26"/>
-      <c r="K5" s="22">
-        <v>45718</v>
-      </c>
-      <c r="L5" s="22">
+      <c r="K5" s="21">
         <v>45719</v>
       </c>
-      <c r="M5" s="22">
+      <c r="L5" s="21">
         <v>45721</v>
       </c>
-      <c r="N5" s="22">
+      <c r="M5" s="21">
         <v>45726</v>
       </c>
-      <c r="O5" s="22">
+      <c r="N5" s="21">
         <v>45733</v>
       </c>
       <c r="P5" s="22"/>
@@ -2198,13 +2195,27 @@
       <c r="Q14" s="21">
         <v>45655</v>
       </c>
-      <c r="R14" s="22">
+      <c r="R14" s="21">
         <v>45662</v>
       </c>
-      <c r="S14" s="22">
+      <c r="S14" s="21">
         <v>45669</v>
       </c>
-      <c r="T14" s="22">
+      <c r="T14" s="21">
+        <v>45718</v>
+      </c>
+    </row>
+    <row r="15" ht="15.5" spans="1:11">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="21">
         <v>45725</v>
       </c>
     </row>
@@ -2310,15 +2321,15 @@
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B13:B15"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C13:C15"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="D10:D12"/>
@@ -2326,27 +2337,27 @@
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="E10:E12"/>
-    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E13:E15"/>
     <mergeCell ref="F2:F5"/>
     <mergeCell ref="F6:F8"/>
     <mergeCell ref="F10:F12"/>
-    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F13:F15"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="G6:G8"/>
     <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G13:G15"/>
     <mergeCell ref="H2:H5"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="H10:H12"/>
-    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H13:H15"/>
     <mergeCell ref="I2:I5"/>
     <mergeCell ref="I6:I8"/>
     <mergeCell ref="I10:I12"/>
-    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I13:I15"/>
     <mergeCell ref="J2:J5"/>
     <mergeCell ref="J6:J8"/>
     <mergeCell ref="J10:J12"/>
-    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J13:J15"/>
     <mergeCell ref="B29:I33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -1134,7 +1134,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1209,6 +1209,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1536,8 +1539,8 @@
   <sheetPr/>
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1918,7 +1921,9 @@
       <c r="N8" s="22">
         <v>45731</v>
       </c>
-      <c r="O8" s="22"/>
+      <c r="O8" s="22">
+        <v>45738</v>
+      </c>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
@@ -1974,8 +1979,12 @@
       <c r="P9" s="22">
         <v>45732</v>
       </c>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
+      <c r="Q9" s="22">
+        <v>45738</v>
+      </c>
+      <c r="R9" s="22">
+        <v>45739</v>
+      </c>
       <c r="S9" s="22"/>
       <c r="T9" s="22"/>
     </row>
@@ -2076,7 +2085,9 @@
       <c r="R11" s="21">
         <v>45732</v>
       </c>
-      <c r="S11" s="21"/>
+      <c r="S11" s="21">
+        <v>45739</v>
+      </c>
       <c r="T11" s="21"/>
     </row>
     <row r="12" customFormat="1" ht="15.5" spans="1:20">
@@ -2097,7 +2108,7 @@
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
       <c r="Q12" s="22"/>
-      <c r="R12" s="29"/>
+      <c r="R12" s="30"/>
       <c r="S12" s="22"/>
       <c r="T12" s="22"/>
     </row>
@@ -2201,11 +2212,11 @@
       <c r="S14" s="21">
         <v>45669</v>
       </c>
-      <c r="T14" s="21">
+      <c r="T14" s="28">
         <v>45718</v>
       </c>
     </row>
-    <row r="15" ht="15.5" spans="1:11">
+    <row r="15" ht="15.5" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -2215,8 +2226,11 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="21">
+      <c r="K15" s="28">
         <v>45725</v>
+      </c>
+      <c r="L15" s="22">
+        <v>45739</v>
       </c>
     </row>
     <row r="22" s="20" customFormat="1" ht="15.5"/>
@@ -2257,10 +2271,10 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
     </row>
     <row r="30" ht="17.5" spans="2:13">
       <c r="B30" s="8"/>
@@ -2271,10 +2285,10 @@
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
     </row>
     <row r="31" ht="17.5" spans="2:12">
       <c r="B31" s="8"/>
@@ -2285,8 +2299,8 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
     </row>
     <row r="32" ht="17.5" spans="2:13">
       <c r="B32" s="8"/>
@@ -2297,10 +2311,10 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
     </row>
     <row r="33" ht="17.5" spans="2:13">
       <c r="B33" s="8"/>
@@ -2311,10 +2325,10 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="41">

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -1134,7 +1134,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1209,9 +1209,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1540,7 +1537,7 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1985,8 +1982,12 @@
       <c r="R9" s="22">
         <v>45739</v>
       </c>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
+      <c r="S9" s="22">
+        <v>45745</v>
+      </c>
+      <c r="T9" s="22">
+        <v>45746</v>
+      </c>
     </row>
     <row r="10" customFormat="1" ht="15.5" spans="1:20">
       <c r="A10" s="4" t="s">
@@ -2088,7 +2089,9 @@
       <c r="S11" s="21">
         <v>45739</v>
       </c>
-      <c r="T11" s="21"/>
+      <c r="T11" s="21">
+        <v>45746</v>
+      </c>
     </row>
     <row r="12" customFormat="1" ht="15.5" spans="1:20">
       <c r="A12" s="4"/>
@@ -2108,7 +2111,7 @@
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
       <c r="Q12" s="22"/>
-      <c r="R12" s="30"/>
+      <c r="R12" s="29"/>
       <c r="S12" s="22"/>
       <c r="T12" s="22"/>
     </row>
@@ -2212,11 +2215,11 @@
       <c r="S14" s="21">
         <v>45669</v>
       </c>
-      <c r="T14" s="28">
+      <c r="T14" s="22">
         <v>45718</v>
       </c>
     </row>
-    <row r="15" ht="15.5" spans="1:12">
+    <row r="15" ht="15.5" spans="1:13">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -2226,11 +2229,14 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="28">
+      <c r="K15" s="22">
         <v>45725</v>
       </c>
       <c r="L15" s="22">
         <v>45739</v>
+      </c>
+      <c r="M15" s="22">
+        <v>45746</v>
       </c>
     </row>
     <row r="22" s="20" customFormat="1" ht="15.5"/>
@@ -2271,10 +2277,10 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
     </row>
     <row r="30" ht="17.5" spans="2:13">
       <c r="B30" s="8"/>
@@ -2285,10 +2291,10 @@
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
     </row>
     <row r="31" ht="17.5" spans="2:12">
       <c r="B31" s="8"/>
@@ -2299,8 +2305,8 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
     </row>
     <row r="32" ht="17.5" spans="2:13">
       <c r="B32" s="8"/>
@@ -2311,10 +2317,10 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
     </row>
     <row r="33" ht="17.5" spans="2:13">
       <c r="B33" s="8"/>
@@ -2325,10 +2331,10 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="41">

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="154">
   <si>
     <t>年级</t>
   </si>
@@ -86,10 +86,71 @@
     <t>/</t>
   </si>
   <si>
-    <t>270/1.5h</t>
-  </si>
-  <si>
-    <t>周一、二、五 21：00-22：30</t>
+    <t>240/2h</t>
+  </si>
+  <si>
+    <t>周六15：30-17：30</t>
+  </si>
+  <si>
+    <t>郭润宁</t>
+  </si>
+  <si>
+    <t>嘉和苑·悦园 3楼</t>
+  </si>
+  <si>
+    <t>13中分校</t>
+  </si>
+  <si>
+    <t>70/150</t>
+  </si>
+  <si>
+    <t>知新识途</t>
+  </si>
+  <si>
+    <t>260/2h+300/每月</t>
+  </si>
+  <si>
+    <t>周六19：00-21：00
+周日20：00-22：00</t>
+  </si>
+  <si>
+    <t>单欣俞</t>
+  </si>
+  <si>
+    <t>宜品家春秋 17-3-602</t>
+  </si>
+  <si>
+    <t>师大附中</t>
+  </si>
+  <si>
+    <t>38/150</t>
+  </si>
+  <si>
+    <t>270/2h</t>
+  </si>
+  <si>
+    <t>周日11：00-13：00</t>
+  </si>
+  <si>
+    <t>刘桐语</t>
+  </si>
+  <si>
+    <t>博香苑A区 6-2-1001</t>
+  </si>
+  <si>
+    <t>126中学</t>
+  </si>
+  <si>
+    <t>120/150</t>
+  </si>
+  <si>
+    <t>物理</t>
+  </si>
+  <si>
+    <t>星期天培训</t>
+  </si>
+  <si>
+    <t>周日17：00-19：00</t>
   </si>
   <si>
     <t>李梦媛</t>
@@ -99,75 +160,6 @@
   </si>
   <si>
     <t>70中</t>
-  </si>
-  <si>
-    <t>43/150</t>
-  </si>
-  <si>
-    <t>240/2h</t>
-  </si>
-  <si>
-    <t>周六15：30-17：30</t>
-  </si>
-  <si>
-    <t>郭润宁</t>
-  </si>
-  <si>
-    <t>嘉和苑·悦园 3楼</t>
-  </si>
-  <si>
-    <t>13中分校</t>
-  </si>
-  <si>
-    <t>70/150</t>
-  </si>
-  <si>
-    <t>知新识途</t>
-  </si>
-  <si>
-    <t>260/2h+300/每月</t>
-  </si>
-  <si>
-    <t>周六19：00-21：00，周日20：00-22：00</t>
-  </si>
-  <si>
-    <t>单欣俞</t>
-  </si>
-  <si>
-    <t>宜品家春秋 17-3-602</t>
-  </si>
-  <si>
-    <t>师大附中</t>
-  </si>
-  <si>
-    <t>30/150</t>
-  </si>
-  <si>
-    <t>270/2h</t>
-  </si>
-  <si>
-    <t>周日11：00-13：00</t>
-  </si>
-  <si>
-    <t>刘桐语</t>
-  </si>
-  <si>
-    <t>博香苑A区 6-2-1001</t>
-  </si>
-  <si>
-    <t>126中学</t>
-  </si>
-  <si>
-    <t>120/150</t>
-  </si>
-  <si>
-    <t>物理</t>
-  </si>
-  <si>
-    <t>星期天培训</t>
-  </si>
-  <si>
-    <t>周日17：00-19：00</t>
   </si>
   <si>
     <t>39/90</t>
@@ -175,7 +167,7 @@
   <si>
     <t>转账时间(灰色表示线上上课（课时费1小时100），绿色表示课时费已发)：
 星期天培训下个月20号;知新识途下个月20号
-下次考试目标：刘桐语：140，李梦媛：数学90物理50，贾梦垚：130，郭润宁：100，单欣俞：60</t>
+下次考试目标：刘桐语：140，郭润宁：100，单欣俞：90</t>
   </si>
   <si>
     <t>第11课</t>
@@ -274,6 +266,9 @@
     <t>丹霞山街绿谷学府3-1-403</t>
   </si>
   <si>
+    <t>30/150</t>
+  </si>
+  <si>
     <t>周一20：30-22：30</t>
   </si>
   <si>
@@ -473,6 +468,15 @@
   </si>
   <si>
     <t>85/100</t>
+  </si>
+  <si>
+    <t>270/1.5h</t>
+  </si>
+  <si>
+    <t>周一、二、五 21：00-22：30</t>
+  </si>
+  <si>
+    <t>43/150</t>
   </si>
   <si>
     <t xml:space="preserve">绿色表示课时费已发；
@@ -1196,6 +1200,9 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1204,9 +1211,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1534,27 +1538,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T33"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="2" width="5.58333333333333" customWidth="1"/>
-    <col min="3" max="3" width="10.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="15.75" customWidth="1"/>
-    <col min="5" max="5" width="38.75" customWidth="1"/>
+    <col min="1" max="2" width="5.58181818181818" customWidth="1"/>
+    <col min="3" max="3" width="10.6636363636364" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="30.4545454545455" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="9.875" customWidth="1"/>
-    <col min="9" max="9" width="9.125" customWidth="1"/>
-    <col min="10" max="10" width="10.8333333333333" customWidth="1"/>
+    <col min="8" max="8" width="9.87272727272727" customWidth="1"/>
+    <col min="9" max="9" width="9.12727272727273" customWidth="1"/>
+    <col min="10" max="10" width="10.8363636363636" customWidth="1"/>
     <col min="11" max="20" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:20">
+    <row r="1" ht="15" spans="1:20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1616,7 +1620,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.5" spans="1:20">
+    <row r="2" customFormat="1" ht="15" spans="1:20">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -1629,7 +1633,7 @@
       <c r="D2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -1644,414 +1648,395 @@
       <c r="I2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="26" t="s">
-        <v>22</v>
+      <c r="J2" s="21">
+        <v>45556</v>
       </c>
       <c r="K2" s="21">
-        <v>45643</v>
+        <v>45566</v>
       </c>
       <c r="L2" s="21">
-        <v>45649</v>
+        <v>45574</v>
       </c>
       <c r="M2" s="21">
-        <v>45650</v>
+        <v>45584</v>
       </c>
       <c r="N2" s="21">
-        <v>45653</v>
+        <v>45591</v>
       </c>
       <c r="O2" s="21">
-        <v>45658</v>
+        <v>45598</v>
       </c>
       <c r="P2" s="21">
-        <v>45660</v>
+        <v>45605</v>
       </c>
       <c r="Q2" s="21">
-        <v>45663</v>
+        <v>45612</v>
       </c>
       <c r="R2" s="21">
-        <v>45664</v>
+        <v>45615</v>
       </c>
       <c r="S2" s="21">
-        <v>45667</v>
+        <v>45619</v>
       </c>
       <c r="T2" s="21">
-        <v>45670</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" ht="15.5" spans="1:20">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="15" spans="1:20">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="26"/>
+      <c r="J3" s="21"/>
       <c r="K3" s="21">
-        <v>45675</v>
+        <v>45633</v>
       </c>
       <c r="L3" s="21">
+        <v>45640</v>
+      </c>
+      <c r="M3" s="21">
+        <v>45647</v>
+      </c>
+      <c r="N3" s="21">
+        <v>45654</v>
+      </c>
+      <c r="O3" s="21">
+        <v>45661</v>
+      </c>
+      <c r="P3" s="21">
+        <v>45668</v>
+      </c>
+      <c r="Q3" s="21">
         <v>45676</v>
-      </c>
-      <c r="M3" s="21">
-        <v>45677</v>
-      </c>
-      <c r="N3" s="21">
-        <v>45678</v>
-      </c>
-      <c r="O3" s="21">
-        <v>45679</v>
-      </c>
-      <c r="P3" s="21">
-        <v>45680</v>
-      </c>
-      <c r="Q3" s="21">
-        <v>45681</v>
       </c>
       <c r="R3" s="21">
         <v>45682</v>
       </c>
       <c r="S3" s="21">
-        <v>45690</v>
+        <v>45692</v>
       </c>
       <c r="T3" s="21">
-        <v>45691</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" ht="15.5" spans="1:20">
+        <v>45703</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="15" spans="1:20">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="26"/>
+      <c r="J4" s="21"/>
       <c r="K4" s="21">
-        <v>45692</v>
+        <v>45710</v>
       </c>
       <c r="L4" s="21">
-        <v>45693</v>
-      </c>
-      <c r="M4" s="21">
-        <v>45694</v>
-      </c>
-      <c r="N4" s="21">
-        <v>45698</v>
-      </c>
-      <c r="O4" s="21">
-        <v>45699</v>
-      </c>
-      <c r="P4" s="21">
-        <v>45700</v>
-      </c>
-      <c r="Q4" s="21">
-        <v>45701</v>
-      </c>
-      <c r="R4" s="21">
-        <v>45702</v>
-      </c>
-      <c r="S4" s="21">
-        <v>45705</v>
-      </c>
-      <c r="T4" s="21">
-        <v>45712</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="21">
-        <v>45719</v>
-      </c>
-      <c r="L5" s="21">
-        <v>45721</v>
-      </c>
-      <c r="M5" s="21">
-        <v>45726</v>
-      </c>
-      <c r="N5" s="21">
-        <v>45733</v>
-      </c>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-    </row>
-    <row r="6" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A6" s="4" t="s">
+        <v>45717</v>
+      </c>
+      <c r="M4" s="22">
+        <v>45724</v>
+      </c>
+      <c r="N4" s="22">
+        <v>45731</v>
+      </c>
+      <c r="O4" s="22">
+        <v>45738</v>
+      </c>
+      <c r="P4" s="22">
+        <v>45752</v>
+      </c>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+    </row>
+    <row r="5" customFormat="1" ht="15" spans="1:20">
+      <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="21">
+        <v>45710</v>
+      </c>
+      <c r="K5" s="22">
+        <v>45717</v>
+      </c>
+      <c r="L5" s="22">
+        <v>45718</v>
+      </c>
+      <c r="M5" s="22">
+        <v>45724</v>
+      </c>
+      <c r="N5" s="22">
+        <v>45725</v>
+      </c>
+      <c r="O5" s="22">
+        <v>45731</v>
+      </c>
+      <c r="P5" s="22">
+        <v>45732</v>
+      </c>
+      <c r="Q5" s="22">
+        <v>45738</v>
+      </c>
+      <c r="R5" s="22">
+        <v>45739</v>
+      </c>
+      <c r="S5" s="22">
+        <v>45745</v>
+      </c>
+      <c r="T5" s="22">
+        <v>45746</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="15" spans="1:20">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="22">
+        <v>45752</v>
+      </c>
+      <c r="L6" s="22">
+        <v>45753</v>
+      </c>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+    </row>
+    <row r="7" customFormat="1" ht="15" spans="1:20">
+      <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="21">
-        <v>45556</v>
-      </c>
-      <c r="K6" s="21">
-        <v>45566</v>
-      </c>
-      <c r="L6" s="21">
-        <v>45574</v>
-      </c>
-      <c r="M6" s="21">
-        <v>45584</v>
-      </c>
-      <c r="N6" s="21">
-        <v>45591</v>
-      </c>
-      <c r="O6" s="21">
-        <v>45598</v>
-      </c>
-      <c r="P6" s="21">
-        <v>45605</v>
-      </c>
-      <c r="Q6" s="21">
-        <v>45612</v>
-      </c>
-      <c r="R6" s="21">
-        <v>45615</v>
-      </c>
-      <c r="S6" s="21">
-        <v>45619</v>
-      </c>
-      <c r="T6" s="21">
-        <v>45623</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21">
-        <v>45633</v>
+      <c r="D7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="27">
+        <v>45551</v>
       </c>
       <c r="L7" s="21">
-        <v>45640</v>
+        <v>45557</v>
       </c>
       <c r="M7" s="21">
-        <v>45647</v>
+        <v>45563</v>
       </c>
       <c r="N7" s="21">
-        <v>45654</v>
+        <v>45567</v>
       </c>
       <c r="O7" s="21">
-        <v>45661</v>
+        <v>45578</v>
       </c>
       <c r="P7" s="21">
-        <v>45668</v>
+        <v>45585</v>
       </c>
       <c r="Q7" s="21">
-        <v>45676</v>
+        <v>45592</v>
       </c>
       <c r="R7" s="21">
-        <v>45682</v>
+        <v>45599</v>
       </c>
       <c r="S7" s="21">
-        <v>45692</v>
+        <v>45613</v>
       </c>
       <c r="T7" s="21">
-        <v>45703</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" ht="15.5" spans="1:20">
+        <v>45620</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" ht="15" spans="1:20">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="21"/>
+      <c r="J8" s="9"/>
       <c r="K8" s="21">
-        <v>45710</v>
+        <v>45627</v>
       </c>
       <c r="L8" s="21">
-        <v>45717</v>
-      </c>
-      <c r="M8" s="22">
-        <v>45724</v>
-      </c>
-      <c r="N8" s="22">
-        <v>45731</v>
-      </c>
-      <c r="O8" s="22">
-        <v>45738</v>
-      </c>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-    </row>
-    <row r="9" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="21">
-        <v>45710</v>
-      </c>
-      <c r="K9" s="22">
-        <v>45717</v>
-      </c>
-      <c r="L9" s="22">
+        <v>45641</v>
+      </c>
+      <c r="M8" s="21">
+        <v>45648</v>
+      </c>
+      <c r="N8" s="21">
+        <v>45655</v>
+      </c>
+      <c r="O8" s="21">
+        <v>45662</v>
+      </c>
+      <c r="P8" s="21">
         <v>45718</v>
       </c>
-      <c r="M9" s="22">
-        <v>45724</v>
-      </c>
-      <c r="N9" s="22">
+      <c r="Q8" s="21">
         <v>45725</v>
       </c>
-      <c r="O9" s="22">
-        <v>45731</v>
-      </c>
-      <c r="P9" s="22">
+      <c r="R8" s="21">
         <v>45732</v>
       </c>
-      <c r="Q9" s="22">
-        <v>45738</v>
-      </c>
-      <c r="R9" s="22">
+      <c r="S8" s="21">
         <v>45739</v>
       </c>
-      <c r="S9" s="22">
-        <v>45745</v>
-      </c>
-      <c r="T9" s="22">
+      <c r="T8" s="21">
         <v>45746</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.5" spans="1:20">
+    <row r="9" customFormat="1" ht="15" spans="1:20">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="21">
+        <v>45753</v>
+      </c>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+    </row>
+    <row r="10" customFormat="1" ht="15" spans="1:20">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="27">
+      <c r="K10" s="21">
         <v>45551</v>
       </c>
       <c r="L10" s="21">
-        <v>45557</v>
+        <v>45556</v>
       </c>
       <c r="M10" s="21">
         <v>45563</v>
       </c>
       <c r="N10" s="21">
+        <v>45566</v>
+      </c>
+      <c r="O10" s="21">
         <v>45567</v>
       </c>
-      <c r="O10" s="21">
+      <c r="P10" s="21">
+        <v>45572</v>
+      </c>
+      <c r="Q10" s="21">
+        <v>45577</v>
+      </c>
+      <c r="R10" s="21">
         <v>45578</v>
       </c>
-      <c r="P10" s="21">
+      <c r="S10" s="21">
         <v>45585</v>
       </c>
-      <c r="Q10" s="21">
+      <c r="T10" s="21">
         <v>45592</v>
       </c>
-      <c r="R10" s="21">
-        <v>45599</v>
-      </c>
-      <c r="S10" s="21">
-        <v>45613</v>
-      </c>
-      <c r="T10" s="21">
-        <v>45620</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" ht="15.5" spans="1:20">
+    </row>
+    <row r="11" customFormat="1" ht="15" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2063,37 +2048,37 @@
       <c r="I11" s="4"/>
       <c r="J11" s="9"/>
       <c r="K11" s="21">
+        <v>45599</v>
+      </c>
+      <c r="L11" s="21">
+        <v>45606</v>
+      </c>
+      <c r="M11" s="21">
+        <v>45613</v>
+      </c>
+      <c r="N11" s="21">
         <v>45627</v>
       </c>
-      <c r="L11" s="21">
+      <c r="O11" s="21">
         <v>45641</v>
       </c>
-      <c r="M11" s="21">
+      <c r="P11" s="21">
         <v>45648</v>
       </c>
-      <c r="N11" s="21">
+      <c r="Q11" s="21">
         <v>45655</v>
       </c>
-      <c r="O11" s="21">
+      <c r="R11" s="21">
         <v>45662</v>
       </c>
-      <c r="P11" s="21">
+      <c r="S11" s="21">
+        <v>45669</v>
+      </c>
+      <c r="T11" s="22">
         <v>45718</v>
       </c>
-      <c r="Q11" s="21">
-        <v>45725</v>
-      </c>
-      <c r="R11" s="21">
-        <v>45732</v>
-      </c>
-      <c r="S11" s="21">
-        <v>45739</v>
-      </c>
-      <c r="T11" s="21">
-        <v>45746</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" ht="15.5" spans="1:20">
+    </row>
+    <row r="12" ht="15" spans="1:13">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2104,172 +2089,87 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-    </row>
-    <row r="13" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="K12" s="22">
+        <v>45725</v>
+      </c>
+      <c r="L12" s="22">
+        <v>45739</v>
+      </c>
+      <c r="M12" s="22">
+        <v>45746</v>
+      </c>
+    </row>
+    <row r="19" s="20" customFormat="1" ht="15"/>
+    <row r="20" s="20" customFormat="1" ht="15"/>
+    <row r="21" s="20" customFormat="1" ht="15"/>
+    <row r="22" s="20" customFormat="1" ht="15"/>
+    <row r="23" s="20" customFormat="1" ht="15"/>
+    <row r="24" s="20" customFormat="1" ht="15" spans="1:9">
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+    </row>
+    <row r="25" s="20" customFormat="1" ht="15" spans="1:9">
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+    </row>
+    <row r="26" ht="17.5" spans="2:13">
+      <c r="B26" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="21">
-        <v>45551</v>
-      </c>
-      <c r="L13" s="21">
-        <v>45556</v>
-      </c>
-      <c r="M13" s="21">
-        <v>45563</v>
-      </c>
-      <c r="N13" s="21">
-        <v>45566</v>
-      </c>
-      <c r="O13" s="21">
-        <v>45567</v>
-      </c>
-      <c r="P13" s="21">
-        <v>45572</v>
-      </c>
-      <c r="Q13" s="21">
-        <v>45577</v>
-      </c>
-      <c r="R13" s="21">
-        <v>45578</v>
-      </c>
-      <c r="S13" s="21">
-        <v>45585</v>
-      </c>
-      <c r="T13" s="21">
-        <v>45592</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="21">
-        <v>45599</v>
-      </c>
-      <c r="L14" s="21">
-        <v>45606</v>
-      </c>
-      <c r="M14" s="21">
-        <v>45613</v>
-      </c>
-      <c r="N14" s="21">
-        <v>45627</v>
-      </c>
-      <c r="O14" s="21">
-        <v>45641</v>
-      </c>
-      <c r="P14" s="21">
-        <v>45648</v>
-      </c>
-      <c r="Q14" s="21">
-        <v>45655</v>
-      </c>
-      <c r="R14" s="21">
-        <v>45662</v>
-      </c>
-      <c r="S14" s="21">
-        <v>45669</v>
-      </c>
-      <c r="T14" s="22">
-        <v>45718</v>
-      </c>
-    </row>
-    <row r="15" ht="15.5" spans="1:13">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="22">
-        <v>45725</v>
-      </c>
-      <c r="L15" s="22">
-        <v>45739</v>
-      </c>
-      <c r="M15" s="22">
-        <v>45746</v>
-      </c>
-    </row>
-    <row r="22" s="20" customFormat="1" ht="15.5"/>
-    <row r="23" s="20" customFormat="1" ht="15.5"/>
-    <row r="24" s="20" customFormat="1" ht="15.5"/>
-    <row r="25" s="20" customFormat="1" ht="15.5"/>
-    <row r="26" s="20" customFormat="1" ht="15.5"/>
-    <row r="27" s="20" customFormat="1" ht="15.5" spans="1:9">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-    </row>
-    <row r="28" s="20" customFormat="1" ht="15.5" spans="1:9">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+    </row>
+    <row r="27" ht="17.5" spans="2:13">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+    </row>
+    <row r="28" ht="17.5" spans="2:12">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
     </row>
     <row r="29" ht="17.5" spans="2:13">
-      <c r="B29" s="8" t="s">
-        <v>52</v>
-      </c>
+      <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2296,89 +2196,49 @@
       <c r="L30" s="28"/>
       <c r="M30" s="28"/>
     </row>
-    <row r="31" ht="17.5" spans="2:12">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-    </row>
-    <row r="32" ht="17.5" spans="2:13">
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-    </row>
-    <row r="33" ht="17.5" spans="2:13">
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-    </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B9"/>
     <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C9"/>
     <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D9"/>
     <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E9"/>
     <mergeCell ref="E10:E12"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F9"/>
     <mergeCell ref="F10:F12"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G9"/>
     <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H9"/>
     <mergeCell ref="H10:H12"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I9"/>
     <mergeCell ref="I10:I12"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J7:J9"/>
     <mergeCell ref="J10:J12"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="B29:I33"/>
+    <mergeCell ref="B26:I30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -2391,26 +2251,26 @@
   <sheetPr/>
   <dimension ref="A1:U48"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="2" width="4.58333333333333" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="1" max="2" width="4.58181818181818" customWidth="1"/>
+    <col min="3" max="3" width="10.8727272727273" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="18.5833333333333" customWidth="1"/>
-    <col min="6" max="6" width="7.33333333333333" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-    <col min="8" max="9" width="9.58333333333333" customWidth="1"/>
-    <col min="10" max="10" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="18.5818181818182" customWidth="1"/>
+    <col min="6" max="6" width="7.33636363636364" customWidth="1"/>
+    <col min="7" max="7" width="27.1272727272727" customWidth="1"/>
+    <col min="8" max="9" width="9.58181818181818" customWidth="1"/>
+    <col min="10" max="10" width="10.6272727272727" customWidth="1"/>
     <col min="11" max="11" width="10.5" customWidth="1"/>
-    <col min="12" max="21" width="10.75" customWidth="1"/>
+    <col min="12" max="21" width="10.7545454545455" customWidth="1"/>
     <col min="22" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:21">
+    <row r="1" ht="15" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2472,10 +2332,10 @@
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" customFormat="1" ht="15.5" spans="1:21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="15" spans="1:21">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -2483,25 +2343,25 @@
         <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="J2" s="9">
         <v>45185</v>
@@ -2540,33 +2400,33 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15.5" spans="1:19">
+    <row r="3" customFormat="1" ht="15" spans="1:19">
       <c r="A3" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>22</v>
@@ -2599,7 +2459,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.5" spans="1:11">
+    <row r="4" customFormat="1" ht="15" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -2607,25 +2467,25 @@
         <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="J4" s="9">
         <v>45287</v>
@@ -2634,7 +2494,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15.5" spans="1:20">
+    <row r="5" customFormat="1" ht="15" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -2642,25 +2502,25 @@
         <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="I5" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>22</v>
@@ -2694,33 +2554,33 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" customFormat="1" ht="15.5" spans="1:20">
+    <row r="6" customFormat="1" ht="15" spans="1:20">
       <c r="A6" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="H6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="J6" s="9">
         <v>45320</v>
@@ -2756,7 +2616,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.5" spans="1:20">
+    <row r="7" customFormat="1" ht="15" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -2764,25 +2624,25 @@
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="H7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>22</v>
@@ -2810,25 +2670,25 @@
         <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="H8" s="6">
         <v>126</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J8" s="14">
         <v>45425</v>
@@ -2843,33 +2703,33 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" customFormat="1" ht="15.5" spans="1:20">
+    <row r="9" customFormat="1" ht="15" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="H9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="J9" s="9">
         <v>45186</v>
@@ -2905,7 +2765,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.5" spans="1:20">
+    <row r="10" customFormat="1" ht="15" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2947,7 +2807,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15.5" spans="1:20">
+    <row r="11" customFormat="1" ht="15" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2989,7 +2849,7 @@
         <v>45445</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15.5" spans="1:20">
+    <row r="12" customFormat="1" ht="15" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -3013,7 +2873,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" customFormat="1" ht="15.5" spans="1:20">
+    <row r="13" customFormat="1" ht="15" spans="1:20">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -3021,25 +2881,25 @@
         <v>21</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="I13" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J13" s="17" t="s">
         <v>22</v>
@@ -3075,7 +2935,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="15.5" spans="1:20">
+    <row r="14" customFormat="1" ht="15" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -3099,7 +2959,7 @@
       <c r="S14" s="16"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" customFormat="1" ht="15.5" spans="1:20">
+    <row r="15" customFormat="1" ht="15" spans="1:20">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -3107,25 +2967,25 @@
         <v>21</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>22</v>
@@ -3155,33 +3015,33 @@
       <c r="S15" s="16"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" customFormat="1" ht="15.5" spans="1:20">
+    <row r="16" customFormat="1" ht="15" spans="1:20">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="H16" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="I16" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="J16" s="11" t="s">
         <v>22</v>
@@ -3217,7 +3077,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="15.5" spans="1:20">
+    <row r="17" customFormat="1" ht="15" spans="1:20">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -3225,25 +3085,25 @@
         <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="I17" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="J17" s="17" t="s">
         <v>22</v>
@@ -3279,7 +3139,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="15.5" spans="1:20">
+    <row r="18" customFormat="1" ht="15" spans="1:20">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -3311,7 +3171,7 @@
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
     </row>
-    <row r="19" customFormat="1" ht="15.5" spans="1:20">
+    <row r="19" customFormat="1" ht="15" spans="1:20">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -3319,25 +3179,25 @@
         <v>21</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="I19" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J19" s="17" t="s">
         <v>22</v>
@@ -3373,7 +3233,7 @@
         <v>45451</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="15.5" spans="1:20">
+    <row r="20" customFormat="1" ht="15" spans="1:20">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3405,7 +3265,7 @@
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
     </row>
-    <row r="21" customFormat="1" ht="15.5" spans="1:20">
+    <row r="21" customFormat="1" ht="15" spans="1:20">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -3413,25 +3273,25 @@
         <v>21</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E21" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>22</v>
@@ -3467,7 +3327,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="15.5" spans="1:20">
+    <row r="22" customFormat="1" ht="15" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3509,7 +3369,7 @@
         <v>45423</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15.5" spans="1:20">
+    <row r="23" customFormat="1" ht="15" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3541,7 +3401,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" customFormat="1" ht="15.5" spans="1:20">
+    <row r="24" customFormat="1" ht="15" spans="1:20">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
@@ -3549,25 +3409,25 @@
         <v>21</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="4" t="s">
+      <c r="H24" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="I24" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J24" s="19" t="s">
         <v>22</v>
@@ -3603,7 +3463,7 @@
         <v>45325</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="15.5" spans="1:20">
+    <row r="25" customFormat="1" ht="15" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3645,7 +3505,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15.5" spans="1:20">
+    <row r="26" s="1" customFormat="1" ht="15" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3683,33 +3543,33 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="27" customFormat="1" ht="15.5" spans="1:20">
+    <row r="27" customFormat="1" ht="15" spans="1:20">
       <c r="A27" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D27" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="G27" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>22</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J27" s="12" t="s">
         <v>22</v>
@@ -3724,36 +3584,36 @@
       <c r="P27" s="20"/>
       <c r="Q27" s="20"/>
       <c r="R27" s="20"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
-    </row>
-    <row r="28" customFormat="1" ht="15.5" spans="1:20">
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+    </row>
+    <row r="28" customFormat="1" ht="15" spans="1:20">
       <c r="A28" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J28" s="12" t="s">
         <v>22</v>
@@ -3781,33 +3641,33 @@
       <c r="S28" s="16"/>
       <c r="T28" s="16"/>
     </row>
-    <row r="29" customFormat="1" ht="15.5" spans="1:18">
+    <row r="29" customFormat="1" ht="15" spans="1:18">
       <c r="A29" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="G29" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="H29" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I29" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="J29" s="12" t="s">
         <v>22</v>
@@ -3823,33 +3683,33 @@
       <c r="Q29" s="16"/>
       <c r="R29" s="16"/>
     </row>
-    <row r="30" customFormat="1" ht="15.5" spans="1:20">
+    <row r="30" customFormat="1" ht="15" spans="1:20">
       <c r="A30" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="G30" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F30" s="4" t="s">
+      <c r="H30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="J30" s="9">
         <v>45543</v>
@@ -3877,7 +3737,7 @@
       <c r="S30" s="20"/>
       <c r="T30" s="20"/>
     </row>
-    <row r="31" customFormat="1" ht="15.5" spans="1:20">
+    <row r="31" customFormat="1" ht="15" spans="1:20">
       <c r="A31" s="5" t="s">
         <v>20</v>
       </c>
@@ -3885,25 +3745,25 @@
         <v>21</v>
       </c>
       <c r="C31" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E31" s="5" t="s">
+      <c r="G31" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="H31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="J31" s="12" t="s">
         <v>22</v>
@@ -3939,7 +3799,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="32" customFormat="1" ht="15.5" spans="1:20">
+    <row r="32" customFormat="1" ht="15" spans="1:20">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -3950,22 +3810,22 @@
         <v>22</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E32" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="H32" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J32" s="12" t="s">
         <v>22</v>
@@ -4001,7 +3861,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="33" customFormat="1" ht="15.5" spans="1:20">
+    <row r="33" customFormat="1" ht="15" spans="1:20">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -4029,33 +3889,33 @@
       <c r="S33" s="22"/>
       <c r="T33" s="22"/>
     </row>
-    <row r="34" customFormat="1" ht="15.5" spans="1:20">
+    <row r="34" customFormat="1" ht="15" spans="1:20">
       <c r="A34" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E34" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="H34" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="I34" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="J34" s="12" t="s">
         <v>22</v>
@@ -4085,29 +3945,69 @@
       <c r="S34" s="16"/>
       <c r="T34" s="16"/>
     </row>
-    <row r="35" customFormat="1" ht="15.5" spans="1:20">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="24"/>
-      <c r="T35" s="24"/>
-    </row>
-    <row r="36" customFormat="1" ht="15.5" spans="1:20">
+    <row r="35" customFormat="1" ht="15" spans="1:20">
+      <c r="A35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J35" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K35" s="21">
+        <v>45643</v>
+      </c>
+      <c r="L35" s="21">
+        <v>45649</v>
+      </c>
+      <c r="M35" s="21">
+        <v>45650</v>
+      </c>
+      <c r="N35" s="21">
+        <v>45653</v>
+      </c>
+      <c r="O35" s="21">
+        <v>45658</v>
+      </c>
+      <c r="P35" s="21">
+        <v>45660</v>
+      </c>
+      <c r="Q35" s="21">
+        <v>45663</v>
+      </c>
+      <c r="R35" s="21">
+        <v>45664</v>
+      </c>
+      <c r="S35" s="21">
+        <v>45667</v>
+      </c>
+      <c r="T35" s="21">
+        <v>45670</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" ht="15" spans="1:20">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -4118,18 +4018,38 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="24"/>
-      <c r="T36" s="24"/>
-    </row>
-    <row r="37" customFormat="1" ht="15.5" spans="1:20">
+      <c r="K36" s="21">
+        <v>45675</v>
+      </c>
+      <c r="L36" s="21">
+        <v>45676</v>
+      </c>
+      <c r="M36" s="21">
+        <v>45677</v>
+      </c>
+      <c r="N36" s="21">
+        <v>45678</v>
+      </c>
+      <c r="O36" s="21">
+        <v>45679</v>
+      </c>
+      <c r="P36" s="21">
+        <v>45680</v>
+      </c>
+      <c r="Q36" s="21">
+        <v>45681</v>
+      </c>
+      <c r="R36" s="21">
+        <v>45682</v>
+      </c>
+      <c r="S36" s="21">
+        <v>45690</v>
+      </c>
+      <c r="T36" s="21">
+        <v>45691</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" ht="15" spans="1:20">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -4140,18 +4060,38 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="23"/>
-      <c r="R37" s="23"/>
-      <c r="S37" s="24"/>
-      <c r="T37" s="24"/>
-    </row>
-    <row r="38" customFormat="1" ht="15.5" spans="1:20">
+      <c r="K37" s="21">
+        <v>45692</v>
+      </c>
+      <c r="L37" s="21">
+        <v>45693</v>
+      </c>
+      <c r="M37" s="21">
+        <v>45694</v>
+      </c>
+      <c r="N37" s="21">
+        <v>45698</v>
+      </c>
+      <c r="O37" s="21">
+        <v>45699</v>
+      </c>
+      <c r="P37" s="21">
+        <v>45700</v>
+      </c>
+      <c r="Q37" s="21">
+        <v>45701</v>
+      </c>
+      <c r="R37" s="21">
+        <v>45702</v>
+      </c>
+      <c r="S37" s="21">
+        <v>45705</v>
+      </c>
+      <c r="T37" s="21">
+        <v>45712</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" ht="15" spans="1:20">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -4162,18 +4102,25 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="23"/>
-      <c r="S38" s="24"/>
-      <c r="T38" s="24"/>
-    </row>
-    <row r="39" customFormat="1" ht="15.5" spans="1:20">
+      <c r="K38" s="21">
+        <v>45719</v>
+      </c>
+      <c r="L38" s="21">
+        <v>45721</v>
+      </c>
+      <c r="M38" s="21">
+        <v>45726</v>
+      </c>
+      <c r="N38" s="21">
+        <v>45733</v>
+      </c>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
+    </row>
+    <row r="39" customFormat="1" ht="15" spans="1:20">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -4183,19 +4130,19 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="23"/>
-      <c r="R39" s="23"/>
-      <c r="S39" s="24"/>
-      <c r="T39" s="24"/>
-    </row>
-    <row r="40" customFormat="1" ht="15.5" spans="1:20">
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="24"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="25"/>
+    </row>
+    <row r="40" customFormat="1" ht="15" spans="1:20">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -4205,19 +4152,19 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="23"/>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="23"/>
-      <c r="S40" s="24"/>
-      <c r="T40" s="24"/>
-    </row>
-    <row r="41" customFormat="1" ht="15.5" spans="1:20">
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="24"/>
+      <c r="S40" s="25"/>
+      <c r="T40" s="25"/>
+    </row>
+    <row r="41" customFormat="1" ht="15" spans="1:20">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -4227,21 +4174,21 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="23"/>
-      <c r="R41" s="23"/>
-      <c r="S41" s="24"/>
-      <c r="T41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="24"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="25"/>
     </row>
     <row r="42" spans="2:11">
       <c r="B42" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -4326,7 +4273,7 @@
       <c r="K48" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="70">
+  <mergeCells count="80">
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A17:A18"/>
@@ -4334,6 +4281,7 @@
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A35:A38"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B17:B18"/>
@@ -4341,6 +4289,7 @@
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B35:B38"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C17:C18"/>
@@ -4348,6 +4297,7 @@
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C35:C38"/>
     <mergeCell ref="D9:D12"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D17:D18"/>
@@ -4355,6 +4305,7 @@
     <mergeCell ref="D21:D23"/>
     <mergeCell ref="D24:D26"/>
     <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D35:D38"/>
     <mergeCell ref="E9:E12"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="E17:E18"/>
@@ -4362,6 +4313,7 @@
     <mergeCell ref="E21:E23"/>
     <mergeCell ref="E24:E26"/>
     <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E35:E38"/>
     <mergeCell ref="F9:F12"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="F17:F18"/>
@@ -4369,6 +4321,7 @@
     <mergeCell ref="F21:F23"/>
     <mergeCell ref="F24:F26"/>
     <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F35:F38"/>
     <mergeCell ref="G9:G12"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="G17:G18"/>
@@ -4376,6 +4329,7 @@
     <mergeCell ref="G21:G23"/>
     <mergeCell ref="G24:G26"/>
     <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G35:G38"/>
     <mergeCell ref="H9:H12"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="H17:H18"/>
@@ -4383,6 +4337,7 @@
     <mergeCell ref="H21:H23"/>
     <mergeCell ref="H24:H26"/>
     <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H35:H38"/>
     <mergeCell ref="I9:I12"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="I17:I18"/>
@@ -4390,12 +4345,14 @@
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="I32:I33"/>
+    <mergeCell ref="I35:I38"/>
     <mergeCell ref="J9:J12"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="J19:J20"/>
     <mergeCell ref="J21:J23"/>
     <mergeCell ref="J24:J26"/>
+    <mergeCell ref="J35:J38"/>
     <mergeCell ref="B42:K48"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12330"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Doing" sheetId="1" r:id="rId1"/>
@@ -166,7 +166,7 @@
   </si>
   <si>
     <t>转账时间(灰色表示线上上课（课时费1小时100），绿色表示课时费已发)：
-星期天培训下个月20号;知新识途下个月20号
+星期天培训下个月20号;知新识途下个月20号，郭润宁从4月5号开始每节课260
 下次考试目标：刘桐语：140，郭润宁：100，单欣俞：90</t>
   </si>
   <si>
@@ -491,11 +491,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -993,7 +993,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1002,10 +1002,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1014,7 +1014,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1194,10 +1194,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1212,13 +1212,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1540,25 +1540,25 @@
   <sheetPr/>
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="5.58181818181818" customWidth="1"/>
-    <col min="3" max="3" width="10.6636363636364" customWidth="1"/>
+    <col min="1" max="2" width="5.58333333333333" customWidth="1"/>
+    <col min="3" max="3" width="10.6666666666667" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="30.4545454545455" customWidth="1"/>
+    <col min="5" max="5" width="30.4583333333333" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="9.87272727272727" customWidth="1"/>
-    <col min="9" max="9" width="9.12727272727273" customWidth="1"/>
-    <col min="10" max="10" width="10.8363636363636" customWidth="1"/>
+    <col min="8" max="8" width="9.875" customWidth="1"/>
+    <col min="9" max="9" width="9.125" customWidth="1"/>
+    <col min="10" max="10" width="10.8333333333333" customWidth="1"/>
     <col min="11" max="20" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:20">
+    <row r="1" ht="15.75" spans="1:20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15" spans="1:20">
+    <row r="2" customFormat="1" ht="15.75" spans="1:20">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>45623</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15" spans="1:20">
+    <row r="3" customFormat="1" ht="15.75" spans="1:20">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1724,7 +1724,7 @@
         <v>45703</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15" spans="1:20">
+    <row r="4" customFormat="1" ht="15.75" spans="1:20">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1758,7 +1758,7 @@
       <c r="S4" s="22"/>
       <c r="T4" s="22"/>
     </row>
-    <row r="5" customFormat="1" ht="15" spans="1:20">
+    <row r="5" customFormat="1" ht="15.75" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>45746</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="15" spans="1:20">
+    <row r="6" customFormat="1" ht="15.75" spans="1:20">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1846,7 +1846,7 @@
       <c r="S6" s="22"/>
       <c r="T6" s="22"/>
     </row>
-    <row r="7" customFormat="1" ht="15" spans="1:20">
+    <row r="7" customFormat="1" ht="15.75" spans="1:20">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>45620</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="15" spans="1:20">
+    <row r="8" customFormat="1" ht="15.75" spans="1:20">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1950,7 +1950,7 @@
         <v>45746</v>
       </c>
     </row>
-    <row r="9" customFormat="1" ht="15" spans="1:20">
+    <row r="9" customFormat="1" ht="15.75" spans="1:20">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1974,7 +1974,7 @@
       <c r="S9" s="22"/>
       <c r="T9" s="22"/>
     </row>
-    <row r="10" customFormat="1" ht="15" spans="1:20">
+    <row r="10" customFormat="1" ht="15.75" spans="1:20">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15" spans="1:20">
+    <row r="11" customFormat="1" ht="15.75" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2078,7 +2078,7 @@
         <v>45718</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="1:13">
+    <row r="12" ht="15.75" spans="1:13">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2099,12 +2099,12 @@
         <v>45746</v>
       </c>
     </row>
-    <row r="19" s="20" customFormat="1" ht="15"/>
-    <row r="20" s="20" customFormat="1" ht="15"/>
-    <row r="21" s="20" customFormat="1" ht="15"/>
-    <row r="22" s="20" customFormat="1" ht="15"/>
-    <row r="23" s="20" customFormat="1" ht="15"/>
-    <row r="24" s="20" customFormat="1" ht="15" spans="1:9">
+    <row r="19" s="20" customFormat="1" ht="15.75"/>
+    <row r="20" s="20" customFormat="1" ht="15.75"/>
+    <row r="21" s="20" customFormat="1" ht="15.75"/>
+    <row r="22" s="20" customFormat="1" ht="15.75"/>
+    <row r="23" s="20" customFormat="1" ht="15.75"/>
+    <row r="24" s="20" customFormat="1" ht="15.75" spans="1:9">
       <c r="A24" s="26"/>
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
@@ -2115,7 +2115,7 @@
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
     </row>
-    <row r="25" s="20" customFormat="1" ht="15" spans="1:9">
+    <row r="25" s="20" customFormat="1" ht="15.75" spans="1:9">
       <c r="A25" s="26"/>
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
@@ -2126,7 +2126,7 @@
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
     </row>
-    <row r="26" ht="17.5" spans="2:13">
+    <row r="26" ht="18.75" spans="2:13">
       <c r="B26" s="8" t="s">
         <v>49</v>
       </c>
@@ -2142,7 +2142,7 @@
       <c r="L26" s="28"/>
       <c r="M26" s="28"/>
     </row>
-    <row r="27" ht="17.5" spans="2:13">
+    <row r="27" ht="18.75" spans="2:13">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -2156,7 +2156,7 @@
       <c r="L27" s="28"/>
       <c r="M27" s="28"/>
     </row>
-    <row r="28" ht="17.5" spans="2:12">
+    <row r="28" ht="18.75" spans="2:12">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -2168,7 +2168,7 @@
       <c r="K28" s="28"/>
       <c r="L28" s="28"/>
     </row>
-    <row r="29" ht="17.5" spans="2:13">
+    <row r="29" ht="18.75" spans="2:13">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -2182,7 +2182,7 @@
       <c r="L29" s="28"/>
       <c r="M29" s="28"/>
     </row>
-    <row r="30" ht="17.5" spans="2:13">
+    <row r="30" ht="18.75" spans="2:13">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -2255,22 +2255,22 @@
       <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="4.58181818181818" customWidth="1"/>
-    <col min="3" max="3" width="10.8727272727273" customWidth="1"/>
+    <col min="1" max="2" width="4.58333333333333" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="18.5818181818182" customWidth="1"/>
-    <col min="6" max="6" width="7.33636363636364" customWidth="1"/>
-    <col min="7" max="7" width="27.1272727272727" customWidth="1"/>
-    <col min="8" max="9" width="9.58181818181818" customWidth="1"/>
-    <col min="10" max="10" width="10.6272727272727" customWidth="1"/>
+    <col min="5" max="5" width="18.5833333333333" customWidth="1"/>
+    <col min="6" max="6" width="7.33333333333333" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+    <col min="8" max="9" width="9.58333333333333" customWidth="1"/>
+    <col min="10" max="10" width="10.625" customWidth="1"/>
     <col min="11" max="11" width="10.5" customWidth="1"/>
-    <col min="12" max="21" width="10.7545454545455" customWidth="1"/>
+    <col min="12" max="21" width="10.7583333333333" customWidth="1"/>
     <col min="22" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:21">
+    <row r="1" ht="15.75" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15" spans="1:21">
+    <row r="2" customFormat="1" ht="15.75" spans="1:21">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15" spans="1:19">
+    <row r="3" customFormat="1" ht="15.75" spans="1:19">
       <c r="A3" s="4" t="s">
         <v>58</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15" spans="1:11">
+    <row r="4" customFormat="1" ht="15.75" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15" spans="1:20">
+    <row r="5" customFormat="1" ht="15.75" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" customFormat="1" ht="15" spans="1:20">
+    <row r="6" customFormat="1" ht="15.75" spans="1:20">
       <c r="A6" s="4" t="s">
         <v>58</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15" spans="1:20">
+    <row r="7" customFormat="1" ht="15.75" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -2703,7 +2703,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" customFormat="1" ht="15" spans="1:20">
+    <row r="9" customFormat="1" ht="15.75" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15" spans="1:20">
+    <row r="10" customFormat="1" ht="15.75" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2807,7 +2807,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15" spans="1:20">
+    <row r="11" customFormat="1" ht="15.75" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2849,7 +2849,7 @@
         <v>45445</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15" spans="1:20">
+    <row r="12" customFormat="1" ht="15.75" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2873,7 +2873,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" customFormat="1" ht="15" spans="1:20">
+    <row r="13" customFormat="1" ht="15.75" spans="1:20">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="15" spans="1:20">
+    <row r="14" customFormat="1" ht="15.75" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2959,7 +2959,7 @@
       <c r="S14" s="16"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" customFormat="1" ht="15" spans="1:20">
+    <row r="15" customFormat="1" ht="15.75" spans="1:20">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -3015,7 +3015,7 @@
       <c r="S15" s="16"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" customFormat="1" ht="15" spans="1:20">
+    <row r="16" customFormat="1" ht="15.75" spans="1:20">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="15" spans="1:20">
+    <row r="17" customFormat="1" ht="15.75" spans="1:20">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="15" spans="1:20">
+    <row r="18" customFormat="1" ht="15.75" spans="1:20">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -3171,7 +3171,7 @@
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
     </row>
-    <row r="19" customFormat="1" ht="15" spans="1:20">
+    <row r="19" customFormat="1" ht="15.75" spans="1:20">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>45451</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="15" spans="1:20">
+    <row r="20" customFormat="1" ht="15.75" spans="1:20">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3265,7 +3265,7 @@
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
     </row>
-    <row r="21" customFormat="1" ht="15" spans="1:20">
+    <row r="21" customFormat="1" ht="15.75" spans="1:20">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="15" spans="1:20">
+    <row r="22" customFormat="1" ht="15.75" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3369,7 +3369,7 @@
         <v>45423</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15" spans="1:20">
+    <row r="23" customFormat="1" ht="15.75" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3401,7 +3401,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" customFormat="1" ht="15" spans="1:20">
+    <row r="24" customFormat="1" ht="15.75" spans="1:20">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>45325</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="15" spans="1:20">
+    <row r="25" customFormat="1" ht="15.75" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3505,7 +3505,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15" spans="1:20">
+    <row r="26" s="1" customFormat="1" ht="15.75" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3543,7 +3543,7 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="27" customFormat="1" ht="15" spans="1:20">
+    <row r="27" customFormat="1" ht="15.75" spans="1:20">
       <c r="A27" s="5" t="s">
         <v>118</v>
       </c>
@@ -3587,7 +3587,7 @@
       <c r="S27" s="24"/>
       <c r="T27" s="24"/>
     </row>
-    <row r="28" customFormat="1" ht="15" spans="1:20">
+    <row r="28" customFormat="1" ht="15.75" spans="1:20">
       <c r="A28" s="5" t="s">
         <v>20</v>
       </c>
@@ -3641,7 +3641,7 @@
       <c r="S28" s="16"/>
       <c r="T28" s="16"/>
     </row>
-    <row r="29" customFormat="1" ht="15" spans="1:18">
+    <row r="29" customFormat="1" ht="15.75" spans="1:18">
       <c r="A29" s="5" t="s">
         <v>20</v>
       </c>
@@ -3683,7 +3683,7 @@
       <c r="Q29" s="16"/>
       <c r="R29" s="16"/>
     </row>
-    <row r="30" customFormat="1" ht="15" spans="1:20">
+    <row r="30" customFormat="1" ht="15.75" spans="1:20">
       <c r="A30" s="5" t="s">
         <v>131</v>
       </c>
@@ -3737,7 +3737,7 @@
       <c r="S30" s="20"/>
       <c r="T30" s="20"/>
     </row>
-    <row r="31" customFormat="1" ht="15" spans="1:20">
+    <row r="31" customFormat="1" ht="15.75" spans="1:20">
       <c r="A31" s="5" t="s">
         <v>20</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="32" customFormat="1" ht="15" spans="1:20">
+    <row r="32" customFormat="1" ht="15.75" spans="1:20">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="33" customFormat="1" ht="15" spans="1:20">
+    <row r="33" customFormat="1" ht="15.75" spans="1:20">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3889,7 +3889,7 @@
       <c r="S33" s="22"/>
       <c r="T33" s="22"/>
     </row>
-    <row r="34" customFormat="1" ht="15" spans="1:20">
+    <row r="34" customFormat="1" ht="15.75" spans="1:20">
       <c r="A34" s="5" t="s">
         <v>20</v>
       </c>
@@ -3945,7 +3945,7 @@
       <c r="S34" s="16"/>
       <c r="T34" s="16"/>
     </row>
-    <row r="35" customFormat="1" ht="15" spans="1:20">
+    <row r="35" customFormat="1" ht="15.75" spans="1:20">
       <c r="A35" s="4" t="s">
         <v>20</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>45670</v>
       </c>
     </row>
-    <row r="36" customFormat="1" ht="15" spans="1:20">
+    <row r="36" customFormat="1" ht="15.75" spans="1:20">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -4049,7 +4049,7 @@
         <v>45691</v>
       </c>
     </row>
-    <row r="37" customFormat="1" ht="15" spans="1:20">
+    <row r="37" customFormat="1" ht="15.75" spans="1:20">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -4091,7 +4091,7 @@
         <v>45712</v>
       </c>
     </row>
-    <row r="38" customFormat="1" ht="15" spans="1:20">
+    <row r="38" customFormat="1" ht="15.75" spans="1:20">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -4120,7 +4120,7 @@
       <c r="S38" s="22"/>
       <c r="T38" s="22"/>
     </row>
-    <row r="39" customFormat="1" ht="15" spans="1:20">
+    <row r="39" customFormat="1" ht="15.75" spans="1:20">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -4142,7 +4142,7 @@
       <c r="S39" s="25"/>
       <c r="T39" s="25"/>
     </row>
-    <row r="40" customFormat="1" ht="15" spans="1:20">
+    <row r="40" customFormat="1" ht="15.75" spans="1:20">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -4164,7 +4164,7 @@
       <c r="S40" s="25"/>
       <c r="T40" s="25"/>
     </row>
-    <row r="41" customFormat="1" ht="15" spans="1:20">
+    <row r="41" customFormat="1" ht="15.75" spans="1:20">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="25600" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Doing" sheetId="1" r:id="rId1"/>
@@ -491,11 +491,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -993,7 +993,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1002,10 +1002,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1014,7 +1014,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1194,10 +1194,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1212,13 +1212,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1541,24 +1541,24 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="2" width="5.58333333333333" customWidth="1"/>
-    <col min="3" max="3" width="10.6666666666667" customWidth="1"/>
+    <col min="1" max="2" width="5.58181818181818" customWidth="1"/>
+    <col min="3" max="3" width="10.6636363636364" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="30.4583333333333" customWidth="1"/>
+    <col min="5" max="5" width="30.4545454545455" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="9.875" customWidth="1"/>
-    <col min="9" max="9" width="9.125" customWidth="1"/>
-    <col min="10" max="10" width="10.8333333333333" customWidth="1"/>
+    <col min="8" max="8" width="9.87272727272727" customWidth="1"/>
+    <col min="9" max="9" width="9.12727272727273" customWidth="1"/>
+    <col min="10" max="10" width="10.8363636363636" customWidth="1"/>
     <col min="11" max="20" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:20">
+    <row r="1" ht="15" spans="1:20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.75" spans="1:20">
+    <row r="2" customFormat="1" ht="15" spans="1:20">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>45623</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15.75" spans="1:20">
+    <row r="3" customFormat="1" ht="15" spans="1:20">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1724,7 +1724,7 @@
         <v>45703</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.75" spans="1:20">
+    <row r="4" customFormat="1" ht="15" spans="1:20">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1753,12 +1753,14 @@
       <c r="P4" s="22">
         <v>45752</v>
       </c>
-      <c r="Q4" s="22"/>
+      <c r="Q4" s="22">
+        <v>45759</v>
+      </c>
       <c r="R4" s="22"/>
       <c r="S4" s="22"/>
       <c r="T4" s="22"/>
     </row>
-    <row r="5" customFormat="1" ht="15.75" spans="1:20">
+    <row r="5" customFormat="1" ht="15" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -1820,7 +1822,7 @@
         <v>45746</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="15.75" spans="1:20">
+    <row r="6" customFormat="1" ht="15" spans="1:20">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1837,8 +1839,12 @@
       <c r="L6" s="22">
         <v>45753</v>
       </c>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
+      <c r="M6" s="22">
+        <v>45759</v>
+      </c>
+      <c r="N6" s="22">
+        <v>45760</v>
+      </c>
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
       <c r="Q6" s="22"/>
@@ -1846,7 +1852,7 @@
       <c r="S6" s="22"/>
       <c r="T6" s="22"/>
     </row>
-    <row r="7" customFormat="1" ht="15.75" spans="1:20">
+    <row r="7" customFormat="1" ht="15" spans="1:20">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
@@ -1908,7 +1914,7 @@
         <v>45620</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="15.75" spans="1:20">
+    <row r="8" customFormat="1" ht="15" spans="1:20">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1950,7 +1956,7 @@
         <v>45746</v>
       </c>
     </row>
-    <row r="9" customFormat="1" ht="15.75" spans="1:20">
+    <row r="9" customFormat="1" ht="15" spans="1:20">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1964,7 +1970,9 @@
       <c r="K9" s="21">
         <v>45753</v>
       </c>
-      <c r="L9" s="22"/>
+      <c r="L9" s="22">
+        <v>45760</v>
+      </c>
       <c r="M9" s="22"/>
       <c r="N9" s="22"/>
       <c r="O9" s="22"/>
@@ -1974,7 +1982,7 @@
       <c r="S9" s="22"/>
       <c r="T9" s="22"/>
     </row>
-    <row r="10" customFormat="1" ht="15.75" spans="1:20">
+    <row r="10" customFormat="1" ht="15" spans="1:20">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
@@ -2036,7 +2044,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15.75" spans="1:20">
+    <row r="11" customFormat="1" ht="15" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2078,7 +2086,7 @@
         <v>45718</v>
       </c>
     </row>
-    <row r="12" ht="15.75" spans="1:13">
+    <row r="12" ht="15" spans="1:13">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2099,12 +2107,12 @@
         <v>45746</v>
       </c>
     </row>
-    <row r="19" s="20" customFormat="1" ht="15.75"/>
-    <row r="20" s="20" customFormat="1" ht="15.75"/>
-    <row r="21" s="20" customFormat="1" ht="15.75"/>
-    <row r="22" s="20" customFormat="1" ht="15.75"/>
-    <row r="23" s="20" customFormat="1" ht="15.75"/>
-    <row r="24" s="20" customFormat="1" ht="15.75" spans="1:9">
+    <row r="19" s="20" customFormat="1" ht="15"/>
+    <row r="20" s="20" customFormat="1" ht="15"/>
+    <row r="21" s="20" customFormat="1" ht="15"/>
+    <row r="22" s="20" customFormat="1" ht="15"/>
+    <row r="23" s="20" customFormat="1" ht="15"/>
+    <row r="24" s="20" customFormat="1" ht="15" spans="1:9">
       <c r="A24" s="26"/>
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
@@ -2115,7 +2123,7 @@
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
     </row>
-    <row r="25" s="20" customFormat="1" ht="15.75" spans="1:9">
+    <row r="25" s="20" customFormat="1" ht="15" spans="1:9">
       <c r="A25" s="26"/>
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
@@ -2126,7 +2134,7 @@
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
     </row>
-    <row r="26" ht="18.75" spans="2:13">
+    <row r="26" ht="17.5" spans="2:13">
       <c r="B26" s="8" t="s">
         <v>49</v>
       </c>
@@ -2142,7 +2150,7 @@
       <c r="L26" s="28"/>
       <c r="M26" s="28"/>
     </row>
-    <row r="27" ht="18.75" spans="2:13">
+    <row r="27" ht="17.5" spans="2:13">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -2156,7 +2164,7 @@
       <c r="L27" s="28"/>
       <c r="M27" s="28"/>
     </row>
-    <row r="28" ht="18.75" spans="2:12">
+    <row r="28" ht="17.5" spans="2:12">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -2168,7 +2176,7 @@
       <c r="K28" s="28"/>
       <c r="L28" s="28"/>
     </row>
-    <row r="29" ht="18.75" spans="2:13">
+    <row r="29" ht="17.5" spans="2:13">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -2182,7 +2190,7 @@
       <c r="L29" s="28"/>
       <c r="M29" s="28"/>
     </row>
-    <row r="30" ht="18.75" spans="2:13">
+    <row r="30" ht="17.5" spans="2:13">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -2255,22 +2263,22 @@
       <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="2" width="4.58333333333333" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="1" max="2" width="4.58181818181818" customWidth="1"/>
+    <col min="3" max="3" width="10.8727272727273" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="18.5833333333333" customWidth="1"/>
-    <col min="6" max="6" width="7.33333333333333" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-    <col min="8" max="9" width="9.58333333333333" customWidth="1"/>
-    <col min="10" max="10" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="18.5818181818182" customWidth="1"/>
+    <col min="6" max="6" width="7.33636363636364" customWidth="1"/>
+    <col min="7" max="7" width="27.1272727272727" customWidth="1"/>
+    <col min="8" max="9" width="9.58181818181818" customWidth="1"/>
+    <col min="10" max="10" width="10.6272727272727" customWidth="1"/>
     <col min="11" max="11" width="10.5" customWidth="1"/>
-    <col min="12" max="21" width="10.7583333333333" customWidth="1"/>
+    <col min="12" max="21" width="10.7545454545455" customWidth="1"/>
     <col min="22" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:21">
+    <row r="1" ht="15" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2335,7 +2343,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.75" spans="1:21">
+    <row r="2" customFormat="1" ht="15" spans="1:21">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -2400,7 +2408,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15.75" spans="1:19">
+    <row r="3" customFormat="1" ht="15" spans="1:19">
       <c r="A3" s="4" t="s">
         <v>58</v>
       </c>
@@ -2459,7 +2467,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.75" spans="1:11">
+    <row r="4" customFormat="1" ht="15" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -2494,7 +2502,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15.75" spans="1:20">
+    <row r="5" customFormat="1" ht="15" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -2554,7 +2562,7 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" customFormat="1" ht="15.75" spans="1:20">
+    <row r="6" customFormat="1" ht="15" spans="1:20">
       <c r="A6" s="4" t="s">
         <v>58</v>
       </c>
@@ -2616,7 +2624,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.75" spans="1:20">
+    <row r="7" customFormat="1" ht="15" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -2703,7 +2711,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" customFormat="1" ht="15.75" spans="1:20">
+    <row r="9" customFormat="1" ht="15" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -2765,7 +2773,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.75" spans="1:20">
+    <row r="10" customFormat="1" ht="15" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2807,7 +2815,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15.75" spans="1:20">
+    <row r="11" customFormat="1" ht="15" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2849,7 +2857,7 @@
         <v>45445</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15.75" spans="1:20">
+    <row r="12" customFormat="1" ht="15" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2873,7 +2881,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" customFormat="1" ht="15.75" spans="1:20">
+    <row r="13" customFormat="1" ht="15" spans="1:20">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -2935,7 +2943,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="15.75" spans="1:20">
+    <row r="14" customFormat="1" ht="15" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2959,7 +2967,7 @@
       <c r="S14" s="16"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" customFormat="1" ht="15.75" spans="1:20">
+    <row r="15" customFormat="1" ht="15" spans="1:20">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -3015,7 +3023,7 @@
       <c r="S15" s="16"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" customFormat="1" ht="15.75" spans="1:20">
+    <row r="16" customFormat="1" ht="15" spans="1:20">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -3077,7 +3085,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="15.75" spans="1:20">
+    <row r="17" customFormat="1" ht="15" spans="1:20">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -3139,7 +3147,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="15.75" spans="1:20">
+    <row r="18" customFormat="1" ht="15" spans="1:20">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -3171,7 +3179,7 @@
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
     </row>
-    <row r="19" customFormat="1" ht="15.75" spans="1:20">
+    <row r="19" customFormat="1" ht="15" spans="1:20">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -3233,7 +3241,7 @@
         <v>45451</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="15.75" spans="1:20">
+    <row r="20" customFormat="1" ht="15" spans="1:20">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3265,7 +3273,7 @@
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
     </row>
-    <row r="21" customFormat="1" ht="15.75" spans="1:20">
+    <row r="21" customFormat="1" ht="15" spans="1:20">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -3327,7 +3335,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="15.75" spans="1:20">
+    <row r="22" customFormat="1" ht="15" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3369,7 +3377,7 @@
         <v>45423</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15.75" spans="1:20">
+    <row r="23" customFormat="1" ht="15" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3401,7 +3409,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" customFormat="1" ht="15.75" spans="1:20">
+    <row r="24" customFormat="1" ht="15" spans="1:20">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
@@ -3463,7 +3471,7 @@
         <v>45325</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="15.75" spans="1:20">
+    <row r="25" customFormat="1" ht="15" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3505,7 +3513,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15.75" spans="1:20">
+    <row r="26" s="1" customFormat="1" ht="15" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3543,7 +3551,7 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="27" customFormat="1" ht="15.75" spans="1:20">
+    <row r="27" customFormat="1" ht="15" spans="1:20">
       <c r="A27" s="5" t="s">
         <v>118</v>
       </c>
@@ -3587,7 +3595,7 @@
       <c r="S27" s="24"/>
       <c r="T27" s="24"/>
     </row>
-    <row r="28" customFormat="1" ht="15.75" spans="1:20">
+    <row r="28" customFormat="1" ht="15" spans="1:20">
       <c r="A28" s="5" t="s">
         <v>20</v>
       </c>
@@ -3641,7 +3649,7 @@
       <c r="S28" s="16"/>
       <c r="T28" s="16"/>
     </row>
-    <row r="29" customFormat="1" ht="15.75" spans="1:18">
+    <row r="29" customFormat="1" ht="15" spans="1:18">
       <c r="A29" s="5" t="s">
         <v>20</v>
       </c>
@@ -3683,7 +3691,7 @@
       <c r="Q29" s="16"/>
       <c r="R29" s="16"/>
     </row>
-    <row r="30" customFormat="1" ht="15.75" spans="1:20">
+    <row r="30" customFormat="1" ht="15" spans="1:20">
       <c r="A30" s="5" t="s">
         <v>131</v>
       </c>
@@ -3737,7 +3745,7 @@
       <c r="S30" s="20"/>
       <c r="T30" s="20"/>
     </row>
-    <row r="31" customFormat="1" ht="15.75" spans="1:20">
+    <row r="31" customFormat="1" ht="15" spans="1:20">
       <c r="A31" s="5" t="s">
         <v>20</v>
       </c>
@@ -3799,7 +3807,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="32" customFormat="1" ht="15.75" spans="1:20">
+    <row r="32" customFormat="1" ht="15" spans="1:20">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -3861,7 +3869,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="33" customFormat="1" ht="15.75" spans="1:20">
+    <row r="33" customFormat="1" ht="15" spans="1:20">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3889,7 +3897,7 @@
       <c r="S33" s="22"/>
       <c r="T33" s="22"/>
     </row>
-    <row r="34" customFormat="1" ht="15.75" spans="1:20">
+    <row r="34" customFormat="1" ht="15" spans="1:20">
       <c r="A34" s="5" t="s">
         <v>20</v>
       </c>
@@ -3945,7 +3953,7 @@
       <c r="S34" s="16"/>
       <c r="T34" s="16"/>
     </row>
-    <row r="35" customFormat="1" ht="15.75" spans="1:20">
+    <row r="35" customFormat="1" ht="15" spans="1:20">
       <c r="A35" s="4" t="s">
         <v>20</v>
       </c>
@@ -4007,7 +4015,7 @@
         <v>45670</v>
       </c>
     </row>
-    <row r="36" customFormat="1" ht="15.75" spans="1:20">
+    <row r="36" customFormat="1" ht="15" spans="1:20">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -4049,7 +4057,7 @@
         <v>45691</v>
       </c>
     </row>
-    <row r="37" customFormat="1" ht="15.75" spans="1:20">
+    <row r="37" customFormat="1" ht="15" spans="1:20">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -4091,7 +4099,7 @@
         <v>45712</v>
       </c>
     </row>
-    <row r="38" customFormat="1" ht="15.75" spans="1:20">
+    <row r="38" customFormat="1" ht="15" spans="1:20">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -4120,7 +4128,7 @@
       <c r="S38" s="22"/>
       <c r="T38" s="22"/>
     </row>
-    <row r="39" customFormat="1" ht="15.75" spans="1:20">
+    <row r="39" customFormat="1" ht="15" spans="1:20">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -4142,7 +4150,7 @@
       <c r="S39" s="25"/>
       <c r="T39" s="25"/>
     </row>
-    <row r="40" customFormat="1" ht="15.75" spans="1:20">
+    <row r="40" customFormat="1" ht="15" spans="1:20">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -4164,7 +4172,7 @@
       <c r="S40" s="25"/>
       <c r="T40" s="25"/>
     </row>
-    <row r="41" customFormat="1" ht="15.75" spans="1:20">
+    <row r="41" customFormat="1" ht="15" spans="1:20">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12330"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Doing" sheetId="1" r:id="rId1"/>
@@ -491,11 +491,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -993,7 +993,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1002,10 +1002,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1014,7 +1014,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1194,10 +1194,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1212,13 +1212,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1541,24 +1541,24 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="5.58181818181818" customWidth="1"/>
-    <col min="3" max="3" width="10.6636363636364" customWidth="1"/>
+    <col min="1" max="2" width="5.58333333333333" customWidth="1"/>
+    <col min="3" max="3" width="10.6666666666667" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="30.4545454545455" customWidth="1"/>
+    <col min="5" max="5" width="30.4583333333333" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="9.87272727272727" customWidth="1"/>
-    <col min="9" max="9" width="9.12727272727273" customWidth="1"/>
-    <col min="10" max="10" width="10.8363636363636" customWidth="1"/>
+    <col min="8" max="8" width="9.875" customWidth="1"/>
+    <col min="9" max="9" width="9.125" customWidth="1"/>
+    <col min="10" max="10" width="10.8333333333333" customWidth="1"/>
     <col min="11" max="20" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:20">
+    <row r="1" ht="15.75" spans="1:20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15" spans="1:20">
+    <row r="2" customFormat="1" ht="15.75" spans="1:20">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>45623</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15" spans="1:20">
+    <row r="3" customFormat="1" ht="15.75" spans="1:20">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1724,7 +1724,7 @@
         <v>45703</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15" spans="1:20">
+    <row r="4" customFormat="1" ht="15.75" spans="1:20">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1741,26 +1741,26 @@
       <c r="L4" s="21">
         <v>45717</v>
       </c>
-      <c r="M4" s="22">
+      <c r="M4" s="21">
         <v>45724</v>
       </c>
-      <c r="N4" s="22">
+      <c r="N4" s="21">
         <v>45731</v>
       </c>
-      <c r="O4" s="22">
+      <c r="O4" s="21">
         <v>45738</v>
       </c>
-      <c r="P4" s="22">
+      <c r="P4" s="21">
         <v>45752</v>
       </c>
-      <c r="Q4" s="22">
+      <c r="Q4" s="21">
         <v>45759</v>
       </c>
       <c r="R4" s="22"/>
       <c r="S4" s="22"/>
       <c r="T4" s="22"/>
     </row>
-    <row r="5" customFormat="1" ht="15" spans="1:20">
+    <row r="5" customFormat="1" ht="15.75" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>45746</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="15" spans="1:20">
+    <row r="6" customFormat="1" ht="15.75" spans="1:20">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1852,7 +1852,7 @@
       <c r="S6" s="22"/>
       <c r="T6" s="22"/>
     </row>
-    <row r="7" customFormat="1" ht="15" spans="1:20">
+    <row r="7" customFormat="1" ht="15.75" spans="1:20">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>45620</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="15" spans="1:20">
+    <row r="8" customFormat="1" ht="15.75" spans="1:20">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1956,7 +1956,7 @@
         <v>45746</v>
       </c>
     </row>
-    <row r="9" customFormat="1" ht="15" spans="1:20">
+    <row r="9" customFormat="1" ht="15.75" spans="1:20">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1982,7 +1982,7 @@
       <c r="S9" s="22"/>
       <c r="T9" s="22"/>
     </row>
-    <row r="10" customFormat="1" ht="15" spans="1:20">
+    <row r="10" customFormat="1" ht="15.75" spans="1:20">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15" spans="1:20">
+    <row r="11" customFormat="1" ht="15.75" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2086,7 +2086,7 @@
         <v>45718</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="1:13">
+    <row r="12" ht="15.75" spans="1:13">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2107,12 +2107,12 @@
         <v>45746</v>
       </c>
     </row>
-    <row r="19" s="20" customFormat="1" ht="15"/>
-    <row r="20" s="20" customFormat="1" ht="15"/>
-    <row r="21" s="20" customFormat="1" ht="15"/>
-    <row r="22" s="20" customFormat="1" ht="15"/>
-    <row r="23" s="20" customFormat="1" ht="15"/>
-    <row r="24" s="20" customFormat="1" ht="15" spans="1:9">
+    <row r="19" s="20" customFormat="1" ht="15.75"/>
+    <row r="20" s="20" customFormat="1" ht="15.75"/>
+    <row r="21" s="20" customFormat="1" ht="15.75"/>
+    <row r="22" s="20" customFormat="1" ht="15.75"/>
+    <row r="23" s="20" customFormat="1" ht="15.75"/>
+    <row r="24" s="20" customFormat="1" ht="15.75" spans="1:9">
       <c r="A24" s="26"/>
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
@@ -2123,7 +2123,7 @@
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
     </row>
-    <row r="25" s="20" customFormat="1" ht="15" spans="1:9">
+    <row r="25" s="20" customFormat="1" ht="15.75" spans="1:9">
       <c r="A25" s="26"/>
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
@@ -2134,7 +2134,7 @@
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
     </row>
-    <row r="26" ht="17.5" spans="2:13">
+    <row r="26" ht="18.75" spans="2:13">
       <c r="B26" s="8" t="s">
         <v>49</v>
       </c>
@@ -2150,7 +2150,7 @@
       <c r="L26" s="28"/>
       <c r="M26" s="28"/>
     </row>
-    <row r="27" ht="17.5" spans="2:13">
+    <row r="27" ht="18.75" spans="2:13">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -2164,7 +2164,7 @@
       <c r="L27" s="28"/>
       <c r="M27" s="28"/>
     </row>
-    <row r="28" ht="17.5" spans="2:12">
+    <row r="28" ht="18.75" spans="2:12">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -2176,7 +2176,7 @@
       <c r="K28" s="28"/>
       <c r="L28" s="28"/>
     </row>
-    <row r="29" ht="17.5" spans="2:13">
+    <row r="29" ht="18.75" spans="2:13">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -2190,7 +2190,7 @@
       <c r="L29" s="28"/>
       <c r="M29" s="28"/>
     </row>
-    <row r="30" ht="17.5" spans="2:13">
+    <row r="30" ht="18.75" spans="2:13">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -2263,22 +2263,22 @@
       <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="4.58181818181818" customWidth="1"/>
-    <col min="3" max="3" width="10.8727272727273" customWidth="1"/>
+    <col min="1" max="2" width="4.58333333333333" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="18.5818181818182" customWidth="1"/>
-    <col min="6" max="6" width="7.33636363636364" customWidth="1"/>
-    <col min="7" max="7" width="27.1272727272727" customWidth="1"/>
-    <col min="8" max="9" width="9.58181818181818" customWidth="1"/>
-    <col min="10" max="10" width="10.6272727272727" customWidth="1"/>
+    <col min="5" max="5" width="18.5833333333333" customWidth="1"/>
+    <col min="6" max="6" width="7.33333333333333" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+    <col min="8" max="9" width="9.58333333333333" customWidth="1"/>
+    <col min="10" max="10" width="10.625" customWidth="1"/>
     <col min="11" max="11" width="10.5" customWidth="1"/>
-    <col min="12" max="21" width="10.7545454545455" customWidth="1"/>
+    <col min="12" max="21" width="10.7583333333333" customWidth="1"/>
     <col min="22" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:21">
+    <row r="1" ht="15.75" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15" spans="1:21">
+    <row r="2" customFormat="1" ht="15.75" spans="1:21">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15" spans="1:19">
+    <row r="3" customFormat="1" ht="15.75" spans="1:19">
       <c r="A3" s="4" t="s">
         <v>58</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15" spans="1:11">
+    <row r="4" customFormat="1" ht="15.75" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15" spans="1:20">
+    <row r="5" customFormat="1" ht="15.75" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -2562,7 +2562,7 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" customFormat="1" ht="15" spans="1:20">
+    <row r="6" customFormat="1" ht="15.75" spans="1:20">
       <c r="A6" s="4" t="s">
         <v>58</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15" spans="1:20">
+    <row r="7" customFormat="1" ht="15.75" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -2711,7 +2711,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" customFormat="1" ht="15" spans="1:20">
+    <row r="9" customFormat="1" ht="15.75" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15" spans="1:20">
+    <row r="10" customFormat="1" ht="15.75" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2815,7 +2815,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15" spans="1:20">
+    <row r="11" customFormat="1" ht="15.75" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2857,7 +2857,7 @@
         <v>45445</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15" spans="1:20">
+    <row r="12" customFormat="1" ht="15.75" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2881,7 +2881,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" customFormat="1" ht="15" spans="1:20">
+    <row r="13" customFormat="1" ht="15.75" spans="1:20">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="15" spans="1:20">
+    <row r="14" customFormat="1" ht="15.75" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2967,7 +2967,7 @@
       <c r="S14" s="16"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" customFormat="1" ht="15" spans="1:20">
+    <row r="15" customFormat="1" ht="15.75" spans="1:20">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -3023,7 +3023,7 @@
       <c r="S15" s="16"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" customFormat="1" ht="15" spans="1:20">
+    <row r="16" customFormat="1" ht="15.75" spans="1:20">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="15" spans="1:20">
+    <row r="17" customFormat="1" ht="15.75" spans="1:20">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="15" spans="1:20">
+    <row r="18" customFormat="1" ht="15.75" spans="1:20">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -3179,7 +3179,7 @@
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
     </row>
-    <row r="19" customFormat="1" ht="15" spans="1:20">
+    <row r="19" customFormat="1" ht="15.75" spans="1:20">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>45451</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="15" spans="1:20">
+    <row r="20" customFormat="1" ht="15.75" spans="1:20">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3273,7 +3273,7 @@
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
     </row>
-    <row r="21" customFormat="1" ht="15" spans="1:20">
+    <row r="21" customFormat="1" ht="15.75" spans="1:20">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="15" spans="1:20">
+    <row r="22" customFormat="1" ht="15.75" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3377,7 +3377,7 @@
         <v>45423</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15" spans="1:20">
+    <row r="23" customFormat="1" ht="15.75" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3409,7 +3409,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" customFormat="1" ht="15" spans="1:20">
+    <row r="24" customFormat="1" ht="15.75" spans="1:20">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>45325</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="15" spans="1:20">
+    <row r="25" customFormat="1" ht="15.75" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3513,7 +3513,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15" spans="1:20">
+    <row r="26" s="1" customFormat="1" ht="15.75" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3551,7 +3551,7 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="27" customFormat="1" ht="15" spans="1:20">
+    <row r="27" customFormat="1" ht="15.75" spans="1:20">
       <c r="A27" s="5" t="s">
         <v>118</v>
       </c>
@@ -3595,7 +3595,7 @@
       <c r="S27" s="24"/>
       <c r="T27" s="24"/>
     </row>
-    <row r="28" customFormat="1" ht="15" spans="1:20">
+    <row r="28" customFormat="1" ht="15.75" spans="1:20">
       <c r="A28" s="5" t="s">
         <v>20</v>
       </c>
@@ -3649,7 +3649,7 @@
       <c r="S28" s="16"/>
       <c r="T28" s="16"/>
     </row>
-    <row r="29" customFormat="1" ht="15" spans="1:18">
+    <row r="29" customFormat="1" ht="15.75" spans="1:18">
       <c r="A29" s="5" t="s">
         <v>20</v>
       </c>
@@ -3691,7 +3691,7 @@
       <c r="Q29" s="16"/>
       <c r="R29" s="16"/>
     </row>
-    <row r="30" customFormat="1" ht="15" spans="1:20">
+    <row r="30" customFormat="1" ht="15.75" spans="1:20">
       <c r="A30" s="5" t="s">
         <v>131</v>
       </c>
@@ -3745,7 +3745,7 @@
       <c r="S30" s="20"/>
       <c r="T30" s="20"/>
     </row>
-    <row r="31" customFormat="1" ht="15" spans="1:20">
+    <row r="31" customFormat="1" ht="15.75" spans="1:20">
       <c r="A31" s="5" t="s">
         <v>20</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="32" customFormat="1" ht="15" spans="1:20">
+    <row r="32" customFormat="1" ht="15.75" spans="1:20">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="33" customFormat="1" ht="15" spans="1:20">
+    <row r="33" customFormat="1" ht="15.75" spans="1:20">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3897,7 +3897,7 @@
       <c r="S33" s="22"/>
       <c r="T33" s="22"/>
     </row>
-    <row r="34" customFormat="1" ht="15" spans="1:20">
+    <row r="34" customFormat="1" ht="15.75" spans="1:20">
       <c r="A34" s="5" t="s">
         <v>20</v>
       </c>
@@ -3953,7 +3953,7 @@
       <c r="S34" s="16"/>
       <c r="T34" s="16"/>
     </row>
-    <row r="35" customFormat="1" ht="15" spans="1:20">
+    <row r="35" customFormat="1" ht="15.75" spans="1:20">
       <c r="A35" s="4" t="s">
         <v>20</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>45670</v>
       </c>
     </row>
-    <row r="36" customFormat="1" ht="15" spans="1:20">
+    <row r="36" customFormat="1" ht="15.75" spans="1:20">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -4057,7 +4057,7 @@
         <v>45691</v>
       </c>
     </row>
-    <row r="37" customFormat="1" ht="15" spans="1:20">
+    <row r="37" customFormat="1" ht="15.75" spans="1:20">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -4099,7 +4099,7 @@
         <v>45712</v>
       </c>
     </row>
-    <row r="38" customFormat="1" ht="15" spans="1:20">
+    <row r="38" customFormat="1" ht="15.75" spans="1:20">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -4128,7 +4128,7 @@
       <c r="S38" s="22"/>
       <c r="T38" s="22"/>
     </row>
-    <row r="39" customFormat="1" ht="15" spans="1:20">
+    <row r="39" customFormat="1" ht="15.75" spans="1:20">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -4150,7 +4150,7 @@
       <c r="S39" s="25"/>
       <c r="T39" s="25"/>
     </row>
-    <row r="40" customFormat="1" ht="15" spans="1:20">
+    <row r="40" customFormat="1" ht="15.75" spans="1:20">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -4172,7 +4172,7 @@
       <c r="S40" s="25"/>
       <c r="T40" s="25"/>
     </row>
-    <row r="41" customFormat="1" ht="15" spans="1:20">
+    <row r="41" customFormat="1" ht="15.75" spans="1:20">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="25600" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Doing" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
     <t>/</t>
   </si>
   <si>
-    <t>240/2h</t>
+    <t>260/2h</t>
   </si>
   <si>
     <t>周六15：30-17：30</t>
@@ -144,339 +144,339 @@
     <t>120/150</t>
   </si>
   <si>
+    <t>转账时间(灰色表示线上上课（课时费1小时100），绿色表示课时费已发)：
+星期天培训下个月20号;知新识途下个月20号
+下次考试目标：刘桐语：140，郭润宁：120，单欣俞：100</t>
+  </si>
+  <si>
+    <t>第11课</t>
+  </si>
+  <si>
+    <t>新耀科技</t>
+  </si>
+  <si>
+    <t>180/1.5h</t>
+  </si>
+  <si>
+    <t>周六19：00-20：30</t>
+  </si>
+  <si>
+    <t>宁芮一</t>
+  </si>
+  <si>
+    <t>光明路北小区14-2-503</t>
+  </si>
+  <si>
+    <t>兵一</t>
+  </si>
+  <si>
+    <t>90/150</t>
+  </si>
+  <si>
+    <t>初二</t>
+  </si>
+  <si>
+    <t>豌豆文化</t>
+  </si>
+  <si>
+    <t>双胞胎</t>
+  </si>
+  <si>
+    <t>秀城二代宅9-2-1501</t>
+  </si>
+  <si>
+    <t>12中</t>
+  </si>
+  <si>
+    <t>80/100</t>
+  </si>
+  <si>
+    <t>优师帮</t>
+  </si>
+  <si>
+    <t>240/2h</t>
+  </si>
+  <si>
+    <t>周三20：30-22：30</t>
+  </si>
+  <si>
+    <t>李金翰</t>
+  </si>
+  <si>
+    <t>新医路165号汇文大厦504</t>
+  </si>
+  <si>
+    <t>师大</t>
+  </si>
+  <si>
+    <t>80/150</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>360/1.5h</t>
+  </si>
+  <si>
+    <t>博瑞佰艺</t>
+  </si>
+  <si>
+    <t>每天19：30-21：00</t>
+  </si>
+  <si>
+    <t>徐子洋</t>
+  </si>
+  <si>
+    <t>德泽园三区1-1-202</t>
+  </si>
+  <si>
+    <t>60/100</t>
+  </si>
+  <si>
+    <t>一尔优教育</t>
+  </si>
+  <si>
+    <t>周日18：00-20：00</t>
+  </si>
+  <si>
+    <t>张恒源</t>
+  </si>
+  <si>
+    <t>丹霞山街绿谷学府3-1-403</t>
+  </si>
+  <si>
+    <t>30/150</t>
+  </si>
+  <si>
+    <t>周一20：30-22：30</t>
+  </si>
+  <si>
+    <t>姜弈瞳</t>
+  </si>
+  <si>
+    <t>锦绣三街-和兴帝景4-1-1403</t>
+  </si>
+  <si>
+    <t>108/150</t>
+  </si>
+  <si>
     <t>物理</t>
   </si>
   <si>
+    <t>210/2h</t>
+  </si>
+  <si>
+    <t>周日12：00-14：00</t>
+  </si>
+  <si>
+    <t>柯梓萌</t>
+  </si>
+  <si>
+    <t>青年路国税小区3-1-501</t>
+  </si>
+  <si>
+    <t>40/100</t>
+  </si>
+  <si>
+    <t>周日15：00-17：00</t>
+  </si>
+  <si>
+    <t>刘卓雅</t>
+  </si>
+  <si>
+    <t>邮区中心局小区3-4-602</t>
+  </si>
+  <si>
+    <t>13中</t>
+  </si>
+  <si>
+    <t>李冰惠</t>
+  </si>
+  <si>
+    <t>一中家属院7号院1-2-201</t>
+  </si>
+  <si>
+    <t>周二周四19：20-21：20</t>
+  </si>
+  <si>
+    <t>夏锦程</t>
+  </si>
+  <si>
+    <t>天章大厦</t>
+  </si>
+  <si>
+    <t>19中</t>
+  </si>
+  <si>
+    <t>30/90</t>
+  </si>
+  <si>
+    <t>周三周五19：20-21：20</t>
+  </si>
+  <si>
+    <t>刘东睿</t>
+  </si>
+  <si>
+    <t>11中</t>
+  </si>
+  <si>
+    <t>50/150</t>
+  </si>
+  <si>
+    <t>周六15：00-17：00</t>
+  </si>
+  <si>
+    <t>马金亮</t>
+  </si>
+  <si>
+    <t>复读</t>
+  </si>
+  <si>
+    <t>周六20：00-22：00</t>
+  </si>
+  <si>
+    <t>张育铭</t>
+  </si>
+  <si>
+    <t>金源贸易城5-1-602</t>
+  </si>
+  <si>
+    <t>104团中学</t>
+  </si>
+  <si>
+    <t>100/150</t>
+  </si>
+  <si>
+    <t>周日09：00-11：00</t>
+  </si>
+  <si>
+    <t>周裕民</t>
+  </si>
+  <si>
+    <t>兵二分校</t>
+  </si>
+  <si>
+    <t>高一</t>
+  </si>
+  <si>
+    <t>320/2h</t>
+  </si>
+  <si>
+    <t>周日15：30-17：30</t>
+  </si>
+  <si>
+    <t>吴雨桐</t>
+  </si>
+  <si>
+    <t>丽园路轩和苑C区 3-2-102</t>
+  </si>
+  <si>
+    <t>60/150</t>
+  </si>
+  <si>
+    <t>周六17：10-19：10</t>
+  </si>
+  <si>
+    <t>孙朝(zhao)阳</t>
+  </si>
+  <si>
+    <t>450/2h</t>
+  </si>
+  <si>
+    <t>周六18：30-20：30</t>
+  </si>
+  <si>
+    <t>魏子骞</t>
+  </si>
+  <si>
+    <t>幸福路48号二建小区 9-2-302</t>
+  </si>
+  <si>
+    <t>70/90</t>
+  </si>
+  <si>
+    <t>初一</t>
+  </si>
+  <si>
+    <t>掌学教育</t>
+  </si>
+  <si>
+    <t>220/2h</t>
+  </si>
+  <si>
+    <t>朱思臣</t>
+  </si>
+  <si>
+    <t>新民路29号 3-201</t>
+  </si>
+  <si>
+    <t>90/100</t>
+  </si>
+  <si>
+    <t>精锐教育</t>
+  </si>
+  <si>
+    <t>周日20：00-22：00</t>
+  </si>
+  <si>
+    <t>孙翊原</t>
+  </si>
+  <si>
+    <t>卫生巷88号 6-1-403</t>
+  </si>
+  <si>
+    <t>110/150</t>
+  </si>
+  <si>
+    <t>周日14：00-16：00</t>
+  </si>
+  <si>
+    <t>贾梦垚</t>
+  </si>
+  <si>
+    <t>德泽园3区1-1-101</t>
+  </si>
+  <si>
+    <t>周六12：00-14：00</t>
+  </si>
+  <si>
+    <t>张佳宁</t>
+  </si>
+  <si>
+    <t>耳鼻喉科专科医院旁巷子201室</t>
+  </si>
+  <si>
+    <t>一中</t>
+  </si>
+  <si>
+    <t>85/100</t>
+  </si>
+  <si>
+    <t>270/1.5h</t>
+  </si>
+  <si>
+    <t>周一、二、五 21：00-22：30</t>
+  </si>
+  <si>
+    <t>李梦媛</t>
+  </si>
+  <si>
+    <t>晟和家园 3-2203</t>
+  </si>
+  <si>
+    <t>70中</t>
+  </si>
+  <si>
+    <t>43/150</t>
+  </si>
+  <si>
     <t>星期天培训</t>
   </si>
   <si>
     <t>周日17：00-19：00</t>
   </si>
   <si>
-    <t>李梦媛</t>
-  </si>
-  <si>
-    <t>晟和家园 3-2203</t>
-  </si>
-  <si>
-    <t>70中</t>
-  </si>
-  <si>
     <t>39/90</t>
-  </si>
-  <si>
-    <t>转账时间(灰色表示线上上课（课时费1小时100），绿色表示课时费已发)：
-星期天培训下个月20号;知新识途下个月20号，郭润宁从4月5号开始每节课260
-下次考试目标：刘桐语：140，郭润宁：100，单欣俞：90</t>
-  </si>
-  <si>
-    <t>第11课</t>
-  </si>
-  <si>
-    <t>新耀科技</t>
-  </si>
-  <si>
-    <t>180/1.5h</t>
-  </si>
-  <si>
-    <t>周六19：00-20：30</t>
-  </si>
-  <si>
-    <t>宁芮一</t>
-  </si>
-  <si>
-    <t>光明路北小区14-2-503</t>
-  </si>
-  <si>
-    <t>兵一</t>
-  </si>
-  <si>
-    <t>90/150</t>
-  </si>
-  <si>
-    <t>初二</t>
-  </si>
-  <si>
-    <t>豌豆文化</t>
-  </si>
-  <si>
-    <t>260/2h</t>
-  </si>
-  <si>
-    <t>双胞胎</t>
-  </si>
-  <si>
-    <t>秀城二代宅9-2-1501</t>
-  </si>
-  <si>
-    <t>12中</t>
-  </si>
-  <si>
-    <t>80/100</t>
-  </si>
-  <si>
-    <t>优师帮</t>
-  </si>
-  <si>
-    <t>周三20：30-22：30</t>
-  </si>
-  <si>
-    <t>李金翰</t>
-  </si>
-  <si>
-    <t>新医路165号汇文大厦504</t>
-  </si>
-  <si>
-    <t>师大</t>
-  </si>
-  <si>
-    <t>80/150</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>360/1.5h</t>
-  </si>
-  <si>
-    <t>博瑞佰艺</t>
-  </si>
-  <si>
-    <t>每天19：30-21：00</t>
-  </si>
-  <si>
-    <t>徐子洋</t>
-  </si>
-  <si>
-    <t>德泽园三区1-1-202</t>
-  </si>
-  <si>
-    <t>60/100</t>
-  </si>
-  <si>
-    <t>一尔优教育</t>
-  </si>
-  <si>
-    <t>周日18：00-20：00</t>
-  </si>
-  <si>
-    <t>张恒源</t>
-  </si>
-  <si>
-    <t>丹霞山街绿谷学府3-1-403</t>
-  </si>
-  <si>
-    <t>30/150</t>
-  </si>
-  <si>
-    <t>周一20：30-22：30</t>
-  </si>
-  <si>
-    <t>姜弈瞳</t>
-  </si>
-  <si>
-    <t>锦绣三街-和兴帝景4-1-1403</t>
-  </si>
-  <si>
-    <t>108/150</t>
-  </si>
-  <si>
-    <t>210/2h</t>
-  </si>
-  <si>
-    <t>周日12：00-14：00</t>
-  </si>
-  <si>
-    <t>柯梓萌</t>
-  </si>
-  <si>
-    <t>青年路国税小区3-1-501</t>
-  </si>
-  <si>
-    <t>40/100</t>
-  </si>
-  <si>
-    <t>周日15：00-17：00</t>
-  </si>
-  <si>
-    <t>刘卓雅</t>
-  </si>
-  <si>
-    <t>邮区中心局小区3-4-602</t>
-  </si>
-  <si>
-    <t>13中</t>
-  </si>
-  <si>
-    <t>李冰惠</t>
-  </si>
-  <si>
-    <t>一中家属院7号院1-2-201</t>
-  </si>
-  <si>
-    <t>周二周四19：20-21：20</t>
-  </si>
-  <si>
-    <t>夏锦程</t>
-  </si>
-  <si>
-    <t>天章大厦</t>
-  </si>
-  <si>
-    <t>19中</t>
-  </si>
-  <si>
-    <t>30/90</t>
-  </si>
-  <si>
-    <t>周三周五19：20-21：20</t>
-  </si>
-  <si>
-    <t>刘东睿</t>
-  </si>
-  <si>
-    <t>11中</t>
-  </si>
-  <si>
-    <t>50/150</t>
-  </si>
-  <si>
-    <t>周六15：00-17：00</t>
-  </si>
-  <si>
-    <t>马金亮</t>
-  </si>
-  <si>
-    <t>复读</t>
-  </si>
-  <si>
-    <t>周六20：00-22：00</t>
-  </si>
-  <si>
-    <t>张育铭</t>
-  </si>
-  <si>
-    <t>金源贸易城5-1-602</t>
-  </si>
-  <si>
-    <t>104团中学</t>
-  </si>
-  <si>
-    <t>100/150</t>
-  </si>
-  <si>
-    <t>周日09：00-11：00</t>
-  </si>
-  <si>
-    <t>周裕民</t>
-  </si>
-  <si>
-    <t>兵二分校</t>
-  </si>
-  <si>
-    <t>高一</t>
-  </si>
-  <si>
-    <t>320/2h</t>
-  </si>
-  <si>
-    <t>周日15：30-17：30</t>
-  </si>
-  <si>
-    <t>吴雨桐</t>
-  </si>
-  <si>
-    <t>丽园路轩和苑C区 3-2-102</t>
-  </si>
-  <si>
-    <t>60/150</t>
-  </si>
-  <si>
-    <t>周六17：10-19：10</t>
-  </si>
-  <si>
-    <t>孙朝(zhao)阳</t>
-  </si>
-  <si>
-    <t>450/2h</t>
-  </si>
-  <si>
-    <t>周六18：30-20：30</t>
-  </si>
-  <si>
-    <t>魏子骞</t>
-  </si>
-  <si>
-    <t>幸福路48号二建小区 9-2-302</t>
-  </si>
-  <si>
-    <t>70/90</t>
-  </si>
-  <si>
-    <t>初一</t>
-  </si>
-  <si>
-    <t>掌学教育</t>
-  </si>
-  <si>
-    <t>220/2h</t>
-  </si>
-  <si>
-    <t>朱思臣</t>
-  </si>
-  <si>
-    <t>新民路29号 3-201</t>
-  </si>
-  <si>
-    <t>90/100</t>
-  </si>
-  <si>
-    <t>精锐教育</t>
-  </si>
-  <si>
-    <t>周日20：00-22：00</t>
-  </si>
-  <si>
-    <t>孙翊原</t>
-  </si>
-  <si>
-    <t>卫生巷88号 6-1-403</t>
-  </si>
-  <si>
-    <t>110/150</t>
-  </si>
-  <si>
-    <t>周日14：00-16：00</t>
-  </si>
-  <si>
-    <t>贾梦垚</t>
-  </si>
-  <si>
-    <t>德泽园3区1-1-101</t>
-  </si>
-  <si>
-    <t>周六12：00-14：00</t>
-  </si>
-  <si>
-    <t>张佳宁</t>
-  </si>
-  <si>
-    <t>耳鼻喉科专科医院旁巷子201室</t>
-  </si>
-  <si>
-    <t>一中</t>
-  </si>
-  <si>
-    <t>85/100</t>
-  </si>
-  <si>
-    <t>270/1.5h</t>
-  </si>
-  <si>
-    <t>周一、二、五 21：00-22：30</t>
-  </si>
-  <si>
-    <t>43/150</t>
   </si>
   <si>
     <t xml:space="preserve">绿色表示课时费已发；
@@ -491,11 +491,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -993,7 +993,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1002,10 +1002,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1014,7 +1014,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1194,10 +1194,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="180" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1212,13 +1212,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1541,24 +1541,24 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="2" width="5.58333333333333" customWidth="1"/>
-    <col min="3" max="3" width="10.6666666666667" customWidth="1"/>
+    <col min="1" max="2" width="5.58181818181818" customWidth="1"/>
+    <col min="3" max="3" width="10.6636363636364" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="30.4583333333333" customWidth="1"/>
+    <col min="5" max="5" width="30.4545454545455" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="9.875" customWidth="1"/>
-    <col min="9" max="9" width="9.125" customWidth="1"/>
-    <col min="10" max="10" width="10.8333333333333" customWidth="1"/>
+    <col min="8" max="8" width="9.87272727272727" customWidth="1"/>
+    <col min="9" max="9" width="9.12727272727273" customWidth="1"/>
+    <col min="10" max="10" width="10.8363636363636" customWidth="1"/>
     <col min="11" max="20" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:20">
+    <row r="1" ht="15" spans="1:20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.75" spans="1:20">
+    <row r="2" customFormat="1" ht="15" spans="1:20">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>45623</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15.75" spans="1:20">
+    <row r="3" customFormat="1" ht="15" spans="1:20">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1724,7 +1724,7 @@
         <v>45703</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.75" spans="1:20">
+    <row r="4" customFormat="1" ht="15" spans="1:20">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1760,7 +1760,7 @@
       <c r="S4" s="22"/>
       <c r="T4" s="22"/>
     </row>
-    <row r="5" customFormat="1" ht="15.75" spans="1:20">
+    <row r="5" customFormat="1" ht="15" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -1791,38 +1791,38 @@
       <c r="J5" s="21">
         <v>45710</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="21">
         <v>45717</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="21">
         <v>45718</v>
       </c>
-      <c r="M5" s="22">
+      <c r="M5" s="21">
         <v>45724</v>
       </c>
-      <c r="N5" s="22">
+      <c r="N5" s="21">
         <v>45725</v>
       </c>
-      <c r="O5" s="22">
+      <c r="O5" s="21">
         <v>45731</v>
       </c>
-      <c r="P5" s="22">
+      <c r="P5" s="21">
         <v>45732</v>
       </c>
-      <c r="Q5" s="22">
+      <c r="Q5" s="21">
         <v>45738</v>
       </c>
-      <c r="R5" s="22">
+      <c r="R5" s="21">
         <v>45739</v>
       </c>
-      <c r="S5" s="22">
+      <c r="S5" s="21">
         <v>45745</v>
       </c>
-      <c r="T5" s="22">
+      <c r="T5" s="21">
         <v>45746</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="15.75" spans="1:20">
+    <row r="6" customFormat="1" ht="15" spans="1:20">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1845,14 +1845,18 @@
       <c r="N6" s="22">
         <v>45760</v>
       </c>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
+      <c r="O6" s="22">
+        <v>45766</v>
+      </c>
+      <c r="P6" s="22">
+        <v>45767</v>
+      </c>
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
       <c r="S6" s="22"/>
       <c r="T6" s="22"/>
     </row>
-    <row r="7" customFormat="1" ht="15.75" spans="1:20">
+    <row r="7" customFormat="1" ht="15" spans="1:20">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
@@ -1914,7 +1918,7 @@
         <v>45620</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="15.75" spans="1:20">
+    <row r="8" customFormat="1" ht="15" spans="1:20">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1956,7 +1960,7 @@
         <v>45746</v>
       </c>
     </row>
-    <row r="9" customFormat="1" ht="15.75" spans="1:20">
+    <row r="9" customFormat="1" ht="15" spans="1:20">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1970,149 +1974,29 @@
       <c r="K9" s="21">
         <v>45753</v>
       </c>
-      <c r="L9" s="22">
+      <c r="L9" s="21">
         <v>45760</v>
       </c>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
+      <c r="M9" s="21">
+        <v>45767</v>
+      </c>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
       <c r="Q9" s="22"/>
       <c r="R9" s="29"/>
       <c r="S9" s="22"/>
       <c r="T9" s="22"/>
     </row>
-    <row r="10" customFormat="1" ht="15.75" spans="1:20">
-      <c r="A10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="21">
-        <v>45551</v>
-      </c>
-      <c r="L10" s="21">
-        <v>45556</v>
-      </c>
-      <c r="M10" s="21">
-        <v>45563</v>
-      </c>
-      <c r="N10" s="21">
-        <v>45566</v>
-      </c>
-      <c r="O10" s="21">
-        <v>45567</v>
-      </c>
-      <c r="P10" s="21">
-        <v>45572</v>
-      </c>
-      <c r="Q10" s="21">
-        <v>45577</v>
-      </c>
-      <c r="R10" s="21">
-        <v>45578</v>
-      </c>
-      <c r="S10" s="21">
-        <v>45585</v>
-      </c>
-      <c r="T10" s="21">
-        <v>45592</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" ht="15.75" spans="1:20">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="21">
-        <v>45599</v>
-      </c>
-      <c r="L11" s="21">
-        <v>45606</v>
-      </c>
-      <c r="M11" s="21">
-        <v>45613</v>
-      </c>
-      <c r="N11" s="21">
-        <v>45627</v>
-      </c>
-      <c r="O11" s="21">
-        <v>45641</v>
-      </c>
-      <c r="P11" s="21">
-        <v>45648</v>
-      </c>
-      <c r="Q11" s="21">
-        <v>45655</v>
-      </c>
-      <c r="R11" s="21">
-        <v>45662</v>
-      </c>
-      <c r="S11" s="21">
-        <v>45669</v>
-      </c>
-      <c r="T11" s="22">
-        <v>45718</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" spans="1:13">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="22">
-        <v>45725</v>
-      </c>
-      <c r="L12" s="22">
-        <v>45739</v>
-      </c>
-      <c r="M12" s="22">
-        <v>45746</v>
-      </c>
-    </row>
-    <row r="19" s="20" customFormat="1" ht="15.75"/>
-    <row r="20" s="20" customFormat="1" ht="15.75"/>
-    <row r="21" s="20" customFormat="1" ht="15.75"/>
-    <row r="22" s="20" customFormat="1" ht="15.75"/>
-    <row r="23" s="20" customFormat="1" ht="15.75"/>
-    <row r="24" s="20" customFormat="1" ht="15.75" spans="1:9">
+    <row r="10" customFormat="1"/>
+    <row r="11" customFormat="1"/>
+    <row r="12" customFormat="1"/>
+    <row r="19" s="20" customFormat="1" ht="15"/>
+    <row r="20" s="20" customFormat="1" ht="15"/>
+    <row r="21" s="20" customFormat="1" ht="15"/>
+    <row r="22" s="20" customFormat="1" ht="15"/>
+    <row r="23" s="20" customFormat="1" ht="15"/>
+    <row r="24" s="20" customFormat="1" ht="15" spans="1:9">
       <c r="A24" s="26"/>
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
@@ -2123,7 +2007,7 @@
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
     </row>
-    <row r="25" s="20" customFormat="1" ht="15.75" spans="1:9">
+    <row r="25" s="20" customFormat="1" ht="15" spans="1:9">
       <c r="A25" s="26"/>
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
@@ -2134,9 +2018,9 @@
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
     </row>
-    <row r="26" ht="18.75" spans="2:13">
+    <row r="26" ht="17.5" spans="2:13">
       <c r="B26" s="8" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -2150,7 +2034,7 @@
       <c r="L26" s="28"/>
       <c r="M26" s="28"/>
     </row>
-    <row r="27" ht="18.75" spans="2:13">
+    <row r="27" ht="17.5" spans="2:13">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -2164,7 +2048,7 @@
       <c r="L27" s="28"/>
       <c r="M27" s="28"/>
     </row>
-    <row r="28" ht="18.75" spans="2:12">
+    <row r="28" ht="17.5" spans="2:12">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -2176,7 +2060,7 @@
       <c r="K28" s="28"/>
       <c r="L28" s="28"/>
     </row>
-    <row r="29" ht="18.75" spans="2:13">
+    <row r="29" ht="17.5" spans="2:13">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -2190,7 +2074,7 @@
       <c r="L29" s="28"/>
       <c r="M29" s="28"/>
     </row>
-    <row r="30" ht="18.75" spans="2:13">
+    <row r="30" ht="17.5" spans="2:13">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -2205,47 +2089,37 @@
       <c r="M30" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="31">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B12"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C12"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D12"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="E7:E9"/>
-    <mergeCell ref="E10:E12"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="F7:F9"/>
-    <mergeCell ref="F10:F12"/>
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="G7:G9"/>
-    <mergeCell ref="G10:G12"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="H7:H9"/>
-    <mergeCell ref="H10:H12"/>
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="I7:I9"/>
-    <mergeCell ref="I10:I12"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="J7:J9"/>
-    <mergeCell ref="J10:J12"/>
     <mergeCell ref="B26:I30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2257,28 +2131,28 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U48"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N48" sqref="N48"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="2" width="4.58333333333333" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="1" max="2" width="4.58181818181818" customWidth="1"/>
+    <col min="3" max="3" width="10.8727272727273" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="18.5833333333333" customWidth="1"/>
-    <col min="6" max="6" width="7.33333333333333" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-    <col min="8" max="9" width="9.58333333333333" customWidth="1"/>
-    <col min="10" max="10" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="18.5818181818182" customWidth="1"/>
+    <col min="6" max="6" width="7.33636363636364" customWidth="1"/>
+    <col min="7" max="7" width="27.1272727272727" customWidth="1"/>
+    <col min="8" max="9" width="9.58181818181818" customWidth="1"/>
+    <col min="10" max="10" width="10.6272727272727" customWidth="1"/>
     <col min="11" max="11" width="10.5" customWidth="1"/>
-    <col min="12" max="21" width="10.7583333333333" customWidth="1"/>
+    <col min="12" max="21" width="10.7545454545455" customWidth="1"/>
     <col min="22" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:21">
+    <row r="1" ht="15" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2340,10 +2214,10 @@
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" customFormat="1" ht="15.75" spans="1:21">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="15" spans="1:21">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -2351,25 +2225,25 @@
         <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="J2" s="9">
         <v>45185</v>
@@ -2408,33 +2282,33 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15.75" spans="1:19">
+    <row r="3" customFormat="1" ht="15" spans="1:19">
       <c r="A3" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>22</v>
@@ -2467,7 +2341,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.75" spans="1:11">
+    <row r="4" customFormat="1" ht="15" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -2475,25 +2349,25 @@
         <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="J4" s="9">
         <v>45287</v>
@@ -2502,7 +2376,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15.75" spans="1:20">
+    <row r="5" customFormat="1" ht="15" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -2510,25 +2384,25 @@
         <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>22</v>
@@ -2562,33 +2436,33 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" customFormat="1" ht="15.75" spans="1:20">
+    <row r="6" customFormat="1" ht="15" spans="1:20">
       <c r="A6" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>40</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J6" s="9">
         <v>45320</v>
@@ -2624,7 +2498,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.75" spans="1:20">
+    <row r="7" customFormat="1" ht="15" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -2632,25 +2506,25 @@
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>40</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>22</v>
@@ -2678,25 +2552,25 @@
         <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H8" s="6">
         <v>126</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J8" s="14">
         <v>45425</v>
@@ -2711,33 +2585,33 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" customFormat="1" ht="15.75" spans="1:20">
+    <row r="9" customFormat="1" ht="15" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J9" s="9">
         <v>45186</v>
@@ -2773,7 +2647,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.75" spans="1:20">
+    <row r="10" customFormat="1" ht="15" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2815,7 +2689,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15.75" spans="1:20">
+    <row r="11" customFormat="1" ht="15" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2857,7 +2731,7 @@
         <v>45445</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15.75" spans="1:20">
+    <row r="12" customFormat="1" ht="15" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2881,7 +2755,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" customFormat="1" ht="15.75" spans="1:20">
+    <row r="13" customFormat="1" ht="15" spans="1:20">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -2889,25 +2763,25 @@
         <v>21</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="J13" s="17" t="s">
         <v>22</v>
@@ -2943,7 +2817,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="15.75" spans="1:20">
+    <row r="14" customFormat="1" ht="15" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2967,7 +2841,7 @@
       <c r="S14" s="16"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" customFormat="1" ht="15.75" spans="1:20">
+    <row r="15" customFormat="1" ht="15" spans="1:20">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -2975,22 +2849,22 @@
         <v>21</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>41</v>
@@ -3023,33 +2897,33 @@
       <c r="S15" s="16"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" customFormat="1" ht="15.75" spans="1:20">
+    <row r="16" customFormat="1" ht="15" spans="1:20">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J16" s="11" t="s">
         <v>22</v>
@@ -3085,7 +2959,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="15.75" spans="1:20">
+    <row r="17" customFormat="1" ht="15" spans="1:20">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -3093,25 +2967,25 @@
         <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G17" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="J17" s="17" t="s">
         <v>22</v>
@@ -3147,7 +3021,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="15.75" spans="1:20">
+    <row r="18" customFormat="1" ht="15" spans="1:20">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -3179,7 +3053,7 @@
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
     </row>
-    <row r="19" customFormat="1" ht="15.75" spans="1:20">
+    <row r="19" customFormat="1" ht="15" spans="1:20">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -3187,22 +3061,22 @@
         <v>21</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>28</v>
@@ -3241,7 +3115,7 @@
         <v>45451</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="15.75" spans="1:20">
+    <row r="20" customFormat="1" ht="15" spans="1:20">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3273,7 +3147,7 @@
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
     </row>
-    <row r="21" customFormat="1" ht="15.75" spans="1:20">
+    <row r="21" customFormat="1" ht="15" spans="1:20">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -3281,25 +3155,25 @@
         <v>21</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>22</v>
@@ -3335,7 +3209,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="15.75" spans="1:20">
+    <row r="22" customFormat="1" ht="15" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3377,7 +3251,7 @@
         <v>45423</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15.75" spans="1:20">
+    <row r="23" customFormat="1" ht="15" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3409,7 +3283,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" customFormat="1" ht="15.75" spans="1:20">
+    <row r="24" customFormat="1" ht="15" spans="1:20">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
@@ -3417,22 +3291,22 @@
         <v>21</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>41</v>
@@ -3471,7 +3345,7 @@
         <v>45325</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="15.75" spans="1:20">
+    <row r="25" customFormat="1" ht="15" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3513,7 +3387,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15.75" spans="1:20">
+    <row r="26" s="1" customFormat="1" ht="15" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3551,33 +3425,33 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="27" customFormat="1" ht="15.75" spans="1:20">
+    <row r="27" customFormat="1" ht="15" spans="1:20">
       <c r="A27" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>22</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="J27" s="12" t="s">
         <v>22</v>
@@ -3595,33 +3469,33 @@
       <c r="S27" s="24"/>
       <c r="T27" s="24"/>
     </row>
-    <row r="28" customFormat="1" ht="15.75" spans="1:20">
+    <row r="28" customFormat="1" ht="15" spans="1:20">
       <c r="A28" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J28" s="12" t="s">
         <v>22</v>
@@ -3649,33 +3523,33 @@
       <c r="S28" s="16"/>
       <c r="T28" s="16"/>
     </row>
-    <row r="29" customFormat="1" ht="15.75" spans="1:18">
+    <row r="29" customFormat="1" ht="15" spans="1:18">
       <c r="A29" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J29" s="12" t="s">
         <v>22</v>
@@ -3691,33 +3565,33 @@
       <c r="Q29" s="16"/>
       <c r="R29" s="16"/>
     </row>
-    <row r="30" customFormat="1" ht="15.75" spans="1:20">
+    <row r="30" customFormat="1" ht="15" spans="1:20">
       <c r="A30" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="J30" s="9">
         <v>45543</v>
@@ -3745,7 +3619,7 @@
       <c r="S30" s="20"/>
       <c r="T30" s="20"/>
     </row>
-    <row r="31" customFormat="1" ht="15.75" spans="1:20">
+    <row r="31" customFormat="1" ht="15" spans="1:20">
       <c r="A31" s="5" t="s">
         <v>20</v>
       </c>
@@ -3753,25 +3627,25 @@
         <v>21</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D31" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="G31" s="4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="J31" s="12" t="s">
         <v>22</v>
@@ -3807,7 +3681,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="32" customFormat="1" ht="15.75" spans="1:20">
+    <row r="32" customFormat="1" ht="15" spans="1:20">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -3821,13 +3695,13 @@
         <v>36</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>40</v>
@@ -3869,7 +3743,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="33" customFormat="1" ht="15.75" spans="1:20">
+    <row r="33" customFormat="1" ht="15" spans="1:20">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3897,33 +3771,33 @@
       <c r="S33" s="22"/>
       <c r="T33" s="22"/>
     </row>
-    <row r="34" customFormat="1" ht="15.75" spans="1:20">
+    <row r="34" customFormat="1" ht="15" spans="1:20">
       <c r="A34" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="J34" s="12" t="s">
         <v>22</v>
@@ -3953,7 +3827,7 @@
       <c r="S34" s="16"/>
       <c r="T34" s="16"/>
     </row>
-    <row r="35" customFormat="1" ht="15.75" spans="1:20">
+    <row r="35" customFormat="1" ht="15" spans="1:20">
       <c r="A35" s="4" t="s">
         <v>20</v>
       </c>
@@ -3964,22 +3838,22 @@
         <v>22</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>47</v>
+        <v>148</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J35" s="23" t="s">
         <v>22</v>
@@ -4015,7 +3889,7 @@
         <v>45670</v>
       </c>
     </row>
-    <row r="36" customFormat="1" ht="15.75" spans="1:20">
+    <row r="36" customFormat="1" ht="15" spans="1:20">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -4057,7 +3931,7 @@
         <v>45691</v>
       </c>
     </row>
-    <row r="37" customFormat="1" ht="15.75" spans="1:20">
+    <row r="37" customFormat="1" ht="15" spans="1:20">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -4099,7 +3973,7 @@
         <v>45712</v>
       </c>
     </row>
-    <row r="38" customFormat="1" ht="15.75" spans="1:20">
+    <row r="38" customFormat="1" ht="15" spans="1:20">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -4128,29 +4002,69 @@
       <c r="S38" s="22"/>
       <c r="T38" s="22"/>
     </row>
-    <row r="39" customFormat="1" ht="15.75" spans="1:20">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="24"/>
-      <c r="S39" s="25"/>
-      <c r="T39" s="25"/>
-    </row>
-    <row r="40" customFormat="1" ht="15.75" spans="1:20">
+    <row r="39" customFormat="1" ht="15" spans="1:20">
+      <c r="A39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K39" s="21">
+        <v>45551</v>
+      </c>
+      <c r="L39" s="21">
+        <v>45556</v>
+      </c>
+      <c r="M39" s="21">
+        <v>45563</v>
+      </c>
+      <c r="N39" s="21">
+        <v>45566</v>
+      </c>
+      <c r="O39" s="21">
+        <v>45567</v>
+      </c>
+      <c r="P39" s="21">
+        <v>45572</v>
+      </c>
+      <c r="Q39" s="21">
+        <v>45577</v>
+      </c>
+      <c r="R39" s="21">
+        <v>45578</v>
+      </c>
+      <c r="S39" s="21">
+        <v>45585</v>
+      </c>
+      <c r="T39" s="21">
+        <v>45592</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" ht="15" spans="1:20">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -4160,19 +4074,39 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="24"/>
-      <c r="S40" s="25"/>
-      <c r="T40" s="25"/>
-    </row>
-    <row r="41" customFormat="1" ht="15.75" spans="1:20">
+      <c r="J40" s="9"/>
+      <c r="K40" s="21">
+        <v>45599</v>
+      </c>
+      <c r="L40" s="21">
+        <v>45606</v>
+      </c>
+      <c r="M40" s="21">
+        <v>45613</v>
+      </c>
+      <c r="N40" s="21">
+        <v>45627</v>
+      </c>
+      <c r="O40" s="21">
+        <v>45641</v>
+      </c>
+      <c r="P40" s="21">
+        <v>45648</v>
+      </c>
+      <c r="Q40" s="21">
+        <v>45655</v>
+      </c>
+      <c r="R40" s="21">
+        <v>45662</v>
+      </c>
+      <c r="S40" s="21">
+        <v>45669</v>
+      </c>
+      <c r="T40" s="21">
+        <v>45718</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" ht="15" spans="1:13">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -4182,58 +4116,87 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="24"/>
-      <c r="Q41" s="24"/>
-      <c r="R41" s="24"/>
-      <c r="S41" s="25"/>
-      <c r="T41" s="25"/>
-    </row>
-    <row r="42" spans="2:11">
-      <c r="B42" s="8" t="s">
+      <c r="J41" s="9"/>
+      <c r="K41" s="21">
+        <v>45725</v>
+      </c>
+      <c r="L41" s="21">
+        <v>45739</v>
+      </c>
+      <c r="M41" s="21">
+        <v>45746</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" ht="15" spans="1:20">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="24"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="25"/>
+    </row>
+    <row r="43" customFormat="1" ht="15" spans="1:20">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24"/>
+      <c r="S43" s="25"/>
+      <c r="T43" s="25"/>
+    </row>
+    <row r="44" customFormat="1" ht="15" spans="1:20">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="24"/>
+      <c r="S44" s="25"/>
+      <c r="T44" s="25"/>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-    </row>
-    <row r="43" spans="2:11">
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-    </row>
-    <row r="44" spans="2:11">
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-    </row>
-    <row r="45" spans="2:11">
-      <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -4280,8 +4243,44 @@
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
     </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="80">
+  <mergeCells count="90">
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A17:A18"/>
@@ -4290,6 +4289,7 @@
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A41"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B17:B18"/>
@@ -4298,6 +4298,7 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B39:B41"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C17:C18"/>
@@ -4306,6 +4307,7 @@
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C39:C41"/>
     <mergeCell ref="D9:D12"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D17:D18"/>
@@ -4314,6 +4316,7 @@
     <mergeCell ref="D24:D26"/>
     <mergeCell ref="D32:D33"/>
     <mergeCell ref="D35:D38"/>
+    <mergeCell ref="D39:D41"/>
     <mergeCell ref="E9:E12"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="E17:E18"/>
@@ -4322,6 +4325,7 @@
     <mergeCell ref="E24:E26"/>
     <mergeCell ref="E32:E33"/>
     <mergeCell ref="E35:E38"/>
+    <mergeCell ref="E39:E41"/>
     <mergeCell ref="F9:F12"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="F17:F18"/>
@@ -4330,6 +4334,7 @@
     <mergeCell ref="F24:F26"/>
     <mergeCell ref="F32:F33"/>
     <mergeCell ref="F35:F38"/>
+    <mergeCell ref="F39:F41"/>
     <mergeCell ref="G9:G12"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="G17:G18"/>
@@ -4338,6 +4343,7 @@
     <mergeCell ref="G24:G26"/>
     <mergeCell ref="G32:G33"/>
     <mergeCell ref="G35:G38"/>
+    <mergeCell ref="G39:G41"/>
     <mergeCell ref="H9:H12"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="H17:H18"/>
@@ -4346,6 +4352,7 @@
     <mergeCell ref="H24:H26"/>
     <mergeCell ref="H32:H33"/>
     <mergeCell ref="H35:H38"/>
+    <mergeCell ref="H39:H41"/>
     <mergeCell ref="I9:I12"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="I17:I18"/>
@@ -4354,6 +4361,7 @@
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="I32:I33"/>
     <mergeCell ref="I35:I38"/>
+    <mergeCell ref="I39:I41"/>
     <mergeCell ref="J9:J12"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="J17:J18"/>
@@ -4361,7 +4369,8 @@
     <mergeCell ref="J21:J23"/>
     <mergeCell ref="J24:J26"/>
     <mergeCell ref="J35:J38"/>
-    <mergeCell ref="B42:K48"/>
+    <mergeCell ref="J39:J41"/>
+    <mergeCell ref="B45:K51"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -1541,7 +1541,7 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1851,7 +1851,9 @@
       <c r="P6" s="22">
         <v>45767</v>
       </c>
-      <c r="Q6" s="22"/>
+      <c r="Q6" s="22">
+        <v>45773</v>
+      </c>
       <c r="R6" s="22"/>
       <c r="S6" s="22"/>
       <c r="T6" s="22"/>
@@ -1988,9 +1990,6 @@
       <c r="S9" s="22"/>
       <c r="T9" s="22"/>
     </row>
-    <row r="10" customFormat="1"/>
-    <row r="11" customFormat="1"/>
-    <row r="12" customFormat="1"/>
     <row r="19" s="20" customFormat="1" ht="15"/>
     <row r="20" s="20" customFormat="1" ht="15"/>
     <row r="21" s="20" customFormat="1" ht="15"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="163">
   <si>
     <t>年级</t>
   </si>
@@ -83,31 +83,22 @@
     <t>数学</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>260/2h</t>
-  </si>
-  <si>
-    <t>周六15：30-17：30</t>
-  </si>
-  <si>
-    <t>郭润宁</t>
-  </si>
-  <si>
-    <t>嘉和苑·悦园 3楼</t>
-  </si>
-  <si>
-    <t>13中分校</t>
-  </si>
-  <si>
-    <t>70/150</t>
-  </si>
-  <si>
     <t>知新识途</t>
   </si>
   <si>
     <t>260/2h+300/每月</t>
+  </si>
+  <si>
+    <t>周六16：00-18：00</t>
+  </si>
+  <si>
+    <t>莱茵庄园C1-3-601</t>
+  </si>
+  <si>
+    <t>68中</t>
+  </si>
+  <si>
+    <t>140/150</t>
   </si>
   <si>
     <t>周六19：00-21：00
@@ -126,6 +117,9 @@
     <t>38/150</t>
   </si>
   <si>
+    <t>/</t>
+  </si>
+  <si>
     <t>270/2h</t>
   </si>
   <si>
@@ -142,6 +136,30 @@
   </si>
   <si>
     <t>120/150</t>
+  </si>
+  <si>
+    <t>物理</t>
+  </si>
+  <si>
+    <t>一尔优教育</t>
+  </si>
+  <si>
+    <t>240/2h</t>
+  </si>
+  <si>
+    <t>临时</t>
+  </si>
+  <si>
+    <t>金铭泽</t>
+  </si>
+  <si>
+    <t>霖水家园 2-1-1905</t>
+  </si>
+  <si>
+    <t>八一中学</t>
+  </si>
+  <si>
+    <t>80/90</t>
   </si>
   <si>
     <t>转账时间(灰色表示线上上课（课时费1小时100），绿色表示课时费已发)：
@@ -179,6 +197,12 @@
     <t>豌豆文化</t>
   </si>
   <si>
+    <t>260/2h</t>
+  </si>
+  <si>
+    <t>周六15：30-17：30</t>
+  </si>
+  <si>
     <t>双胞胎</t>
   </si>
   <si>
@@ -194,9 +218,6 @@
     <t>优师帮</t>
   </si>
   <si>
-    <t>240/2h</t>
-  </si>
-  <si>
     <t>周三20：30-22：30</t>
   </si>
   <si>
@@ -233,9 +254,6 @@
     <t>60/100</t>
   </si>
   <si>
-    <t>一尔优教育</t>
-  </si>
-  <si>
     <t>周日18：00-20：00</t>
   </si>
   <si>
@@ -260,9 +278,6 @@
     <t>108/150</t>
   </si>
   <si>
-    <t>物理</t>
-  </si>
-  <si>
     <t>210/2h</t>
   </si>
   <si>
@@ -332,6 +347,9 @@
     <t>复读</t>
   </si>
   <si>
+    <t>70/150</t>
+  </si>
+  <si>
     <t>周六20：00-22：00</t>
   </si>
   <si>
@@ -477,6 +495,15 @@
   </si>
   <si>
     <t>39/90</t>
+  </si>
+  <si>
+    <t>郭润宁</t>
+  </si>
+  <si>
+    <t>嘉和苑·悦园 3楼</t>
+  </si>
+  <si>
+    <t>13中分校</t>
   </si>
   <si>
     <t xml:space="preserve">绿色表示课时费已发；
@@ -1138,7 +1165,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1211,6 +1238,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1538,20 +1568,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="5.58181818181818" customWidth="1"/>
-    <col min="3" max="3" width="10.6636363636364" customWidth="1"/>
+    <col min="3" max="3" width="11.1818181818182" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="30.4545454545455" customWidth="1"/>
+    <col min="5" max="5" width="20.8181818181818" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
-    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="7" max="7" width="22.2727272727273" customWidth="1"/>
     <col min="8" max="8" width="9.87272727272727" customWidth="1"/>
     <col min="9" max="9" width="9.12727272727273" customWidth="1"/>
     <col min="10" max="10" width="10.8363636363636" customWidth="1"/>
@@ -1636,92 +1666,90 @@
       <c r="E2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="21">
+        <v>45778</v>
+      </c>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+    </row>
+    <row r="3" customFormat="1" ht="15" spans="1:20">
+      <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="21">
-        <v>45556</v>
-      </c>
-      <c r="K2" s="21">
-        <v>45566</v>
-      </c>
-      <c r="L2" s="21">
-        <v>45574</v>
-      </c>
-      <c r="M2" s="21">
-        <v>45584</v>
-      </c>
-      <c r="N2" s="21">
-        <v>45591</v>
-      </c>
-      <c r="O2" s="21">
-        <v>45598</v>
-      </c>
-      <c r="P2" s="21">
-        <v>45605</v>
-      </c>
-      <c r="Q2" s="21">
-        <v>45612</v>
-      </c>
-      <c r="R2" s="21">
-        <v>45615</v>
-      </c>
-      <c r="S2" s="21">
-        <v>45619</v>
-      </c>
-      <c r="T2" s="21">
-        <v>45623</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" ht="15" spans="1:20">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="21"/>
+      <c r="F3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="21">
+        <v>45710</v>
+      </c>
       <c r="K3" s="21">
-        <v>45633</v>
+        <v>45717</v>
       </c>
       <c r="L3" s="21">
-        <v>45640</v>
+        <v>45718</v>
       </c>
       <c r="M3" s="21">
-        <v>45647</v>
+        <v>45724</v>
       </c>
       <c r="N3" s="21">
-        <v>45654</v>
+        <v>45725</v>
       </c>
       <c r="O3" s="21">
-        <v>45661</v>
+        <v>45731</v>
       </c>
       <c r="P3" s="21">
-        <v>45668</v>
+        <v>45732</v>
       </c>
       <c r="Q3" s="21">
-        <v>45676</v>
+        <v>45738</v>
       </c>
       <c r="R3" s="21">
-        <v>45682</v>
+        <v>45739</v>
       </c>
       <c r="S3" s="21">
-        <v>45692</v>
+        <v>45745</v>
       </c>
       <c r="T3" s="21">
-        <v>45703</v>
+        <v>45746</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="15" spans="1:20">
@@ -1729,35 +1757,39 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="7"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="21"/>
-      <c r="K4" s="21">
-        <v>45710</v>
-      </c>
-      <c r="L4" s="21">
-        <v>45717</v>
-      </c>
-      <c r="M4" s="21">
-        <v>45724</v>
-      </c>
-      <c r="N4" s="21">
-        <v>45731</v>
-      </c>
-      <c r="O4" s="21">
-        <v>45738</v>
-      </c>
-      <c r="P4" s="21">
+      <c r="K4" s="22">
         <v>45752</v>
       </c>
-      <c r="Q4" s="21">
+      <c r="L4" s="22">
+        <v>45753</v>
+      </c>
+      <c r="M4" s="22">
         <v>45759</v>
       </c>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
+      <c r="N4" s="22">
+        <v>45760</v>
+      </c>
+      <c r="O4" s="22">
+        <v>45766</v>
+      </c>
+      <c r="P4" s="22">
+        <v>45767</v>
+      </c>
+      <c r="Q4" s="22">
+        <v>45773</v>
+      </c>
+      <c r="R4" s="22">
+        <v>45780</v>
+      </c>
+      <c r="S4" s="22">
+        <v>45782</v>
+      </c>
       <c r="T4" s="22"/>
     </row>
     <row r="5" customFormat="1" ht="15" spans="1:20">
@@ -1768,58 +1800,58 @@
         <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="21">
-        <v>45710</v>
-      </c>
-      <c r="K5" s="21">
-        <v>45717</v>
+      <c r="K5" s="28">
+        <v>45551</v>
       </c>
       <c r="L5" s="21">
-        <v>45718</v>
+        <v>45557</v>
       </c>
       <c r="M5" s="21">
-        <v>45724</v>
+        <v>45563</v>
       </c>
       <c r="N5" s="21">
-        <v>45725</v>
+        <v>45567</v>
       </c>
       <c r="O5" s="21">
-        <v>45731</v>
+        <v>45578</v>
       </c>
       <c r="P5" s="21">
-        <v>45732</v>
+        <v>45585</v>
       </c>
       <c r="Q5" s="21">
-        <v>45738</v>
+        <v>45592</v>
       </c>
       <c r="R5" s="21">
-        <v>45739</v>
+        <v>45599</v>
       </c>
       <c r="S5" s="21">
-        <v>45745</v>
+        <v>45613</v>
       </c>
       <c r="T5" s="21">
-        <v>45746</v>
+        <v>45620</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="15" spans="1:20">
@@ -1832,195 +1864,162 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="22">
-        <v>45752</v>
-      </c>
-      <c r="L6" s="22">
+      <c r="J6" s="9"/>
+      <c r="K6" s="21">
+        <v>45627</v>
+      </c>
+      <c r="L6" s="21">
+        <v>45641</v>
+      </c>
+      <c r="M6" s="21">
+        <v>45648</v>
+      </c>
+      <c r="N6" s="21">
+        <v>45655</v>
+      </c>
+      <c r="O6" s="21">
+        <v>45662</v>
+      </c>
+      <c r="P6" s="21">
+        <v>45718</v>
+      </c>
+      <c r="Q6" s="21">
+        <v>45725</v>
+      </c>
+      <c r="R6" s="21">
+        <v>45732</v>
+      </c>
+      <c r="S6" s="21">
+        <v>45739</v>
+      </c>
+      <c r="T6" s="21">
+        <v>45746</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="15" spans="1:20">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="21">
         <v>45753</v>
       </c>
-      <c r="M6" s="22">
-        <v>45759</v>
-      </c>
-      <c r="N6" s="22">
+      <c r="L7" s="21">
         <v>45760</v>
       </c>
-      <c r="O6" s="22">
-        <v>45766</v>
-      </c>
-      <c r="P6" s="22">
+      <c r="M7" s="21">
         <v>45767</v>
       </c>
-      <c r="Q6" s="22">
-        <v>45773</v>
-      </c>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-    </row>
-    <row r="7" customFormat="1" ht="15" spans="1:20">
-      <c r="A7" s="4" t="s">
+      <c r="N7" s="21">
+        <v>45780</v>
+      </c>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+    </row>
+    <row r="8" s="20" customFormat="1" ht="15" spans="1:11">
+      <c r="A8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="B8" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="C8" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="27">
-        <v>45551</v>
-      </c>
-      <c r="L7" s="21">
-        <v>45557</v>
-      </c>
-      <c r="M7" s="21">
-        <v>45563</v>
-      </c>
-      <c r="N7" s="21">
-        <v>45567</v>
-      </c>
-      <c r="O7" s="21">
-        <v>45578</v>
-      </c>
-      <c r="P7" s="21">
-        <v>45585</v>
-      </c>
-      <c r="Q7" s="21">
-        <v>45592</v>
-      </c>
-      <c r="R7" s="21">
-        <v>45599</v>
-      </c>
-      <c r="S7" s="21">
-        <v>45613</v>
-      </c>
-      <c r="T7" s="21">
-        <v>45620</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" ht="15" spans="1:20">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="21">
-        <v>45627</v>
-      </c>
-      <c r="L8" s="21">
-        <v>45641</v>
-      </c>
-      <c r="M8" s="21">
-        <v>45648</v>
-      </c>
-      <c r="N8" s="21">
-        <v>45655</v>
-      </c>
-      <c r="O8" s="21">
-        <v>45662</v>
-      </c>
-      <c r="P8" s="21">
-        <v>45718</v>
-      </c>
-      <c r="Q8" s="21">
-        <v>45725</v>
-      </c>
-      <c r="R8" s="21">
-        <v>45732</v>
-      </c>
-      <c r="S8" s="21">
-        <v>45739</v>
-      </c>
-      <c r="T8" s="21">
-        <v>45746</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" ht="15" spans="1:20">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="21">
-        <v>45753</v>
-      </c>
-      <c r="L9" s="21">
-        <v>45760</v>
-      </c>
-      <c r="M9" s="21">
-        <v>45767</v>
-      </c>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-    </row>
+      <c r="D8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="22">
+        <v>45781</v>
+      </c>
+    </row>
+    <row r="17" s="20" customFormat="1" ht="15"/>
+    <row r="18" s="20" customFormat="1" ht="15"/>
     <row r="19" s="20" customFormat="1" ht="15"/>
     <row r="20" s="20" customFormat="1" ht="15"/>
     <row r="21" s="20" customFormat="1" ht="15"/>
-    <row r="22" s="20" customFormat="1" ht="15"/>
-    <row r="23" s="20" customFormat="1" ht="15"/>
-    <row r="24" s="20" customFormat="1" ht="15" spans="1:9">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-    </row>
-    <row r="25" s="20" customFormat="1" ht="15" spans="1:9">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-    </row>
-    <row r="26" ht="17.5" spans="2:13">
-      <c r="B26" s="8" t="s">
-        <v>42</v>
-      </c>
+    <row r="22" s="20" customFormat="1" ht="15" spans="1:9">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+    </row>
+    <row r="23" s="20" customFormat="1" ht="15" spans="1:9">
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+    </row>
+    <row r="24" ht="17.5" spans="2:13">
+      <c r="B24" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+    </row>
+    <row r="25" ht="17.5" spans="2:13">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+    </row>
+    <row r="26" ht="17.5" spans="2:12">
+      <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2028,10 +2027,8 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
     </row>
     <row r="27" ht="17.5" spans="2:13">
       <c r="B27" s="8"/>
@@ -2042,12 +2039,12 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-    </row>
-    <row r="28" ht="17.5" spans="2:12">
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+    </row>
+    <row r="28" ht="17.5" spans="2:13">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -2056,70 +2053,34 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-    </row>
-    <row r="29" ht="17.5" spans="2:13">
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-    </row>
-    <row r="30" ht="17.5" spans="2:13">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="B26:I30"/>
+  <mergeCells count="21">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="B24:I28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -2130,10 +2091,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U51"/>
+  <dimension ref="A1:U54"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="R49" sqref="R49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2146,8 +2107,8 @@
     <col min="7" max="7" width="27.1272727272727" customWidth="1"/>
     <col min="8" max="9" width="9.58181818181818" customWidth="1"/>
     <col min="10" max="10" width="10.6272727272727" customWidth="1"/>
-    <col min="11" max="11" width="10.5" customWidth="1"/>
-    <col min="12" max="21" width="10.7545454545455" customWidth="1"/>
+    <col min="11" max="20" width="11.2727272727273" customWidth="1"/>
+    <col min="21" max="21" width="10.7545454545455" customWidth="1"/>
     <col min="22" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2213,7 +2174,7 @@
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="15" spans="1:21">
@@ -2224,25 +2185,25 @@
         <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J2" s="9">
         <v>45185</v>
@@ -2283,34 +2244,34 @@
     </row>
     <row r="3" customFormat="1" ht="15" spans="1:19">
       <c r="A3" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K3" s="9">
         <v>45248</v>
@@ -2348,25 +2309,25 @@
         <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="J4" s="9">
         <v>45287</v>
@@ -2383,28 +2344,28 @@
         <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K5" s="9">
         <v>45255</v>
@@ -2437,31 +2398,31 @@
     </row>
     <row r="6" customFormat="1" ht="15" spans="1:20">
       <c r="A6" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="J6" s="9">
         <v>45320</v>
@@ -2505,28 +2466,28 @@
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K7" s="12">
         <v>45361</v>
@@ -2551,25 +2512,25 @@
         <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H8" s="6">
         <v>126</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J8" s="14">
         <v>45425</v>
@@ -2589,28 +2550,28 @@
         <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J9" s="9">
         <v>45186</v>
@@ -2762,28 +2723,28 @@
         <v>21</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K13" s="15">
         <v>45382</v>
@@ -2848,28 +2809,28 @@
         <v>21</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K15" s="12">
         <v>45413</v>
@@ -2901,31 +2862,31 @@
         <v>20</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K16" s="12">
         <v>45426</v>
@@ -2966,28 +2927,28 @@
         <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K17" s="12">
         <v>45364</v>
@@ -3060,28 +3021,28 @@
         <v>21</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K19" s="12">
         <v>45367</v>
@@ -3154,28 +3115,28 @@
         <v>21</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K21" s="12">
         <v>45234</v>
@@ -3290,28 +3251,28 @@
         <v>21</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K24" s="12">
         <v>45214</v>
@@ -3426,34 +3387,34 @@
     </row>
     <row r="27" customFormat="1" ht="15" spans="1:20">
       <c r="A27" s="5" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K27" s="9">
         <v>45551</v>
@@ -3473,31 +3434,31 @@
         <v>20</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K28" s="12">
         <v>45430</v>
@@ -3527,31 +3488,31 @@
         <v>20</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K29" s="12">
         <v>45552</v>
@@ -3566,31 +3527,31 @@
     </row>
     <row r="30" customFormat="1" ht="15" spans="1:20">
       <c r="A30" s="5" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D30" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>121</v>
-      </c>
       <c r="F30" s="4" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="J30" s="9">
         <v>45543</v>
@@ -3626,28 +3587,28 @@
         <v>21</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K31" s="12">
         <v>45543</v>
@@ -3688,28 +3649,28 @@
         <v>21</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K32" s="21">
         <v>45557</v>
@@ -3775,31 +3736,31 @@
         <v>20</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K34" s="12">
         <v>45451</v>
@@ -3834,28 +3795,28 @@
         <v>21</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="J35" s="23" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K35" s="21">
         <v>45643</v>
@@ -4006,31 +3967,31 @@
         <v>20</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K39" s="21">
         <v>45551</v>
@@ -4127,111 +4088,215 @@
       </c>
     </row>
     <row r="42" customFormat="1" ht="15" spans="1:20">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="24"/>
-      <c r="Q42" s="24"/>
-      <c r="R42" s="24"/>
-      <c r="S42" s="25"/>
-      <c r="T42" s="25"/>
+      <c r="A42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J42" s="21">
+        <v>45556</v>
+      </c>
+      <c r="K42" s="21">
+        <v>45566</v>
+      </c>
+      <c r="L42" s="21">
+        <v>45574</v>
+      </c>
+      <c r="M42" s="21">
+        <v>45584</v>
+      </c>
+      <c r="N42" s="21">
+        <v>45591</v>
+      </c>
+      <c r="O42" s="21">
+        <v>45598</v>
+      </c>
+      <c r="P42" s="21">
+        <v>45605</v>
+      </c>
+      <c r="Q42" s="21">
+        <v>45612</v>
+      </c>
+      <c r="R42" s="21">
+        <v>45615</v>
+      </c>
+      <c r="S42" s="21">
+        <v>45619</v>
+      </c>
+      <c r="T42" s="21">
+        <v>45623</v>
+      </c>
     </row>
     <row r="43" customFormat="1" ht="15" spans="1:20">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
+      <c r="E43" s="7"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="24"/>
-      <c r="O43" s="24"/>
-      <c r="P43" s="24"/>
-      <c r="Q43" s="24"/>
-      <c r="R43" s="24"/>
-      <c r="S43" s="25"/>
-      <c r="T43" s="25"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21">
+        <v>45633</v>
+      </c>
+      <c r="L43" s="21">
+        <v>45640</v>
+      </c>
+      <c r="M43" s="21">
+        <v>45647</v>
+      </c>
+      <c r="N43" s="21">
+        <v>45654</v>
+      </c>
+      <c r="O43" s="21">
+        <v>45661</v>
+      </c>
+      <c r="P43" s="21">
+        <v>45668</v>
+      </c>
+      <c r="Q43" s="21">
+        <v>45676</v>
+      </c>
+      <c r="R43" s="21">
+        <v>45682</v>
+      </c>
+      <c r="S43" s="21">
+        <v>45692</v>
+      </c>
+      <c r="T43" s="21">
+        <v>45703</v>
+      </c>
     </row>
     <row r="44" customFormat="1" ht="15" spans="1:20">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
+      <c r="E44" s="7"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="24"/>
-      <c r="N44" s="24"/>
-      <c r="O44" s="24"/>
-      <c r="P44" s="24"/>
-      <c r="Q44" s="24"/>
-      <c r="R44" s="24"/>
-      <c r="S44" s="25"/>
-      <c r="T44" s="25"/>
-    </row>
-    <row r="45" spans="2:11">
-      <c r="B45" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-    </row>
-    <row r="46" spans="2:11">
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-    </row>
-    <row r="47" spans="2:11">
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21">
+        <v>45710</v>
+      </c>
+      <c r="L44" s="21">
+        <v>45717</v>
+      </c>
+      <c r="M44" s="21">
+        <v>45724</v>
+      </c>
+      <c r="N44" s="21">
+        <v>45731</v>
+      </c>
+      <c r="O44" s="21">
+        <v>45738</v>
+      </c>
+      <c r="P44" s="21">
+        <v>45752</v>
+      </c>
+      <c r="Q44" s="21">
+        <v>45759</v>
+      </c>
+      <c r="R44" s="22"/>
+      <c r="S44" s="22"/>
+      <c r="T44" s="22"/>
+    </row>
+    <row r="45" customFormat="1" ht="15" spans="1:20">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="24"/>
+      <c r="S45" s="25"/>
+      <c r="T45" s="25"/>
+    </row>
+    <row r="46" customFormat="1" ht="15" spans="1:20">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="24"/>
+      <c r="S46" s="25"/>
+      <c r="T46" s="25"/>
+    </row>
+    <row r="47" customFormat="1" ht="15" spans="1:20">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="24"/>
+      <c r="S47" s="25"/>
+      <c r="T47" s="25"/>
     </row>
     <row r="48" spans="2:11">
-      <c r="B48" s="8"/>
+      <c r="B48" s="8" t="s">
+        <v>162</v>
+      </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -4278,8 +4343,44 @@
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
     </row>
+    <row r="52" spans="2:11">
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="90">
+  <mergeCells count="100">
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A17:A18"/>
@@ -4289,6 +4390,7 @@
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A42:A44"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B17:B18"/>
@@ -4298,6 +4400,7 @@
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B35:B38"/>
     <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C17:C18"/>
@@ -4307,6 +4410,7 @@
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="C35:C38"/>
     <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C42:C44"/>
     <mergeCell ref="D9:D12"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D17:D18"/>
@@ -4316,6 +4420,7 @@
     <mergeCell ref="D32:D33"/>
     <mergeCell ref="D35:D38"/>
     <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D42:D44"/>
     <mergeCell ref="E9:E12"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="E17:E18"/>
@@ -4325,6 +4430,7 @@
     <mergeCell ref="E32:E33"/>
     <mergeCell ref="E35:E38"/>
     <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E42:E44"/>
     <mergeCell ref="F9:F12"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="F17:F18"/>
@@ -4334,6 +4440,7 @@
     <mergeCell ref="F32:F33"/>
     <mergeCell ref="F35:F38"/>
     <mergeCell ref="F39:F41"/>
+    <mergeCell ref="F42:F44"/>
     <mergeCell ref="G9:G12"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="G17:G18"/>
@@ -4343,6 +4450,7 @@
     <mergeCell ref="G32:G33"/>
     <mergeCell ref="G35:G38"/>
     <mergeCell ref="G39:G41"/>
+    <mergeCell ref="G42:G44"/>
     <mergeCell ref="H9:H12"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="H17:H18"/>
@@ -4352,6 +4460,7 @@
     <mergeCell ref="H32:H33"/>
     <mergeCell ref="H35:H38"/>
     <mergeCell ref="H39:H41"/>
+    <mergeCell ref="H42:H44"/>
     <mergeCell ref="I9:I12"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="I17:I18"/>
@@ -4361,6 +4470,7 @@
     <mergeCell ref="I32:I33"/>
     <mergeCell ref="I35:I38"/>
     <mergeCell ref="I39:I41"/>
+    <mergeCell ref="I42:I44"/>
     <mergeCell ref="J9:J12"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="J17:J18"/>
@@ -4369,7 +4479,8 @@
     <mergeCell ref="J24:J26"/>
     <mergeCell ref="J35:J38"/>
     <mergeCell ref="J39:J41"/>
-    <mergeCell ref="B45:K51"/>
+    <mergeCell ref="J42:J44"/>
+    <mergeCell ref="B48:K54"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="163">
   <si>
     <t>年级</t>
   </si>
@@ -80,6 +80,33 @@
     <t>初三</t>
   </si>
   <si>
+    <t>物理</t>
+  </si>
+  <si>
+    <t>一尔优教育</t>
+  </si>
+  <si>
+    <t>240/2h</t>
+  </si>
+  <si>
+    <t>周六16：00-18：00</t>
+  </si>
+  <si>
+    <t>金铭泽</t>
+  </si>
+  <si>
+    <t>霖水家园 2-1-1905</t>
+  </si>
+  <si>
+    <t>八一中学</t>
+  </si>
+  <si>
+    <t>80/90</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
     <t>数学</t>
   </si>
   <si>
@@ -87,18 +114,6 @@
   </si>
   <si>
     <t>260/2h+300/每月</t>
-  </si>
-  <si>
-    <t>周六16：00-18：00</t>
-  </si>
-  <si>
-    <t>莱茵庄园C1-3-601</t>
-  </si>
-  <si>
-    <t>68中</t>
-  </si>
-  <si>
-    <t>140/150</t>
   </si>
   <si>
     <t>周六19：00-21：00
@@ -117,9 +132,6 @@
     <t>38/150</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
     <t>270/2h</t>
   </si>
   <si>
@@ -138,32 +150,23 @@
     <t>120/150</t>
   </si>
   <si>
-    <t>物理</t>
-  </si>
-  <si>
-    <t>一尔优教育</t>
-  </si>
-  <si>
-    <t>240/2h</t>
-  </si>
-  <si>
-    <t>临时</t>
-  </si>
-  <si>
-    <t>金铭泽</t>
-  </si>
-  <si>
-    <t>霖水家园 2-1-1905</t>
-  </si>
-  <si>
-    <t>八一中学</t>
-  </si>
-  <si>
-    <t>80/90</t>
+    <t>周日17：00-19：00</t>
+  </si>
+  <si>
+    <t>南一</t>
+  </si>
+  <si>
+    <t>莱茵庄园C1-3-601</t>
+  </si>
+  <si>
+    <t>68中</t>
+  </si>
+  <si>
+    <t>140/150</t>
   </si>
   <si>
     <t>转账时间(灰色表示线上上课（课时费1小时100），绿色表示课时费已发)：
-星期天培训下个月20号;知新识途下个月20号
+星期天培训下个月20号;知新识途下个月20号；一尔优当月1号和15号；
 下次考试目标：刘桐语：140，郭润宁：120，单欣俞：100</t>
   </si>
   <si>
@@ -491,9 +494,6 @@
     <t>星期天培训</t>
   </si>
   <si>
-    <t>周日17：00-19：00</t>
-  </si>
-  <si>
     <t>39/90</t>
   </si>
   <si>
@@ -507,8 +507,8 @@
   </si>
   <si>
     <t xml:space="preserve">绿色表示课时费已发；
-转账时间：新耀科技每月20号；一尔优当月1号和15号；
-博瑞佰艺下月10号；掌学教育是下月15号;豌豆文化每月10号；
+转账时间：新耀科技每月20号；博瑞佰艺下月10号；
+掌学教育是下月15号;豌豆文化每月10号；
 姜异瞳的课被机构坑了，白上一节课，吸取教训，下次提前问清楚是试课还是正式上课
 </t>
   </si>
@@ -1165,7 +1165,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1238,9 +1238,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1568,10 +1565,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1650,14 +1647,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15" spans="1:20">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="20" customFormat="1" ht="15" spans="1:11">
+      <c r="A2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1666,57 +1663,52 @@
       <c r="E2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="G2" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="21">
-        <v>45778</v>
-      </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
+        <v>28</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="22">
+        <v>45781</v>
+      </c>
     </row>
     <row r="3" customFormat="1" ht="15" spans="1:20">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J3" s="21">
         <v>45710</v>
@@ -1757,7 +1749,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -1790,110 +1782,94 @@
       <c r="S4" s="22">
         <v>45782</v>
       </c>
-      <c r="T4" s="22"/>
+      <c r="T4" s="22">
+        <v>45787</v>
+      </c>
     </row>
     <row r="5" customFormat="1" ht="15" spans="1:20">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="22">
+        <v>45788</v>
+      </c>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+    </row>
+    <row r="6" customFormat="1" ht="15" spans="1:20">
+      <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="28">
+      <c r="F6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="27">
         <v>45551</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L6" s="21">
         <v>45557</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M6" s="21">
         <v>45563</v>
       </c>
-      <c r="N5" s="21">
+      <c r="N6" s="21">
         <v>45567</v>
       </c>
-      <c r="O5" s="21">
+      <c r="O6" s="21">
         <v>45578</v>
       </c>
-      <c r="P5" s="21">
+      <c r="P6" s="21">
         <v>45585</v>
       </c>
-      <c r="Q5" s="21">
+      <c r="Q6" s="21">
         <v>45592</v>
       </c>
-      <c r="R5" s="21">
+      <c r="R6" s="21">
         <v>45599</v>
       </c>
-      <c r="S5" s="21">
+      <c r="S6" s="21">
         <v>45613</v>
       </c>
-      <c r="T5" s="21">
+      <c r="T6" s="21">
         <v>45620</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" ht="15" spans="1:20">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="21">
-        <v>45627</v>
-      </c>
-      <c r="L6" s="21">
-        <v>45641</v>
-      </c>
-      <c r="M6" s="21">
-        <v>45648</v>
-      </c>
-      <c r="N6" s="21">
-        <v>45655</v>
-      </c>
-      <c r="O6" s="21">
-        <v>45662</v>
-      </c>
-      <c r="P6" s="21">
-        <v>45718</v>
-      </c>
-      <c r="Q6" s="21">
-        <v>45725</v>
-      </c>
-      <c r="R6" s="21">
-        <v>45732</v>
-      </c>
-      <c r="S6" s="21">
-        <v>45739</v>
-      </c>
-      <c r="T6" s="21">
-        <v>45746</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="15" spans="1:20">
@@ -1908,75 +1884,113 @@
       <c r="I7" s="4"/>
       <c r="J7" s="9"/>
       <c r="K7" s="21">
+        <v>45627</v>
+      </c>
+      <c r="L7" s="21">
+        <v>45641</v>
+      </c>
+      <c r="M7" s="21">
+        <v>45648</v>
+      </c>
+      <c r="N7" s="21">
+        <v>45655</v>
+      </c>
+      <c r="O7" s="21">
+        <v>45662</v>
+      </c>
+      <c r="P7" s="21">
+        <v>45718</v>
+      </c>
+      <c r="Q7" s="21">
+        <v>45725</v>
+      </c>
+      <c r="R7" s="21">
+        <v>45732</v>
+      </c>
+      <c r="S7" s="21">
+        <v>45739</v>
+      </c>
+      <c r="T7" s="21">
+        <v>45746</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" ht="15" spans="1:20">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="21">
         <v>45753</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L8" s="21">
         <v>45760</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M8" s="21">
         <v>45767</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N8" s="21">
         <v>45780</v>
       </c>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-    </row>
-    <row r="8" s="20" customFormat="1" ht="15" spans="1:11">
-      <c r="A8" s="20" t="s">
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+    </row>
+    <row r="9" customFormat="1" ht="15" spans="1:20">
+      <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="B9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="22">
-        <v>45781</v>
-      </c>
-    </row>
-    <row r="17" s="20" customFormat="1" ht="15"/>
+      <c r="I9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="21">
+        <v>45778</v>
+      </c>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+    </row>
     <row r="18" s="20" customFormat="1" ht="15"/>
     <row r="19" s="20" customFormat="1" ht="15"/>
     <row r="20" s="20" customFormat="1" ht="15"/>
     <row r="21" s="20" customFormat="1" ht="15"/>
-    <row r="22" s="20" customFormat="1" ht="15" spans="1:9">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-    </row>
+    <row r="22" s="20" customFormat="1" ht="15"/>
     <row r="23" s="20" customFormat="1" ht="15" spans="1:9">
       <c r="A23" s="26"/>
       <c r="B23" s="26"/>
@@ -1988,24 +2002,21 @@
       <c r="H23" s="26"/>
       <c r="I23" s="26"/>
     </row>
-    <row r="24" ht="17.5" spans="2:13">
-      <c r="B24" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
+    <row r="24" s="20" customFormat="1" ht="15" spans="1:9">
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
     </row>
     <row r="25" ht="17.5" spans="2:13">
-      <c r="B25" s="8"/>
+      <c r="B25" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2013,12 +2024,12 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-    </row>
-    <row r="26" ht="17.5" spans="2:12">
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+    </row>
+    <row r="26" ht="17.5" spans="2:13">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -2027,10 +2038,12 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-    </row>
-    <row r="27" ht="17.5" spans="2:13">
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+    </row>
+    <row r="27" ht="17.5" spans="2:12">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -2039,10 +2052,8 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
     </row>
     <row r="28" ht="17.5" spans="2:13">
       <c r="B28" s="8"/>
@@ -2053,34 +2064,48 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+    </row>
+    <row r="29" ht="17.5" spans="2:13">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="B24:I28"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="B25:I29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -2094,7 +2119,7 @@
   <dimension ref="A1:U54"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="R49" sqref="R49"/>
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2174,7 +2199,7 @@
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="15" spans="1:21">
@@ -2182,28 +2207,28 @@
         <v>20</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J2" s="9">
         <v>45185</v>
@@ -2244,34 +2269,34 @@
     </row>
     <row r="3" customFormat="1" ht="15" spans="1:19">
       <c r="A3" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K3" s="9">
         <v>45248</v>
@@ -2306,28 +2331,28 @@
         <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J4" s="9">
         <v>45287</v>
@@ -2341,31 +2366,31 @@
         <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K5" s="9">
         <v>45255</v>
@@ -2398,31 +2423,31 @@
     </row>
     <row r="6" customFormat="1" ht="15" spans="1:20">
       <c r="A6" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J6" s="9">
         <v>45320</v>
@@ -2463,31 +2488,31 @@
         <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K7" s="12">
         <v>45361</v>
@@ -2509,28 +2534,28 @@
         <v>20</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H8" s="6">
         <v>126</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J8" s="14">
         <v>45425</v>
@@ -2550,28 +2575,28 @@
         <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J9" s="9">
         <v>45186</v>
@@ -2720,31 +2745,31 @@
         <v>20</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K13" s="15">
         <v>45382</v>
@@ -2806,31 +2831,31 @@
         <v>20</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K15" s="12">
         <v>45413</v>
@@ -2862,31 +2887,31 @@
         <v>20</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K16" s="12">
         <v>45426</v>
@@ -2924,31 +2949,31 @@
         <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K17" s="12">
         <v>45364</v>
@@ -3018,31 +3043,31 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K19" s="12">
         <v>45367</v>
@@ -3112,31 +3137,31 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K21" s="12">
         <v>45234</v>
@@ -3248,31 +3273,31 @@
         <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K24" s="12">
         <v>45214</v>
@@ -3387,34 +3412,34 @@
     </row>
     <row r="27" customFormat="1" ht="15" spans="1:20">
       <c r="A27" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K27" s="9">
         <v>45551</v>
@@ -3434,31 +3459,31 @@
         <v>20</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K28" s="12">
         <v>45430</v>
@@ -3488,31 +3513,31 @@
         <v>20</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K29" s="12">
         <v>45552</v>
@@ -3527,31 +3552,31 @@
     </row>
     <row r="30" customFormat="1" ht="15" spans="1:20">
       <c r="A30" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J30" s="9">
         <v>45543</v>
@@ -3584,31 +3609,31 @@
         <v>20</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K31" s="12">
         <v>45543</v>
@@ -3646,31 +3671,31 @@
         <v>20</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K32" s="21">
         <v>45557</v>
@@ -3736,31 +3761,31 @@
         <v>20</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K34" s="12">
         <v>45451</v>
@@ -3792,31 +3817,31 @@
         <v>20</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J35" s="23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K35" s="21">
         <v>45643</v>
@@ -3967,31 +3992,31 @@
         <v>20</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>158</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K39" s="21">
         <v>45551</v>
@@ -4092,16 +4117,16 @@
         <v>20</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>159</v>
@@ -4113,7 +4138,7 @@
         <v>161</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J42" s="21">
         <v>45556</v>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -150,21 +150,6 @@
     <t>120/150</t>
   </si>
   <si>
-    <t>周日17：00-19：00</t>
-  </si>
-  <si>
-    <t>南一</t>
-  </si>
-  <si>
-    <t>莱茵庄园C1-3-601</t>
-  </si>
-  <si>
-    <t>68中</t>
-  </si>
-  <si>
-    <t>140/150</t>
-  </si>
-  <si>
     <t>转账时间(灰色表示线上上课（课时费1小时100），绿色表示课时费已发)：
 星期天培训下个月20号;知新识途下个月20号；一尔优当月1号和15号；
 下次考试目标：刘桐语：140，郭润宁：120，单欣俞：100</t>
@@ -494,6 +479,9 @@
     <t>星期天培训</t>
   </si>
   <si>
+    <t>周日17：00-19：00</t>
+  </si>
+  <si>
     <t>39/90</t>
   </si>
   <si>
@@ -504,6 +492,18 @@
   </si>
   <si>
     <t>13中分校</t>
+  </si>
+  <si>
+    <t>南一</t>
+  </si>
+  <si>
+    <t>莱茵庄园C1-3-601</t>
+  </si>
+  <si>
+    <t>68中</t>
+  </si>
+  <si>
+    <t>140/150</t>
   </si>
   <si>
     <t xml:space="preserve">绿色表示课时费已发；
@@ -1233,6 +1233,7 @@
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1245,7 +1246,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1565,10 +1565,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1647,7 +1647,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" s="20" customFormat="1" ht="15" spans="1:11">
+    <row r="2" s="20" customFormat="1" ht="15" spans="1:12">
       <c r="A2" s="20" t="s">
         <v>20</v>
       </c>
@@ -1680,6 +1680,9 @@
       </c>
       <c r="K2" s="22">
         <v>45781</v>
+      </c>
+      <c r="L2" s="22">
+        <v>45794</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="15" spans="1:20">
@@ -1800,8 +1803,12 @@
       <c r="K5" s="22">
         <v>45788</v>
       </c>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
+      <c r="L5" s="22">
+        <v>45794</v>
+      </c>
+      <c r="M5" s="22">
+        <v>45795</v>
+      </c>
       <c r="N5" s="22"/>
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
@@ -1841,7 +1848,7 @@
       <c r="J6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="28">
         <v>45551</v>
       </c>
       <c r="L6" s="21">
@@ -1937,86 +1944,74 @@
       <c r="N8" s="21">
         <v>45780</v>
       </c>
-      <c r="O8" s="21"/>
+      <c r="O8" s="21">
+        <v>45795</v>
+      </c>
       <c r="P8" s="21"/>
       <c r="Q8" s="22"/>
-      <c r="R8" s="29"/>
+      <c r="R8" s="25"/>
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
     </row>
-    <row r="9" customFormat="1" ht="15" spans="1:20">
-      <c r="A9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" s="21">
-        <v>45778</v>
-      </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-    </row>
+    <row r="16" s="20" customFormat="1" ht="15"/>
+    <row r="17" s="20" customFormat="1" ht="15"/>
     <row r="18" s="20" customFormat="1" ht="15"/>
     <row r="19" s="20" customFormat="1" ht="15"/>
     <row r="20" s="20" customFormat="1" ht="15"/>
-    <row r="21" s="20" customFormat="1" ht="15"/>
-    <row r="22" s="20" customFormat="1" ht="15"/>
-    <row r="23" s="20" customFormat="1" ht="15" spans="1:9">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-    </row>
-    <row r="24" s="20" customFormat="1" ht="15" spans="1:9">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-    </row>
-    <row r="25" ht="17.5" spans="2:13">
-      <c r="B25" s="8" t="s">
-        <v>49</v>
-      </c>
+    <row r="21" s="20" customFormat="1" ht="15" spans="1:9">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+    </row>
+    <row r="22" s="20" customFormat="1" ht="15" spans="1:9">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+    </row>
+    <row r="23" ht="17.5" spans="2:13">
+      <c r="B23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+    </row>
+    <row r="24" ht="17.5" spans="2:13">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+    </row>
+    <row r="25" ht="17.5" spans="2:12">
+      <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2024,10 +2019,8 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
     </row>
     <row r="26" ht="17.5" spans="2:13">
       <c r="B26" s="8"/>
@@ -2038,12 +2031,12 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-    </row>
-    <row r="27" ht="17.5" spans="2:12">
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+    </row>
+    <row r="27" ht="17.5" spans="2:13">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -2052,36 +2045,10 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-    </row>
-    <row r="28" ht="17.5" spans="2:13">
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-    </row>
-    <row r="29" ht="17.5" spans="2:13">
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -2105,7 +2072,7 @@
     <mergeCell ref="I6:I8"/>
     <mergeCell ref="J3:J5"/>
     <mergeCell ref="J6:J8"/>
-    <mergeCell ref="B25:I29"/>
+    <mergeCell ref="B23:I27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -2116,18 +2083,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U54"/>
+  <dimension ref="A1:U59"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="4.58181818181818" customWidth="1"/>
     <col min="3" max="3" width="10.8727272727273" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="18.5818181818182" customWidth="1"/>
+    <col min="4" max="4" width="17.7272727272727" customWidth="1"/>
+    <col min="5" max="5" width="23.1818181818182" customWidth="1"/>
     <col min="6" max="6" width="7.33636363636364" customWidth="1"/>
     <col min="7" max="7" width="27.1272727272727" customWidth="1"/>
     <col min="8" max="9" width="9.58181818181818" customWidth="1"/>
@@ -2199,7 +2166,7 @@
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="15" spans="1:21">
@@ -2210,25 +2177,25 @@
         <v>30</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="J2" s="9">
         <v>45185</v>
@@ -2269,31 +2236,31 @@
     </row>
     <row r="3" customFormat="1" ht="15" spans="1:19">
       <c r="A3" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>29</v>
@@ -2334,25 +2301,25 @@
         <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J4" s="9">
         <v>45287</v>
@@ -2369,25 +2336,25 @@
         <v>30</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>29</v>
@@ -2423,31 +2390,31 @@
     </row>
     <row r="6" customFormat="1" ht="15" spans="1:20">
       <c r="A6" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>42</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J6" s="9">
         <v>45320</v>
@@ -2494,22 +2461,22 @@
         <v>22</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>42</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>29</v>
@@ -2537,25 +2504,25 @@
         <v>30</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H8" s="6">
         <v>126</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="J8" s="14">
         <v>45425</v>
@@ -2581,22 +2548,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J9" s="9">
         <v>45186</v>
@@ -2754,19 +2721,19 @@
         <v>23</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J13" s="17" t="s">
         <v>29</v>
@@ -2840,16 +2807,16 @@
         <v>23</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>43</v>
@@ -2890,25 +2857,25 @@
         <v>21</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J16" s="11" t="s">
         <v>29</v>
@@ -2952,25 +2919,25 @@
         <v>30</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G17" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="I17" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J17" s="17" t="s">
         <v>29</v>
@@ -3046,25 +3013,25 @@
         <v>30</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J19" s="17" t="s">
         <v>29</v>
@@ -3140,25 +3107,25 @@
         <v>30</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>29</v>
@@ -3276,22 +3243,22 @@
         <v>30</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>43</v>
@@ -3412,7 +3379,7 @@
     </row>
     <row r="27" customFormat="1" ht="15" spans="1:20">
       <c r="A27" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>30</v>
@@ -3421,22 +3388,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J27" s="12" t="s">
         <v>29</v>
@@ -3462,25 +3429,25 @@
         <v>21</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J28" s="12" t="s">
         <v>29</v>
@@ -3519,22 +3486,22 @@
         <v>29</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="J29" s="12" t="s">
         <v>29</v>
@@ -3552,31 +3519,31 @@
     </row>
     <row r="30" customFormat="1" ht="15" spans="1:20">
       <c r="A30" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="J30" s="9">
         <v>45543</v>
@@ -3612,25 +3579,25 @@
         <v>30</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D31" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>139</v>
-      </c>
       <c r="F31" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="J31" s="12" t="s">
         <v>29</v>
@@ -3680,13 +3647,13 @@
         <v>38</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>42</v>
@@ -3770,19 +3737,19 @@
         <v>23</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J34" s="12" t="s">
         <v>29</v>
@@ -3823,22 +3790,22 @@
         <v>29</v>
       </c>
       <c r="D35" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="J35" s="23" t="s">
         <v>29</v>
@@ -3995,25 +3962,25 @@
         <v>21</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G39" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="I39" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="J39" s="9" t="s">
         <v>29</v>
@@ -4123,22 +4090,22 @@
         <v>29</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J42" s="21">
         <v>45556</v>
@@ -4252,136 +4219,206 @@
       <c r="S44" s="22"/>
       <c r="T44" s="22"/>
     </row>
-    <row r="45" customFormat="1" ht="15" spans="1:20">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="24"/>
-      <c r="P45" s="24"/>
-      <c r="Q45" s="24"/>
-      <c r="R45" s="24"/>
-      <c r="S45" s="25"/>
-      <c r="T45" s="25"/>
+    <row r="45" customFormat="1" ht="16" customHeight="1" spans="1:20">
+      <c r="A45" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="J45" s="21">
+        <v>45778</v>
+      </c>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="22"/>
+      <c r="R45" s="25"/>
+      <c r="S45" s="22"/>
+      <c r="T45" s="22"/>
     </row>
     <row r="46" customFormat="1" ht="15" spans="1:20">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
+      <c r="E46" s="7"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="24"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="24"/>
-      <c r="Q46" s="24"/>
-      <c r="R46" s="24"/>
-      <c r="S46" s="25"/>
-      <c r="T46" s="25"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="22"/>
+      <c r="R46" s="22"/>
+      <c r="S46" s="22"/>
+      <c r="T46" s="22"/>
     </row>
     <row r="47" customFormat="1" ht="15" spans="1:20">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
+      <c r="E47" s="7"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="24"/>
-      <c r="R47" s="24"/>
-      <c r="S47" s="25"/>
-      <c r="T47" s="25"/>
-    </row>
-    <row r="48" spans="2:11">
-      <c r="B48" s="8" t="s">
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="22"/>
+      <c r="S47" s="22"/>
+      <c r="T47" s="22"/>
+    </row>
+    <row r="48" customFormat="1" ht="15" spans="1:20">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
+      <c r="R48" s="22"/>
+      <c r="S48" s="22"/>
+      <c r="T48" s="22"/>
+    </row>
+    <row r="49" customFormat="1" ht="15" spans="1:20">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="22"/>
+      <c r="S49" s="22"/>
+      <c r="T49" s="22"/>
+    </row>
+    <row r="50" customFormat="1" ht="15" spans="1:20">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="24"/>
+      <c r="Q50" s="24"/>
+      <c r="R50" s="24"/>
+      <c r="S50" s="26"/>
+      <c r="T50" s="26"/>
+    </row>
+    <row r="51" customFormat="1" ht="15" spans="1:20">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="24"/>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="24"/>
+      <c r="S51" s="26"/>
+      <c r="T51" s="26"/>
+    </row>
+    <row r="52" customFormat="1" ht="15" spans="1:20">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="24"/>
+      <c r="R52" s="24"/>
+      <c r="S52" s="26"/>
+      <c r="T52" s="26"/>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-    </row>
-    <row r="49" spans="2:11">
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-    </row>
-    <row r="50" spans="2:11">
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-    </row>
-    <row r="51" spans="2:11">
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-    </row>
-    <row r="52" spans="2:11">
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-    </row>
-    <row r="53" spans="2:11">
-      <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -4403,6 +4440,66 @@
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="100">
@@ -4505,7 +4602,7 @@
     <mergeCell ref="J35:J38"/>
     <mergeCell ref="J39:J41"/>
     <mergeCell ref="J42:J44"/>
-    <mergeCell ref="B48:K54"/>
+    <mergeCell ref="B53:K59"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12330"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Doing" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,7 @@
   <si>
     <t>转账时间(灰色表示线上上课（课时费1小时100），绿色表示课时费已发)：
 星期天培训下个月20号;知新识途下个月20号；一尔优当月1号和15号；
-下次考试目标：刘桐语：140，郭润宁：120，单欣俞：100</t>
+下次考试目标：刘桐语：140，单欣俞：100，金明泽：85</t>
   </si>
   <si>
     <t>第11课</t>
@@ -518,11 +518,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1020,7 +1020,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1029,10 +1029,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1041,7 +1041,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1221,10 +1221,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1233,14 +1233,14 @@
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1568,24 +1568,24 @@
   <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="B23" sqref="B23:I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="5.58181818181818" customWidth="1"/>
-    <col min="3" max="3" width="11.1818181818182" customWidth="1"/>
+    <col min="1" max="2" width="5.58333333333333" customWidth="1"/>
+    <col min="3" max="3" width="11.1833333333333" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="20.8181818181818" customWidth="1"/>
+    <col min="5" max="5" width="20.8166666666667" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
-    <col min="7" max="7" width="22.2727272727273" customWidth="1"/>
-    <col min="8" max="8" width="9.87272727272727" customWidth="1"/>
-    <col min="9" max="9" width="9.12727272727273" customWidth="1"/>
-    <col min="10" max="10" width="10.8363636363636" customWidth="1"/>
+    <col min="7" max="7" width="22.275" customWidth="1"/>
+    <col min="8" max="8" width="9.875" customWidth="1"/>
+    <col min="9" max="9" width="9.125" customWidth="1"/>
+    <col min="10" max="10" width="10.8333333333333" customWidth="1"/>
     <col min="11" max="20" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:20">
+    <row r="1" ht="15.75" spans="1:20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" s="20" customFormat="1" ht="15" spans="1:12">
+    <row r="2" s="20" customFormat="1" ht="15.75" spans="1:12">
       <c r="A2" s="20" t="s">
         <v>20</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>45794</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15" spans="1:20">
+    <row r="3" customFormat="1" ht="15.75" spans="1:20">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>45746</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15" spans="1:20">
+    <row r="4" customFormat="1" ht="15.75" spans="1:20">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1758,25 +1758,25 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="21"/>
-      <c r="K4" s="22">
+      <c r="K4" s="21">
         <v>45752</v>
       </c>
-      <c r="L4" s="22">
+      <c r="L4" s="21">
         <v>45753</v>
       </c>
-      <c r="M4" s="22">
+      <c r="M4" s="21">
         <v>45759</v>
       </c>
-      <c r="N4" s="22">
+      <c r="N4" s="21">
         <v>45760</v>
       </c>
-      <c r="O4" s="22">
+      <c r="O4" s="21">
         <v>45766</v>
       </c>
-      <c r="P4" s="22">
+      <c r="P4" s="21">
         <v>45767</v>
       </c>
-      <c r="Q4" s="22">
+      <c r="Q4" s="21">
         <v>45773</v>
       </c>
       <c r="R4" s="22">
@@ -1789,7 +1789,7 @@
         <v>45787</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15" spans="1:20">
+    <row r="5" customFormat="1" ht="15.75" spans="1:20">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1817,7 +1817,7 @@
       <c r="S5" s="22"/>
       <c r="T5" s="22"/>
     </row>
-    <row r="6" customFormat="1" ht="15" spans="1:20">
+    <row r="6" customFormat="1" ht="15.75" spans="1:20">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>45620</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15" spans="1:20">
+    <row r="7" customFormat="1" ht="15.75" spans="1:20">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1921,7 +1921,7 @@
         <v>45746</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="15" spans="1:20">
+    <row r="8" customFormat="1" ht="15.75" spans="1:20">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1953,12 +1953,12 @@
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
     </row>
-    <row r="16" s="20" customFormat="1" ht="15"/>
-    <row r="17" s="20" customFormat="1" ht="15"/>
-    <row r="18" s="20" customFormat="1" ht="15"/>
-    <row r="19" s="20" customFormat="1" ht="15"/>
-    <row r="20" s="20" customFormat="1" ht="15"/>
-    <row r="21" s="20" customFormat="1" ht="15" spans="1:9">
+    <row r="16" s="20" customFormat="1" ht="15.75"/>
+    <row r="17" s="20" customFormat="1" ht="15.75"/>
+    <row r="18" s="20" customFormat="1" ht="15.75"/>
+    <row r="19" s="20" customFormat="1" ht="15.75"/>
+    <row r="20" s="20" customFormat="1" ht="15.75"/>
+    <row r="21" s="20" customFormat="1" ht="15.75" spans="1:9">
       <c r="A21" s="27"/>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
@@ -1969,7 +1969,7 @@
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
     </row>
-    <row r="22" s="20" customFormat="1" ht="15" spans="1:9">
+    <row r="22" s="20" customFormat="1" ht="15.75" spans="1:9">
       <c r="A22" s="27"/>
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
@@ -1980,7 +1980,7 @@
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
     </row>
-    <row r="23" ht="17.5" spans="2:13">
+    <row r="23" ht="18.75" spans="2:13">
       <c r="B23" s="8" t="s">
         <v>44</v>
       </c>
@@ -1996,7 +1996,7 @@
       <c r="L23" s="29"/>
       <c r="M23" s="29"/>
     </row>
-    <row r="24" ht="17.5" spans="2:13">
+    <row r="24" ht="18.75" spans="2:13">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -2010,7 +2010,7 @@
       <c r="L24" s="29"/>
       <c r="M24" s="29"/>
     </row>
-    <row r="25" ht="17.5" spans="2:12">
+    <row r="25" ht="18.75" spans="2:12">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -2022,7 +2022,7 @@
       <c r="K25" s="29"/>
       <c r="L25" s="29"/>
     </row>
-    <row r="26" ht="17.5" spans="2:13">
+    <row r="26" ht="18.75" spans="2:13">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -2036,7 +2036,7 @@
       <c r="L26" s="29"/>
       <c r="M26" s="29"/>
     </row>
-    <row r="27" ht="17.5" spans="2:13">
+    <row r="27" ht="18.75" spans="2:13">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -2089,22 +2089,22 @@
       <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="4.58181818181818" customWidth="1"/>
-    <col min="3" max="3" width="10.8727272727273" customWidth="1"/>
-    <col min="4" max="4" width="17.7272727272727" customWidth="1"/>
-    <col min="5" max="5" width="23.1818181818182" customWidth="1"/>
-    <col min="6" max="6" width="7.33636363636364" customWidth="1"/>
-    <col min="7" max="7" width="27.1272727272727" customWidth="1"/>
-    <col min="8" max="9" width="9.58181818181818" customWidth="1"/>
-    <col min="10" max="10" width="10.6272727272727" customWidth="1"/>
-    <col min="11" max="20" width="11.2727272727273" customWidth="1"/>
-    <col min="21" max="21" width="10.7545454545455" customWidth="1"/>
+    <col min="1" max="2" width="4.58333333333333" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="17.725" customWidth="1"/>
+    <col min="5" max="5" width="23.1833333333333" customWidth="1"/>
+    <col min="6" max="6" width="7.33333333333333" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+    <col min="8" max="9" width="9.58333333333333" customWidth="1"/>
+    <col min="10" max="10" width="10.625" customWidth="1"/>
+    <col min="11" max="20" width="11.275" customWidth="1"/>
+    <col min="21" max="21" width="10.7583333333333" customWidth="1"/>
     <col min="22" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:21">
+    <row r="1" ht="15.75" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15" spans="1:21">
+    <row r="2" customFormat="1" ht="15.75" spans="1:21">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15" spans="1:19">
+    <row r="3" customFormat="1" ht="15.75" spans="1:19">
       <c r="A3" s="4" t="s">
         <v>53</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15" spans="1:11">
+    <row r="4" customFormat="1" ht="15.75" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15" spans="1:20">
+    <row r="5" customFormat="1" ht="15.75" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -2388,7 +2388,7 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" customFormat="1" ht="15" spans="1:20">
+    <row r="6" customFormat="1" ht="15.75" spans="1:20">
       <c r="A6" s="4" t="s">
         <v>53</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15" spans="1:20">
+    <row r="7" customFormat="1" ht="15.75" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -2537,7 +2537,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" customFormat="1" ht="15" spans="1:20">
+    <row r="9" customFormat="1" ht="15.75" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15" spans="1:20">
+    <row r="10" customFormat="1" ht="15.75" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2641,7 +2641,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15" spans="1:20">
+    <row r="11" customFormat="1" ht="15.75" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2683,7 +2683,7 @@
         <v>45445</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15" spans="1:20">
+    <row r="12" customFormat="1" ht="15.75" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2707,7 +2707,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" customFormat="1" ht="15" spans="1:20">
+    <row r="13" customFormat="1" ht="15.75" spans="1:20">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="15" spans="1:20">
+    <row r="14" customFormat="1" ht="15.75" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2793,7 +2793,7 @@
       <c r="S14" s="16"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" customFormat="1" ht="15" spans="1:20">
+    <row r="15" customFormat="1" ht="15.75" spans="1:20">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -2849,7 +2849,7 @@
       <c r="S15" s="16"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" customFormat="1" ht="15" spans="1:20">
+    <row r="16" customFormat="1" ht="15.75" spans="1:20">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="15" spans="1:20">
+    <row r="17" customFormat="1" ht="15.75" spans="1:20">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="15" spans="1:20">
+    <row r="18" customFormat="1" ht="15.75" spans="1:20">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -3005,7 +3005,7 @@
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
     </row>
-    <row r="19" customFormat="1" ht="15" spans="1:20">
+    <row r="19" customFormat="1" ht="15.75" spans="1:20">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>45451</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="15" spans="1:20">
+    <row r="20" customFormat="1" ht="15.75" spans="1:20">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3099,7 +3099,7 @@
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
     </row>
-    <row r="21" customFormat="1" ht="15" spans="1:20">
+    <row r="21" customFormat="1" ht="15.75" spans="1:20">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="15" spans="1:20">
+    <row r="22" customFormat="1" ht="15.75" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3203,7 +3203,7 @@
         <v>45423</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15" spans="1:20">
+    <row r="23" customFormat="1" ht="15.75" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3235,7 +3235,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" customFormat="1" ht="15" spans="1:20">
+    <row r="24" customFormat="1" ht="15.75" spans="1:20">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>45325</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="15" spans="1:20">
+    <row r="25" customFormat="1" ht="15.75" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3339,7 +3339,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15" spans="1:20">
+    <row r="26" s="1" customFormat="1" ht="15.75" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3377,7 +3377,7 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="27" customFormat="1" ht="15" spans="1:20">
+    <row r="27" customFormat="1" ht="15.75" spans="1:20">
       <c r="A27" s="5" t="s">
         <v>114</v>
       </c>
@@ -3421,7 +3421,7 @@
       <c r="S27" s="24"/>
       <c r="T27" s="24"/>
     </row>
-    <row r="28" customFormat="1" ht="15" spans="1:20">
+    <row r="28" customFormat="1" ht="15.75" spans="1:20">
       <c r="A28" s="5" t="s">
         <v>20</v>
       </c>
@@ -3475,7 +3475,7 @@
       <c r="S28" s="16"/>
       <c r="T28" s="16"/>
     </row>
-    <row r="29" customFormat="1" ht="15" spans="1:18">
+    <row r="29" customFormat="1" ht="15.75" spans="1:18">
       <c r="A29" s="5" t="s">
         <v>20</v>
       </c>
@@ -3517,7 +3517,7 @@
       <c r="Q29" s="16"/>
       <c r="R29" s="16"/>
     </row>
-    <row r="30" customFormat="1" ht="15" spans="1:20">
+    <row r="30" customFormat="1" ht="15.75" spans="1:20">
       <c r="A30" s="5" t="s">
         <v>127</v>
       </c>
@@ -3571,7 +3571,7 @@
       <c r="S30" s="20"/>
       <c r="T30" s="20"/>
     </row>
-    <row r="31" customFormat="1" ht="15" spans="1:20">
+    <row r="31" customFormat="1" ht="15.75" spans="1:20">
       <c r="A31" s="5" t="s">
         <v>20</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="32" customFormat="1" ht="15" spans="1:20">
+    <row r="32" customFormat="1" ht="15.75" spans="1:20">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="33" customFormat="1" ht="15" spans="1:20">
+    <row r="33" customFormat="1" ht="15.75" spans="1:20">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3723,7 +3723,7 @@
       <c r="S33" s="22"/>
       <c r="T33" s="22"/>
     </row>
-    <row r="34" customFormat="1" ht="15" spans="1:20">
+    <row r="34" customFormat="1" ht="15.75" spans="1:20">
       <c r="A34" s="5" t="s">
         <v>20</v>
       </c>
@@ -3779,7 +3779,7 @@
       <c r="S34" s="16"/>
       <c r="T34" s="16"/>
     </row>
-    <row r="35" customFormat="1" ht="15" spans="1:20">
+    <row r="35" customFormat="1" ht="15.75" spans="1:20">
       <c r="A35" s="4" t="s">
         <v>20</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>45670</v>
       </c>
     </row>
-    <row r="36" customFormat="1" ht="15" spans="1:20">
+    <row r="36" customFormat="1" ht="15.75" spans="1:20">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -3883,7 +3883,7 @@
         <v>45691</v>
       </c>
     </row>
-    <row r="37" customFormat="1" ht="15" spans="1:20">
+    <row r="37" customFormat="1" ht="15.75" spans="1:20">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -3925,7 +3925,7 @@
         <v>45712</v>
       </c>
     </row>
-    <row r="38" customFormat="1" ht="15" spans="1:20">
+    <row r="38" customFormat="1" ht="15.75" spans="1:20">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -3954,7 +3954,7 @@
       <c r="S38" s="22"/>
       <c r="T38" s="22"/>
     </row>
-    <row r="39" customFormat="1" ht="15" spans="1:20">
+    <row r="39" customFormat="1" ht="15.75" spans="1:20">
       <c r="A39" s="4" t="s">
         <v>20</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="40" customFormat="1" ht="15" spans="1:20">
+    <row r="40" customFormat="1" ht="15.75" spans="1:20">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -4058,7 +4058,7 @@
         <v>45718</v>
       </c>
     </row>
-    <row r="41" customFormat="1" ht="15" spans="1:13">
+    <row r="41" customFormat="1" ht="15.75" spans="1:13">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -4079,7 +4079,7 @@
         <v>45746</v>
       </c>
     </row>
-    <row r="42" customFormat="1" ht="15" spans="1:20">
+    <row r="42" customFormat="1" ht="15.75" spans="1:20">
       <c r="A42" s="4" t="s">
         <v>20</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>45623</v>
       </c>
     </row>
-    <row r="43" customFormat="1" ht="15" spans="1:20">
+    <row r="43" customFormat="1" ht="15.75" spans="1:20">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -4183,7 +4183,7 @@
         <v>45703</v>
       </c>
     </row>
-    <row r="44" customFormat="1" ht="15" spans="1:20">
+    <row r="44" customFormat="1" ht="15.75" spans="1:20">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -4261,7 +4261,7 @@
       <c r="S45" s="22"/>
       <c r="T45" s="22"/>
     </row>
-    <row r="46" customFormat="1" ht="15" spans="1:20">
+    <row r="46" customFormat="1" ht="15.75" spans="1:20">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -4283,7 +4283,7 @@
       <c r="S46" s="22"/>
       <c r="T46" s="22"/>
     </row>
-    <row r="47" customFormat="1" ht="15" spans="1:20">
+    <row r="47" customFormat="1" ht="15.75" spans="1:20">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -4305,7 +4305,7 @@
       <c r="S47" s="22"/>
       <c r="T47" s="22"/>
     </row>
-    <row r="48" customFormat="1" ht="15" spans="1:20">
+    <row r="48" customFormat="1" ht="15.75" spans="1:20">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -4327,7 +4327,7 @@
       <c r="S48" s="22"/>
       <c r="T48" s="22"/>
     </row>
-    <row r="49" customFormat="1" ht="15" spans="1:20">
+    <row r="49" customFormat="1" ht="15.75" spans="1:20">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -4349,7 +4349,7 @@
       <c r="S49" s="22"/>
       <c r="T49" s="22"/>
     </row>
-    <row r="50" customFormat="1" ht="15" spans="1:20">
+    <row r="50" customFormat="1" ht="15.75" spans="1:20">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -4371,7 +4371,7 @@
       <c r="S50" s="26"/>
       <c r="T50" s="26"/>
     </row>
-    <row r="51" customFormat="1" ht="15" spans="1:20">
+    <row r="51" customFormat="1" ht="15.75" spans="1:20">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -4393,7 +4393,7 @@
       <c r="S51" s="26"/>
       <c r="T51" s="26"/>
     </row>
-    <row r="52" customFormat="1" ht="15" spans="1:20">
+    <row r="52" customFormat="1" ht="15.75" spans="1:20">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="25600" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Doing" sheetId="1" r:id="rId1"/>
@@ -518,11 +518,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1020,7 +1020,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1029,10 +1029,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1041,7 +1041,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1221,10 +1221,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="180" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1233,14 +1233,14 @@
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1568,24 +1568,24 @@
   <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:I27"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="2" width="5.58333333333333" customWidth="1"/>
-    <col min="3" max="3" width="11.1833333333333" customWidth="1"/>
+    <col min="1" max="2" width="5.58181818181818" customWidth="1"/>
+    <col min="3" max="3" width="11.1818181818182" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="20.8166666666667" customWidth="1"/>
+    <col min="5" max="5" width="20.8181818181818" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
-    <col min="7" max="7" width="22.275" customWidth="1"/>
-    <col min="8" max="8" width="9.875" customWidth="1"/>
-    <col min="9" max="9" width="9.125" customWidth="1"/>
-    <col min="10" max="10" width="10.8333333333333" customWidth="1"/>
+    <col min="7" max="7" width="22.2727272727273" customWidth="1"/>
+    <col min="8" max="8" width="9.87272727272727" customWidth="1"/>
+    <col min="9" max="9" width="9.12727272727273" customWidth="1"/>
+    <col min="10" max="10" width="10.8363636363636" customWidth="1"/>
     <col min="11" max="20" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:20">
+    <row r="1" ht="15" spans="1:20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" s="20" customFormat="1" ht="15.75" spans="1:12">
+    <row r="2" s="20" customFormat="1" ht="15" spans="1:13">
       <c r="A2" s="20" t="s">
         <v>20</v>
       </c>
@@ -1684,8 +1684,11 @@
       <c r="L2" s="22">
         <v>45794</v>
       </c>
-    </row>
-    <row r="3" customFormat="1" ht="15.75" spans="1:20">
+      <c r="M2" s="22">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="15" spans="1:20">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
@@ -1747,7 +1750,7 @@
         <v>45746</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.75" spans="1:20">
+    <row r="4" customFormat="1" ht="15" spans="1:20">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1789,7 +1792,7 @@
         <v>45787</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15.75" spans="1:20">
+    <row r="5" customFormat="1" ht="15" spans="1:20">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1809,15 +1812,19 @@
       <c r="M5" s="22">
         <v>45795</v>
       </c>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
+      <c r="N5" s="22">
+        <v>45801</v>
+      </c>
+      <c r="O5" s="22">
+        <v>45802</v>
+      </c>
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
       <c r="S5" s="22"/>
       <c r="T5" s="22"/>
     </row>
-    <row r="6" customFormat="1" ht="15.75" spans="1:20">
+    <row r="6" customFormat="1" ht="15" spans="1:20">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1879,7 +1886,7 @@
         <v>45620</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.75" spans="1:20">
+    <row r="7" customFormat="1" ht="15" spans="1:20">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1921,7 +1928,7 @@
         <v>45746</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="15.75" spans="1:20">
+    <row r="8" customFormat="1" ht="15" spans="1:20">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1953,12 +1960,12 @@
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
     </row>
-    <row r="16" s="20" customFormat="1" ht="15.75"/>
-    <row r="17" s="20" customFormat="1" ht="15.75"/>
-    <row r="18" s="20" customFormat="1" ht="15.75"/>
-    <row r="19" s="20" customFormat="1" ht="15.75"/>
-    <row r="20" s="20" customFormat="1" ht="15.75"/>
-    <row r="21" s="20" customFormat="1" ht="15.75" spans="1:9">
+    <row r="16" s="20" customFormat="1" ht="15"/>
+    <row r="17" s="20" customFormat="1" ht="15"/>
+    <row r="18" s="20" customFormat="1" ht="15"/>
+    <row r="19" s="20" customFormat="1" ht="15"/>
+    <row r="20" s="20" customFormat="1" ht="15"/>
+    <row r="21" s="20" customFormat="1" ht="15" spans="1:9">
       <c r="A21" s="27"/>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
@@ -1969,7 +1976,7 @@
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
     </row>
-    <row r="22" s="20" customFormat="1" ht="15.75" spans="1:9">
+    <row r="22" s="20" customFormat="1" ht="15" spans="1:9">
       <c r="A22" s="27"/>
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
@@ -1980,7 +1987,7 @@
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
     </row>
-    <row r="23" ht="18.75" spans="2:13">
+    <row r="23" ht="17.5" spans="2:13">
       <c r="B23" s="8" t="s">
         <v>44</v>
       </c>
@@ -1996,7 +2003,7 @@
       <c r="L23" s="29"/>
       <c r="M23" s="29"/>
     </row>
-    <row r="24" ht="18.75" spans="2:13">
+    <row r="24" ht="17.5" spans="2:13">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -2010,7 +2017,7 @@
       <c r="L24" s="29"/>
       <c r="M24" s="29"/>
     </row>
-    <row r="25" ht="18.75" spans="2:12">
+    <row r="25" ht="17.5" spans="2:12">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -2022,7 +2029,7 @@
       <c r="K25" s="29"/>
       <c r="L25" s="29"/>
     </row>
-    <row r="26" ht="18.75" spans="2:13">
+    <row r="26" ht="17.5" spans="2:13">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -2036,7 +2043,7 @@
       <c r="L26" s="29"/>
       <c r="M26" s="29"/>
     </row>
-    <row r="27" ht="18.75" spans="2:13">
+    <row r="27" ht="17.5" spans="2:13">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -2089,22 +2096,22 @@
       <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="2" width="4.58333333333333" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="17.725" customWidth="1"/>
-    <col min="5" max="5" width="23.1833333333333" customWidth="1"/>
-    <col min="6" max="6" width="7.33333333333333" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-    <col min="8" max="9" width="9.58333333333333" customWidth="1"/>
-    <col min="10" max="10" width="10.625" customWidth="1"/>
-    <col min="11" max="20" width="11.275" customWidth="1"/>
-    <col min="21" max="21" width="10.7583333333333" customWidth="1"/>
+    <col min="1" max="2" width="4.58181818181818" customWidth="1"/>
+    <col min="3" max="3" width="10.8727272727273" customWidth="1"/>
+    <col min="4" max="4" width="17.7272727272727" customWidth="1"/>
+    <col min="5" max="5" width="23.1818181818182" customWidth="1"/>
+    <col min="6" max="6" width="7.33636363636364" customWidth="1"/>
+    <col min="7" max="7" width="27.1272727272727" customWidth="1"/>
+    <col min="8" max="9" width="9.58181818181818" customWidth="1"/>
+    <col min="10" max="10" width="10.6272727272727" customWidth="1"/>
+    <col min="11" max="20" width="11.2727272727273" customWidth="1"/>
+    <col min="21" max="21" width="10.7545454545455" customWidth="1"/>
     <col min="22" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:21">
+    <row r="1" ht="15" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2169,7 +2176,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.75" spans="1:21">
+    <row r="2" customFormat="1" ht="15" spans="1:21">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -2234,7 +2241,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15.75" spans="1:19">
+    <row r="3" customFormat="1" ht="15" spans="1:19">
       <c r="A3" s="4" t="s">
         <v>53</v>
       </c>
@@ -2293,7 +2300,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.75" spans="1:11">
+    <row r="4" customFormat="1" ht="15" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -2328,7 +2335,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15.75" spans="1:20">
+    <row r="5" customFormat="1" ht="15" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -2388,7 +2395,7 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" customFormat="1" ht="15.75" spans="1:20">
+    <row r="6" customFormat="1" ht="15" spans="1:20">
       <c r="A6" s="4" t="s">
         <v>53</v>
       </c>
@@ -2450,7 +2457,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.75" spans="1:20">
+    <row r="7" customFormat="1" ht="15" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -2537,7 +2544,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" customFormat="1" ht="15.75" spans="1:20">
+    <row r="9" customFormat="1" ht="15" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -2599,7 +2606,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.75" spans="1:20">
+    <row r="10" customFormat="1" ht="15" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2641,7 +2648,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15.75" spans="1:20">
+    <row r="11" customFormat="1" ht="15" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2683,7 +2690,7 @@
         <v>45445</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15.75" spans="1:20">
+    <row r="12" customFormat="1" ht="15" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2707,7 +2714,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" customFormat="1" ht="15.75" spans="1:20">
+    <row r="13" customFormat="1" ht="15" spans="1:20">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -2769,7 +2776,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="15.75" spans="1:20">
+    <row r="14" customFormat="1" ht="15" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2793,7 +2800,7 @@
       <c r="S14" s="16"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" customFormat="1" ht="15.75" spans="1:20">
+    <row r="15" customFormat="1" ht="15" spans="1:20">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -2849,7 +2856,7 @@
       <c r="S15" s="16"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" customFormat="1" ht="15.75" spans="1:20">
+    <row r="16" customFormat="1" ht="15" spans="1:20">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -2911,7 +2918,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="15.75" spans="1:20">
+    <row r="17" customFormat="1" ht="15" spans="1:20">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -2973,7 +2980,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="15.75" spans="1:20">
+    <row r="18" customFormat="1" ht="15" spans="1:20">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -3005,7 +3012,7 @@
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
     </row>
-    <row r="19" customFormat="1" ht="15.75" spans="1:20">
+    <row r="19" customFormat="1" ht="15" spans="1:20">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -3067,7 +3074,7 @@
         <v>45451</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="15.75" spans="1:20">
+    <row r="20" customFormat="1" ht="15" spans="1:20">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3099,7 +3106,7 @@
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
     </row>
-    <row r="21" customFormat="1" ht="15.75" spans="1:20">
+    <row r="21" customFormat="1" ht="15" spans="1:20">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -3161,7 +3168,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="15.75" spans="1:20">
+    <row r="22" customFormat="1" ht="15" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3203,7 +3210,7 @@
         <v>45423</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15.75" spans="1:20">
+    <row r="23" customFormat="1" ht="15" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3235,7 +3242,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" customFormat="1" ht="15.75" spans="1:20">
+    <row r="24" customFormat="1" ht="15" spans="1:20">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
@@ -3297,7 +3304,7 @@
         <v>45325</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="15.75" spans="1:20">
+    <row r="25" customFormat="1" ht="15" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3339,7 +3346,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15.75" spans="1:20">
+    <row r="26" s="1" customFormat="1" ht="15" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3377,7 +3384,7 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="27" customFormat="1" ht="15.75" spans="1:20">
+    <row r="27" customFormat="1" ht="15" spans="1:20">
       <c r="A27" s="5" t="s">
         <v>114</v>
       </c>
@@ -3421,7 +3428,7 @@
       <c r="S27" s="24"/>
       <c r="T27" s="24"/>
     </row>
-    <row r="28" customFormat="1" ht="15.75" spans="1:20">
+    <row r="28" customFormat="1" ht="15" spans="1:20">
       <c r="A28" s="5" t="s">
         <v>20</v>
       </c>
@@ -3475,7 +3482,7 @@
       <c r="S28" s="16"/>
       <c r="T28" s="16"/>
     </row>
-    <row r="29" customFormat="1" ht="15.75" spans="1:18">
+    <row r="29" customFormat="1" ht="15" spans="1:18">
       <c r="A29" s="5" t="s">
         <v>20</v>
       </c>
@@ -3517,7 +3524,7 @@
       <c r="Q29" s="16"/>
       <c r="R29" s="16"/>
     </row>
-    <row r="30" customFormat="1" ht="15.75" spans="1:20">
+    <row r="30" customFormat="1" ht="15" spans="1:20">
       <c r="A30" s="5" t="s">
         <v>127</v>
       </c>
@@ -3571,7 +3578,7 @@
       <c r="S30" s="20"/>
       <c r="T30" s="20"/>
     </row>
-    <row r="31" customFormat="1" ht="15.75" spans="1:20">
+    <row r="31" customFormat="1" ht="15" spans="1:20">
       <c r="A31" s="5" t="s">
         <v>20</v>
       </c>
@@ -3633,7 +3640,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="32" customFormat="1" ht="15.75" spans="1:20">
+    <row r="32" customFormat="1" ht="15" spans="1:20">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -3695,7 +3702,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="33" customFormat="1" ht="15.75" spans="1:20">
+    <row r="33" customFormat="1" ht="15" spans="1:20">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3723,7 +3730,7 @@
       <c r="S33" s="22"/>
       <c r="T33" s="22"/>
     </row>
-    <row r="34" customFormat="1" ht="15.75" spans="1:20">
+    <row r="34" customFormat="1" ht="15" spans="1:20">
       <c r="A34" s="5" t="s">
         <v>20</v>
       </c>
@@ -3779,7 +3786,7 @@
       <c r="S34" s="16"/>
       <c r="T34" s="16"/>
     </row>
-    <row r="35" customFormat="1" ht="15.75" spans="1:20">
+    <row r="35" customFormat="1" ht="15" spans="1:20">
       <c r="A35" s="4" t="s">
         <v>20</v>
       </c>
@@ -3841,7 +3848,7 @@
         <v>45670</v>
       </c>
     </row>
-    <row r="36" customFormat="1" ht="15.75" spans="1:20">
+    <row r="36" customFormat="1" ht="15" spans="1:20">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -3883,7 +3890,7 @@
         <v>45691</v>
       </c>
     </row>
-    <row r="37" customFormat="1" ht="15.75" spans="1:20">
+    <row r="37" customFormat="1" ht="15" spans="1:20">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -3925,7 +3932,7 @@
         <v>45712</v>
       </c>
     </row>
-    <row r="38" customFormat="1" ht="15.75" spans="1:20">
+    <row r="38" customFormat="1" ht="15" spans="1:20">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -3954,7 +3961,7 @@
       <c r="S38" s="22"/>
       <c r="T38" s="22"/>
     </row>
-    <row r="39" customFormat="1" ht="15.75" spans="1:20">
+    <row r="39" customFormat="1" ht="15" spans="1:20">
       <c r="A39" s="4" t="s">
         <v>20</v>
       </c>
@@ -4016,7 +4023,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="40" customFormat="1" ht="15.75" spans="1:20">
+    <row r="40" customFormat="1" ht="15" spans="1:20">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -4058,7 +4065,7 @@
         <v>45718</v>
       </c>
     </row>
-    <row r="41" customFormat="1" ht="15.75" spans="1:13">
+    <row r="41" customFormat="1" ht="15" spans="1:13">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -4079,7 +4086,7 @@
         <v>45746</v>
       </c>
     </row>
-    <row r="42" customFormat="1" ht="15.75" spans="1:20">
+    <row r="42" customFormat="1" ht="15" spans="1:20">
       <c r="A42" s="4" t="s">
         <v>20</v>
       </c>
@@ -4141,7 +4148,7 @@
         <v>45623</v>
       </c>
     </row>
-    <row r="43" customFormat="1" ht="15.75" spans="1:20">
+    <row r="43" customFormat="1" ht="15" spans="1:20">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -4183,7 +4190,7 @@
         <v>45703</v>
       </c>
     </row>
-    <row r="44" customFormat="1" ht="15.75" spans="1:20">
+    <row r="44" customFormat="1" ht="15" spans="1:20">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -4261,7 +4268,7 @@
       <c r="S45" s="22"/>
       <c r="T45" s="22"/>
     </row>
-    <row r="46" customFormat="1" ht="15.75" spans="1:20">
+    <row r="46" customFormat="1" ht="15" spans="1:20">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -4283,7 +4290,7 @@
       <c r="S46" s="22"/>
       <c r="T46" s="22"/>
     </row>
-    <row r="47" customFormat="1" ht="15.75" spans="1:20">
+    <row r="47" customFormat="1" ht="15" spans="1:20">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -4305,7 +4312,7 @@
       <c r="S47" s="22"/>
       <c r="T47" s="22"/>
     </row>
-    <row r="48" customFormat="1" ht="15.75" spans="1:20">
+    <row r="48" customFormat="1" ht="15" spans="1:20">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -4327,7 +4334,7 @@
       <c r="S48" s="22"/>
       <c r="T48" s="22"/>
     </row>
-    <row r="49" customFormat="1" ht="15.75" spans="1:20">
+    <row r="49" customFormat="1" ht="15" spans="1:20">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -4349,7 +4356,7 @@
       <c r="S49" s="22"/>
       <c r="T49" s="22"/>
     </row>
-    <row r="50" customFormat="1" ht="15.75" spans="1:20">
+    <row r="50" customFormat="1" ht="15" spans="1:20">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -4371,7 +4378,7 @@
       <c r="S50" s="26"/>
       <c r="T50" s="26"/>
     </row>
-    <row r="51" customFormat="1" ht="15.75" spans="1:20">
+    <row r="51" customFormat="1" ht="15" spans="1:20">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -4393,7 +4400,7 @@
       <c r="S51" s="26"/>
       <c r="T51" s="26"/>
     </row>
-    <row r="52" customFormat="1" ht="15.75" spans="1:20">
+    <row r="52" customFormat="1" ht="15" spans="1:20">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -1568,7 +1568,7 @@
   <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1647,7 +1647,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" s="20" customFormat="1" ht="15" spans="1:13">
+    <row r="2" s="20" customFormat="1" ht="15" spans="1:14">
       <c r="A2" s="20" t="s">
         <v>20</v>
       </c>
@@ -1678,14 +1678,17 @@
       <c r="J2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="22">
+      <c r="K2" s="21">
         <v>45781</v>
       </c>
-      <c r="L2" s="22">
+      <c r="L2" s="21">
         <v>45794</v>
       </c>
-      <c r="M2" s="22">
+      <c r="M2" s="21">
         <v>45801</v>
+      </c>
+      <c r="N2" s="21">
+        <v>45808</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="15" spans="1:20">
@@ -1818,8 +1821,12 @@
       <c r="O5" s="22">
         <v>45802</v>
       </c>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
+      <c r="P5" s="22">
+        <v>45808</v>
+      </c>
+      <c r="Q5" s="22">
+        <v>45809</v>
+      </c>
       <c r="R5" s="22"/>
       <c r="S5" s="22"/>
       <c r="T5" s="22"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="167">
   <si>
     <t>年级</t>
   </si>
@@ -132,22 +132,16 @@
     <t>38/150</t>
   </si>
   <si>
-    <t>270/2h</t>
-  </si>
-  <si>
-    <t>周日11：00-13：00</t>
-  </si>
-  <si>
-    <t>刘桐语</t>
-  </si>
-  <si>
-    <t>博香苑A区 6-2-1001</t>
-  </si>
-  <si>
-    <t>126中学</t>
-  </si>
-  <si>
-    <t>120/150</t>
+    <t>陈雨霏</t>
+  </si>
+  <si>
+    <t>瑞祥花苑 1B-3-1801</t>
+  </si>
+  <si>
+    <t>29中</t>
+  </si>
+  <si>
+    <t>130/150</t>
   </si>
   <si>
     <t>转账时间(灰色表示线上上课（课时费1小时100），绿色表示课时费已发)：
@@ -239,6 +233,9 @@
     <t>德泽园三区1-1-202</t>
   </si>
   <si>
+    <t>126中学</t>
+  </si>
+  <si>
     <t>60/100</t>
   </si>
   <si>
@@ -299,6 +296,9 @@
     <t>一中家属院7号院1-2-201</t>
   </si>
   <si>
+    <t>120/150</t>
+  </si>
+  <si>
     <t>周二周四19：20-21：20</t>
   </si>
   <si>
@@ -434,6 +434,9 @@
     <t>110/150</t>
   </si>
   <si>
+    <t>270/2h</t>
+  </si>
+  <si>
     <t>周日14：00-16：00</t>
   </si>
   <si>
@@ -504,6 +507,15 @@
   </si>
   <si>
     <t>140/150</t>
+  </si>
+  <si>
+    <t>周日11：00-13：00</t>
+  </si>
+  <si>
+    <t>刘桐语</t>
+  </si>
+  <si>
+    <t>博香苑A区 6-2-1001</t>
   </si>
   <si>
     <t xml:space="preserve">绿色表示课时费已发；
@@ -1230,6 +1242,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1239,9 +1254,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1567,8 +1579,8 @@
   <sheetPr/>
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1647,7 +1659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" s="20" customFormat="1" ht="15" spans="1:14">
+    <row r="2" s="20" customFormat="1" ht="15" spans="1:15">
       <c r="A2" s="20" t="s">
         <v>20</v>
       </c>
@@ -1689,6 +1701,9 @@
       </c>
       <c r="N2" s="21">
         <v>45808</v>
+      </c>
+      <c r="O2" s="22">
+        <v>45814</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="15" spans="1:20">
@@ -1827,11 +1842,15 @@
       <c r="Q5" s="22">
         <v>45809</v>
       </c>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
+      <c r="R5" s="22">
+        <v>45814</v>
+      </c>
+      <c r="S5" s="22">
+        <v>45816</v>
+      </c>
       <c r="T5" s="22"/>
     </row>
-    <row r="6" customFormat="1" ht="15" spans="1:20">
+    <row r="6" ht="15" spans="1:11">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1839,133 +1858,32 @@
         <v>30</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="H6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="I6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="28">
-        <v>45551</v>
-      </c>
-      <c r="L6" s="21">
-        <v>45557</v>
-      </c>
-      <c r="M6" s="21">
-        <v>45563</v>
-      </c>
-      <c r="N6" s="21">
-        <v>45567</v>
-      </c>
-      <c r="O6" s="21">
-        <v>45578</v>
-      </c>
-      <c r="P6" s="21">
-        <v>45585</v>
-      </c>
-      <c r="Q6" s="21">
-        <v>45592</v>
-      </c>
-      <c r="R6" s="21">
-        <v>45599</v>
-      </c>
-      <c r="S6" s="21">
-        <v>45613</v>
-      </c>
-      <c r="T6" s="21">
-        <v>45620</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" ht="15" spans="1:20">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="21">
-        <v>45627</v>
-      </c>
-      <c r="L7" s="21">
-        <v>45641</v>
-      </c>
-      <c r="M7" s="21">
-        <v>45648</v>
-      </c>
-      <c r="N7" s="21">
-        <v>45655</v>
-      </c>
-      <c r="O7" s="21">
-        <v>45662</v>
-      </c>
-      <c r="P7" s="21">
-        <v>45718</v>
-      </c>
-      <c r="Q7" s="21">
-        <v>45725</v>
-      </c>
-      <c r="R7" s="21">
-        <v>45732</v>
-      </c>
-      <c r="S7" s="21">
-        <v>45739</v>
-      </c>
-      <c r="T7" s="21">
-        <v>45746</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" ht="15" spans="1:20">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="21">
-        <v>45753</v>
-      </c>
-      <c r="L8" s="21">
-        <v>45760</v>
-      </c>
-      <c r="M8" s="21">
-        <v>45767</v>
-      </c>
-      <c r="N8" s="21">
-        <v>45780</v>
-      </c>
-      <c r="O8" s="21">
-        <v>45795</v>
-      </c>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
+      <c r="J6" s="22">
+        <v>45810</v>
+      </c>
+      <c r="K6" s="22">
+        <v>45815</v>
+      </c>
     </row>
     <row r="16" s="20" customFormat="1" ht="15"/>
     <row r="17" s="20" customFormat="1" ht="15"/>
@@ -1973,30 +1891,30 @@
     <row r="19" s="20" customFormat="1" ht="15"/>
     <row r="20" s="20" customFormat="1" ht="15"/>
     <row r="21" s="20" customFormat="1" ht="15" spans="1:9">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
     </row>
     <row r="22" s="20" customFormat="1" ht="15" spans="1:9">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
     </row>
     <row r="23" ht="17.5" spans="2:13">
       <c r="B23" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -2065,27 +1983,17 @@
       <c r="M27" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="11">
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
     <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
     <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C8"/>
     <mergeCell ref="D3:D5"/>
-    <mergeCell ref="D6:D8"/>
     <mergeCell ref="E3:E5"/>
-    <mergeCell ref="E6:E8"/>
     <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F6:F8"/>
     <mergeCell ref="G3:G5"/>
-    <mergeCell ref="G6:G8"/>
     <mergeCell ref="H3:H5"/>
-    <mergeCell ref="H6:H8"/>
     <mergeCell ref="I3:I5"/>
-    <mergeCell ref="I6:I8"/>
     <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
     <mergeCell ref="B23:I27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2097,10 +2005,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U59"/>
+  <dimension ref="A1:U62"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2180,7 +2088,7 @@
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="15" spans="1:21">
@@ -2191,25 +2099,25 @@
         <v>30</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="J2" s="9">
         <v>45185</v>
@@ -2250,31 +2158,31 @@
     </row>
     <row r="3" customFormat="1" ht="15" spans="1:19">
       <c r="A3" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>29</v>
@@ -2315,25 +2223,25 @@
         <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="J4" s="9">
         <v>45287</v>
@@ -2350,25 +2258,25 @@
         <v>30</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="I5" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>29</v>
@@ -2404,31 +2312,31 @@
     </row>
     <row r="6" customFormat="1" ht="15" spans="1:20">
       <c r="A6" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="H6" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="I6" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="J6" s="9">
         <v>45320</v>
@@ -2475,22 +2383,22 @@
         <v>22</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>29</v>
@@ -2518,25 +2426,25 @@
         <v>30</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="H8" s="6">
         <v>126</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J8" s="14">
         <v>45425</v>
@@ -2562,22 +2470,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="J9" s="9">
         <v>45186</v>
@@ -2735,19 +2643,19 @@
         <v>23</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="I13" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J13" s="17" t="s">
         <v>29</v>
@@ -2821,19 +2729,19 @@
         <v>23</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="H15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>29</v>
@@ -2871,7 +2779,7 @@
         <v>21</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>23</v>
@@ -2933,7 +2841,7 @@
         <v>30</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>23</v>
@@ -3027,7 +2935,7 @@
         <v>30</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>23</v>
@@ -3121,7 +3029,7 @@
         <v>30</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>23</v>
@@ -3257,7 +3165,7 @@
         <v>30</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>23</v>
@@ -3269,13 +3177,13 @@
         <v>112</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>113</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="J24" s="19" t="s">
         <v>29</v>
@@ -3432,8 +3340,8 @@
       <c r="P27" s="20"/>
       <c r="Q27" s="20"/>
       <c r="R27" s="20"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
     </row>
     <row r="28" customFormat="1" ht="15" spans="1:20">
       <c r="A28" s="5" t="s">
@@ -3443,7 +3351,7 @@
         <v>21</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>23</v>
@@ -3458,10 +3366,10 @@
         <v>95</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J28" s="12" t="s">
         <v>29</v>
@@ -3512,7 +3420,7 @@
         <v>125</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>126</v>
@@ -3554,7 +3462,7 @@
         <v>131</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>132</v>
@@ -3608,7 +3516,7 @@
         <v>136</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>137</v>
@@ -3658,22 +3566,22 @@
         <v>29</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="J32" s="12" t="s">
         <v>29</v>
@@ -3751,19 +3659,19 @@
         <v>23</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J34" s="12" t="s">
         <v>29</v>
@@ -3804,22 +3712,22 @@
         <v>29</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J35" s="23" t="s">
         <v>29</v>
@@ -3976,25 +3884,25 @@
         <v>21</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J39" s="9" t="s">
         <v>29</v>
@@ -4104,19 +4012,19 @@
         <v>29</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>105</v>
@@ -4247,19 +4155,19 @@
         <v>32</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J45" s="21">
         <v>45778</v>
@@ -4271,73 +4179,143 @@
       <c r="O45" s="22"/>
       <c r="P45" s="22"/>
       <c r="Q45" s="22"/>
-      <c r="R45" s="25"/>
+      <c r="R45" s="26"/>
       <c r="S45" s="22"/>
       <c r="T45" s="22"/>
     </row>
     <row r="46" customFormat="1" ht="15" spans="1:20">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="22"/>
-      <c r="P46" s="22"/>
-      <c r="Q46" s="22"/>
-      <c r="R46" s="22"/>
-      <c r="S46" s="22"/>
-      <c r="T46" s="22"/>
+      <c r="A46" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K46" s="24">
+        <v>45551</v>
+      </c>
+      <c r="L46" s="21">
+        <v>45557</v>
+      </c>
+      <c r="M46" s="21">
+        <v>45563</v>
+      </c>
+      <c r="N46" s="21">
+        <v>45567</v>
+      </c>
+      <c r="O46" s="21">
+        <v>45578</v>
+      </c>
+      <c r="P46" s="21">
+        <v>45585</v>
+      </c>
+      <c r="Q46" s="21">
+        <v>45592</v>
+      </c>
+      <c r="R46" s="21">
+        <v>45599</v>
+      </c>
+      <c r="S46" s="21">
+        <v>45613</v>
+      </c>
+      <c r="T46" s="21">
+        <v>45620</v>
+      </c>
     </row>
     <row r="47" customFormat="1" ht="15" spans="1:20">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="7"/>
+      <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="22"/>
-      <c r="R47" s="22"/>
-      <c r="S47" s="22"/>
-      <c r="T47" s="22"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="21">
+        <v>45627</v>
+      </c>
+      <c r="L47" s="21">
+        <v>45641</v>
+      </c>
+      <c r="M47" s="21">
+        <v>45648</v>
+      </c>
+      <c r="N47" s="21">
+        <v>45655</v>
+      </c>
+      <c r="O47" s="21">
+        <v>45662</v>
+      </c>
+      <c r="P47" s="21">
+        <v>45718</v>
+      </c>
+      <c r="Q47" s="21">
+        <v>45725</v>
+      </c>
+      <c r="R47" s="21">
+        <v>45732</v>
+      </c>
+      <c r="S47" s="21">
+        <v>45739</v>
+      </c>
+      <c r="T47" s="21">
+        <v>45746</v>
+      </c>
     </row>
     <row r="48" customFormat="1" ht="15" spans="1:20">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="7"/>
+      <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="22"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="21">
+        <v>45753</v>
+      </c>
+      <c r="L48" s="21">
+        <v>45760</v>
+      </c>
+      <c r="M48" s="21">
+        <v>45767</v>
+      </c>
+      <c r="N48" s="21">
+        <v>45780</v>
+      </c>
+      <c r="O48" s="21">
+        <v>45795</v>
+      </c>
       <c r="P48" s="22"/>
       <c r="Q48" s="22"/>
-      <c r="R48" s="22"/>
+      <c r="R48" s="26"/>
       <c r="S48" s="22"/>
       <c r="T48" s="22"/>
     </row>
@@ -4368,107 +4346,137 @@
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
+      <c r="E50" s="7"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="24"/>
-      <c r="N50" s="24"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="24"/>
-      <c r="Q50" s="24"/>
-      <c r="R50" s="24"/>
-      <c r="S50" s="26"/>
-      <c r="T50" s="26"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="22"/>
+      <c r="S50" s="22"/>
+      <c r="T50" s="22"/>
     </row>
     <row r="51" customFormat="1" ht="15" spans="1:20">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
+      <c r="E51" s="7"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="24"/>
-      <c r="P51" s="24"/>
-      <c r="Q51" s="24"/>
-      <c r="R51" s="24"/>
-      <c r="S51" s="26"/>
-      <c r="T51" s="26"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="22"/>
+      <c r="T51" s="22"/>
     </row>
     <row r="52" customFormat="1" ht="15" spans="1:20">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
+      <c r="E52" s="7"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="24"/>
-      <c r="N52" s="24"/>
-      <c r="O52" s="24"/>
-      <c r="P52" s="24"/>
-      <c r="Q52" s="24"/>
-      <c r="R52" s="24"/>
-      <c r="S52" s="26"/>
-      <c r="T52" s="26"/>
-    </row>
-    <row r="53" spans="2:11">
-      <c r="B53" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-    </row>
-    <row r="54" spans="2:11">
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-    </row>
-    <row r="55" spans="2:11">
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="22"/>
+      <c r="Q52" s="22"/>
+      <c r="R52" s="22"/>
+      <c r="S52" s="22"/>
+      <c r="T52" s="22"/>
+    </row>
+    <row r="53" customFormat="1" ht="15" spans="1:20">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="25"/>
+      <c r="P53" s="25"/>
+      <c r="Q53" s="25"/>
+      <c r="R53" s="25"/>
+      <c r="S53" s="27"/>
+      <c r="T53" s="27"/>
+    </row>
+    <row r="54" customFormat="1" ht="15" spans="1:20">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="25"/>
+      <c r="P54" s="25"/>
+      <c r="Q54" s="25"/>
+      <c r="R54" s="25"/>
+      <c r="S54" s="27"/>
+      <c r="T54" s="27"/>
+    </row>
+    <row r="55" customFormat="1" ht="15" spans="1:20">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="25"/>
+      <c r="O55" s="25"/>
+      <c r="P55" s="25"/>
+      <c r="Q55" s="25"/>
+      <c r="R55" s="25"/>
+      <c r="S55" s="27"/>
+      <c r="T55" s="27"/>
     </row>
     <row r="56" spans="2:11">
-      <c r="B56" s="8"/>
+      <c r="B56" s="8" t="s">
+        <v>166</v>
+      </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -4515,8 +4523,44 @@
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
     </row>
+    <row r="60" spans="2:11">
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+    </row>
+    <row r="61" spans="2:11">
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+    </row>
+    <row r="62" spans="2:11">
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="100">
+  <mergeCells count="110">
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A17:A18"/>
@@ -4527,6 +4571,7 @@
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A46:A48"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B17:B18"/>
@@ -4537,6 +4582,7 @@
     <mergeCell ref="B35:B38"/>
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B46:B48"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C17:C18"/>
@@ -4547,6 +4593,7 @@
     <mergeCell ref="C35:C38"/>
     <mergeCell ref="C39:C41"/>
     <mergeCell ref="C42:C44"/>
+    <mergeCell ref="C46:C48"/>
     <mergeCell ref="D9:D12"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D17:D18"/>
@@ -4557,6 +4604,7 @@
     <mergeCell ref="D35:D38"/>
     <mergeCell ref="D39:D41"/>
     <mergeCell ref="D42:D44"/>
+    <mergeCell ref="D46:D48"/>
     <mergeCell ref="E9:E12"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="E17:E18"/>
@@ -4567,6 +4615,7 @@
     <mergeCell ref="E35:E38"/>
     <mergeCell ref="E39:E41"/>
     <mergeCell ref="E42:E44"/>
+    <mergeCell ref="E46:E48"/>
     <mergeCell ref="F9:F12"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="F17:F18"/>
@@ -4577,6 +4626,7 @@
     <mergeCell ref="F35:F38"/>
     <mergeCell ref="F39:F41"/>
     <mergeCell ref="F42:F44"/>
+    <mergeCell ref="F46:F48"/>
     <mergeCell ref="G9:G12"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="G17:G18"/>
@@ -4587,6 +4637,7 @@
     <mergeCell ref="G35:G38"/>
     <mergeCell ref="G39:G41"/>
     <mergeCell ref="G42:G44"/>
+    <mergeCell ref="G46:G48"/>
     <mergeCell ref="H9:H12"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="H17:H18"/>
@@ -4597,6 +4648,7 @@
     <mergeCell ref="H35:H38"/>
     <mergeCell ref="H39:H41"/>
     <mergeCell ref="H42:H44"/>
+    <mergeCell ref="H46:H48"/>
     <mergeCell ref="I9:I12"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="I17:I18"/>
@@ -4607,6 +4659,7 @@
     <mergeCell ref="I35:I38"/>
     <mergeCell ref="I39:I41"/>
     <mergeCell ref="I42:I44"/>
+    <mergeCell ref="I46:I48"/>
     <mergeCell ref="J9:J12"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="J17:J18"/>
@@ -4616,7 +4669,8 @@
     <mergeCell ref="J35:J38"/>
     <mergeCell ref="J39:J41"/>
     <mergeCell ref="J42:J44"/>
-    <mergeCell ref="B53:K59"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="B56:K62"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -1579,8 +1579,8 @@
   <sheetPr/>
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="T5" s="22"/>
     </row>
-    <row r="6" ht="15" spans="1:11">
+    <row r="6" ht="15" spans="1:12">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1883,6 +1883,9 @@
       </c>
       <c r="K6" s="22">
         <v>45815</v>
+      </c>
+      <c r="L6" s="22">
+        <v>45817</v>
       </c>
     </row>
     <row r="16" s="20" customFormat="1" ht="15"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -1579,8 +1579,8 @@
   <sheetPr/>
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1659,7 +1659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" s="20" customFormat="1" ht="15" spans="1:15">
+    <row r="2" s="20" customFormat="1" ht="15" spans="1:16">
       <c r="A2" s="20" t="s">
         <v>20</v>
       </c>
@@ -1702,8 +1702,11 @@
       <c r="N2" s="21">
         <v>45808</v>
       </c>
-      <c r="O2" s="22">
+      <c r="O2" s="21">
         <v>45814</v>
+      </c>
+      <c r="P2" s="22">
+        <v>45823</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="15" spans="1:20">
@@ -1848,7 +1851,9 @@
       <c r="S5" s="22">
         <v>45816</v>
       </c>
-      <c r="T5" s="22"/>
+      <c r="T5" s="22">
+        <v>45822</v>
+      </c>
     </row>
     <row r="6" ht="15" spans="1:12">
       <c r="A6" s="4" t="s">

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12330"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Doing" sheetId="1" r:id="rId1"/>
@@ -530,11 +530,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1032,7 +1032,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1041,10 +1041,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1053,7 +1053,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1233,22 +1233,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1579,25 +1579,25 @@
   <sheetPr/>
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="5.58181818181818" customWidth="1"/>
-    <col min="3" max="3" width="11.1818181818182" customWidth="1"/>
+    <col min="1" max="2" width="5.58333333333333" customWidth="1"/>
+    <col min="3" max="3" width="11.1833333333333" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="20.8181818181818" customWidth="1"/>
+    <col min="5" max="5" width="20.8166666666667" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
-    <col min="7" max="7" width="22.2727272727273" customWidth="1"/>
-    <col min="8" max="8" width="9.87272727272727" customWidth="1"/>
-    <col min="9" max="9" width="9.12727272727273" customWidth="1"/>
-    <col min="10" max="10" width="10.8363636363636" customWidth="1"/>
+    <col min="7" max="7" width="22.275" customWidth="1"/>
+    <col min="8" max="8" width="9.875" customWidth="1"/>
+    <col min="9" max="9" width="9.125" customWidth="1"/>
+    <col min="10" max="10" width="10.8333333333333" customWidth="1"/>
     <col min="11" max="20" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:20">
+    <row r="1" ht="15.75" spans="1:20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" s="20" customFormat="1" ht="15" spans="1:16">
+    <row r="2" s="20" customFormat="1" ht="15.75" spans="1:16">
       <c r="A2" s="20" t="s">
         <v>20</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>45823</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15" spans="1:20">
+    <row r="3" customFormat="1" ht="15.75" spans="1:20">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>45746</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15" spans="1:20">
+    <row r="4" customFormat="1" ht="15.75" spans="1:20">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1803,17 +1803,17 @@
       <c r="Q4" s="21">
         <v>45773</v>
       </c>
-      <c r="R4" s="22">
+      <c r="R4" s="21">
         <v>45780</v>
       </c>
-      <c r="S4" s="22">
+      <c r="S4" s="21">
         <v>45782</v>
       </c>
-      <c r="T4" s="22">
+      <c r="T4" s="21">
         <v>45787</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15" spans="1:20">
+    <row r="5" customFormat="1" ht="15.75" spans="1:20">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1824,22 +1824,22 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="21"/>
-      <c r="K5" s="22">
+      <c r="K5" s="21">
         <v>45788</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="21">
         <v>45794</v>
       </c>
-      <c r="M5" s="22">
+      <c r="M5" s="21">
         <v>45795</v>
       </c>
-      <c r="N5" s="22">
+      <c r="N5" s="21">
         <v>45801</v>
       </c>
-      <c r="O5" s="22">
+      <c r="O5" s="21">
         <v>45802</v>
       </c>
-      <c r="P5" s="22">
+      <c r="P5" s="21">
         <v>45808</v>
       </c>
       <c r="Q5" s="22">
@@ -1855,7 +1855,7 @@
         <v>45822</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="1:12">
+    <row r="6" ht="15.75" spans="1:12">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1893,12 +1893,12 @@
         <v>45817</v>
       </c>
     </row>
-    <row r="16" s="20" customFormat="1" ht="15"/>
-    <row r="17" s="20" customFormat="1" ht="15"/>
-    <row r="18" s="20" customFormat="1" ht="15"/>
-    <row r="19" s="20" customFormat="1" ht="15"/>
-    <row r="20" s="20" customFormat="1" ht="15"/>
-    <row r="21" s="20" customFormat="1" ht="15" spans="1:9">
+    <row r="16" s="20" customFormat="1" ht="15.75"/>
+    <row r="17" s="20" customFormat="1" ht="15.75"/>
+    <row r="18" s="20" customFormat="1" ht="15.75"/>
+    <row r="19" s="20" customFormat="1" ht="15.75"/>
+    <row r="20" s="20" customFormat="1" ht="15.75"/>
+    <row r="21" s="20" customFormat="1" ht="15.75" spans="1:9">
       <c r="A21" s="28"/>
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
@@ -1909,7 +1909,7 @@
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
     </row>
-    <row r="22" s="20" customFormat="1" ht="15" spans="1:9">
+    <row r="22" s="20" customFormat="1" ht="15.75" spans="1:9">
       <c r="A22" s="28"/>
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
@@ -1920,7 +1920,7 @@
       <c r="H22" s="28"/>
       <c r="I22" s="28"/>
     </row>
-    <row r="23" ht="17.5" spans="2:13">
+    <row r="23" ht="18.75" spans="2:13">
       <c r="B23" s="8" t="s">
         <v>42</v>
       </c>
@@ -1936,7 +1936,7 @@
       <c r="L23" s="29"/>
       <c r="M23" s="29"/>
     </row>
-    <row r="24" ht="17.5" spans="2:13">
+    <row r="24" ht="18.75" spans="2:13">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -1950,7 +1950,7 @@
       <c r="L24" s="29"/>
       <c r="M24" s="29"/>
     </row>
-    <row r="25" ht="17.5" spans="2:12">
+    <row r="25" ht="18.75" spans="2:12">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -1962,7 +1962,7 @@
       <c r="K25" s="29"/>
       <c r="L25" s="29"/>
     </row>
-    <row r="26" ht="17.5" spans="2:13">
+    <row r="26" ht="18.75" spans="2:13">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -1976,7 +1976,7 @@
       <c r="L26" s="29"/>
       <c r="M26" s="29"/>
     </row>
-    <row r="27" ht="17.5" spans="2:13">
+    <row r="27" ht="18.75" spans="2:13">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -2019,22 +2019,22 @@
       <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="4.58181818181818" customWidth="1"/>
-    <col min="3" max="3" width="10.8727272727273" customWidth="1"/>
-    <col min="4" max="4" width="17.7272727272727" customWidth="1"/>
-    <col min="5" max="5" width="23.1818181818182" customWidth="1"/>
-    <col min="6" max="6" width="7.33636363636364" customWidth="1"/>
-    <col min="7" max="7" width="27.1272727272727" customWidth="1"/>
-    <col min="8" max="9" width="9.58181818181818" customWidth="1"/>
-    <col min="10" max="10" width="10.6272727272727" customWidth="1"/>
-    <col min="11" max="20" width="11.2727272727273" customWidth="1"/>
-    <col min="21" max="21" width="10.7545454545455" customWidth="1"/>
+    <col min="1" max="2" width="4.58333333333333" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="17.725" customWidth="1"/>
+    <col min="5" max="5" width="23.1833333333333" customWidth="1"/>
+    <col min="6" max="6" width="7.33333333333333" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+    <col min="8" max="9" width="9.58333333333333" customWidth="1"/>
+    <col min="10" max="10" width="10.625" customWidth="1"/>
+    <col min="11" max="20" width="11.275" customWidth="1"/>
+    <col min="21" max="21" width="10.7583333333333" customWidth="1"/>
     <col min="22" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:21">
+    <row r="1" ht="15.75" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15" spans="1:21">
+    <row r="2" customFormat="1" ht="15.75" spans="1:21">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15" spans="1:19">
+    <row r="3" customFormat="1" ht="15.75" spans="1:19">
       <c r="A3" s="4" t="s">
         <v>51</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15" spans="1:11">
+    <row r="4" customFormat="1" ht="15.75" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15" spans="1:20">
+    <row r="5" customFormat="1" ht="15.75" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -2318,7 +2318,7 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" customFormat="1" ht="15" spans="1:20">
+    <row r="6" customFormat="1" ht="15.75" spans="1:20">
       <c r="A6" s="4" t="s">
         <v>51</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15" spans="1:20">
+    <row r="7" customFormat="1" ht="15.75" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -2467,7 +2467,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" customFormat="1" ht="15" spans="1:20">
+    <row r="9" customFormat="1" ht="15.75" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15" spans="1:20">
+    <row r="10" customFormat="1" ht="15.75" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2571,7 +2571,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15" spans="1:20">
+    <row r="11" customFormat="1" ht="15.75" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2613,7 +2613,7 @@
         <v>45445</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15" spans="1:20">
+    <row r="12" customFormat="1" ht="15.75" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2637,7 +2637,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" customFormat="1" ht="15" spans="1:20">
+    <row r="13" customFormat="1" ht="15.75" spans="1:20">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="15" spans="1:20">
+    <row r="14" customFormat="1" ht="15.75" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2723,7 +2723,7 @@
       <c r="S14" s="16"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" customFormat="1" ht="15" spans="1:20">
+    <row r="15" customFormat="1" ht="15.75" spans="1:20">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -2779,7 +2779,7 @@
       <c r="S15" s="16"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" customFormat="1" ht="15" spans="1:20">
+    <row r="16" customFormat="1" ht="15.75" spans="1:20">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="15" spans="1:20">
+    <row r="17" customFormat="1" ht="15.75" spans="1:20">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="15" spans="1:20">
+    <row r="18" customFormat="1" ht="15.75" spans="1:20">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2935,7 +2935,7 @@
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
     </row>
-    <row r="19" customFormat="1" ht="15" spans="1:20">
+    <row r="19" customFormat="1" ht="15.75" spans="1:20">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>45451</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="15" spans="1:20">
+    <row r="20" customFormat="1" ht="15.75" spans="1:20">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3029,7 +3029,7 @@
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
     </row>
-    <row r="21" customFormat="1" ht="15" spans="1:20">
+    <row r="21" customFormat="1" ht="15.75" spans="1:20">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="15" spans="1:20">
+    <row r="22" customFormat="1" ht="15.75" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3133,7 +3133,7 @@
         <v>45423</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15" spans="1:20">
+    <row r="23" customFormat="1" ht="15.75" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3165,7 +3165,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" customFormat="1" ht="15" spans="1:20">
+    <row r="24" customFormat="1" ht="15.75" spans="1:20">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>45325</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="15" spans="1:20">
+    <row r="25" customFormat="1" ht="15.75" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3269,7 +3269,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15" spans="1:20">
+    <row r="26" s="1" customFormat="1" ht="15.75" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3307,7 +3307,7 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="27" customFormat="1" ht="15" spans="1:20">
+    <row r="27" customFormat="1" ht="15.75" spans="1:20">
       <c r="A27" s="5" t="s">
         <v>114</v>
       </c>
@@ -3351,7 +3351,7 @@
       <c r="S27" s="25"/>
       <c r="T27" s="25"/>
     </row>
-    <row r="28" customFormat="1" ht="15" spans="1:20">
+    <row r="28" customFormat="1" ht="15.75" spans="1:20">
       <c r="A28" s="5" t="s">
         <v>20</v>
       </c>
@@ -3405,7 +3405,7 @@
       <c r="S28" s="16"/>
       <c r="T28" s="16"/>
     </row>
-    <row r="29" customFormat="1" ht="15" spans="1:18">
+    <row r="29" customFormat="1" ht="15.75" spans="1:18">
       <c r="A29" s="5" t="s">
         <v>20</v>
       </c>
@@ -3447,7 +3447,7 @@
       <c r="Q29" s="16"/>
       <c r="R29" s="16"/>
     </row>
-    <row r="30" customFormat="1" ht="15" spans="1:20">
+    <row r="30" customFormat="1" ht="15.75" spans="1:20">
       <c r="A30" s="5" t="s">
         <v>127</v>
       </c>
@@ -3501,7 +3501,7 @@
       <c r="S30" s="20"/>
       <c r="T30" s="20"/>
     </row>
-    <row r="31" customFormat="1" ht="15" spans="1:20">
+    <row r="31" customFormat="1" ht="15.75" spans="1:20">
       <c r="A31" s="5" t="s">
         <v>20</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="32" customFormat="1" ht="15" spans="1:20">
+    <row r="32" customFormat="1" ht="15.75" spans="1:20">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="33" customFormat="1" ht="15" spans="1:20">
+    <row r="33" customFormat="1" ht="15.75" spans="1:20">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3653,7 +3653,7 @@
       <c r="S33" s="22"/>
       <c r="T33" s="22"/>
     </row>
-    <row r="34" customFormat="1" ht="15" spans="1:20">
+    <row r="34" customFormat="1" ht="15.75" spans="1:20">
       <c r="A34" s="5" t="s">
         <v>20</v>
       </c>
@@ -3709,7 +3709,7 @@
       <c r="S34" s="16"/>
       <c r="T34" s="16"/>
     </row>
-    <row r="35" customFormat="1" ht="15" spans="1:20">
+    <row r="35" customFormat="1" ht="15.75" spans="1:20">
       <c r="A35" s="4" t="s">
         <v>20</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>45670</v>
       </c>
     </row>
-    <row r="36" customFormat="1" ht="15" spans="1:20">
+    <row r="36" customFormat="1" ht="15.75" spans="1:20">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -3813,7 +3813,7 @@
         <v>45691</v>
       </c>
     </row>
-    <row r="37" customFormat="1" ht="15" spans="1:20">
+    <row r="37" customFormat="1" ht="15.75" spans="1:20">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -3855,7 +3855,7 @@
         <v>45712</v>
       </c>
     </row>
-    <row r="38" customFormat="1" ht="15" spans="1:20">
+    <row r="38" customFormat="1" ht="15.75" spans="1:20">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -3884,7 +3884,7 @@
       <c r="S38" s="22"/>
       <c r="T38" s="22"/>
     </row>
-    <row r="39" customFormat="1" ht="15" spans="1:20">
+    <row r="39" customFormat="1" ht="15.75" spans="1:20">
       <c r="A39" s="4" t="s">
         <v>20</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="40" customFormat="1" ht="15" spans="1:20">
+    <row r="40" customFormat="1" ht="15.75" spans="1:20">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -3988,7 +3988,7 @@
         <v>45718</v>
       </c>
     </row>
-    <row r="41" customFormat="1" ht="15" spans="1:13">
+    <row r="41" customFormat="1" ht="15.75" spans="1:13">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -4009,7 +4009,7 @@
         <v>45746</v>
       </c>
     </row>
-    <row r="42" customFormat="1" ht="15" spans="1:20">
+    <row r="42" customFormat="1" ht="15.75" spans="1:20">
       <c r="A42" s="4" t="s">
         <v>20</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>45623</v>
       </c>
     </row>
-    <row r="43" customFormat="1" ht="15" spans="1:20">
+    <row r="43" customFormat="1" ht="15.75" spans="1:20">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -4113,7 +4113,7 @@
         <v>45703</v>
       </c>
     </row>
-    <row r="44" customFormat="1" ht="15" spans="1:20">
+    <row r="44" customFormat="1" ht="15.75" spans="1:20">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -4191,7 +4191,7 @@
       <c r="S45" s="22"/>
       <c r="T45" s="22"/>
     </row>
-    <row r="46" customFormat="1" ht="15" spans="1:20">
+    <row r="46" customFormat="1" ht="15.75" spans="1:20">
       <c r="A46" s="4" t="s">
         <v>20</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>45620</v>
       </c>
     </row>
-    <row r="47" customFormat="1" ht="15" spans="1:20">
+    <row r="47" customFormat="1" ht="15.75" spans="1:20">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -4295,7 +4295,7 @@
         <v>45746</v>
       </c>
     </row>
-    <row r="48" customFormat="1" ht="15" spans="1:20">
+    <row r="48" customFormat="1" ht="15.75" spans="1:20">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -4327,7 +4327,7 @@
       <c r="S48" s="22"/>
       <c r="T48" s="22"/>
     </row>
-    <row r="49" customFormat="1" ht="15" spans="1:20">
+    <row r="49" customFormat="1" ht="15.75" spans="1:20">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -4349,7 +4349,7 @@
       <c r="S49" s="22"/>
       <c r="T49" s="22"/>
     </row>
-    <row r="50" customFormat="1" ht="15" spans="1:20">
+    <row r="50" customFormat="1" ht="15.75" spans="1:20">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -4371,7 +4371,7 @@
       <c r="S50" s="22"/>
       <c r="T50" s="22"/>
     </row>
-    <row r="51" customFormat="1" ht="15" spans="1:20">
+    <row r="51" customFormat="1" ht="15.75" spans="1:20">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -4393,7 +4393,7 @@
       <c r="S51" s="22"/>
       <c r="T51" s="22"/>
     </row>
-    <row r="52" customFormat="1" ht="15" spans="1:20">
+    <row r="52" customFormat="1" ht="15.75" spans="1:20">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -4415,7 +4415,7 @@
       <c r="S52" s="22"/>
       <c r="T52" s="22"/>
     </row>
-    <row r="53" customFormat="1" ht="15" spans="1:20">
+    <row r="53" customFormat="1" ht="15.75" spans="1:20">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -4437,7 +4437,7 @@
       <c r="S53" s="27"/>
       <c r="T53" s="27"/>
     </row>
-    <row r="54" customFormat="1" ht="15" spans="1:20">
+    <row r="54" customFormat="1" ht="15.75" spans="1:20">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -4459,7 +4459,7 @@
       <c r="S54" s="27"/>
       <c r="T54" s="27"/>
     </row>
-    <row r="55" customFormat="1" ht="15" spans="1:20">
+    <row r="55" customFormat="1" ht="15.75" spans="1:20">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -530,11 +530,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1032,28 +1032,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1580,7 +1580,7 @@
   <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1883,7 +1883,7 @@
       <c r="I6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="21">
         <v>45810</v>
       </c>
       <c r="K6" s="22">

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -1580,7 +1580,7 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1792,16 +1792,16 @@
       <c r="P4" s="21">
         <v>45808</v>
       </c>
-      <c r="Q4" s="22">
+      <c r="Q4" s="21">
         <v>45809</v>
       </c>
-      <c r="R4" s="22">
+      <c r="R4" s="21">
         <v>45814</v>
       </c>
-      <c r="S4" s="22">
+      <c r="S4" s="21">
         <v>45816</v>
       </c>
-      <c r="T4" s="22">
+      <c r="T4" s="21">
         <v>45822</v>
       </c>
     </row>
@@ -1836,10 +1836,10 @@
       <c r="J5" s="21">
         <v>45810</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="21">
         <v>45815</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="21">
         <v>45817</v>
       </c>
     </row>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="171">
   <si>
     <t>年级</t>
   </si>
@@ -83,10 +83,423 @@
     <t>数学</t>
   </si>
   <si>
+    <t>一对一教育</t>
+  </si>
+  <si>
+    <t>240/2h</t>
+  </si>
+  <si>
+    <t>周六12：30-14：30</t>
+  </si>
+  <si>
+    <t>安芯宇</t>
+  </si>
+  <si>
+    <t>文艺路106号 恒福大厦3楼</t>
+  </si>
+  <si>
+    <t>一中</t>
+  </si>
+  <si>
+    <t>80/100</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>转账时间(灰色表示线上上课（课时费1小时100），绿色表示课时费已发)：
+星期天培训下个月20号;知新识途下个月20号；一尔优当月1号和15号；
+目标：安芯宇：135</t>
+  </si>
+  <si>
+    <t>第11课</t>
+  </si>
+  <si>
+    <t>新耀科技</t>
+  </si>
+  <si>
+    <t>180/1.5h</t>
+  </si>
+  <si>
+    <t>周六19：00-20：30</t>
+  </si>
+  <si>
+    <t>宁芮一</t>
+  </si>
+  <si>
+    <t>光明路北小区14-2-503</t>
+  </si>
+  <si>
+    <t>兵一</t>
+  </si>
+  <si>
+    <t>90/150</t>
+  </si>
+  <si>
+    <t>初二</t>
+  </si>
+  <si>
+    <t>豌豆文化</t>
+  </si>
+  <si>
+    <t>260/2h</t>
+  </si>
+  <si>
+    <t>周六15：30-17：30</t>
+  </si>
+  <si>
+    <t>双胞胎</t>
+  </si>
+  <si>
+    <t>秀城二代宅9-2-1501</t>
+  </si>
+  <si>
+    <t>12中</t>
+  </si>
+  <si>
+    <t>优师帮</t>
+  </si>
+  <si>
+    <t>周三20：30-22：30</t>
+  </si>
+  <si>
+    <t>李金翰</t>
+  </si>
+  <si>
+    <t>新医路165号汇文大厦504</t>
+  </si>
+  <si>
+    <t>师大</t>
+  </si>
+  <si>
+    <t>80/150</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>360/1.5h</t>
+  </si>
+  <si>
+    <t>博瑞佰艺</t>
+  </si>
+  <si>
+    <t>每天19：30-21：00</t>
+  </si>
+  <si>
+    <t>徐子洋</t>
+  </si>
+  <si>
+    <t>德泽园三区1-1-202</t>
+  </si>
+  <si>
+    <t>126中学</t>
+  </si>
+  <si>
+    <t>60/100</t>
+  </si>
+  <si>
+    <t>一尔优教育</t>
+  </si>
+  <si>
+    <t>周日18：00-20：00</t>
+  </si>
+  <si>
+    <t>张恒源</t>
+  </si>
+  <si>
+    <t>丹霞山街绿谷学府3-1-403</t>
+  </si>
+  <si>
+    <t>30/150</t>
+  </si>
+  <si>
+    <t>周一20：30-22：30</t>
+  </si>
+  <si>
+    <t>姜弈瞳</t>
+  </si>
+  <si>
+    <t>锦绣三街-和兴帝景4-1-1403</t>
+  </si>
+  <si>
+    <t>108/150</t>
+  </si>
+  <si>
+    <t>物理</t>
+  </si>
+  <si>
+    <t>210/2h</t>
+  </si>
+  <si>
+    <t>周日12：00-14：00</t>
+  </si>
+  <si>
+    <t>柯梓萌</t>
+  </si>
+  <si>
+    <t>青年路国税小区3-1-501</t>
+  </si>
+  <si>
+    <t>40/100</t>
+  </si>
+  <si>
+    <t>周日15：00-17：00</t>
+  </si>
+  <si>
+    <t>刘卓雅</t>
+  </si>
+  <si>
+    <t>邮区中心局小区3-4-602</t>
+  </si>
+  <si>
+    <t>13中</t>
+  </si>
+  <si>
+    <t>李冰惠</t>
+  </si>
+  <si>
+    <t>一中家属院7号院1-2-201</t>
+  </si>
+  <si>
+    <t>120/150</t>
+  </si>
+  <si>
+    <t>周二周四19：20-21：20</t>
+  </si>
+  <si>
+    <t>夏锦程</t>
+  </si>
+  <si>
+    <t>天章大厦</t>
+  </si>
+  <si>
+    <t>19中</t>
+  </si>
+  <si>
+    <t>30/90</t>
+  </si>
+  <si>
+    <t>周三周五19：20-21：20</t>
+  </si>
+  <si>
+    <t>刘东睿</t>
+  </si>
+  <si>
+    <t>11中</t>
+  </si>
+  <si>
+    <t>50/150</t>
+  </si>
+  <si>
+    <t>周六15：00-17：00</t>
+  </si>
+  <si>
+    <t>马金亮</t>
+  </si>
+  <si>
+    <t>复读</t>
+  </si>
+  <si>
+    <t>70/150</t>
+  </si>
+  <si>
+    <t>周六20：00-22：00</t>
+  </si>
+  <si>
+    <t>张育铭</t>
+  </si>
+  <si>
+    <t>金源贸易城5-1-602</t>
+  </si>
+  <si>
+    <t>104团中学</t>
+  </si>
+  <si>
+    <t>100/150</t>
+  </si>
+  <si>
+    <t>周日09：00-11：00</t>
+  </si>
+  <si>
+    <t>周裕民</t>
+  </si>
+  <si>
+    <t>兵二分校</t>
+  </si>
+  <si>
+    <t>高一</t>
+  </si>
+  <si>
+    <t>320/2h</t>
+  </si>
+  <si>
+    <t>周日15：30-17：30</t>
+  </si>
+  <si>
+    <t>吴雨桐</t>
+  </si>
+  <si>
+    <t>丽园路轩和苑C区 3-2-102</t>
+  </si>
+  <si>
+    <t>60/150</t>
+  </si>
+  <si>
+    <t>周六17：10-19：10</t>
+  </si>
+  <si>
+    <t>孙朝(zhao)阳</t>
+  </si>
+  <si>
+    <t>450/2h</t>
+  </si>
+  <si>
+    <t>周六18：30-20：30</t>
+  </si>
+  <si>
+    <t>魏子骞</t>
+  </si>
+  <si>
+    <t>幸福路48号二建小区 9-2-302</t>
+  </si>
+  <si>
+    <t>70/90</t>
+  </si>
+  <si>
+    <t>初一</t>
+  </si>
+  <si>
+    <t>掌学教育</t>
+  </si>
+  <si>
+    <t>220/2h</t>
+  </si>
+  <si>
+    <t>朱思臣</t>
+  </si>
+  <si>
+    <t>新民路29号 3-201</t>
+  </si>
+  <si>
+    <t>90/100</t>
+  </si>
+  <si>
+    <t>精锐教育</t>
+  </si>
+  <si>
+    <t>周日20：00-22：00</t>
+  </si>
+  <si>
+    <t>孙翊原</t>
+  </si>
+  <si>
+    <t>卫生巷88号 6-1-403</t>
+  </si>
+  <si>
+    <t>110/150</t>
+  </si>
+  <si>
+    <t>270/2h</t>
+  </si>
+  <si>
+    <t>周日14：00-16：00</t>
+  </si>
+  <si>
+    <t>贾梦垚</t>
+  </si>
+  <si>
+    <t>德泽园3区1-1-101</t>
+  </si>
+  <si>
+    <t>周六12：00-14：00</t>
+  </si>
+  <si>
+    <t>张佳宁</t>
+  </si>
+  <si>
+    <t>耳鼻喉科专科医院旁巷子201室</t>
+  </si>
+  <si>
+    <t>85/100</t>
+  </si>
+  <si>
+    <t>270/1.5h</t>
+  </si>
+  <si>
+    <t>周一、二、五 21：00-22：30</t>
+  </si>
+  <si>
+    <t>李梦媛</t>
+  </si>
+  <si>
+    <t>晟和家园 3-2203</t>
+  </si>
+  <si>
+    <t>70中</t>
+  </si>
+  <si>
+    <t>43/150</t>
+  </si>
+  <si>
+    <t>星期天培训</t>
+  </si>
+  <si>
+    <t>周日17：00-19：00</t>
+  </si>
+  <si>
+    <t>39/90</t>
+  </si>
+  <si>
+    <t>郭润宁</t>
+  </si>
+  <si>
+    <t>嘉和苑·悦园 3楼</t>
+  </si>
+  <si>
+    <t>13中分校</t>
+  </si>
+  <si>
     <t>知新识途</t>
   </si>
   <si>
     <t>260/2h+300/每月</t>
+  </si>
+  <si>
+    <t>南一</t>
+  </si>
+  <si>
+    <t>莱茵庄园C1-3-601</t>
+  </si>
+  <si>
+    <t>68中</t>
+  </si>
+  <si>
+    <t>140/150</t>
+  </si>
+  <si>
+    <t>周日11：00-13：00</t>
+  </si>
+  <si>
+    <t>刘桐语</t>
+  </si>
+  <si>
+    <t>博香苑A区 6-2-1001</t>
+  </si>
+  <si>
+    <t>周六16：00-18：00</t>
+  </si>
+  <si>
+    <t>金铭泽</t>
+  </si>
+  <si>
+    <t>霖水家园 2-1-1905</t>
+  </si>
+  <si>
+    <t>八一中学</t>
+  </si>
+  <si>
+    <t>80/90</t>
   </si>
   <si>
     <t>周六19：00-21：00
@@ -105,9 +518,6 @@
     <t>38/150</t>
   </si>
   <si>
-    <t>周六16：00-18：00</t>
-  </si>
-  <si>
     <t>陈雨霏</t>
   </si>
   <si>
@@ -118,404 +528,6 @@
   </si>
   <si>
     <t>130/150</t>
-  </si>
-  <si>
-    <t>转账时间(灰色表示线上上课（课时费1小时100），绿色表示课时费已发)：
-星期天培训下个月20号;知新识途下个月20号；一尔优当月1号和15号；
-下次考试目标：刘桐语：140，单欣俞：100，金明泽：85</t>
-  </si>
-  <si>
-    <t>第11课</t>
-  </si>
-  <si>
-    <t>新耀科技</t>
-  </si>
-  <si>
-    <t>180/1.5h</t>
-  </si>
-  <si>
-    <t>周六19：00-20：30</t>
-  </si>
-  <si>
-    <t>宁芮一</t>
-  </si>
-  <si>
-    <t>光明路北小区14-2-503</t>
-  </si>
-  <si>
-    <t>兵一</t>
-  </si>
-  <si>
-    <t>90/150</t>
-  </si>
-  <si>
-    <t>初二</t>
-  </si>
-  <si>
-    <t>豌豆文化</t>
-  </si>
-  <si>
-    <t>260/2h</t>
-  </si>
-  <si>
-    <t>周六15：30-17：30</t>
-  </si>
-  <si>
-    <t>双胞胎</t>
-  </si>
-  <si>
-    <t>秀城二代宅9-2-1501</t>
-  </si>
-  <si>
-    <t>12中</t>
-  </si>
-  <si>
-    <t>80/100</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>优师帮</t>
-  </si>
-  <si>
-    <t>240/2h</t>
-  </si>
-  <si>
-    <t>周三20：30-22：30</t>
-  </si>
-  <si>
-    <t>李金翰</t>
-  </si>
-  <si>
-    <t>新医路165号汇文大厦504</t>
-  </si>
-  <si>
-    <t>师大</t>
-  </si>
-  <si>
-    <t>80/150</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>360/1.5h</t>
-  </si>
-  <si>
-    <t>博瑞佰艺</t>
-  </si>
-  <si>
-    <t>每天19：30-21：00</t>
-  </si>
-  <si>
-    <t>徐子洋</t>
-  </si>
-  <si>
-    <t>德泽园三区1-1-202</t>
-  </si>
-  <si>
-    <t>126中学</t>
-  </si>
-  <si>
-    <t>60/100</t>
-  </si>
-  <si>
-    <t>一尔优教育</t>
-  </si>
-  <si>
-    <t>周日18：00-20：00</t>
-  </si>
-  <si>
-    <t>张恒源</t>
-  </si>
-  <si>
-    <t>丹霞山街绿谷学府3-1-403</t>
-  </si>
-  <si>
-    <t>30/150</t>
-  </si>
-  <si>
-    <t>周一20：30-22：30</t>
-  </si>
-  <si>
-    <t>姜弈瞳</t>
-  </si>
-  <si>
-    <t>锦绣三街-和兴帝景4-1-1403</t>
-  </si>
-  <si>
-    <t>108/150</t>
-  </si>
-  <si>
-    <t>物理</t>
-  </si>
-  <si>
-    <t>210/2h</t>
-  </si>
-  <si>
-    <t>周日12：00-14：00</t>
-  </si>
-  <si>
-    <t>柯梓萌</t>
-  </si>
-  <si>
-    <t>青年路国税小区3-1-501</t>
-  </si>
-  <si>
-    <t>40/100</t>
-  </si>
-  <si>
-    <t>周日15：00-17：00</t>
-  </si>
-  <si>
-    <t>刘卓雅</t>
-  </si>
-  <si>
-    <t>邮区中心局小区3-4-602</t>
-  </si>
-  <si>
-    <t>13中</t>
-  </si>
-  <si>
-    <t>李冰惠</t>
-  </si>
-  <si>
-    <t>一中家属院7号院1-2-201</t>
-  </si>
-  <si>
-    <t>120/150</t>
-  </si>
-  <si>
-    <t>周二周四19：20-21：20</t>
-  </si>
-  <si>
-    <t>夏锦程</t>
-  </si>
-  <si>
-    <t>天章大厦</t>
-  </si>
-  <si>
-    <t>19中</t>
-  </si>
-  <si>
-    <t>30/90</t>
-  </si>
-  <si>
-    <t>周三周五19：20-21：20</t>
-  </si>
-  <si>
-    <t>刘东睿</t>
-  </si>
-  <si>
-    <t>11中</t>
-  </si>
-  <si>
-    <t>50/150</t>
-  </si>
-  <si>
-    <t>周六15：00-17：00</t>
-  </si>
-  <si>
-    <t>马金亮</t>
-  </si>
-  <si>
-    <t>复读</t>
-  </si>
-  <si>
-    <t>70/150</t>
-  </si>
-  <si>
-    <t>周六20：00-22：00</t>
-  </si>
-  <si>
-    <t>张育铭</t>
-  </si>
-  <si>
-    <t>金源贸易城5-1-602</t>
-  </si>
-  <si>
-    <t>104团中学</t>
-  </si>
-  <si>
-    <t>100/150</t>
-  </si>
-  <si>
-    <t>周日09：00-11：00</t>
-  </si>
-  <si>
-    <t>周裕民</t>
-  </si>
-  <si>
-    <t>兵二分校</t>
-  </si>
-  <si>
-    <t>高一</t>
-  </si>
-  <si>
-    <t>320/2h</t>
-  </si>
-  <si>
-    <t>周日15：30-17：30</t>
-  </si>
-  <si>
-    <t>吴雨桐</t>
-  </si>
-  <si>
-    <t>丽园路轩和苑C区 3-2-102</t>
-  </si>
-  <si>
-    <t>60/150</t>
-  </si>
-  <si>
-    <t>周六17：10-19：10</t>
-  </si>
-  <si>
-    <t>孙朝(zhao)阳</t>
-  </si>
-  <si>
-    <t>450/2h</t>
-  </si>
-  <si>
-    <t>周六18：30-20：30</t>
-  </si>
-  <si>
-    <t>魏子骞</t>
-  </si>
-  <si>
-    <t>幸福路48号二建小区 9-2-302</t>
-  </si>
-  <si>
-    <t>70/90</t>
-  </si>
-  <si>
-    <t>初一</t>
-  </si>
-  <si>
-    <t>掌学教育</t>
-  </si>
-  <si>
-    <t>220/2h</t>
-  </si>
-  <si>
-    <t>朱思臣</t>
-  </si>
-  <si>
-    <t>新民路29号 3-201</t>
-  </si>
-  <si>
-    <t>90/100</t>
-  </si>
-  <si>
-    <t>精锐教育</t>
-  </si>
-  <si>
-    <t>周日20：00-22：00</t>
-  </si>
-  <si>
-    <t>孙翊原</t>
-  </si>
-  <si>
-    <t>卫生巷88号 6-1-403</t>
-  </si>
-  <si>
-    <t>110/150</t>
-  </si>
-  <si>
-    <t>270/2h</t>
-  </si>
-  <si>
-    <t>周日14：00-16：00</t>
-  </si>
-  <si>
-    <t>贾梦垚</t>
-  </si>
-  <si>
-    <t>德泽园3区1-1-101</t>
-  </si>
-  <si>
-    <t>周六12：00-14：00</t>
-  </si>
-  <si>
-    <t>张佳宁</t>
-  </si>
-  <si>
-    <t>耳鼻喉科专科医院旁巷子201室</t>
-  </si>
-  <si>
-    <t>一中</t>
-  </si>
-  <si>
-    <t>85/100</t>
-  </si>
-  <si>
-    <t>270/1.5h</t>
-  </si>
-  <si>
-    <t>周一、二、五 21：00-22：30</t>
-  </si>
-  <si>
-    <t>李梦媛</t>
-  </si>
-  <si>
-    <t>晟和家园 3-2203</t>
-  </si>
-  <si>
-    <t>70中</t>
-  </si>
-  <si>
-    <t>43/150</t>
-  </si>
-  <si>
-    <t>星期天培训</t>
-  </si>
-  <si>
-    <t>周日17：00-19：00</t>
-  </si>
-  <si>
-    <t>39/90</t>
-  </si>
-  <si>
-    <t>郭润宁</t>
-  </si>
-  <si>
-    <t>嘉和苑·悦园 3楼</t>
-  </si>
-  <si>
-    <t>13中分校</t>
-  </si>
-  <si>
-    <t>南一</t>
-  </si>
-  <si>
-    <t>莱茵庄园C1-3-601</t>
-  </si>
-  <si>
-    <t>68中</t>
-  </si>
-  <si>
-    <t>140/150</t>
-  </si>
-  <si>
-    <t>周日11：00-13：00</t>
-  </si>
-  <si>
-    <t>刘桐语</t>
-  </si>
-  <si>
-    <t>博香苑A区 6-2-1001</t>
-  </si>
-  <si>
-    <t>金铭泽</t>
-  </si>
-  <si>
-    <t>霖水家园 2-1-1905</t>
-  </si>
-  <si>
-    <t>八一中学</t>
-  </si>
-  <si>
-    <t>80/90</t>
   </si>
   <si>
     <t xml:space="preserve">绿色表示课时费已发；
@@ -1177,7 +1189,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1254,6 +1266,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1577,10 +1592,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1590,7 +1605,7 @@
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="20.8181818181818" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
-    <col min="7" max="7" width="22.2727272727273" customWidth="1"/>
+    <col min="7" max="7" width="26.5454545454545" customWidth="1"/>
     <col min="8" max="8" width="9.87272727272727" customWidth="1"/>
     <col min="9" max="9" width="9.12727272727273" customWidth="1"/>
     <col min="10" max="10" width="10.8363636363636" customWidth="1"/>
@@ -1659,7 +1674,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15" spans="1:20">
+    <row r="2" customFormat="1" ht="15" spans="1:12">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -1681,199 +1696,105 @@
       <c r="G2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="21">
-        <v>45710</v>
-      </c>
-      <c r="K2" s="21">
-        <v>45717</v>
-      </c>
-      <c r="L2" s="21">
-        <v>45718</v>
-      </c>
-      <c r="M2" s="21">
-        <v>45724</v>
-      </c>
-      <c r="N2" s="21">
-        <v>45725</v>
-      </c>
-      <c r="O2" s="21">
-        <v>45731</v>
-      </c>
-      <c r="P2" s="21">
-        <v>45732</v>
-      </c>
-      <c r="Q2" s="21">
-        <v>45738</v>
-      </c>
-      <c r="R2" s="21">
-        <v>45739</v>
-      </c>
-      <c r="S2" s="21">
-        <v>45745</v>
-      </c>
-      <c r="T2" s="21">
-        <v>45746</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" ht="15" spans="1:20">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21">
-        <v>45752</v>
-      </c>
-      <c r="L3" s="21">
-        <v>45753</v>
-      </c>
-      <c r="M3" s="21">
-        <v>45759</v>
-      </c>
-      <c r="N3" s="21">
-        <v>45760</v>
-      </c>
-      <c r="O3" s="21">
-        <v>45766</v>
-      </c>
-      <c r="P3" s="21">
-        <v>45767</v>
-      </c>
-      <c r="Q3" s="21">
-        <v>45773</v>
-      </c>
-      <c r="R3" s="21">
-        <v>45780</v>
-      </c>
-      <c r="S3" s="21">
-        <v>45782</v>
-      </c>
-      <c r="T3" s="21">
-        <v>45787</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" ht="15" spans="1:20">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21">
-        <v>45788</v>
-      </c>
-      <c r="L4" s="21">
-        <v>45794</v>
-      </c>
-      <c r="M4" s="21">
-        <v>45795</v>
-      </c>
-      <c r="N4" s="21">
-        <v>45801</v>
-      </c>
-      <c r="O4" s="21">
-        <v>45802</v>
-      </c>
-      <c r="P4" s="21">
-        <v>45808</v>
-      </c>
-      <c r="Q4" s="21">
-        <v>45809</v>
-      </c>
-      <c r="R4" s="21">
-        <v>45814</v>
-      </c>
-      <c r="S4" s="21">
-        <v>45816</v>
-      </c>
-      <c r="T4" s="21">
-        <v>45822</v>
-      </c>
-    </row>
-    <row r="5" ht="15" spans="1:12">
-      <c r="A5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="J2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="K2" s="29">
+        <v>46004</v>
+      </c>
+      <c r="L2" s="29"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="15"/>
+    <row r="12" s="2" customFormat="1" ht="15"/>
+    <row r="13" s="2" customFormat="1" ht="15"/>
+    <row r="14" s="2" customFormat="1" ht="15"/>
+    <row r="15" s="2" customFormat="1" ht="15"/>
+    <row r="16" s="2" customFormat="1" ht="15" spans="1:9">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="15" spans="1:9">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+    </row>
+    <row r="18" ht="17.5" spans="2:13">
+      <c r="B18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="21">
-        <v>45810</v>
-      </c>
-      <c r="K5" s="21">
-        <v>45815</v>
-      </c>
-      <c r="L5" s="21">
-        <v>45817</v>
-      </c>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="15"/>
-    <row r="16" s="2" customFormat="1" ht="15"/>
-    <row r="17" s="2" customFormat="1" ht="15"/>
-    <row r="18" s="2" customFormat="1" ht="15"/>
-    <row r="19" s="2" customFormat="1" ht="15"/>
-    <row r="20" s="2" customFormat="1" ht="15" spans="1:9">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="15" spans="1:9">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+    </row>
+    <row r="19" ht="17.5" spans="2:13">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+    </row>
+    <row r="20" ht="17.5" spans="2:12">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+    </row>
+    <row r="21" ht="17.5" spans="2:13">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
     </row>
     <row r="22" ht="17.5" spans="2:13">
-      <c r="B22" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -1881,78 +1802,14 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-    </row>
-    <row r="23" ht="17.5" spans="2:13">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-    </row>
-    <row r="24" ht="17.5" spans="2:12">
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-    </row>
-    <row r="25" ht="17.5" spans="2:13">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-    </row>
-    <row r="26" ht="17.5" spans="2:13">
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="B22:I26"/>
+  <mergeCells count="1">
+    <mergeCell ref="B18:I22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -1963,10 +1820,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U63"/>
+  <dimension ref="A1:U67"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="N56" sqref="N56"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2046,7 +1903,7 @@
         <v>19</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="15" spans="1:21">
@@ -2057,25 +1914,25 @@
         <v>21</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="J2" s="10">
         <v>45185</v>
@@ -2116,34 +1973,34 @@
     </row>
     <row r="3" customFormat="1" ht="15" spans="1:19">
       <c r="A3" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="I3" s="6" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="K3" s="10">
         <v>45248</v>
@@ -2181,25 +2038,25 @@
         <v>21</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J4" s="10">
         <v>45287</v>
@@ -2216,28 +2073,28 @@
         <v>21</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="J5" s="10" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="K5" s="10">
         <v>45255</v>
@@ -2270,31 +2127,31 @@
     </row>
     <row r="6" customFormat="1" ht="15" spans="1:20">
       <c r="A6" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J6" s="10">
         <v>45320</v>
@@ -2338,28 +2195,28 @@
         <v>21</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="K7" s="13">
         <v>45361</v>
@@ -2384,25 +2241,25 @@
         <v>21</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H8" s="7">
         <v>126</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J8" s="15">
         <v>45425</v>
@@ -2422,28 +2279,28 @@
         <v>20</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="J9" s="10">
         <v>45186</v>
@@ -2595,28 +2452,28 @@
         <v>21</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="K13" s="16">
         <v>45382</v>
@@ -2681,28 +2538,28 @@
         <v>21</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="K15" s="13">
         <v>45413</v>
@@ -2734,31 +2591,31 @@
         <v>20</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="K16" s="13">
         <v>45426</v>
@@ -2799,28 +2656,28 @@
         <v>21</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="K17" s="13">
         <v>45364</v>
@@ -2893,28 +2750,28 @@
         <v>21</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="K19" s="13">
         <v>45367</v>
@@ -2987,28 +2844,28 @@
         <v>21</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="K21" s="13">
         <v>45234</v>
@@ -3123,28 +2980,28 @@
         <v>21</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="K24" s="13">
         <v>45214</v>
@@ -3259,34 +3116,34 @@
     </row>
     <row r="27" customFormat="1" ht="15" spans="1:20">
       <c r="A27" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="K27" s="10">
         <v>45551</v>
@@ -3306,31 +3163,31 @@
         <v>20</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="K28" s="13">
         <v>45430</v>
@@ -3360,31 +3217,31 @@
         <v>20</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="K29" s="13">
         <v>45552</v>
@@ -3399,31 +3256,31 @@
     </row>
     <row r="30" customFormat="1" ht="15" spans="1:20">
       <c r="A30" s="6" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E30" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="G30" s="5" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="J30" s="10">
         <v>45543</v>
@@ -3459,28 +3316,28 @@
         <v>21</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D31" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>132</v>
-      </c>
       <c r="H31" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="K31" s="13">
         <v>45543</v>
@@ -3521,28 +3378,28 @@
         <v>21</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="K32" s="21">
         <v>45557</v>
@@ -3608,31 +3465,31 @@
         <v>20</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="K34" s="13">
         <v>45451</v>
@@ -3667,28 +3524,28 @@
         <v>21</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="J35" s="23" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="K35" s="21">
         <v>45643</v>
@@ -3839,31 +3696,31 @@
         <v>20</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="K39" s="21">
         <v>45551</v>
@@ -3967,25 +3824,25 @@
         <v>21</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="J42" s="21">
         <v>45556</v>
@@ -4107,25 +3964,25 @@
         <v>21</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="E45" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G45" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F45" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>156</v>
-      </c>
       <c r="H45" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="J45" s="21">
         <v>45778</v>
@@ -4149,28 +4006,28 @@
         <v>21</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="K46" s="24">
         <v>45551</v>
@@ -4282,31 +4139,31 @@
         <v>20</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E49" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="J49" s="20" t="s">
         <v>29</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="J49" s="20" t="s">
-        <v>51</v>
       </c>
       <c r="K49" s="21">
         <v>45781</v>
@@ -4328,26 +4185,66 @@
       </c>
     </row>
     <row r="50" customFormat="1" ht="15" spans="1:20">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="22"/>
-      <c r="Q50" s="22"/>
-      <c r="R50" s="22"/>
-      <c r="S50" s="22"/>
-      <c r="T50" s="22"/>
+      <c r="A50" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="J50" s="21">
+        <v>45710</v>
+      </c>
+      <c r="K50" s="21">
+        <v>45717</v>
+      </c>
+      <c r="L50" s="21">
+        <v>45718</v>
+      </c>
+      <c r="M50" s="21">
+        <v>45724</v>
+      </c>
+      <c r="N50" s="21">
+        <v>45725</v>
+      </c>
+      <c r="O50" s="21">
+        <v>45731</v>
+      </c>
+      <c r="P50" s="21">
+        <v>45732</v>
+      </c>
+      <c r="Q50" s="21">
+        <v>45738</v>
+      </c>
+      <c r="R50" s="21">
+        <v>45739</v>
+      </c>
+      <c r="S50" s="21">
+        <v>45745</v>
+      </c>
+      <c r="T50" s="21">
+        <v>45746</v>
+      </c>
     </row>
     <row r="51" customFormat="1" ht="15" spans="1:20">
       <c r="A51" s="5"/>
@@ -4359,17 +4256,37 @@
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="22"/>
-      <c r="O51" s="22"/>
-      <c r="P51" s="22"/>
-      <c r="Q51" s="22"/>
-      <c r="R51" s="22"/>
-      <c r="S51" s="22"/>
-      <c r="T51" s="22"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21">
+        <v>45752</v>
+      </c>
+      <c r="L51" s="21">
+        <v>45753</v>
+      </c>
+      <c r="M51" s="21">
+        <v>45759</v>
+      </c>
+      <c r="N51" s="21">
+        <v>45760</v>
+      </c>
+      <c r="O51" s="21">
+        <v>45766</v>
+      </c>
+      <c r="P51" s="21">
+        <v>45767</v>
+      </c>
+      <c r="Q51" s="21">
+        <v>45773</v>
+      </c>
+      <c r="R51" s="21">
+        <v>45780</v>
+      </c>
+      <c r="S51" s="21">
+        <v>45782</v>
+      </c>
+      <c r="T51" s="21">
+        <v>45787</v>
+      </c>
     </row>
     <row r="52" customFormat="1" ht="15" spans="1:20">
       <c r="A52" s="5"/>
@@ -4381,158 +4298,234 @@
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="22"/>
-      <c r="O52" s="22"/>
-      <c r="P52" s="22"/>
-      <c r="Q52" s="22"/>
-      <c r="R52" s="22"/>
-      <c r="S52" s="22"/>
-      <c r="T52" s="22"/>
-    </row>
-    <row r="53" customFormat="1" ht="15" spans="1:20">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="22"/>
-      <c r="O53" s="22"/>
-      <c r="P53" s="22"/>
-      <c r="Q53" s="22"/>
-      <c r="R53" s="22"/>
-      <c r="S53" s="22"/>
-      <c r="T53" s="22"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21">
+        <v>45788</v>
+      </c>
+      <c r="L52" s="21">
+        <v>45794</v>
+      </c>
+      <c r="M52" s="21">
+        <v>45795</v>
+      </c>
+      <c r="N52" s="21">
+        <v>45801</v>
+      </c>
+      <c r="O52" s="21">
+        <v>45802</v>
+      </c>
+      <c r="P52" s="21">
+        <v>45808</v>
+      </c>
+      <c r="Q52" s="21">
+        <v>45809</v>
+      </c>
+      <c r="R52" s="21">
+        <v>45814</v>
+      </c>
+      <c r="S52" s="21">
+        <v>45816</v>
+      </c>
+      <c r="T52" s="21">
+        <v>45822</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" ht="15" spans="1:12">
+      <c r="A53" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="J53" s="21">
+        <v>45810</v>
+      </c>
+      <c r="K53" s="21">
+        <v>45815</v>
+      </c>
+      <c r="L53" s="21">
+        <v>45817</v>
+      </c>
     </row>
     <row r="54" customFormat="1" ht="15" spans="1:20">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
+      <c r="E54" s="8"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="25"/>
-      <c r="L54" s="25"/>
-      <c r="M54" s="25"/>
-      <c r="N54" s="25"/>
-      <c r="O54" s="25"/>
-      <c r="P54" s="25"/>
-      <c r="Q54" s="25"/>
-      <c r="R54" s="25"/>
-      <c r="S54" s="27"/>
-      <c r="T54" s="27"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="22"/>
+      <c r="Q54" s="22"/>
+      <c r="R54" s="22"/>
+      <c r="S54" s="22"/>
+      <c r="T54" s="22"/>
     </row>
     <row r="55" customFormat="1" ht="15" spans="1:20">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
+      <c r="E55" s="8"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="25"/>
-      <c r="L55" s="25"/>
-      <c r="M55" s="25"/>
-      <c r="N55" s="25"/>
-      <c r="O55" s="25"/>
-      <c r="P55" s="25"/>
-      <c r="Q55" s="25"/>
-      <c r="R55" s="25"/>
-      <c r="S55" s="27"/>
-      <c r="T55" s="27"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="22"/>
+      <c r="S55" s="22"/>
+      <c r="T55" s="22"/>
     </row>
     <row r="56" customFormat="1" ht="15" spans="1:20">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
+      <c r="E56" s="8"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="25"/>
-      <c r="L56" s="25"/>
-      <c r="M56" s="25"/>
-      <c r="N56" s="25"/>
-      <c r="O56" s="25"/>
-      <c r="P56" s="25"/>
-      <c r="Q56" s="25"/>
-      <c r="R56" s="25"/>
-      <c r="S56" s="27"/>
-      <c r="T56" s="27"/>
-    </row>
-    <row r="57" spans="2:11">
-      <c r="B57" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
-    </row>
-    <row r="58" spans="2:11">
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-    </row>
-    <row r="59" spans="2:11">
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
-    </row>
-    <row r="60" spans="2:11">
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="22"/>
+      <c r="S56" s="22"/>
+      <c r="T56" s="22"/>
+    </row>
+    <row r="57" customFormat="1" ht="15" spans="1:20">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="22"/>
+      <c r="S57" s="22"/>
+      <c r="T57" s="22"/>
+    </row>
+    <row r="58" customFormat="1" ht="15" spans="1:20">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="25"/>
+      <c r="O58" s="25"/>
+      <c r="P58" s="25"/>
+      <c r="Q58" s="25"/>
+      <c r="R58" s="25"/>
+      <c r="S58" s="27"/>
+      <c r="T58" s="27"/>
+    </row>
+    <row r="59" customFormat="1" ht="15" spans="1:20">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="25"/>
+      <c r="O59" s="25"/>
+      <c r="P59" s="25"/>
+      <c r="Q59" s="25"/>
+      <c r="R59" s="25"/>
+      <c r="S59" s="27"/>
+      <c r="T59" s="27"/>
+    </row>
+    <row r="60" customFormat="1" ht="15" spans="1:20">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="25"/>
+      <c r="O60" s="25"/>
+      <c r="P60" s="25"/>
+      <c r="Q60" s="25"/>
+      <c r="R60" s="25"/>
+      <c r="S60" s="27"/>
+      <c r="T60" s="27"/>
     </row>
     <row r="61" spans="2:11">
-      <c r="B61" s="9"/>
+      <c r="B61" s="9" t="s">
+        <v>170</v>
+      </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
@@ -4567,8 +4560,56 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
     </row>
+    <row r="64" spans="2:11">
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+    </row>
+    <row r="65" spans="2:11">
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+    </row>
+    <row r="66" spans="2:11">
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+    </row>
+    <row r="67" spans="2:11">
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="110">
+  <mergeCells count="120">
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A17:A18"/>
@@ -4580,6 +4621,7 @@
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="A42:A44"/>
     <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A50:A52"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B17:B18"/>
@@ -4591,6 +4633,7 @@
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B50:B52"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C17:C18"/>
@@ -4602,6 +4645,7 @@
     <mergeCell ref="C39:C41"/>
     <mergeCell ref="C42:C44"/>
     <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C50:C52"/>
     <mergeCell ref="D9:D12"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D17:D18"/>
@@ -4613,6 +4657,7 @@
     <mergeCell ref="D39:D41"/>
     <mergeCell ref="D42:D44"/>
     <mergeCell ref="D46:D48"/>
+    <mergeCell ref="D50:D52"/>
     <mergeCell ref="E9:E12"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="E17:E18"/>
@@ -4624,6 +4669,7 @@
     <mergeCell ref="E39:E41"/>
     <mergeCell ref="E42:E44"/>
     <mergeCell ref="E46:E48"/>
+    <mergeCell ref="E50:E52"/>
     <mergeCell ref="F9:F12"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="F17:F18"/>
@@ -4635,6 +4681,7 @@
     <mergeCell ref="F39:F41"/>
     <mergeCell ref="F42:F44"/>
     <mergeCell ref="F46:F48"/>
+    <mergeCell ref="F50:F52"/>
     <mergeCell ref="G9:G12"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="G17:G18"/>
@@ -4646,6 +4693,7 @@
     <mergeCell ref="G39:G41"/>
     <mergeCell ref="G42:G44"/>
     <mergeCell ref="G46:G48"/>
+    <mergeCell ref="G50:G52"/>
     <mergeCell ref="H9:H12"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="H17:H18"/>
@@ -4657,6 +4705,7 @@
     <mergeCell ref="H39:H41"/>
     <mergeCell ref="H42:H44"/>
     <mergeCell ref="H46:H48"/>
+    <mergeCell ref="H50:H52"/>
     <mergeCell ref="I9:I12"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="I17:I18"/>
@@ -4668,6 +4717,7 @@
     <mergeCell ref="I39:I41"/>
     <mergeCell ref="I42:I44"/>
     <mergeCell ref="I46:I48"/>
+    <mergeCell ref="I50:I52"/>
     <mergeCell ref="J9:J12"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="J17:J18"/>
@@ -4678,7 +4728,8 @@
     <mergeCell ref="J39:J41"/>
     <mergeCell ref="J42:J44"/>
     <mergeCell ref="J46:J48"/>
-    <mergeCell ref="B57:K63"/>
+    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="B61:K67"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -108,7 +108,7 @@
   </si>
   <si>
     <t>转账时间(灰色表示线上上课（课时费1小时100），绿色表示课时费已发)：
-星期天培训下个月20号;知新识途下个月20号；一尔优当月1号和15号；
+一尔优当月1号和15号；一对一教育15号
 目标：安芯宇：135</t>
   </si>
   <si>
@@ -532,7 +532,7 @@
   <si>
     <t xml:space="preserve">绿色表示课时费已发；
 转账时间：新耀科技每月20号；博瑞佰艺下月10号；
-掌学教育是下月15号;豌豆文化每月10号；
+掌学教育是下月15号;豌豆文化每月10号；星期天培训下个月20号;知新识途下个月20号；
 姜异瞳的课被机构坑了，白上一节课，吸取教训，下次提前问清楚是试课还是正式上课
 </t>
   </si>
@@ -1189,7 +1189,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1266,9 +1266,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1595,7 +1592,7 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1705,10 +1702,10 @@
       <c r="J2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="29">
+      <c r="K2" s="21">
         <v>46004</v>
       </c>
-      <c r="L2" s="29"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="11" s="2" customFormat="1" ht="15"/>
     <row r="12" s="2" customFormat="1" ht="15"/>
@@ -1748,10 +1745,10 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
     </row>
     <row r="19" ht="17.5" spans="2:13">
       <c r="B19" s="9"/>
@@ -1762,10 +1759,10 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
     </row>
     <row r="20" ht="17.5" spans="2:12">
       <c r="B20" s="9"/>
@@ -1776,8 +1773,8 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
     </row>
     <row r="21" ht="17.5" spans="2:13">
       <c r="B21" s="9"/>
@@ -1788,10 +1785,10 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
     </row>
     <row r="22" ht="17.5" spans="2:13">
       <c r="B22" s="9"/>
@@ -1802,10 +1799,10 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1823,7 +1820,7 @@
   <dimension ref="A1:U67"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -1189,7 +1189,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1266,6 +1266,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1592,7 +1595,7 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1705,7 +1708,9 @@
       <c r="K2" s="21">
         <v>46004</v>
       </c>
-      <c r="L2" s="22"/>
+      <c r="L2" s="29">
+        <v>46011</v>
+      </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="15"/>
     <row r="12" s="2" customFormat="1" ht="15"/>
@@ -1745,10 +1750,10 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
     </row>
     <row r="19" ht="17.5" spans="2:13">
       <c r="B19" s="9"/>
@@ -1759,10 +1764,10 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
     </row>
     <row r="20" ht="17.5" spans="2:12">
       <c r="B20" s="9"/>
@@ -1773,8 +1778,8 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
     </row>
     <row r="21" ht="17.5" spans="2:13">
       <c r="B21" s="9"/>
@@ -1785,10 +1790,10 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
     </row>
     <row r="22" ht="17.5" spans="2:13">
       <c r="B22" s="9"/>
@@ -1799,10 +1804,10 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -1189,7 +1189,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1266,9 +1266,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1595,7 +1592,7 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1674,7 +1671,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15" spans="1:12">
+    <row r="2" customFormat="1" ht="15" spans="1:13">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -1708,8 +1705,11 @@
       <c r="K2" s="21">
         <v>46004</v>
       </c>
-      <c r="L2" s="29">
+      <c r="L2" s="22">
         <v>46011</v>
+      </c>
+      <c r="M2" s="22">
+        <v>46018</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="15"/>
@@ -1750,10 +1750,10 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
     </row>
     <row r="19" ht="17.5" spans="2:13">
       <c r="B19" s="9"/>
@@ -1764,10 +1764,10 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
     </row>
     <row r="20" ht="17.5" spans="2:12">
       <c r="B20" s="9"/>
@@ -1778,8 +1778,8 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
     </row>
     <row r="21" ht="17.5" spans="2:13">
       <c r="B21" s="9"/>
@@ -1790,10 +1790,10 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
     </row>
     <row r="22" ht="17.5" spans="2:13">
       <c r="B22" s="9"/>
@@ -1804,10 +1804,10 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12330"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Doing" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
   </si>
   <si>
     <t>转账时间(灰色表示线上上课（课时费1小时100），绿色表示课时费已发)：
-一尔优当月1号和15号；一对一教育15号
+一尔优和一对一教育当月1号和15号
 目标：安芯宇：135</t>
   </si>
   <si>
@@ -1592,24 +1592,24 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="5.58181818181818" customWidth="1"/>
-    <col min="3" max="3" width="11.1818181818182" customWidth="1"/>
+    <col min="1" max="2" width="5.58333333333333" customWidth="1"/>
+    <col min="3" max="3" width="11.1833333333333" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="20.8181818181818" customWidth="1"/>
+    <col min="5" max="5" width="20.8166666666667" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
-    <col min="7" max="7" width="26.5454545454545" customWidth="1"/>
-    <col min="8" max="8" width="9.87272727272727" customWidth="1"/>
-    <col min="9" max="9" width="9.12727272727273" customWidth="1"/>
-    <col min="10" max="10" width="10.8363636363636" customWidth="1"/>
+    <col min="7" max="7" width="26.5416666666667" customWidth="1"/>
+    <col min="8" max="8" width="9.875" customWidth="1"/>
+    <col min="9" max="9" width="9.125" customWidth="1"/>
+    <col min="10" max="10" width="10.8333333333333" customWidth="1"/>
     <col min="11" max="20" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:20">
+    <row r="1" ht="15.75" spans="1:20">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15" spans="1:13">
+    <row r="2" customFormat="1" ht="15.75" spans="1:13">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -1705,19 +1705,19 @@
       <c r="K2" s="21">
         <v>46004</v>
       </c>
-      <c r="L2" s="22">
+      <c r="L2" s="21">
         <v>46011</v>
       </c>
-      <c r="M2" s="22">
+      <c r="M2" s="21">
         <v>46018</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="15"/>
-    <row r="12" s="2" customFormat="1" ht="15"/>
-    <row r="13" s="2" customFormat="1" ht="15"/>
-    <row r="14" s="2" customFormat="1" ht="15"/>
-    <row r="15" s="2" customFormat="1" ht="15"/>
-    <row r="16" s="2" customFormat="1" ht="15" spans="1:9">
+    <row r="11" s="2" customFormat="1" ht="15.75"/>
+    <row r="12" s="2" customFormat="1" ht="15.75"/>
+    <row r="13" s="2" customFormat="1" ht="15.75"/>
+    <row r="14" s="2" customFormat="1" ht="15.75"/>
+    <row r="15" s="2" customFormat="1" ht="15.75"/>
+    <row r="16" s="2" customFormat="1" ht="15.75" spans="1:9">
       <c r="A16" s="28"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
@@ -1728,7 +1728,7 @@
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
     </row>
-    <row r="17" s="2" customFormat="1" ht="15" spans="1:9">
+    <row r="17" s="2" customFormat="1" ht="15.75" spans="1:9">
       <c r="A17" s="28"/>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
@@ -1739,7 +1739,7 @@
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
     </row>
-    <row r="18" ht="17.5" spans="2:13">
+    <row r="18" ht="18.75" spans="2:13">
       <c r="B18" s="9" t="s">
         <v>30</v>
       </c>
@@ -1755,7 +1755,7 @@
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
     </row>
-    <row r="19" ht="17.5" spans="2:13">
+    <row r="19" ht="18.75" spans="2:13">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -1769,7 +1769,7 @@
       <c r="L19" s="29"/>
       <c r="M19" s="29"/>
     </row>
-    <row r="20" ht="17.5" spans="2:12">
+    <row r="20" ht="18.75" spans="2:12">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -1781,7 +1781,7 @@
       <c r="K20" s="29"/>
       <c r="L20" s="29"/>
     </row>
-    <row r="21" ht="17.5" spans="2:13">
+    <row r="21" ht="18.75" spans="2:13">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1795,7 +1795,7 @@
       <c r="L21" s="29"/>
       <c r="M21" s="29"/>
     </row>
-    <row r="22" ht="17.5" spans="2:13">
+    <row r="22" ht="18.75" spans="2:13">
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1828,22 +1828,22 @@
       <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="4.58181818181818" customWidth="1"/>
-    <col min="3" max="3" width="10.8727272727273" customWidth="1"/>
-    <col min="4" max="4" width="17.7272727272727" customWidth="1"/>
-    <col min="5" max="5" width="23.1818181818182" customWidth="1"/>
-    <col min="6" max="6" width="7.33636363636364" customWidth="1"/>
-    <col min="7" max="7" width="27.1272727272727" customWidth="1"/>
-    <col min="8" max="9" width="9.58181818181818" customWidth="1"/>
-    <col min="10" max="10" width="10.6272727272727" customWidth="1"/>
-    <col min="11" max="20" width="11.2727272727273" customWidth="1"/>
-    <col min="21" max="21" width="10.7545454545455" customWidth="1"/>
+    <col min="1" max="2" width="4.58333333333333" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="17.725" customWidth="1"/>
+    <col min="5" max="5" width="23.1833333333333" customWidth="1"/>
+    <col min="6" max="6" width="7.33333333333333" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+    <col min="8" max="9" width="9.58333333333333" customWidth="1"/>
+    <col min="10" max="10" width="10.625" customWidth="1"/>
+    <col min="11" max="20" width="11.275" customWidth="1"/>
+    <col min="21" max="21" width="10.7583333333333" customWidth="1"/>
     <col min="22" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:21">
+    <row r="1" ht="15.75" spans="1:21">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15" spans="1:21">
+    <row r="2" customFormat="1" ht="15.75" spans="1:21">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15" spans="1:19">
+    <row r="3" customFormat="1" ht="15.75" spans="1:19">
       <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15" spans="1:11">
+    <row r="4" customFormat="1" ht="15.75" spans="1:11">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15" spans="1:20">
+    <row r="5" customFormat="1" ht="15.75" spans="1:20">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" customFormat="1" ht="15" spans="1:20">
+    <row r="6" customFormat="1" ht="15.75" spans="1:20">
       <c r="A6" s="5" t="s">
         <v>39</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15" spans="1:20">
+    <row r="7" customFormat="1" ht="15.75" spans="1:20">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
@@ -2276,7 +2276,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
     </row>
-    <row r="9" customFormat="1" ht="15" spans="1:20">
+    <row r="9" customFormat="1" ht="15.75" spans="1:20">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15" spans="1:20">
+    <row r="10" customFormat="1" ht="15.75" spans="1:20">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2380,7 +2380,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15" spans="1:20">
+    <row r="11" customFormat="1" ht="15.75" spans="1:20">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -2422,7 +2422,7 @@
         <v>45445</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15" spans="1:20">
+    <row r="12" customFormat="1" ht="15.75" spans="1:20">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -2446,7 +2446,7 @@
       <c r="S12" s="19"/>
       <c r="T12" s="19"/>
     </row>
-    <row r="13" customFormat="1" ht="15" spans="1:20">
+    <row r="13" customFormat="1" ht="15.75" spans="1:20">
       <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="15" spans="1:20">
+    <row r="14" customFormat="1" ht="15.75" spans="1:20">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -2532,7 +2532,7 @@
       <c r="S14" s="17"/>
       <c r="T14" s="19"/>
     </row>
-    <row r="15" customFormat="1" ht="15" spans="1:20">
+    <row r="15" customFormat="1" ht="15.75" spans="1:20">
       <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
@@ -2588,7 +2588,7 @@
       <c r="S15" s="17"/>
       <c r="T15" s="19"/>
     </row>
-    <row r="16" customFormat="1" ht="15" spans="1:20">
+    <row r="16" customFormat="1" ht="15.75" spans="1:20">
       <c r="A16" s="6" t="s">
         <v>20</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="15" spans="1:20">
+    <row r="17" customFormat="1" ht="15.75" spans="1:20">
       <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="15" spans="1:20">
+    <row r="18" customFormat="1" ht="15.75" spans="1:20">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -2744,7 +2744,7 @@
       <c r="S18" s="17"/>
       <c r="T18" s="17"/>
     </row>
-    <row r="19" customFormat="1" ht="15" spans="1:20">
+    <row r="19" customFormat="1" ht="15.75" spans="1:20">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>45451</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="15" spans="1:20">
+    <row r="20" customFormat="1" ht="15.75" spans="1:20">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -2838,7 +2838,7 @@
       <c r="S20" s="17"/>
       <c r="T20" s="17"/>
     </row>
-    <row r="21" customFormat="1" ht="15" spans="1:20">
+    <row r="21" customFormat="1" ht="15.75" spans="1:20">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="15" spans="1:20">
+    <row r="22" customFormat="1" ht="15.75" spans="1:20">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -2942,7 +2942,7 @@
         <v>45423</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15" spans="1:20">
+    <row r="23" customFormat="1" ht="15.75" spans="1:20">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -2974,7 +2974,7 @@
       <c r="S23" s="19"/>
       <c r="T23" s="19"/>
     </row>
-    <row r="24" customFormat="1" ht="15" spans="1:20">
+    <row r="24" customFormat="1" ht="15.75" spans="1:20">
       <c r="A24" s="5" t="s">
         <v>20</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>45325</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="15" spans="1:20">
+    <row r="25" customFormat="1" ht="15.75" spans="1:20">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -3078,7 +3078,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15" spans="1:20">
+    <row r="26" s="1" customFormat="1" ht="15.75" spans="1:20">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -3116,7 +3116,7 @@
       <c r="S26" s="17"/>
       <c r="T26" s="17"/>
     </row>
-    <row r="27" customFormat="1" ht="15" spans="1:20">
+    <row r="27" customFormat="1" ht="15.75" spans="1:20">
       <c r="A27" s="6" t="s">
         <v>103</v>
       </c>
@@ -3160,7 +3160,7 @@
       <c r="S27" s="25"/>
       <c r="T27" s="25"/>
     </row>
-    <row r="28" customFormat="1" ht="15" spans="1:20">
+    <row r="28" customFormat="1" ht="15.75" spans="1:20">
       <c r="A28" s="6" t="s">
         <v>20</v>
       </c>
@@ -3214,7 +3214,7 @@
       <c r="S28" s="17"/>
       <c r="T28" s="17"/>
     </row>
-    <row r="29" customFormat="1" ht="15" spans="1:18">
+    <row r="29" customFormat="1" ht="15.75" spans="1:18">
       <c r="A29" s="6" t="s">
         <v>20</v>
       </c>
@@ -3256,7 +3256,7 @@
       <c r="Q29" s="17"/>
       <c r="R29" s="17"/>
     </row>
-    <row r="30" customFormat="1" ht="15" spans="1:20">
+    <row r="30" customFormat="1" ht="15.75" spans="1:20">
       <c r="A30" s="6" t="s">
         <v>116</v>
       </c>
@@ -3310,7 +3310,7 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
     </row>
-    <row r="31" customFormat="1" ht="15" spans="1:20">
+    <row r="31" customFormat="1" ht="15.75" spans="1:20">
       <c r="A31" s="6" t="s">
         <v>20</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="32" customFormat="1" ht="15" spans="1:20">
+    <row r="32" customFormat="1" ht="15.75" spans="1:20">
       <c r="A32" s="5" t="s">
         <v>20</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="33" customFormat="1" ht="15" spans="1:20">
+    <row r="33" customFormat="1" ht="15.75" spans="1:20">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -3462,7 +3462,7 @@
       <c r="S33" s="22"/>
       <c r="T33" s="22"/>
     </row>
-    <row r="34" customFormat="1" ht="15" spans="1:20">
+    <row r="34" customFormat="1" ht="15.75" spans="1:20">
       <c r="A34" s="6" t="s">
         <v>20</v>
       </c>
@@ -3518,7 +3518,7 @@
       <c r="S34" s="17"/>
       <c r="T34" s="17"/>
     </row>
-    <row r="35" customFormat="1" ht="15" spans="1:20">
+    <row r="35" customFormat="1" ht="15.75" spans="1:20">
       <c r="A35" s="5" t="s">
         <v>20</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>45670</v>
       </c>
     </row>
-    <row r="36" customFormat="1" ht="15" spans="1:20">
+    <row r="36" customFormat="1" ht="15.75" spans="1:20">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -3622,7 +3622,7 @@
         <v>45691</v>
       </c>
     </row>
-    <row r="37" customFormat="1" ht="15" spans="1:20">
+    <row r="37" customFormat="1" ht="15.75" spans="1:20">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -3664,7 +3664,7 @@
         <v>45712</v>
       </c>
     </row>
-    <row r="38" customFormat="1" ht="15" spans="1:20">
+    <row r="38" customFormat="1" ht="15.75" spans="1:20">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -3693,7 +3693,7 @@
       <c r="S38" s="22"/>
       <c r="T38" s="22"/>
     </row>
-    <row r="39" customFormat="1" ht="15" spans="1:20">
+    <row r="39" customFormat="1" ht="15.75" spans="1:20">
       <c r="A39" s="5" t="s">
         <v>20</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="40" customFormat="1" ht="15" spans="1:20">
+    <row r="40" customFormat="1" ht="15.75" spans="1:20">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -3797,7 +3797,7 @@
         <v>45718</v>
       </c>
     </row>
-    <row r="41" customFormat="1" ht="15" spans="1:13">
+    <row r="41" customFormat="1" ht="15.75" spans="1:13">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -3818,7 +3818,7 @@
         <v>45746</v>
       </c>
     </row>
-    <row r="42" customFormat="1" ht="15" spans="1:20">
+    <row r="42" customFormat="1" ht="15.75" spans="1:20">
       <c r="A42" s="5" t="s">
         <v>20</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>45623</v>
       </c>
     </row>
-    <row r="43" customFormat="1" ht="15" spans="1:20">
+    <row r="43" customFormat="1" ht="15.75" spans="1:20">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -3922,7 +3922,7 @@
         <v>45703</v>
       </c>
     </row>
-    <row r="44" customFormat="1" ht="15" spans="1:20">
+    <row r="44" customFormat="1" ht="15.75" spans="1:20">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -4000,7 +4000,7 @@
       <c r="S45" s="22"/>
       <c r="T45" s="22"/>
     </row>
-    <row r="46" customFormat="1" ht="15" spans="1:20">
+    <row r="46" customFormat="1" ht="15.75" spans="1:20">
       <c r="A46" s="5" t="s">
         <v>20</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>45620</v>
       </c>
     </row>
-    <row r="47" customFormat="1" ht="15" spans="1:20">
+    <row r="47" customFormat="1" ht="15.75" spans="1:20">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -4104,7 +4104,7 @@
         <v>45746</v>
       </c>
     </row>
-    <row r="48" customFormat="1" ht="15" spans="1:20">
+    <row r="48" customFormat="1" ht="15.75" spans="1:20">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -4136,7 +4136,7 @@
       <c r="S48" s="22"/>
       <c r="T48" s="22"/>
     </row>
-    <row r="49" s="2" customFormat="1" ht="15" spans="1:16">
+    <row r="49" s="2" customFormat="1" ht="15.75" spans="1:16">
       <c r="A49" s="2" t="s">
         <v>20</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>45823</v>
       </c>
     </row>
-    <row r="50" customFormat="1" ht="15" spans="1:20">
+    <row r="50" customFormat="1" ht="15.75" spans="1:20">
       <c r="A50" s="5" t="s">
         <v>20</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>45746</v>
       </c>
     </row>
-    <row r="51" customFormat="1" ht="15" spans="1:20">
+    <row r="51" customFormat="1" ht="15.75" spans="1:20">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -4290,7 +4290,7 @@
         <v>45787</v>
       </c>
     </row>
-    <row r="52" customFormat="1" ht="15" spans="1:20">
+    <row r="52" customFormat="1" ht="15.75" spans="1:20">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -4332,7 +4332,7 @@
         <v>45822</v>
       </c>
     </row>
-    <row r="53" customFormat="1" ht="15" spans="1:12">
+    <row r="53" customFormat="1" ht="15.75" spans="1:12">
       <c r="A53" s="5" t="s">
         <v>20</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>45817</v>
       </c>
     </row>
-    <row r="54" customFormat="1" ht="15" spans="1:20">
+    <row r="54" customFormat="1" ht="15.75" spans="1:20">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -4392,7 +4392,7 @@
       <c r="S54" s="22"/>
       <c r="T54" s="22"/>
     </row>
-    <row r="55" customFormat="1" ht="15" spans="1:20">
+    <row r="55" customFormat="1" ht="15.75" spans="1:20">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -4414,7 +4414,7 @@
       <c r="S55" s="22"/>
       <c r="T55" s="22"/>
     </row>
-    <row r="56" customFormat="1" ht="15" spans="1:20">
+    <row r="56" customFormat="1" ht="15.75" spans="1:20">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -4436,7 +4436,7 @@
       <c r="S56" s="22"/>
       <c r="T56" s="22"/>
     </row>
-    <row r="57" customFormat="1" ht="15" spans="1:20">
+    <row r="57" customFormat="1" ht="15.75" spans="1:20">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -4458,7 +4458,7 @@
       <c r="S57" s="22"/>
       <c r="T57" s="22"/>
     </row>
-    <row r="58" customFormat="1" ht="15" spans="1:20">
+    <row r="58" customFormat="1" ht="15.75" spans="1:20">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -4480,7 +4480,7 @@
       <c r="S58" s="27"/>
       <c r="T58" s="27"/>
     </row>
-    <row r="59" customFormat="1" ht="15" spans="1:20">
+    <row r="59" customFormat="1" ht="15.75" spans="1:20">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -4502,7 +4502,7 @@
       <c r="S59" s="27"/>
       <c r="T59" s="27"/>
     </row>
-    <row r="60" customFormat="1" ht="15" spans="1:20">
+    <row r="60" customFormat="1" ht="15.75" spans="1:20">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="25600" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Doing" sheetId="1" r:id="rId1"/>
@@ -1189,7 +1189,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1266,6 +1266,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1592,24 +1595,24 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="2" width="5.58333333333333" customWidth="1"/>
-    <col min="3" max="3" width="11.1833333333333" customWidth="1"/>
+    <col min="1" max="2" width="5.58181818181818" customWidth="1"/>
+    <col min="3" max="3" width="11.1818181818182" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="20.8166666666667" customWidth="1"/>
+    <col min="5" max="5" width="20.8181818181818" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
-    <col min="7" max="7" width="26.5416666666667" customWidth="1"/>
-    <col min="8" max="8" width="9.875" customWidth="1"/>
-    <col min="9" max="9" width="9.125" customWidth="1"/>
-    <col min="10" max="10" width="10.8333333333333" customWidth="1"/>
+    <col min="7" max="7" width="26.5454545454545" customWidth="1"/>
+    <col min="8" max="8" width="9.87272727272727" customWidth="1"/>
+    <col min="9" max="9" width="9.12727272727273" customWidth="1"/>
+    <col min="10" max="10" width="10.8363636363636" customWidth="1"/>
     <col min="11" max="20" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:20">
+    <row r="1" ht="15" spans="1:20">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1671,7 +1674,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.75" spans="1:13">
+    <row r="2" customFormat="1" ht="15" spans="1:14">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -1711,13 +1714,16 @@
       <c r="M2" s="21">
         <v>46018</v>
       </c>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="15.75"/>
-    <row r="12" s="2" customFormat="1" ht="15.75"/>
-    <row r="13" s="2" customFormat="1" ht="15.75"/>
-    <row r="14" s="2" customFormat="1" ht="15.75"/>
-    <row r="15" s="2" customFormat="1" ht="15.75"/>
-    <row r="16" s="2" customFormat="1" ht="15.75" spans="1:9">
+      <c r="N2" s="29">
+        <v>46025</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="15"/>
+    <row r="12" s="2" customFormat="1" ht="15"/>
+    <row r="13" s="2" customFormat="1" ht="15"/>
+    <row r="14" s="2" customFormat="1" ht="15"/>
+    <row r="15" s="2" customFormat="1" ht="15"/>
+    <row r="16" s="2" customFormat="1" ht="15" spans="1:9">
       <c r="A16" s="28"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
@@ -1728,7 +1734,7 @@
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
     </row>
-    <row r="17" s="2" customFormat="1" ht="15.75" spans="1:9">
+    <row r="17" s="2" customFormat="1" ht="15" spans="1:9">
       <c r="A17" s="28"/>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
@@ -1739,7 +1745,7 @@
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
     </row>
-    <row r="18" ht="18.75" spans="2:13">
+    <row r="18" ht="17.5" spans="2:13">
       <c r="B18" s="9" t="s">
         <v>30</v>
       </c>
@@ -1750,12 +1756,12 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-    </row>
-    <row r="19" ht="18.75" spans="2:13">
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+    </row>
+    <row r="19" ht="17.5" spans="2:13">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -1764,12 +1770,12 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-    </row>
-    <row r="20" ht="18.75" spans="2:12">
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+    </row>
+    <row r="20" ht="17.5" spans="2:12">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -1778,10 +1784,10 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-    </row>
-    <row r="21" ht="18.75" spans="2:13">
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+    </row>
+    <row r="21" ht="17.5" spans="2:13">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1790,12 +1796,12 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-    </row>
-    <row r="22" ht="18.75" spans="2:13">
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+    </row>
+    <row r="22" ht="17.5" spans="2:13">
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1804,10 +1810,10 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1828,22 +1834,22 @@
       <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="2" width="4.58333333333333" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="17.725" customWidth="1"/>
-    <col min="5" max="5" width="23.1833333333333" customWidth="1"/>
-    <col min="6" max="6" width="7.33333333333333" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-    <col min="8" max="9" width="9.58333333333333" customWidth="1"/>
-    <col min="10" max="10" width="10.625" customWidth="1"/>
-    <col min="11" max="20" width="11.275" customWidth="1"/>
-    <col min="21" max="21" width="10.7583333333333" customWidth="1"/>
+    <col min="1" max="2" width="4.58181818181818" customWidth="1"/>
+    <col min="3" max="3" width="10.8727272727273" customWidth="1"/>
+    <col min="4" max="4" width="17.7272727272727" customWidth="1"/>
+    <col min="5" max="5" width="23.1818181818182" customWidth="1"/>
+    <col min="6" max="6" width="7.33636363636364" customWidth="1"/>
+    <col min="7" max="7" width="27.1272727272727" customWidth="1"/>
+    <col min="8" max="9" width="9.58181818181818" customWidth="1"/>
+    <col min="10" max="10" width="10.6272727272727" customWidth="1"/>
+    <col min="11" max="20" width="11.2727272727273" customWidth="1"/>
+    <col min="21" max="21" width="10.7545454545455" customWidth="1"/>
     <col min="22" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:21">
+    <row r="1" ht="15" spans="1:21">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1908,7 +1914,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.75" spans="1:21">
+    <row r="2" customFormat="1" ht="15" spans="1:21">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -1973,7 +1979,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15.75" spans="1:19">
+    <row r="3" customFormat="1" ht="15" spans="1:19">
       <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
@@ -2032,7 +2038,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.75" spans="1:11">
+    <row r="4" customFormat="1" ht="15" spans="1:11">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -2067,7 +2073,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15.75" spans="1:20">
+    <row r="5" customFormat="1" ht="15" spans="1:20">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -2127,7 +2133,7 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" customFormat="1" ht="15.75" spans="1:20">
+    <row r="6" customFormat="1" ht="15" spans="1:20">
       <c r="A6" s="5" t="s">
         <v>39</v>
       </c>
@@ -2189,7 +2195,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.75" spans="1:20">
+    <row r="7" customFormat="1" ht="15" spans="1:20">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
@@ -2276,7 +2282,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
     </row>
-    <row r="9" customFormat="1" ht="15.75" spans="1:20">
+    <row r="9" customFormat="1" ht="15" spans="1:20">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
@@ -2338,7 +2344,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.75" spans="1:20">
+    <row r="10" customFormat="1" ht="15" spans="1:20">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2380,7 +2386,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15.75" spans="1:20">
+    <row r="11" customFormat="1" ht="15" spans="1:20">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -2422,7 +2428,7 @@
         <v>45445</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15.75" spans="1:20">
+    <row r="12" customFormat="1" ht="15" spans="1:20">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -2446,7 +2452,7 @@
       <c r="S12" s="19"/>
       <c r="T12" s="19"/>
     </row>
-    <row r="13" customFormat="1" ht="15.75" spans="1:20">
+    <row r="13" customFormat="1" ht="15" spans="1:20">
       <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
@@ -2508,7 +2514,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="15.75" spans="1:20">
+    <row r="14" customFormat="1" ht="15" spans="1:20">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -2532,7 +2538,7 @@
       <c r="S14" s="17"/>
       <c r="T14" s="19"/>
     </row>
-    <row r="15" customFormat="1" ht="15.75" spans="1:20">
+    <row r="15" customFormat="1" ht="15" spans="1:20">
       <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
@@ -2588,7 +2594,7 @@
       <c r="S15" s="17"/>
       <c r="T15" s="19"/>
     </row>
-    <row r="16" customFormat="1" ht="15.75" spans="1:20">
+    <row r="16" customFormat="1" ht="15" spans="1:20">
       <c r="A16" s="6" t="s">
         <v>20</v>
       </c>
@@ -2650,7 +2656,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="15.75" spans="1:20">
+    <row r="17" customFormat="1" ht="15" spans="1:20">
       <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
@@ -2712,7 +2718,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="15.75" spans="1:20">
+    <row r="18" customFormat="1" ht="15" spans="1:20">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -2744,7 +2750,7 @@
       <c r="S18" s="17"/>
       <c r="T18" s="17"/>
     </row>
-    <row r="19" customFormat="1" ht="15.75" spans="1:20">
+    <row r="19" customFormat="1" ht="15" spans="1:20">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
@@ -2806,7 +2812,7 @@
         <v>45451</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="15.75" spans="1:20">
+    <row r="20" customFormat="1" ht="15" spans="1:20">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -2838,7 +2844,7 @@
       <c r="S20" s="17"/>
       <c r="T20" s="17"/>
     </row>
-    <row r="21" customFormat="1" ht="15.75" spans="1:20">
+    <row r="21" customFormat="1" ht="15" spans="1:20">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
@@ -2900,7 +2906,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="15.75" spans="1:20">
+    <row r="22" customFormat="1" ht="15" spans="1:20">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -2942,7 +2948,7 @@
         <v>45423</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15.75" spans="1:20">
+    <row r="23" customFormat="1" ht="15" spans="1:20">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -2974,7 +2980,7 @@
       <c r="S23" s="19"/>
       <c r="T23" s="19"/>
     </row>
-    <row r="24" customFormat="1" ht="15.75" spans="1:20">
+    <row r="24" customFormat="1" ht="15" spans="1:20">
       <c r="A24" s="5" t="s">
         <v>20</v>
       </c>
@@ -3036,7 +3042,7 @@
         <v>45325</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="15.75" spans="1:20">
+    <row r="25" customFormat="1" ht="15" spans="1:20">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -3078,7 +3084,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15.75" spans="1:20">
+    <row r="26" s="1" customFormat="1" ht="15" spans="1:20">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -3116,7 +3122,7 @@
       <c r="S26" s="17"/>
       <c r="T26" s="17"/>
     </row>
-    <row r="27" customFormat="1" ht="15.75" spans="1:20">
+    <row r="27" customFormat="1" ht="15" spans="1:20">
       <c r="A27" s="6" t="s">
         <v>103</v>
       </c>
@@ -3160,7 +3166,7 @@
       <c r="S27" s="25"/>
       <c r="T27" s="25"/>
     </row>
-    <row r="28" customFormat="1" ht="15.75" spans="1:20">
+    <row r="28" customFormat="1" ht="15" spans="1:20">
       <c r="A28" s="6" t="s">
         <v>20</v>
       </c>
@@ -3214,7 +3220,7 @@
       <c r="S28" s="17"/>
       <c r="T28" s="17"/>
     </row>
-    <row r="29" customFormat="1" ht="15.75" spans="1:18">
+    <row r="29" customFormat="1" ht="15" spans="1:18">
       <c r="A29" s="6" t="s">
         <v>20</v>
       </c>
@@ -3256,7 +3262,7 @@
       <c r="Q29" s="17"/>
       <c r="R29" s="17"/>
     </row>
-    <row r="30" customFormat="1" ht="15.75" spans="1:20">
+    <row r="30" customFormat="1" ht="15" spans="1:20">
       <c r="A30" s="6" t="s">
         <v>116</v>
       </c>
@@ -3310,7 +3316,7 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
     </row>
-    <row r="31" customFormat="1" ht="15.75" spans="1:20">
+    <row r="31" customFormat="1" ht="15" spans="1:20">
       <c r="A31" s="6" t="s">
         <v>20</v>
       </c>
@@ -3372,7 +3378,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="32" customFormat="1" ht="15.75" spans="1:20">
+    <row r="32" customFormat="1" ht="15" spans="1:20">
       <c r="A32" s="5" t="s">
         <v>20</v>
       </c>
@@ -3434,7 +3440,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="33" customFormat="1" ht="15.75" spans="1:20">
+    <row r="33" customFormat="1" ht="15" spans="1:20">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -3462,7 +3468,7 @@
       <c r="S33" s="22"/>
       <c r="T33" s="22"/>
     </row>
-    <row r="34" customFormat="1" ht="15.75" spans="1:20">
+    <row r="34" customFormat="1" ht="15" spans="1:20">
       <c r="A34" s="6" t="s">
         <v>20</v>
       </c>
@@ -3518,7 +3524,7 @@
       <c r="S34" s="17"/>
       <c r="T34" s="17"/>
     </row>
-    <row r="35" customFormat="1" ht="15.75" spans="1:20">
+    <row r="35" customFormat="1" ht="15" spans="1:20">
       <c r="A35" s="5" t="s">
         <v>20</v>
       </c>
@@ -3580,7 +3586,7 @@
         <v>45670</v>
       </c>
     </row>
-    <row r="36" customFormat="1" ht="15.75" spans="1:20">
+    <row r="36" customFormat="1" ht="15" spans="1:20">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -3622,7 +3628,7 @@
         <v>45691</v>
       </c>
     </row>
-    <row r="37" customFormat="1" ht="15.75" spans="1:20">
+    <row r="37" customFormat="1" ht="15" spans="1:20">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -3664,7 +3670,7 @@
         <v>45712</v>
       </c>
     </row>
-    <row r="38" customFormat="1" ht="15.75" spans="1:20">
+    <row r="38" customFormat="1" ht="15" spans="1:20">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -3693,7 +3699,7 @@
       <c r="S38" s="22"/>
       <c r="T38" s="22"/>
     </row>
-    <row r="39" customFormat="1" ht="15.75" spans="1:20">
+    <row r="39" customFormat="1" ht="15" spans="1:20">
       <c r="A39" s="5" t="s">
         <v>20</v>
       </c>
@@ -3755,7 +3761,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="40" customFormat="1" ht="15.75" spans="1:20">
+    <row r="40" customFormat="1" ht="15" spans="1:20">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -3797,7 +3803,7 @@
         <v>45718</v>
       </c>
     </row>
-    <row r="41" customFormat="1" ht="15.75" spans="1:13">
+    <row r="41" customFormat="1" ht="15" spans="1:13">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -3818,7 +3824,7 @@
         <v>45746</v>
       </c>
     </row>
-    <row r="42" customFormat="1" ht="15.75" spans="1:20">
+    <row r="42" customFormat="1" ht="15" spans="1:20">
       <c r="A42" s="5" t="s">
         <v>20</v>
       </c>
@@ -3880,7 +3886,7 @@
         <v>45623</v>
       </c>
     </row>
-    <row r="43" customFormat="1" ht="15.75" spans="1:20">
+    <row r="43" customFormat="1" ht="15" spans="1:20">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -3922,7 +3928,7 @@
         <v>45703</v>
       </c>
     </row>
-    <row r="44" customFormat="1" ht="15.75" spans="1:20">
+    <row r="44" customFormat="1" ht="15" spans="1:20">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -4000,7 +4006,7 @@
       <c r="S45" s="22"/>
       <c r="T45" s="22"/>
     </row>
-    <row r="46" customFormat="1" ht="15.75" spans="1:20">
+    <row r="46" customFormat="1" ht="15" spans="1:20">
       <c r="A46" s="5" t="s">
         <v>20</v>
       </c>
@@ -4062,7 +4068,7 @@
         <v>45620</v>
       </c>
     </row>
-    <row r="47" customFormat="1" ht="15.75" spans="1:20">
+    <row r="47" customFormat="1" ht="15" spans="1:20">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -4104,7 +4110,7 @@
         <v>45746</v>
       </c>
     </row>
-    <row r="48" customFormat="1" ht="15.75" spans="1:20">
+    <row r="48" customFormat="1" ht="15" spans="1:20">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -4136,7 +4142,7 @@
       <c r="S48" s="22"/>
       <c r="T48" s="22"/>
     </row>
-    <row r="49" s="2" customFormat="1" ht="15.75" spans="1:16">
+    <row r="49" s="2" customFormat="1" ht="15" spans="1:16">
       <c r="A49" s="2" t="s">
         <v>20</v>
       </c>
@@ -4186,7 +4192,7 @@
         <v>45823</v>
       </c>
     </row>
-    <row r="50" customFormat="1" ht="15.75" spans="1:20">
+    <row r="50" customFormat="1" ht="15" spans="1:20">
       <c r="A50" s="5" t="s">
         <v>20</v>
       </c>
@@ -4248,7 +4254,7 @@
         <v>45746</v>
       </c>
     </row>
-    <row r="51" customFormat="1" ht="15.75" spans="1:20">
+    <row r="51" customFormat="1" ht="15" spans="1:20">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -4290,7 +4296,7 @@
         <v>45787</v>
       </c>
     </row>
-    <row r="52" customFormat="1" ht="15.75" spans="1:20">
+    <row r="52" customFormat="1" ht="15" spans="1:20">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -4332,7 +4338,7 @@
         <v>45822</v>
       </c>
     </row>
-    <row r="53" customFormat="1" ht="15.75" spans="1:12">
+    <row r="53" customFormat="1" ht="15" spans="1:12">
       <c r="A53" s="5" t="s">
         <v>20</v>
       </c>
@@ -4370,7 +4376,7 @@
         <v>45817</v>
       </c>
     </row>
-    <row r="54" customFormat="1" ht="15.75" spans="1:20">
+    <row r="54" customFormat="1" ht="15" spans="1:20">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -4392,7 +4398,7 @@
       <c r="S54" s="22"/>
       <c r="T54" s="22"/>
     </row>
-    <row r="55" customFormat="1" ht="15.75" spans="1:20">
+    <row r="55" customFormat="1" ht="15" spans="1:20">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -4414,7 +4420,7 @@
       <c r="S55" s="22"/>
       <c r="T55" s="22"/>
     </row>
-    <row r="56" customFormat="1" ht="15.75" spans="1:20">
+    <row r="56" customFormat="1" ht="15" spans="1:20">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -4436,7 +4442,7 @@
       <c r="S56" s="22"/>
       <c r="T56" s="22"/>
     </row>
-    <row r="57" customFormat="1" ht="15.75" spans="1:20">
+    <row r="57" customFormat="1" ht="15" spans="1:20">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -4458,7 +4464,7 @@
       <c r="S57" s="22"/>
       <c r="T57" s="22"/>
     </row>
-    <row r="58" customFormat="1" ht="15.75" spans="1:20">
+    <row r="58" customFormat="1" ht="15" spans="1:20">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -4480,7 +4486,7 @@
       <c r="S58" s="27"/>
       <c r="T58" s="27"/>
     </row>
-    <row r="59" customFormat="1" ht="15.75" spans="1:20">
+    <row r="59" customFormat="1" ht="15" spans="1:20">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -4502,7 +4508,7 @@
       <c r="S59" s="27"/>
       <c r="T59" s="27"/>
     </row>
-    <row r="60" customFormat="1" ht="15.75" spans="1:20">
+    <row r="60" customFormat="1" ht="15" spans="1:20">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -1189,7 +1189,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1266,9 +1266,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1595,7 +1592,7 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1674,7 +1671,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15" spans="1:14">
+    <row r="2" customFormat="1" ht="15" spans="1:15">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -1714,8 +1711,11 @@
       <c r="M2" s="21">
         <v>46018</v>
       </c>
-      <c r="N2" s="29">
+      <c r="N2" s="22">
         <v>46025</v>
+      </c>
+      <c r="O2" s="22">
+        <v>46032</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="15"/>
@@ -1756,10 +1756,10 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
     </row>
     <row r="19" ht="17.5" spans="2:13">
       <c r="B19" s="9"/>
@@ -1770,10 +1770,10 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
     </row>
     <row r="20" ht="17.5" spans="2:12">
       <c r="B20" s="9"/>
@@ -1784,8 +1784,8 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
     </row>
     <row r="21" ht="17.5" spans="2:13">
       <c r="B21" s="9"/>
@@ -1796,10 +1796,10 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
     </row>
     <row r="22" ht="17.5" spans="2:13">
       <c r="B22" s="9"/>
@@ -1810,10 +1810,10 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Sideline/家教带课记录.xlsx
+++ b/Sideline/家教带课记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12330"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Doing" sheetId="1" r:id="rId1"/>
@@ -1592,24 +1592,24 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="5.58181818181818" customWidth="1"/>
-    <col min="3" max="3" width="11.1818181818182" customWidth="1"/>
+    <col min="1" max="2" width="5.58333333333333" customWidth="1"/>
+    <col min="3" max="3" width="11.1833333333333" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="20.8181818181818" customWidth="1"/>
+    <col min="5" max="5" width="20.8166666666667" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
-    <col min="7" max="7" width="26.5454545454545" customWidth="1"/>
-    <col min="8" max="8" width="9.87272727272727" customWidth="1"/>
-    <col min="9" max="9" width="9.12727272727273" customWidth="1"/>
-    <col min="10" max="10" width="10.8363636363636" customWidth="1"/>
+    <col min="7" max="7" width="26.5416666666667" customWidth="1"/>
+    <col min="8" max="8" width="9.875" customWidth="1"/>
+    <col min="9" max="9" width="9.125" customWidth="1"/>
+    <col min="10" max="10" width="10.8333333333333" customWidth="1"/>
     <col min="11" max="20" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:20">
+    <row r="1" ht="15.75" spans="1:20">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15" spans="1:15">
+    <row r="2" customFormat="1" ht="15.75" spans="1:15">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -1711,19 +1711,19 @@
       <c r="M2" s="21">
         <v>46018</v>
       </c>
-      <c r="N2" s="22">
+      <c r="N2" s="21">
         <v>46025</v>
       </c>
-      <c r="O2" s="22">
+      <c r="O2" s="21">
         <v>46032</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="15"/>
-    <row r="12" s="2" customFormat="1" ht="15"/>
-    <row r="13" s="2" customFormat="1" ht="15"/>
-    <row r="14" s="2" customFormat="1" ht="15"/>
-    <row r="15" s="2" customFormat="1" ht="15"/>
-    <row r="16" s="2" customFormat="1" ht="15" spans="1:9">
+    <row r="11" s="2" customFormat="1" ht="15.75"/>
+    <row r="12" s="2" customFormat="1" ht="15.75"/>
+    <row r="13" s="2" customFormat="1" ht="15.75"/>
+    <row r="14" s="2" customFormat="1" ht="15.75"/>
+    <row r="15" s="2" customFormat="1" ht="15.75"/>
+    <row r="16" s="2" customFormat="1" ht="15.75" spans="1:9">
       <c r="A16" s="28"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
@@ -1734,7 +1734,7 @@
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
     </row>
-    <row r="17" s="2" customFormat="1" ht="15" spans="1:9">
+    <row r="17" s="2" customFormat="1" ht="15.75" spans="1:9">
       <c r="A17" s="28"/>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
@@ -1745,7 +1745,7 @@
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
     </row>
-    <row r="18" ht="17.5" spans="2:13">
+    <row r="18" ht="18.75" spans="2:13">
       <c r="B18" s="9" t="s">
         <v>30</v>
       </c>
@@ -1761,7 +1761,7 @@
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
     </row>
-    <row r="19" ht="17.5" spans="2:13">
+    <row r="19" ht="18.75" spans="2:13">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -1775,7 +1775,7 @@
       <c r="L19" s="29"/>
       <c r="M19" s="29"/>
     </row>
-    <row r="20" ht="17.5" spans="2:12">
+    <row r="20" ht="18.75" spans="2:12">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -1787,7 +1787,7 @@
       <c r="K20" s="29"/>
       <c r="L20" s="29"/>
     </row>
-    <row r="21" ht="17.5" spans="2:13">
+    <row r="21" ht="18.75" spans="2:13">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1801,7 +1801,7 @@
       <c r="L21" s="29"/>
       <c r="M21" s="29"/>
     </row>
-    <row r="22" ht="17.5" spans="2:13">
+    <row r="22" ht="18.75" spans="2:13">
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1834,22 +1834,22 @@
       <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="4.58181818181818" customWidth="1"/>
-    <col min="3" max="3" width="10.8727272727273" customWidth="1"/>
-    <col min="4" max="4" width="17.7272727272727" customWidth="1"/>
-    <col min="5" max="5" width="23.1818181818182" customWidth="1"/>
-    <col min="6" max="6" width="7.33636363636364" customWidth="1"/>
-    <col min="7" max="7" width="27.1272727272727" customWidth="1"/>
-    <col min="8" max="9" width="9.58181818181818" customWidth="1"/>
-    <col min="10" max="10" width="10.6272727272727" customWidth="1"/>
-    <col min="11" max="20" width="11.2727272727273" customWidth="1"/>
-    <col min="21" max="21" width="10.7545454545455" customWidth="1"/>
+    <col min="1" max="2" width="4.58333333333333" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="17.725" customWidth="1"/>
+    <col min="5" max="5" width="23.1833333333333" customWidth="1"/>
+    <col min="6" max="6" width="7.33333333333333" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+    <col min="8" max="9" width="9.58333333333333" customWidth="1"/>
+    <col min="10" max="10" width="10.625" customWidth="1"/>
+    <col min="11" max="20" width="11.275" customWidth="1"/>
+    <col min="21" max="21" width="10.7583333333333" customWidth="1"/>
     <col min="22" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:21">
+    <row r="1" ht="15.75" spans="1:21">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15" spans="1:21">
+    <row r="2" customFormat="1" ht="15.75" spans="1:21">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15" spans="1:19">
+    <row r="3" customFormat="1" ht="15.75" spans="1:19">
       <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15" spans="1:11">
+    <row r="4" customFormat="1" ht="15.75" spans="1:11">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15" spans="1:20">
+    <row r="5" customFormat="1" ht="15.75" spans="1:20">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" customFormat="1" ht="15" spans="1:20">
+    <row r="6" customFormat="1" ht="15.75" spans="1:20">
       <c r="A6" s="5" t="s">
         <v>39</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15" spans="1:20">
+    <row r="7" customFormat="1" ht="15.75" spans="1:20">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
@@ -2282,7 +2282,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
     </row>
-    <row r="9" customFormat="1" ht="15" spans="1:20">
+    <row r="9" customFormat="1" ht="15.75" spans="1:20">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15" spans="1:20">
+    <row r="10" customFormat="1" ht="15.75" spans="1:20">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2386,7 +2386,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15" spans="1:20">
+    <row r="11" customFormat="1" ht="15.75" spans="1:20">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -2428,7 +2428,7 @@
         <v>45445</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15" spans="1:20">
+    <row r="12" customFormat="1" ht="15.75" spans="1:20">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -2452,7 +2452,7 @@
       <c r="S12" s="19"/>
       <c r="T12" s="19"/>
     </row>
-    <row r="13" customFormat="1" ht="15" spans="1:20">
+    <row r="13" customFormat="1" ht="15.75" spans="1:20">
       <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="15" spans="1:20">
+    <row r="14" customFormat="1" ht="15.75" spans="1:20">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -2538,7 +2538,7 @@
       <c r="S14" s="17"/>
       <c r="T14" s="19"/>
     </row>
-    <row r="15" customFormat="1" ht="15" spans="1:20">
+    <row r="15" customFormat="1" ht="15.75" spans="1:20">
       <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
@@ -2594,7 +2594,7 @@
       <c r="S15" s="17"/>
       <c r="T15" s="19"/>
     </row>
-    <row r="16" customFormat="1" ht="15" spans="1:20">
+    <row r="16" customFormat="1" ht="15.75" spans="1:20">
       <c r="A16" s="6" t="s">
         <v>20</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="15" spans="1:20">
+    <row r="17" customFormat="1" ht="15.75" spans="1:20">
       <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="15" spans="1:20">
+    <row r="18" customFormat="1" ht="15.75" spans="1:20">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -2750,7 +2750,7 @@
       <c r="S18" s="17"/>
       <c r="T18" s="17"/>
     </row>
-    <row r="19" customFormat="1" ht="15" spans="1:20">
+    <row r="19" customFormat="1" ht="15.75" spans="1:20">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>45451</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="15" spans="1:20">
+    <row r="20" customFormat="1" ht="15.75" spans="1:20">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -2844,7 +2844,7 @@
       <c r="S20" s="17"/>
       <c r="T20" s=